--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.16709</v>
+        <v>0.643925</v>
       </c>
       <c r="C2" t="n">
-        <v>0.18801</v>
+        <v>0.595847</v>
       </c>
       <c r="D2" t="n">
-        <v>0.181951</v>
+        <v>0.58431</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.171599</v>
+        <v>0.650492</v>
       </c>
       <c r="C3" t="n">
-        <v>0.191203</v>
+        <v>0.581773</v>
       </c>
       <c r="D3" t="n">
-        <v>0.183198</v>
+        <v>0.585329</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.177856</v>
+        <v>0.654722</v>
       </c>
       <c r="C4" t="n">
-        <v>0.199274</v>
+        <v>0.620313</v>
       </c>
       <c r="D4" t="n">
-        <v>0.18613</v>
+        <v>0.59735</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.186768</v>
+        <v>0.656291</v>
       </c>
       <c r="C5" t="n">
-        <v>0.209062</v>
+        <v>0.61234</v>
       </c>
       <c r="D5" t="n">
-        <v>0.188283</v>
+        <v>0.602531</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.194787</v>
+        <v>0.6629119999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.225417</v>
+        <v>0.616249</v>
       </c>
       <c r="D6" t="n">
-        <v>0.193689</v>
+        <v>0.611422</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.213989</v>
+        <v>0.690696</v>
       </c>
       <c r="C7" t="n">
-        <v>0.249344</v>
+        <v>0.627055</v>
       </c>
       <c r="D7" t="n">
-        <v>0.202545</v>
+        <v>0.624042</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.245645</v>
+        <v>0.703854</v>
       </c>
       <c r="C8" t="n">
-        <v>0.279195</v>
+        <v>0.65932</v>
       </c>
       <c r="D8" t="n">
-        <v>0.213892</v>
+        <v>0.643088</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.294625</v>
+        <v>0.722325</v>
       </c>
       <c r="C9" t="n">
-        <v>0.32626</v>
+        <v>0.689537</v>
       </c>
       <c r="D9" t="n">
-        <v>0.177508</v>
+        <v>0.596761</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.159264</v>
+        <v>0.6536380000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.174623</v>
+        <v>0.593561</v>
       </c>
       <c r="D10" t="n">
-        <v>0.178137</v>
+        <v>0.589537</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.160162</v>
+        <v>0.659031</v>
       </c>
       <c r="C11" t="n">
-        <v>0.175383</v>
+        <v>0.589016</v>
       </c>
       <c r="D11" t="n">
-        <v>0.178506</v>
+        <v>0.6185</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.16142</v>
+        <v>0.679742</v>
       </c>
       <c r="C12" t="n">
-        <v>0.176524</v>
+        <v>0.6046319999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.178763</v>
+        <v>0.583207</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.16236</v>
+        <v>0.665586</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1778</v>
+        <v>0.599878</v>
       </c>
       <c r="D13" t="n">
-        <v>0.178424</v>
+        <v>0.586009</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.164267</v>
+        <v>0.653268</v>
       </c>
       <c r="C14" t="n">
-        <v>0.180455</v>
+        <v>0.5850919999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.179441</v>
+        <v>0.612268</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.166272</v>
+        <v>0.66332</v>
       </c>
       <c r="C15" t="n">
-        <v>0.18321</v>
+        <v>0.599445</v>
       </c>
       <c r="D15" t="n">
-        <v>0.180221</v>
+        <v>0.59631</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.169482</v>
+        <v>0.677642</v>
       </c>
       <c r="C16" t="n">
-        <v>0.187392</v>
+        <v>0.594787</v>
       </c>
       <c r="D16" t="n">
-        <v>0.180858</v>
+        <v>0.586998</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.173273</v>
+        <v>0.663561</v>
       </c>
       <c r="C17" t="n">
-        <v>0.191875</v>
+        <v>0.602997</v>
       </c>
       <c r="D17" t="n">
-        <v>0.18221</v>
+        <v>0.591287</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.179109</v>
+        <v>0.660165</v>
       </c>
       <c r="C18" t="n">
-        <v>0.197734</v>
+        <v>0.637853</v>
       </c>
       <c r="D18" t="n">
-        <v>0.18409</v>
+        <v>0.597816</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.187409</v>
+        <v>0.678689</v>
       </c>
       <c r="C19" t="n">
-        <v>0.205517</v>
+        <v>0.60334</v>
       </c>
       <c r="D19" t="n">
-        <v>0.186609</v>
+        <v>0.614686</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.199295</v>
+        <v>0.675216</v>
       </c>
       <c r="C20" t="n">
-        <v>0.218672</v>
+        <v>0.616576</v>
       </c>
       <c r="D20" t="n">
-        <v>0.190388</v>
+        <v>0.606494</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.219332</v>
+        <v>0.681086</v>
       </c>
       <c r="C21" t="n">
-        <v>0.236583</v>
+        <v>0.647929</v>
       </c>
       <c r="D21" t="n">
-        <v>0.195874</v>
+        <v>0.632952</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.248382</v>
+        <v>0.719986</v>
       </c>
       <c r="C22" t="n">
-        <v>0.262726</v>
+        <v>0.659116</v>
       </c>
       <c r="D22" t="n">
-        <v>0.206574</v>
+        <v>0.644147</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.293817</v>
+        <v>0.7532180000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.31152</v>
+        <v>0.706688</v>
       </c>
       <c r="D23" t="n">
-        <v>0.177252</v>
+        <v>0.595008</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.161647</v>
+        <v>0.680156</v>
       </c>
       <c r="C24" t="n">
-        <v>0.174274</v>
+        <v>0.593338</v>
       </c>
       <c r="D24" t="n">
-        <v>0.177554</v>
+        <v>0.603687</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.162373</v>
+        <v>0.6905480000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.174488</v>
+        <v>0.587029</v>
       </c>
       <c r="D25" t="n">
-        <v>0.177621</v>
+        <v>0.591112</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.163239</v>
+        <v>0.682389</v>
       </c>
       <c r="C26" t="n">
-        <v>0.175476</v>
+        <v>0.580487</v>
       </c>
       <c r="D26" t="n">
-        <v>0.177747</v>
+        <v>0.608534</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.164443</v>
+        <v>0.675396</v>
       </c>
       <c r="C27" t="n">
-        <v>0.177044</v>
+        <v>0.591097</v>
       </c>
       <c r="D27" t="n">
-        <v>0.178303</v>
+        <v>0.605026</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.165967</v>
+        <v>0.664041</v>
       </c>
       <c r="C28" t="n">
-        <v>0.178767</v>
+        <v>0.61532</v>
       </c>
       <c r="D28" t="n">
-        <v>0.178566</v>
+        <v>0.594679</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.168132</v>
+        <v>0.694329</v>
       </c>
       <c r="C29" t="n">
-        <v>0.181902</v>
+        <v>0.588537</v>
       </c>
       <c r="D29" t="n">
-        <v>0.179207</v>
+        <v>0.602934</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.170997</v>
+        <v>0.698738</v>
       </c>
       <c r="C30" t="n">
-        <v>0.18466</v>
+        <v>0.614918</v>
       </c>
       <c r="D30" t="n">
-        <v>0.180056</v>
+        <v>0.628847</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.174539</v>
+        <v>0.724543</v>
       </c>
       <c r="C31" t="n">
-        <v>0.189285</v>
+        <v>0.616779</v>
       </c>
       <c r="D31" t="n">
-        <v>0.181065</v>
+        <v>0.625215</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.18009</v>
+        <v>0.691073</v>
       </c>
       <c r="C32" t="n">
-        <v>0.194497</v>
+        <v>0.637137</v>
       </c>
       <c r="D32" t="n">
-        <v>0.182711</v>
+        <v>0.617228</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.187682</v>
+        <v>0.6912199999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.203544</v>
+        <v>0.6149210000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.185148</v>
+        <v>0.625972</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.198147</v>
+        <v>0.676077</v>
       </c>
       <c r="C34" t="n">
-        <v>0.214618</v>
+        <v>0.628948</v>
       </c>
       <c r="D34" t="n">
-        <v>0.18832</v>
+        <v>0.632047</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.21523</v>
+        <v>0.741803</v>
       </c>
       <c r="C35" t="n">
-        <v>0.231105</v>
+        <v>0.651789</v>
       </c>
       <c r="D35" t="n">
-        <v>0.193093</v>
+        <v>0.647855</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.243416</v>
+        <v>0.705731</v>
       </c>
       <c r="C36" t="n">
-        <v>0.258401</v>
+        <v>0.665264</v>
       </c>
       <c r="D36" t="n">
-        <v>0.202664</v>
+        <v>0.649078</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.28537</v>
+        <v>0.730375</v>
       </c>
       <c r="C37" t="n">
-        <v>0.299455</v>
+        <v>0.689137</v>
       </c>
       <c r="D37" t="n">
-        <v>0.177752</v>
+        <v>0.601143</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.162722</v>
+        <v>0.683233</v>
       </c>
       <c r="C38" t="n">
-        <v>0.174354</v>
+        <v>0.594693</v>
       </c>
       <c r="D38" t="n">
-        <v>0.177894</v>
+        <v>0.603977</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.163606</v>
+        <v>0.695195</v>
       </c>
       <c r="C39" t="n">
-        <v>0.175409</v>
+        <v>0.597117</v>
       </c>
       <c r="D39" t="n">
-        <v>0.178177</v>
+        <v>0.607672</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.164479</v>
+        <v>0.698996</v>
       </c>
       <c r="C40" t="n">
-        <v>0.17664</v>
+        <v>0.597633</v>
       </c>
       <c r="D40" t="n">
-        <v>0.178396</v>
+        <v>0.605801</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.165528</v>
+        <v>0.723762</v>
       </c>
       <c r="C41" t="n">
-        <v>0.177862</v>
+        <v>0.614459</v>
       </c>
       <c r="D41" t="n">
-        <v>0.178762</v>
+        <v>0.624411</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.167189</v>
+        <v>0.698242</v>
       </c>
       <c r="C42" t="n">
-        <v>0.179319</v>
+        <v>0.6309979999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.179245</v>
+        <v>0.611182</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.169016</v>
+        <v>0.699043</v>
       </c>
       <c r="C43" t="n">
-        <v>0.181457</v>
+        <v>0.6251910000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.179642</v>
+        <v>0.599438</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.171651</v>
+        <v>0.722952</v>
       </c>
       <c r="C44" t="n">
-        <v>0.184794</v>
+        <v>0.608648</v>
       </c>
       <c r="D44" t="n">
-        <v>0.180521</v>
+        <v>0.627781</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.175213</v>
+        <v>0.6884209999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.188967</v>
+        <v>0.609258</v>
       </c>
       <c r="D45" t="n">
-        <v>0.181627</v>
+        <v>0.624577</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.17978</v>
+        <v>0.689195</v>
       </c>
       <c r="C46" t="n">
-        <v>0.194742</v>
+        <v>0.62007</v>
       </c>
       <c r="D46" t="n">
-        <v>0.183413</v>
+        <v>0.617772</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.187155</v>
+        <v>0.72251</v>
       </c>
       <c r="C47" t="n">
-        <v>0.202796</v>
+        <v>0.6310789999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.185572</v>
+        <v>0.619896</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.197556</v>
+        <v>0.687812</v>
       </c>
       <c r="C48" t="n">
-        <v>0.214158</v>
+        <v>0.621234</v>
       </c>
       <c r="D48" t="n">
-        <v>0.188755</v>
+        <v>0.634365</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.213531</v>
+        <v>0.711161</v>
       </c>
       <c r="C49" t="n">
-        <v>0.230271</v>
+        <v>0.641168</v>
       </c>
       <c r="D49" t="n">
-        <v>0.193398</v>
+        <v>0.640271</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.237503</v>
+        <v>0.707632</v>
       </c>
       <c r="C50" t="n">
-        <v>0.257539</v>
+        <v>0.669457</v>
       </c>
       <c r="D50" t="n">
-        <v>0.201959</v>
+        <v>0.647443</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.275652</v>
+        <v>0.757539</v>
       </c>
       <c r="C51" t="n">
-        <v>0.293274</v>
+        <v>0.713927</v>
       </c>
       <c r="D51" t="n">
-        <v>0.177691</v>
+        <v>0.615322</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.333023</v>
+        <v>0.791111</v>
       </c>
       <c r="C52" t="n">
-        <v>0.350867</v>
+        <v>0.7125280000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.178002</v>
+        <v>0.610004</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.166684</v>
+        <v>0.70839</v>
       </c>
       <c r="C53" t="n">
-        <v>0.176758</v>
+        <v>0.618095</v>
       </c>
       <c r="D53" t="n">
-        <v>0.178324</v>
+        <v>0.658152</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.167606</v>
+        <v>0.694744</v>
       </c>
       <c r="C54" t="n">
-        <v>0.177859</v>
+        <v>0.613123</v>
       </c>
       <c r="D54" t="n">
-        <v>0.17872</v>
+        <v>0.619054</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.168531</v>
+        <v>0.707421</v>
       </c>
       <c r="C55" t="n">
-        <v>0.179232</v>
+        <v>0.6138710000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.179186</v>
+        <v>0.630652</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.170067</v>
+        <v>0.7084859999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.180945</v>
+        <v>0.618899</v>
       </c>
       <c r="D56" t="n">
-        <v>0.179762</v>
+        <v>0.620213</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.171884</v>
+        <v>0.706425</v>
       </c>
       <c r="C57" t="n">
-        <v>0.183248</v>
+        <v>0.616057</v>
       </c>
       <c r="D57" t="n">
-        <v>0.180407</v>
+        <v>0.616798</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.174422</v>
+        <v>0.725844</v>
       </c>
       <c r="C58" t="n">
-        <v>0.186553</v>
+        <v>0.632508</v>
       </c>
       <c r="D58" t="n">
-        <v>0.181274</v>
+        <v>0.62468</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.177735</v>
+        <v>0.741073</v>
       </c>
       <c r="C59" t="n">
-        <v>0.190907</v>
+        <v>0.627957</v>
       </c>
       <c r="D59" t="n">
-        <v>0.182377</v>
+        <v>0.632421</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.182599</v>
+        <v>0.749613</v>
       </c>
       <c r="C60" t="n">
-        <v>0.19622</v>
+        <v>0.623003</v>
       </c>
       <c r="D60" t="n">
-        <v>0.183865</v>
+        <v>0.619949</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.188922</v>
+        <v>0.711303</v>
       </c>
       <c r="C61" t="n">
-        <v>0.203884</v>
+        <v>0.64092</v>
       </c>
       <c r="D61" t="n">
-        <v>0.18586</v>
+        <v>0.650381</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.198399</v>
+        <v>0.735768</v>
       </c>
       <c r="C62" t="n">
-        <v>0.214577</v>
+        <v>0.639445</v>
       </c>
       <c r="D62" t="n">
-        <v>0.188892</v>
+        <v>0.636787</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.213027</v>
+        <v>0.737991</v>
       </c>
       <c r="C63" t="n">
-        <v>0.230358</v>
+        <v>0.657076</v>
       </c>
       <c r="D63" t="n">
-        <v>0.194006</v>
+        <v>0.677215</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.235067</v>
+        <v>0.7514189999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.25435</v>
+        <v>0.682738</v>
       </c>
       <c r="D64" t="n">
-        <v>0.201855</v>
+        <v>0.657293</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.268286</v>
+        <v>0.766078</v>
       </c>
       <c r="C65" t="n">
-        <v>0.290711</v>
+        <v>0.7002429999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.216172</v>
+        <v>0.70306</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.32026</v>
+        <v>0.818808</v>
       </c>
       <c r="C66" t="n">
-        <v>0.343419</v>
+        <v>0.797395</v>
       </c>
       <c r="D66" t="n">
-        <v>0.185751</v>
+        <v>0.635651</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.185214</v>
+        <v>0.736822</v>
       </c>
       <c r="C67" t="n">
-        <v>0.188184</v>
+        <v>0.6597769999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.187054</v>
+        <v>0.652015</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.18623</v>
+        <v>0.742919</v>
       </c>
       <c r="C68" t="n">
-        <v>0.188924</v>
+        <v>0.643801</v>
       </c>
       <c r="D68" t="n">
-        <v>0.18673</v>
+        <v>0.65673</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.186913</v>
+        <v>0.79093</v>
       </c>
       <c r="C69" t="n">
-        <v>0.190716</v>
+        <v>0.658962</v>
       </c>
       <c r="D69" t="n">
-        <v>0.187346</v>
+        <v>0.640539</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.188392</v>
+        <v>0.762748</v>
       </c>
       <c r="C70" t="n">
-        <v>0.192766</v>
+        <v>0.657979</v>
       </c>
       <c r="D70" t="n">
-        <v>0.18799</v>
+        <v>0.643127</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.19006</v>
+        <v>0.728773</v>
       </c>
       <c r="C71" t="n">
-        <v>0.195481</v>
+        <v>0.662633</v>
       </c>
       <c r="D71" t="n">
-        <v>0.188791</v>
+        <v>0.6517579999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.192371</v>
+        <v>0.749587</v>
       </c>
       <c r="C72" t="n">
-        <v>0.198836</v>
+        <v>0.67782</v>
       </c>
       <c r="D72" t="n">
-        <v>0.189814</v>
+        <v>0.641799</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.195423</v>
+        <v>0.759361</v>
       </c>
       <c r="C73" t="n">
-        <v>0.20329</v>
+        <v>0.652079</v>
       </c>
       <c r="D73" t="n">
-        <v>0.191162</v>
+        <v>0.647478</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.199606</v>
+        <v>0.7617159999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.209195</v>
+        <v>0.664412</v>
       </c>
       <c r="D74" t="n">
-        <v>0.192822</v>
+        <v>0.661433</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.205732</v>
+        <v>0.79238</v>
       </c>
       <c r="C75" t="n">
-        <v>0.217544</v>
+        <v>0.6790580000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.195221</v>
+        <v>0.69098</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.214462</v>
+        <v>0.7677349999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.228673</v>
+        <v>0.695074</v>
       </c>
       <c r="D76" t="n">
-        <v>0.198701</v>
+        <v>0.672837</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.227014</v>
+        <v>0.784261</v>
       </c>
       <c r="C77" t="n">
-        <v>0.244104</v>
+        <v>0.70299</v>
       </c>
       <c r="D77" t="n">
-        <v>0.203674</v>
+        <v>0.686094</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.2461</v>
+        <v>0.828001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.266734</v>
+        <v>0.729178</v>
       </c>
       <c r="D78" t="n">
-        <v>0.212168</v>
+        <v>0.697627</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.277256</v>
+        <v>0.811611</v>
       </c>
       <c r="C79" t="n">
-        <v>0.301201</v>
+        <v>0.751043</v>
       </c>
       <c r="D79" t="n">
-        <v>0.225314</v>
+        <v>0.721396</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.324182</v>
+        <v>0.851096</v>
       </c>
       <c r="C80" t="n">
-        <v>0.350645</v>
+        <v>0.7924099999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.20525</v>
+        <v>0.680974</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.203176</v>
+        <v>0.772382</v>
       </c>
       <c r="C81" t="n">
-        <v>0.205711</v>
+        <v>0.7033</v>
       </c>
       <c r="D81" t="n">
-        <v>0.205434</v>
+        <v>0.644878</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.204121</v>
+        <v>0.775511</v>
       </c>
       <c r="C82" t="n">
-        <v>0.206759</v>
+        <v>0.676069</v>
       </c>
       <c r="D82" t="n">
-        <v>0.205888</v>
+        <v>0.650092</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.205208</v>
+        <v>0.77952</v>
       </c>
       <c r="C83" t="n">
-        <v>0.208044</v>
+        <v>0.693917</v>
       </c>
       <c r="D83" t="n">
-        <v>0.20641</v>
+        <v>0.667709</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.206464</v>
+        <v>0.788378</v>
       </c>
       <c r="C84" t="n">
-        <v>0.209822</v>
+        <v>0.686117</v>
       </c>
       <c r="D84" t="n">
-        <v>0.207031</v>
+        <v>0.684208</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.208038</v>
+        <v>0.799327</v>
       </c>
       <c r="C85" t="n">
-        <v>0.211869</v>
+        <v>0.692431</v>
       </c>
       <c r="D85" t="n">
-        <v>0.207654</v>
+        <v>0.667889</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.210016</v>
+        <v>0.802898</v>
       </c>
       <c r="C86" t="n">
-        <v>0.214573</v>
+        <v>0.703669</v>
       </c>
       <c r="D86" t="n">
-        <v>0.208559</v>
+        <v>0.686696</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.212769</v>
+        <v>0.783789</v>
       </c>
       <c r="C87" t="n">
-        <v>0.218305</v>
+        <v>0.701637</v>
       </c>
       <c r="D87" t="n">
-        <v>0.209697</v>
+        <v>0.679983</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.216507</v>
+        <v>0.789348</v>
       </c>
       <c r="C88" t="n">
-        <v>0.223495</v>
+        <v>0.73378</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211211</v>
+        <v>0.685223</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.221821</v>
+        <v>0.812288</v>
       </c>
       <c r="C89" t="n">
-        <v>0.231006</v>
+        <v>0.712439</v>
       </c>
       <c r="D89" t="n">
-        <v>0.213583</v>
+        <v>0.68104</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.229532</v>
+        <v>0.811516</v>
       </c>
       <c r="C90" t="n">
-        <v>0.240953</v>
+        <v>0.741212</v>
       </c>
       <c r="D90" t="n">
-        <v>0.216837</v>
+        <v>0.701359</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.241075</v>
+        <v>0.86528</v>
       </c>
       <c r="C91" t="n">
-        <v>0.255088</v>
+        <v>0.734959</v>
       </c>
       <c r="D91" t="n">
-        <v>0.221517</v>
+        <v>0.725332</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.258641</v>
+        <v>0.848986</v>
       </c>
       <c r="C92" t="n">
-        <v>0.275379</v>
+        <v>0.768377</v>
       </c>
       <c r="D92" t="n">
-        <v>0.229128</v>
+        <v>0.7248830000000001</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.28644</v>
+        <v>0.8610950000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>0.306991</v>
+        <v>0.8042589999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>0.241745</v>
+        <v>0.740991</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.330025</v>
+        <v>0.903048</v>
       </c>
       <c r="C94" t="n">
-        <v>0.355154</v>
+        <v>0.848529</v>
       </c>
       <c r="D94" t="n">
-        <v>0.214166</v>
+        <v>0.692364</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.215095</v>
+        <v>0.805114</v>
       </c>
       <c r="C95" t="n">
-        <v>0.215962</v>
+        <v>0.731915</v>
       </c>
       <c r="D95" t="n">
-        <v>0.214593</v>
+        <v>0.68149</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.216077</v>
+        <v>0.851499</v>
       </c>
       <c r="C96" t="n">
-        <v>0.217262</v>
+        <v>0.732397</v>
       </c>
       <c r="D96" t="n">
-        <v>0.215241</v>
+        <v>0.712753</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.217257</v>
+        <v>0.829686</v>
       </c>
       <c r="C97" t="n">
-        <v>0.218625</v>
+        <v>0.734825</v>
       </c>
       <c r="D97" t="n">
-        <v>0.215774</v>
+        <v>0.705142</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.218665</v>
+        <v>0.838641</v>
       </c>
       <c r="C98" t="n">
-        <v>0.220397</v>
+        <v>0.73276</v>
       </c>
       <c r="D98" t="n">
-        <v>0.216517</v>
+        <v>0.704244</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.220359</v>
+        <v>0.853517</v>
       </c>
       <c r="C99" t="n">
-        <v>0.222699</v>
+        <v>0.760648</v>
       </c>
       <c r="D99" t="n">
-        <v>0.217151</v>
+        <v>0.701206</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.222559</v>
+        <v>0.862367</v>
       </c>
       <c r="C100" t="n">
-        <v>0.225756</v>
+        <v>0.746171</v>
       </c>
       <c r="D100" t="n">
-        <v>0.218264</v>
+        <v>0.717249</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.225529</v>
+        <v>0.838365</v>
       </c>
       <c r="C101" t="n">
-        <v>0.229861</v>
+        <v>0.757553</v>
       </c>
       <c r="D101" t="n">
-        <v>0.219382</v>
+        <v>0.696273</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.229506</v>
+        <v>0.8484660000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.235657</v>
+        <v>0.757383</v>
       </c>
       <c r="D102" t="n">
-        <v>0.22098</v>
+        <v>0.711602</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.235271</v>
+        <v>0.852554</v>
       </c>
       <c r="C103" t="n">
-        <v>0.243778</v>
+        <v>0.79593</v>
       </c>
       <c r="D103" t="n">
-        <v>0.223413</v>
+        <v>0.726009</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.243614</v>
+        <v>0.874932</v>
       </c>
       <c r="C104" t="n">
-        <v>0.255185</v>
+        <v>0.7841590000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.226666</v>
+        <v>0.753125</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.255461</v>
+        <v>0.8854959999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.271046</v>
+        <v>0.84489</v>
       </c>
       <c r="D105" t="n">
-        <v>0.231696</v>
+        <v>0.739971</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.274101</v>
+        <v>0.885154</v>
       </c>
       <c r="C106" t="n">
-        <v>0.293163</v>
+        <v>0.845306</v>
       </c>
       <c r="D106" t="n">
-        <v>0.239201</v>
+        <v>0.769551</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.302222</v>
+        <v>0.924709</v>
       </c>
       <c r="C107" t="n">
-        <v>0.325854</v>
+        <v>0.865268</v>
       </c>
       <c r="D107" t="n">
-        <v>0.251962</v>
+        <v>0.791017</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.345285</v>
+        <v>0.9687249999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>0.373972</v>
+        <v>0.905785</v>
       </c>
       <c r="D108" t="n">
-        <v>0.219278</v>
+        <v>0.817429</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.410248</v>
+        <v>1.06609</v>
       </c>
       <c r="C109" t="n">
-        <v>0.44166</v>
+        <v>1.01666</v>
       </c>
       <c r="D109" t="n">
-        <v>0.220084</v>
+        <v>0.829019</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.233175</v>
+        <v>0.9831800000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>0.234269</v>
+        <v>0.870619</v>
       </c>
       <c r="D110" t="n">
-        <v>0.220965</v>
+        <v>0.865323</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.234165</v>
+        <v>0.972927</v>
       </c>
       <c r="C111" t="n">
-        <v>0.237881</v>
+        <v>0.893867</v>
       </c>
       <c r="D111" t="n">
-        <v>0.22165</v>
+        <v>0.881103</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.242317</v>
+        <v>1.02529</v>
       </c>
       <c r="C112" t="n">
-        <v>0.244492</v>
+        <v>0.899431</v>
       </c>
       <c r="D112" t="n">
-        <v>0.223287</v>
+        <v>0.865363</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.249475</v>
+        <v>0.986695</v>
       </c>
       <c r="C113" t="n">
-        <v>0.251784</v>
+        <v>0.923235</v>
       </c>
       <c r="D113" t="n">
-        <v>0.224699</v>
+        <v>0.839659</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.256386</v>
+        <v>1.022</v>
       </c>
       <c r="C114" t="n">
-        <v>0.259357</v>
+        <v>0.918943</v>
       </c>
       <c r="D114" t="n">
-        <v>0.227874</v>
+        <v>0.871561</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.263496</v>
+        <v>1.00058</v>
       </c>
       <c r="C115" t="n">
-        <v>0.26806</v>
+        <v>0.9276489999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.229987</v>
+        <v>0.872974</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.272047</v>
+        <v>1.02691</v>
       </c>
       <c r="C116" t="n">
-        <v>0.278216</v>
+        <v>0.916992</v>
       </c>
       <c r="D116" t="n">
-        <v>0.23331</v>
+        <v>0.8563269999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.282029</v>
+        <v>1.01887</v>
       </c>
       <c r="C117" t="n">
-        <v>0.289924</v>
+        <v>0.932886</v>
       </c>
       <c r="D117" t="n">
-        <v>0.239163</v>
+        <v>0.893669</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.29406</v>
+        <v>1.03185</v>
       </c>
       <c r="C118" t="n">
-        <v>0.303512</v>
+        <v>0.9568449999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.245655</v>
+        <v>0.906159</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.304145</v>
+        <v>1.0797</v>
       </c>
       <c r="C119" t="n">
-        <v>0.31915</v>
+        <v>0.978667</v>
       </c>
       <c r="D119" t="n">
-        <v>0.253456</v>
+        <v>0.911431</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.329305</v>
+        <v>1.08792</v>
       </c>
       <c r="C120" t="n">
-        <v>0.344919</v>
+        <v>1.0126</v>
       </c>
       <c r="D120" t="n">
-        <v>0.266476</v>
+        <v>0.9002289999999999</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.359134</v>
+        <v>1.11105</v>
       </c>
       <c r="C121" t="n">
-        <v>0.374747</v>
+        <v>1.05371</v>
       </c>
       <c r="D121" t="n">
-        <v>0.283103</v>
+        <v>0.975956</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.403148</v>
+        <v>1.16477</v>
       </c>
       <c r="C122" t="n">
-        <v>0.428421</v>
+        <v>1.11082</v>
       </c>
       <c r="D122" t="n">
-        <v>0.30846</v>
+        <v>1.00956</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.471035</v>
+        <v>1.22927</v>
       </c>
       <c r="C123" t="n">
-        <v>0.506572</v>
+        <v>1.18317</v>
       </c>
       <c r="D123" t="n">
-        <v>0.248594</v>
+        <v>1.13089</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.290387</v>
+        <v>1.31837</v>
       </c>
       <c r="C124" t="n">
-        <v>0.286535</v>
+        <v>1.17038</v>
       </c>
       <c r="D124" t="n">
-        <v>0.254076</v>
+        <v>1.117</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.287229</v>
+        <v>1.37164</v>
       </c>
       <c r="C125" t="n">
-        <v>0.289188</v>
+        <v>1.18937</v>
       </c>
       <c r="D125" t="n">
-        <v>0.256051</v>
+        <v>1.15642</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.291136</v>
+        <v>1.31582</v>
       </c>
       <c r="C126" t="n">
-        <v>0.294969</v>
+        <v>1.17773</v>
       </c>
       <c r="D126" t="n">
-        <v>0.25927</v>
+        <v>1.13525</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.29725</v>
+        <v>1.33487</v>
       </c>
       <c r="C127" t="n">
-        <v>0.300181</v>
+        <v>1.20634</v>
       </c>
       <c r="D127" t="n">
-        <v>0.263131</v>
+        <v>1.18143</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.302458</v>
+        <v>1.32459</v>
       </c>
       <c r="C128" t="n">
-        <v>0.304431</v>
+        <v>1.23564</v>
       </c>
       <c r="D128" t="n">
-        <v>0.264692</v>
+        <v>1.15922</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.313057</v>
+        <v>1.31377</v>
       </c>
       <c r="C129" t="n">
-        <v>0.310464</v>
+        <v>1.20723</v>
       </c>
       <c r="D129" t="n">
-        <v>0.267997</v>
+        <v>1.17088</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.31351</v>
+        <v>1.40839</v>
       </c>
       <c r="C130" t="n">
-        <v>0.320935</v>
+        <v>1.24729</v>
       </c>
       <c r="D130" t="n">
-        <v>0.274148</v>
+        <v>1.20975</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.309922</v>
+        <v>1.34242</v>
       </c>
       <c r="C131" t="n">
-        <v>0.331603</v>
+        <v>1.22381</v>
       </c>
       <c r="D131" t="n">
-        <v>0.277689</v>
+        <v>1.2069</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.332929</v>
+        <v>1.3724</v>
       </c>
       <c r="C132" t="n">
-        <v>0.34582</v>
+        <v>1.2878</v>
       </c>
       <c r="D132" t="n">
-        <v>0.283954</v>
+        <v>1.20618</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.34877</v>
+        <v>1.40025</v>
       </c>
       <c r="C133" t="n">
-        <v>0.361887</v>
+        <v>1.30023</v>
       </c>
       <c r="D133" t="n">
-        <v>0.289325</v>
+        <v>1.24162</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.367707</v>
+        <v>1.40051</v>
       </c>
       <c r="C134" t="n">
-        <v>0.389628</v>
+        <v>1.31392</v>
       </c>
       <c r="D134" t="n">
-        <v>0.300868</v>
+        <v>1.19491</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.397775</v>
+        <v>1.45073</v>
       </c>
       <c r="C135" t="n">
-        <v>0.423499</v>
+        <v>1.36042</v>
       </c>
       <c r="D135" t="n">
-        <v>0.315273</v>
+        <v>1.2792</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.441543</v>
+        <v>1.52001</v>
       </c>
       <c r="C136" t="n">
-        <v>0.473939</v>
+        <v>1.4203</v>
       </c>
       <c r="D136" t="n">
-        <v>0.337781</v>
+        <v>1.28087</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.511507</v>
+        <v>1.60643</v>
       </c>
       <c r="C137" t="n">
-        <v>0.552766</v>
+        <v>1.52616</v>
       </c>
       <c r="D137" t="n">
-        <v>0.38776</v>
+        <v>1.34182</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.449702</v>
+        <v>1.58219</v>
       </c>
       <c r="C138" t="n">
-        <v>0.427474</v>
+        <v>1.40834</v>
       </c>
       <c r="D138" t="n">
-        <v>0.387902</v>
+        <v>1.35399</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.453971</v>
+        <v>1.58998</v>
       </c>
       <c r="C139" t="n">
-        <v>0.432742</v>
+        <v>1.43795</v>
       </c>
       <c r="D139" t="n">
-        <v>0.390751</v>
+        <v>1.34619</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.454913</v>
+        <v>1.58484</v>
       </c>
       <c r="C140" t="n">
-        <v>0.437964</v>
+        <v>1.43481</v>
       </c>
       <c r="D140" t="n">
-        <v>0.391597</v>
+        <v>1.35181</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.461598</v>
+        <v>1.63987</v>
       </c>
       <c r="C141" t="n">
-        <v>0.448305</v>
+        <v>1.46154</v>
       </c>
       <c r="D141" t="n">
-        <v>0.401133</v>
+        <v>1.3681</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.457119</v>
+        <v>1.60896</v>
       </c>
       <c r="C142" t="n">
-        <v>0.455847</v>
+        <v>1.47476</v>
       </c>
       <c r="D142" t="n">
-        <v>0.4047</v>
+        <v>1.38001</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.465654</v>
+        <v>1.61085</v>
       </c>
       <c r="C143" t="n">
-        <v>0.462849</v>
+        <v>1.42997</v>
       </c>
       <c r="D143" t="n">
-        <v>0.406481</v>
+        <v>1.37504</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.643925</v>
+        <v>0.664534</v>
       </c>
       <c r="C2" t="n">
-        <v>0.595847</v>
+        <v>0.587822</v>
       </c>
       <c r="D2" t="n">
-        <v>0.58431</v>
+        <v>0.589748</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.650492</v>
+        <v>0.6536149999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.581773</v>
+        <v>0.617793</v>
       </c>
       <c r="D3" t="n">
-        <v>0.585329</v>
+        <v>0.603312</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.654722</v>
+        <v>0.650046</v>
       </c>
       <c r="C4" t="n">
-        <v>0.620313</v>
+        <v>0.601901</v>
       </c>
       <c r="D4" t="n">
-        <v>0.59735</v>
+        <v>0.611694</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.656291</v>
+        <v>0.65724</v>
       </c>
       <c r="C5" t="n">
-        <v>0.61234</v>
+        <v>0.6209249999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.602531</v>
+        <v>0.607824</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6629119999999999</v>
+        <v>0.660118</v>
       </c>
       <c r="C6" t="n">
-        <v>0.616249</v>
+        <v>0.622003</v>
       </c>
       <c r="D6" t="n">
-        <v>0.611422</v>
+        <v>0.593622</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.690696</v>
+        <v>0.662174</v>
       </c>
       <c r="C7" t="n">
-        <v>0.627055</v>
+        <v>0.628063</v>
       </c>
       <c r="D7" t="n">
-        <v>0.624042</v>
+        <v>0.634032</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.703854</v>
+        <v>0.688878</v>
       </c>
       <c r="C8" t="n">
-        <v>0.65932</v>
+        <v>0.662209</v>
       </c>
       <c r="D8" t="n">
-        <v>0.643088</v>
+        <v>0.655795</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.722325</v>
+        <v>0.715051</v>
       </c>
       <c r="C9" t="n">
-        <v>0.689537</v>
+        <v>0.697</v>
       </c>
       <c r="D9" t="n">
-        <v>0.596761</v>
+        <v>0.601539</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6536380000000001</v>
+        <v>0.650661</v>
       </c>
       <c r="C10" t="n">
-        <v>0.593561</v>
+        <v>0.59132</v>
       </c>
       <c r="D10" t="n">
-        <v>0.589537</v>
+        <v>0.598594</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.659031</v>
+        <v>0.651157</v>
       </c>
       <c r="C11" t="n">
-        <v>0.589016</v>
+        <v>0.587881</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6185</v>
+        <v>0.585427</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.679742</v>
+        <v>0.655052</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6046319999999999</v>
+        <v>0.594173</v>
       </c>
       <c r="D12" t="n">
-        <v>0.583207</v>
+        <v>0.583795</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.665586</v>
+        <v>0.673318</v>
       </c>
       <c r="C13" t="n">
-        <v>0.599878</v>
+        <v>0.605577</v>
       </c>
       <c r="D13" t="n">
-        <v>0.586009</v>
+        <v>0.598143</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.653268</v>
+        <v>0.663103</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5850919999999999</v>
+        <v>0.605136</v>
       </c>
       <c r="D14" t="n">
-        <v>0.612268</v>
+        <v>0.595132</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.66332</v>
+        <v>0.664347</v>
       </c>
       <c r="C15" t="n">
-        <v>0.599445</v>
+        <v>0.594915</v>
       </c>
       <c r="D15" t="n">
-        <v>0.59631</v>
+        <v>0.603469</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.677642</v>
+        <v>0.708071</v>
       </c>
       <c r="C16" t="n">
-        <v>0.594787</v>
+        <v>0.592604</v>
       </c>
       <c r="D16" t="n">
-        <v>0.586998</v>
+        <v>0.609034</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.663561</v>
+        <v>0.679207</v>
       </c>
       <c r="C17" t="n">
-        <v>0.602997</v>
+        <v>0.6298859999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.591287</v>
+        <v>0.594438</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.660165</v>
+        <v>0.676812</v>
       </c>
       <c r="C18" t="n">
-        <v>0.637853</v>
+        <v>0.605762</v>
       </c>
       <c r="D18" t="n">
-        <v>0.597816</v>
+        <v>0.5905589999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.678689</v>
+        <v>0.662412</v>
       </c>
       <c r="C19" t="n">
-        <v>0.60334</v>
+        <v>0.602123</v>
       </c>
       <c r="D19" t="n">
-        <v>0.614686</v>
+        <v>0.6028790000000001</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.675216</v>
+        <v>0.696504</v>
       </c>
       <c r="C20" t="n">
-        <v>0.616576</v>
+        <v>0.6412949999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.606494</v>
+        <v>0.619849</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.681086</v>
+        <v>0.689487</v>
       </c>
       <c r="C21" t="n">
-        <v>0.647929</v>
+        <v>0.637549</v>
       </c>
       <c r="D21" t="n">
-        <v>0.632952</v>
+        <v>0.644514</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.719986</v>
+        <v>0.727847</v>
       </c>
       <c r="C22" t="n">
-        <v>0.659116</v>
+        <v>0.667013</v>
       </c>
       <c r="D22" t="n">
-        <v>0.644147</v>
+        <v>0.638468</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7532180000000001</v>
+        <v>0.718673</v>
       </c>
       <c r="C23" t="n">
-        <v>0.706688</v>
+        <v>0.6891659999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.595008</v>
+        <v>0.608105</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.680156</v>
+        <v>0.673074</v>
       </c>
       <c r="C24" t="n">
-        <v>0.593338</v>
+        <v>0.589458</v>
       </c>
       <c r="D24" t="n">
-        <v>0.603687</v>
+        <v>0.586628</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6905480000000001</v>
+        <v>0.659177</v>
       </c>
       <c r="C25" t="n">
-        <v>0.587029</v>
+        <v>0.6141529999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.591112</v>
+        <v>0.6075700000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.682389</v>
+        <v>0.668091</v>
       </c>
       <c r="C26" t="n">
-        <v>0.580487</v>
+        <v>0.6169480000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.608534</v>
+        <v>0.600253</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.675396</v>
+        <v>0.661714</v>
       </c>
       <c r="C27" t="n">
-        <v>0.591097</v>
+        <v>0.59973</v>
       </c>
       <c r="D27" t="n">
-        <v>0.605026</v>
+        <v>0.600078</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.664041</v>
+        <v>0.6713980000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.61532</v>
+        <v>0.597109</v>
       </c>
       <c r="D28" t="n">
-        <v>0.594679</v>
+        <v>0.600828</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.694329</v>
+        <v>0.668398</v>
       </c>
       <c r="C29" t="n">
-        <v>0.588537</v>
+        <v>0.598135</v>
       </c>
       <c r="D29" t="n">
-        <v>0.602934</v>
+        <v>0.615546</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.698738</v>
+        <v>0.67141</v>
       </c>
       <c r="C30" t="n">
-        <v>0.614918</v>
+        <v>0.619116</v>
       </c>
       <c r="D30" t="n">
-        <v>0.628847</v>
+        <v>0.5902269999999999</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.724543</v>
+        <v>0.675245</v>
       </c>
       <c r="C31" t="n">
-        <v>0.616779</v>
+        <v>0.6064659999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.625215</v>
+        <v>0.598548</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.691073</v>
+        <v>0.66443</v>
       </c>
       <c r="C32" t="n">
-        <v>0.637137</v>
+        <v>0.603807</v>
       </c>
       <c r="D32" t="n">
-        <v>0.617228</v>
+        <v>0.605445</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6912199999999999</v>
+        <v>0.6783940000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6149210000000001</v>
+        <v>0.652998</v>
       </c>
       <c r="D33" t="n">
-        <v>0.625972</v>
+        <v>0.617085</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.676077</v>
+        <v>0.67792</v>
       </c>
       <c r="C34" t="n">
-        <v>0.628948</v>
+        <v>0.640188</v>
       </c>
       <c r="D34" t="n">
-        <v>0.632047</v>
+        <v>0.620886</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.741803</v>
+        <v>0.699623</v>
       </c>
       <c r="C35" t="n">
-        <v>0.651789</v>
+        <v>0.628976</v>
       </c>
       <c r="D35" t="n">
-        <v>0.647855</v>
+        <v>0.629105</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.705731</v>
+        <v>0.694221</v>
       </c>
       <c r="C36" t="n">
-        <v>0.665264</v>
+        <v>0.661487</v>
       </c>
       <c r="D36" t="n">
-        <v>0.649078</v>
+        <v>0.64323</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.730375</v>
+        <v>0.720939</v>
       </c>
       <c r="C37" t="n">
-        <v>0.689137</v>
+        <v>0.6883320000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.601143</v>
+        <v>0.6110989999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.683233</v>
+        <v>0.673006</v>
       </c>
       <c r="C38" t="n">
-        <v>0.594693</v>
+        <v>0.598707</v>
       </c>
       <c r="D38" t="n">
-        <v>0.603977</v>
+        <v>0.6097860000000001</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.695195</v>
+        <v>0.686051</v>
       </c>
       <c r="C39" t="n">
-        <v>0.597117</v>
+        <v>0.602746</v>
       </c>
       <c r="D39" t="n">
-        <v>0.607672</v>
+        <v>0.599102</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.698996</v>
+        <v>0.67167</v>
       </c>
       <c r="C40" t="n">
-        <v>0.597633</v>
+        <v>0.597815</v>
       </c>
       <c r="D40" t="n">
-        <v>0.605801</v>
+        <v>0.596002</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.723762</v>
+        <v>0.665968</v>
       </c>
       <c r="C41" t="n">
-        <v>0.614459</v>
+        <v>0.597171</v>
       </c>
       <c r="D41" t="n">
-        <v>0.624411</v>
+        <v>0.606395</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.698242</v>
+        <v>0.669509</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6309979999999999</v>
+        <v>0.608615</v>
       </c>
       <c r="D42" t="n">
-        <v>0.611182</v>
+        <v>0.623122</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.699043</v>
+        <v>0.693222</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6251910000000001</v>
+        <v>0.597835</v>
       </c>
       <c r="D43" t="n">
-        <v>0.599438</v>
+        <v>0.600975</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.722952</v>
+        <v>0.672241</v>
       </c>
       <c r="C44" t="n">
-        <v>0.608648</v>
+        <v>0.6218590000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.627781</v>
+        <v>0.582853</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6884209999999999</v>
+        <v>0.689635</v>
       </c>
       <c r="C45" t="n">
-        <v>0.609258</v>
+        <v>0.636005</v>
       </c>
       <c r="D45" t="n">
-        <v>0.624577</v>
+        <v>0.598781</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.689195</v>
+        <v>0.677215</v>
       </c>
       <c r="C46" t="n">
-        <v>0.62007</v>
+        <v>0.626712</v>
       </c>
       <c r="D46" t="n">
-        <v>0.617772</v>
+        <v>0.620278</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.72251</v>
+        <v>0.668579</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6310789999999999</v>
+        <v>0.6371289999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.619896</v>
+        <v>0.619868</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.687812</v>
+        <v>0.683599</v>
       </c>
       <c r="C48" t="n">
-        <v>0.621234</v>
+        <v>0.630309</v>
       </c>
       <c r="D48" t="n">
-        <v>0.634365</v>
+        <v>0.644923</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.711161</v>
+        <v>0.689535</v>
       </c>
       <c r="C49" t="n">
-        <v>0.641168</v>
+        <v>0.648966</v>
       </c>
       <c r="D49" t="n">
-        <v>0.640271</v>
+        <v>0.642147</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.707632</v>
+        <v>0.721348</v>
       </c>
       <c r="C50" t="n">
-        <v>0.669457</v>
+        <v>0.652952</v>
       </c>
       <c r="D50" t="n">
-        <v>0.647443</v>
+        <v>0.674925</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.757539</v>
+        <v>0.73803</v>
       </c>
       <c r="C51" t="n">
-        <v>0.713927</v>
+        <v>0.70763</v>
       </c>
       <c r="D51" t="n">
-        <v>0.615322</v>
+        <v>0.603718</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.791111</v>
+        <v>0.778288</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7125280000000001</v>
+        <v>0.728143</v>
       </c>
       <c r="D52" t="n">
-        <v>0.610004</v>
+        <v>0.610869</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.70839</v>
+        <v>0.706091</v>
       </c>
       <c r="C53" t="n">
-        <v>0.618095</v>
+        <v>0.608415</v>
       </c>
       <c r="D53" t="n">
-        <v>0.658152</v>
+        <v>0.614568</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.694744</v>
+        <v>0.70762</v>
       </c>
       <c r="C54" t="n">
-        <v>0.613123</v>
+        <v>0.637933</v>
       </c>
       <c r="D54" t="n">
-        <v>0.619054</v>
+        <v>0.610174</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.707421</v>
+        <v>0.700929</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6138710000000001</v>
+        <v>0.620349</v>
       </c>
       <c r="D55" t="n">
-        <v>0.630652</v>
+        <v>0.600955</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.7084859999999999</v>
+        <v>0.708825</v>
       </c>
       <c r="C56" t="n">
-        <v>0.618899</v>
+        <v>0.6303840000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.620213</v>
+        <v>0.646585</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.706425</v>
+        <v>0.698816</v>
       </c>
       <c r="C57" t="n">
-        <v>0.616057</v>
+        <v>0.63522</v>
       </c>
       <c r="D57" t="n">
-        <v>0.616798</v>
+        <v>0.634023</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.725844</v>
+        <v>0.716739</v>
       </c>
       <c r="C58" t="n">
-        <v>0.632508</v>
+        <v>0.632413</v>
       </c>
       <c r="D58" t="n">
-        <v>0.62468</v>
+        <v>0.603793</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.741073</v>
+        <v>0.74848</v>
       </c>
       <c r="C59" t="n">
-        <v>0.627957</v>
+        <v>0.648003</v>
       </c>
       <c r="D59" t="n">
-        <v>0.632421</v>
+        <v>0.625124</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.749613</v>
+        <v>0.710846</v>
       </c>
       <c r="C60" t="n">
-        <v>0.623003</v>
+        <v>0.656839</v>
       </c>
       <c r="D60" t="n">
-        <v>0.619949</v>
+        <v>0.639964</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.711303</v>
+        <v>0.716695</v>
       </c>
       <c r="C61" t="n">
-        <v>0.64092</v>
+        <v>0.6607769999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.650381</v>
+        <v>0.647246</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.735768</v>
+        <v>0.746026</v>
       </c>
       <c r="C62" t="n">
-        <v>0.639445</v>
+        <v>0.667513</v>
       </c>
       <c r="D62" t="n">
-        <v>0.636787</v>
+        <v>0.643553</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.737991</v>
+        <v>0.749252</v>
       </c>
       <c r="C63" t="n">
-        <v>0.657076</v>
+        <v>0.669079</v>
       </c>
       <c r="D63" t="n">
-        <v>0.677215</v>
+        <v>0.651216</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7514189999999999</v>
+        <v>0.754248</v>
       </c>
       <c r="C64" t="n">
-        <v>0.682738</v>
+        <v>0.675496</v>
       </c>
       <c r="D64" t="n">
-        <v>0.657293</v>
+        <v>0.666332</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.766078</v>
+        <v>0.783297</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7002429999999999</v>
+        <v>0.717861</v>
       </c>
       <c r="D65" t="n">
-        <v>0.70306</v>
+        <v>0.715927</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.818808</v>
+        <v>0.782461</v>
       </c>
       <c r="C66" t="n">
-        <v>0.797395</v>
+        <v>0.742146</v>
       </c>
       <c r="D66" t="n">
-        <v>0.635651</v>
+        <v>0.624516</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.736822</v>
+        <v>0.759576</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6597769999999999</v>
+        <v>0.68562</v>
       </c>
       <c r="D67" t="n">
-        <v>0.652015</v>
+        <v>0.644912</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.742919</v>
+        <v>0.739814</v>
       </c>
       <c r="C68" t="n">
-        <v>0.643801</v>
+        <v>0.644547</v>
       </c>
       <c r="D68" t="n">
-        <v>0.65673</v>
+        <v>0.639773</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.79093</v>
+        <v>0.745417</v>
       </c>
       <c r="C69" t="n">
-        <v>0.658962</v>
+        <v>0.646664</v>
       </c>
       <c r="D69" t="n">
-        <v>0.640539</v>
+        <v>0.645205</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.762748</v>
+        <v>0.752792</v>
       </c>
       <c r="C70" t="n">
-        <v>0.657979</v>
+        <v>0.663502</v>
       </c>
       <c r="D70" t="n">
-        <v>0.643127</v>
+        <v>0.658768</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.728773</v>
+        <v>0.738393</v>
       </c>
       <c r="C71" t="n">
-        <v>0.662633</v>
+        <v>0.676945</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6517579999999999</v>
+        <v>0.64022</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.749587</v>
+        <v>0.751407</v>
       </c>
       <c r="C72" t="n">
-        <v>0.67782</v>
+        <v>0.66618</v>
       </c>
       <c r="D72" t="n">
-        <v>0.641799</v>
+        <v>0.6507230000000001</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.759361</v>
+        <v>0.7405080000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.652079</v>
+        <v>0.6534140000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.647478</v>
+        <v>0.640804</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7617159999999999</v>
+        <v>0.738155</v>
       </c>
       <c r="C74" t="n">
-        <v>0.664412</v>
+        <v>0.711315</v>
       </c>
       <c r="D74" t="n">
-        <v>0.661433</v>
+        <v>0.663947</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.79238</v>
+        <v>0.773818</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6790580000000001</v>
+        <v>0.683303</v>
       </c>
       <c r="D75" t="n">
-        <v>0.69098</v>
+        <v>0.668098</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7677349999999999</v>
+        <v>0.743939</v>
       </c>
       <c r="C76" t="n">
-        <v>0.695074</v>
+        <v>0.688797</v>
       </c>
       <c r="D76" t="n">
-        <v>0.672837</v>
+        <v>0.656272</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.784261</v>
+        <v>0.76092</v>
       </c>
       <c r="C77" t="n">
-        <v>0.70299</v>
+        <v>0.720427</v>
       </c>
       <c r="D77" t="n">
-        <v>0.686094</v>
+        <v>0.69881</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.828001</v>
+        <v>0.777177</v>
       </c>
       <c r="C78" t="n">
-        <v>0.729178</v>
+        <v>0.753641</v>
       </c>
       <c r="D78" t="n">
-        <v>0.697627</v>
+        <v>0.697922</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.811611</v>
+        <v>0.833498</v>
       </c>
       <c r="C79" t="n">
-        <v>0.751043</v>
+        <v>0.763553</v>
       </c>
       <c r="D79" t="n">
-        <v>0.721396</v>
+        <v>0.716485</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.851096</v>
+        <v>0.881953</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7924099999999999</v>
+        <v>0.797814</v>
       </c>
       <c r="D80" t="n">
-        <v>0.680974</v>
+        <v>0.688209</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.772382</v>
+        <v>0.777714</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7033</v>
+        <v>0.670918</v>
       </c>
       <c r="D81" t="n">
-        <v>0.644878</v>
+        <v>0.689755</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.775511</v>
+        <v>0.768003</v>
       </c>
       <c r="C82" t="n">
-        <v>0.676069</v>
+        <v>0.690041</v>
       </c>
       <c r="D82" t="n">
-        <v>0.650092</v>
+        <v>0.650244</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.77952</v>
+        <v>0.749318</v>
       </c>
       <c r="C83" t="n">
-        <v>0.693917</v>
+        <v>0.693976</v>
       </c>
       <c r="D83" t="n">
-        <v>0.667709</v>
+        <v>0.662857</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.788378</v>
+        <v>0.769131</v>
       </c>
       <c r="C84" t="n">
-        <v>0.686117</v>
+        <v>0.727061</v>
       </c>
       <c r="D84" t="n">
-        <v>0.684208</v>
+        <v>0.659036</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.799327</v>
+        <v>0.790327</v>
       </c>
       <c r="C85" t="n">
-        <v>0.692431</v>
+        <v>0.698199</v>
       </c>
       <c r="D85" t="n">
-        <v>0.667889</v>
+        <v>0.670608</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.802898</v>
+        <v>0.798565</v>
       </c>
       <c r="C86" t="n">
-        <v>0.703669</v>
+        <v>0.689974</v>
       </c>
       <c r="D86" t="n">
-        <v>0.686696</v>
+        <v>0.6611860000000001</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.783789</v>
+        <v>0.789824</v>
       </c>
       <c r="C87" t="n">
-        <v>0.701637</v>
+        <v>0.744608</v>
       </c>
       <c r="D87" t="n">
-        <v>0.679983</v>
+        <v>0.665106</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.789348</v>
+        <v>0.79191</v>
       </c>
       <c r="C88" t="n">
-        <v>0.73378</v>
+        <v>0.706896</v>
       </c>
       <c r="D88" t="n">
-        <v>0.685223</v>
+        <v>0.700367</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.812288</v>
+        <v>0.793853</v>
       </c>
       <c r="C89" t="n">
-        <v>0.712439</v>
+        <v>0.726622</v>
       </c>
       <c r="D89" t="n">
-        <v>0.68104</v>
+        <v>0.656759</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.811516</v>
+        <v>0.793872</v>
       </c>
       <c r="C90" t="n">
-        <v>0.741212</v>
+        <v>0.698429</v>
       </c>
       <c r="D90" t="n">
-        <v>0.701359</v>
+        <v>0.691636</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.86528</v>
+        <v>0.824481</v>
       </c>
       <c r="C91" t="n">
-        <v>0.734959</v>
+        <v>0.752864</v>
       </c>
       <c r="D91" t="n">
-        <v>0.725332</v>
+        <v>0.715874</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.848986</v>
+        <v>0.839309</v>
       </c>
       <c r="C92" t="n">
-        <v>0.768377</v>
+        <v>0.754787</v>
       </c>
       <c r="D92" t="n">
-        <v>0.7248830000000001</v>
+        <v>0.716989</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.8610950000000001</v>
+        <v>0.841263</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8042589999999999</v>
+        <v>0.794153</v>
       </c>
       <c r="D93" t="n">
-        <v>0.740991</v>
+        <v>0.748449</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.903048</v>
+        <v>0.961001</v>
       </c>
       <c r="C94" t="n">
-        <v>0.848529</v>
+        <v>0.821825</v>
       </c>
       <c r="D94" t="n">
-        <v>0.692364</v>
+        <v>0.697576</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.805114</v>
+        <v>0.803326</v>
       </c>
       <c r="C95" t="n">
-        <v>0.731915</v>
+        <v>0.753966</v>
       </c>
       <c r="D95" t="n">
-        <v>0.68149</v>
+        <v>0.670434</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.851499</v>
+        <v>0.813262</v>
       </c>
       <c r="C96" t="n">
-        <v>0.732397</v>
+        <v>0.738758</v>
       </c>
       <c r="D96" t="n">
-        <v>0.712753</v>
+        <v>0.697673</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.829686</v>
+        <v>0.843948</v>
       </c>
       <c r="C97" t="n">
-        <v>0.734825</v>
+        <v>0.7256089999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.705142</v>
+        <v>0.720047</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.838641</v>
+        <v>0.823049</v>
       </c>
       <c r="C98" t="n">
-        <v>0.73276</v>
+        <v>0.75589</v>
       </c>
       <c r="D98" t="n">
-        <v>0.704244</v>
+        <v>0.711522</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.853517</v>
+        <v>0.8484080000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>0.760648</v>
+        <v>0.783751</v>
       </c>
       <c r="D99" t="n">
-        <v>0.701206</v>
+        <v>0.700846</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.862367</v>
+        <v>0.859052</v>
       </c>
       <c r="C100" t="n">
-        <v>0.746171</v>
+        <v>0.7770860000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.717249</v>
+        <v>0.742684</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.838365</v>
+        <v>0.848495</v>
       </c>
       <c r="C101" t="n">
-        <v>0.757553</v>
+        <v>0.76752</v>
       </c>
       <c r="D101" t="n">
-        <v>0.696273</v>
+        <v>0.703605</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.8484660000000001</v>
+        <v>0.840496</v>
       </c>
       <c r="C102" t="n">
-        <v>0.757383</v>
+        <v>0.7815839999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.711602</v>
+        <v>0.728847</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.852554</v>
+        <v>0.878553</v>
       </c>
       <c r="C103" t="n">
-        <v>0.79593</v>
+        <v>0.792696</v>
       </c>
       <c r="D103" t="n">
-        <v>0.726009</v>
+        <v>0.729151</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.874932</v>
+        <v>0.879558</v>
       </c>
       <c r="C104" t="n">
-        <v>0.7841590000000001</v>
+        <v>0.801465</v>
       </c>
       <c r="D104" t="n">
-        <v>0.753125</v>
+        <v>0.737361</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.8854959999999999</v>
+        <v>0.892771</v>
       </c>
       <c r="C105" t="n">
-        <v>0.84489</v>
+        <v>0.825675</v>
       </c>
       <c r="D105" t="n">
-        <v>0.739971</v>
+        <v>0.733004</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.885154</v>
+        <v>0.888892</v>
       </c>
       <c r="C106" t="n">
-        <v>0.845306</v>
+        <v>0.835833</v>
       </c>
       <c r="D106" t="n">
-        <v>0.769551</v>
+        <v>0.772307</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.924709</v>
+        <v>0.93266</v>
       </c>
       <c r="C107" t="n">
-        <v>0.865268</v>
+        <v>0.86844</v>
       </c>
       <c r="D107" t="n">
-        <v>0.791017</v>
+        <v>0.777342</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9687249999999999</v>
+        <v>0.975197</v>
       </c>
       <c r="C108" t="n">
-        <v>0.905785</v>
+        <v>0.912606</v>
       </c>
       <c r="D108" t="n">
-        <v>0.817429</v>
+        <v>0.826916</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.06609</v>
+        <v>1.04674</v>
       </c>
       <c r="C109" t="n">
-        <v>1.01666</v>
+        <v>1.00495</v>
       </c>
       <c r="D109" t="n">
-        <v>0.829019</v>
+        <v>0.832031</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.9831800000000001</v>
+        <v>0.980988</v>
       </c>
       <c r="C110" t="n">
-        <v>0.870619</v>
+        <v>0.89943</v>
       </c>
       <c r="D110" t="n">
-        <v>0.865323</v>
+        <v>0.835488</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.972927</v>
+        <v>1.00759</v>
       </c>
       <c r="C111" t="n">
-        <v>0.893867</v>
+        <v>0.904331</v>
       </c>
       <c r="D111" t="n">
-        <v>0.881103</v>
+        <v>0.87161</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.02529</v>
+        <v>0.982654</v>
       </c>
       <c r="C112" t="n">
-        <v>0.899431</v>
+        <v>0.895334</v>
       </c>
       <c r="D112" t="n">
-        <v>0.865363</v>
+        <v>0.853026</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.986695</v>
+        <v>0.985865</v>
       </c>
       <c r="C113" t="n">
-        <v>0.923235</v>
+        <v>0.899416</v>
       </c>
       <c r="D113" t="n">
-        <v>0.839659</v>
+        <v>0.850309</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.022</v>
+        <v>0.965953</v>
       </c>
       <c r="C114" t="n">
-        <v>0.918943</v>
+        <v>0.905232</v>
       </c>
       <c r="D114" t="n">
-        <v>0.871561</v>
+        <v>0.862706</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.00058</v>
+        <v>1.02055</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9276489999999999</v>
+        <v>0.928191</v>
       </c>
       <c r="D115" t="n">
-        <v>0.872974</v>
+        <v>0.876311</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.02691</v>
+        <v>0.998031</v>
       </c>
       <c r="C116" t="n">
-        <v>0.916992</v>
+        <v>0.919233</v>
       </c>
       <c r="D116" t="n">
-        <v>0.8563269999999999</v>
+        <v>0.8762219999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.01887</v>
+        <v>1.01341</v>
       </c>
       <c r="C117" t="n">
-        <v>0.932886</v>
+        <v>0.943116</v>
       </c>
       <c r="D117" t="n">
-        <v>0.893669</v>
+        <v>0.857472</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.03185</v>
+        <v>1.03412</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9568449999999999</v>
+        <v>0.981253</v>
       </c>
       <c r="D118" t="n">
-        <v>0.906159</v>
+        <v>0.863237</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.0797</v>
+        <v>1.04939</v>
       </c>
       <c r="C119" t="n">
-        <v>0.978667</v>
+        <v>0.975467</v>
       </c>
       <c r="D119" t="n">
-        <v>0.911431</v>
+        <v>0.917602</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.08792</v>
+        <v>1.07878</v>
       </c>
       <c r="C120" t="n">
-        <v>1.0126</v>
+        <v>0.981173</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9002289999999999</v>
+        <v>0.9216529999999999</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.11105</v>
+        <v>1.10401</v>
       </c>
       <c r="C121" t="n">
-        <v>1.05371</v>
+        <v>1.04789</v>
       </c>
       <c r="D121" t="n">
-        <v>0.975956</v>
+        <v>0.935817</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.16477</v>
+        <v>1.15203</v>
       </c>
       <c r="C122" t="n">
-        <v>1.11082</v>
+        <v>1.09131</v>
       </c>
       <c r="D122" t="n">
-        <v>1.00956</v>
+        <v>0.978587</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.22927</v>
+        <v>1.22704</v>
       </c>
       <c r="C123" t="n">
-        <v>1.18317</v>
+        <v>1.20441</v>
       </c>
       <c r="D123" t="n">
-        <v>1.13089</v>
+        <v>1.14375</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.31837</v>
+        <v>1.328</v>
       </c>
       <c r="C124" t="n">
-        <v>1.17038</v>
+        <v>1.20395</v>
       </c>
       <c r="D124" t="n">
-        <v>1.117</v>
+        <v>1.12445</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.37164</v>
+        <v>1.30334</v>
       </c>
       <c r="C125" t="n">
-        <v>1.18937</v>
+        <v>1.19246</v>
       </c>
       <c r="D125" t="n">
-        <v>1.15642</v>
+        <v>1.09337</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.31582</v>
+        <v>1.32107</v>
       </c>
       <c r="C126" t="n">
-        <v>1.17773</v>
+        <v>1.19188</v>
       </c>
       <c r="D126" t="n">
-        <v>1.13525</v>
+        <v>1.15069</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.33487</v>
+        <v>1.3125</v>
       </c>
       <c r="C127" t="n">
-        <v>1.20634</v>
+        <v>1.21835</v>
       </c>
       <c r="D127" t="n">
-        <v>1.18143</v>
+        <v>1.18378</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.32459</v>
+        <v>1.35453</v>
       </c>
       <c r="C128" t="n">
-        <v>1.23564</v>
+        <v>1.15807</v>
       </c>
       <c r="D128" t="n">
-        <v>1.15922</v>
+        <v>1.1897</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.31377</v>
+        <v>1.33841</v>
       </c>
       <c r="C129" t="n">
-        <v>1.20723</v>
+        <v>1.2386</v>
       </c>
       <c r="D129" t="n">
-        <v>1.17088</v>
+        <v>1.14297</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.40839</v>
+        <v>1.34158</v>
       </c>
       <c r="C130" t="n">
-        <v>1.24729</v>
+        <v>1.21946</v>
       </c>
       <c r="D130" t="n">
-        <v>1.20975</v>
+        <v>1.13541</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.34242</v>
+        <v>1.33246</v>
       </c>
       <c r="C131" t="n">
-        <v>1.22381</v>
+        <v>1.26906</v>
       </c>
       <c r="D131" t="n">
-        <v>1.2069</v>
+        <v>1.17382</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.3724</v>
+        <v>1.42688</v>
       </c>
       <c r="C132" t="n">
-        <v>1.2878</v>
+        <v>1.26108</v>
       </c>
       <c r="D132" t="n">
-        <v>1.20618</v>
+        <v>1.19513</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.40025</v>
+        <v>1.35993</v>
       </c>
       <c r="C133" t="n">
-        <v>1.30023</v>
+        <v>1.25744</v>
       </c>
       <c r="D133" t="n">
-        <v>1.24162</v>
+        <v>1.22597</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.40051</v>
+        <v>1.385</v>
       </c>
       <c r="C134" t="n">
-        <v>1.31392</v>
+        <v>1.31376</v>
       </c>
       <c r="D134" t="n">
-        <v>1.19491</v>
+        <v>1.22653</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.45073</v>
+        <v>1.40791</v>
       </c>
       <c r="C135" t="n">
-        <v>1.36042</v>
+        <v>1.39277</v>
       </c>
       <c r="D135" t="n">
-        <v>1.2792</v>
+        <v>1.20237</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.52001</v>
+        <v>1.53452</v>
       </c>
       <c r="C136" t="n">
-        <v>1.4203</v>
+        <v>1.39942</v>
       </c>
       <c r="D136" t="n">
-        <v>1.28087</v>
+        <v>1.27444</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.60643</v>
+        <v>1.58083</v>
       </c>
       <c r="C137" t="n">
-        <v>1.52616</v>
+        <v>1.48522</v>
       </c>
       <c r="D137" t="n">
-        <v>1.34182</v>
+        <v>1.35868</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.58219</v>
+        <v>1.55165</v>
       </c>
       <c r="C138" t="n">
-        <v>1.40834</v>
+        <v>1.41088</v>
       </c>
       <c r="D138" t="n">
-        <v>1.35399</v>
+        <v>1.29881</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.58998</v>
+        <v>1.55561</v>
       </c>
       <c r="C139" t="n">
-        <v>1.43795</v>
+        <v>1.4281</v>
       </c>
       <c r="D139" t="n">
-        <v>1.34619</v>
+        <v>1.35594</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.58484</v>
+        <v>1.64818</v>
       </c>
       <c r="C140" t="n">
-        <v>1.43481</v>
+        <v>1.47024</v>
       </c>
       <c r="D140" t="n">
-        <v>1.35181</v>
+        <v>1.37159</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.63987</v>
+        <v>1.60227</v>
       </c>
       <c r="C141" t="n">
-        <v>1.46154</v>
+        <v>1.46387</v>
       </c>
       <c r="D141" t="n">
-        <v>1.3681</v>
+        <v>1.33424</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.60896</v>
+        <v>1.61682</v>
       </c>
       <c r="C142" t="n">
-        <v>1.47476</v>
+        <v>1.42148</v>
       </c>
       <c r="D142" t="n">
-        <v>1.38001</v>
+        <v>1.39829</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.61085</v>
+        <v>1.62597</v>
       </c>
       <c r="C143" t="n">
-        <v>1.42997</v>
+        <v>1.46315</v>
       </c>
       <c r="D143" t="n">
-        <v>1.37504</v>
+        <v>1.40553</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.664534</v>
+        <v>0.67733</v>
       </c>
       <c r="C2" t="n">
-        <v>0.587822</v>
+        <v>0.601888</v>
       </c>
       <c r="D2" t="n">
-        <v>0.589748</v>
+        <v>0.597998</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6536149999999999</v>
+        <v>0.647703</v>
       </c>
       <c r="C3" t="n">
-        <v>0.617793</v>
+        <v>0.59762</v>
       </c>
       <c r="D3" t="n">
-        <v>0.603312</v>
+        <v>0.593624</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.650046</v>
+        <v>0.655592</v>
       </c>
       <c r="C4" t="n">
-        <v>0.601901</v>
+        <v>0.611548</v>
       </c>
       <c r="D4" t="n">
-        <v>0.611694</v>
+        <v>0.594934</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.65724</v>
+        <v>0.659562</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6209249999999999</v>
+        <v>0.610362</v>
       </c>
       <c r="D5" t="n">
-        <v>0.607824</v>
+        <v>0.611368</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.660118</v>
+        <v>0.6802049999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.622003</v>
+        <v>0.640849</v>
       </c>
       <c r="D6" t="n">
-        <v>0.593622</v>
+        <v>0.6017169999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.662174</v>
+        <v>0.686603</v>
       </c>
       <c r="C7" t="n">
-        <v>0.628063</v>
+        <v>0.6605529999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.634032</v>
+        <v>0.627243</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.688878</v>
+        <v>0.721861</v>
       </c>
       <c r="C8" t="n">
-        <v>0.662209</v>
+        <v>0.663123</v>
       </c>
       <c r="D8" t="n">
-        <v>0.655795</v>
+        <v>0.647209</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.715051</v>
+        <v>0.757332</v>
       </c>
       <c r="C9" t="n">
-        <v>0.697</v>
+        <v>0.690604</v>
       </c>
       <c r="D9" t="n">
-        <v>0.601539</v>
+        <v>0.587592</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.650661</v>
+        <v>0.655235</v>
       </c>
       <c r="C10" t="n">
-        <v>0.59132</v>
+        <v>0.587988</v>
       </c>
       <c r="D10" t="n">
-        <v>0.598594</v>
+        <v>0.595496</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.651157</v>
+        <v>0.649273</v>
       </c>
       <c r="C11" t="n">
-        <v>0.587881</v>
+        <v>0.593421</v>
       </c>
       <c r="D11" t="n">
-        <v>0.585427</v>
+        <v>0.58173</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.655052</v>
+        <v>0.671181</v>
       </c>
       <c r="C12" t="n">
-        <v>0.594173</v>
+        <v>0.589679</v>
       </c>
       <c r="D12" t="n">
-        <v>0.583795</v>
+        <v>0.594763</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.673318</v>
+        <v>0.688265</v>
       </c>
       <c r="C13" t="n">
-        <v>0.605577</v>
+        <v>0.622582</v>
       </c>
       <c r="D13" t="n">
-        <v>0.598143</v>
+        <v>0.596318</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.663103</v>
+        <v>0.652336</v>
       </c>
       <c r="C14" t="n">
-        <v>0.605136</v>
+        <v>0.619308</v>
       </c>
       <c r="D14" t="n">
-        <v>0.595132</v>
+        <v>0.604868</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.664347</v>
+        <v>0.661206</v>
       </c>
       <c r="C15" t="n">
-        <v>0.594915</v>
+        <v>0.599284</v>
       </c>
       <c r="D15" t="n">
-        <v>0.603469</v>
+        <v>0.597008</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.708071</v>
+        <v>0.6851429999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.592604</v>
+        <v>0.604846</v>
       </c>
       <c r="D16" t="n">
-        <v>0.609034</v>
+        <v>0.6077360000000001</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.679207</v>
+        <v>0.668248</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6298859999999999</v>
+        <v>0.617372</v>
       </c>
       <c r="D17" t="n">
-        <v>0.594438</v>
+        <v>0.602041</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.676812</v>
+        <v>0.668812</v>
       </c>
       <c r="C18" t="n">
-        <v>0.605762</v>
+        <v>0.647573</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5905589999999999</v>
+        <v>0.6170060000000001</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.662412</v>
+        <v>0.692037</v>
       </c>
       <c r="C19" t="n">
-        <v>0.602123</v>
+        <v>0.622452</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6028790000000001</v>
+        <v>0.633568</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.696504</v>
+        <v>0.675466</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6412949999999999</v>
+        <v>0.641074</v>
       </c>
       <c r="D20" t="n">
-        <v>0.619849</v>
+        <v>0.6264189999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.689487</v>
+        <v>0.671029</v>
       </c>
       <c r="C21" t="n">
-        <v>0.637549</v>
+        <v>0.630833</v>
       </c>
       <c r="D21" t="n">
-        <v>0.644514</v>
+        <v>0.633282</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.727847</v>
+        <v>0.707801</v>
       </c>
       <c r="C22" t="n">
-        <v>0.667013</v>
+        <v>0.671143</v>
       </c>
       <c r="D22" t="n">
-        <v>0.638468</v>
+        <v>0.649307</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.718673</v>
+        <v>0.713439</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6891659999999999</v>
+        <v>0.720096</v>
       </c>
       <c r="D23" t="n">
-        <v>0.608105</v>
+        <v>0.608753</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.673074</v>
+        <v>0.677005</v>
       </c>
       <c r="C24" t="n">
-        <v>0.589458</v>
+        <v>0.601096</v>
       </c>
       <c r="D24" t="n">
-        <v>0.586628</v>
+        <v>0.59143</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.659177</v>
+        <v>0.679085</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6141529999999999</v>
+        <v>0.598826</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6075700000000001</v>
+        <v>0.615538</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.668091</v>
+        <v>0.671374</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6169480000000001</v>
+        <v>0.58979</v>
       </c>
       <c r="D26" t="n">
-        <v>0.600253</v>
+        <v>0.598366</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.661714</v>
+        <v>0.680895</v>
       </c>
       <c r="C27" t="n">
-        <v>0.59973</v>
+        <v>0.597025</v>
       </c>
       <c r="D27" t="n">
-        <v>0.600078</v>
+        <v>0.5901</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6713980000000001</v>
+        <v>0.677376</v>
       </c>
       <c r="C28" t="n">
-        <v>0.597109</v>
+        <v>0.615486</v>
       </c>
       <c r="D28" t="n">
-        <v>0.600828</v>
+        <v>0.593135</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.668398</v>
+        <v>0.677067</v>
       </c>
       <c r="C29" t="n">
-        <v>0.598135</v>
+        <v>0.609802</v>
       </c>
       <c r="D29" t="n">
-        <v>0.615546</v>
+        <v>0.612502</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.67141</v>
+        <v>0.689223</v>
       </c>
       <c r="C30" t="n">
-        <v>0.619116</v>
+        <v>0.621127</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5902269999999999</v>
+        <v>0.602026</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.675245</v>
+        <v>0.65993</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6064659999999999</v>
+        <v>0.607672</v>
       </c>
       <c r="D31" t="n">
-        <v>0.598548</v>
+        <v>0.593784</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.66443</v>
+        <v>0.665169</v>
       </c>
       <c r="C32" t="n">
-        <v>0.603807</v>
+        <v>0.626776</v>
       </c>
       <c r="D32" t="n">
-        <v>0.605445</v>
+        <v>0.605368</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6783940000000001</v>
+        <v>0.687369</v>
       </c>
       <c r="C33" t="n">
-        <v>0.652998</v>
+        <v>0.615482</v>
       </c>
       <c r="D33" t="n">
-        <v>0.617085</v>
+        <v>0.618962</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.67792</v>
+        <v>0.692387</v>
       </c>
       <c r="C34" t="n">
-        <v>0.640188</v>
+        <v>0.652973</v>
       </c>
       <c r="D34" t="n">
-        <v>0.620886</v>
+        <v>0.619569</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.699623</v>
+        <v>0.678949</v>
       </c>
       <c r="C35" t="n">
-        <v>0.628976</v>
+        <v>0.644799</v>
       </c>
       <c r="D35" t="n">
-        <v>0.629105</v>
+        <v>0.636537</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.694221</v>
+        <v>0.717506</v>
       </c>
       <c r="C36" t="n">
-        <v>0.661487</v>
+        <v>0.688303</v>
       </c>
       <c r="D36" t="n">
-        <v>0.64323</v>
+        <v>0.6597769999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.720939</v>
+        <v>0.743816</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6883320000000001</v>
+        <v>0.6981889999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6110989999999999</v>
+        <v>0.607273</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.673006</v>
+        <v>0.694833</v>
       </c>
       <c r="C38" t="n">
-        <v>0.598707</v>
+        <v>0.629426</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6097860000000001</v>
+        <v>0.607538</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.686051</v>
+        <v>0.702587</v>
       </c>
       <c r="C39" t="n">
-        <v>0.602746</v>
+        <v>0.609104</v>
       </c>
       <c r="D39" t="n">
-        <v>0.599102</v>
+        <v>0.592576</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.67167</v>
+        <v>0.697659</v>
       </c>
       <c r="C40" t="n">
-        <v>0.597815</v>
+        <v>0.595068</v>
       </c>
       <c r="D40" t="n">
-        <v>0.596002</v>
+        <v>0.601652</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.665968</v>
+        <v>0.68782</v>
       </c>
       <c r="C41" t="n">
-        <v>0.597171</v>
+        <v>0.606214</v>
       </c>
       <c r="D41" t="n">
-        <v>0.606395</v>
+        <v>0.600949</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.669509</v>
+        <v>0.661372</v>
       </c>
       <c r="C42" t="n">
-        <v>0.608615</v>
+        <v>0.608402</v>
       </c>
       <c r="D42" t="n">
-        <v>0.623122</v>
+        <v>0.6238320000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.693222</v>
+        <v>0.681064</v>
       </c>
       <c r="C43" t="n">
-        <v>0.597835</v>
+        <v>0.614988</v>
       </c>
       <c r="D43" t="n">
-        <v>0.600975</v>
+        <v>0.607451</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.672241</v>
+        <v>0.696267</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6218590000000001</v>
+        <v>0.627687</v>
       </c>
       <c r="D44" t="n">
-        <v>0.582853</v>
+        <v>0.602337</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.689635</v>
+        <v>0.686425</v>
       </c>
       <c r="C45" t="n">
-        <v>0.636005</v>
+        <v>0.623347</v>
       </c>
       <c r="D45" t="n">
-        <v>0.598781</v>
+        <v>0.593953</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.677215</v>
+        <v>0.705734</v>
       </c>
       <c r="C46" t="n">
-        <v>0.626712</v>
+        <v>0.626979</v>
       </c>
       <c r="D46" t="n">
-        <v>0.620278</v>
+        <v>0.627905</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.668579</v>
+        <v>0.708394</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6371289999999999</v>
+        <v>0.654909</v>
       </c>
       <c r="D47" t="n">
-        <v>0.619868</v>
+        <v>0.636491</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.683599</v>
+        <v>0.691647</v>
       </c>
       <c r="C48" t="n">
-        <v>0.630309</v>
+        <v>0.652123</v>
       </c>
       <c r="D48" t="n">
-        <v>0.644923</v>
+        <v>0.632595</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.689535</v>
+        <v>0.705572</v>
       </c>
       <c r="C49" t="n">
-        <v>0.648966</v>
+        <v>0.632454</v>
       </c>
       <c r="D49" t="n">
-        <v>0.642147</v>
+        <v>0.638478</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.721348</v>
+        <v>0.7055979999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.652952</v>
+        <v>0.688377</v>
       </c>
       <c r="D50" t="n">
-        <v>0.674925</v>
+        <v>0.654658</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.73803</v>
+        <v>0.736659</v>
       </c>
       <c r="C51" t="n">
-        <v>0.70763</v>
+        <v>0.6969030000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.603718</v>
+        <v>0.640873</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.778288</v>
+        <v>0.792253</v>
       </c>
       <c r="C52" t="n">
-        <v>0.728143</v>
+        <v>0.745775</v>
       </c>
       <c r="D52" t="n">
-        <v>0.610869</v>
+        <v>0.609657</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.706091</v>
+        <v>0.700392</v>
       </c>
       <c r="C53" t="n">
-        <v>0.608415</v>
+        <v>0.6359</v>
       </c>
       <c r="D53" t="n">
-        <v>0.614568</v>
+        <v>0.636103</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.70762</v>
+        <v>0.696385</v>
       </c>
       <c r="C54" t="n">
-        <v>0.637933</v>
+        <v>0.633114</v>
       </c>
       <c r="D54" t="n">
-        <v>0.610174</v>
+        <v>0.598564</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.700929</v>
+        <v>0.697043</v>
       </c>
       <c r="C55" t="n">
-        <v>0.620349</v>
+        <v>0.638205</v>
       </c>
       <c r="D55" t="n">
-        <v>0.600955</v>
+        <v>0.623023</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.708825</v>
+        <v>0.71454</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6303840000000001</v>
+        <v>0.632758</v>
       </c>
       <c r="D56" t="n">
-        <v>0.646585</v>
+        <v>0.6257740000000001</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.698816</v>
+        <v>0.717951</v>
       </c>
       <c r="C57" t="n">
-        <v>0.63522</v>
+        <v>0.638178</v>
       </c>
       <c r="D57" t="n">
-        <v>0.634023</v>
+        <v>0.60729</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.716739</v>
+        <v>0.752084</v>
       </c>
       <c r="C58" t="n">
-        <v>0.632413</v>
+        <v>0.650691</v>
       </c>
       <c r="D58" t="n">
-        <v>0.603793</v>
+        <v>0.617431</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.74848</v>
+        <v>0.715938</v>
       </c>
       <c r="C59" t="n">
-        <v>0.648003</v>
+        <v>0.635751</v>
       </c>
       <c r="D59" t="n">
-        <v>0.625124</v>
+        <v>0.627533</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.710846</v>
+        <v>0.7072310000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.656839</v>
+        <v>0.680635</v>
       </c>
       <c r="D60" t="n">
-        <v>0.639964</v>
+        <v>0.628647</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.716695</v>
+        <v>0.747362</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6607769999999999</v>
+        <v>0.660214</v>
       </c>
       <c r="D61" t="n">
-        <v>0.647246</v>
+        <v>0.660077</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.746026</v>
+        <v>0.711848</v>
       </c>
       <c r="C62" t="n">
-        <v>0.667513</v>
+        <v>0.658533</v>
       </c>
       <c r="D62" t="n">
-        <v>0.643553</v>
+        <v>0.636568</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.749252</v>
+        <v>0.728788</v>
       </c>
       <c r="C63" t="n">
-        <v>0.669079</v>
+        <v>0.6689040000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.651216</v>
+        <v>0.638036</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.754248</v>
+        <v>0.732267</v>
       </c>
       <c r="C64" t="n">
-        <v>0.675496</v>
+        <v>0.677808</v>
       </c>
       <c r="D64" t="n">
-        <v>0.666332</v>
+        <v>0.658398</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.783297</v>
+        <v>0.777946</v>
       </c>
       <c r="C65" t="n">
-        <v>0.717861</v>
+        <v>0.727448</v>
       </c>
       <c r="D65" t="n">
-        <v>0.715927</v>
+        <v>0.701632</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.782461</v>
+        <v>0.823784</v>
       </c>
       <c r="C66" t="n">
-        <v>0.742146</v>
+        <v>0.752019</v>
       </c>
       <c r="D66" t="n">
-        <v>0.624516</v>
+        <v>0.651437</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.759576</v>
+        <v>0.737198</v>
       </c>
       <c r="C67" t="n">
-        <v>0.68562</v>
+        <v>0.6493139999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.644912</v>
+        <v>0.642069</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.739814</v>
+        <v>0.745408</v>
       </c>
       <c r="C68" t="n">
-        <v>0.644547</v>
+        <v>0.659316</v>
       </c>
       <c r="D68" t="n">
-        <v>0.639773</v>
+        <v>0.658572</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.745417</v>
+        <v>0.758386</v>
       </c>
       <c r="C69" t="n">
-        <v>0.646664</v>
+        <v>0.6599120000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.645205</v>
+        <v>0.648553</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.752792</v>
+        <v>0.766568</v>
       </c>
       <c r="C70" t="n">
-        <v>0.663502</v>
+        <v>0.684626</v>
       </c>
       <c r="D70" t="n">
-        <v>0.658768</v>
+        <v>0.639947</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.738393</v>
+        <v>0.752664</v>
       </c>
       <c r="C71" t="n">
-        <v>0.676945</v>
+        <v>0.6629620000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.64022</v>
+        <v>0.6326000000000001</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.751407</v>
+        <v>0.7481179999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.66618</v>
+        <v>0.666868</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6507230000000001</v>
+        <v>0.656681</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7405080000000001</v>
+        <v>0.7364540000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6534140000000001</v>
+        <v>0.6675</v>
       </c>
       <c r="D73" t="n">
-        <v>0.640804</v>
+        <v>0.643039</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.738155</v>
+        <v>0.7435389999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.711315</v>
+        <v>0.684856</v>
       </c>
       <c r="D74" t="n">
-        <v>0.663947</v>
+        <v>0.648313</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.773818</v>
+        <v>0.75628</v>
       </c>
       <c r="C75" t="n">
-        <v>0.683303</v>
+        <v>0.695102</v>
       </c>
       <c r="D75" t="n">
-        <v>0.668098</v>
+        <v>0.687513</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.743939</v>
+        <v>0.748205</v>
       </c>
       <c r="C76" t="n">
-        <v>0.688797</v>
+        <v>0.698142</v>
       </c>
       <c r="D76" t="n">
-        <v>0.656272</v>
+        <v>0.674091</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.76092</v>
+        <v>0.783568</v>
       </c>
       <c r="C77" t="n">
-        <v>0.720427</v>
+        <v>0.710319</v>
       </c>
       <c r="D77" t="n">
-        <v>0.69881</v>
+        <v>0.675308</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.777177</v>
+        <v>0.786111</v>
       </c>
       <c r="C78" t="n">
-        <v>0.753641</v>
+        <v>0.725909</v>
       </c>
       <c r="D78" t="n">
-        <v>0.697922</v>
+        <v>0.686903</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.833498</v>
+        <v>0.8282620000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.763553</v>
+        <v>0.766333</v>
       </c>
       <c r="D79" t="n">
-        <v>0.716485</v>
+        <v>0.7369790000000001</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.881953</v>
+        <v>0.847472</v>
       </c>
       <c r="C80" t="n">
-        <v>0.797814</v>
+        <v>0.798434</v>
       </c>
       <c r="D80" t="n">
-        <v>0.688209</v>
+        <v>0.661494</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.777714</v>
+        <v>0.75966</v>
       </c>
       <c r="C81" t="n">
-        <v>0.670918</v>
+        <v>0.685458</v>
       </c>
       <c r="D81" t="n">
-        <v>0.689755</v>
+        <v>0.6463179999999999</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.768003</v>
+        <v>0.778525</v>
       </c>
       <c r="C82" t="n">
-        <v>0.690041</v>
+        <v>0.700408</v>
       </c>
       <c r="D82" t="n">
-        <v>0.650244</v>
+        <v>0.687759</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.749318</v>
+        <v>0.788125</v>
       </c>
       <c r="C83" t="n">
-        <v>0.693976</v>
+        <v>0.70835</v>
       </c>
       <c r="D83" t="n">
-        <v>0.662857</v>
+        <v>0.671006</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.769131</v>
+        <v>0.807069</v>
       </c>
       <c r="C84" t="n">
-        <v>0.727061</v>
+        <v>0.721285</v>
       </c>
       <c r="D84" t="n">
-        <v>0.659036</v>
+        <v>0.669851</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.790327</v>
+        <v>0.781502</v>
       </c>
       <c r="C85" t="n">
-        <v>0.698199</v>
+        <v>0.70617</v>
       </c>
       <c r="D85" t="n">
-        <v>0.670608</v>
+        <v>0.683889</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.798565</v>
+        <v>0.797265</v>
       </c>
       <c r="C86" t="n">
-        <v>0.689974</v>
+        <v>0.713593</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6611860000000001</v>
+        <v>0.6875520000000001</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.789824</v>
+        <v>0.797887</v>
       </c>
       <c r="C87" t="n">
-        <v>0.744608</v>
+        <v>0.7173850000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>0.665106</v>
+        <v>0.677827</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.79191</v>
+        <v>0.79531</v>
       </c>
       <c r="C88" t="n">
-        <v>0.706896</v>
+        <v>0.729667</v>
       </c>
       <c r="D88" t="n">
-        <v>0.700367</v>
+        <v>0.674142</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.793853</v>
+        <v>0.808254</v>
       </c>
       <c r="C89" t="n">
-        <v>0.726622</v>
+        <v>0.762466</v>
       </c>
       <c r="D89" t="n">
-        <v>0.656759</v>
+        <v>0.697933</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.793872</v>
+        <v>0.834471</v>
       </c>
       <c r="C90" t="n">
-        <v>0.698429</v>
+        <v>0.739555</v>
       </c>
       <c r="D90" t="n">
-        <v>0.691636</v>
+        <v>0.7000960000000001</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.824481</v>
+        <v>0.8255209999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.752864</v>
+        <v>0.777999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.715874</v>
+        <v>0.705947</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.839309</v>
+        <v>0.835459</v>
       </c>
       <c r="C92" t="n">
-        <v>0.754787</v>
+        <v>0.810211</v>
       </c>
       <c r="D92" t="n">
-        <v>0.716989</v>
+        <v>0.728453</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.841263</v>
+        <v>0.8822950000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>0.794153</v>
+        <v>0.817595</v>
       </c>
       <c r="D93" t="n">
-        <v>0.748449</v>
+        <v>0.739143</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.961001</v>
+        <v>0.927104</v>
       </c>
       <c r="C94" t="n">
-        <v>0.821825</v>
+        <v>0.854234</v>
       </c>
       <c r="D94" t="n">
-        <v>0.697576</v>
+        <v>0.7154470000000001</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.803326</v>
+        <v>0.809237</v>
       </c>
       <c r="C95" t="n">
-        <v>0.753966</v>
+        <v>0.759989</v>
       </c>
       <c r="D95" t="n">
-        <v>0.670434</v>
+        <v>0.696859</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.813262</v>
+        <v>0.840093</v>
       </c>
       <c r="C96" t="n">
-        <v>0.738758</v>
+        <v>0.741107</v>
       </c>
       <c r="D96" t="n">
-        <v>0.697673</v>
+        <v>0.715643</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.843948</v>
+        <v>0.826329</v>
       </c>
       <c r="C97" t="n">
-        <v>0.7256089999999999</v>
+        <v>0.742924</v>
       </c>
       <c r="D97" t="n">
-        <v>0.720047</v>
+        <v>0.692831</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.823049</v>
+        <v>0.855514</v>
       </c>
       <c r="C98" t="n">
-        <v>0.75589</v>
+        <v>0.751791</v>
       </c>
       <c r="D98" t="n">
-        <v>0.711522</v>
+        <v>0.712854</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8484080000000001</v>
+        <v>0.839316</v>
       </c>
       <c r="C99" t="n">
-        <v>0.783751</v>
+        <v>0.764666</v>
       </c>
       <c r="D99" t="n">
-        <v>0.700846</v>
+        <v>0.714944</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.859052</v>
+        <v>0.854446</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7770860000000001</v>
+        <v>0.783069</v>
       </c>
       <c r="D100" t="n">
-        <v>0.742684</v>
+        <v>0.716109</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.848495</v>
+        <v>0.833066</v>
       </c>
       <c r="C101" t="n">
-        <v>0.76752</v>
+        <v>0.769757</v>
       </c>
       <c r="D101" t="n">
-        <v>0.703605</v>
+        <v>0.709286</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.840496</v>
+        <v>0.867017</v>
       </c>
       <c r="C102" t="n">
-        <v>0.7815839999999999</v>
+        <v>0.775789</v>
       </c>
       <c r="D102" t="n">
-        <v>0.728847</v>
+        <v>0.72004</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.878553</v>
+        <v>0.880705</v>
       </c>
       <c r="C103" t="n">
-        <v>0.792696</v>
+        <v>0.777573</v>
       </c>
       <c r="D103" t="n">
-        <v>0.729151</v>
+        <v>0.762557</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.879558</v>
+        <v>0.8688979999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>0.801465</v>
+        <v>0.805983</v>
       </c>
       <c r="D104" t="n">
-        <v>0.737361</v>
+        <v>0.771862</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.892771</v>
+        <v>0.872245</v>
       </c>
       <c r="C105" t="n">
-        <v>0.825675</v>
+        <v>0.833811</v>
       </c>
       <c r="D105" t="n">
-        <v>0.733004</v>
+        <v>0.753335</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.888892</v>
+        <v>0.901683</v>
       </c>
       <c r="C106" t="n">
-        <v>0.835833</v>
+        <v>0.8483000000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.772307</v>
+        <v>0.776757</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.93266</v>
+        <v>0.93965</v>
       </c>
       <c r="C107" t="n">
-        <v>0.86844</v>
+        <v>0.869501</v>
       </c>
       <c r="D107" t="n">
-        <v>0.777342</v>
+        <v>0.782686</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.975197</v>
+        <v>0.976725</v>
       </c>
       <c r="C108" t="n">
-        <v>0.912606</v>
+        <v>0.922579</v>
       </c>
       <c r="D108" t="n">
-        <v>0.826916</v>
+        <v>0.87351</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.04674</v>
+        <v>1.06666</v>
       </c>
       <c r="C109" t="n">
-        <v>1.00495</v>
+        <v>1.00582</v>
       </c>
       <c r="D109" t="n">
-        <v>0.832031</v>
+        <v>0.859488</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.980988</v>
+        <v>0.974612</v>
       </c>
       <c r="C110" t="n">
-        <v>0.89943</v>
+        <v>0.91359</v>
       </c>
       <c r="D110" t="n">
-        <v>0.835488</v>
+        <v>0.8542380000000001</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.00759</v>
+        <v>0.993058</v>
       </c>
       <c r="C111" t="n">
-        <v>0.904331</v>
+        <v>0.930984</v>
       </c>
       <c r="D111" t="n">
-        <v>0.87161</v>
+        <v>0.855948</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.982654</v>
+        <v>1.01564</v>
       </c>
       <c r="C112" t="n">
-        <v>0.895334</v>
+        <v>0.91029</v>
       </c>
       <c r="D112" t="n">
-        <v>0.853026</v>
+        <v>0.853105</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.985865</v>
+        <v>0.990008</v>
       </c>
       <c r="C113" t="n">
-        <v>0.899416</v>
+        <v>0.9265949999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.850309</v>
+        <v>0.883319</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.965953</v>
+        <v>0.990668</v>
       </c>
       <c r="C114" t="n">
-        <v>0.905232</v>
+        <v>0.907919</v>
       </c>
       <c r="D114" t="n">
-        <v>0.862706</v>
+        <v>0.873829</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.02055</v>
+        <v>1.01516</v>
       </c>
       <c r="C115" t="n">
-        <v>0.928191</v>
+        <v>0.921511</v>
       </c>
       <c r="D115" t="n">
-        <v>0.876311</v>
+        <v>0.856413</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.998031</v>
+        <v>1.0125</v>
       </c>
       <c r="C116" t="n">
-        <v>0.919233</v>
+        <v>0.929756</v>
       </c>
       <c r="D116" t="n">
-        <v>0.8762219999999999</v>
+        <v>0.869471</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.01341</v>
+        <v>1.03713</v>
       </c>
       <c r="C117" t="n">
-        <v>0.943116</v>
+        <v>0.932988</v>
       </c>
       <c r="D117" t="n">
-        <v>0.857472</v>
+        <v>0.864096</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.03412</v>
+        <v>1.04302</v>
       </c>
       <c r="C118" t="n">
-        <v>0.981253</v>
+        <v>0.957433</v>
       </c>
       <c r="D118" t="n">
-        <v>0.863237</v>
+        <v>0.887613</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.04939</v>
+        <v>1.04282</v>
       </c>
       <c r="C119" t="n">
-        <v>0.975467</v>
+        <v>1.00142</v>
       </c>
       <c r="D119" t="n">
-        <v>0.917602</v>
+        <v>0.924423</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.07878</v>
+        <v>1.06029</v>
       </c>
       <c r="C120" t="n">
-        <v>0.981173</v>
+        <v>1.04991</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9216529999999999</v>
+        <v>0.932557</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.10401</v>
+        <v>1.09391</v>
       </c>
       <c r="C121" t="n">
-        <v>1.04789</v>
+        <v>1.03597</v>
       </c>
       <c r="D121" t="n">
-        <v>0.935817</v>
+        <v>0.929355</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.15203</v>
+        <v>1.13765</v>
       </c>
       <c r="C122" t="n">
-        <v>1.09131</v>
+        <v>1.12203</v>
       </c>
       <c r="D122" t="n">
-        <v>0.978587</v>
+        <v>1.00002</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.22704</v>
+        <v>1.23179</v>
       </c>
       <c r="C123" t="n">
-        <v>1.20441</v>
+        <v>1.1884</v>
       </c>
       <c r="D123" t="n">
-        <v>1.14375</v>
+        <v>1.18264</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.328</v>
+        <v>1.3061</v>
       </c>
       <c r="C124" t="n">
-        <v>1.20395</v>
+        <v>1.2317</v>
       </c>
       <c r="D124" t="n">
-        <v>1.12445</v>
+        <v>1.15003</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.30334</v>
+        <v>1.30804</v>
       </c>
       <c r="C125" t="n">
-        <v>1.19246</v>
+        <v>1.19384</v>
       </c>
       <c r="D125" t="n">
-        <v>1.09337</v>
+        <v>1.1209</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.32107</v>
+        <v>1.31727</v>
       </c>
       <c r="C126" t="n">
-        <v>1.19188</v>
+        <v>1.18896</v>
       </c>
       <c r="D126" t="n">
-        <v>1.15069</v>
+        <v>1.12654</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.3125</v>
+        <v>1.3095</v>
       </c>
       <c r="C127" t="n">
-        <v>1.21835</v>
+        <v>1.19953</v>
       </c>
       <c r="D127" t="n">
-        <v>1.18378</v>
+        <v>1.12724</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.35453</v>
+        <v>1.38212</v>
       </c>
       <c r="C128" t="n">
-        <v>1.15807</v>
+        <v>1.21265</v>
       </c>
       <c r="D128" t="n">
-        <v>1.1897</v>
+        <v>1.19398</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.33841</v>
+        <v>1.33019</v>
       </c>
       <c r="C129" t="n">
-        <v>1.2386</v>
+        <v>1.2737</v>
       </c>
       <c r="D129" t="n">
-        <v>1.14297</v>
+        <v>1.17433</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.34158</v>
+        <v>1.41017</v>
       </c>
       <c r="C130" t="n">
-        <v>1.21946</v>
+        <v>1.26389</v>
       </c>
       <c r="D130" t="n">
-        <v>1.13541</v>
+        <v>1.18478</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.33246</v>
+        <v>1.36185</v>
       </c>
       <c r="C131" t="n">
-        <v>1.26906</v>
+        <v>1.28128</v>
       </c>
       <c r="D131" t="n">
-        <v>1.17382</v>
+        <v>1.19865</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.42688</v>
+        <v>1.42037</v>
       </c>
       <c r="C132" t="n">
-        <v>1.26108</v>
+        <v>1.31383</v>
       </c>
       <c r="D132" t="n">
-        <v>1.19513</v>
+        <v>1.17866</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.35993</v>
+        <v>1.43137</v>
       </c>
       <c r="C133" t="n">
-        <v>1.25744</v>
+        <v>1.28482</v>
       </c>
       <c r="D133" t="n">
-        <v>1.22597</v>
+        <v>1.19404</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.385</v>
+        <v>1.46607</v>
       </c>
       <c r="C134" t="n">
-        <v>1.31376</v>
+        <v>1.31903</v>
       </c>
       <c r="D134" t="n">
-        <v>1.22653</v>
+        <v>1.2077</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.40791</v>
+        <v>1.45719</v>
       </c>
       <c r="C135" t="n">
-        <v>1.39277</v>
+        <v>1.36389</v>
       </c>
       <c r="D135" t="n">
-        <v>1.20237</v>
+        <v>1.23331</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.53452</v>
+        <v>1.52265</v>
       </c>
       <c r="C136" t="n">
-        <v>1.39942</v>
+        <v>1.47706</v>
       </c>
       <c r="D136" t="n">
-        <v>1.27444</v>
+        <v>1.29224</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.58083</v>
+        <v>1.59143</v>
       </c>
       <c r="C137" t="n">
-        <v>1.48522</v>
+        <v>1.52032</v>
       </c>
       <c r="D137" t="n">
-        <v>1.35868</v>
+        <v>1.42428</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.55165</v>
+        <v>1.62571</v>
       </c>
       <c r="C138" t="n">
-        <v>1.41088</v>
+        <v>1.42205</v>
       </c>
       <c r="D138" t="n">
-        <v>1.29881</v>
+        <v>1.40355</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.55561</v>
+        <v>1.58683</v>
       </c>
       <c r="C139" t="n">
-        <v>1.4281</v>
+        <v>1.40992</v>
       </c>
       <c r="D139" t="n">
-        <v>1.35594</v>
+        <v>1.36953</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.64818</v>
+        <v>1.66391</v>
       </c>
       <c r="C140" t="n">
-        <v>1.47024</v>
+        <v>1.42362</v>
       </c>
       <c r="D140" t="n">
-        <v>1.37159</v>
+        <v>1.41847</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.60227</v>
+        <v>1.6226</v>
       </c>
       <c r="C141" t="n">
-        <v>1.46387</v>
+        <v>1.4901</v>
       </c>
       <c r="D141" t="n">
-        <v>1.33424</v>
+        <v>1.37894</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.61682</v>
+        <v>1.60031</v>
       </c>
       <c r="C142" t="n">
-        <v>1.42148</v>
+        <v>1.46663</v>
       </c>
       <c r="D142" t="n">
-        <v>1.39829</v>
+        <v>1.37139</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.62597</v>
+        <v>1.61161</v>
       </c>
       <c r="C143" t="n">
-        <v>1.46315</v>
+        <v>1.47034</v>
       </c>
       <c r="D143" t="n">
-        <v>1.40553</v>
+        <v>1.39266</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.67733</v>
+        <v>0.660857</v>
       </c>
       <c r="C2" t="n">
-        <v>0.601888</v>
+        <v>0.614404</v>
       </c>
       <c r="D2" t="n">
-        <v>0.597998</v>
+        <v>0.594589</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.647703</v>
+        <v>0.659289</v>
       </c>
       <c r="C3" t="n">
-        <v>0.59762</v>
+        <v>0.601742</v>
       </c>
       <c r="D3" t="n">
-        <v>0.593624</v>
+        <v>0.59468</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.655592</v>
+        <v>0.657185</v>
       </c>
       <c r="C4" t="n">
-        <v>0.611548</v>
+        <v>0.604673</v>
       </c>
       <c r="D4" t="n">
-        <v>0.594934</v>
+        <v>0.588933</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.659562</v>
+        <v>0.657131</v>
       </c>
       <c r="C5" t="n">
-        <v>0.610362</v>
+        <v>0.621461</v>
       </c>
       <c r="D5" t="n">
-        <v>0.611368</v>
+        <v>0.603043</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6802049999999999</v>
+        <v>0.684679</v>
       </c>
       <c r="C6" t="n">
-        <v>0.640849</v>
+        <v>0.651046</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6017169999999999</v>
+        <v>0.617275</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.686603</v>
+        <v>0.6685449999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6605529999999999</v>
+        <v>0.64439</v>
       </c>
       <c r="D7" t="n">
-        <v>0.627243</v>
+        <v>0.625839</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.721861</v>
+        <v>0.7055940000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.663123</v>
+        <v>0.672757</v>
       </c>
       <c r="D8" t="n">
-        <v>0.647209</v>
+        <v>0.682435</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.757332</v>
+        <v>0.728836</v>
       </c>
       <c r="C9" t="n">
-        <v>0.690604</v>
+        <v>0.703771</v>
       </c>
       <c r="D9" t="n">
-        <v>0.587592</v>
+        <v>0.5903389999999999</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.655235</v>
+        <v>0.660544</v>
       </c>
       <c r="C10" t="n">
-        <v>0.587988</v>
+        <v>0.604193</v>
       </c>
       <c r="D10" t="n">
-        <v>0.595496</v>
+        <v>0.590193</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.649273</v>
+        <v>0.657372</v>
       </c>
       <c r="C11" t="n">
-        <v>0.593421</v>
+        <v>0.5989370000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.58173</v>
+        <v>0.603268</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.671181</v>
+        <v>0.668723</v>
       </c>
       <c r="C12" t="n">
-        <v>0.589679</v>
+        <v>0.603863</v>
       </c>
       <c r="D12" t="n">
-        <v>0.594763</v>
+        <v>0.596695</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.688265</v>
+        <v>0.656229</v>
       </c>
       <c r="C13" t="n">
-        <v>0.622582</v>
+        <v>0.598788</v>
       </c>
       <c r="D13" t="n">
-        <v>0.596318</v>
+        <v>0.591642</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.652336</v>
+        <v>0.658298</v>
       </c>
       <c r="C14" t="n">
-        <v>0.619308</v>
+        <v>0.603068</v>
       </c>
       <c r="D14" t="n">
-        <v>0.604868</v>
+        <v>0.59427</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.661206</v>
+        <v>0.68175</v>
       </c>
       <c r="C15" t="n">
-        <v>0.599284</v>
+        <v>0.660408</v>
       </c>
       <c r="D15" t="n">
-        <v>0.597008</v>
+        <v>0.5927750000000001</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6851429999999999</v>
+        <v>0.660797</v>
       </c>
       <c r="C16" t="n">
-        <v>0.604846</v>
+        <v>0.604922</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6077360000000001</v>
+        <v>0.597878</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.668248</v>
+        <v>0.658434</v>
       </c>
       <c r="C17" t="n">
-        <v>0.617372</v>
+        <v>0.612267</v>
       </c>
       <c r="D17" t="n">
-        <v>0.602041</v>
+        <v>0.599326</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.668812</v>
+        <v>0.663022</v>
       </c>
       <c r="C18" t="n">
-        <v>0.647573</v>
+        <v>0.61356</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6170060000000001</v>
+        <v>0.605164</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.692037</v>
+        <v>0.667806</v>
       </c>
       <c r="C19" t="n">
-        <v>0.622452</v>
+        <v>0.617258</v>
       </c>
       <c r="D19" t="n">
-        <v>0.633568</v>
+        <v>0.615212</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.675466</v>
+        <v>0.680574</v>
       </c>
       <c r="C20" t="n">
-        <v>0.641074</v>
+        <v>0.625772</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6264189999999999</v>
+        <v>0.617798</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.671029</v>
+        <v>0.679732</v>
       </c>
       <c r="C21" t="n">
-        <v>0.630833</v>
+        <v>0.637843</v>
       </c>
       <c r="D21" t="n">
-        <v>0.633282</v>
+        <v>0.634298</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.707801</v>
+        <v>0.705084</v>
       </c>
       <c r="C22" t="n">
-        <v>0.671143</v>
+        <v>0.667817</v>
       </c>
       <c r="D22" t="n">
-        <v>0.649307</v>
+        <v>0.652322</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.713439</v>
+        <v>0.73452</v>
       </c>
       <c r="C23" t="n">
-        <v>0.720096</v>
+        <v>0.696018</v>
       </c>
       <c r="D23" t="n">
-        <v>0.608753</v>
+        <v>0.597121</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.677005</v>
+        <v>0.671843</v>
       </c>
       <c r="C24" t="n">
-        <v>0.601096</v>
+        <v>0.600645</v>
       </c>
       <c r="D24" t="n">
-        <v>0.59143</v>
+        <v>0.596709</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.679085</v>
+        <v>0.670059</v>
       </c>
       <c r="C25" t="n">
-        <v>0.598826</v>
+        <v>0.600128</v>
       </c>
       <c r="D25" t="n">
-        <v>0.615538</v>
+        <v>0.598718</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.671374</v>
+        <v>0.671146</v>
       </c>
       <c r="C26" t="n">
-        <v>0.58979</v>
+        <v>0.600997</v>
       </c>
       <c r="D26" t="n">
-        <v>0.598366</v>
+        <v>0.594531</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.680895</v>
+        <v>0.673204</v>
       </c>
       <c r="C27" t="n">
-        <v>0.597025</v>
+        <v>0.607359</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5901</v>
+        <v>0.595762</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.677376</v>
+        <v>0.675555</v>
       </c>
       <c r="C28" t="n">
-        <v>0.615486</v>
+        <v>0.607342</v>
       </c>
       <c r="D28" t="n">
-        <v>0.593135</v>
+        <v>0.598</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.677067</v>
+        <v>0.676108</v>
       </c>
       <c r="C29" t="n">
-        <v>0.609802</v>
+        <v>0.609107</v>
       </c>
       <c r="D29" t="n">
-        <v>0.612502</v>
+        <v>0.5960299999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.689223</v>
+        <v>0.679575</v>
       </c>
       <c r="C30" t="n">
-        <v>0.621127</v>
+        <v>0.609143</v>
       </c>
       <c r="D30" t="n">
-        <v>0.602026</v>
+        <v>0.598564</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.65993</v>
+        <v>0.683486</v>
       </c>
       <c r="C31" t="n">
-        <v>0.607672</v>
+        <v>0.631343</v>
       </c>
       <c r="D31" t="n">
-        <v>0.593784</v>
+        <v>0.630395</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.665169</v>
+        <v>0.682104</v>
       </c>
       <c r="C32" t="n">
-        <v>0.626776</v>
+        <v>0.618142</v>
       </c>
       <c r="D32" t="n">
-        <v>0.605368</v>
+        <v>0.612042</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.687369</v>
+        <v>0.68122</v>
       </c>
       <c r="C33" t="n">
-        <v>0.615482</v>
+        <v>0.634182</v>
       </c>
       <c r="D33" t="n">
-        <v>0.618962</v>
+        <v>0.617359</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.692387</v>
+        <v>0.692214</v>
       </c>
       <c r="C34" t="n">
-        <v>0.652973</v>
+        <v>0.631532</v>
       </c>
       <c r="D34" t="n">
-        <v>0.619569</v>
+        <v>0.622903</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.678949</v>
+        <v>0.705252</v>
       </c>
       <c r="C35" t="n">
-        <v>0.644799</v>
+        <v>0.647222</v>
       </c>
       <c r="D35" t="n">
-        <v>0.636537</v>
+        <v>0.660825</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.717506</v>
+        <v>0.728752</v>
       </c>
       <c r="C36" t="n">
-        <v>0.688303</v>
+        <v>0.682599</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6597769999999999</v>
+        <v>0.680443</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.743816</v>
+        <v>0.769359</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6981889999999999</v>
+        <v>0.707016</v>
       </c>
       <c r="D37" t="n">
-        <v>0.607273</v>
+        <v>0.599099</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.694833</v>
+        <v>0.685111</v>
       </c>
       <c r="C38" t="n">
-        <v>0.629426</v>
+        <v>0.610953</v>
       </c>
       <c r="D38" t="n">
-        <v>0.607538</v>
+        <v>0.642687</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.702587</v>
+        <v>0.708553</v>
       </c>
       <c r="C39" t="n">
-        <v>0.609104</v>
+        <v>0.60462</v>
       </c>
       <c r="D39" t="n">
-        <v>0.592576</v>
+        <v>0.603704</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.697659</v>
+        <v>0.695055</v>
       </c>
       <c r="C40" t="n">
-        <v>0.595068</v>
+        <v>0.611809</v>
       </c>
       <c r="D40" t="n">
-        <v>0.601652</v>
+        <v>0.6052689999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.68782</v>
+        <v>0.689627</v>
       </c>
       <c r="C41" t="n">
-        <v>0.606214</v>
+        <v>0.615966</v>
       </c>
       <c r="D41" t="n">
-        <v>0.600949</v>
+        <v>0.604196</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.661372</v>
+        <v>0.6951850000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.608402</v>
+        <v>0.613525</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6238320000000001</v>
+        <v>0.609133</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.681064</v>
+        <v>0.682745</v>
       </c>
       <c r="C43" t="n">
-        <v>0.614988</v>
+        <v>0.620673</v>
       </c>
       <c r="D43" t="n">
-        <v>0.607451</v>
+        <v>0.603534</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.696267</v>
+        <v>0.702146</v>
       </c>
       <c r="C44" t="n">
-        <v>0.627687</v>
+        <v>0.6196199999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.602337</v>
+        <v>0.608135</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.686425</v>
+        <v>0.691287</v>
       </c>
       <c r="C45" t="n">
-        <v>0.623347</v>
+        <v>0.629537</v>
       </c>
       <c r="D45" t="n">
-        <v>0.593953</v>
+        <v>0.613379</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.705734</v>
+        <v>0.712696</v>
       </c>
       <c r="C46" t="n">
-        <v>0.626979</v>
+        <v>0.635455</v>
       </c>
       <c r="D46" t="n">
-        <v>0.627905</v>
+        <v>0.610673</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.708394</v>
+        <v>0.7039800000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.654909</v>
+        <v>0.632126</v>
       </c>
       <c r="D47" t="n">
-        <v>0.636491</v>
+        <v>0.6275230000000001</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.691647</v>
+        <v>0.719647</v>
       </c>
       <c r="C48" t="n">
-        <v>0.652123</v>
+        <v>0.643257</v>
       </c>
       <c r="D48" t="n">
-        <v>0.632595</v>
+        <v>0.636233</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.705572</v>
+        <v>0.719214</v>
       </c>
       <c r="C49" t="n">
-        <v>0.632454</v>
+        <v>0.661501</v>
       </c>
       <c r="D49" t="n">
-        <v>0.638478</v>
+        <v>0.6525339999999999</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.7055979999999999</v>
+        <v>0.763668</v>
       </c>
       <c r="C50" t="n">
-        <v>0.688377</v>
+        <v>0.687353</v>
       </c>
       <c r="D50" t="n">
-        <v>0.654658</v>
+        <v>0.666035</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.736659</v>
+        <v>0.765222</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6969030000000001</v>
+        <v>0.704954</v>
       </c>
       <c r="D51" t="n">
-        <v>0.640873</v>
+        <v>0.619372</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.792253</v>
+        <v>0.78694</v>
       </c>
       <c r="C52" t="n">
-        <v>0.745775</v>
+        <v>0.750562</v>
       </c>
       <c r="D52" t="n">
-        <v>0.609657</v>
+        <v>0.618807</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.700392</v>
+        <v>0.723548</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6359</v>
+        <v>0.6413759999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.636103</v>
+        <v>0.627074</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.696385</v>
+        <v>0.741453</v>
       </c>
       <c r="C54" t="n">
-        <v>0.633114</v>
+        <v>0.654635</v>
       </c>
       <c r="D54" t="n">
-        <v>0.598564</v>
+        <v>0.631363</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.697043</v>
+        <v>0.770018</v>
       </c>
       <c r="C55" t="n">
-        <v>0.638205</v>
+        <v>0.654879</v>
       </c>
       <c r="D55" t="n">
-        <v>0.623023</v>
+        <v>0.62391</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.71454</v>
+        <v>0.712073</v>
       </c>
       <c r="C56" t="n">
-        <v>0.632758</v>
+        <v>0.6646570000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6257740000000001</v>
+        <v>0.6243300000000001</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.717951</v>
+        <v>0.719243</v>
       </c>
       <c r="C57" t="n">
-        <v>0.638178</v>
+        <v>0.636884</v>
       </c>
       <c r="D57" t="n">
-        <v>0.60729</v>
+        <v>0.621066</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.752084</v>
+        <v>0.73278</v>
       </c>
       <c r="C58" t="n">
-        <v>0.650691</v>
+        <v>0.646532</v>
       </c>
       <c r="D58" t="n">
-        <v>0.617431</v>
+        <v>0.629806</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.715938</v>
+        <v>0.743349</v>
       </c>
       <c r="C59" t="n">
-        <v>0.635751</v>
+        <v>0.6700390000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.627533</v>
+        <v>0.631128</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.7072310000000001</v>
+        <v>0.72204</v>
       </c>
       <c r="C60" t="n">
-        <v>0.680635</v>
+        <v>0.667231</v>
       </c>
       <c r="D60" t="n">
-        <v>0.628647</v>
+        <v>0.639271</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.747362</v>
+        <v>0.739368</v>
       </c>
       <c r="C61" t="n">
-        <v>0.660214</v>
+        <v>0.681196</v>
       </c>
       <c r="D61" t="n">
-        <v>0.660077</v>
+        <v>0.654813</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.711848</v>
+        <v>0.754458</v>
       </c>
       <c r="C62" t="n">
-        <v>0.658533</v>
+        <v>0.692546</v>
       </c>
       <c r="D62" t="n">
-        <v>0.636568</v>
+        <v>0.654712</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.728788</v>
+        <v>0.7596079999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6689040000000001</v>
+        <v>0.6908609999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.638036</v>
+        <v>0.658056</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.732267</v>
+        <v>0.780887</v>
       </c>
       <c r="C64" t="n">
-        <v>0.677808</v>
+        <v>0.81133</v>
       </c>
       <c r="D64" t="n">
-        <v>0.658398</v>
+        <v>0.766567</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.777946</v>
+        <v>0.814275</v>
       </c>
       <c r="C65" t="n">
-        <v>0.727448</v>
+        <v>0.743569</v>
       </c>
       <c r="D65" t="n">
-        <v>0.701632</v>
+        <v>0.709788</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.823784</v>
+        <v>0.852471</v>
       </c>
       <c r="C66" t="n">
-        <v>0.752019</v>
+        <v>0.778475</v>
       </c>
       <c r="D66" t="n">
-        <v>0.651437</v>
+        <v>0.650532</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.737198</v>
+        <v>0.775637</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6493139999999999</v>
+        <v>0.677613</v>
       </c>
       <c r="D67" t="n">
-        <v>0.642069</v>
+        <v>0.648331</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.745408</v>
+        <v>0.764723</v>
       </c>
       <c r="C68" t="n">
-        <v>0.659316</v>
+        <v>0.672471</v>
       </c>
       <c r="D68" t="n">
-        <v>0.658572</v>
+        <v>0.657409</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.758386</v>
+        <v>0.7669</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6599120000000001</v>
+        <v>0.683971</v>
       </c>
       <c r="D69" t="n">
-        <v>0.648553</v>
+        <v>0.676864</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.766568</v>
+        <v>0.768391</v>
       </c>
       <c r="C70" t="n">
-        <v>0.684626</v>
+        <v>0.699369</v>
       </c>
       <c r="D70" t="n">
-        <v>0.639947</v>
+        <v>0.659408</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.752664</v>
+        <v>0.768454</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6629620000000001</v>
+        <v>0.694418</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6326000000000001</v>
+        <v>0.658766</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7481179999999999</v>
+        <v>0.768288</v>
       </c>
       <c r="C72" t="n">
-        <v>0.666868</v>
+        <v>0.682079</v>
       </c>
       <c r="D72" t="n">
-        <v>0.656681</v>
+        <v>0.733466</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7364540000000001</v>
+        <v>0.751555</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6675</v>
+        <v>0.671163</v>
       </c>
       <c r="D73" t="n">
-        <v>0.643039</v>
+        <v>0.652228</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7435389999999999</v>
+        <v>0.834973</v>
       </c>
       <c r="C74" t="n">
-        <v>0.684856</v>
+        <v>0.678874</v>
       </c>
       <c r="D74" t="n">
-        <v>0.648313</v>
+        <v>0.656205</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.75628</v>
+        <v>0.760581</v>
       </c>
       <c r="C75" t="n">
-        <v>0.695102</v>
+        <v>0.698647</v>
       </c>
       <c r="D75" t="n">
-        <v>0.687513</v>
+        <v>0.684067</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.748205</v>
+        <v>0.847375</v>
       </c>
       <c r="C76" t="n">
-        <v>0.698142</v>
+        <v>0.72395</v>
       </c>
       <c r="D76" t="n">
-        <v>0.674091</v>
+        <v>0.679268</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.783568</v>
+        <v>0.7723370000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.710319</v>
+        <v>0.706349</v>
       </c>
       <c r="D77" t="n">
-        <v>0.675308</v>
+        <v>0.676601</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.786111</v>
+        <v>0.793833</v>
       </c>
       <c r="C78" t="n">
-        <v>0.725909</v>
+        <v>0.7330989999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.686903</v>
+        <v>0.694401</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8282620000000001</v>
+        <v>0.812602</v>
       </c>
       <c r="C79" t="n">
-        <v>0.766333</v>
+        <v>0.764977</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7369790000000001</v>
+        <v>0.7352</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.847472</v>
+        <v>0.991612</v>
       </c>
       <c r="C80" t="n">
-        <v>0.798434</v>
+        <v>0.847405</v>
       </c>
       <c r="D80" t="n">
-        <v>0.661494</v>
+        <v>0.659589</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.75966</v>
+        <v>0.766242</v>
       </c>
       <c r="C81" t="n">
-        <v>0.685458</v>
+        <v>0.686377</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6463179999999999</v>
+        <v>0.657031</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.778525</v>
+        <v>0.7863599999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.700408</v>
+        <v>0.688863</v>
       </c>
       <c r="D82" t="n">
-        <v>0.687759</v>
+        <v>0.658147</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.788125</v>
+        <v>0.771885</v>
       </c>
       <c r="C83" t="n">
-        <v>0.70835</v>
+        <v>0.726325</v>
       </c>
       <c r="D83" t="n">
-        <v>0.671006</v>
+        <v>0.660438</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.807069</v>
+        <v>0.797891</v>
       </c>
       <c r="C84" t="n">
-        <v>0.721285</v>
+        <v>0.694444</v>
       </c>
       <c r="D84" t="n">
-        <v>0.669851</v>
+        <v>0.665982</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.781502</v>
+        <v>0.788041</v>
       </c>
       <c r="C85" t="n">
-        <v>0.70617</v>
+        <v>0.735354</v>
       </c>
       <c r="D85" t="n">
-        <v>0.683889</v>
+        <v>0.683496</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.797265</v>
+        <v>0.794281</v>
       </c>
       <c r="C86" t="n">
-        <v>0.713593</v>
+        <v>0.714201</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6875520000000001</v>
+        <v>0.676849</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.797887</v>
+        <v>0.791173</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7173850000000001</v>
+        <v>0.716832</v>
       </c>
       <c r="D87" t="n">
-        <v>0.677827</v>
+        <v>0.704443</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.79531</v>
+        <v>0.791253</v>
       </c>
       <c r="C88" t="n">
-        <v>0.729667</v>
+        <v>0.723346</v>
       </c>
       <c r="D88" t="n">
-        <v>0.674142</v>
+        <v>0.691418</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.808254</v>
+        <v>0.803192</v>
       </c>
       <c r="C89" t="n">
-        <v>0.762466</v>
+        <v>0.740812</v>
       </c>
       <c r="D89" t="n">
-        <v>0.697933</v>
+        <v>0.686505</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.834471</v>
+        <v>0.816748</v>
       </c>
       <c r="C90" t="n">
-        <v>0.739555</v>
+        <v>0.750377</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7000960000000001</v>
+        <v>0.70117</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8255209999999999</v>
+        <v>0.828247</v>
       </c>
       <c r="C91" t="n">
-        <v>0.777999</v>
+        <v>0.759476</v>
       </c>
       <c r="D91" t="n">
-        <v>0.705947</v>
+        <v>0.719127</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.835459</v>
+        <v>0.844749</v>
       </c>
       <c r="C92" t="n">
-        <v>0.810211</v>
+        <v>0.785097</v>
       </c>
       <c r="D92" t="n">
-        <v>0.728453</v>
+        <v>0.734182</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.8822950000000001</v>
+        <v>0.866972</v>
       </c>
       <c r="C93" t="n">
-        <v>0.817595</v>
+        <v>0.81565</v>
       </c>
       <c r="D93" t="n">
-        <v>0.739143</v>
+        <v>0.751037</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.927104</v>
+        <v>0.91851</v>
       </c>
       <c r="C94" t="n">
-        <v>0.854234</v>
+        <v>0.8735309999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.7154470000000001</v>
+        <v>0.7015130000000001</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.809237</v>
+        <v>0.89177</v>
       </c>
       <c r="C95" t="n">
-        <v>0.759989</v>
+        <v>0.769066</v>
       </c>
       <c r="D95" t="n">
-        <v>0.696859</v>
+        <v>0.703951</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.840093</v>
+        <v>0.839791</v>
       </c>
       <c r="C96" t="n">
-        <v>0.741107</v>
+        <v>0.754526</v>
       </c>
       <c r="D96" t="n">
-        <v>0.715643</v>
+        <v>0.713701</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.826329</v>
+        <v>0.8510180000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.742924</v>
+        <v>0.778233</v>
       </c>
       <c r="D97" t="n">
-        <v>0.692831</v>
+        <v>0.727339</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.855514</v>
+        <v>0.852746</v>
       </c>
       <c r="C98" t="n">
-        <v>0.751791</v>
+        <v>0.8119960000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.712854</v>
+        <v>0.719662</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.839316</v>
+        <v>0.858465</v>
       </c>
       <c r="C99" t="n">
-        <v>0.764666</v>
+        <v>0.767877</v>
       </c>
       <c r="D99" t="n">
-        <v>0.714944</v>
+        <v>0.732006</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.854446</v>
+        <v>0.872518</v>
       </c>
       <c r="C100" t="n">
-        <v>0.783069</v>
+        <v>0.783633</v>
       </c>
       <c r="D100" t="n">
-        <v>0.716109</v>
+        <v>0.743421</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.833066</v>
+        <v>0.865242</v>
       </c>
       <c r="C101" t="n">
-        <v>0.769757</v>
+        <v>0.82461</v>
       </c>
       <c r="D101" t="n">
-        <v>0.709286</v>
+        <v>0.732245</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.867017</v>
+        <v>0.893526</v>
       </c>
       <c r="C102" t="n">
-        <v>0.775789</v>
+        <v>0.818873</v>
       </c>
       <c r="D102" t="n">
-        <v>0.72004</v>
+        <v>0.762792</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.880705</v>
+        <v>0.918417</v>
       </c>
       <c r="C103" t="n">
-        <v>0.777573</v>
+        <v>0.812298</v>
       </c>
       <c r="D103" t="n">
-        <v>0.762557</v>
+        <v>0.768993</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.8688979999999999</v>
+        <v>0.8946229999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>0.805983</v>
+        <v>0.872154</v>
       </c>
       <c r="D104" t="n">
-        <v>0.771862</v>
+        <v>0.784011</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.872245</v>
+        <v>0.964311</v>
       </c>
       <c r="C105" t="n">
-        <v>0.833811</v>
+        <v>0.878892</v>
       </c>
       <c r="D105" t="n">
-        <v>0.753335</v>
+        <v>0.8717510000000001</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.901683</v>
+        <v>0.972181</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8483000000000001</v>
+        <v>0.931261</v>
       </c>
       <c r="D106" t="n">
-        <v>0.776757</v>
+        <v>0.82892</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.93965</v>
+        <v>1.04496</v>
       </c>
       <c r="C107" t="n">
-        <v>0.869501</v>
+        <v>0.937084</v>
       </c>
       <c r="D107" t="n">
-        <v>0.782686</v>
+        <v>0.892552</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.976725</v>
+        <v>1.07987</v>
       </c>
       <c r="C108" t="n">
-        <v>0.922579</v>
+        <v>1.08037</v>
       </c>
       <c r="D108" t="n">
-        <v>0.87351</v>
+        <v>1.044</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.06666</v>
+        <v>1.20229</v>
       </c>
       <c r="C109" t="n">
-        <v>1.00582</v>
+        <v>1.15038</v>
       </c>
       <c r="D109" t="n">
-        <v>0.859488</v>
+        <v>1.03814</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.974612</v>
+        <v>1.25626</v>
       </c>
       <c r="C110" t="n">
-        <v>0.91359</v>
+        <v>1.12119</v>
       </c>
       <c r="D110" t="n">
-        <v>0.8542380000000001</v>
+        <v>1.08596</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.993058</v>
+        <v>1.38281</v>
       </c>
       <c r="C111" t="n">
-        <v>0.930984</v>
+        <v>1.16223</v>
       </c>
       <c r="D111" t="n">
-        <v>0.855948</v>
+        <v>1.12634</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.01564</v>
+        <v>1.24053</v>
       </c>
       <c r="C112" t="n">
-        <v>0.91029</v>
+        <v>1.18324</v>
       </c>
       <c r="D112" t="n">
-        <v>0.853105</v>
+        <v>1.03816</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.990008</v>
+        <v>1.32706</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9265949999999999</v>
+        <v>1.1212</v>
       </c>
       <c r="D113" t="n">
-        <v>0.883319</v>
+        <v>1.19728</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.990668</v>
+        <v>1.30178</v>
       </c>
       <c r="C114" t="n">
-        <v>0.907919</v>
+        <v>1.25769</v>
       </c>
       <c r="D114" t="n">
-        <v>0.873829</v>
+        <v>1.12513</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.01516</v>
+        <v>1.383</v>
       </c>
       <c r="C115" t="n">
-        <v>0.921511</v>
+        <v>1.27307</v>
       </c>
       <c r="D115" t="n">
-        <v>0.856413</v>
+        <v>1.13378</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.0125</v>
+        <v>1.38579</v>
       </c>
       <c r="C116" t="n">
-        <v>0.929756</v>
+        <v>1.25202</v>
       </c>
       <c r="D116" t="n">
-        <v>0.869471</v>
+        <v>1.25849</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.03713</v>
+        <v>1.38016</v>
       </c>
       <c r="C117" t="n">
-        <v>0.932988</v>
+        <v>1.32728</v>
       </c>
       <c r="D117" t="n">
-        <v>0.864096</v>
+        <v>1.22538</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.04302</v>
+        <v>1.40485</v>
       </c>
       <c r="C118" t="n">
-        <v>0.957433</v>
+        <v>1.31481</v>
       </c>
       <c r="D118" t="n">
-        <v>0.887613</v>
+        <v>1.29808</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.04282</v>
+        <v>1.48331</v>
       </c>
       <c r="C119" t="n">
-        <v>1.00142</v>
+        <v>1.32612</v>
       </c>
       <c r="D119" t="n">
-        <v>0.924423</v>
+        <v>1.26352</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.06029</v>
+        <v>1.5427</v>
       </c>
       <c r="C120" t="n">
-        <v>1.04991</v>
+        <v>1.37565</v>
       </c>
       <c r="D120" t="n">
-        <v>0.932557</v>
+        <v>1.28452</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.09391</v>
+        <v>1.56563</v>
       </c>
       <c r="C121" t="n">
-        <v>1.03597</v>
+        <v>1.45919</v>
       </c>
       <c r="D121" t="n">
-        <v>0.929355</v>
+        <v>1.2701</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.13765</v>
+        <v>1.61008</v>
       </c>
       <c r="C122" t="n">
-        <v>1.12203</v>
+        <v>1.44987</v>
       </c>
       <c r="D122" t="n">
-        <v>1.00002</v>
+        <v>1.31873</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.23179</v>
+        <v>1.63482</v>
       </c>
       <c r="C123" t="n">
-        <v>1.1884</v>
+        <v>1.4933</v>
       </c>
       <c r="D123" t="n">
-        <v>1.18264</v>
+        <v>1.35041</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.3061</v>
+        <v>1.60255</v>
       </c>
       <c r="C124" t="n">
-        <v>1.2317</v>
+        <v>1.4293</v>
       </c>
       <c r="D124" t="n">
-        <v>1.15003</v>
+        <v>1.35285</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.30804</v>
+        <v>1.59959</v>
       </c>
       <c r="C125" t="n">
-        <v>1.19384</v>
+        <v>1.41468</v>
       </c>
       <c r="D125" t="n">
-        <v>1.1209</v>
+        <v>1.34997</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.31727</v>
+        <v>1.59765</v>
       </c>
       <c r="C126" t="n">
-        <v>1.18896</v>
+        <v>1.42019</v>
       </c>
       <c r="D126" t="n">
-        <v>1.12654</v>
+        <v>1.38588</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.3095</v>
+        <v>1.60381</v>
       </c>
       <c r="C127" t="n">
-        <v>1.19953</v>
+        <v>1.43408</v>
       </c>
       <c r="D127" t="n">
-        <v>1.12724</v>
+        <v>1.38142</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.38212</v>
+        <v>1.62814</v>
       </c>
       <c r="C128" t="n">
-        <v>1.21265</v>
+        <v>1.46354</v>
       </c>
       <c r="D128" t="n">
-        <v>1.19398</v>
+        <v>1.38025</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.33019</v>
+        <v>1.62016</v>
       </c>
       <c r="C129" t="n">
-        <v>1.2737</v>
+        <v>1.44388</v>
       </c>
       <c r="D129" t="n">
-        <v>1.17433</v>
+        <v>1.39214</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.41017</v>
+        <v>1.62548</v>
       </c>
       <c r="C130" t="n">
-        <v>1.26389</v>
+        <v>1.458</v>
       </c>
       <c r="D130" t="n">
-        <v>1.18478</v>
+        <v>1.37809</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.36185</v>
+        <v>1.63922</v>
       </c>
       <c r="C131" t="n">
-        <v>1.28128</v>
+        <v>1.47661</v>
       </c>
       <c r="D131" t="n">
-        <v>1.19865</v>
+        <v>1.40713</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.42037</v>
+        <v>1.6634</v>
       </c>
       <c r="C132" t="n">
-        <v>1.31383</v>
+        <v>1.49962</v>
       </c>
       <c r="D132" t="n">
-        <v>1.17866</v>
+        <v>1.40015</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.43137</v>
+        <v>1.68171</v>
       </c>
       <c r="C133" t="n">
-        <v>1.28482</v>
+        <v>1.50899</v>
       </c>
       <c r="D133" t="n">
-        <v>1.19404</v>
+        <v>1.41997</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.46607</v>
+        <v>1.70434</v>
       </c>
       <c r="C134" t="n">
-        <v>1.31903</v>
+        <v>1.5667</v>
       </c>
       <c r="D134" t="n">
-        <v>1.2077</v>
+        <v>1.45807</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.45719</v>
+        <v>1.73122</v>
       </c>
       <c r="C135" t="n">
-        <v>1.36389</v>
+        <v>1.68129</v>
       </c>
       <c r="D135" t="n">
-        <v>1.23331</v>
+        <v>1.46517</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.52265</v>
+        <v>1.80972</v>
       </c>
       <c r="C136" t="n">
-        <v>1.47706</v>
+        <v>1.67255</v>
       </c>
       <c r="D136" t="n">
-        <v>1.29224</v>
+        <v>1.50653</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.59143</v>
+        <v>1.90806</v>
       </c>
       <c r="C137" t="n">
-        <v>1.52032</v>
+        <v>1.76898</v>
       </c>
       <c r="D137" t="n">
-        <v>1.42428</v>
+        <v>1.48996</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.62571</v>
+        <v>1.75129</v>
       </c>
       <c r="C138" t="n">
-        <v>1.42205</v>
+        <v>1.5425</v>
       </c>
       <c r="D138" t="n">
-        <v>1.40355</v>
+        <v>1.49036</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.58683</v>
+        <v>1.74254</v>
       </c>
       <c r="C139" t="n">
-        <v>1.40992</v>
+        <v>1.55223</v>
       </c>
       <c r="D139" t="n">
-        <v>1.36953</v>
+        <v>1.34705</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.66391</v>
+        <v>1.58384</v>
       </c>
       <c r="C140" t="n">
-        <v>1.42362</v>
+        <v>1.43062</v>
       </c>
       <c r="D140" t="n">
-        <v>1.41847</v>
+        <v>1.42865</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.6226</v>
+        <v>1.66162</v>
       </c>
       <c r="C141" t="n">
-        <v>1.4901</v>
+        <v>1.48057</v>
       </c>
       <c r="D141" t="n">
-        <v>1.37894</v>
+        <v>1.37129</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.60031</v>
+        <v>1.6143</v>
       </c>
       <c r="C142" t="n">
-        <v>1.46663</v>
+        <v>1.45831</v>
       </c>
       <c r="D142" t="n">
-        <v>1.37139</v>
+        <v>1.38682</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.61161</v>
+        <v>1.69204</v>
       </c>
       <c r="C143" t="n">
-        <v>1.47034</v>
+        <v>1.45678</v>
       </c>
       <c r="D143" t="n">
-        <v>1.39266</v>
+        <v>1.40574</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.660857</v>
+        <v>0.663309</v>
       </c>
       <c r="C2" t="n">
-        <v>0.614404</v>
+        <v>0.617015</v>
       </c>
       <c r="D2" t="n">
-        <v>0.594589</v>
+        <v>0.578356</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.659289</v>
+        <v>0.638736</v>
       </c>
       <c r="C3" t="n">
-        <v>0.601742</v>
+        <v>0.5990490000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.59468</v>
+        <v>0.591202</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.657185</v>
+        <v>0.6582440000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.604673</v>
+        <v>0.610276</v>
       </c>
       <c r="D4" t="n">
-        <v>0.588933</v>
+        <v>0.588225</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.657131</v>
+        <v>0.647259</v>
       </c>
       <c r="C5" t="n">
-        <v>0.621461</v>
+        <v>0.6056319999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.603043</v>
+        <v>0.588488</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.684679</v>
+        <v>0.669605</v>
       </c>
       <c r="C6" t="n">
-        <v>0.651046</v>
+        <v>0.632234</v>
       </c>
       <c r="D6" t="n">
-        <v>0.617275</v>
+        <v>0.619021</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6685449999999999</v>
+        <v>0.729038</v>
       </c>
       <c r="C7" t="n">
-        <v>0.64439</v>
+        <v>0.6356540000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.625839</v>
+        <v>0.611798</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7055940000000001</v>
+        <v>0.690526</v>
       </c>
       <c r="C8" t="n">
-        <v>0.672757</v>
+        <v>0.6696029999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.682435</v>
+        <v>0.637483</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.728836</v>
+        <v>0.750519</v>
       </c>
       <c r="C9" t="n">
-        <v>0.703771</v>
+        <v>0.708885</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5903389999999999</v>
+        <v>0.586111</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.660544</v>
+        <v>0.65533</v>
       </c>
       <c r="C10" t="n">
-        <v>0.604193</v>
+        <v>0.592211</v>
       </c>
       <c r="D10" t="n">
-        <v>0.590193</v>
+        <v>0.578382</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.657372</v>
+        <v>0.651157</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5989370000000001</v>
+        <v>0.604804</v>
       </c>
       <c r="D11" t="n">
-        <v>0.603268</v>
+        <v>0.593865</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.668723</v>
+        <v>0.6825599999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.603863</v>
+        <v>0.623764</v>
       </c>
       <c r="D12" t="n">
-        <v>0.596695</v>
+        <v>0.594897</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.656229</v>
+        <v>0.67462</v>
       </c>
       <c r="C13" t="n">
-        <v>0.598788</v>
+        <v>0.615612</v>
       </c>
       <c r="D13" t="n">
-        <v>0.591642</v>
+        <v>0.610692</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.658298</v>
+        <v>0.6598619999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.603068</v>
+        <v>0.587946</v>
       </c>
       <c r="D14" t="n">
-        <v>0.59427</v>
+        <v>0.576045</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.68175</v>
+        <v>0.658263</v>
       </c>
       <c r="C15" t="n">
-        <v>0.660408</v>
+        <v>0.594599</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5927750000000001</v>
+        <v>0.596067</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.660797</v>
+        <v>0.6609930000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.604922</v>
+        <v>0.598288</v>
       </c>
       <c r="D16" t="n">
-        <v>0.597878</v>
+        <v>0.597839</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.658434</v>
+        <v>0.667844</v>
       </c>
       <c r="C17" t="n">
-        <v>0.612267</v>
+        <v>0.597583</v>
       </c>
       <c r="D17" t="n">
-        <v>0.599326</v>
+        <v>0.591242</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.663022</v>
+        <v>0.655687</v>
       </c>
       <c r="C18" t="n">
-        <v>0.61356</v>
+        <v>0.605034</v>
       </c>
       <c r="D18" t="n">
-        <v>0.605164</v>
+        <v>0.611711</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.667806</v>
+        <v>0.663382</v>
       </c>
       <c r="C19" t="n">
-        <v>0.617258</v>
+        <v>0.6197510000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.615212</v>
+        <v>0.602553</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.680574</v>
+        <v>0.683034</v>
       </c>
       <c r="C20" t="n">
-        <v>0.625772</v>
+        <v>0.620924</v>
       </c>
       <c r="D20" t="n">
-        <v>0.617798</v>
+        <v>0.626454</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.679732</v>
+        <v>0.682235</v>
       </c>
       <c r="C21" t="n">
-        <v>0.637843</v>
+        <v>0.64264</v>
       </c>
       <c r="D21" t="n">
-        <v>0.634298</v>
+        <v>0.630112</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.705084</v>
+        <v>0.686887</v>
       </c>
       <c r="C22" t="n">
-        <v>0.667817</v>
+        <v>0.664412</v>
       </c>
       <c r="D22" t="n">
-        <v>0.652322</v>
+        <v>0.639303</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.73452</v>
+        <v>0.718251</v>
       </c>
       <c r="C23" t="n">
-        <v>0.696018</v>
+        <v>0.690533</v>
       </c>
       <c r="D23" t="n">
-        <v>0.597121</v>
+        <v>0.604988</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.671843</v>
+        <v>0.701921</v>
       </c>
       <c r="C24" t="n">
-        <v>0.600645</v>
+        <v>0.594894</v>
       </c>
       <c r="D24" t="n">
-        <v>0.596709</v>
+        <v>0.598025</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.670059</v>
+        <v>0.698827</v>
       </c>
       <c r="C25" t="n">
-        <v>0.600128</v>
+        <v>0.592248</v>
       </c>
       <c r="D25" t="n">
-        <v>0.598718</v>
+        <v>0.590605</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.671146</v>
+        <v>0.665775</v>
       </c>
       <c r="C26" t="n">
-        <v>0.600997</v>
+        <v>0.6201100000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.594531</v>
+        <v>0.595962</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.673204</v>
+        <v>0.690728</v>
       </c>
       <c r="C27" t="n">
-        <v>0.607359</v>
+        <v>0.605642</v>
       </c>
       <c r="D27" t="n">
-        <v>0.595762</v>
+        <v>0.612598</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.675555</v>
+        <v>0.678793</v>
       </c>
       <c r="C28" t="n">
-        <v>0.607342</v>
+        <v>0.600127</v>
       </c>
       <c r="D28" t="n">
-        <v>0.598</v>
+        <v>0.587996</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.676108</v>
+        <v>0.672493</v>
       </c>
       <c r="C29" t="n">
-        <v>0.609107</v>
+        <v>0.5978290000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5960299999999999</v>
+        <v>0.616846</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.679575</v>
+        <v>0.676671</v>
       </c>
       <c r="C30" t="n">
-        <v>0.609143</v>
+        <v>0.610475</v>
       </c>
       <c r="D30" t="n">
-        <v>0.598564</v>
+        <v>0.613913</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.683486</v>
+        <v>0.677225</v>
       </c>
       <c r="C31" t="n">
-        <v>0.631343</v>
+        <v>0.607387</v>
       </c>
       <c r="D31" t="n">
-        <v>0.630395</v>
+        <v>0.60922</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.682104</v>
+        <v>0.67842</v>
       </c>
       <c r="C32" t="n">
-        <v>0.618142</v>
+        <v>0.622796</v>
       </c>
       <c r="D32" t="n">
-        <v>0.612042</v>
+        <v>0.613738</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.68122</v>
+        <v>0.680627</v>
       </c>
       <c r="C33" t="n">
-        <v>0.634182</v>
+        <v>0.614323</v>
       </c>
       <c r="D33" t="n">
-        <v>0.617359</v>
+        <v>0.606872</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.692214</v>
+        <v>0.701691</v>
       </c>
       <c r="C34" t="n">
-        <v>0.631532</v>
+        <v>0.644384</v>
       </c>
       <c r="D34" t="n">
-        <v>0.622903</v>
+        <v>0.623775</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.705252</v>
+        <v>0.686133</v>
       </c>
       <c r="C35" t="n">
-        <v>0.647222</v>
+        <v>0.631714</v>
       </c>
       <c r="D35" t="n">
-        <v>0.660825</v>
+        <v>0.638308</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.728752</v>
+        <v>0.71718</v>
       </c>
       <c r="C36" t="n">
-        <v>0.682599</v>
+        <v>0.677908</v>
       </c>
       <c r="D36" t="n">
-        <v>0.680443</v>
+        <v>0.647963</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.769359</v>
+        <v>0.748586</v>
       </c>
       <c r="C37" t="n">
-        <v>0.707016</v>
+        <v>0.700036</v>
       </c>
       <c r="D37" t="n">
-        <v>0.599099</v>
+        <v>0.602052</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.685111</v>
+        <v>0.659946</v>
       </c>
       <c r="C38" t="n">
-        <v>0.610953</v>
+        <v>0.612517</v>
       </c>
       <c r="D38" t="n">
-        <v>0.642687</v>
+        <v>0.594702</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.708553</v>
+        <v>0.6869960000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.60462</v>
+        <v>0.6109520000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.603704</v>
+        <v>0.616735</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.695055</v>
+        <v>0.688446</v>
       </c>
       <c r="C40" t="n">
-        <v>0.611809</v>
+        <v>0.599393</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6052689999999999</v>
+        <v>0.598467</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.689627</v>
+        <v>0.708264</v>
       </c>
       <c r="C41" t="n">
-        <v>0.615966</v>
+        <v>0.646406</v>
       </c>
       <c r="D41" t="n">
-        <v>0.604196</v>
+        <v>0.610449</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6951850000000001</v>
+        <v>0.687995</v>
       </c>
       <c r="C42" t="n">
-        <v>0.613525</v>
+        <v>0.644329</v>
       </c>
       <c r="D42" t="n">
-        <v>0.609133</v>
+        <v>0.604148</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.682745</v>
+        <v>0.679588</v>
       </c>
       <c r="C43" t="n">
-        <v>0.620673</v>
+        <v>0.60318</v>
       </c>
       <c r="D43" t="n">
-        <v>0.603534</v>
+        <v>0.599967</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.702146</v>
+        <v>0.674752</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6196199999999999</v>
+        <v>0.625711</v>
       </c>
       <c r="D44" t="n">
-        <v>0.608135</v>
+        <v>0.613834</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.691287</v>
+        <v>0.702425</v>
       </c>
       <c r="C45" t="n">
-        <v>0.629537</v>
+        <v>0.623105</v>
       </c>
       <c r="D45" t="n">
-        <v>0.613379</v>
+        <v>0.590767</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.712696</v>
+        <v>0.674285</v>
       </c>
       <c r="C46" t="n">
-        <v>0.635455</v>
+        <v>0.623953</v>
       </c>
       <c r="D46" t="n">
-        <v>0.610673</v>
+        <v>0.604357</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.7039800000000001</v>
+        <v>0.725821</v>
       </c>
       <c r="C47" t="n">
-        <v>0.632126</v>
+        <v>0.621588</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6275230000000001</v>
+        <v>0.6226930000000001</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.719647</v>
+        <v>0.701039</v>
       </c>
       <c r="C48" t="n">
-        <v>0.643257</v>
+        <v>0.647129</v>
       </c>
       <c r="D48" t="n">
-        <v>0.636233</v>
+        <v>0.649564</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.719214</v>
+        <v>0.711802</v>
       </c>
       <c r="C49" t="n">
-        <v>0.661501</v>
+        <v>0.6513330000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6525339999999999</v>
+        <v>0.64737</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.763668</v>
+        <v>0.719058</v>
       </c>
       <c r="C50" t="n">
-        <v>0.687353</v>
+        <v>0.666631</v>
       </c>
       <c r="D50" t="n">
-        <v>0.666035</v>
+        <v>0.655218</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.765222</v>
+        <v>0.730413</v>
       </c>
       <c r="C51" t="n">
-        <v>0.704954</v>
+        <v>0.704484</v>
       </c>
       <c r="D51" t="n">
-        <v>0.619372</v>
+        <v>0.60501</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.78694</v>
+        <v>0.768649</v>
       </c>
       <c r="C52" t="n">
-        <v>0.750562</v>
+        <v>0.75748</v>
       </c>
       <c r="D52" t="n">
-        <v>0.618807</v>
+        <v>0.600289</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.723548</v>
+        <v>0.6959959999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6413759999999999</v>
+        <v>0.626509</v>
       </c>
       <c r="D53" t="n">
-        <v>0.627074</v>
+        <v>0.611464</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.741453</v>
+        <v>0.704655</v>
       </c>
       <c r="C54" t="n">
-        <v>0.654635</v>
+        <v>0.641303</v>
       </c>
       <c r="D54" t="n">
-        <v>0.631363</v>
+        <v>0.626019</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.770018</v>
+        <v>0.706114</v>
       </c>
       <c r="C55" t="n">
-        <v>0.654879</v>
+        <v>0.647747</v>
       </c>
       <c r="D55" t="n">
-        <v>0.62391</v>
+        <v>0.632481</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.712073</v>
+        <v>0.705766</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6646570000000001</v>
+        <v>0.636032</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6243300000000001</v>
+        <v>0.620188</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.719243</v>
+        <v>0.702022</v>
       </c>
       <c r="C57" t="n">
-        <v>0.636884</v>
+        <v>0.637852</v>
       </c>
       <c r="D57" t="n">
-        <v>0.621066</v>
+        <v>0.61536</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.73278</v>
+        <v>0.730803</v>
       </c>
       <c r="C58" t="n">
-        <v>0.646532</v>
+        <v>0.644064</v>
       </c>
       <c r="D58" t="n">
-        <v>0.629806</v>
+        <v>0.6242529999999999</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.743349</v>
+        <v>0.719386</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6700390000000001</v>
+        <v>0.624604</v>
       </c>
       <c r="D59" t="n">
-        <v>0.631128</v>
+        <v>0.627781</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.72204</v>
+        <v>0.710634</v>
       </c>
       <c r="C60" t="n">
-        <v>0.667231</v>
+        <v>0.661202</v>
       </c>
       <c r="D60" t="n">
-        <v>0.639271</v>
+        <v>0.636875</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.739368</v>
+        <v>0.732525</v>
       </c>
       <c r="C61" t="n">
-        <v>0.681196</v>
+        <v>0.671013</v>
       </c>
       <c r="D61" t="n">
-        <v>0.654813</v>
+        <v>0.623576</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.754458</v>
+        <v>0.707384</v>
       </c>
       <c r="C62" t="n">
-        <v>0.692546</v>
+        <v>0.673451</v>
       </c>
       <c r="D62" t="n">
-        <v>0.654712</v>
+        <v>0.645602</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.7596079999999999</v>
+        <v>0.700752</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6908609999999999</v>
+        <v>0.677598</v>
       </c>
       <c r="D63" t="n">
-        <v>0.658056</v>
+        <v>0.661206</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.780887</v>
+        <v>0.733158</v>
       </c>
       <c r="C64" t="n">
-        <v>0.81133</v>
+        <v>0.692094</v>
       </c>
       <c r="D64" t="n">
-        <v>0.766567</v>
+        <v>0.683649</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.814275</v>
+        <v>0.773922</v>
       </c>
       <c r="C65" t="n">
-        <v>0.743569</v>
+        <v>0.712748</v>
       </c>
       <c r="D65" t="n">
-        <v>0.709788</v>
+        <v>0.698184</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.852471</v>
+        <v>0.793822</v>
       </c>
       <c r="C66" t="n">
-        <v>0.778475</v>
+        <v>0.741588</v>
       </c>
       <c r="D66" t="n">
-        <v>0.650532</v>
+        <v>0.644579</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.775637</v>
+        <v>0.725418</v>
       </c>
       <c r="C67" t="n">
-        <v>0.677613</v>
+        <v>0.651591</v>
       </c>
       <c r="D67" t="n">
-        <v>0.648331</v>
+        <v>0.634841</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.764723</v>
+        <v>0.741938</v>
       </c>
       <c r="C68" t="n">
-        <v>0.672471</v>
+        <v>0.667639</v>
       </c>
       <c r="D68" t="n">
-        <v>0.657409</v>
+        <v>0.637476</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7669</v>
+        <v>0.743265</v>
       </c>
       <c r="C69" t="n">
-        <v>0.683971</v>
+        <v>0.668758</v>
       </c>
       <c r="D69" t="n">
-        <v>0.676864</v>
+        <v>0.635227</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.768391</v>
+        <v>0.74358</v>
       </c>
       <c r="C70" t="n">
-        <v>0.699369</v>
+        <v>0.65163</v>
       </c>
       <c r="D70" t="n">
-        <v>0.659408</v>
+        <v>0.644827</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.768454</v>
+        <v>0.752304</v>
       </c>
       <c r="C71" t="n">
-        <v>0.694418</v>
+        <v>0.668604</v>
       </c>
       <c r="D71" t="n">
-        <v>0.658766</v>
+        <v>0.655065</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.768288</v>
+        <v>0.7359</v>
       </c>
       <c r="C72" t="n">
-        <v>0.682079</v>
+        <v>0.680915</v>
       </c>
       <c r="D72" t="n">
-        <v>0.733466</v>
+        <v>0.655796</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.751555</v>
+        <v>0.751037</v>
       </c>
       <c r="C73" t="n">
-        <v>0.671163</v>
+        <v>0.673759</v>
       </c>
       <c r="D73" t="n">
-        <v>0.652228</v>
+        <v>0.652921</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.834973</v>
+        <v>0.760787</v>
       </c>
       <c r="C74" t="n">
-        <v>0.678874</v>
+        <v>0.683975</v>
       </c>
       <c r="D74" t="n">
-        <v>0.656205</v>
+        <v>0.652918</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.760581</v>
+        <v>0.767607</v>
       </c>
       <c r="C75" t="n">
-        <v>0.698647</v>
+        <v>0.687849</v>
       </c>
       <c r="D75" t="n">
-        <v>0.684067</v>
+        <v>0.693598</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.847375</v>
+        <v>0.763422</v>
       </c>
       <c r="C76" t="n">
-        <v>0.72395</v>
+        <v>0.708852</v>
       </c>
       <c r="D76" t="n">
-        <v>0.679268</v>
+        <v>0.660139</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7723370000000001</v>
+        <v>0.756089</v>
       </c>
       <c r="C77" t="n">
-        <v>0.706349</v>
+        <v>0.715464</v>
       </c>
       <c r="D77" t="n">
-        <v>0.676601</v>
+        <v>0.703608</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.793833</v>
+        <v>0.7773369999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7330989999999999</v>
+        <v>0.7636230000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.694401</v>
+        <v>0.706586</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.812602</v>
+        <v>0.818132</v>
       </c>
       <c r="C79" t="n">
-        <v>0.764977</v>
+        <v>0.753987</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7352</v>
+        <v>0.733986</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.991612</v>
+        <v>0.850235</v>
       </c>
       <c r="C80" t="n">
-        <v>0.847405</v>
+        <v>0.795397</v>
       </c>
       <c r="D80" t="n">
-        <v>0.659589</v>
+        <v>0.64497</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.766242</v>
+        <v>0.762667</v>
       </c>
       <c r="C81" t="n">
-        <v>0.686377</v>
+        <v>0.713893</v>
       </c>
       <c r="D81" t="n">
-        <v>0.657031</v>
+        <v>0.663363</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.7863599999999999</v>
+        <v>0.76202</v>
       </c>
       <c r="C82" t="n">
-        <v>0.688863</v>
+        <v>0.684043</v>
       </c>
       <c r="D82" t="n">
-        <v>0.658147</v>
+        <v>0.662855</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.771885</v>
+        <v>0.760551</v>
       </c>
       <c r="C83" t="n">
-        <v>0.726325</v>
+        <v>0.692944</v>
       </c>
       <c r="D83" t="n">
-        <v>0.660438</v>
+        <v>0.656751</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.797891</v>
+        <v>0.758325</v>
       </c>
       <c r="C84" t="n">
-        <v>0.694444</v>
+        <v>0.682486</v>
       </c>
       <c r="D84" t="n">
-        <v>0.665982</v>
+        <v>0.655029</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.788041</v>
+        <v>0.796385</v>
       </c>
       <c r="C85" t="n">
-        <v>0.735354</v>
+        <v>0.689211</v>
       </c>
       <c r="D85" t="n">
-        <v>0.683496</v>
+        <v>0.661622</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.794281</v>
+        <v>0.7864950000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.714201</v>
+        <v>0.742482</v>
       </c>
       <c r="D86" t="n">
-        <v>0.676849</v>
+        <v>0.675246</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.791173</v>
+        <v>0.776219</v>
       </c>
       <c r="C87" t="n">
-        <v>0.716832</v>
+        <v>0.70762</v>
       </c>
       <c r="D87" t="n">
-        <v>0.704443</v>
+        <v>0.674472</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.791253</v>
+        <v>0.80335</v>
       </c>
       <c r="C88" t="n">
-        <v>0.723346</v>
+        <v>0.737856</v>
       </c>
       <c r="D88" t="n">
-        <v>0.691418</v>
+        <v>0.665645</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.803192</v>
+        <v>0.804315</v>
       </c>
       <c r="C89" t="n">
-        <v>0.740812</v>
+        <v>0.721925</v>
       </c>
       <c r="D89" t="n">
-        <v>0.686505</v>
+        <v>0.709736</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.816748</v>
+        <v>0.7965950000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>0.750377</v>
+        <v>0.729882</v>
       </c>
       <c r="D90" t="n">
-        <v>0.70117</v>
+        <v>0.687041</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.828247</v>
+        <v>0.809608</v>
       </c>
       <c r="C91" t="n">
-        <v>0.759476</v>
+        <v>0.74024</v>
       </c>
       <c r="D91" t="n">
-        <v>0.719127</v>
+        <v>0.696523</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.844749</v>
+        <v>0.852427</v>
       </c>
       <c r="C92" t="n">
-        <v>0.785097</v>
+        <v>0.781648</v>
       </c>
       <c r="D92" t="n">
-        <v>0.734182</v>
+        <v>0.729144</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.866972</v>
+        <v>0.85189</v>
       </c>
       <c r="C93" t="n">
-        <v>0.81565</v>
+        <v>0.825225</v>
       </c>
       <c r="D93" t="n">
-        <v>0.751037</v>
+        <v>0.746043</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.91851</v>
+        <v>0.9058310000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8735309999999999</v>
+        <v>0.869102</v>
       </c>
       <c r="D94" t="n">
-        <v>0.7015130000000001</v>
+        <v>0.687788</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.89177</v>
+        <v>0.814011</v>
       </c>
       <c r="C95" t="n">
-        <v>0.769066</v>
+        <v>0.739825</v>
       </c>
       <c r="D95" t="n">
-        <v>0.703951</v>
+        <v>0.710467</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.839791</v>
+        <v>0.836053</v>
       </c>
       <c r="C96" t="n">
-        <v>0.754526</v>
+        <v>0.73131</v>
       </c>
       <c r="D96" t="n">
-        <v>0.713701</v>
+        <v>0.686339</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8510180000000001</v>
+        <v>0.852845</v>
       </c>
       <c r="C97" t="n">
-        <v>0.778233</v>
+        <v>0.742398</v>
       </c>
       <c r="D97" t="n">
-        <v>0.727339</v>
+        <v>0.7099</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.852746</v>
+        <v>0.822696</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8119960000000001</v>
+        <v>0.756452</v>
       </c>
       <c r="D98" t="n">
-        <v>0.719662</v>
+        <v>0.711516</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.858465</v>
+        <v>0.83296</v>
       </c>
       <c r="C99" t="n">
-        <v>0.767877</v>
+        <v>0.7635690000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.732006</v>
+        <v>0.702242</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.872518</v>
+        <v>0.8389990000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.783633</v>
+        <v>0.75557</v>
       </c>
       <c r="D100" t="n">
-        <v>0.743421</v>
+        <v>0.698136</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.865242</v>
+        <v>0.849778</v>
       </c>
       <c r="C101" t="n">
-        <v>0.82461</v>
+        <v>0.794631</v>
       </c>
       <c r="D101" t="n">
-        <v>0.732245</v>
+        <v>0.704507</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.893526</v>
+        <v>0.844669</v>
       </c>
       <c r="C102" t="n">
-        <v>0.818873</v>
+        <v>0.769828</v>
       </c>
       <c r="D102" t="n">
-        <v>0.762792</v>
+        <v>0.733636</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.918417</v>
+        <v>0.850264</v>
       </c>
       <c r="C103" t="n">
-        <v>0.812298</v>
+        <v>0.780309</v>
       </c>
       <c r="D103" t="n">
-        <v>0.768993</v>
+        <v>0.743405</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.8946229999999999</v>
+        <v>0.872977</v>
       </c>
       <c r="C104" t="n">
-        <v>0.872154</v>
+        <v>0.823119</v>
       </c>
       <c r="D104" t="n">
-        <v>0.784011</v>
+        <v>0.7224429999999999</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.964311</v>
+        <v>0.874719</v>
       </c>
       <c r="C105" t="n">
-        <v>0.878892</v>
+        <v>0.7980930000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.8717510000000001</v>
+        <v>0.770057</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.972181</v>
+        <v>0.897974</v>
       </c>
       <c r="C106" t="n">
-        <v>0.931261</v>
+        <v>0.862098</v>
       </c>
       <c r="D106" t="n">
-        <v>0.82892</v>
+        <v>0.787148</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.04496</v>
+        <v>0.920901</v>
       </c>
       <c r="C107" t="n">
-        <v>0.937084</v>
+        <v>0.866841</v>
       </c>
       <c r="D107" t="n">
-        <v>0.892552</v>
+        <v>0.797634</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.07987</v>
+        <v>0.990736</v>
       </c>
       <c r="C108" t="n">
-        <v>1.08037</v>
+        <v>0.927107</v>
       </c>
       <c r="D108" t="n">
-        <v>1.044</v>
+        <v>0.853333</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.20229</v>
+        <v>1.04574</v>
       </c>
       <c r="C109" t="n">
-        <v>1.15038</v>
+        <v>1.04082</v>
       </c>
       <c r="D109" t="n">
-        <v>1.03814</v>
+        <v>0.839206</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.25626</v>
+        <v>0.992403</v>
       </c>
       <c r="C110" t="n">
-        <v>1.12119</v>
+        <v>0.919129</v>
       </c>
       <c r="D110" t="n">
-        <v>1.08596</v>
+        <v>0.879746</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.38281</v>
+        <v>0.9875350000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>1.16223</v>
+        <v>0.898788</v>
       </c>
       <c r="D111" t="n">
-        <v>1.12634</v>
+        <v>0.829565</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.24053</v>
+        <v>0.9907049999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>1.18324</v>
+        <v>0.932494</v>
       </c>
       <c r="D112" t="n">
-        <v>1.03816</v>
+        <v>0.843422</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.32706</v>
+        <v>0.988312</v>
       </c>
       <c r="C113" t="n">
-        <v>1.1212</v>
+        <v>0.914915</v>
       </c>
       <c r="D113" t="n">
-        <v>1.19728</v>
+        <v>0.868775</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.30178</v>
+        <v>1.01816</v>
       </c>
       <c r="C114" t="n">
-        <v>1.25769</v>
+        <v>0.906764</v>
       </c>
       <c r="D114" t="n">
-        <v>1.12513</v>
+        <v>0.852689</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.383</v>
+        <v>1.03154</v>
       </c>
       <c r="C115" t="n">
-        <v>1.27307</v>
+        <v>0.930142</v>
       </c>
       <c r="D115" t="n">
-        <v>1.13378</v>
+        <v>0.868016</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.38579</v>
+        <v>1.02565</v>
       </c>
       <c r="C116" t="n">
-        <v>1.25202</v>
+        <v>0.938432</v>
       </c>
       <c r="D116" t="n">
-        <v>1.25849</v>
+        <v>0.836831</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.38016</v>
+        <v>1.0142</v>
       </c>
       <c r="C117" t="n">
-        <v>1.32728</v>
+        <v>0.934647</v>
       </c>
       <c r="D117" t="n">
-        <v>1.22538</v>
+        <v>0.868348</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.40485</v>
+        <v>1.01222</v>
       </c>
       <c r="C118" t="n">
-        <v>1.31481</v>
+        <v>0.960967</v>
       </c>
       <c r="D118" t="n">
-        <v>1.29808</v>
+        <v>0.883388</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.48331</v>
+        <v>1.03451</v>
       </c>
       <c r="C119" t="n">
-        <v>1.32612</v>
+        <v>0.996379</v>
       </c>
       <c r="D119" t="n">
-        <v>1.26352</v>
+        <v>0.876808</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.5427</v>
+        <v>1.05201</v>
       </c>
       <c r="C120" t="n">
-        <v>1.37565</v>
+        <v>1.01239</v>
       </c>
       <c r="D120" t="n">
-        <v>1.28452</v>
+        <v>0.914958</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.56563</v>
+        <v>1.0865</v>
       </c>
       <c r="C121" t="n">
-        <v>1.45919</v>
+        <v>1.05329</v>
       </c>
       <c r="D121" t="n">
-        <v>1.2701</v>
+        <v>0.9450730000000001</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.61008</v>
+        <v>1.15824</v>
       </c>
       <c r="C122" t="n">
-        <v>1.44987</v>
+        <v>1.12779</v>
       </c>
       <c r="D122" t="n">
-        <v>1.31873</v>
+        <v>0.974133</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.63482</v>
+        <v>1.23884</v>
       </c>
       <c r="C123" t="n">
-        <v>1.4933</v>
+        <v>1.17784</v>
       </c>
       <c r="D123" t="n">
-        <v>1.35041</v>
+        <v>1.121</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.60255</v>
+        <v>1.31333</v>
       </c>
       <c r="C124" t="n">
-        <v>1.4293</v>
+        <v>1.19079</v>
       </c>
       <c r="D124" t="n">
-        <v>1.35285</v>
+        <v>1.09452</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.59959</v>
+        <v>1.30209</v>
       </c>
       <c r="C125" t="n">
-        <v>1.41468</v>
+        <v>1.20603</v>
       </c>
       <c r="D125" t="n">
-        <v>1.34997</v>
+        <v>1.14211</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.59765</v>
+        <v>1.28627</v>
       </c>
       <c r="C126" t="n">
-        <v>1.42019</v>
+        <v>1.20139</v>
       </c>
       <c r="D126" t="n">
-        <v>1.38588</v>
+        <v>1.13605</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.60381</v>
+        <v>1.34056</v>
       </c>
       <c r="C127" t="n">
-        <v>1.43408</v>
+        <v>1.19176</v>
       </c>
       <c r="D127" t="n">
-        <v>1.38142</v>
+        <v>1.13833</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.62814</v>
+        <v>1.32784</v>
       </c>
       <c r="C128" t="n">
-        <v>1.46354</v>
+        <v>1.17625</v>
       </c>
       <c r="D128" t="n">
-        <v>1.38025</v>
+        <v>1.13343</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.62016</v>
+        <v>1.39825</v>
       </c>
       <c r="C129" t="n">
-        <v>1.44388</v>
+        <v>1.21145</v>
       </c>
       <c r="D129" t="n">
-        <v>1.39214</v>
+        <v>1.1499</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.62548</v>
+        <v>1.33078</v>
       </c>
       <c r="C130" t="n">
-        <v>1.458</v>
+        <v>1.23265</v>
       </c>
       <c r="D130" t="n">
-        <v>1.37809</v>
+        <v>1.1502</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.63922</v>
+        <v>1.33817</v>
       </c>
       <c r="C131" t="n">
-        <v>1.47661</v>
+        <v>1.28941</v>
       </c>
       <c r="D131" t="n">
-        <v>1.40713</v>
+        <v>1.16339</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.6634</v>
+        <v>1.36354</v>
       </c>
       <c r="C132" t="n">
-        <v>1.49962</v>
+        <v>1.27407</v>
       </c>
       <c r="D132" t="n">
-        <v>1.40015</v>
+        <v>1.16244</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.68171</v>
+        <v>1.43533</v>
       </c>
       <c r="C133" t="n">
-        <v>1.50899</v>
+        <v>1.32336</v>
       </c>
       <c r="D133" t="n">
-        <v>1.41997</v>
+        <v>1.20075</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.70434</v>
+        <v>1.45397</v>
       </c>
       <c r="C134" t="n">
-        <v>1.5667</v>
+        <v>1.34153</v>
       </c>
       <c r="D134" t="n">
-        <v>1.45807</v>
+        <v>1.22221</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.73122</v>
+        <v>1.45485</v>
       </c>
       <c r="C135" t="n">
-        <v>1.68129</v>
+        <v>1.39242</v>
       </c>
       <c r="D135" t="n">
-        <v>1.46517</v>
+        <v>1.20088</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.80972</v>
+        <v>1.5246</v>
       </c>
       <c r="C136" t="n">
-        <v>1.67255</v>
+        <v>1.45085</v>
       </c>
       <c r="D136" t="n">
-        <v>1.50653</v>
+        <v>1.27261</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.90806</v>
+        <v>1.62228</v>
       </c>
       <c r="C137" t="n">
-        <v>1.76898</v>
+        <v>1.51324</v>
       </c>
       <c r="D137" t="n">
-        <v>1.48996</v>
+        <v>1.39609</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.75129</v>
+        <v>1.61505</v>
       </c>
       <c r="C138" t="n">
-        <v>1.5425</v>
+        <v>1.4509</v>
       </c>
       <c r="D138" t="n">
-        <v>1.49036</v>
+        <v>1.35078</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.74254</v>
+        <v>1.58275</v>
       </c>
       <c r="C139" t="n">
-        <v>1.55223</v>
+        <v>1.45859</v>
       </c>
       <c r="D139" t="n">
-        <v>1.34705</v>
+        <v>1.36766</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.58384</v>
+        <v>1.5927</v>
       </c>
       <c r="C140" t="n">
-        <v>1.43062</v>
+        <v>1.47244</v>
       </c>
       <c r="D140" t="n">
-        <v>1.42865</v>
+        <v>1.35798</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.66162</v>
+        <v>1.60454</v>
       </c>
       <c r="C141" t="n">
-        <v>1.48057</v>
+        <v>1.46663</v>
       </c>
       <c r="D141" t="n">
-        <v>1.37129</v>
+        <v>1.36175</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.6143</v>
+        <v>1.6009</v>
       </c>
       <c r="C142" t="n">
-        <v>1.45831</v>
+        <v>1.456</v>
       </c>
       <c r="D142" t="n">
-        <v>1.38682</v>
+        <v>1.42721</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.69204</v>
+        <v>1.65656</v>
       </c>
       <c r="C143" t="n">
-        <v>1.45678</v>
+        <v>1.46307</v>
       </c>
       <c r="D143" t="n">
-        <v>1.40574</v>
+        <v>1.38032</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.663309</v>
+        <v>0.680943</v>
       </c>
       <c r="C2" t="n">
-        <v>0.617015</v>
+        <v>0.5871690000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.578356</v>
+        <v>0.606576</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.638736</v>
+        <v>0.639234</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5990490000000001</v>
+        <v>0.596758</v>
       </c>
       <c r="D3" t="n">
-        <v>0.591202</v>
+        <v>0.583264</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6582440000000001</v>
+        <v>0.6526420000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.610276</v>
+        <v>0.606019</v>
       </c>
       <c r="D4" t="n">
-        <v>0.588225</v>
+        <v>0.5865590000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.647259</v>
+        <v>0.663729</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6056319999999999</v>
+        <v>0.618914</v>
       </c>
       <c r="D5" t="n">
-        <v>0.588488</v>
+        <v>0.6017940000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.669605</v>
+        <v>0.654617</v>
       </c>
       <c r="C6" t="n">
-        <v>0.632234</v>
+        <v>0.625008</v>
       </c>
       <c r="D6" t="n">
-        <v>0.619021</v>
+        <v>0.611046</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.729038</v>
+        <v>0.666331</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6356540000000001</v>
+        <v>0.668893</v>
       </c>
       <c r="D7" t="n">
-        <v>0.611798</v>
+        <v>0.627657</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.690526</v>
+        <v>0.696535</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6696029999999999</v>
+        <v>0.6805870000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.637483</v>
+        <v>0.648481</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.750519</v>
+        <v>0.7471640000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.708885</v>
+        <v>0.689894</v>
       </c>
       <c r="D9" t="n">
-        <v>0.586111</v>
+        <v>0.603009</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.65533</v>
+        <v>0.677969</v>
       </c>
       <c r="C10" t="n">
-        <v>0.592211</v>
+        <v>0.587427</v>
       </c>
       <c r="D10" t="n">
-        <v>0.578382</v>
+        <v>0.596167</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.651157</v>
+        <v>0.656987</v>
       </c>
       <c r="C11" t="n">
-        <v>0.604804</v>
+        <v>0.597907</v>
       </c>
       <c r="D11" t="n">
-        <v>0.593865</v>
+        <v>0.584241</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6825599999999999</v>
+        <v>0.650734</v>
       </c>
       <c r="C12" t="n">
-        <v>0.623764</v>
+        <v>0.605034</v>
       </c>
       <c r="D12" t="n">
-        <v>0.594897</v>
+        <v>0.584078</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.67462</v>
+        <v>0.656246</v>
       </c>
       <c r="C13" t="n">
-        <v>0.615612</v>
+        <v>0.5941920000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.610692</v>
+        <v>0.583077</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6598619999999999</v>
+        <v>0.654106</v>
       </c>
       <c r="C14" t="n">
-        <v>0.587946</v>
+        <v>0.5922190000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.576045</v>
+        <v>0.622211</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.658263</v>
+        <v>0.652069</v>
       </c>
       <c r="C15" t="n">
-        <v>0.594599</v>
+        <v>0.594595</v>
       </c>
       <c r="D15" t="n">
-        <v>0.596067</v>
+        <v>0.606768</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6609930000000001</v>
+        <v>0.659747</v>
       </c>
       <c r="C16" t="n">
-        <v>0.598288</v>
+        <v>0.619641</v>
       </c>
       <c r="D16" t="n">
-        <v>0.597839</v>
+        <v>0.5920339999999999</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.667844</v>
+        <v>0.662229</v>
       </c>
       <c r="C17" t="n">
-        <v>0.597583</v>
+        <v>0.610625</v>
       </c>
       <c r="D17" t="n">
-        <v>0.591242</v>
+        <v>0.605786</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.655687</v>
+        <v>0.653265</v>
       </c>
       <c r="C18" t="n">
-        <v>0.605034</v>
+        <v>0.613268</v>
       </c>
       <c r="D18" t="n">
-        <v>0.611711</v>
+        <v>0.612973</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.663382</v>
+        <v>0.677557</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6197510000000001</v>
+        <v>0.657744</v>
       </c>
       <c r="D19" t="n">
-        <v>0.602553</v>
+        <v>0.606992</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.683034</v>
+        <v>0.6791160000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.620924</v>
+        <v>0.618602</v>
       </c>
       <c r="D20" t="n">
-        <v>0.626454</v>
+        <v>0.608541</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.682235</v>
+        <v>0.687497</v>
       </c>
       <c r="C21" t="n">
-        <v>0.64264</v>
+        <v>0.632753</v>
       </c>
       <c r="D21" t="n">
-        <v>0.630112</v>
+        <v>0.634233</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.686887</v>
+        <v>0.688815</v>
       </c>
       <c r="C22" t="n">
-        <v>0.664412</v>
+        <v>0.659658</v>
       </c>
       <c r="D22" t="n">
-        <v>0.639303</v>
+        <v>0.641371</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.718251</v>
+        <v>0.729001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.690533</v>
+        <v>0.690504</v>
       </c>
       <c r="D23" t="n">
-        <v>0.604988</v>
+        <v>0.600474</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.701921</v>
+        <v>0.661279</v>
       </c>
       <c r="C24" t="n">
-        <v>0.594894</v>
+        <v>0.616818</v>
       </c>
       <c r="D24" t="n">
-        <v>0.598025</v>
+        <v>0.593738</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.698827</v>
+        <v>0.680353</v>
       </c>
       <c r="C25" t="n">
-        <v>0.592248</v>
+        <v>0.591624</v>
       </c>
       <c r="D25" t="n">
-        <v>0.590605</v>
+        <v>0.603212</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.665775</v>
+        <v>0.671488</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6201100000000001</v>
+        <v>0.597336</v>
       </c>
       <c r="D26" t="n">
-        <v>0.595962</v>
+        <v>0.595357</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.690728</v>
+        <v>0.703373</v>
       </c>
       <c r="C27" t="n">
-        <v>0.605642</v>
+        <v>0.623645</v>
       </c>
       <c r="D27" t="n">
-        <v>0.612598</v>
+        <v>0.594793</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.678793</v>
+        <v>0.660838</v>
       </c>
       <c r="C28" t="n">
-        <v>0.600127</v>
+        <v>0.614451</v>
       </c>
       <c r="D28" t="n">
-        <v>0.587996</v>
+        <v>0.604357</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.672493</v>
+        <v>0.668427</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5978290000000001</v>
+        <v>0.626605</v>
       </c>
       <c r="D29" t="n">
-        <v>0.616846</v>
+        <v>0.595379</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.676671</v>
+        <v>0.688218</v>
       </c>
       <c r="C30" t="n">
-        <v>0.610475</v>
+        <v>0.6184229999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.613913</v>
+        <v>0.618609</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.677225</v>
+        <v>0.663973</v>
       </c>
       <c r="C31" t="n">
-        <v>0.607387</v>
+        <v>0.616574</v>
       </c>
       <c r="D31" t="n">
-        <v>0.60922</v>
+        <v>0.634003</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.67842</v>
+        <v>0.688563</v>
       </c>
       <c r="C32" t="n">
-        <v>0.622796</v>
+        <v>0.608735</v>
       </c>
       <c r="D32" t="n">
-        <v>0.613738</v>
+        <v>0.595531</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.680627</v>
+        <v>0.705719</v>
       </c>
       <c r="C33" t="n">
-        <v>0.614323</v>
+        <v>0.637137</v>
       </c>
       <c r="D33" t="n">
-        <v>0.606872</v>
+        <v>0.6039369999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.701691</v>
+        <v>0.687222</v>
       </c>
       <c r="C34" t="n">
-        <v>0.644384</v>
+        <v>0.6381250000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.623775</v>
+        <v>0.622094</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.686133</v>
+        <v>0.7029069999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.631714</v>
+        <v>0.654307</v>
       </c>
       <c r="D35" t="n">
-        <v>0.638308</v>
+        <v>0.645633</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.71718</v>
+        <v>0.711923</v>
       </c>
       <c r="C36" t="n">
-        <v>0.677908</v>
+        <v>0.670763</v>
       </c>
       <c r="D36" t="n">
-        <v>0.647963</v>
+        <v>0.655084</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.748586</v>
+        <v>0.733033</v>
       </c>
       <c r="C37" t="n">
-        <v>0.700036</v>
+        <v>0.704196</v>
       </c>
       <c r="D37" t="n">
-        <v>0.602052</v>
+        <v>0.590602</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.659946</v>
+        <v>0.68018</v>
       </c>
       <c r="C38" t="n">
-        <v>0.612517</v>
+        <v>0.6121490000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.594702</v>
+        <v>0.597985</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6869960000000001</v>
+        <v>0.6838959999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6109520000000001</v>
+        <v>0.629458</v>
       </c>
       <c r="D39" t="n">
-        <v>0.616735</v>
+        <v>0.598297</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.688446</v>
+        <v>0.679148</v>
       </c>
       <c r="C40" t="n">
-        <v>0.599393</v>
+        <v>0.606515</v>
       </c>
       <c r="D40" t="n">
-        <v>0.598467</v>
+        <v>0.606202</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.708264</v>
+        <v>0.699387</v>
       </c>
       <c r="C41" t="n">
-        <v>0.646406</v>
+        <v>0.609731</v>
       </c>
       <c r="D41" t="n">
-        <v>0.610449</v>
+        <v>0.598938</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.687995</v>
+        <v>0.69556</v>
       </c>
       <c r="C42" t="n">
-        <v>0.644329</v>
+        <v>0.611637</v>
       </c>
       <c r="D42" t="n">
-        <v>0.604148</v>
+        <v>0.607257</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.679588</v>
+        <v>0.670716</v>
       </c>
       <c r="C43" t="n">
-        <v>0.60318</v>
+        <v>0.608779</v>
       </c>
       <c r="D43" t="n">
-        <v>0.599967</v>
+        <v>0.602552</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.674752</v>
+        <v>0.692276</v>
       </c>
       <c r="C44" t="n">
-        <v>0.625711</v>
+        <v>0.622352</v>
       </c>
       <c r="D44" t="n">
-        <v>0.613834</v>
+        <v>0.598867</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.702425</v>
+        <v>0.669116</v>
       </c>
       <c r="C45" t="n">
-        <v>0.623105</v>
+        <v>0.608992</v>
       </c>
       <c r="D45" t="n">
-        <v>0.590767</v>
+        <v>0.6106819999999999</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.674285</v>
+        <v>0.685225</v>
       </c>
       <c r="C46" t="n">
-        <v>0.623953</v>
+        <v>0.619039</v>
       </c>
       <c r="D46" t="n">
-        <v>0.604357</v>
+        <v>0.62554</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.725821</v>
+        <v>0.706525</v>
       </c>
       <c r="C47" t="n">
-        <v>0.621588</v>
+        <v>0.611447</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6226930000000001</v>
+        <v>0.616366</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.701039</v>
+        <v>0.702189</v>
       </c>
       <c r="C48" t="n">
-        <v>0.647129</v>
+        <v>0.6525069999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.649564</v>
+        <v>0.662053</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.711802</v>
+        <v>0.717643</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6513330000000001</v>
+        <v>0.639646</v>
       </c>
       <c r="D49" t="n">
-        <v>0.64737</v>
+        <v>0.65317</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.719058</v>
+        <v>0.723715</v>
       </c>
       <c r="C50" t="n">
-        <v>0.666631</v>
+        <v>0.662424</v>
       </c>
       <c r="D50" t="n">
-        <v>0.655218</v>
+        <v>0.65184</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.730413</v>
+        <v>0.760695</v>
       </c>
       <c r="C51" t="n">
-        <v>0.704484</v>
+        <v>0.690648</v>
       </c>
       <c r="D51" t="n">
-        <v>0.60501</v>
+        <v>0.631154</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.768649</v>
+        <v>0.78826</v>
       </c>
       <c r="C52" t="n">
-        <v>0.75748</v>
+        <v>0.747221</v>
       </c>
       <c r="D52" t="n">
-        <v>0.600289</v>
+        <v>0.623418</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6959959999999999</v>
+        <v>0.708588</v>
       </c>
       <c r="C53" t="n">
-        <v>0.626509</v>
+        <v>0.632265</v>
       </c>
       <c r="D53" t="n">
-        <v>0.611464</v>
+        <v>0.636826</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.704655</v>
+        <v>0.713739</v>
       </c>
       <c r="C54" t="n">
-        <v>0.641303</v>
+        <v>0.634054</v>
       </c>
       <c r="D54" t="n">
-        <v>0.626019</v>
+        <v>0.6191489999999999</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.706114</v>
+        <v>0.714901</v>
       </c>
       <c r="C55" t="n">
-        <v>0.647747</v>
+        <v>0.619828</v>
       </c>
       <c r="D55" t="n">
-        <v>0.632481</v>
+        <v>0.616717</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.705766</v>
+        <v>0.717818</v>
       </c>
       <c r="C56" t="n">
-        <v>0.636032</v>
+        <v>0.621327</v>
       </c>
       <c r="D56" t="n">
-        <v>0.620188</v>
+        <v>0.625103</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.702022</v>
+        <v>0.705147</v>
       </c>
       <c r="C57" t="n">
-        <v>0.637852</v>
+        <v>0.64218</v>
       </c>
       <c r="D57" t="n">
-        <v>0.61536</v>
+        <v>0.604448</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.730803</v>
+        <v>0.704844</v>
       </c>
       <c r="C58" t="n">
-        <v>0.644064</v>
+        <v>0.638254</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6242529999999999</v>
+        <v>0.620247</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.719386</v>
+        <v>0.70248</v>
       </c>
       <c r="C59" t="n">
-        <v>0.624604</v>
+        <v>0.625896</v>
       </c>
       <c r="D59" t="n">
-        <v>0.627781</v>
+        <v>0.651529</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.710634</v>
+        <v>0.7131150000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.661202</v>
+        <v>0.630543</v>
       </c>
       <c r="D60" t="n">
-        <v>0.636875</v>
+        <v>0.6061879999999999</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.732525</v>
+        <v>0.706699</v>
       </c>
       <c r="C61" t="n">
-        <v>0.671013</v>
+        <v>0.631112</v>
       </c>
       <c r="D61" t="n">
-        <v>0.623576</v>
+        <v>0.62941</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.707384</v>
+        <v>0.717751</v>
       </c>
       <c r="C62" t="n">
-        <v>0.673451</v>
+        <v>0.672412</v>
       </c>
       <c r="D62" t="n">
-        <v>0.645602</v>
+        <v>0.623615</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.700752</v>
+        <v>0.716902</v>
       </c>
       <c r="C63" t="n">
-        <v>0.677598</v>
+        <v>0.703848</v>
       </c>
       <c r="D63" t="n">
-        <v>0.661206</v>
+        <v>0.681536</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.733158</v>
+        <v>0.741519</v>
       </c>
       <c r="C64" t="n">
-        <v>0.692094</v>
+        <v>0.692072</v>
       </c>
       <c r="D64" t="n">
-        <v>0.683649</v>
+        <v>0.676592</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.773922</v>
+        <v>0.779004</v>
       </c>
       <c r="C65" t="n">
-        <v>0.712748</v>
+        <v>0.739302</v>
       </c>
       <c r="D65" t="n">
-        <v>0.698184</v>
+        <v>0.693383</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.793822</v>
+        <v>0.827914</v>
       </c>
       <c r="C66" t="n">
-        <v>0.741588</v>
+        <v>0.747689</v>
       </c>
       <c r="D66" t="n">
-        <v>0.644579</v>
+        <v>0.650697</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.725418</v>
+        <v>0.736148</v>
       </c>
       <c r="C67" t="n">
-        <v>0.651591</v>
+        <v>0.652575</v>
       </c>
       <c r="D67" t="n">
-        <v>0.634841</v>
+        <v>0.638143</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.741938</v>
+        <v>0.7950739999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.667639</v>
+        <v>0.669282</v>
       </c>
       <c r="D68" t="n">
-        <v>0.637476</v>
+        <v>0.630514</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.743265</v>
+        <v>0.729766</v>
       </c>
       <c r="C69" t="n">
-        <v>0.668758</v>
+        <v>0.660083</v>
       </c>
       <c r="D69" t="n">
-        <v>0.635227</v>
+        <v>0.636602</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.74358</v>
+        <v>0.746092</v>
       </c>
       <c r="C70" t="n">
-        <v>0.65163</v>
+        <v>0.646089</v>
       </c>
       <c r="D70" t="n">
-        <v>0.644827</v>
+        <v>0.655563</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.752304</v>
+        <v>0.732963</v>
       </c>
       <c r="C71" t="n">
-        <v>0.668604</v>
+        <v>0.6705759999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.655065</v>
+        <v>0.644085</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7359</v>
+        <v>0.736913</v>
       </c>
       <c r="C72" t="n">
-        <v>0.680915</v>
+        <v>0.678289</v>
       </c>
       <c r="D72" t="n">
-        <v>0.655796</v>
+        <v>0.667714</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.751037</v>
+        <v>0.75737</v>
       </c>
       <c r="C73" t="n">
-        <v>0.673759</v>
+        <v>0.678325</v>
       </c>
       <c r="D73" t="n">
-        <v>0.652921</v>
+        <v>0.647726</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.760787</v>
+        <v>0.754614</v>
       </c>
       <c r="C74" t="n">
-        <v>0.683975</v>
+        <v>0.689317</v>
       </c>
       <c r="D74" t="n">
-        <v>0.652918</v>
+        <v>0.64667</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.767607</v>
+        <v>0.75448</v>
       </c>
       <c r="C75" t="n">
-        <v>0.687849</v>
+        <v>0.686006</v>
       </c>
       <c r="D75" t="n">
-        <v>0.693598</v>
+        <v>0.67508</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.763422</v>
+        <v>0.791059</v>
       </c>
       <c r="C76" t="n">
-        <v>0.708852</v>
+        <v>0.682913</v>
       </c>
       <c r="D76" t="n">
-        <v>0.660139</v>
+        <v>0.679808</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.756089</v>
+        <v>0.815682</v>
       </c>
       <c r="C77" t="n">
-        <v>0.715464</v>
+        <v>0.707379</v>
       </c>
       <c r="D77" t="n">
-        <v>0.703608</v>
+        <v>0.663013</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.7773369999999999</v>
+        <v>0.786358</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7636230000000001</v>
+        <v>0.721674</v>
       </c>
       <c r="D78" t="n">
-        <v>0.706586</v>
+        <v>0.704703</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.818132</v>
+        <v>0.814276</v>
       </c>
       <c r="C79" t="n">
-        <v>0.753987</v>
+        <v>0.7748350000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.733986</v>
+        <v>0.7524110000000001</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.850235</v>
+        <v>0.864734</v>
       </c>
       <c r="C80" t="n">
-        <v>0.795397</v>
+        <v>0.802612</v>
       </c>
       <c r="D80" t="n">
-        <v>0.64497</v>
+        <v>0.668104</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.762667</v>
+        <v>0.785712</v>
       </c>
       <c r="C81" t="n">
-        <v>0.713893</v>
+        <v>0.676909</v>
       </c>
       <c r="D81" t="n">
-        <v>0.663363</v>
+        <v>0.661903</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.76202</v>
+        <v>0.773052</v>
       </c>
       <c r="C82" t="n">
-        <v>0.684043</v>
+        <v>0.714132</v>
       </c>
       <c r="D82" t="n">
-        <v>0.662855</v>
+        <v>0.675576</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.760551</v>
+        <v>0.768445</v>
       </c>
       <c r="C83" t="n">
-        <v>0.692944</v>
+        <v>0.684106</v>
       </c>
       <c r="D83" t="n">
-        <v>0.656751</v>
+        <v>0.661052</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.758325</v>
+        <v>0.772085</v>
       </c>
       <c r="C84" t="n">
-        <v>0.682486</v>
+        <v>0.698375</v>
       </c>
       <c r="D84" t="n">
-        <v>0.655029</v>
+        <v>0.659007</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.796385</v>
+        <v>0.800068</v>
       </c>
       <c r="C85" t="n">
-        <v>0.689211</v>
+        <v>0.706815</v>
       </c>
       <c r="D85" t="n">
-        <v>0.661622</v>
+        <v>0.664521</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7864950000000001</v>
+        <v>0.780681</v>
       </c>
       <c r="C86" t="n">
-        <v>0.742482</v>
+        <v>0.717589</v>
       </c>
       <c r="D86" t="n">
-        <v>0.675246</v>
+        <v>0.669077</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.776219</v>
+        <v>0.780767</v>
       </c>
       <c r="C87" t="n">
-        <v>0.70762</v>
+        <v>0.707332</v>
       </c>
       <c r="D87" t="n">
-        <v>0.674472</v>
+        <v>0.663121</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.80335</v>
+        <v>0.792412</v>
       </c>
       <c r="C88" t="n">
-        <v>0.737856</v>
+        <v>0.717675</v>
       </c>
       <c r="D88" t="n">
-        <v>0.665645</v>
+        <v>0.68423</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.804315</v>
+        <v>0.808579</v>
       </c>
       <c r="C89" t="n">
-        <v>0.721925</v>
+        <v>0.7517509999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>0.709736</v>
+        <v>0.683702</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.7965950000000001</v>
+        <v>0.85075</v>
       </c>
       <c r="C90" t="n">
-        <v>0.729882</v>
+        <v>0.7675920000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.687041</v>
+        <v>0.7150919999999999</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.809608</v>
+        <v>0.810687</v>
       </c>
       <c r="C91" t="n">
-        <v>0.74024</v>
+        <v>0.749968</v>
       </c>
       <c r="D91" t="n">
-        <v>0.696523</v>
+        <v>0.709584</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.852427</v>
+        <v>0.824317</v>
       </c>
       <c r="C92" t="n">
-        <v>0.781648</v>
+        <v>0.777589</v>
       </c>
       <c r="D92" t="n">
-        <v>0.729144</v>
+        <v>0.725718</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.85189</v>
+        <v>0.86378</v>
       </c>
       <c r="C93" t="n">
-        <v>0.825225</v>
+        <v>0.8063900000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.746043</v>
+        <v>0.732552</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9058310000000001</v>
+        <v>0.906985</v>
       </c>
       <c r="C94" t="n">
-        <v>0.869102</v>
+        <v>0.874063</v>
       </c>
       <c r="D94" t="n">
-        <v>0.687788</v>
+        <v>0.696201</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.814011</v>
+        <v>0.816061</v>
       </c>
       <c r="C95" t="n">
-        <v>0.739825</v>
+        <v>0.736056</v>
       </c>
       <c r="D95" t="n">
-        <v>0.710467</v>
+        <v>0.692562</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.836053</v>
+        <v>0.816004</v>
       </c>
       <c r="C96" t="n">
-        <v>0.73131</v>
+        <v>0.719245</v>
       </c>
       <c r="D96" t="n">
-        <v>0.686339</v>
+        <v>0.699605</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.852845</v>
+        <v>0.822541</v>
       </c>
       <c r="C97" t="n">
-        <v>0.742398</v>
+        <v>0.756827</v>
       </c>
       <c r="D97" t="n">
-        <v>0.7099</v>
+        <v>0.719858</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.822696</v>
+        <v>0.828474</v>
       </c>
       <c r="C98" t="n">
-        <v>0.756452</v>
+        <v>0.75236</v>
       </c>
       <c r="D98" t="n">
-        <v>0.711516</v>
+        <v>0.707075</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.83296</v>
+        <v>0.83173</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7635690000000001</v>
+        <v>0.768026</v>
       </c>
       <c r="D99" t="n">
-        <v>0.702242</v>
+        <v>0.706084</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.8389990000000001</v>
+        <v>0.847896</v>
       </c>
       <c r="C100" t="n">
-        <v>0.75557</v>
+        <v>0.756562</v>
       </c>
       <c r="D100" t="n">
-        <v>0.698136</v>
+        <v>0.714964</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.849778</v>
+        <v>0.865236</v>
       </c>
       <c r="C101" t="n">
-        <v>0.794631</v>
+        <v>0.790167</v>
       </c>
       <c r="D101" t="n">
-        <v>0.704507</v>
+        <v>0.701081</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.844669</v>
+        <v>0.842171</v>
       </c>
       <c r="C102" t="n">
-        <v>0.769828</v>
+        <v>0.773634</v>
       </c>
       <c r="D102" t="n">
-        <v>0.733636</v>
+        <v>0.737402</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.850264</v>
+        <v>0.851257</v>
       </c>
       <c r="C103" t="n">
-        <v>0.780309</v>
+        <v>0.770738</v>
       </c>
       <c r="D103" t="n">
-        <v>0.743405</v>
+        <v>0.724897</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.872977</v>
+        <v>0.865886</v>
       </c>
       <c r="C104" t="n">
-        <v>0.823119</v>
+        <v>0.7958229999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.7224429999999999</v>
+        <v>0.728972</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.874719</v>
+        <v>0.8671450000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>0.7980930000000001</v>
+        <v>0.803662</v>
       </c>
       <c r="D105" t="n">
-        <v>0.770057</v>
+        <v>0.72303</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.897974</v>
+        <v>0.8949549999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.862098</v>
+        <v>0.823913</v>
       </c>
       <c r="D106" t="n">
-        <v>0.787148</v>
+        <v>0.770259</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.920901</v>
+        <v>0.9380810000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.866841</v>
+        <v>0.873372</v>
       </c>
       <c r="D107" t="n">
-        <v>0.797634</v>
+        <v>0.794615</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.990736</v>
+        <v>0.9935040000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>0.927107</v>
+        <v>0.924659</v>
       </c>
       <c r="D108" t="n">
-        <v>0.853333</v>
+        <v>0.832422</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.04574</v>
+        <v>1.06823</v>
       </c>
       <c r="C109" t="n">
-        <v>1.04082</v>
+        <v>1.06724</v>
       </c>
       <c r="D109" t="n">
-        <v>0.839206</v>
+        <v>0.850043</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.992403</v>
+        <v>0.981496</v>
       </c>
       <c r="C110" t="n">
-        <v>0.919129</v>
+        <v>0.891828</v>
       </c>
       <c r="D110" t="n">
-        <v>0.879746</v>
+        <v>0.8250729999999999</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.9875350000000001</v>
+        <v>0.973231</v>
       </c>
       <c r="C111" t="n">
-        <v>0.898788</v>
+        <v>0.898464</v>
       </c>
       <c r="D111" t="n">
-        <v>0.829565</v>
+        <v>0.834765</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.9907049999999999</v>
+        <v>1.00461</v>
       </c>
       <c r="C112" t="n">
-        <v>0.932494</v>
+        <v>0.917564</v>
       </c>
       <c r="D112" t="n">
-        <v>0.843422</v>
+        <v>0.834408</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.988312</v>
+        <v>0.978463</v>
       </c>
       <c r="C113" t="n">
-        <v>0.914915</v>
+        <v>0.915986</v>
       </c>
       <c r="D113" t="n">
-        <v>0.868775</v>
+        <v>0.843248</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.01816</v>
+        <v>0.980427</v>
       </c>
       <c r="C114" t="n">
-        <v>0.906764</v>
+        <v>0.953913</v>
       </c>
       <c r="D114" t="n">
-        <v>0.852689</v>
+        <v>0.86321</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.03154</v>
+        <v>1.01852</v>
       </c>
       <c r="C115" t="n">
-        <v>0.930142</v>
+        <v>0.93196</v>
       </c>
       <c r="D115" t="n">
-        <v>0.868016</v>
+        <v>0.882596</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.02565</v>
+        <v>1.01522</v>
       </c>
       <c r="C116" t="n">
-        <v>0.938432</v>
+        <v>0.9300890000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.836831</v>
+        <v>0.866273</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.0142</v>
+        <v>1.02253</v>
       </c>
       <c r="C117" t="n">
-        <v>0.934647</v>
+        <v>0.945134</v>
       </c>
       <c r="D117" t="n">
-        <v>0.868348</v>
+        <v>0.91681</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.01222</v>
+        <v>1.03464</v>
       </c>
       <c r="C118" t="n">
-        <v>0.960967</v>
+        <v>0.984576</v>
       </c>
       <c r="D118" t="n">
-        <v>0.883388</v>
+        <v>0.88048</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.03451</v>
+        <v>1.05358</v>
       </c>
       <c r="C119" t="n">
-        <v>0.996379</v>
+        <v>1.03777</v>
       </c>
       <c r="D119" t="n">
-        <v>0.876808</v>
+        <v>0.909446</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.05201</v>
+        <v>1.0603</v>
       </c>
       <c r="C120" t="n">
-        <v>1.01239</v>
+        <v>1.01269</v>
       </c>
       <c r="D120" t="n">
-        <v>0.914958</v>
+        <v>0.925888</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.0865</v>
+        <v>1.10059</v>
       </c>
       <c r="C121" t="n">
-        <v>1.05329</v>
+        <v>1.02856</v>
       </c>
       <c r="D121" t="n">
-        <v>0.9450730000000001</v>
+        <v>0.954364</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.15824</v>
+        <v>1.14856</v>
       </c>
       <c r="C122" t="n">
-        <v>1.12779</v>
+        <v>1.09731</v>
       </c>
       <c r="D122" t="n">
-        <v>0.974133</v>
+        <v>0.976204</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.23884</v>
+        <v>1.23479</v>
       </c>
       <c r="C123" t="n">
-        <v>1.17784</v>
+        <v>1.16327</v>
       </c>
       <c r="D123" t="n">
-        <v>1.121</v>
+        <v>1.12233</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.31333</v>
+        <v>1.28939</v>
       </c>
       <c r="C124" t="n">
-        <v>1.19079</v>
+        <v>1.18705</v>
       </c>
       <c r="D124" t="n">
-        <v>1.09452</v>
+        <v>1.10275</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.30209</v>
+        <v>1.3265</v>
       </c>
       <c r="C125" t="n">
-        <v>1.20603</v>
+        <v>1.16842</v>
       </c>
       <c r="D125" t="n">
-        <v>1.14211</v>
+        <v>1.1545</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.28627</v>
+        <v>1.29372</v>
       </c>
       <c r="C126" t="n">
-        <v>1.20139</v>
+        <v>1.24617</v>
       </c>
       <c r="D126" t="n">
-        <v>1.13605</v>
+        <v>1.17942</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.34056</v>
+        <v>1.3342</v>
       </c>
       <c r="C127" t="n">
-        <v>1.19176</v>
+        <v>1.22403</v>
       </c>
       <c r="D127" t="n">
-        <v>1.13833</v>
+        <v>1.18415</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.32784</v>
+        <v>1.33842</v>
       </c>
       <c r="C128" t="n">
-        <v>1.17625</v>
+        <v>1.21345</v>
       </c>
       <c r="D128" t="n">
-        <v>1.13343</v>
+        <v>1.14271</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.39825</v>
+        <v>1.31853</v>
       </c>
       <c r="C129" t="n">
-        <v>1.21145</v>
+        <v>1.22572</v>
       </c>
       <c r="D129" t="n">
-        <v>1.1499</v>
+        <v>1.17154</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.33078</v>
+        <v>1.36014</v>
       </c>
       <c r="C130" t="n">
-        <v>1.23265</v>
+        <v>1.23926</v>
       </c>
       <c r="D130" t="n">
-        <v>1.1502</v>
+        <v>1.17399</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.33817</v>
+        <v>1.39362</v>
       </c>
       <c r="C131" t="n">
-        <v>1.28941</v>
+        <v>1.28579</v>
       </c>
       <c r="D131" t="n">
-        <v>1.16339</v>
+        <v>1.19119</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.36354</v>
+        <v>1.40034</v>
       </c>
       <c r="C132" t="n">
-        <v>1.27407</v>
+        <v>1.24291</v>
       </c>
       <c r="D132" t="n">
-        <v>1.16244</v>
+        <v>1.14605</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.43533</v>
+        <v>1.3921</v>
       </c>
       <c r="C133" t="n">
-        <v>1.32336</v>
+        <v>1.2907</v>
       </c>
       <c r="D133" t="n">
-        <v>1.20075</v>
+        <v>1.16625</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.45397</v>
+        <v>1.44694</v>
       </c>
       <c r="C134" t="n">
-        <v>1.34153</v>
+        <v>1.32614</v>
       </c>
       <c r="D134" t="n">
-        <v>1.22221</v>
+        <v>1.24278</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.45485</v>
+        <v>1.46088</v>
       </c>
       <c r="C135" t="n">
-        <v>1.39242</v>
+        <v>1.3837</v>
       </c>
       <c r="D135" t="n">
-        <v>1.20088</v>
+        <v>1.22513</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.5246</v>
+        <v>1.48872</v>
       </c>
       <c r="C136" t="n">
-        <v>1.45085</v>
+        <v>1.43326</v>
       </c>
       <c r="D136" t="n">
-        <v>1.27261</v>
+        <v>1.28335</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.62228</v>
+        <v>1.58035</v>
       </c>
       <c r="C137" t="n">
-        <v>1.51324</v>
+        <v>1.51257</v>
       </c>
       <c r="D137" t="n">
-        <v>1.39609</v>
+        <v>1.36667</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.61505</v>
+        <v>1.56829</v>
       </c>
       <c r="C138" t="n">
-        <v>1.4509</v>
+        <v>1.40226</v>
       </c>
       <c r="D138" t="n">
-        <v>1.35078</v>
+        <v>1.35708</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.58275</v>
+        <v>1.58245</v>
       </c>
       <c r="C139" t="n">
-        <v>1.45859</v>
+        <v>1.41967</v>
       </c>
       <c r="D139" t="n">
-        <v>1.36766</v>
+        <v>1.40969</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.5927</v>
+        <v>1.645</v>
       </c>
       <c r="C140" t="n">
-        <v>1.47244</v>
+        <v>1.42666</v>
       </c>
       <c r="D140" t="n">
-        <v>1.35798</v>
+        <v>1.37691</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.60454</v>
+        <v>1.64774</v>
       </c>
       <c r="C141" t="n">
-        <v>1.46663</v>
+        <v>1.4424</v>
       </c>
       <c r="D141" t="n">
-        <v>1.36175</v>
+        <v>1.37185</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.6009</v>
+        <v>1.58543</v>
       </c>
       <c r="C142" t="n">
-        <v>1.456</v>
+        <v>1.48429</v>
       </c>
       <c r="D142" t="n">
-        <v>1.42721</v>
+        <v>1.3739</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.65656</v>
+        <v>1.61396</v>
       </c>
       <c r="C143" t="n">
-        <v>1.46307</v>
+        <v>1.45584</v>
       </c>
       <c r="D143" t="n">
-        <v>1.38032</v>
+        <v>1.38953</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.680943</v>
+        <v>0.647431</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5871690000000001</v>
+        <v>0.607972</v>
       </c>
       <c r="D2" t="n">
-        <v>0.606576</v>
+        <v>0.586798</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.639234</v>
+        <v>0.648134</v>
       </c>
       <c r="C3" t="n">
-        <v>0.596758</v>
+        <v>0.595523</v>
       </c>
       <c r="D3" t="n">
-        <v>0.583264</v>
+        <v>0.595987</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6526420000000001</v>
+        <v>0.6569390000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.606019</v>
+        <v>0.606061</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5865590000000001</v>
+        <v>0.5995200000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.663729</v>
+        <v>0.650478</v>
       </c>
       <c r="C5" t="n">
-        <v>0.618914</v>
+        <v>0.617125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6017940000000001</v>
+        <v>0.591683</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.654617</v>
+        <v>0.6856719999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.625008</v>
+        <v>0.626502</v>
       </c>
       <c r="D6" t="n">
-        <v>0.611046</v>
+        <v>0.621858</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.666331</v>
+        <v>0.664143</v>
       </c>
       <c r="C7" t="n">
-        <v>0.668893</v>
+        <v>0.640517</v>
       </c>
       <c r="D7" t="n">
-        <v>0.627657</v>
+        <v>0.626819</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.696535</v>
+        <v>0.698676</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6805870000000001</v>
+        <v>0.650261</v>
       </c>
       <c r="D8" t="n">
-        <v>0.648481</v>
+        <v>0.638296</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7471640000000001</v>
+        <v>0.725591</v>
       </c>
       <c r="C9" t="n">
-        <v>0.689894</v>
+        <v>0.724446</v>
       </c>
       <c r="D9" t="n">
-        <v>0.603009</v>
+        <v>0.578558</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.677969</v>
+        <v>0.657932</v>
       </c>
       <c r="C10" t="n">
-        <v>0.587427</v>
+        <v>0.582485</v>
       </c>
       <c r="D10" t="n">
-        <v>0.596167</v>
+        <v>0.622318</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.656987</v>
+        <v>0.672475</v>
       </c>
       <c r="C11" t="n">
-        <v>0.597907</v>
+        <v>0.595733</v>
       </c>
       <c r="D11" t="n">
-        <v>0.584241</v>
+        <v>0.585508</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.650734</v>
+        <v>0.673352</v>
       </c>
       <c r="C12" t="n">
-        <v>0.605034</v>
+        <v>0.603105</v>
       </c>
       <c r="D12" t="n">
-        <v>0.584078</v>
+        <v>0.582643</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.656246</v>
+        <v>0.662887</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5941920000000001</v>
+        <v>0.611652</v>
       </c>
       <c r="D13" t="n">
-        <v>0.583077</v>
+        <v>0.588522</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.654106</v>
+        <v>0.668305</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5922190000000001</v>
+        <v>0.606124</v>
       </c>
       <c r="D14" t="n">
-        <v>0.622211</v>
+        <v>0.597761</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.652069</v>
+        <v>0.661545</v>
       </c>
       <c r="C15" t="n">
-        <v>0.594595</v>
+        <v>0.609653</v>
       </c>
       <c r="D15" t="n">
-        <v>0.606768</v>
+        <v>0.592124</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.659747</v>
+        <v>0.675518</v>
       </c>
       <c r="C16" t="n">
-        <v>0.619641</v>
+        <v>0.59965</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5920339999999999</v>
+        <v>0.587255</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.662229</v>
+        <v>0.675428</v>
       </c>
       <c r="C17" t="n">
-        <v>0.610625</v>
+        <v>0.607576</v>
       </c>
       <c r="D17" t="n">
-        <v>0.605786</v>
+        <v>0.61297</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.653265</v>
+        <v>0.667026</v>
       </c>
       <c r="C18" t="n">
-        <v>0.613268</v>
+        <v>0.610467</v>
       </c>
       <c r="D18" t="n">
-        <v>0.612973</v>
+        <v>0.612128</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.677557</v>
+        <v>0.682894</v>
       </c>
       <c r="C19" t="n">
-        <v>0.657744</v>
+        <v>0.619205</v>
       </c>
       <c r="D19" t="n">
-        <v>0.606992</v>
+        <v>0.608074</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6791160000000001</v>
+        <v>0.669392</v>
       </c>
       <c r="C20" t="n">
-        <v>0.618602</v>
+        <v>0.630155</v>
       </c>
       <c r="D20" t="n">
-        <v>0.608541</v>
+        <v>0.625895</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.687497</v>
+        <v>0.688095</v>
       </c>
       <c r="C21" t="n">
-        <v>0.632753</v>
+        <v>0.637814</v>
       </c>
       <c r="D21" t="n">
-        <v>0.634233</v>
+        <v>0.634059</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.688815</v>
+        <v>0.70246</v>
       </c>
       <c r="C22" t="n">
-        <v>0.659658</v>
+        <v>0.672264</v>
       </c>
       <c r="D22" t="n">
-        <v>0.641371</v>
+        <v>0.641802</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.729001</v>
+        <v>0.7236590000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.690504</v>
+        <v>0.698746</v>
       </c>
       <c r="D23" t="n">
-        <v>0.600474</v>
+        <v>0.606156</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.661279</v>
+        <v>0.673952</v>
       </c>
       <c r="C24" t="n">
-        <v>0.616818</v>
+        <v>0.597402</v>
       </c>
       <c r="D24" t="n">
-        <v>0.593738</v>
+        <v>0.61207</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.680353</v>
+        <v>0.659017</v>
       </c>
       <c r="C25" t="n">
-        <v>0.591624</v>
+        <v>0.610924</v>
       </c>
       <c r="D25" t="n">
-        <v>0.603212</v>
+        <v>0.604203</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.671488</v>
+        <v>0.681494</v>
       </c>
       <c r="C26" t="n">
-        <v>0.597336</v>
+        <v>0.5953889999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.595357</v>
+        <v>0.596303</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.703373</v>
+        <v>0.6892239999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.623645</v>
+        <v>0.594993</v>
       </c>
       <c r="D27" t="n">
-        <v>0.594793</v>
+        <v>0.597156</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.660838</v>
+        <v>0.669829</v>
       </c>
       <c r="C28" t="n">
-        <v>0.614451</v>
+        <v>0.597289</v>
       </c>
       <c r="D28" t="n">
-        <v>0.604357</v>
+        <v>0.600682</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.668427</v>
+        <v>0.682563</v>
       </c>
       <c r="C29" t="n">
-        <v>0.626605</v>
+        <v>0.610464</v>
       </c>
       <c r="D29" t="n">
-        <v>0.595379</v>
+        <v>0.604422</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.688218</v>
+        <v>0.683131</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6184229999999999</v>
+        <v>0.612097</v>
       </c>
       <c r="D30" t="n">
-        <v>0.618609</v>
+        <v>0.603817</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.663973</v>
+        <v>0.680347</v>
       </c>
       <c r="C31" t="n">
-        <v>0.616574</v>
+        <v>0.603721</v>
       </c>
       <c r="D31" t="n">
-        <v>0.634003</v>
+        <v>0.6150600000000001</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.688563</v>
+        <v>0.699169</v>
       </c>
       <c r="C32" t="n">
-        <v>0.608735</v>
+        <v>0.6057630000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.595531</v>
+        <v>0.63469</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.705719</v>
+        <v>0.675143</v>
       </c>
       <c r="C33" t="n">
-        <v>0.637137</v>
+        <v>0.623371</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6039369999999999</v>
+        <v>0.634616</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.687222</v>
+        <v>0.69151</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6381250000000001</v>
+        <v>0.648048</v>
       </c>
       <c r="D34" t="n">
-        <v>0.622094</v>
+        <v>0.630714</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.7029069999999999</v>
+        <v>0.691371</v>
       </c>
       <c r="C35" t="n">
-        <v>0.654307</v>
+        <v>0.636036</v>
       </c>
       <c r="D35" t="n">
-        <v>0.645633</v>
+        <v>0.636454</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.711923</v>
+        <v>0.720644</v>
       </c>
       <c r="C36" t="n">
-        <v>0.670763</v>
+        <v>0.657547</v>
       </c>
       <c r="D36" t="n">
-        <v>0.655084</v>
+        <v>0.667893</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.733033</v>
+        <v>0.7378479999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.704196</v>
+        <v>0.683151</v>
       </c>
       <c r="D37" t="n">
-        <v>0.590602</v>
+        <v>0.600365</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.68018</v>
+        <v>0.675187</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6121490000000001</v>
+        <v>0.617254</v>
       </c>
       <c r="D38" t="n">
-        <v>0.597985</v>
+        <v>0.603783</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6838959999999999</v>
+        <v>0.684515</v>
       </c>
       <c r="C39" t="n">
-        <v>0.629458</v>
+        <v>0.611349</v>
       </c>
       <c r="D39" t="n">
-        <v>0.598297</v>
+        <v>0.594476</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.679148</v>
+        <v>0.671628</v>
       </c>
       <c r="C40" t="n">
-        <v>0.606515</v>
+        <v>0.6093190000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.606202</v>
+        <v>0.603202</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.699387</v>
+        <v>0.678033</v>
       </c>
       <c r="C41" t="n">
-        <v>0.609731</v>
+        <v>0.617309</v>
       </c>
       <c r="D41" t="n">
-        <v>0.598938</v>
+        <v>0.610441</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.69556</v>
+        <v>0.668006</v>
       </c>
       <c r="C42" t="n">
-        <v>0.611637</v>
+        <v>0.6134039999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.607257</v>
+        <v>0.6180330000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.670716</v>
+        <v>0.722036</v>
       </c>
       <c r="C43" t="n">
-        <v>0.608779</v>
+        <v>0.594477</v>
       </c>
       <c r="D43" t="n">
-        <v>0.602552</v>
+        <v>0.60055</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.692276</v>
+        <v>0.683704</v>
       </c>
       <c r="C44" t="n">
-        <v>0.622352</v>
+        <v>0.602761</v>
       </c>
       <c r="D44" t="n">
-        <v>0.598867</v>
+        <v>0.6129829999999999</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.669116</v>
+        <v>0.689367</v>
       </c>
       <c r="C45" t="n">
-        <v>0.608992</v>
+        <v>0.636641</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6106819999999999</v>
+        <v>0.611384</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.685225</v>
+        <v>0.682826</v>
       </c>
       <c r="C46" t="n">
-        <v>0.619039</v>
+        <v>0.617756</v>
       </c>
       <c r="D46" t="n">
-        <v>0.62554</v>
+        <v>0.608402</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.706525</v>
+        <v>0.687405</v>
       </c>
       <c r="C47" t="n">
-        <v>0.611447</v>
+        <v>0.653926</v>
       </c>
       <c r="D47" t="n">
-        <v>0.616366</v>
+        <v>0.617166</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.702189</v>
+        <v>0.705618</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6525069999999999</v>
+        <v>0.659941</v>
       </c>
       <c r="D48" t="n">
-        <v>0.662053</v>
+        <v>0.661303</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.717643</v>
+        <v>0.713811</v>
       </c>
       <c r="C49" t="n">
-        <v>0.639646</v>
+        <v>0.646536</v>
       </c>
       <c r="D49" t="n">
-        <v>0.65317</v>
+        <v>0.62924</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.723715</v>
+        <v>0.706174</v>
       </c>
       <c r="C50" t="n">
-        <v>0.662424</v>
+        <v>0.666608</v>
       </c>
       <c r="D50" t="n">
-        <v>0.65184</v>
+        <v>0.668358</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.760695</v>
+        <v>0.757827</v>
       </c>
       <c r="C51" t="n">
-        <v>0.690648</v>
+        <v>0.6930460000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.631154</v>
+        <v>0.623179</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.78826</v>
+        <v>0.769272</v>
       </c>
       <c r="C52" t="n">
-        <v>0.747221</v>
+        <v>0.719069</v>
       </c>
       <c r="D52" t="n">
-        <v>0.623418</v>
+        <v>0.610218</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.708588</v>
+        <v>0.710929</v>
       </c>
       <c r="C53" t="n">
-        <v>0.632265</v>
+        <v>0.638473</v>
       </c>
       <c r="D53" t="n">
-        <v>0.636826</v>
+        <v>0.610563</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.713739</v>
+        <v>0.718549</v>
       </c>
       <c r="C54" t="n">
-        <v>0.634054</v>
+        <v>0.622347</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6191489999999999</v>
+        <v>0.608209</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.714901</v>
+        <v>0.696568</v>
       </c>
       <c r="C55" t="n">
-        <v>0.619828</v>
+        <v>0.652964</v>
       </c>
       <c r="D55" t="n">
-        <v>0.616717</v>
+        <v>0.619688</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.717818</v>
+        <v>0.717</v>
       </c>
       <c r="C56" t="n">
-        <v>0.621327</v>
+        <v>0.632729</v>
       </c>
       <c r="D56" t="n">
-        <v>0.625103</v>
+        <v>0.616071</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.705147</v>
+        <v>0.7046210000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.64218</v>
+        <v>0.642406</v>
       </c>
       <c r="D57" t="n">
-        <v>0.604448</v>
+        <v>0.61583</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.704844</v>
+        <v>0.704162</v>
       </c>
       <c r="C58" t="n">
-        <v>0.638254</v>
+        <v>0.644477</v>
       </c>
       <c r="D58" t="n">
-        <v>0.620247</v>
+        <v>0.621771</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.70248</v>
+        <v>0.69543</v>
       </c>
       <c r="C59" t="n">
-        <v>0.625896</v>
+        <v>0.654693</v>
       </c>
       <c r="D59" t="n">
-        <v>0.651529</v>
+        <v>0.640085</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.7131150000000001</v>
+        <v>0.693242</v>
       </c>
       <c r="C60" t="n">
-        <v>0.630543</v>
+        <v>0.643898</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6061879999999999</v>
+        <v>0.638624</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.706699</v>
+        <v>0.709867</v>
       </c>
       <c r="C61" t="n">
-        <v>0.631112</v>
+        <v>0.664133</v>
       </c>
       <c r="D61" t="n">
-        <v>0.62941</v>
+        <v>0.640776</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.717751</v>
+        <v>0.709427</v>
       </c>
       <c r="C62" t="n">
-        <v>0.672412</v>
+        <v>0.642886</v>
       </c>
       <c r="D62" t="n">
-        <v>0.623615</v>
+        <v>0.625133</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.716902</v>
+        <v>0.7229370000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.703848</v>
+        <v>0.662245</v>
       </c>
       <c r="D63" t="n">
-        <v>0.681536</v>
+        <v>0.662691</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.741519</v>
+        <v>0.771973</v>
       </c>
       <c r="C64" t="n">
-        <v>0.692072</v>
+        <v>0.711916</v>
       </c>
       <c r="D64" t="n">
-        <v>0.676592</v>
+        <v>0.669466</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.779004</v>
+        <v>0.776524</v>
       </c>
       <c r="C65" t="n">
-        <v>0.739302</v>
+        <v>0.717651</v>
       </c>
       <c r="D65" t="n">
-        <v>0.693383</v>
+        <v>0.704531</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.827914</v>
+        <v>0.8219689999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.747689</v>
+        <v>0.752424</v>
       </c>
       <c r="D66" t="n">
-        <v>0.650697</v>
+        <v>0.6301330000000001</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.736148</v>
+        <v>0.744527</v>
       </c>
       <c r="C67" t="n">
-        <v>0.652575</v>
+        <v>0.65316</v>
       </c>
       <c r="D67" t="n">
-        <v>0.638143</v>
+        <v>0.632917</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7950739999999999</v>
+        <v>0.764636</v>
       </c>
       <c r="C68" t="n">
-        <v>0.669282</v>
+        <v>0.666316</v>
       </c>
       <c r="D68" t="n">
-        <v>0.630514</v>
+        <v>0.628593</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.729766</v>
+        <v>0.749858</v>
       </c>
       <c r="C69" t="n">
-        <v>0.660083</v>
+        <v>0.6521439999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.636602</v>
+        <v>0.646868</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.746092</v>
+        <v>0.755012</v>
       </c>
       <c r="C70" t="n">
-        <v>0.646089</v>
+        <v>0.658376</v>
       </c>
       <c r="D70" t="n">
-        <v>0.655563</v>
+        <v>0.648532</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.732963</v>
+        <v>0.750098</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6705759999999999</v>
+        <v>0.659658</v>
       </c>
       <c r="D71" t="n">
-        <v>0.644085</v>
+        <v>0.673506</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.736913</v>
+        <v>0.756585</v>
       </c>
       <c r="C72" t="n">
-        <v>0.678289</v>
+        <v>0.670937</v>
       </c>
       <c r="D72" t="n">
-        <v>0.667714</v>
+        <v>0.635674</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.75737</v>
+        <v>0.772424</v>
       </c>
       <c r="C73" t="n">
-        <v>0.678325</v>
+        <v>0.670637</v>
       </c>
       <c r="D73" t="n">
-        <v>0.647726</v>
+        <v>0.65768</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.754614</v>
+        <v>0.770319</v>
       </c>
       <c r="C74" t="n">
-        <v>0.689317</v>
+        <v>0.680992</v>
       </c>
       <c r="D74" t="n">
-        <v>0.64667</v>
+        <v>0.667969</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.75448</v>
+        <v>0.743807</v>
       </c>
       <c r="C75" t="n">
-        <v>0.686006</v>
+        <v>0.664548</v>
       </c>
       <c r="D75" t="n">
-        <v>0.67508</v>
+        <v>0.655042</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.791059</v>
+        <v>0.791982</v>
       </c>
       <c r="C76" t="n">
-        <v>0.682913</v>
+        <v>0.71104</v>
       </c>
       <c r="D76" t="n">
-        <v>0.679808</v>
+        <v>0.670444</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.815682</v>
+        <v>0.78981</v>
       </c>
       <c r="C77" t="n">
-        <v>0.707379</v>
+        <v>0.724699</v>
       </c>
       <c r="D77" t="n">
-        <v>0.663013</v>
+        <v>0.688372</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.786358</v>
+        <v>0.791004</v>
       </c>
       <c r="C78" t="n">
-        <v>0.721674</v>
+        <v>0.777177</v>
       </c>
       <c r="D78" t="n">
-        <v>0.704703</v>
+        <v>0.687385</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.814276</v>
+        <v>0.808744</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7748350000000001</v>
+        <v>0.765033</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7524110000000001</v>
+        <v>0.727436</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.864734</v>
+        <v>0.8692879999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.802612</v>
+        <v>0.802415</v>
       </c>
       <c r="D80" t="n">
-        <v>0.668104</v>
+        <v>0.661191</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.785712</v>
+        <v>0.780184</v>
       </c>
       <c r="C81" t="n">
-        <v>0.676909</v>
+        <v>0.692197</v>
       </c>
       <c r="D81" t="n">
-        <v>0.661903</v>
+        <v>0.670509</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.773052</v>
+        <v>0.773979</v>
       </c>
       <c r="C82" t="n">
-        <v>0.714132</v>
+        <v>0.713745</v>
       </c>
       <c r="D82" t="n">
-        <v>0.675576</v>
+        <v>0.659681</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.768445</v>
+        <v>0.769622</v>
       </c>
       <c r="C83" t="n">
-        <v>0.684106</v>
+        <v>0.7047330000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.661052</v>
+        <v>0.6707109999999999</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.772085</v>
+        <v>0.776936</v>
       </c>
       <c r="C84" t="n">
-        <v>0.698375</v>
+        <v>0.695034</v>
       </c>
       <c r="D84" t="n">
-        <v>0.659007</v>
+        <v>0.664327</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.800068</v>
+        <v>0.796391</v>
       </c>
       <c r="C85" t="n">
-        <v>0.706815</v>
+        <v>0.705165</v>
       </c>
       <c r="D85" t="n">
-        <v>0.664521</v>
+        <v>0.693822</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.780681</v>
+        <v>0.785332</v>
       </c>
       <c r="C86" t="n">
-        <v>0.717589</v>
+        <v>0.722212</v>
       </c>
       <c r="D86" t="n">
-        <v>0.669077</v>
+        <v>0.665319</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.780767</v>
+        <v>0.788025</v>
       </c>
       <c r="C87" t="n">
-        <v>0.707332</v>
+        <v>0.721815</v>
       </c>
       <c r="D87" t="n">
-        <v>0.663121</v>
+        <v>0.667415</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.792412</v>
+        <v>0.802519</v>
       </c>
       <c r="C88" t="n">
-        <v>0.717675</v>
+        <v>0.705487</v>
       </c>
       <c r="D88" t="n">
-        <v>0.68423</v>
+        <v>0.673194</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.808579</v>
+        <v>0.797828</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7517509999999999</v>
+        <v>0.724756</v>
       </c>
       <c r="D89" t="n">
-        <v>0.683702</v>
+        <v>0.676292</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.85075</v>
+        <v>0.843056</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7675920000000001</v>
+        <v>0.73854</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7150919999999999</v>
+        <v>0.6817299999999999</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.810687</v>
+        <v>0.815377</v>
       </c>
       <c r="C91" t="n">
-        <v>0.749968</v>
+        <v>0.7913249999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.709584</v>
+        <v>0.703189</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.824317</v>
+        <v>0.852379</v>
       </c>
       <c r="C92" t="n">
-        <v>0.777589</v>
+        <v>0.762591</v>
       </c>
       <c r="D92" t="n">
-        <v>0.725718</v>
+        <v>0.732176</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.86378</v>
+        <v>0.838797</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8063900000000001</v>
+        <v>0.808572</v>
       </c>
       <c r="D93" t="n">
-        <v>0.732552</v>
+        <v>0.739144</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.906985</v>
+        <v>0.913573</v>
       </c>
       <c r="C94" t="n">
-        <v>0.874063</v>
+        <v>0.840744</v>
       </c>
       <c r="D94" t="n">
-        <v>0.696201</v>
+        <v>0.695984</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.816061</v>
+        <v>0.831655</v>
       </c>
       <c r="C95" t="n">
-        <v>0.736056</v>
+        <v>0.75897</v>
       </c>
       <c r="D95" t="n">
-        <v>0.692562</v>
+        <v>0.696508</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.816004</v>
+        <v>0.82099</v>
       </c>
       <c r="C96" t="n">
-        <v>0.719245</v>
+        <v>0.757253</v>
       </c>
       <c r="D96" t="n">
-        <v>0.699605</v>
+        <v>0.725731</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.822541</v>
+        <v>0.831139</v>
       </c>
       <c r="C97" t="n">
-        <v>0.756827</v>
+        <v>0.741942</v>
       </c>
       <c r="D97" t="n">
-        <v>0.719858</v>
+        <v>0.718425</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.828474</v>
+        <v>0.836157</v>
       </c>
       <c r="C98" t="n">
-        <v>0.75236</v>
+        <v>0.755176</v>
       </c>
       <c r="D98" t="n">
-        <v>0.707075</v>
+        <v>0.71055</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.83173</v>
+        <v>0.832588</v>
       </c>
       <c r="C99" t="n">
-        <v>0.768026</v>
+        <v>0.759374</v>
       </c>
       <c r="D99" t="n">
-        <v>0.706084</v>
+        <v>0.7072000000000001</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.847896</v>
+        <v>0.844768</v>
       </c>
       <c r="C100" t="n">
-        <v>0.756562</v>
+        <v>0.756345</v>
       </c>
       <c r="D100" t="n">
-        <v>0.714964</v>
+        <v>0.720932</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.865236</v>
+        <v>0.853482</v>
       </c>
       <c r="C101" t="n">
-        <v>0.790167</v>
+        <v>0.8019539999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.701081</v>
+        <v>0.721347</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.842171</v>
+        <v>0.871417</v>
       </c>
       <c r="C102" t="n">
-        <v>0.773634</v>
+        <v>0.825076</v>
       </c>
       <c r="D102" t="n">
-        <v>0.737402</v>
+        <v>0.729081</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.851257</v>
+        <v>0.845543</v>
       </c>
       <c r="C103" t="n">
-        <v>0.770738</v>
+        <v>0.796786</v>
       </c>
       <c r="D103" t="n">
-        <v>0.724897</v>
+        <v>0.732561</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.865886</v>
+        <v>0.871378</v>
       </c>
       <c r="C104" t="n">
-        <v>0.7958229999999999</v>
+        <v>0.823767</v>
       </c>
       <c r="D104" t="n">
-        <v>0.728972</v>
+        <v>0.724967</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.8671450000000001</v>
+        <v>0.895159</v>
       </c>
       <c r="C105" t="n">
-        <v>0.803662</v>
+        <v>0.806009</v>
       </c>
       <c r="D105" t="n">
-        <v>0.72303</v>
+        <v>0.753313</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.8949549999999999</v>
+        <v>0.92721</v>
       </c>
       <c r="C106" t="n">
-        <v>0.823913</v>
+        <v>0.861603</v>
       </c>
       <c r="D106" t="n">
-        <v>0.770259</v>
+        <v>0.790621</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9380810000000001</v>
+        <v>0.921899</v>
       </c>
       <c r="C107" t="n">
-        <v>0.873372</v>
+        <v>0.905212</v>
       </c>
       <c r="D107" t="n">
-        <v>0.794615</v>
+        <v>0.793853</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9935040000000001</v>
+        <v>0.993606</v>
       </c>
       <c r="C108" t="n">
-        <v>0.924659</v>
+        <v>0.961399</v>
       </c>
       <c r="D108" t="n">
-        <v>0.832422</v>
+        <v>0.861656</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.06823</v>
+        <v>1.09968</v>
       </c>
       <c r="C109" t="n">
-        <v>1.06724</v>
+        <v>1.01728</v>
       </c>
       <c r="D109" t="n">
-        <v>0.850043</v>
+        <v>0.832178</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.981496</v>
+        <v>0.95017</v>
       </c>
       <c r="C110" t="n">
-        <v>0.891828</v>
+        <v>0.896336</v>
       </c>
       <c r="D110" t="n">
-        <v>0.8250729999999999</v>
+        <v>0.834891</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.973231</v>
+        <v>0.989352</v>
       </c>
       <c r="C111" t="n">
-        <v>0.898464</v>
+        <v>0.91479</v>
       </c>
       <c r="D111" t="n">
-        <v>0.834765</v>
+        <v>0.862629</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.00461</v>
+        <v>1.00635</v>
       </c>
       <c r="C112" t="n">
-        <v>0.917564</v>
+        <v>0.926244</v>
       </c>
       <c r="D112" t="n">
-        <v>0.834408</v>
+        <v>0.841337</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.978463</v>
+        <v>1.00814</v>
       </c>
       <c r="C113" t="n">
-        <v>0.915986</v>
+        <v>0.930889</v>
       </c>
       <c r="D113" t="n">
-        <v>0.843248</v>
+        <v>0.836632</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.980427</v>
+        <v>1.0136</v>
       </c>
       <c r="C114" t="n">
-        <v>0.953913</v>
+        <v>0.920347</v>
       </c>
       <c r="D114" t="n">
-        <v>0.86321</v>
+        <v>0.856505</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.01852</v>
+        <v>1.00729</v>
       </c>
       <c r="C115" t="n">
-        <v>0.93196</v>
+        <v>0.928355</v>
       </c>
       <c r="D115" t="n">
-        <v>0.882596</v>
+        <v>0.863154</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.01522</v>
+        <v>1.01326</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9300890000000001</v>
+        <v>0.932384</v>
       </c>
       <c r="D116" t="n">
-        <v>0.866273</v>
+        <v>0.886933</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.02253</v>
+        <v>1.02865</v>
       </c>
       <c r="C117" t="n">
-        <v>0.945134</v>
+        <v>0.962297</v>
       </c>
       <c r="D117" t="n">
-        <v>0.91681</v>
+        <v>0.880248</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.03464</v>
+        <v>1.03336</v>
       </c>
       <c r="C118" t="n">
-        <v>0.984576</v>
+        <v>0.965093</v>
       </c>
       <c r="D118" t="n">
-        <v>0.88048</v>
+        <v>0.893263</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.05358</v>
+        <v>1.04906</v>
       </c>
       <c r="C119" t="n">
-        <v>1.03777</v>
+        <v>0.987795</v>
       </c>
       <c r="D119" t="n">
-        <v>0.909446</v>
+        <v>0.8847739999999999</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.0603</v>
+        <v>1.08414</v>
       </c>
       <c r="C120" t="n">
-        <v>1.01269</v>
+        <v>1.02511</v>
       </c>
       <c r="D120" t="n">
-        <v>0.925888</v>
+        <v>0.935297</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.10059</v>
+        <v>1.122</v>
       </c>
       <c r="C121" t="n">
-        <v>1.02856</v>
+        <v>1.08367</v>
       </c>
       <c r="D121" t="n">
-        <v>0.954364</v>
+        <v>0.931577</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.14856</v>
+        <v>1.15397</v>
       </c>
       <c r="C122" t="n">
-        <v>1.09731</v>
+        <v>1.12629</v>
       </c>
       <c r="D122" t="n">
-        <v>0.976204</v>
+        <v>0.996521</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.23479</v>
+        <v>1.21131</v>
       </c>
       <c r="C123" t="n">
-        <v>1.16327</v>
+        <v>1.1824</v>
       </c>
       <c r="D123" t="n">
-        <v>1.12233</v>
+        <v>1.09469</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.28939</v>
+        <v>1.30293</v>
       </c>
       <c r="C124" t="n">
-        <v>1.18705</v>
+        <v>1.1622</v>
       </c>
       <c r="D124" t="n">
-        <v>1.10275</v>
+        <v>1.0888</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.3265</v>
+        <v>1.31461</v>
       </c>
       <c r="C125" t="n">
-        <v>1.16842</v>
+        <v>1.19242</v>
       </c>
       <c r="D125" t="n">
-        <v>1.1545</v>
+        <v>1.10652</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.29372</v>
+        <v>1.3095</v>
       </c>
       <c r="C126" t="n">
-        <v>1.24617</v>
+        <v>1.20306</v>
       </c>
       <c r="D126" t="n">
-        <v>1.17942</v>
+        <v>1.12664</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.3342</v>
+        <v>1.30683</v>
       </c>
       <c r="C127" t="n">
-        <v>1.22403</v>
+        <v>1.21688</v>
       </c>
       <c r="D127" t="n">
-        <v>1.18415</v>
+        <v>1.12516</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.33842</v>
+        <v>1.32161</v>
       </c>
       <c r="C128" t="n">
-        <v>1.21345</v>
+        <v>1.22099</v>
       </c>
       <c r="D128" t="n">
-        <v>1.14271</v>
+        <v>1.1365</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.31853</v>
+        <v>1.33162</v>
       </c>
       <c r="C129" t="n">
-        <v>1.22572</v>
+        <v>1.21636</v>
       </c>
       <c r="D129" t="n">
-        <v>1.17154</v>
+        <v>1.15126</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.36014</v>
+        <v>1.34099</v>
       </c>
       <c r="C130" t="n">
-        <v>1.23926</v>
+        <v>1.24477</v>
       </c>
       <c r="D130" t="n">
-        <v>1.17399</v>
+        <v>1.14289</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.39362</v>
+        <v>1.35506</v>
       </c>
       <c r="C131" t="n">
-        <v>1.28579</v>
+        <v>1.30305</v>
       </c>
       <c r="D131" t="n">
-        <v>1.19119</v>
+        <v>1.15566</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.40034</v>
+        <v>1.36604</v>
       </c>
       <c r="C132" t="n">
-        <v>1.24291</v>
+        <v>1.26019</v>
       </c>
       <c r="D132" t="n">
-        <v>1.14605</v>
+        <v>1.16763</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.3921</v>
+        <v>1.38929</v>
       </c>
       <c r="C133" t="n">
-        <v>1.2907</v>
+        <v>1.29359</v>
       </c>
       <c r="D133" t="n">
-        <v>1.16625</v>
+        <v>1.17871</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.44694</v>
+        <v>1.43954</v>
       </c>
       <c r="C134" t="n">
-        <v>1.32614</v>
+        <v>1.30932</v>
       </c>
       <c r="D134" t="n">
-        <v>1.24278</v>
+        <v>1.20248</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.46088</v>
+        <v>1.50556</v>
       </c>
       <c r="C135" t="n">
-        <v>1.3837</v>
+        <v>1.3766</v>
       </c>
       <c r="D135" t="n">
-        <v>1.22513</v>
+        <v>1.22964</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.48872</v>
+        <v>1.5247</v>
       </c>
       <c r="C136" t="n">
-        <v>1.43326</v>
+        <v>1.43701</v>
       </c>
       <c r="D136" t="n">
-        <v>1.28335</v>
+        <v>1.2715</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.58035</v>
+        <v>1.58744</v>
       </c>
       <c r="C137" t="n">
-        <v>1.51257</v>
+        <v>1.53886</v>
       </c>
       <c r="D137" t="n">
-        <v>1.36667</v>
+        <v>1.34973</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.56829</v>
+        <v>1.62162</v>
       </c>
       <c r="C138" t="n">
-        <v>1.40226</v>
+        <v>1.44595</v>
       </c>
       <c r="D138" t="n">
-        <v>1.35708</v>
+        <v>1.37746</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.58245</v>
+        <v>1.58107</v>
       </c>
       <c r="C139" t="n">
-        <v>1.41967</v>
+        <v>1.42487</v>
       </c>
       <c r="D139" t="n">
-        <v>1.40969</v>
+        <v>1.37318</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.645</v>
+        <v>1.58386</v>
       </c>
       <c r="C140" t="n">
-        <v>1.42666</v>
+        <v>1.4347</v>
       </c>
       <c r="D140" t="n">
-        <v>1.37691</v>
+        <v>1.36016</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.64774</v>
+        <v>1.60877</v>
       </c>
       <c r="C141" t="n">
-        <v>1.4424</v>
+        <v>1.4395</v>
       </c>
       <c r="D141" t="n">
-        <v>1.37185</v>
+        <v>1.37128</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.58543</v>
+        <v>1.60897</v>
       </c>
       <c r="C142" t="n">
-        <v>1.48429</v>
+        <v>1.48115</v>
       </c>
       <c r="D142" t="n">
-        <v>1.3739</v>
+        <v>1.36566</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.61396</v>
+        <v>1.61104</v>
       </c>
       <c r="C143" t="n">
-        <v>1.45584</v>
+        <v>1.45962</v>
       </c>
       <c r="D143" t="n">
-        <v>1.38953</v>
+        <v>1.3847</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.647431</v>
+        <v>0.640855</v>
       </c>
       <c r="C2" t="n">
-        <v>0.607972</v>
+        <v>0.601182</v>
       </c>
       <c r="D2" t="n">
-        <v>0.586798</v>
+        <v>0.597299</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.648134</v>
+        <v>0.642181</v>
       </c>
       <c r="C3" t="n">
-        <v>0.595523</v>
+        <v>0.600404</v>
       </c>
       <c r="D3" t="n">
-        <v>0.595987</v>
+        <v>0.604612</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6569390000000001</v>
+        <v>0.642857</v>
       </c>
       <c r="C4" t="n">
-        <v>0.606061</v>
+        <v>0.5941419999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5995200000000001</v>
+        <v>0.594306</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.650478</v>
+        <v>0.6417</v>
       </c>
       <c r="C5" t="n">
-        <v>0.617125</v>
+        <v>0.59685</v>
       </c>
       <c r="D5" t="n">
-        <v>0.591683</v>
+        <v>0.601977</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6856719999999999</v>
+        <v>0.646898</v>
       </c>
       <c r="C6" t="n">
-        <v>0.626502</v>
+        <v>0.610223</v>
       </c>
       <c r="D6" t="n">
-        <v>0.621858</v>
+        <v>0.611879</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.664143</v>
+        <v>0.6729000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.640517</v>
+        <v>0.633847</v>
       </c>
       <c r="D7" t="n">
-        <v>0.626819</v>
+        <v>0.620191</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.698676</v>
+        <v>0.672565</v>
       </c>
       <c r="C8" t="n">
-        <v>0.650261</v>
+        <v>0.6588889999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.638296</v>
+        <v>0.641825</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.725591</v>
+        <v>0.717262</v>
       </c>
       <c r="C9" t="n">
-        <v>0.724446</v>
+        <v>0.699882</v>
       </c>
       <c r="D9" t="n">
-        <v>0.578558</v>
+        <v>0.593713</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.657932</v>
+        <v>0.6438469999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.582485</v>
+        <v>0.608572</v>
       </c>
       <c r="D10" t="n">
-        <v>0.622318</v>
+        <v>0.587213</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.672475</v>
+        <v>0.6358009999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.595733</v>
+        <v>0.588384</v>
       </c>
       <c r="D11" t="n">
-        <v>0.585508</v>
+        <v>0.585929</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.673352</v>
+        <v>0.645864</v>
       </c>
       <c r="C12" t="n">
-        <v>0.603105</v>
+        <v>0.599472</v>
       </c>
       <c r="D12" t="n">
-        <v>0.582643</v>
+        <v>0.5968599999999999</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.662887</v>
+        <v>0.644556</v>
       </c>
       <c r="C13" t="n">
-        <v>0.611652</v>
+        <v>0.580236</v>
       </c>
       <c r="D13" t="n">
-        <v>0.588522</v>
+        <v>0.610494</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.668305</v>
+        <v>0.66544</v>
       </c>
       <c r="C14" t="n">
-        <v>0.606124</v>
+        <v>0.591846</v>
       </c>
       <c r="D14" t="n">
-        <v>0.597761</v>
+        <v>0.595007</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.661545</v>
+        <v>0.64663</v>
       </c>
       <c r="C15" t="n">
-        <v>0.609653</v>
+        <v>0.616177</v>
       </c>
       <c r="D15" t="n">
-        <v>0.592124</v>
+        <v>0.58994</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.675518</v>
+        <v>0.651434</v>
       </c>
       <c r="C16" t="n">
-        <v>0.59965</v>
+        <v>0.586773</v>
       </c>
       <c r="D16" t="n">
-        <v>0.587255</v>
+        <v>0.636817</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.675428</v>
+        <v>0.647665</v>
       </c>
       <c r="C17" t="n">
-        <v>0.607576</v>
+        <v>0.610364</v>
       </c>
       <c r="D17" t="n">
-        <v>0.61297</v>
+        <v>0.591939</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.667026</v>
+        <v>0.660374</v>
       </c>
       <c r="C18" t="n">
-        <v>0.610467</v>
+        <v>0.616581</v>
       </c>
       <c r="D18" t="n">
-        <v>0.612128</v>
+        <v>0.624865</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.682894</v>
+        <v>0.65351</v>
       </c>
       <c r="C19" t="n">
-        <v>0.619205</v>
+        <v>0.608214</v>
       </c>
       <c r="D19" t="n">
-        <v>0.608074</v>
+        <v>0.6112300000000001</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.669392</v>
+        <v>0.664712</v>
       </c>
       <c r="C20" t="n">
-        <v>0.630155</v>
+        <v>0.615245</v>
       </c>
       <c r="D20" t="n">
-        <v>0.625895</v>
+        <v>0.638169</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.688095</v>
+        <v>0.6899149999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.637814</v>
+        <v>0.632487</v>
       </c>
       <c r="D21" t="n">
-        <v>0.634059</v>
+        <v>0.624149</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.70246</v>
+        <v>0.711646</v>
       </c>
       <c r="C22" t="n">
-        <v>0.672264</v>
+        <v>0.666022</v>
       </c>
       <c r="D22" t="n">
-        <v>0.641802</v>
+        <v>0.63783</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7236590000000001</v>
+        <v>0.73153</v>
       </c>
       <c r="C23" t="n">
-        <v>0.698746</v>
+        <v>0.697807</v>
       </c>
       <c r="D23" t="n">
-        <v>0.606156</v>
+        <v>0.5952</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.673952</v>
+        <v>0.643992</v>
       </c>
       <c r="C24" t="n">
-        <v>0.597402</v>
+        <v>0.581199</v>
       </c>
       <c r="D24" t="n">
-        <v>0.61207</v>
+        <v>0.597768</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.659017</v>
+        <v>0.649374</v>
       </c>
       <c r="C25" t="n">
-        <v>0.610924</v>
+        <v>0.593292</v>
       </c>
       <c r="D25" t="n">
-        <v>0.604203</v>
+        <v>0.610229</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.681494</v>
+        <v>0.640635</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5953889999999999</v>
+        <v>0.590874</v>
       </c>
       <c r="D26" t="n">
-        <v>0.596303</v>
+        <v>0.626865</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6892239999999999</v>
+        <v>0.660651</v>
       </c>
       <c r="C27" t="n">
-        <v>0.594993</v>
+        <v>0.6041069999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.597156</v>
+        <v>0.597357</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.669829</v>
+        <v>0.66653</v>
       </c>
       <c r="C28" t="n">
-        <v>0.597289</v>
+        <v>0.600434</v>
       </c>
       <c r="D28" t="n">
-        <v>0.600682</v>
+        <v>0.617055</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.682563</v>
+        <v>0.673647</v>
       </c>
       <c r="C29" t="n">
-        <v>0.610464</v>
+        <v>0.601071</v>
       </c>
       <c r="D29" t="n">
-        <v>0.604422</v>
+        <v>0.604699</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.683131</v>
+        <v>0.670592</v>
       </c>
       <c r="C30" t="n">
-        <v>0.612097</v>
+        <v>0.60525</v>
       </c>
       <c r="D30" t="n">
-        <v>0.603817</v>
+        <v>0.599339</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.680347</v>
+        <v>0.660563</v>
       </c>
       <c r="C31" t="n">
-        <v>0.603721</v>
+        <v>0.596071</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6150600000000001</v>
+        <v>0.630405</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.699169</v>
+        <v>0.679835</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6057630000000001</v>
+        <v>0.629189</v>
       </c>
       <c r="D32" t="n">
-        <v>0.63469</v>
+        <v>0.609325</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.675143</v>
+        <v>0.687125</v>
       </c>
       <c r="C33" t="n">
-        <v>0.623371</v>
+        <v>0.621752</v>
       </c>
       <c r="D33" t="n">
-        <v>0.634616</v>
+        <v>0.627423</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.69151</v>
+        <v>0.672524</v>
       </c>
       <c r="C34" t="n">
-        <v>0.648048</v>
+        <v>0.65038</v>
       </c>
       <c r="D34" t="n">
-        <v>0.630714</v>
+        <v>0.63808</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.691371</v>
+        <v>0.71336</v>
       </c>
       <c r="C35" t="n">
-        <v>0.636036</v>
+        <v>0.631584</v>
       </c>
       <c r="D35" t="n">
-        <v>0.636454</v>
+        <v>0.630862</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.720644</v>
+        <v>0.697663</v>
       </c>
       <c r="C36" t="n">
-        <v>0.657547</v>
+        <v>0.659772</v>
       </c>
       <c r="D36" t="n">
-        <v>0.667893</v>
+        <v>0.660419</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7378479999999999</v>
+        <v>0.748926</v>
       </c>
       <c r="C37" t="n">
-        <v>0.683151</v>
+        <v>0.691089</v>
       </c>
       <c r="D37" t="n">
-        <v>0.600365</v>
+        <v>0.609661</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.675187</v>
+        <v>0.651184</v>
       </c>
       <c r="C38" t="n">
-        <v>0.617254</v>
+        <v>0.585247</v>
       </c>
       <c r="D38" t="n">
-        <v>0.603783</v>
+        <v>0.621217</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.684515</v>
+        <v>0.669203</v>
       </c>
       <c r="C39" t="n">
-        <v>0.611349</v>
+        <v>0.620016</v>
       </c>
       <c r="D39" t="n">
-        <v>0.594476</v>
+        <v>0.60519</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.671628</v>
+        <v>0.656187</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6093190000000001</v>
+        <v>0.606</v>
       </c>
       <c r="D40" t="n">
-        <v>0.603202</v>
+        <v>0.600257</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.678033</v>
+        <v>0.6498930000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.617309</v>
+        <v>0.606778</v>
       </c>
       <c r="D41" t="n">
-        <v>0.610441</v>
+        <v>0.6012189999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.668006</v>
+        <v>0.648398</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6134039999999999</v>
+        <v>0.594019</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6180330000000001</v>
+        <v>0.595751</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.722036</v>
+        <v>0.665648</v>
       </c>
       <c r="C43" t="n">
-        <v>0.594477</v>
+        <v>0.61754</v>
       </c>
       <c r="D43" t="n">
-        <v>0.60055</v>
+        <v>0.613584</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.683704</v>
+        <v>0.673594</v>
       </c>
       <c r="C44" t="n">
-        <v>0.602761</v>
+        <v>0.611679</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6129829999999999</v>
+        <v>0.612225</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.689367</v>
+        <v>0.666474</v>
       </c>
       <c r="C45" t="n">
-        <v>0.636641</v>
+        <v>0.632003</v>
       </c>
       <c r="D45" t="n">
-        <v>0.611384</v>
+        <v>0.618974</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.682826</v>
+        <v>0.689822</v>
       </c>
       <c r="C46" t="n">
-        <v>0.617756</v>
+        <v>0.6563059999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.608402</v>
+        <v>0.61375</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.687405</v>
+        <v>0.6709000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.653926</v>
+        <v>0.640501</v>
       </c>
       <c r="D47" t="n">
-        <v>0.617166</v>
+        <v>0.619047</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.705618</v>
+        <v>0.665955</v>
       </c>
       <c r="C48" t="n">
-        <v>0.659941</v>
+        <v>0.63715</v>
       </c>
       <c r="D48" t="n">
-        <v>0.661303</v>
+        <v>0.668591</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.713811</v>
+        <v>0.691847</v>
       </c>
       <c r="C49" t="n">
-        <v>0.646536</v>
+        <v>0.633054</v>
       </c>
       <c r="D49" t="n">
-        <v>0.62924</v>
+        <v>0.665666</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.706174</v>
+        <v>0.71692</v>
       </c>
       <c r="C50" t="n">
-        <v>0.666608</v>
+        <v>0.663991</v>
       </c>
       <c r="D50" t="n">
-        <v>0.668358</v>
+        <v>0.690181</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.757827</v>
+        <v>0.756888</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6930460000000001</v>
+        <v>0.685575</v>
       </c>
       <c r="D51" t="n">
-        <v>0.623179</v>
+        <v>0.632334</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.769272</v>
+        <v>0.7752329999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.719069</v>
+        <v>0.719368</v>
       </c>
       <c r="D52" t="n">
-        <v>0.610218</v>
+        <v>0.617324</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.710929</v>
+        <v>0.680982</v>
       </c>
       <c r="C53" t="n">
-        <v>0.638473</v>
+        <v>0.632297</v>
       </c>
       <c r="D53" t="n">
-        <v>0.610563</v>
+        <v>0.615367</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.718549</v>
+        <v>0.693767</v>
       </c>
       <c r="C54" t="n">
-        <v>0.622347</v>
+        <v>0.625853</v>
       </c>
       <c r="D54" t="n">
-        <v>0.608209</v>
+        <v>0.629463</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.696568</v>
+        <v>0.6741780000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>0.652964</v>
+        <v>0.623005</v>
       </c>
       <c r="D55" t="n">
-        <v>0.619688</v>
+        <v>0.622909</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.717</v>
+        <v>0.685021</v>
       </c>
       <c r="C56" t="n">
-        <v>0.632729</v>
+        <v>0.621139</v>
       </c>
       <c r="D56" t="n">
-        <v>0.616071</v>
+        <v>0.627385</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.7046210000000001</v>
+        <v>0.666042</v>
       </c>
       <c r="C57" t="n">
-        <v>0.642406</v>
+        <v>0.624754</v>
       </c>
       <c r="D57" t="n">
-        <v>0.61583</v>
+        <v>0.647454</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.704162</v>
+        <v>0.70157</v>
       </c>
       <c r="C58" t="n">
-        <v>0.644477</v>
+        <v>0.6317390000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.621771</v>
+        <v>0.633643</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.69543</v>
+        <v>0.721877</v>
       </c>
       <c r="C59" t="n">
-        <v>0.654693</v>
+        <v>0.634472</v>
       </c>
       <c r="D59" t="n">
-        <v>0.640085</v>
+        <v>0.626665</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.693242</v>
+        <v>0.696287</v>
       </c>
       <c r="C60" t="n">
-        <v>0.643898</v>
+        <v>0.62382</v>
       </c>
       <c r="D60" t="n">
-        <v>0.638624</v>
+        <v>0.639366</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.709867</v>
+        <v>0.684845</v>
       </c>
       <c r="C61" t="n">
-        <v>0.664133</v>
+        <v>0.651875</v>
       </c>
       <c r="D61" t="n">
-        <v>0.640776</v>
+        <v>0.675838</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.709427</v>
+        <v>0.730725</v>
       </c>
       <c r="C62" t="n">
-        <v>0.642886</v>
+        <v>0.662965</v>
       </c>
       <c r="D62" t="n">
-        <v>0.625133</v>
+        <v>0.634655</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.7229370000000001</v>
+        <v>0.725902</v>
       </c>
       <c r="C63" t="n">
-        <v>0.662245</v>
+        <v>0.683075</v>
       </c>
       <c r="D63" t="n">
-        <v>0.662691</v>
+        <v>0.667225</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.771973</v>
+        <v>0.76649</v>
       </c>
       <c r="C64" t="n">
-        <v>0.711916</v>
+        <v>0.677212</v>
       </c>
       <c r="D64" t="n">
-        <v>0.669466</v>
+        <v>0.683751</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.776524</v>
+        <v>0.773227</v>
       </c>
       <c r="C65" t="n">
-        <v>0.717651</v>
+        <v>0.7099299999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.704531</v>
+        <v>0.691362</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8219689999999999</v>
+        <v>0.788056</v>
       </c>
       <c r="C66" t="n">
-        <v>0.752424</v>
+        <v>0.757282</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6301330000000001</v>
+        <v>0.648303</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.744527</v>
+        <v>0.737199</v>
       </c>
       <c r="C67" t="n">
-        <v>0.65316</v>
+        <v>0.64144</v>
       </c>
       <c r="D67" t="n">
-        <v>0.632917</v>
+        <v>0.645282</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.764636</v>
+        <v>0.718486</v>
       </c>
       <c r="C68" t="n">
-        <v>0.666316</v>
+        <v>0.658825</v>
       </c>
       <c r="D68" t="n">
-        <v>0.628593</v>
+        <v>0.641187</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.749858</v>
+        <v>0.714235</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6521439999999999</v>
+        <v>0.6516150000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.646868</v>
+        <v>0.646472</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.755012</v>
+        <v>0.717733</v>
       </c>
       <c r="C70" t="n">
-        <v>0.658376</v>
+        <v>0.669355</v>
       </c>
       <c r="D70" t="n">
-        <v>0.648532</v>
+        <v>0.655397</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.750098</v>
+        <v>0.748784</v>
       </c>
       <c r="C71" t="n">
-        <v>0.659658</v>
+        <v>0.65842</v>
       </c>
       <c r="D71" t="n">
-        <v>0.673506</v>
+        <v>0.6416230000000001</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.756585</v>
+        <v>0.7283269999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.670937</v>
+        <v>0.68035</v>
       </c>
       <c r="D72" t="n">
-        <v>0.635674</v>
+        <v>0.649281</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.772424</v>
+        <v>0.729139</v>
       </c>
       <c r="C73" t="n">
-        <v>0.670637</v>
+        <v>0.6750389999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.65768</v>
+        <v>0.651933</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.770319</v>
+        <v>0.750509</v>
       </c>
       <c r="C74" t="n">
-        <v>0.680992</v>
+        <v>0.693464</v>
       </c>
       <c r="D74" t="n">
-        <v>0.667969</v>
+        <v>0.684017</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.743807</v>
+        <v>0.759718</v>
       </c>
       <c r="C75" t="n">
-        <v>0.664548</v>
+        <v>0.677084</v>
       </c>
       <c r="D75" t="n">
-        <v>0.655042</v>
+        <v>0.659288</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.791982</v>
+        <v>0.742484</v>
       </c>
       <c r="C76" t="n">
-        <v>0.71104</v>
+        <v>0.697838</v>
       </c>
       <c r="D76" t="n">
-        <v>0.670444</v>
+        <v>0.664061</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.78981</v>
+        <v>0.761259</v>
       </c>
       <c r="C77" t="n">
-        <v>0.724699</v>
+        <v>0.6986289999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.688372</v>
+        <v>0.677276</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.791004</v>
+        <v>0.782843</v>
       </c>
       <c r="C78" t="n">
-        <v>0.777177</v>
+        <v>0.721429</v>
       </c>
       <c r="D78" t="n">
-        <v>0.687385</v>
+        <v>0.704507</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.808744</v>
+        <v>0.810848</v>
       </c>
       <c r="C79" t="n">
-        <v>0.765033</v>
+        <v>0.768786</v>
       </c>
       <c r="D79" t="n">
-        <v>0.727436</v>
+        <v>0.724947</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8692879999999999</v>
+        <v>0.877268</v>
       </c>
       <c r="C80" t="n">
-        <v>0.802415</v>
+        <v>0.797744</v>
       </c>
       <c r="D80" t="n">
-        <v>0.661191</v>
+        <v>0.670441</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.780184</v>
+        <v>0.753586</v>
       </c>
       <c r="C81" t="n">
-        <v>0.692197</v>
+        <v>0.6667729999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.670509</v>
+        <v>0.667866</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.773979</v>
+        <v>0.796654</v>
       </c>
       <c r="C82" t="n">
-        <v>0.713745</v>
+        <v>0.688916</v>
       </c>
       <c r="D82" t="n">
-        <v>0.659681</v>
+        <v>0.666595</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.769622</v>
+        <v>0.791606</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7047330000000001</v>
+        <v>0.705747</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6707109999999999</v>
+        <v>0.663926</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.776936</v>
+        <v>0.743912</v>
       </c>
       <c r="C84" t="n">
-        <v>0.695034</v>
+        <v>0.698016</v>
       </c>
       <c r="D84" t="n">
-        <v>0.664327</v>
+        <v>0.685676</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.796391</v>
+        <v>0.742001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.705165</v>
+        <v>0.692306</v>
       </c>
       <c r="D85" t="n">
-        <v>0.693822</v>
+        <v>0.683504</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.785332</v>
+        <v>0.7908770000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.722212</v>
+        <v>0.703178</v>
       </c>
       <c r="D86" t="n">
-        <v>0.665319</v>
+        <v>0.686508</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.788025</v>
+        <v>0.771738</v>
       </c>
       <c r="C87" t="n">
-        <v>0.721815</v>
+        <v>0.707998</v>
       </c>
       <c r="D87" t="n">
-        <v>0.667415</v>
+        <v>0.685924</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.802519</v>
+        <v>0.804249</v>
       </c>
       <c r="C88" t="n">
-        <v>0.705487</v>
+        <v>0.701726</v>
       </c>
       <c r="D88" t="n">
-        <v>0.673194</v>
+        <v>0.6896870000000001</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.797828</v>
+        <v>0.777257</v>
       </c>
       <c r="C89" t="n">
-        <v>0.724756</v>
+        <v>0.720151</v>
       </c>
       <c r="D89" t="n">
-        <v>0.676292</v>
+        <v>0.684023</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.843056</v>
+        <v>0.784782</v>
       </c>
       <c r="C90" t="n">
-        <v>0.73854</v>
+        <v>0.719518</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6817299999999999</v>
+        <v>0.695361</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.815377</v>
+        <v>0.826005</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7913249999999999</v>
+        <v>0.753567</v>
       </c>
       <c r="D91" t="n">
-        <v>0.703189</v>
+        <v>0.71158</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.852379</v>
+        <v>0.848986</v>
       </c>
       <c r="C92" t="n">
-        <v>0.762591</v>
+        <v>0.772405</v>
       </c>
       <c r="D92" t="n">
-        <v>0.732176</v>
+        <v>0.74583</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.838797</v>
+        <v>0.87369</v>
       </c>
       <c r="C93" t="n">
-        <v>0.808572</v>
+        <v>0.809009</v>
       </c>
       <c r="D93" t="n">
-        <v>0.739144</v>
+        <v>0.758506</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.913573</v>
+        <v>0.896984</v>
       </c>
       <c r="C94" t="n">
-        <v>0.840744</v>
+        <v>0.833114</v>
       </c>
       <c r="D94" t="n">
-        <v>0.695984</v>
+        <v>0.692319</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.831655</v>
+        <v>0.789092</v>
       </c>
       <c r="C95" t="n">
-        <v>0.75897</v>
+        <v>0.751902</v>
       </c>
       <c r="D95" t="n">
-        <v>0.696508</v>
+        <v>0.718969</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.82099</v>
+        <v>0.8080349999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.757253</v>
+        <v>0.72253</v>
       </c>
       <c r="D96" t="n">
-        <v>0.725731</v>
+        <v>0.723204</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.831139</v>
+        <v>0.81445</v>
       </c>
       <c r="C97" t="n">
-        <v>0.741942</v>
+        <v>0.753159</v>
       </c>
       <c r="D97" t="n">
-        <v>0.718425</v>
+        <v>0.7220839999999999</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.836157</v>
+        <v>0.830145</v>
       </c>
       <c r="C98" t="n">
-        <v>0.755176</v>
+        <v>0.743829</v>
       </c>
       <c r="D98" t="n">
-        <v>0.71055</v>
+        <v>0.714076</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.832588</v>
+        <v>0.817522</v>
       </c>
       <c r="C99" t="n">
-        <v>0.759374</v>
+        <v>0.756813</v>
       </c>
       <c r="D99" t="n">
-        <v>0.7072000000000001</v>
+        <v>0.7214429999999999</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.844768</v>
+        <v>0.8153280000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.756345</v>
+        <v>0.747369</v>
       </c>
       <c r="D100" t="n">
-        <v>0.720932</v>
+        <v>0.719655</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.853482</v>
+        <v>0.818072</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8019539999999999</v>
+        <v>0.772638</v>
       </c>
       <c r="D101" t="n">
-        <v>0.721347</v>
+        <v>0.724727</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.871417</v>
+        <v>0.828277</v>
       </c>
       <c r="C102" t="n">
-        <v>0.825076</v>
+        <v>0.80745</v>
       </c>
       <c r="D102" t="n">
-        <v>0.729081</v>
+        <v>0.714302</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.845543</v>
+        <v>0.84851</v>
       </c>
       <c r="C103" t="n">
-        <v>0.796786</v>
+        <v>0.775684</v>
       </c>
       <c r="D103" t="n">
-        <v>0.732561</v>
+        <v>0.741018</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.871378</v>
+        <v>0.866113</v>
       </c>
       <c r="C104" t="n">
-        <v>0.823767</v>
+        <v>0.776914</v>
       </c>
       <c r="D104" t="n">
-        <v>0.724967</v>
+        <v>0.744074</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.895159</v>
+        <v>0.875925</v>
       </c>
       <c r="C105" t="n">
-        <v>0.806009</v>
+        <v>0.825037</v>
       </c>
       <c r="D105" t="n">
-        <v>0.753313</v>
+        <v>0.800332</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.92721</v>
+        <v>0.880069</v>
       </c>
       <c r="C106" t="n">
-        <v>0.861603</v>
+        <v>0.838216</v>
       </c>
       <c r="D106" t="n">
-        <v>0.790621</v>
+        <v>0.790206</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.921899</v>
+        <v>0.922574</v>
       </c>
       <c r="C107" t="n">
-        <v>0.905212</v>
+        <v>0.868656</v>
       </c>
       <c r="D107" t="n">
-        <v>0.793853</v>
+        <v>0.7860200000000001</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.993606</v>
+        <v>0.967858</v>
       </c>
       <c r="C108" t="n">
-        <v>0.961399</v>
+        <v>0.92835</v>
       </c>
       <c r="D108" t="n">
-        <v>0.861656</v>
+        <v>0.830861</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.09968</v>
+        <v>1.04</v>
       </c>
       <c r="C109" t="n">
-        <v>1.01728</v>
+        <v>1.04264</v>
       </c>
       <c r="D109" t="n">
-        <v>0.832178</v>
+        <v>0.855958</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.95017</v>
+        <v>0.98671</v>
       </c>
       <c r="C110" t="n">
-        <v>0.896336</v>
+        <v>0.8803569999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.834891</v>
+        <v>0.858209</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.989352</v>
+        <v>1.00838</v>
       </c>
       <c r="C111" t="n">
-        <v>0.91479</v>
+        <v>0.916013</v>
       </c>
       <c r="D111" t="n">
-        <v>0.862629</v>
+        <v>0.8552</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.00635</v>
+        <v>1.00354</v>
       </c>
       <c r="C112" t="n">
-        <v>0.926244</v>
+        <v>0.9365830000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.841337</v>
+        <v>0.868339</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.00814</v>
+        <v>0.972075</v>
       </c>
       <c r="C113" t="n">
-        <v>0.930889</v>
+        <v>0.9154910000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.836632</v>
+        <v>0.879213</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.0136</v>
+        <v>0.967761</v>
       </c>
       <c r="C114" t="n">
-        <v>0.920347</v>
+        <v>0.904826</v>
       </c>
       <c r="D114" t="n">
-        <v>0.856505</v>
+        <v>0.864919</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.00729</v>
+        <v>1.02938</v>
       </c>
       <c r="C115" t="n">
-        <v>0.928355</v>
+        <v>0.96797</v>
       </c>
       <c r="D115" t="n">
-        <v>0.863154</v>
+        <v>0.867581</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.01326</v>
+        <v>0.988419</v>
       </c>
       <c r="C116" t="n">
-        <v>0.932384</v>
+        <v>0.95287</v>
       </c>
       <c r="D116" t="n">
-        <v>0.886933</v>
+        <v>0.918216</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.02865</v>
+        <v>0.997436</v>
       </c>
       <c r="C117" t="n">
-        <v>0.962297</v>
+        <v>0.952152</v>
       </c>
       <c r="D117" t="n">
-        <v>0.880248</v>
+        <v>0.9010280000000001</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.03336</v>
+        <v>1.0413</v>
       </c>
       <c r="C118" t="n">
-        <v>0.965093</v>
+        <v>0.958114</v>
       </c>
       <c r="D118" t="n">
-        <v>0.893263</v>
+        <v>0.8763339999999999</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.04906</v>
+        <v>1.04581</v>
       </c>
       <c r="C119" t="n">
-        <v>0.987795</v>
+        <v>0.968585</v>
       </c>
       <c r="D119" t="n">
-        <v>0.8847739999999999</v>
+        <v>0.904122</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.08414</v>
+        <v>1.07266</v>
       </c>
       <c r="C120" t="n">
-        <v>1.02511</v>
+        <v>1.02052</v>
       </c>
       <c r="D120" t="n">
-        <v>0.935297</v>
+        <v>0.924345</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.122</v>
+        <v>1.1493</v>
       </c>
       <c r="C121" t="n">
-        <v>1.08367</v>
+        <v>1.03944</v>
       </c>
       <c r="D121" t="n">
-        <v>0.931577</v>
+        <v>0.955959</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.15397</v>
+        <v>1.14775</v>
       </c>
       <c r="C122" t="n">
-        <v>1.12629</v>
+        <v>1.11423</v>
       </c>
       <c r="D122" t="n">
-        <v>0.996521</v>
+        <v>0.968651</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.21131</v>
+        <v>1.19913</v>
       </c>
       <c r="C123" t="n">
-        <v>1.1824</v>
+        <v>1.16244</v>
       </c>
       <c r="D123" t="n">
-        <v>1.09469</v>
+        <v>1.12787</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.30293</v>
+        <v>1.36623</v>
       </c>
       <c r="C124" t="n">
-        <v>1.1622</v>
+        <v>1.16846</v>
       </c>
       <c r="D124" t="n">
-        <v>1.0888</v>
+        <v>1.11782</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.31461</v>
+        <v>1.30904</v>
       </c>
       <c r="C125" t="n">
-        <v>1.19242</v>
+        <v>1.20986</v>
       </c>
       <c r="D125" t="n">
-        <v>1.10652</v>
+        <v>1.14563</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.3095</v>
+        <v>1.34675</v>
       </c>
       <c r="C126" t="n">
-        <v>1.20306</v>
+        <v>1.19286</v>
       </c>
       <c r="D126" t="n">
-        <v>1.12664</v>
+        <v>1.22831</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.30683</v>
+        <v>1.30059</v>
       </c>
       <c r="C127" t="n">
-        <v>1.21688</v>
+        <v>1.17983</v>
       </c>
       <c r="D127" t="n">
-        <v>1.12516</v>
+        <v>1.12659</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.32161</v>
+        <v>1.37619</v>
       </c>
       <c r="C128" t="n">
-        <v>1.22099</v>
+        <v>1.19371</v>
       </c>
       <c r="D128" t="n">
-        <v>1.1365</v>
+        <v>1.1285</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.33162</v>
+        <v>1.35722</v>
       </c>
       <c r="C129" t="n">
-        <v>1.21636</v>
+        <v>1.28033</v>
       </c>
       <c r="D129" t="n">
-        <v>1.15126</v>
+        <v>1.13689</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.34099</v>
+        <v>1.40347</v>
       </c>
       <c r="C130" t="n">
-        <v>1.24477</v>
+        <v>1.21457</v>
       </c>
       <c r="D130" t="n">
-        <v>1.14289</v>
+        <v>1.20801</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.35506</v>
+        <v>1.36667</v>
       </c>
       <c r="C131" t="n">
-        <v>1.30305</v>
+        <v>1.26539</v>
       </c>
       <c r="D131" t="n">
-        <v>1.15566</v>
+        <v>1.19872</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.36604</v>
+        <v>1.36451</v>
       </c>
       <c r="C132" t="n">
-        <v>1.26019</v>
+        <v>1.26683</v>
       </c>
       <c r="D132" t="n">
-        <v>1.16763</v>
+        <v>1.18111</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.38929</v>
+        <v>1.40406</v>
       </c>
       <c r="C133" t="n">
-        <v>1.29359</v>
+        <v>1.27571</v>
       </c>
       <c r="D133" t="n">
-        <v>1.17871</v>
+        <v>1.19523</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.43954</v>
+        <v>1.42995</v>
       </c>
       <c r="C134" t="n">
-        <v>1.30932</v>
+        <v>1.35529</v>
       </c>
       <c r="D134" t="n">
-        <v>1.20248</v>
+        <v>1.221</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.50556</v>
+        <v>1.51436</v>
       </c>
       <c r="C135" t="n">
-        <v>1.3766</v>
+        <v>1.39307</v>
       </c>
       <c r="D135" t="n">
-        <v>1.22964</v>
+        <v>1.21654</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.5247</v>
+        <v>1.57732</v>
       </c>
       <c r="C136" t="n">
-        <v>1.43701</v>
+        <v>1.42952</v>
       </c>
       <c r="D136" t="n">
-        <v>1.2715</v>
+        <v>1.31511</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.58744</v>
+        <v>1.58906</v>
       </c>
       <c r="C137" t="n">
-        <v>1.53886</v>
+        <v>1.53871</v>
       </c>
       <c r="D137" t="n">
-        <v>1.34973</v>
+        <v>1.3692</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.62162</v>
+        <v>1.63029</v>
       </c>
       <c r="C138" t="n">
-        <v>1.44595</v>
+        <v>1.41552</v>
       </c>
       <c r="D138" t="n">
-        <v>1.37746</v>
+        <v>1.399</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.58107</v>
+        <v>1.60228</v>
       </c>
       <c r="C139" t="n">
-        <v>1.42487</v>
+        <v>1.40973</v>
       </c>
       <c r="D139" t="n">
-        <v>1.37318</v>
+        <v>1.39605</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.58386</v>
+        <v>1.61349</v>
       </c>
       <c r="C140" t="n">
-        <v>1.4347</v>
+        <v>1.47294</v>
       </c>
       <c r="D140" t="n">
-        <v>1.36016</v>
+        <v>1.37919</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.60877</v>
+        <v>1.61769</v>
       </c>
       <c r="C141" t="n">
-        <v>1.4395</v>
+        <v>1.45764</v>
       </c>
       <c r="D141" t="n">
-        <v>1.37128</v>
+        <v>1.36162</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.60897</v>
+        <v>1.59809</v>
       </c>
       <c r="C142" t="n">
-        <v>1.48115</v>
+        <v>1.48478</v>
       </c>
       <c r="D142" t="n">
-        <v>1.36566</v>
+        <v>1.38426</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.61104</v>
+        <v>1.61876</v>
       </c>
       <c r="C143" t="n">
-        <v>1.45962</v>
+        <v>1.43804</v>
       </c>
       <c r="D143" t="n">
-        <v>1.3847</v>
+        <v>1.38797</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.640855</v>
+        <v>0.6368200000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.601182</v>
+        <v>0.581198</v>
       </c>
       <c r="D2" t="n">
-        <v>0.597299</v>
+        <v>0.595785</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.642181</v>
+        <v>0.630814</v>
       </c>
       <c r="C3" t="n">
-        <v>0.600404</v>
+        <v>0.572993</v>
       </c>
       <c r="D3" t="n">
-        <v>0.604612</v>
+        <v>0.599411</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.642857</v>
+        <v>0.636684</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5941419999999999</v>
+        <v>0.600499</v>
       </c>
       <c r="D4" t="n">
-        <v>0.594306</v>
+        <v>0.588824</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6417</v>
+        <v>0.663353</v>
       </c>
       <c r="C5" t="n">
-        <v>0.59685</v>
+        <v>0.6133150000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.601977</v>
+        <v>0.613057</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.646898</v>
+        <v>0.653313</v>
       </c>
       <c r="C6" t="n">
-        <v>0.610223</v>
+        <v>0.628999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.611879</v>
+        <v>0.608511</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6729000000000001</v>
+        <v>0.654537</v>
       </c>
       <c r="C7" t="n">
-        <v>0.633847</v>
+        <v>0.645285</v>
       </c>
       <c r="D7" t="n">
-        <v>0.620191</v>
+        <v>0.649002</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.672565</v>
+        <v>0.682573</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6588889999999999</v>
+        <v>0.667174</v>
       </c>
       <c r="D8" t="n">
-        <v>0.641825</v>
+        <v>0.654529</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.717262</v>
+        <v>0.724383</v>
       </c>
       <c r="C9" t="n">
-        <v>0.699882</v>
+        <v>0.701593</v>
       </c>
       <c r="D9" t="n">
-        <v>0.593713</v>
+        <v>0.586406</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6438469999999999</v>
+        <v>0.6436190000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.608572</v>
+        <v>0.5714669999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.587213</v>
+        <v>0.5949140000000001</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6358009999999999</v>
+        <v>0.641768</v>
       </c>
       <c r="C11" t="n">
-        <v>0.588384</v>
+        <v>0.599469</v>
       </c>
       <c r="D11" t="n">
-        <v>0.585929</v>
+        <v>0.606484</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.645864</v>
+        <v>0.629208</v>
       </c>
       <c r="C12" t="n">
-        <v>0.599472</v>
+        <v>0.593221</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5968599999999999</v>
+        <v>0.602317</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.644556</v>
+        <v>0.628711</v>
       </c>
       <c r="C13" t="n">
-        <v>0.580236</v>
+        <v>0.571839</v>
       </c>
       <c r="D13" t="n">
-        <v>0.610494</v>
+        <v>0.575606</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.66544</v>
+        <v>0.619376</v>
       </c>
       <c r="C14" t="n">
-        <v>0.591846</v>
+        <v>0.569139</v>
       </c>
       <c r="D14" t="n">
-        <v>0.595007</v>
+        <v>0.591652</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.64663</v>
+        <v>0.623434</v>
       </c>
       <c r="C15" t="n">
-        <v>0.616177</v>
+        <v>0.571842</v>
       </c>
       <c r="D15" t="n">
-        <v>0.58994</v>
+        <v>0.58831</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.651434</v>
+        <v>0.632692</v>
       </c>
       <c r="C16" t="n">
-        <v>0.586773</v>
+        <v>0.574079</v>
       </c>
       <c r="D16" t="n">
-        <v>0.636817</v>
+        <v>0.59134</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.647665</v>
+        <v>0.638691</v>
       </c>
       <c r="C17" t="n">
-        <v>0.610364</v>
+        <v>0.576999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.591939</v>
+        <v>0.582207</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.660374</v>
+        <v>0.637449</v>
       </c>
       <c r="C18" t="n">
-        <v>0.616581</v>
+        <v>0.580931</v>
       </c>
       <c r="D18" t="n">
-        <v>0.624865</v>
+        <v>0.585167</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.65351</v>
+        <v>0.633382</v>
       </c>
       <c r="C19" t="n">
-        <v>0.608214</v>
+        <v>0.606477</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6112300000000001</v>
+        <v>0.5907019999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.664712</v>
+        <v>0.641444</v>
       </c>
       <c r="C20" t="n">
-        <v>0.615245</v>
+        <v>0.600985</v>
       </c>
       <c r="D20" t="n">
-        <v>0.638169</v>
+        <v>0.599542</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6899149999999999</v>
+        <v>0.657139</v>
       </c>
       <c r="C21" t="n">
-        <v>0.632487</v>
+        <v>0.613441</v>
       </c>
       <c r="D21" t="n">
-        <v>0.624149</v>
+        <v>0.610562</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.711646</v>
+        <v>0.677026</v>
       </c>
       <c r="C22" t="n">
-        <v>0.666022</v>
+        <v>0.638431</v>
       </c>
       <c r="D22" t="n">
-        <v>0.63783</v>
+        <v>0.62991</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.73153</v>
+        <v>0.7209989999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.697807</v>
+        <v>0.694345</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5952</v>
+        <v>0.616788</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.643992</v>
+        <v>0.638973</v>
       </c>
       <c r="C24" t="n">
-        <v>0.581199</v>
+        <v>0.599761</v>
       </c>
       <c r="D24" t="n">
-        <v>0.597768</v>
+        <v>0.587614</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.649374</v>
+        <v>0.650822</v>
       </c>
       <c r="C25" t="n">
-        <v>0.593292</v>
+        <v>0.584694</v>
       </c>
       <c r="D25" t="n">
-        <v>0.610229</v>
+        <v>0.589662</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.640635</v>
+        <v>0.652992</v>
       </c>
       <c r="C26" t="n">
-        <v>0.590874</v>
+        <v>0.592839</v>
       </c>
       <c r="D26" t="n">
-        <v>0.626865</v>
+        <v>0.596703</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.660651</v>
+        <v>0.648851</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6041069999999999</v>
+        <v>0.595591</v>
       </c>
       <c r="D27" t="n">
-        <v>0.597357</v>
+        <v>0.60288</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.66653</v>
+        <v>0.655608</v>
       </c>
       <c r="C28" t="n">
-        <v>0.600434</v>
+        <v>0.581458</v>
       </c>
       <c r="D28" t="n">
-        <v>0.617055</v>
+        <v>0.614449</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.673647</v>
+        <v>0.633915</v>
       </c>
       <c r="C29" t="n">
-        <v>0.601071</v>
+        <v>0.592568</v>
       </c>
       <c r="D29" t="n">
-        <v>0.604699</v>
+        <v>0.6038480000000001</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.670592</v>
+        <v>0.660084</v>
       </c>
       <c r="C30" t="n">
-        <v>0.60525</v>
+        <v>0.596625</v>
       </c>
       <c r="D30" t="n">
-        <v>0.599339</v>
+        <v>0.609293</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.660563</v>
+        <v>0.6492830000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.596071</v>
+        <v>0.6071299999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.630405</v>
+        <v>0.606464</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.679835</v>
+        <v>0.684375</v>
       </c>
       <c r="C32" t="n">
-        <v>0.629189</v>
+        <v>0.601508</v>
       </c>
       <c r="D32" t="n">
-        <v>0.609325</v>
+        <v>0.613154</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.687125</v>
+        <v>0.669718</v>
       </c>
       <c r="C33" t="n">
-        <v>0.621752</v>
+        <v>0.621359</v>
       </c>
       <c r="D33" t="n">
-        <v>0.627423</v>
+        <v>0.614042</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.672524</v>
+        <v>0.682376</v>
       </c>
       <c r="C34" t="n">
-        <v>0.65038</v>
+        <v>0.621703</v>
       </c>
       <c r="D34" t="n">
-        <v>0.63808</v>
+        <v>0.623169</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.71336</v>
+        <v>0.6864400000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.631584</v>
+        <v>0.644075</v>
       </c>
       <c r="D35" t="n">
-        <v>0.630862</v>
+        <v>0.6414299999999999</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.697663</v>
+        <v>0.707122</v>
       </c>
       <c r="C36" t="n">
-        <v>0.659772</v>
+        <v>0.6607189999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.660419</v>
+        <v>0.651339</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.748926</v>
+        <v>0.742571</v>
       </c>
       <c r="C37" t="n">
-        <v>0.691089</v>
+        <v>0.710255</v>
       </c>
       <c r="D37" t="n">
-        <v>0.609661</v>
+        <v>0.611681</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.651184</v>
+        <v>0.659435</v>
       </c>
       <c r="C38" t="n">
-        <v>0.585247</v>
+        <v>0.596897</v>
       </c>
       <c r="D38" t="n">
-        <v>0.621217</v>
+        <v>0.590894</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.669203</v>
+        <v>0.651312</v>
       </c>
       <c r="C39" t="n">
-        <v>0.620016</v>
+        <v>0.608957</v>
       </c>
       <c r="D39" t="n">
-        <v>0.60519</v>
+        <v>0.605227</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.656187</v>
+        <v>0.643824</v>
       </c>
       <c r="C40" t="n">
-        <v>0.606</v>
+        <v>0.594728</v>
       </c>
       <c r="D40" t="n">
-        <v>0.600257</v>
+        <v>0.601386</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6498930000000001</v>
+        <v>0.654547</v>
       </c>
       <c r="C41" t="n">
-        <v>0.606778</v>
+        <v>0.602891</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6012189999999999</v>
+        <v>0.601142</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.648398</v>
+        <v>0.6667149999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.594019</v>
+        <v>0.639818</v>
       </c>
       <c r="D42" t="n">
-        <v>0.595751</v>
+        <v>0.592118</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.665648</v>
+        <v>0.670938</v>
       </c>
       <c r="C43" t="n">
-        <v>0.61754</v>
+        <v>0.589712</v>
       </c>
       <c r="D43" t="n">
-        <v>0.613584</v>
+        <v>0.605609</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.673594</v>
+        <v>0.663988</v>
       </c>
       <c r="C44" t="n">
-        <v>0.611679</v>
+        <v>0.611892</v>
       </c>
       <c r="D44" t="n">
-        <v>0.612225</v>
+        <v>0.609173</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.666474</v>
+        <v>0.665656</v>
       </c>
       <c r="C45" t="n">
-        <v>0.632003</v>
+        <v>0.6068210000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.618974</v>
+        <v>0.612652</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.689822</v>
+        <v>0.675231</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6563059999999999</v>
+        <v>0.6290790000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.61375</v>
+        <v>0.615215</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6709000000000001</v>
+        <v>0.6929920000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.640501</v>
+        <v>0.602781</v>
       </c>
       <c r="D47" t="n">
-        <v>0.619047</v>
+        <v>0.623501</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.665955</v>
+        <v>0.675376</v>
       </c>
       <c r="C48" t="n">
-        <v>0.63715</v>
+        <v>0.637083</v>
       </c>
       <c r="D48" t="n">
-        <v>0.668591</v>
+        <v>0.627225</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.691847</v>
+        <v>0.695399</v>
       </c>
       <c r="C49" t="n">
-        <v>0.633054</v>
+        <v>0.649539</v>
       </c>
       <c r="D49" t="n">
-        <v>0.665666</v>
+        <v>0.633459</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.71692</v>
+        <v>0.6869</v>
       </c>
       <c r="C50" t="n">
-        <v>0.663991</v>
+        <v>0.644749</v>
       </c>
       <c r="D50" t="n">
-        <v>0.690181</v>
+        <v>0.657212</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.756888</v>
+        <v>0.730168</v>
       </c>
       <c r="C51" t="n">
-        <v>0.685575</v>
+        <v>0.709988</v>
       </c>
       <c r="D51" t="n">
-        <v>0.632334</v>
+        <v>0.615354</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.7752329999999999</v>
+        <v>0.768427</v>
       </c>
       <c r="C52" t="n">
-        <v>0.719368</v>
+        <v>0.7186</v>
       </c>
       <c r="D52" t="n">
-        <v>0.617324</v>
+        <v>0.619048</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.680982</v>
+        <v>0.671382</v>
       </c>
       <c r="C53" t="n">
-        <v>0.632297</v>
+        <v>0.598965</v>
       </c>
       <c r="D53" t="n">
-        <v>0.615367</v>
+        <v>0.615636</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.693767</v>
+        <v>0.666735</v>
       </c>
       <c r="C54" t="n">
-        <v>0.625853</v>
+        <v>0.629781</v>
       </c>
       <c r="D54" t="n">
-        <v>0.629463</v>
+        <v>0.613227</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6741780000000001</v>
+        <v>0.699007</v>
       </c>
       <c r="C55" t="n">
-        <v>0.623005</v>
+        <v>0.614232</v>
       </c>
       <c r="D55" t="n">
-        <v>0.622909</v>
+        <v>0.609928</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.685021</v>
+        <v>0.692523</v>
       </c>
       <c r="C56" t="n">
-        <v>0.621139</v>
+        <v>0.617077</v>
       </c>
       <c r="D56" t="n">
-        <v>0.627385</v>
+        <v>0.628776</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.666042</v>
+        <v>0.693758</v>
       </c>
       <c r="C57" t="n">
-        <v>0.624754</v>
+        <v>0.6306389999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.647454</v>
+        <v>0.634122</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.70157</v>
+        <v>0.753416</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6317390000000001</v>
+        <v>0.6062959999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.633643</v>
+        <v>0.64107</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.721877</v>
+        <v>0.69343</v>
       </c>
       <c r="C59" t="n">
-        <v>0.634472</v>
+        <v>0.650621</v>
       </c>
       <c r="D59" t="n">
-        <v>0.626665</v>
+        <v>0.629092</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.696287</v>
+        <v>0.687669</v>
       </c>
       <c r="C60" t="n">
-        <v>0.62382</v>
+        <v>0.652834</v>
       </c>
       <c r="D60" t="n">
-        <v>0.639366</v>
+        <v>0.650583</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.684845</v>
+        <v>0.694702</v>
       </c>
       <c r="C61" t="n">
-        <v>0.651875</v>
+        <v>0.648764</v>
       </c>
       <c r="D61" t="n">
-        <v>0.675838</v>
+        <v>0.623914</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.730725</v>
+        <v>0.727762</v>
       </c>
       <c r="C62" t="n">
-        <v>0.662965</v>
+        <v>0.640394</v>
       </c>
       <c r="D62" t="n">
-        <v>0.634655</v>
+        <v>0.642883</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.725902</v>
+        <v>0.720271</v>
       </c>
       <c r="C63" t="n">
-        <v>0.683075</v>
+        <v>0.671861</v>
       </c>
       <c r="D63" t="n">
-        <v>0.667225</v>
+        <v>0.662813</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.76649</v>
+        <v>0.738662</v>
       </c>
       <c r="C64" t="n">
-        <v>0.677212</v>
+        <v>0.693101</v>
       </c>
       <c r="D64" t="n">
-        <v>0.683751</v>
+        <v>0.661137</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.773227</v>
+        <v>0.761368</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7099299999999999</v>
+        <v>0.715124</v>
       </c>
       <c r="D65" t="n">
-        <v>0.691362</v>
+        <v>0.690724</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.788056</v>
+        <v>0.800943</v>
       </c>
       <c r="C66" t="n">
-        <v>0.757282</v>
+        <v>0.759096</v>
       </c>
       <c r="D66" t="n">
-        <v>0.648303</v>
+        <v>0.634696</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.737199</v>
+        <v>0.720194</v>
       </c>
       <c r="C67" t="n">
-        <v>0.64144</v>
+        <v>0.6339669999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.645282</v>
+        <v>0.654282</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.718486</v>
+        <v>0.720401</v>
       </c>
       <c r="C68" t="n">
-        <v>0.658825</v>
+        <v>0.675241</v>
       </c>
       <c r="D68" t="n">
-        <v>0.641187</v>
+        <v>0.648239</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.714235</v>
+        <v>0.720413</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6516150000000001</v>
+        <v>0.647658</v>
       </c>
       <c r="D69" t="n">
-        <v>0.646472</v>
+        <v>0.642279</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.717733</v>
+        <v>0.72959</v>
       </c>
       <c r="C70" t="n">
-        <v>0.669355</v>
+        <v>0.649265</v>
       </c>
       <c r="D70" t="n">
-        <v>0.655397</v>
+        <v>0.641416</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.748784</v>
+        <v>0.7126710000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.65842</v>
+        <v>0.661556</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6416230000000001</v>
+        <v>0.6488080000000001</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7283269999999999</v>
+        <v>0.730216</v>
       </c>
       <c r="C72" t="n">
-        <v>0.68035</v>
+        <v>0.648381</v>
       </c>
       <c r="D72" t="n">
-        <v>0.649281</v>
+        <v>0.665775</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.729139</v>
+        <v>0.736423</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6750389999999999</v>
+        <v>0.678677</v>
       </c>
       <c r="D73" t="n">
-        <v>0.651933</v>
+        <v>0.6581360000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.750509</v>
+        <v>0.7153620000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.693464</v>
+        <v>0.662096</v>
       </c>
       <c r="D74" t="n">
-        <v>0.684017</v>
+        <v>0.65988</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.759718</v>
+        <v>0.721525</v>
       </c>
       <c r="C75" t="n">
-        <v>0.677084</v>
+        <v>0.657037</v>
       </c>
       <c r="D75" t="n">
-        <v>0.659288</v>
+        <v>0.665022</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.742484</v>
+        <v>0.72168</v>
       </c>
       <c r="C76" t="n">
-        <v>0.697838</v>
+        <v>0.673376</v>
       </c>
       <c r="D76" t="n">
-        <v>0.664061</v>
+        <v>0.689791</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.761259</v>
+        <v>0.758181</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6986289999999999</v>
+        <v>0.699081</v>
       </c>
       <c r="D77" t="n">
-        <v>0.677276</v>
+        <v>0.671993</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.782843</v>
+        <v>0.78005</v>
       </c>
       <c r="C78" t="n">
-        <v>0.721429</v>
+        <v>0.733867</v>
       </c>
       <c r="D78" t="n">
-        <v>0.704507</v>
+        <v>0.699395</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.810848</v>
+        <v>0.831081</v>
       </c>
       <c r="C79" t="n">
-        <v>0.768786</v>
+        <v>0.747489</v>
       </c>
       <c r="D79" t="n">
-        <v>0.724947</v>
+        <v>0.7086750000000001</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.877268</v>
+        <v>0.852038</v>
       </c>
       <c r="C80" t="n">
-        <v>0.797744</v>
+        <v>0.789689</v>
       </c>
       <c r="D80" t="n">
-        <v>0.670441</v>
+        <v>0.650796</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.753586</v>
+        <v>0.748969</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6667729999999999</v>
+        <v>0.671982</v>
       </c>
       <c r="D81" t="n">
-        <v>0.667866</v>
+        <v>0.669477</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.796654</v>
+        <v>0.744625</v>
       </c>
       <c r="C82" t="n">
-        <v>0.688916</v>
+        <v>0.683123</v>
       </c>
       <c r="D82" t="n">
-        <v>0.666595</v>
+        <v>0.658867</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.791606</v>
+        <v>0.745215</v>
       </c>
       <c r="C83" t="n">
-        <v>0.705747</v>
+        <v>0.679549</v>
       </c>
       <c r="D83" t="n">
-        <v>0.663926</v>
+        <v>0.6762629999999999</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.743912</v>
+        <v>0.762494</v>
       </c>
       <c r="C84" t="n">
-        <v>0.698016</v>
+        <v>0.684975</v>
       </c>
       <c r="D84" t="n">
-        <v>0.685676</v>
+        <v>0.67438</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.742001</v>
+        <v>0.760971</v>
       </c>
       <c r="C85" t="n">
-        <v>0.692306</v>
+        <v>0.695288</v>
       </c>
       <c r="D85" t="n">
-        <v>0.683504</v>
+        <v>0.667133</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7908770000000001</v>
+        <v>0.763711</v>
       </c>
       <c r="C86" t="n">
-        <v>0.703178</v>
+        <v>0.685294</v>
       </c>
       <c r="D86" t="n">
-        <v>0.686508</v>
+        <v>0.687277</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.771738</v>
+        <v>0.7823600000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.707998</v>
+        <v>0.694438</v>
       </c>
       <c r="D87" t="n">
-        <v>0.685924</v>
+        <v>0.662331</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.804249</v>
+        <v>0.78538</v>
       </c>
       <c r="C88" t="n">
-        <v>0.701726</v>
+        <v>0.713984</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6896870000000001</v>
+        <v>0.667405</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.777257</v>
+        <v>0.80319</v>
       </c>
       <c r="C89" t="n">
-        <v>0.720151</v>
+        <v>0.71979</v>
       </c>
       <c r="D89" t="n">
-        <v>0.684023</v>
+        <v>0.696828</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.784782</v>
+        <v>0.802135</v>
       </c>
       <c r="C90" t="n">
-        <v>0.719518</v>
+        <v>0.7322650000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.695361</v>
+        <v>0.688917</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.826005</v>
+        <v>0.812662</v>
       </c>
       <c r="C91" t="n">
-        <v>0.753567</v>
+        <v>0.730386</v>
       </c>
       <c r="D91" t="n">
-        <v>0.71158</v>
+        <v>0.7203349999999999</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.848986</v>
+        <v>0.85151</v>
       </c>
       <c r="C92" t="n">
-        <v>0.772405</v>
+        <v>0.773877</v>
       </c>
       <c r="D92" t="n">
-        <v>0.74583</v>
+        <v>0.734568</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.87369</v>
+        <v>0.867676</v>
       </c>
       <c r="C93" t="n">
-        <v>0.809009</v>
+        <v>0.80086</v>
       </c>
       <c r="D93" t="n">
-        <v>0.758506</v>
+        <v>0.758424</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.896984</v>
+        <v>0.8960900000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>0.833114</v>
+        <v>0.837664</v>
       </c>
       <c r="D94" t="n">
-        <v>0.692319</v>
+        <v>0.745009</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.789092</v>
+        <v>0.804671</v>
       </c>
       <c r="C95" t="n">
-        <v>0.751902</v>
+        <v>0.737654</v>
       </c>
       <c r="D95" t="n">
-        <v>0.718969</v>
+        <v>0.696184</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.8080349999999999</v>
+        <v>0.819283</v>
       </c>
       <c r="C96" t="n">
-        <v>0.72253</v>
+        <v>0.732284</v>
       </c>
       <c r="D96" t="n">
-        <v>0.723204</v>
+        <v>0.702417</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.81445</v>
+        <v>0.791239</v>
       </c>
       <c r="C97" t="n">
-        <v>0.753159</v>
+        <v>0.714653</v>
       </c>
       <c r="D97" t="n">
-        <v>0.7220839999999999</v>
+        <v>0.705195</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.830145</v>
+        <v>0.797543</v>
       </c>
       <c r="C98" t="n">
-        <v>0.743829</v>
+        <v>0.722372</v>
       </c>
       <c r="D98" t="n">
-        <v>0.714076</v>
+        <v>0.708511</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.817522</v>
+        <v>0.827106</v>
       </c>
       <c r="C99" t="n">
-        <v>0.756813</v>
+        <v>0.756081</v>
       </c>
       <c r="D99" t="n">
-        <v>0.7214429999999999</v>
+        <v>0.701541</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.8153280000000001</v>
+        <v>0.811052</v>
       </c>
       <c r="C100" t="n">
-        <v>0.747369</v>
+        <v>0.763833</v>
       </c>
       <c r="D100" t="n">
-        <v>0.719655</v>
+        <v>0.764479</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.818072</v>
+        <v>0.8304280000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.772638</v>
+        <v>0.772456</v>
       </c>
       <c r="D101" t="n">
-        <v>0.724727</v>
+        <v>0.703696</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.828277</v>
+        <v>0.840221</v>
       </c>
       <c r="C102" t="n">
-        <v>0.80745</v>
+        <v>0.921687</v>
       </c>
       <c r="D102" t="n">
-        <v>0.714302</v>
+        <v>0.945952</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.84851</v>
+        <v>1.01576</v>
       </c>
       <c r="C103" t="n">
-        <v>0.775684</v>
+        <v>0.970025</v>
       </c>
       <c r="D103" t="n">
-        <v>0.741018</v>
+        <v>0.868985</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.866113</v>
+        <v>0.976067</v>
       </c>
       <c r="C104" t="n">
-        <v>0.776914</v>
+        <v>0.791148</v>
       </c>
       <c r="D104" t="n">
-        <v>0.744074</v>
+        <v>0.745004</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.875925</v>
+        <v>0.884331</v>
       </c>
       <c r="C105" t="n">
-        <v>0.825037</v>
+        <v>0.806886</v>
       </c>
       <c r="D105" t="n">
-        <v>0.800332</v>
+        <v>0.7460020000000001</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.880069</v>
+        <v>0.892679</v>
       </c>
       <c r="C106" t="n">
-        <v>0.838216</v>
+        <v>0.828804</v>
       </c>
       <c r="D106" t="n">
-        <v>0.790206</v>
+        <v>0.770726</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.922574</v>
+        <v>0.908945</v>
       </c>
       <c r="C107" t="n">
-        <v>0.868656</v>
+        <v>0.884661</v>
       </c>
       <c r="D107" t="n">
-        <v>0.7860200000000001</v>
+        <v>0.799384</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.967858</v>
+        <v>0.964673</v>
       </c>
       <c r="C108" t="n">
-        <v>0.92835</v>
+        <v>0.911829</v>
       </c>
       <c r="D108" t="n">
-        <v>0.830861</v>
+        <v>0.869225</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.04</v>
+        <v>1.06189</v>
       </c>
       <c r="C109" t="n">
-        <v>1.04264</v>
+        <v>1.00694</v>
       </c>
       <c r="D109" t="n">
-        <v>0.855958</v>
+        <v>0.862903</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.98671</v>
+        <v>0.974444</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8803569999999999</v>
+        <v>0.877552</v>
       </c>
       <c r="D110" t="n">
-        <v>0.858209</v>
+        <v>0.86092</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.00838</v>
+        <v>0.968979</v>
       </c>
       <c r="C111" t="n">
-        <v>0.916013</v>
+        <v>0.889886</v>
       </c>
       <c r="D111" t="n">
-        <v>0.8552</v>
+        <v>0.825195</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.00354</v>
+        <v>0.982804</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9365830000000001</v>
+        <v>0.920117</v>
       </c>
       <c r="D112" t="n">
-        <v>0.868339</v>
+        <v>0.8930090000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.972075</v>
+        <v>0.9705510000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9154910000000001</v>
+        <v>0.931841</v>
       </c>
       <c r="D113" t="n">
-        <v>0.879213</v>
+        <v>0.8778820000000001</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.967761</v>
+        <v>0.988999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.904826</v>
+        <v>0.9335020000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.864919</v>
+        <v>0.881895</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.02938</v>
+        <v>0.995822</v>
       </c>
       <c r="C115" t="n">
-        <v>0.96797</v>
+        <v>0.911036</v>
       </c>
       <c r="D115" t="n">
-        <v>0.867581</v>
+        <v>0.872854</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.988419</v>
+        <v>1.00092</v>
       </c>
       <c r="C116" t="n">
-        <v>0.95287</v>
+        <v>0.937425</v>
       </c>
       <c r="D116" t="n">
-        <v>0.918216</v>
+        <v>0.861254</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.997436</v>
+        <v>0.996049</v>
       </c>
       <c r="C117" t="n">
-        <v>0.952152</v>
+        <v>0.957502</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9010280000000001</v>
+        <v>0.901717</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.0413</v>
+        <v>1.02338</v>
       </c>
       <c r="C118" t="n">
-        <v>0.958114</v>
+        <v>0.9556789999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.8763339999999999</v>
+        <v>0.914882</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.04581</v>
+        <v>1.05256</v>
       </c>
       <c r="C119" t="n">
-        <v>0.968585</v>
+        <v>0.987941</v>
       </c>
       <c r="D119" t="n">
-        <v>0.904122</v>
+        <v>0.9037190000000001</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.07266</v>
+        <v>1.04424</v>
       </c>
       <c r="C120" t="n">
-        <v>1.02052</v>
+        <v>1.01591</v>
       </c>
       <c r="D120" t="n">
-        <v>0.924345</v>
+        <v>0.901301</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.1493</v>
+        <v>1.10339</v>
       </c>
       <c r="C121" t="n">
-        <v>1.03944</v>
+        <v>1.05557</v>
       </c>
       <c r="D121" t="n">
-        <v>0.955959</v>
+        <v>0.940855</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.14775</v>
+        <v>1.15108</v>
       </c>
       <c r="C122" t="n">
-        <v>1.11423</v>
+        <v>1.10539</v>
       </c>
       <c r="D122" t="n">
-        <v>0.968651</v>
+        <v>0.976651</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.19913</v>
+        <v>1.20017</v>
       </c>
       <c r="C123" t="n">
-        <v>1.16244</v>
+        <v>1.18482</v>
       </c>
       <c r="D123" t="n">
-        <v>1.12787</v>
+        <v>1.11435</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.36623</v>
+        <v>1.31613</v>
       </c>
       <c r="C124" t="n">
-        <v>1.16846</v>
+        <v>1.19121</v>
       </c>
       <c r="D124" t="n">
-        <v>1.11782</v>
+        <v>1.19882</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.30904</v>
+        <v>1.30103</v>
       </c>
       <c r="C125" t="n">
-        <v>1.20986</v>
+        <v>1.20623</v>
       </c>
       <c r="D125" t="n">
-        <v>1.14563</v>
+        <v>1.13015</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.34675</v>
+        <v>1.31667</v>
       </c>
       <c r="C126" t="n">
-        <v>1.19286</v>
+        <v>1.18888</v>
       </c>
       <c r="D126" t="n">
-        <v>1.22831</v>
+        <v>1.12254</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.30059</v>
+        <v>1.33636</v>
       </c>
       <c r="C127" t="n">
-        <v>1.17983</v>
+        <v>1.19261</v>
       </c>
       <c r="D127" t="n">
-        <v>1.12659</v>
+        <v>1.14124</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.37619</v>
+        <v>1.37993</v>
       </c>
       <c r="C128" t="n">
-        <v>1.19371</v>
+        <v>1.21481</v>
       </c>
       <c r="D128" t="n">
-        <v>1.1285</v>
+        <v>1.16646</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.35722</v>
+        <v>1.33913</v>
       </c>
       <c r="C129" t="n">
-        <v>1.28033</v>
+        <v>1.26192</v>
       </c>
       <c r="D129" t="n">
-        <v>1.13689</v>
+        <v>1.16076</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.40347</v>
+        <v>1.36906</v>
       </c>
       <c r="C130" t="n">
-        <v>1.21457</v>
+        <v>1.21543</v>
       </c>
       <c r="D130" t="n">
-        <v>1.20801</v>
+        <v>1.15693</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.36667</v>
+        <v>1.35349</v>
       </c>
       <c r="C131" t="n">
-        <v>1.26539</v>
+        <v>1.24041</v>
       </c>
       <c r="D131" t="n">
-        <v>1.19872</v>
+        <v>1.23717</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.36451</v>
+        <v>1.42998</v>
       </c>
       <c r="C132" t="n">
-        <v>1.26683</v>
+        <v>1.26409</v>
       </c>
       <c r="D132" t="n">
-        <v>1.18111</v>
+        <v>1.18123</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.40406</v>
+        <v>1.39327</v>
       </c>
       <c r="C133" t="n">
-        <v>1.27571</v>
+        <v>1.27755</v>
       </c>
       <c r="D133" t="n">
-        <v>1.19523</v>
+        <v>1.20364</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.42995</v>
+        <v>1.4222</v>
       </c>
       <c r="C134" t="n">
-        <v>1.35529</v>
+        <v>1.31499</v>
       </c>
       <c r="D134" t="n">
-        <v>1.221</v>
+        <v>1.22468</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.51436</v>
+        <v>1.47802</v>
       </c>
       <c r="C135" t="n">
-        <v>1.39307</v>
+        <v>1.34342</v>
       </c>
       <c r="D135" t="n">
-        <v>1.21654</v>
+        <v>1.27502</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.57732</v>
+        <v>1.52294</v>
       </c>
       <c r="C136" t="n">
-        <v>1.42952</v>
+        <v>1.4428</v>
       </c>
       <c r="D136" t="n">
-        <v>1.31511</v>
+        <v>1.29634</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.58906</v>
+        <v>1.5828</v>
       </c>
       <c r="C137" t="n">
-        <v>1.53871</v>
+        <v>1.53812</v>
       </c>
       <c r="D137" t="n">
-        <v>1.3692</v>
+        <v>1.34768</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.63029</v>
+        <v>1.61697</v>
       </c>
       <c r="C138" t="n">
-        <v>1.41552</v>
+        <v>1.45133</v>
       </c>
       <c r="D138" t="n">
-        <v>1.399</v>
+        <v>1.34425</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.60228</v>
+        <v>1.56919</v>
       </c>
       <c r="C139" t="n">
-        <v>1.40973</v>
+        <v>1.44446</v>
       </c>
       <c r="D139" t="n">
-        <v>1.39605</v>
+        <v>1.35414</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.61349</v>
+        <v>1.59591</v>
       </c>
       <c r="C140" t="n">
-        <v>1.47294</v>
+        <v>1.4319</v>
       </c>
       <c r="D140" t="n">
-        <v>1.37919</v>
+        <v>1.4033</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.61769</v>
+        <v>1.58533</v>
       </c>
       <c r="C141" t="n">
-        <v>1.45764</v>
+        <v>1.42908</v>
       </c>
       <c r="D141" t="n">
-        <v>1.36162</v>
+        <v>1.36543</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.59809</v>
+        <v>1.65727</v>
       </c>
       <c r="C142" t="n">
-        <v>1.48478</v>
+        <v>1.42202</v>
       </c>
       <c r="D142" t="n">
-        <v>1.38426</v>
+        <v>1.36947</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.61876</v>
+        <v>1.61317</v>
       </c>
       <c r="C143" t="n">
-        <v>1.43804</v>
+        <v>1.44588</v>
       </c>
       <c r="D143" t="n">
-        <v>1.38797</v>
+        <v>1.37605</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6368200000000001</v>
+        <v>0.653528</v>
       </c>
       <c r="C2" t="n">
-        <v>0.581198</v>
+        <v>0.596438</v>
       </c>
       <c r="D2" t="n">
-        <v>0.595785</v>
+        <v>0.594933</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.630814</v>
+        <v>0.6340519999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.572993</v>
+        <v>0.596364</v>
       </c>
       <c r="D3" t="n">
-        <v>0.599411</v>
+        <v>0.606965</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.636684</v>
+        <v>0.633157</v>
       </c>
       <c r="C4" t="n">
-        <v>0.600499</v>
+        <v>0.590234</v>
       </c>
       <c r="D4" t="n">
-        <v>0.588824</v>
+        <v>0.595873</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.663353</v>
+        <v>0.649013</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6133150000000001</v>
+        <v>0.598154</v>
       </c>
       <c r="D5" t="n">
-        <v>0.613057</v>
+        <v>0.60354</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.653313</v>
+        <v>0.684368</v>
       </c>
       <c r="C6" t="n">
-        <v>0.628999</v>
+        <v>0.612259</v>
       </c>
       <c r="D6" t="n">
-        <v>0.608511</v>
+        <v>0.631754</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.654537</v>
+        <v>0.6908069999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.645285</v>
+        <v>0.624112</v>
       </c>
       <c r="D7" t="n">
-        <v>0.649002</v>
+        <v>0.632085</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.682573</v>
+        <v>0.718569</v>
       </c>
       <c r="C8" t="n">
-        <v>0.667174</v>
+        <v>0.644045</v>
       </c>
       <c r="D8" t="n">
-        <v>0.654529</v>
+        <v>0.63359</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.724383</v>
+        <v>0.733097</v>
       </c>
       <c r="C9" t="n">
-        <v>0.701593</v>
+        <v>0.694595</v>
       </c>
       <c r="D9" t="n">
-        <v>0.586406</v>
+        <v>0.594286</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6436190000000001</v>
+        <v>0.6288820000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5714669999999999</v>
+        <v>0.592291</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5949140000000001</v>
+        <v>0.588163</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.641768</v>
+        <v>0.6385150000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.599469</v>
+        <v>0.607052</v>
       </c>
       <c r="D11" t="n">
-        <v>0.606484</v>
+        <v>0.590996</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.629208</v>
+        <v>0.643369</v>
       </c>
       <c r="C12" t="n">
-        <v>0.593221</v>
+        <v>0.579307</v>
       </c>
       <c r="D12" t="n">
-        <v>0.602317</v>
+        <v>0.586844</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.628711</v>
+        <v>0.632487</v>
       </c>
       <c r="C13" t="n">
-        <v>0.571839</v>
+        <v>0.593726</v>
       </c>
       <c r="D13" t="n">
-        <v>0.575606</v>
+        <v>0.583571</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.619376</v>
+        <v>0.640036</v>
       </c>
       <c r="C14" t="n">
-        <v>0.569139</v>
+        <v>0.584062</v>
       </c>
       <c r="D14" t="n">
-        <v>0.591652</v>
+        <v>0.6170679999999999</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.623434</v>
+        <v>0.643801</v>
       </c>
       <c r="C15" t="n">
-        <v>0.571842</v>
+        <v>0.6126549999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.58831</v>
+        <v>0.600368</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.632692</v>
+        <v>0.636034</v>
       </c>
       <c r="C16" t="n">
-        <v>0.574079</v>
+        <v>0.586503</v>
       </c>
       <c r="D16" t="n">
-        <v>0.59134</v>
+        <v>0.6133690000000001</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.638691</v>
+        <v>0.639811</v>
       </c>
       <c r="C17" t="n">
-        <v>0.576999</v>
+        <v>0.59681</v>
       </c>
       <c r="D17" t="n">
-        <v>0.582207</v>
+        <v>0.601729</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.637449</v>
+        <v>0.683569</v>
       </c>
       <c r="C18" t="n">
-        <v>0.580931</v>
+        <v>0.603644</v>
       </c>
       <c r="D18" t="n">
-        <v>0.585167</v>
+        <v>0.618831</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.633382</v>
+        <v>0.671404</v>
       </c>
       <c r="C19" t="n">
-        <v>0.606477</v>
+        <v>0.597931</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5907019999999999</v>
+        <v>0.62121</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.641444</v>
+        <v>0.659649</v>
       </c>
       <c r="C20" t="n">
-        <v>0.600985</v>
+        <v>0.617743</v>
       </c>
       <c r="D20" t="n">
-        <v>0.599542</v>
+        <v>0.608037</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.657139</v>
+        <v>0.655552</v>
       </c>
       <c r="C21" t="n">
-        <v>0.613441</v>
+        <v>0.618232</v>
       </c>
       <c r="D21" t="n">
-        <v>0.610562</v>
+        <v>0.63121</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.677026</v>
+        <v>0.695717</v>
       </c>
       <c r="C22" t="n">
-        <v>0.638431</v>
+        <v>0.652508</v>
       </c>
       <c r="D22" t="n">
-        <v>0.62991</v>
+        <v>0.660388</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7209989999999999</v>
+        <v>0.733416</v>
       </c>
       <c r="C23" t="n">
-        <v>0.694345</v>
+        <v>0.679778</v>
       </c>
       <c r="D23" t="n">
-        <v>0.616788</v>
+        <v>0.590247</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.638973</v>
+        <v>0.645875</v>
       </c>
       <c r="C24" t="n">
-        <v>0.599761</v>
+        <v>0.592329</v>
       </c>
       <c r="D24" t="n">
-        <v>0.587614</v>
+        <v>0.5939489999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.650822</v>
+        <v>0.642048</v>
       </c>
       <c r="C25" t="n">
-        <v>0.584694</v>
+        <v>0.590163</v>
       </c>
       <c r="D25" t="n">
-        <v>0.589662</v>
+        <v>0.594508</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.652992</v>
+        <v>0.661826</v>
       </c>
       <c r="C26" t="n">
-        <v>0.592839</v>
+        <v>0.589249</v>
       </c>
       <c r="D26" t="n">
-        <v>0.596703</v>
+        <v>0.624707</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.648851</v>
+        <v>0.686217</v>
       </c>
       <c r="C27" t="n">
-        <v>0.595591</v>
+        <v>0.5926940000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.60288</v>
+        <v>0.587041</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.655608</v>
+        <v>0.6772010000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.581458</v>
+        <v>0.588434</v>
       </c>
       <c r="D28" t="n">
-        <v>0.614449</v>
+        <v>0.599708</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.633915</v>
+        <v>0.647605</v>
       </c>
       <c r="C29" t="n">
-        <v>0.592568</v>
+        <v>0.614641</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6038480000000001</v>
+        <v>0.616769</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.660084</v>
+        <v>0.650772</v>
       </c>
       <c r="C30" t="n">
-        <v>0.596625</v>
+        <v>0.593119</v>
       </c>
       <c r="D30" t="n">
-        <v>0.609293</v>
+        <v>0.6062920000000001</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6492830000000001</v>
+        <v>0.682662</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6071299999999999</v>
+        <v>0.598718</v>
       </c>
       <c r="D31" t="n">
-        <v>0.606464</v>
+        <v>0.610743</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.684375</v>
+        <v>0.655043</v>
       </c>
       <c r="C32" t="n">
-        <v>0.601508</v>
+        <v>0.594734</v>
       </c>
       <c r="D32" t="n">
-        <v>0.613154</v>
+        <v>0.614703</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.669718</v>
+        <v>0.67674</v>
       </c>
       <c r="C33" t="n">
-        <v>0.621359</v>
+        <v>0.610491</v>
       </c>
       <c r="D33" t="n">
-        <v>0.614042</v>
+        <v>0.610371</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.682376</v>
+        <v>0.6687689999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.621703</v>
+        <v>0.636297</v>
       </c>
       <c r="D34" t="n">
-        <v>0.623169</v>
+        <v>0.666443</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6864400000000001</v>
+        <v>0.693367</v>
       </c>
       <c r="C35" t="n">
-        <v>0.644075</v>
+        <v>0.635176</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6414299999999999</v>
+        <v>0.639079</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.707122</v>
+        <v>0.713676</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6607189999999999</v>
+        <v>0.648444</v>
       </c>
       <c r="D36" t="n">
-        <v>0.651339</v>
+        <v>0.65846</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.742571</v>
+        <v>0.7366200000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.710255</v>
+        <v>0.693987</v>
       </c>
       <c r="D37" t="n">
-        <v>0.611681</v>
+        <v>0.628815</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.659435</v>
+        <v>0.671228</v>
       </c>
       <c r="C38" t="n">
-        <v>0.596897</v>
+        <v>0.590511</v>
       </c>
       <c r="D38" t="n">
-        <v>0.590894</v>
+        <v>0.615785</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.651312</v>
+        <v>0.678727</v>
       </c>
       <c r="C39" t="n">
-        <v>0.608957</v>
+        <v>0.600204</v>
       </c>
       <c r="D39" t="n">
-        <v>0.605227</v>
+        <v>0.607695</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.643824</v>
+        <v>0.653211</v>
       </c>
       <c r="C40" t="n">
-        <v>0.594728</v>
+        <v>0.594993</v>
       </c>
       <c r="D40" t="n">
-        <v>0.601386</v>
+        <v>0.601229</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.654547</v>
+        <v>0.657447</v>
       </c>
       <c r="C41" t="n">
-        <v>0.602891</v>
+        <v>0.605349</v>
       </c>
       <c r="D41" t="n">
-        <v>0.601142</v>
+        <v>0.612959</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6667149999999999</v>
+        <v>0.651601</v>
       </c>
       <c r="C42" t="n">
-        <v>0.639818</v>
+        <v>0.595425</v>
       </c>
       <c r="D42" t="n">
-        <v>0.592118</v>
+        <v>0.606835</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.670938</v>
+        <v>0.681474</v>
       </c>
       <c r="C43" t="n">
-        <v>0.589712</v>
+        <v>0.615143</v>
       </c>
       <c r="D43" t="n">
-        <v>0.605609</v>
+        <v>0.611421</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.663988</v>
+        <v>0.662985</v>
       </c>
       <c r="C44" t="n">
-        <v>0.611892</v>
+        <v>0.636701</v>
       </c>
       <c r="D44" t="n">
-        <v>0.609173</v>
+        <v>0.609835</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.665656</v>
+        <v>0.680684</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6068210000000001</v>
+        <v>0.615152</v>
       </c>
       <c r="D45" t="n">
-        <v>0.612652</v>
+        <v>0.609676</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.675231</v>
+        <v>0.665455</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6290790000000001</v>
+        <v>0.61636</v>
       </c>
       <c r="D46" t="n">
-        <v>0.615215</v>
+        <v>0.6306079999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6929920000000001</v>
+        <v>0.665247</v>
       </c>
       <c r="C47" t="n">
-        <v>0.602781</v>
+        <v>0.62055</v>
       </c>
       <c r="D47" t="n">
-        <v>0.623501</v>
+        <v>0.630506</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.675376</v>
+        <v>0.704171</v>
       </c>
       <c r="C48" t="n">
-        <v>0.637083</v>
+        <v>0.639998</v>
       </c>
       <c r="D48" t="n">
-        <v>0.627225</v>
+        <v>0.62957</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.695399</v>
+        <v>0.687656</v>
       </c>
       <c r="C49" t="n">
-        <v>0.649539</v>
+        <v>0.649309</v>
       </c>
       <c r="D49" t="n">
-        <v>0.633459</v>
+        <v>0.649805</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6869</v>
+        <v>0.7049</v>
       </c>
       <c r="C50" t="n">
-        <v>0.644749</v>
+        <v>0.646193</v>
       </c>
       <c r="D50" t="n">
-        <v>0.657212</v>
+        <v>0.655406</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.730168</v>
+        <v>0.739378</v>
       </c>
       <c r="C51" t="n">
-        <v>0.709988</v>
+        <v>0.710785</v>
       </c>
       <c r="D51" t="n">
-        <v>0.615354</v>
+        <v>0.618606</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.768427</v>
+        <v>0.770113</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7186</v>
+        <v>0.737798</v>
       </c>
       <c r="D52" t="n">
-        <v>0.619048</v>
+        <v>0.617831</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.671382</v>
+        <v>0.689019</v>
       </c>
       <c r="C53" t="n">
-        <v>0.598965</v>
+        <v>0.62853</v>
       </c>
       <c r="D53" t="n">
-        <v>0.615636</v>
+        <v>0.614645</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.666735</v>
+        <v>0.6929650000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.629781</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.613227</v>
+        <v>0.61942</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.699007</v>
+        <v>0.69368</v>
       </c>
       <c r="C55" t="n">
-        <v>0.614232</v>
+        <v>0.621182</v>
       </c>
       <c r="D55" t="n">
-        <v>0.609928</v>
+        <v>0.6296119999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.692523</v>
+        <v>0.721024</v>
       </c>
       <c r="C56" t="n">
-        <v>0.617077</v>
+        <v>0.614612</v>
       </c>
       <c r="D56" t="n">
-        <v>0.628776</v>
+        <v>0.615179</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.693758</v>
+        <v>0.70825</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6306389999999999</v>
+        <v>0.611758</v>
       </c>
       <c r="D57" t="n">
-        <v>0.634122</v>
+        <v>0.6493640000000001</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.753416</v>
+        <v>0.702788</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6062959999999999</v>
+        <v>0.6399359999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.64107</v>
+        <v>0.624678</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.69343</v>
+        <v>0.7176439999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.650621</v>
+        <v>0.616001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.629092</v>
+        <v>0.645973</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.687669</v>
+        <v>0.7001810000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.652834</v>
+        <v>0.63774</v>
       </c>
       <c r="D60" t="n">
-        <v>0.650583</v>
+        <v>0.630929</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.694702</v>
+        <v>0.721468</v>
       </c>
       <c r="C61" t="n">
-        <v>0.648764</v>
+        <v>0.663755</v>
       </c>
       <c r="D61" t="n">
-        <v>0.623914</v>
+        <v>0.637004</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.727762</v>
+        <v>0.709966</v>
       </c>
       <c r="C62" t="n">
-        <v>0.640394</v>
+        <v>0.660757</v>
       </c>
       <c r="D62" t="n">
-        <v>0.642883</v>
+        <v>0.646944</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.720271</v>
+        <v>0.711561</v>
       </c>
       <c r="C63" t="n">
-        <v>0.671861</v>
+        <v>0.704193</v>
       </c>
       <c r="D63" t="n">
-        <v>0.662813</v>
+        <v>0.657752</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.738662</v>
+        <v>0.744889</v>
       </c>
       <c r="C64" t="n">
-        <v>0.693101</v>
+        <v>0.6797260000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.661137</v>
+        <v>0.680708</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.761368</v>
+        <v>0.762369</v>
       </c>
       <c r="C65" t="n">
-        <v>0.715124</v>
+        <v>0.7159140000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.690724</v>
+        <v>0.687407</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.800943</v>
+        <v>0.798443</v>
       </c>
       <c r="C66" t="n">
-        <v>0.759096</v>
+        <v>0.758746</v>
       </c>
       <c r="D66" t="n">
-        <v>0.634696</v>
+        <v>0.641642</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.720194</v>
+        <v>0.713049</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6339669999999999</v>
+        <v>0.645293</v>
       </c>
       <c r="D67" t="n">
-        <v>0.654282</v>
+        <v>0.670551</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.720401</v>
+        <v>0.732938</v>
       </c>
       <c r="C68" t="n">
-        <v>0.675241</v>
+        <v>0.657103</v>
       </c>
       <c r="D68" t="n">
-        <v>0.648239</v>
+        <v>0.645669</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.720413</v>
+        <v>0.720742</v>
       </c>
       <c r="C69" t="n">
-        <v>0.647658</v>
+        <v>0.660247</v>
       </c>
       <c r="D69" t="n">
-        <v>0.642279</v>
+        <v>0.643563</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.72959</v>
+        <v>0.704359</v>
       </c>
       <c r="C70" t="n">
-        <v>0.649265</v>
+        <v>0.651026</v>
       </c>
       <c r="D70" t="n">
-        <v>0.641416</v>
+        <v>0.656065</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7126710000000001</v>
+        <v>0.717728</v>
       </c>
       <c r="C71" t="n">
-        <v>0.661556</v>
+        <v>0.673605</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6488080000000001</v>
+        <v>0.654078</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.730216</v>
+        <v>0.718648</v>
       </c>
       <c r="C72" t="n">
-        <v>0.648381</v>
+        <v>0.644869</v>
       </c>
       <c r="D72" t="n">
-        <v>0.665775</v>
+        <v>0.671386</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.736423</v>
+        <v>0.740558</v>
       </c>
       <c r="C73" t="n">
-        <v>0.678677</v>
+        <v>0.667087</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6581360000000001</v>
+        <v>0.655864</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7153620000000001</v>
+        <v>0.74487</v>
       </c>
       <c r="C74" t="n">
-        <v>0.662096</v>
+        <v>0.696871</v>
       </c>
       <c r="D74" t="n">
-        <v>0.65988</v>
+        <v>0.6666840000000001</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.721525</v>
+        <v>0.744761</v>
       </c>
       <c r="C75" t="n">
-        <v>0.657037</v>
+        <v>0.666975</v>
       </c>
       <c r="D75" t="n">
-        <v>0.665022</v>
+        <v>0.661538</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.72168</v>
+        <v>0.7453880000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.673376</v>
+        <v>0.685264</v>
       </c>
       <c r="D76" t="n">
-        <v>0.689791</v>
+        <v>0.676136</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.758181</v>
+        <v>0.772624</v>
       </c>
       <c r="C77" t="n">
-        <v>0.699081</v>
+        <v>0.727175</v>
       </c>
       <c r="D77" t="n">
-        <v>0.671993</v>
+        <v>0.704134</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.78005</v>
+        <v>0.796887</v>
       </c>
       <c r="C78" t="n">
-        <v>0.733867</v>
+        <v>0.722213</v>
       </c>
       <c r="D78" t="n">
-        <v>0.699395</v>
+        <v>0.723623</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.831081</v>
+        <v>0.821739</v>
       </c>
       <c r="C79" t="n">
-        <v>0.747489</v>
+        <v>0.758155</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7086750000000001</v>
+        <v>0.7104200000000001</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.852038</v>
+        <v>0.849522</v>
       </c>
       <c r="C80" t="n">
-        <v>0.789689</v>
+        <v>0.803915</v>
       </c>
       <c r="D80" t="n">
-        <v>0.650796</v>
+        <v>0.675392</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.748969</v>
+        <v>0.73726</v>
       </c>
       <c r="C81" t="n">
-        <v>0.671982</v>
+        <v>0.698674</v>
       </c>
       <c r="D81" t="n">
-        <v>0.669477</v>
+        <v>0.673424</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.744625</v>
+        <v>0.783327</v>
       </c>
       <c r="C82" t="n">
-        <v>0.683123</v>
+        <v>0.671789</v>
       </c>
       <c r="D82" t="n">
-        <v>0.658867</v>
+        <v>0.660318</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.745215</v>
+        <v>0.761459</v>
       </c>
       <c r="C83" t="n">
-        <v>0.679549</v>
+        <v>0.681301</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6762629999999999</v>
+        <v>0.685771</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.762494</v>
+        <v>0.752296</v>
       </c>
       <c r="C84" t="n">
-        <v>0.684975</v>
+        <v>0.68558</v>
       </c>
       <c r="D84" t="n">
-        <v>0.67438</v>
+        <v>0.664347</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.760971</v>
+        <v>0.753692</v>
       </c>
       <c r="C85" t="n">
-        <v>0.695288</v>
+        <v>0.723451</v>
       </c>
       <c r="D85" t="n">
-        <v>0.667133</v>
+        <v>0.6894670000000001</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.763711</v>
+        <v>0.775414</v>
       </c>
       <c r="C86" t="n">
-        <v>0.685294</v>
+        <v>0.705995</v>
       </c>
       <c r="D86" t="n">
-        <v>0.687277</v>
+        <v>0.692505</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.7823600000000001</v>
+        <v>0.776216</v>
       </c>
       <c r="C87" t="n">
-        <v>0.694438</v>
+        <v>0.718997</v>
       </c>
       <c r="D87" t="n">
-        <v>0.662331</v>
+        <v>0.678358</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.78538</v>
+        <v>0.8065020000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.713984</v>
+        <v>0.703164</v>
       </c>
       <c r="D88" t="n">
-        <v>0.667405</v>
+        <v>0.677385</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.80319</v>
+        <v>0.776077</v>
       </c>
       <c r="C89" t="n">
-        <v>0.71979</v>
+        <v>0.706131</v>
       </c>
       <c r="D89" t="n">
-        <v>0.696828</v>
+        <v>0.685866</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.802135</v>
+        <v>0.80409</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7322650000000001</v>
+        <v>0.710667</v>
       </c>
       <c r="D90" t="n">
-        <v>0.688917</v>
+        <v>0.713884</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.812662</v>
+        <v>0.7934639999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.730386</v>
+        <v>0.7453880000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7203349999999999</v>
+        <v>0.703736</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.85151</v>
+        <v>0.839368</v>
       </c>
       <c r="C92" t="n">
-        <v>0.773877</v>
+        <v>0.759381</v>
       </c>
       <c r="D92" t="n">
-        <v>0.734568</v>
+        <v>0.735381</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.867676</v>
+        <v>0.842799</v>
       </c>
       <c r="C93" t="n">
-        <v>0.80086</v>
+        <v>0.808047</v>
       </c>
       <c r="D93" t="n">
-        <v>0.758424</v>
+        <v>0.731742</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8960900000000001</v>
+        <v>0.896798</v>
       </c>
       <c r="C94" t="n">
-        <v>0.837664</v>
+        <v>0.8446939999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.745009</v>
+        <v>0.696641</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.804671</v>
+        <v>0.794694</v>
       </c>
       <c r="C95" t="n">
-        <v>0.737654</v>
+        <v>0.747142</v>
       </c>
       <c r="D95" t="n">
-        <v>0.696184</v>
+        <v>0.710329</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.819283</v>
+        <v>0.813276</v>
       </c>
       <c r="C96" t="n">
-        <v>0.732284</v>
+        <v>0.745909</v>
       </c>
       <c r="D96" t="n">
-        <v>0.702417</v>
+        <v>0.697756</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.791239</v>
+        <v>0.80903</v>
       </c>
       <c r="C97" t="n">
-        <v>0.714653</v>
+        <v>0.74368</v>
       </c>
       <c r="D97" t="n">
-        <v>0.705195</v>
+        <v>0.72814</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.797543</v>
+        <v>0.823881</v>
       </c>
       <c r="C98" t="n">
-        <v>0.722372</v>
+        <v>0.743639</v>
       </c>
       <c r="D98" t="n">
-        <v>0.708511</v>
+        <v>0.708268</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.827106</v>
+        <v>0.818505</v>
       </c>
       <c r="C99" t="n">
-        <v>0.756081</v>
+        <v>0.7549670000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.701541</v>
+        <v>0.705044</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.811052</v>
+        <v>0.819323</v>
       </c>
       <c r="C100" t="n">
-        <v>0.763833</v>
+        <v>0.767092</v>
       </c>
       <c r="D100" t="n">
-        <v>0.764479</v>
+        <v>0.715243</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.8304280000000001</v>
+        <v>0.845397</v>
       </c>
       <c r="C101" t="n">
-        <v>0.772456</v>
+        <v>0.791076</v>
       </c>
       <c r="D101" t="n">
-        <v>0.703696</v>
+        <v>0.717556</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.840221</v>
+        <v>0.864595</v>
       </c>
       <c r="C102" t="n">
-        <v>0.921687</v>
+        <v>0.787093</v>
       </c>
       <c r="D102" t="n">
-        <v>0.945952</v>
+        <v>0.717255</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.01576</v>
+        <v>0.841174</v>
       </c>
       <c r="C103" t="n">
-        <v>0.970025</v>
+        <v>0.797356</v>
       </c>
       <c r="D103" t="n">
-        <v>0.868985</v>
+        <v>0.742439</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.976067</v>
+        <v>0.861951</v>
       </c>
       <c r="C104" t="n">
-        <v>0.791148</v>
+        <v>0.808501</v>
       </c>
       <c r="D104" t="n">
-        <v>0.745004</v>
+        <v>0.749679</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.884331</v>
+        <v>0.862955</v>
       </c>
       <c r="C105" t="n">
-        <v>0.806886</v>
+        <v>0.805863</v>
       </c>
       <c r="D105" t="n">
-        <v>0.7460020000000001</v>
+        <v>0.743058</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.892679</v>
+        <v>0.890696</v>
       </c>
       <c r="C106" t="n">
-        <v>0.828804</v>
+        <v>0.8337329999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.770726</v>
+        <v>0.766137</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.908945</v>
+        <v>0.949196</v>
       </c>
       <c r="C107" t="n">
-        <v>0.884661</v>
+        <v>0.863774</v>
       </c>
       <c r="D107" t="n">
-        <v>0.799384</v>
+        <v>0.803458</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.964673</v>
+        <v>0.989237</v>
       </c>
       <c r="C108" t="n">
-        <v>0.911829</v>
+        <v>0.918231</v>
       </c>
       <c r="D108" t="n">
-        <v>0.869225</v>
+        <v>0.830747</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.06189</v>
+        <v>1.04389</v>
       </c>
       <c r="C109" t="n">
-        <v>1.00694</v>
+        <v>1.00924</v>
       </c>
       <c r="D109" t="n">
-        <v>0.862903</v>
+        <v>0.87439</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.974444</v>
+        <v>0.949769</v>
       </c>
       <c r="C110" t="n">
-        <v>0.877552</v>
+        <v>0.881009</v>
       </c>
       <c r="D110" t="n">
-        <v>0.86092</v>
+        <v>0.864969</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.968979</v>
+        <v>0.973115</v>
       </c>
       <c r="C111" t="n">
-        <v>0.889886</v>
+        <v>0.896608</v>
       </c>
       <c r="D111" t="n">
-        <v>0.825195</v>
+        <v>0.863082</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.982804</v>
+        <v>0.968793</v>
       </c>
       <c r="C112" t="n">
-        <v>0.920117</v>
+        <v>0.8902139999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8930090000000001</v>
+        <v>0.8618130000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9705510000000001</v>
+        <v>0.983306</v>
       </c>
       <c r="C113" t="n">
-        <v>0.931841</v>
+        <v>0.9038659999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.8778820000000001</v>
+        <v>0.854335</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.988999</v>
+        <v>1.01285</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9335020000000001</v>
+        <v>0.937835</v>
       </c>
       <c r="D114" t="n">
-        <v>0.881895</v>
+        <v>0.884764</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.995822</v>
+        <v>1.02409</v>
       </c>
       <c r="C115" t="n">
-        <v>0.911036</v>
+        <v>0.931731</v>
       </c>
       <c r="D115" t="n">
-        <v>0.872854</v>
+        <v>0.904965</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.00092</v>
+        <v>1.00364</v>
       </c>
       <c r="C116" t="n">
-        <v>0.937425</v>
+        <v>0.942262</v>
       </c>
       <c r="D116" t="n">
-        <v>0.861254</v>
+        <v>0.9193249999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.996049</v>
+        <v>1.01175</v>
       </c>
       <c r="C117" t="n">
-        <v>0.957502</v>
+        <v>0.923763</v>
       </c>
       <c r="D117" t="n">
-        <v>0.901717</v>
+        <v>0.902832</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.02338</v>
+        <v>1.02354</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9556789999999999</v>
+        <v>0.962287</v>
       </c>
       <c r="D118" t="n">
-        <v>0.914882</v>
+        <v>0.911434</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.05256</v>
+        <v>1.01891</v>
       </c>
       <c r="C119" t="n">
-        <v>0.987941</v>
+        <v>0.969326</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9037190000000001</v>
+        <v>0.909443</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.04424</v>
+        <v>1.03752</v>
       </c>
       <c r="C120" t="n">
-        <v>1.01591</v>
+        <v>1.01545</v>
       </c>
       <c r="D120" t="n">
-        <v>0.901301</v>
+        <v>0.934496</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.10339</v>
+        <v>1.10582</v>
       </c>
       <c r="C121" t="n">
-        <v>1.05557</v>
+        <v>1.05022</v>
       </c>
       <c r="D121" t="n">
-        <v>0.940855</v>
+        <v>0.939785</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.15108</v>
+        <v>1.1369</v>
       </c>
       <c r="C122" t="n">
-        <v>1.10539</v>
+        <v>1.12033</v>
       </c>
       <c r="D122" t="n">
-        <v>0.976651</v>
+        <v>0.981622</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.20017</v>
+        <v>1.18731</v>
       </c>
       <c r="C123" t="n">
-        <v>1.18482</v>
+        <v>1.17826</v>
       </c>
       <c r="D123" t="n">
-        <v>1.11435</v>
+        <v>1.12667</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.31613</v>
+        <v>1.34932</v>
       </c>
       <c r="C124" t="n">
-        <v>1.19121</v>
+        <v>1.16697</v>
       </c>
       <c r="D124" t="n">
-        <v>1.19882</v>
+        <v>1.13744</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.30103</v>
+        <v>1.29093</v>
       </c>
       <c r="C125" t="n">
-        <v>1.20623</v>
+        <v>1.16055</v>
       </c>
       <c r="D125" t="n">
-        <v>1.13015</v>
+        <v>1.15817</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.31667</v>
+        <v>1.3234</v>
       </c>
       <c r="C126" t="n">
-        <v>1.18888</v>
+        <v>1.2101</v>
       </c>
       <c r="D126" t="n">
-        <v>1.12254</v>
+        <v>1.17129</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.33636</v>
+        <v>1.33146</v>
       </c>
       <c r="C127" t="n">
-        <v>1.19261</v>
+        <v>1.20897</v>
       </c>
       <c r="D127" t="n">
-        <v>1.14124</v>
+        <v>1.11191</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.37993</v>
+        <v>1.36821</v>
       </c>
       <c r="C128" t="n">
-        <v>1.21481</v>
+        <v>1.23343</v>
       </c>
       <c r="D128" t="n">
-        <v>1.16646</v>
+        <v>1.14984</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.33913</v>
+        <v>1.40244</v>
       </c>
       <c r="C129" t="n">
-        <v>1.26192</v>
+        <v>1.20764</v>
       </c>
       <c r="D129" t="n">
-        <v>1.16076</v>
+        <v>1.14133</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.36906</v>
+        <v>1.36159</v>
       </c>
       <c r="C130" t="n">
-        <v>1.21543</v>
+        <v>1.1961</v>
       </c>
       <c r="D130" t="n">
-        <v>1.15693</v>
+        <v>1.16593</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.35349</v>
+        <v>1.38649</v>
       </c>
       <c r="C131" t="n">
-        <v>1.24041</v>
+        <v>1.23892</v>
       </c>
       <c r="D131" t="n">
-        <v>1.23717</v>
+        <v>1.17208</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.42998</v>
+        <v>1.35857</v>
       </c>
       <c r="C132" t="n">
-        <v>1.26409</v>
+        <v>1.27914</v>
       </c>
       <c r="D132" t="n">
-        <v>1.18123</v>
+        <v>1.16807</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.39327</v>
+        <v>1.39353</v>
       </c>
       <c r="C133" t="n">
-        <v>1.27755</v>
+        <v>1.26547</v>
       </c>
       <c r="D133" t="n">
-        <v>1.20364</v>
+        <v>1.2071</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.4222</v>
+        <v>1.40232</v>
       </c>
       <c r="C134" t="n">
-        <v>1.31499</v>
+        <v>1.30924</v>
       </c>
       <c r="D134" t="n">
-        <v>1.22468</v>
+        <v>1.21635</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.47802</v>
+        <v>1.44818</v>
       </c>
       <c r="C135" t="n">
-        <v>1.34342</v>
+        <v>1.36304</v>
       </c>
       <c r="D135" t="n">
-        <v>1.27502</v>
+        <v>1.22921</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.52294</v>
+        <v>1.50947</v>
       </c>
       <c r="C136" t="n">
-        <v>1.4428</v>
+        <v>1.42887</v>
       </c>
       <c r="D136" t="n">
-        <v>1.29634</v>
+        <v>1.30539</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.5828</v>
+        <v>1.59474</v>
       </c>
       <c r="C137" t="n">
-        <v>1.53812</v>
+        <v>1.53164</v>
       </c>
       <c r="D137" t="n">
-        <v>1.34768</v>
+        <v>1.33199</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.61697</v>
+        <v>1.57406</v>
       </c>
       <c r="C138" t="n">
-        <v>1.45133</v>
+        <v>1.39993</v>
       </c>
       <c r="D138" t="n">
-        <v>1.34425</v>
+        <v>1.35434</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.56919</v>
+        <v>1.56489</v>
       </c>
       <c r="C139" t="n">
-        <v>1.44446</v>
+        <v>1.39392</v>
       </c>
       <c r="D139" t="n">
-        <v>1.35414</v>
+        <v>1.40664</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.59591</v>
+        <v>1.57304</v>
       </c>
       <c r="C140" t="n">
-        <v>1.4319</v>
+        <v>1.43602</v>
       </c>
       <c r="D140" t="n">
-        <v>1.4033</v>
+        <v>1.40666</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.58533</v>
+        <v>1.60837</v>
       </c>
       <c r="C141" t="n">
-        <v>1.42908</v>
+        <v>1.42644</v>
       </c>
       <c r="D141" t="n">
-        <v>1.36543</v>
+        <v>1.34936</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.65727</v>
+        <v>1.59642</v>
       </c>
       <c r="C142" t="n">
-        <v>1.42202</v>
+        <v>1.41327</v>
       </c>
       <c r="D142" t="n">
-        <v>1.36947</v>
+        <v>1.42066</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.61317</v>
+        <v>1.60548</v>
       </c>
       <c r="C143" t="n">
-        <v>1.44588</v>
+        <v>1.4382</v>
       </c>
       <c r="D143" t="n">
-        <v>1.37605</v>
+        <v>1.37519</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.653528</v>
+        <v>0.625121</v>
       </c>
       <c r="C2" t="n">
-        <v>0.596438</v>
+        <v>0.583734</v>
       </c>
       <c r="D2" t="n">
-        <v>0.594933</v>
+        <v>0.589198</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6340519999999999</v>
+        <v>0.625655</v>
       </c>
       <c r="C3" t="n">
-        <v>0.596364</v>
+        <v>0.580565</v>
       </c>
       <c r="D3" t="n">
-        <v>0.606965</v>
+        <v>0.5882309999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.633157</v>
+        <v>0.622862</v>
       </c>
       <c r="C4" t="n">
-        <v>0.590234</v>
+        <v>0.586037</v>
       </c>
       <c r="D4" t="n">
-        <v>0.595873</v>
+        <v>0.619862</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.649013</v>
+        <v>0.66477</v>
       </c>
       <c r="C5" t="n">
-        <v>0.598154</v>
+        <v>0.654051</v>
       </c>
       <c r="D5" t="n">
-        <v>0.60354</v>
+        <v>0.593016</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.684368</v>
+        <v>0.6380130000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.612259</v>
+        <v>0.6002420000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.631754</v>
+        <v>0.606176</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6908069999999999</v>
+        <v>0.658877</v>
       </c>
       <c r="C7" t="n">
-        <v>0.624112</v>
+        <v>0.645664</v>
       </c>
       <c r="D7" t="n">
-        <v>0.632085</v>
+        <v>0.62936</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.718569</v>
+        <v>0.7135089999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.644045</v>
+        <v>0.657886</v>
       </c>
       <c r="D8" t="n">
-        <v>0.63359</v>
+        <v>0.653084</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.733097</v>
+        <v>0.7349869999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.694595</v>
+        <v>0.720563</v>
       </c>
       <c r="D9" t="n">
-        <v>0.594286</v>
+        <v>0.597673</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6288820000000001</v>
+        <v>0.654965</v>
       </c>
       <c r="C10" t="n">
-        <v>0.592291</v>
+        <v>0.58858</v>
       </c>
       <c r="D10" t="n">
-        <v>0.588163</v>
+        <v>0.6134269999999999</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6385150000000001</v>
+        <v>0.634379</v>
       </c>
       <c r="C11" t="n">
-        <v>0.607052</v>
+        <v>0.5907289999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.590996</v>
+        <v>0.58369</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.643369</v>
+        <v>0.640918</v>
       </c>
       <c r="C12" t="n">
-        <v>0.579307</v>
+        <v>0.592471</v>
       </c>
       <c r="D12" t="n">
-        <v>0.586844</v>
+        <v>0.594354</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.632487</v>
+        <v>0.641942</v>
       </c>
       <c r="C13" t="n">
-        <v>0.593726</v>
+        <v>0.604732</v>
       </c>
       <c r="D13" t="n">
-        <v>0.583571</v>
+        <v>0.5876130000000001</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.640036</v>
+        <v>0.6304380000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.584062</v>
+        <v>0.6022380000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6170679999999999</v>
+        <v>0.589668</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.643801</v>
+        <v>0.633748</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6126549999999999</v>
+        <v>0.604079</v>
       </c>
       <c r="D15" t="n">
-        <v>0.600368</v>
+        <v>0.585195</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.636034</v>
+        <v>0.630568</v>
       </c>
       <c r="C16" t="n">
-        <v>0.586503</v>
+        <v>0.584413</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6133690000000001</v>
+        <v>0.5911149999999999</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.639811</v>
+        <v>0.649083</v>
       </c>
       <c r="C17" t="n">
-        <v>0.59681</v>
+        <v>0.605544</v>
       </c>
       <c r="D17" t="n">
-        <v>0.601729</v>
+        <v>0.599758</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.683569</v>
+        <v>0.644118</v>
       </c>
       <c r="C18" t="n">
-        <v>0.603644</v>
+        <v>0.626968</v>
       </c>
       <c r="D18" t="n">
-        <v>0.618831</v>
+        <v>0.596294</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.671404</v>
+        <v>0.664112</v>
       </c>
       <c r="C19" t="n">
-        <v>0.597931</v>
+        <v>0.618048</v>
       </c>
       <c r="D19" t="n">
-        <v>0.62121</v>
+        <v>0.619014</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.659649</v>
+        <v>0.658705</v>
       </c>
       <c r="C20" t="n">
-        <v>0.617743</v>
+        <v>0.614124</v>
       </c>
       <c r="D20" t="n">
-        <v>0.608037</v>
+        <v>0.603849</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.655552</v>
+        <v>0.70436</v>
       </c>
       <c r="C21" t="n">
-        <v>0.618232</v>
+        <v>0.643987</v>
       </c>
       <c r="D21" t="n">
-        <v>0.63121</v>
+        <v>0.631676</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.695717</v>
+        <v>0.70162</v>
       </c>
       <c r="C22" t="n">
-        <v>0.652508</v>
+        <v>0.659162</v>
       </c>
       <c r="D22" t="n">
-        <v>0.660388</v>
+        <v>0.640046</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.733416</v>
+        <v>0.709477</v>
       </c>
       <c r="C23" t="n">
-        <v>0.679778</v>
+        <v>0.681755</v>
       </c>
       <c r="D23" t="n">
-        <v>0.590247</v>
+        <v>0.602544</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.645875</v>
+        <v>0.654125</v>
       </c>
       <c r="C24" t="n">
-        <v>0.592329</v>
+        <v>0.598489</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5939489999999999</v>
+        <v>0.641975</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.642048</v>
+        <v>0.647129</v>
       </c>
       <c r="C25" t="n">
-        <v>0.590163</v>
+        <v>0.579633</v>
       </c>
       <c r="D25" t="n">
-        <v>0.594508</v>
+        <v>0.586663</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.661826</v>
+        <v>0.656732</v>
       </c>
       <c r="C26" t="n">
-        <v>0.589249</v>
+        <v>0.579754</v>
       </c>
       <c r="D26" t="n">
-        <v>0.624707</v>
+        <v>0.600253</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.686217</v>
+        <v>0.647305</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5926940000000001</v>
+        <v>0.607615</v>
       </c>
       <c r="D27" t="n">
-        <v>0.587041</v>
+        <v>0.607043</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6772010000000001</v>
+        <v>0.64817</v>
       </c>
       <c r="C28" t="n">
-        <v>0.588434</v>
+        <v>0.595778</v>
       </c>
       <c r="D28" t="n">
-        <v>0.599708</v>
+        <v>0.603316</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.647605</v>
+        <v>0.650549</v>
       </c>
       <c r="C29" t="n">
-        <v>0.614641</v>
+        <v>0.589282</v>
       </c>
       <c r="D29" t="n">
-        <v>0.616769</v>
+        <v>0.613947</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.650772</v>
+        <v>0.645282</v>
       </c>
       <c r="C30" t="n">
-        <v>0.593119</v>
+        <v>0.6034890000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6062920000000001</v>
+        <v>0.625661</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.682662</v>
+        <v>0.673112</v>
       </c>
       <c r="C31" t="n">
-        <v>0.598718</v>
+        <v>0.61169</v>
       </c>
       <c r="D31" t="n">
-        <v>0.610743</v>
+        <v>0.614653</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.655043</v>
+        <v>0.653832</v>
       </c>
       <c r="C32" t="n">
-        <v>0.594734</v>
+        <v>0.589097</v>
       </c>
       <c r="D32" t="n">
-        <v>0.614703</v>
+        <v>0.6280520000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.67674</v>
+        <v>0.674494</v>
       </c>
       <c r="C33" t="n">
-        <v>0.610491</v>
+        <v>0.611006</v>
       </c>
       <c r="D33" t="n">
-        <v>0.610371</v>
+        <v>0.625387</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6687689999999999</v>
+        <v>0.667655</v>
       </c>
       <c r="C34" t="n">
-        <v>0.636297</v>
+        <v>0.6142</v>
       </c>
       <c r="D34" t="n">
-        <v>0.666443</v>
+        <v>0.628699</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.693367</v>
+        <v>0.694003</v>
       </c>
       <c r="C35" t="n">
-        <v>0.635176</v>
+        <v>0.651468</v>
       </c>
       <c r="D35" t="n">
-        <v>0.639079</v>
+        <v>0.637982</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.713676</v>
+        <v>0.707701</v>
       </c>
       <c r="C36" t="n">
-        <v>0.648444</v>
+        <v>0.661969</v>
       </c>
       <c r="D36" t="n">
-        <v>0.65846</v>
+        <v>0.6403759999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7366200000000001</v>
+        <v>0.759953</v>
       </c>
       <c r="C37" t="n">
-        <v>0.693987</v>
+        <v>0.705987</v>
       </c>
       <c r="D37" t="n">
-        <v>0.628815</v>
+        <v>0.614599</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.671228</v>
+        <v>0.660087</v>
       </c>
       <c r="C38" t="n">
-        <v>0.590511</v>
+        <v>0.58523</v>
       </c>
       <c r="D38" t="n">
-        <v>0.615785</v>
+        <v>0.589561</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.678727</v>
+        <v>0.676517</v>
       </c>
       <c r="C39" t="n">
-        <v>0.600204</v>
+        <v>0.604622</v>
       </c>
       <c r="D39" t="n">
-        <v>0.607695</v>
+        <v>0.594517</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.653211</v>
+        <v>0.678606</v>
       </c>
       <c r="C40" t="n">
-        <v>0.594993</v>
+        <v>0.585731</v>
       </c>
       <c r="D40" t="n">
-        <v>0.601229</v>
+        <v>0.600397</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.657447</v>
+        <v>0.667138</v>
       </c>
       <c r="C41" t="n">
-        <v>0.605349</v>
+        <v>0.59207</v>
       </c>
       <c r="D41" t="n">
-        <v>0.612959</v>
+        <v>0.6080759999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.651601</v>
+        <v>0.660012</v>
       </c>
       <c r="C42" t="n">
-        <v>0.595425</v>
+        <v>0.588157</v>
       </c>
       <c r="D42" t="n">
-        <v>0.606835</v>
+        <v>0.61631</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.681474</v>
+        <v>0.690022</v>
       </c>
       <c r="C43" t="n">
-        <v>0.615143</v>
+        <v>0.6007940000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.611421</v>
+        <v>0.613328</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.662985</v>
+        <v>0.667764</v>
       </c>
       <c r="C44" t="n">
-        <v>0.636701</v>
+        <v>0.605729</v>
       </c>
       <c r="D44" t="n">
-        <v>0.609835</v>
+        <v>0.605338</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.680684</v>
+        <v>0.666791</v>
       </c>
       <c r="C45" t="n">
-        <v>0.615152</v>
+        <v>0.611882</v>
       </c>
       <c r="D45" t="n">
-        <v>0.609676</v>
+        <v>0.61249</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.665455</v>
+        <v>0.66308</v>
       </c>
       <c r="C46" t="n">
-        <v>0.61636</v>
+        <v>0.624257</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6306079999999999</v>
+        <v>0.627974</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.665247</v>
+        <v>0.675756</v>
       </c>
       <c r="C47" t="n">
-        <v>0.62055</v>
+        <v>0.627995</v>
       </c>
       <c r="D47" t="n">
-        <v>0.630506</v>
+        <v>0.615645</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.704171</v>
+        <v>0.677144</v>
       </c>
       <c r="C48" t="n">
-        <v>0.639998</v>
+        <v>0.620216</v>
       </c>
       <c r="D48" t="n">
-        <v>0.62957</v>
+        <v>0.63431</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.687656</v>
+        <v>0.693623</v>
       </c>
       <c r="C49" t="n">
-        <v>0.649309</v>
+        <v>0.649278</v>
       </c>
       <c r="D49" t="n">
-        <v>0.649805</v>
+        <v>0.636675</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.7049</v>
+        <v>0.716751</v>
       </c>
       <c r="C50" t="n">
-        <v>0.646193</v>
+        <v>0.667683</v>
       </c>
       <c r="D50" t="n">
-        <v>0.655406</v>
+        <v>0.655608</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.739378</v>
+        <v>0.733101</v>
       </c>
       <c r="C51" t="n">
-        <v>0.710785</v>
+        <v>0.679751</v>
       </c>
       <c r="D51" t="n">
-        <v>0.618606</v>
+        <v>0.629786</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.770113</v>
+        <v>0.762499</v>
       </c>
       <c r="C52" t="n">
-        <v>0.737798</v>
+        <v>0.730558</v>
       </c>
       <c r="D52" t="n">
-        <v>0.617831</v>
+        <v>0.620592</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.689019</v>
+        <v>0.67742</v>
       </c>
       <c r="C53" t="n">
-        <v>0.62853</v>
+        <v>0.623124</v>
       </c>
       <c r="D53" t="n">
-        <v>0.614645</v>
+        <v>0.626041</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6929650000000001</v>
+        <v>0.707356</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6251910000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.61942</v>
+        <v>0.612456</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.69368</v>
+        <v>0.678122</v>
       </c>
       <c r="C55" t="n">
-        <v>0.621182</v>
+        <v>0.612737</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6296119999999999</v>
+        <v>0.611832</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.721024</v>
+        <v>0.681823</v>
       </c>
       <c r="C56" t="n">
-        <v>0.614612</v>
+        <v>0.61442</v>
       </c>
       <c r="D56" t="n">
-        <v>0.615179</v>
+        <v>0.62163</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.70825</v>
+        <v>0.701352</v>
       </c>
       <c r="C57" t="n">
-        <v>0.611758</v>
+        <v>0.617416</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6493640000000001</v>
+        <v>0.626627</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.702788</v>
+        <v>0.688924</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6399359999999999</v>
+        <v>0.621636</v>
       </c>
       <c r="D58" t="n">
-        <v>0.624678</v>
+        <v>0.6173149999999999</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.7176439999999999</v>
+        <v>0.6837800000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.616001</v>
+        <v>0.645055</v>
       </c>
       <c r="D59" t="n">
-        <v>0.645973</v>
+        <v>0.618847</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.7001810000000001</v>
+        <v>0.705915</v>
       </c>
       <c r="C60" t="n">
-        <v>0.63774</v>
+        <v>0.64037</v>
       </c>
       <c r="D60" t="n">
-        <v>0.630929</v>
+        <v>0.647907</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.721468</v>
+        <v>0.701268</v>
       </c>
       <c r="C61" t="n">
-        <v>0.663755</v>
+        <v>0.631452</v>
       </c>
       <c r="D61" t="n">
-        <v>0.637004</v>
+        <v>0.642558</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.709966</v>
+        <v>0.701352</v>
       </c>
       <c r="C62" t="n">
-        <v>0.660757</v>
+        <v>0.64956</v>
       </c>
       <c r="D62" t="n">
-        <v>0.646944</v>
+        <v>0.624958</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.711561</v>
+        <v>0.707555</v>
       </c>
       <c r="C63" t="n">
-        <v>0.704193</v>
+        <v>0.670002</v>
       </c>
       <c r="D63" t="n">
-        <v>0.657752</v>
+        <v>0.658782</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.744889</v>
+        <v>0.737456</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6797260000000001</v>
+        <v>0.670947</v>
       </c>
       <c r="D64" t="n">
-        <v>0.680708</v>
+        <v>0.666876</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.762369</v>
+        <v>0.754182</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7159140000000001</v>
+        <v>0.709341</v>
       </c>
       <c r="D65" t="n">
-        <v>0.687407</v>
+        <v>0.715648</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.798443</v>
+        <v>0.8034019999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.758746</v>
+        <v>0.741854</v>
       </c>
       <c r="D66" t="n">
-        <v>0.641642</v>
+        <v>0.660505</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.713049</v>
+        <v>0.727311</v>
       </c>
       <c r="C67" t="n">
-        <v>0.645293</v>
+        <v>0.636094</v>
       </c>
       <c r="D67" t="n">
-        <v>0.670551</v>
+        <v>0.66104</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.732938</v>
+        <v>0.735158</v>
       </c>
       <c r="C68" t="n">
-        <v>0.657103</v>
+        <v>0.645998</v>
       </c>
       <c r="D68" t="n">
-        <v>0.645669</v>
+        <v>0.643916</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.720742</v>
+        <v>0.743628</v>
       </c>
       <c r="C69" t="n">
-        <v>0.660247</v>
+        <v>0.650984</v>
       </c>
       <c r="D69" t="n">
-        <v>0.643563</v>
+        <v>0.643678</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.704359</v>
+        <v>0.725111</v>
       </c>
       <c r="C70" t="n">
-        <v>0.651026</v>
+        <v>0.641629</v>
       </c>
       <c r="D70" t="n">
-        <v>0.656065</v>
+        <v>0.64468</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.717728</v>
+        <v>0.736731</v>
       </c>
       <c r="C71" t="n">
-        <v>0.673605</v>
+        <v>0.660407</v>
       </c>
       <c r="D71" t="n">
-        <v>0.654078</v>
+        <v>0.634363</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.718648</v>
+        <v>0.722543</v>
       </c>
       <c r="C72" t="n">
-        <v>0.644869</v>
+        <v>0.646027</v>
       </c>
       <c r="D72" t="n">
-        <v>0.671386</v>
+        <v>0.659968</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.740558</v>
+        <v>0.727803</v>
       </c>
       <c r="C73" t="n">
-        <v>0.667087</v>
+        <v>0.663385</v>
       </c>
       <c r="D73" t="n">
-        <v>0.655864</v>
+        <v>0.6725680000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.74487</v>
+        <v>0.74112</v>
       </c>
       <c r="C74" t="n">
-        <v>0.696871</v>
+        <v>0.673204</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6666840000000001</v>
+        <v>0.643336</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.744761</v>
+        <v>0.738219</v>
       </c>
       <c r="C75" t="n">
-        <v>0.666975</v>
+        <v>0.68138</v>
       </c>
       <c r="D75" t="n">
-        <v>0.661538</v>
+        <v>0.686469</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7453880000000001</v>
+        <v>0.7512990000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.685264</v>
+        <v>0.695892</v>
       </c>
       <c r="D76" t="n">
-        <v>0.676136</v>
+        <v>0.6844479999999999</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.772624</v>
+        <v>0.76569</v>
       </c>
       <c r="C77" t="n">
-        <v>0.727175</v>
+        <v>0.711032</v>
       </c>
       <c r="D77" t="n">
-        <v>0.704134</v>
+        <v>0.7110919999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.796887</v>
+        <v>0.790712</v>
       </c>
       <c r="C78" t="n">
-        <v>0.722213</v>
+        <v>0.7235549999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.723623</v>
+        <v>0.702457</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.821739</v>
+        <v>0.806218</v>
       </c>
       <c r="C79" t="n">
-        <v>0.758155</v>
+        <v>0.769122</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7104200000000001</v>
+        <v>0.716183</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.849522</v>
+        <v>0.867456</v>
       </c>
       <c r="C80" t="n">
-        <v>0.803915</v>
+        <v>0.794153</v>
       </c>
       <c r="D80" t="n">
-        <v>0.675392</v>
+        <v>0.670947</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.73726</v>
+        <v>0.754202</v>
       </c>
       <c r="C81" t="n">
-        <v>0.698674</v>
+        <v>0.684103</v>
       </c>
       <c r="D81" t="n">
-        <v>0.673424</v>
+        <v>0.6652</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.783327</v>
+        <v>0.777945</v>
       </c>
       <c r="C82" t="n">
-        <v>0.671789</v>
+        <v>0.665809</v>
       </c>
       <c r="D82" t="n">
-        <v>0.660318</v>
+        <v>0.671028</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.761459</v>
+        <v>0.747014</v>
       </c>
       <c r="C83" t="n">
-        <v>0.681301</v>
+        <v>0.681489</v>
       </c>
       <c r="D83" t="n">
-        <v>0.685771</v>
+        <v>0.6886100000000001</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.752296</v>
+        <v>0.769172</v>
       </c>
       <c r="C84" t="n">
-        <v>0.68558</v>
+        <v>0.692371</v>
       </c>
       <c r="D84" t="n">
-        <v>0.664347</v>
+        <v>0.658728</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.753692</v>
+        <v>0.750753</v>
       </c>
       <c r="C85" t="n">
-        <v>0.723451</v>
+        <v>0.694917</v>
       </c>
       <c r="D85" t="n">
-        <v>0.6894670000000001</v>
+        <v>0.658505</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.775414</v>
+        <v>0.746124</v>
       </c>
       <c r="C86" t="n">
-        <v>0.705995</v>
+        <v>0.693943</v>
       </c>
       <c r="D86" t="n">
-        <v>0.692505</v>
+        <v>0.670234</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.776216</v>
+        <v>0.779069</v>
       </c>
       <c r="C87" t="n">
-        <v>0.718997</v>
+        <v>0.714649</v>
       </c>
       <c r="D87" t="n">
-        <v>0.678358</v>
+        <v>0.670312</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8065020000000001</v>
+        <v>0.7731749999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.703164</v>
+        <v>0.699802</v>
       </c>
       <c r="D88" t="n">
-        <v>0.677385</v>
+        <v>0.697462</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.776077</v>
+        <v>0.776689</v>
       </c>
       <c r="C89" t="n">
-        <v>0.706131</v>
+        <v>0.718178</v>
       </c>
       <c r="D89" t="n">
-        <v>0.685866</v>
+        <v>0.675601</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.80409</v>
+        <v>0.78261</v>
       </c>
       <c r="C90" t="n">
-        <v>0.710667</v>
+        <v>0.713384</v>
       </c>
       <c r="D90" t="n">
-        <v>0.713884</v>
+        <v>0.694913</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.7934639999999999</v>
+        <v>0.7922</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7453880000000001</v>
+        <v>0.760179</v>
       </c>
       <c r="D91" t="n">
-        <v>0.703736</v>
+        <v>0.7076519999999999</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.839368</v>
+        <v>0.828914</v>
       </c>
       <c r="C92" t="n">
-        <v>0.759381</v>
+        <v>0.75509</v>
       </c>
       <c r="D92" t="n">
-        <v>0.735381</v>
+        <v>0.741105</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.842799</v>
+        <v>0.859391</v>
       </c>
       <c r="C93" t="n">
-        <v>0.808047</v>
+        <v>0.793434</v>
       </c>
       <c r="D93" t="n">
-        <v>0.731742</v>
+        <v>0.749897</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.896798</v>
+        <v>0.917971</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8446939999999999</v>
+        <v>0.8470839999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.696641</v>
+        <v>0.68985</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.794694</v>
+        <v>0.8079499999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.747142</v>
+        <v>0.719579</v>
       </c>
       <c r="D95" t="n">
-        <v>0.710329</v>
+        <v>0.698082</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.813276</v>
+        <v>0.804486</v>
       </c>
       <c r="C96" t="n">
-        <v>0.745909</v>
+        <v>0.730097</v>
       </c>
       <c r="D96" t="n">
-        <v>0.697756</v>
+        <v>0.720822</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.80903</v>
+        <v>0.789728</v>
       </c>
       <c r="C97" t="n">
-        <v>0.74368</v>
+        <v>0.726618</v>
       </c>
       <c r="D97" t="n">
-        <v>0.72814</v>
+        <v>0.688982</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.823881</v>
+        <v>0.825097</v>
       </c>
       <c r="C98" t="n">
-        <v>0.743639</v>
+        <v>0.772195</v>
       </c>
       <c r="D98" t="n">
-        <v>0.708268</v>
+        <v>0.690219</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.818505</v>
+        <v>0.83433</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7549670000000001</v>
+        <v>0.746457</v>
       </c>
       <c r="D99" t="n">
-        <v>0.705044</v>
+        <v>0.690526</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.819323</v>
+        <v>0.826732</v>
       </c>
       <c r="C100" t="n">
-        <v>0.767092</v>
+        <v>0.737355</v>
       </c>
       <c r="D100" t="n">
-        <v>0.715243</v>
+        <v>0.70037</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.845397</v>
+        <v>0.844121</v>
       </c>
       <c r="C101" t="n">
-        <v>0.791076</v>
+        <v>0.747293</v>
       </c>
       <c r="D101" t="n">
-        <v>0.717556</v>
+        <v>0.719114</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.864595</v>
+        <v>0.852965</v>
       </c>
       <c r="C102" t="n">
-        <v>0.787093</v>
+        <v>0.765082</v>
       </c>
       <c r="D102" t="n">
-        <v>0.717255</v>
+        <v>0.714688</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.841174</v>
+        <v>0.84343</v>
       </c>
       <c r="C103" t="n">
-        <v>0.797356</v>
+        <v>0.7712869999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.742439</v>
+        <v>0.7513</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.861951</v>
+        <v>0.851656</v>
       </c>
       <c r="C104" t="n">
-        <v>0.808501</v>
+        <v>0.799356</v>
       </c>
       <c r="D104" t="n">
-        <v>0.749679</v>
+        <v>0.730804</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.862955</v>
+        <v>0.853123</v>
       </c>
       <c r="C105" t="n">
-        <v>0.805863</v>
+        <v>0.816283</v>
       </c>
       <c r="D105" t="n">
-        <v>0.743058</v>
+        <v>0.737911</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.890696</v>
+        <v>0.91491</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8337329999999999</v>
+        <v>0.8473850000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.766137</v>
+        <v>0.780475</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.949196</v>
+        <v>0.923297</v>
       </c>
       <c r="C107" t="n">
-        <v>0.863774</v>
+        <v>0.865024</v>
       </c>
       <c r="D107" t="n">
-        <v>0.803458</v>
+        <v>0.784388</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.989237</v>
+        <v>0.975701</v>
       </c>
       <c r="C108" t="n">
-        <v>0.918231</v>
+        <v>0.916617</v>
       </c>
       <c r="D108" t="n">
-        <v>0.830747</v>
+        <v>0.828748</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.04389</v>
+        <v>1.02631</v>
       </c>
       <c r="C109" t="n">
-        <v>1.00924</v>
+        <v>1.01458</v>
       </c>
       <c r="D109" t="n">
-        <v>0.87439</v>
+        <v>0.853816</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.949769</v>
+        <v>0.991103</v>
       </c>
       <c r="C110" t="n">
-        <v>0.881009</v>
+        <v>0.878779</v>
       </c>
       <c r="D110" t="n">
-        <v>0.864969</v>
+        <v>0.858521</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.973115</v>
+        <v>0.969681</v>
       </c>
       <c r="C111" t="n">
-        <v>0.896608</v>
+        <v>0.902879</v>
       </c>
       <c r="D111" t="n">
-        <v>0.863082</v>
+        <v>0.856513</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.968793</v>
+        <v>0.99143</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8902139999999999</v>
+        <v>0.900943</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8618130000000001</v>
+        <v>0.85387</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.983306</v>
+        <v>1.00264</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9038659999999999</v>
+        <v>0.889114</v>
       </c>
       <c r="D113" t="n">
-        <v>0.854335</v>
+        <v>0.861586</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.01285</v>
+        <v>0.986421</v>
       </c>
       <c r="C114" t="n">
-        <v>0.937835</v>
+        <v>0.912219</v>
       </c>
       <c r="D114" t="n">
-        <v>0.884764</v>
+        <v>0.880237</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.02409</v>
+        <v>0.967969</v>
       </c>
       <c r="C115" t="n">
-        <v>0.931731</v>
+        <v>0.9254520000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.904965</v>
+        <v>0.909875</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.00364</v>
+        <v>1.00422</v>
       </c>
       <c r="C116" t="n">
-        <v>0.942262</v>
+        <v>0.911398</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9193249999999999</v>
+        <v>0.898712</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.01175</v>
+        <v>1.02435</v>
       </c>
       <c r="C117" t="n">
-        <v>0.923763</v>
+        <v>0.948776</v>
       </c>
       <c r="D117" t="n">
-        <v>0.902832</v>
+        <v>0.867119</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.02354</v>
+        <v>1.01986</v>
       </c>
       <c r="C118" t="n">
-        <v>0.962287</v>
+        <v>0.965986</v>
       </c>
       <c r="D118" t="n">
-        <v>0.911434</v>
+        <v>0.896478</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.01891</v>
+        <v>1.00543</v>
       </c>
       <c r="C119" t="n">
-        <v>0.969326</v>
+        <v>0.981953</v>
       </c>
       <c r="D119" t="n">
-        <v>0.909443</v>
+        <v>0.897881</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.03752</v>
+        <v>1.06539</v>
       </c>
       <c r="C120" t="n">
-        <v>1.01545</v>
+        <v>1.00628</v>
       </c>
       <c r="D120" t="n">
-        <v>0.934496</v>
+        <v>0.919138</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.10582</v>
+        <v>1.10889</v>
       </c>
       <c r="C121" t="n">
-        <v>1.05022</v>
+        <v>1.03589</v>
       </c>
       <c r="D121" t="n">
-        <v>0.939785</v>
+        <v>0.940578</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.1369</v>
+        <v>1.16751</v>
       </c>
       <c r="C122" t="n">
-        <v>1.12033</v>
+        <v>1.10111</v>
       </c>
       <c r="D122" t="n">
-        <v>0.981622</v>
+        <v>0.9708830000000001</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.18731</v>
+        <v>1.20571</v>
       </c>
       <c r="C123" t="n">
-        <v>1.17826</v>
+        <v>1.19318</v>
       </c>
       <c r="D123" t="n">
-        <v>1.12667</v>
+        <v>1.12851</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.34932</v>
+        <v>1.27987</v>
       </c>
       <c r="C124" t="n">
-        <v>1.16697</v>
+        <v>1.17283</v>
       </c>
       <c r="D124" t="n">
-        <v>1.13744</v>
+        <v>1.1701</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.29093</v>
+        <v>1.2803</v>
       </c>
       <c r="C125" t="n">
-        <v>1.16055</v>
+        <v>1.13747</v>
       </c>
       <c r="D125" t="n">
-        <v>1.15817</v>
+        <v>1.15989</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.3234</v>
+        <v>1.30125</v>
       </c>
       <c r="C126" t="n">
-        <v>1.2101</v>
+        <v>1.16884</v>
       </c>
       <c r="D126" t="n">
-        <v>1.17129</v>
+        <v>1.11497</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.33146</v>
+        <v>1.3078</v>
       </c>
       <c r="C127" t="n">
-        <v>1.20897</v>
+        <v>1.18741</v>
       </c>
       <c r="D127" t="n">
-        <v>1.11191</v>
+        <v>1.16377</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.36821</v>
+        <v>1.3337</v>
       </c>
       <c r="C128" t="n">
-        <v>1.23343</v>
+        <v>1.1804</v>
       </c>
       <c r="D128" t="n">
-        <v>1.14984</v>
+        <v>1.13418</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.40244</v>
+        <v>1.32175</v>
       </c>
       <c r="C129" t="n">
-        <v>1.20764</v>
+        <v>1.18963</v>
       </c>
       <c r="D129" t="n">
-        <v>1.14133</v>
+        <v>1.14398</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.36159</v>
+        <v>1.39502</v>
       </c>
       <c r="C130" t="n">
-        <v>1.1961</v>
+        <v>1.21746</v>
       </c>
       <c r="D130" t="n">
-        <v>1.16593</v>
+        <v>1.14631</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.38649</v>
+        <v>1.36034</v>
       </c>
       <c r="C131" t="n">
-        <v>1.23892</v>
+        <v>1.28014</v>
       </c>
       <c r="D131" t="n">
-        <v>1.17208</v>
+        <v>1.14375</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.35857</v>
+        <v>1.40762</v>
       </c>
       <c r="C132" t="n">
-        <v>1.27914</v>
+        <v>1.24474</v>
       </c>
       <c r="D132" t="n">
-        <v>1.16807</v>
+        <v>1.14705</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.39353</v>
+        <v>1.39143</v>
       </c>
       <c r="C133" t="n">
-        <v>1.26547</v>
+        <v>1.29163</v>
       </c>
       <c r="D133" t="n">
-        <v>1.2071</v>
+        <v>1.19267</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.40232</v>
+        <v>1.41135</v>
       </c>
       <c r="C134" t="n">
-        <v>1.30924</v>
+        <v>1.30542</v>
       </c>
       <c r="D134" t="n">
-        <v>1.21635</v>
+        <v>1.23524</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.44818</v>
+        <v>1.42421</v>
       </c>
       <c r="C135" t="n">
-        <v>1.36304</v>
+        <v>1.34484</v>
       </c>
       <c r="D135" t="n">
-        <v>1.22921</v>
+        <v>1.23529</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.50947</v>
+        <v>1.57257</v>
       </c>
       <c r="C136" t="n">
-        <v>1.42887</v>
+        <v>1.40269</v>
       </c>
       <c r="D136" t="n">
-        <v>1.30539</v>
+        <v>1.32128</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.59474</v>
+        <v>1.57793</v>
       </c>
       <c r="C137" t="n">
-        <v>1.53164</v>
+        <v>1.51093</v>
       </c>
       <c r="D137" t="n">
-        <v>1.33199</v>
+        <v>1.35178</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.57406</v>
+        <v>1.57716</v>
       </c>
       <c r="C138" t="n">
-        <v>1.39993</v>
+        <v>1.39471</v>
       </c>
       <c r="D138" t="n">
-        <v>1.35434</v>
+        <v>1.36731</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.56489</v>
+        <v>1.57374</v>
       </c>
       <c r="C139" t="n">
-        <v>1.39392</v>
+        <v>1.40596</v>
       </c>
       <c r="D139" t="n">
-        <v>1.40664</v>
+        <v>1.35426</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.57304</v>
+        <v>1.5881</v>
       </c>
       <c r="C140" t="n">
-        <v>1.43602</v>
+        <v>1.41635</v>
       </c>
       <c r="D140" t="n">
-        <v>1.40666</v>
+        <v>1.34602</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.60837</v>
+        <v>1.60422</v>
       </c>
       <c r="C141" t="n">
-        <v>1.42644</v>
+        <v>1.4122</v>
       </c>
       <c r="D141" t="n">
-        <v>1.34936</v>
+        <v>1.35858</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.59642</v>
+        <v>1.61001</v>
       </c>
       <c r="C142" t="n">
-        <v>1.41327</v>
+        <v>1.41098</v>
       </c>
       <c r="D142" t="n">
-        <v>1.42066</v>
+        <v>1.36918</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.60548</v>
+        <v>1.6091</v>
       </c>
       <c r="C143" t="n">
-        <v>1.4382</v>
+        <v>1.49415</v>
       </c>
       <c r="D143" t="n">
-        <v>1.37519</v>
+        <v>1.37881</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.625121</v>
+        <v>0.21729</v>
       </c>
       <c r="C2" t="n">
-        <v>0.583734</v>
+        <v>0.177801</v>
       </c>
       <c r="D2" t="n">
-        <v>0.589198</v>
+        <v>0.176856</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.625655</v>
+        <v>0.221579</v>
       </c>
       <c r="C3" t="n">
-        <v>0.580565</v>
+        <v>0.184627</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5882309999999999</v>
+        <v>0.176744</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.622862</v>
+        <v>0.217255</v>
       </c>
       <c r="C4" t="n">
-        <v>0.586037</v>
+        <v>0.182445</v>
       </c>
       <c r="D4" t="n">
-        <v>0.619862</v>
+        <v>0.181079</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.66477</v>
+        <v>0.230607</v>
       </c>
       <c r="C5" t="n">
-        <v>0.654051</v>
+        <v>0.203091</v>
       </c>
       <c r="D5" t="n">
-        <v>0.593016</v>
+        <v>0.192419</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6380130000000001</v>
+        <v>0.240794</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6002420000000001</v>
+        <v>0.20878</v>
       </c>
       <c r="D6" t="n">
-        <v>0.606176</v>
+        <v>0.202591</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.658877</v>
+        <v>0.255848</v>
       </c>
       <c r="C7" t="n">
-        <v>0.645664</v>
+        <v>0.218693</v>
       </c>
       <c r="D7" t="n">
-        <v>0.62936</v>
+        <v>0.21795</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7135089999999999</v>
+        <v>0.285697</v>
       </c>
       <c r="C8" t="n">
-        <v>0.657886</v>
+        <v>0.258248</v>
       </c>
       <c r="D8" t="n">
-        <v>0.653084</v>
+        <v>0.252502</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7349869999999999</v>
+        <v>0.315082</v>
       </c>
       <c r="C9" t="n">
-        <v>0.720563</v>
+        <v>0.289119</v>
       </c>
       <c r="D9" t="n">
-        <v>0.597673</v>
+        <v>0.176816</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.654965</v>
+        <v>0.20812</v>
       </c>
       <c r="C10" t="n">
-        <v>0.58858</v>
+        <v>0.167557</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6134269999999999</v>
+        <v>0.172537</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.634379</v>
+        <v>0.218762</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5907289999999999</v>
+        <v>0.16953</v>
       </c>
       <c r="D11" t="n">
-        <v>0.58369</v>
+        <v>0.172464</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.640918</v>
+        <v>0.211639</v>
       </c>
       <c r="C12" t="n">
-        <v>0.592471</v>
+        <v>0.170523</v>
       </c>
       <c r="D12" t="n">
-        <v>0.594354</v>
+        <v>0.172478</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.641942</v>
+        <v>0.211655</v>
       </c>
       <c r="C13" t="n">
-        <v>0.604732</v>
+        <v>0.179591</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5876130000000001</v>
+        <v>0.172995</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6304380000000001</v>
+        <v>0.22663</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6022380000000001</v>
+        <v>0.174583</v>
       </c>
       <c r="D14" t="n">
-        <v>0.589668</v>
+        <v>0.173621</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.633748</v>
+        <v>0.21956</v>
       </c>
       <c r="C15" t="n">
-        <v>0.604079</v>
+        <v>0.176768</v>
       </c>
       <c r="D15" t="n">
-        <v>0.585195</v>
+        <v>0.176559</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.630568</v>
+        <v>0.220702</v>
       </c>
       <c r="C16" t="n">
-        <v>0.584413</v>
+        <v>0.176441</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5911149999999999</v>
+        <v>0.185045</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.649083</v>
+        <v>0.231222</v>
       </c>
       <c r="C17" t="n">
-        <v>0.605544</v>
+        <v>0.181627</v>
       </c>
       <c r="D17" t="n">
-        <v>0.599758</v>
+        <v>0.180861</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.644118</v>
+        <v>0.22596</v>
       </c>
       <c r="C18" t="n">
-        <v>0.626968</v>
+        <v>0.188894</v>
       </c>
       <c r="D18" t="n">
-        <v>0.596294</v>
+        <v>0.185668</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.664112</v>
+        <v>0.238845</v>
       </c>
       <c r="C19" t="n">
-        <v>0.618048</v>
+        <v>0.194591</v>
       </c>
       <c r="D19" t="n">
-        <v>0.619014</v>
+        <v>0.191979</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.658705</v>
+        <v>0.245608</v>
       </c>
       <c r="C20" t="n">
-        <v>0.614124</v>
+        <v>0.205307</v>
       </c>
       <c r="D20" t="n">
-        <v>0.603849</v>
+        <v>0.208363</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.70436</v>
+        <v>0.254548</v>
       </c>
       <c r="C21" t="n">
-        <v>0.643987</v>
+        <v>0.21977</v>
       </c>
       <c r="D21" t="n">
-        <v>0.631676</v>
+        <v>0.221545</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.70162</v>
+        <v>0.281476</v>
       </c>
       <c r="C22" t="n">
-        <v>0.659162</v>
+        <v>0.247176</v>
       </c>
       <c r="D22" t="n">
-        <v>0.640046</v>
+        <v>0.23982</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.709477</v>
+        <v>0.301954</v>
       </c>
       <c r="C23" t="n">
-        <v>0.681755</v>
+        <v>0.288174</v>
       </c>
       <c r="D23" t="n">
-        <v>0.602544</v>
+        <v>0.17253</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.654125</v>
+        <v>0.222289</v>
       </c>
       <c r="C24" t="n">
-        <v>0.598489</v>
+        <v>0.175548</v>
       </c>
       <c r="D24" t="n">
-        <v>0.641975</v>
+        <v>0.180118</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.647129</v>
+        <v>0.219874</v>
       </c>
       <c r="C25" t="n">
-        <v>0.579633</v>
+        <v>0.16981</v>
       </c>
       <c r="D25" t="n">
-        <v>0.586663</v>
+        <v>0.178757</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.656732</v>
+        <v>0.224124</v>
       </c>
       <c r="C26" t="n">
-        <v>0.579754</v>
+        <v>0.174783</v>
       </c>
       <c r="D26" t="n">
-        <v>0.600253</v>
+        <v>0.174767</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.647305</v>
+        <v>0.220709</v>
       </c>
       <c r="C27" t="n">
-        <v>0.607615</v>
+        <v>0.173376</v>
       </c>
       <c r="D27" t="n">
-        <v>0.607043</v>
+        <v>0.18236</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.64817</v>
+        <v>0.220176</v>
       </c>
       <c r="C28" t="n">
-        <v>0.595778</v>
+        <v>0.17917</v>
       </c>
       <c r="D28" t="n">
-        <v>0.603316</v>
+        <v>0.176519</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.650549</v>
+        <v>0.224041</v>
       </c>
       <c r="C29" t="n">
-        <v>0.589282</v>
+        <v>0.181291</v>
       </c>
       <c r="D29" t="n">
-        <v>0.613947</v>
+        <v>0.180838</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.645282</v>
+        <v>0.231966</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6034890000000001</v>
+        <v>0.185496</v>
       </c>
       <c r="D30" t="n">
-        <v>0.625661</v>
+        <v>0.187867</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.673112</v>
+        <v>0.236701</v>
       </c>
       <c r="C31" t="n">
-        <v>0.61169</v>
+        <v>0.182586</v>
       </c>
       <c r="D31" t="n">
-        <v>0.614653</v>
+        <v>0.183027</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.653832</v>
+        <v>0.236862</v>
       </c>
       <c r="C32" t="n">
-        <v>0.589097</v>
+        <v>0.189153</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6280520000000001</v>
+        <v>0.190928</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.674494</v>
+        <v>0.236968</v>
       </c>
       <c r="C33" t="n">
-        <v>0.611006</v>
+        <v>0.203407</v>
       </c>
       <c r="D33" t="n">
-        <v>0.625387</v>
+        <v>0.193153</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.667655</v>
+        <v>0.247133</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6142</v>
+        <v>0.205822</v>
       </c>
       <c r="D34" t="n">
-        <v>0.628699</v>
+        <v>0.207642</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.694003</v>
+        <v>0.256174</v>
       </c>
       <c r="C35" t="n">
-        <v>0.651468</v>
+        <v>0.223007</v>
       </c>
       <c r="D35" t="n">
-        <v>0.637982</v>
+        <v>0.221894</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.707701</v>
+        <v>0.280271</v>
       </c>
       <c r="C36" t="n">
-        <v>0.661969</v>
+        <v>0.252924</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6403759999999999</v>
+        <v>0.243974</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.759953</v>
+        <v>0.307907</v>
       </c>
       <c r="C37" t="n">
-        <v>0.705987</v>
+        <v>0.285792</v>
       </c>
       <c r="D37" t="n">
-        <v>0.614599</v>
+        <v>0.177767</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.660087</v>
+        <v>0.225788</v>
       </c>
       <c r="C38" t="n">
-        <v>0.58523</v>
+        <v>0.179326</v>
       </c>
       <c r="D38" t="n">
-        <v>0.589561</v>
+        <v>0.17672</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.676517</v>
+        <v>0.225239</v>
       </c>
       <c r="C39" t="n">
-        <v>0.604622</v>
+        <v>0.176883</v>
       </c>
       <c r="D39" t="n">
-        <v>0.594517</v>
+        <v>0.177631</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.678606</v>
+        <v>0.224647</v>
       </c>
       <c r="C40" t="n">
-        <v>0.585731</v>
+        <v>0.179436</v>
       </c>
       <c r="D40" t="n">
-        <v>0.600397</v>
+        <v>0.184767</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.667138</v>
+        <v>0.228852</v>
       </c>
       <c r="C41" t="n">
-        <v>0.59207</v>
+        <v>0.182683</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6080759999999999</v>
+        <v>0.177835</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.660012</v>
+        <v>0.228884</v>
       </c>
       <c r="C42" t="n">
-        <v>0.588157</v>
+        <v>0.180608</v>
       </c>
       <c r="D42" t="n">
-        <v>0.61631</v>
+        <v>0.181614</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.690022</v>
+        <v>0.230074</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6007940000000001</v>
+        <v>0.193356</v>
       </c>
       <c r="D43" t="n">
-        <v>0.613328</v>
+        <v>0.188752</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.667764</v>
+        <v>0.229502</v>
       </c>
       <c r="C44" t="n">
-        <v>0.605729</v>
+        <v>0.190092</v>
       </c>
       <c r="D44" t="n">
-        <v>0.605338</v>
+        <v>0.1912</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.666791</v>
+        <v>0.226836</v>
       </c>
       <c r="C45" t="n">
-        <v>0.611882</v>
+        <v>0.191815</v>
       </c>
       <c r="D45" t="n">
-        <v>0.61249</v>
+        <v>0.192221</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.66308</v>
+        <v>0.244788</v>
       </c>
       <c r="C46" t="n">
-        <v>0.624257</v>
+        <v>0.192329</v>
       </c>
       <c r="D46" t="n">
-        <v>0.627974</v>
+        <v>0.189254</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.675756</v>
+        <v>0.239042</v>
       </c>
       <c r="C47" t="n">
-        <v>0.627995</v>
+        <v>0.198001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.615645</v>
+        <v>0.200476</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.677144</v>
+        <v>0.251055</v>
       </c>
       <c r="C48" t="n">
-        <v>0.620216</v>
+        <v>0.207803</v>
       </c>
       <c r="D48" t="n">
-        <v>0.63431</v>
+        <v>0.207117</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.693623</v>
+        <v>0.258636</v>
       </c>
       <c r="C49" t="n">
-        <v>0.649278</v>
+        <v>0.222577</v>
       </c>
       <c r="D49" t="n">
-        <v>0.636675</v>
+        <v>0.221013</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.716751</v>
+        <v>0.273272</v>
       </c>
       <c r="C50" t="n">
-        <v>0.667683</v>
+        <v>0.246729</v>
       </c>
       <c r="D50" t="n">
-        <v>0.655608</v>
+        <v>0.2494</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.733101</v>
+        <v>0.306575</v>
       </c>
       <c r="C51" t="n">
-        <v>0.679751</v>
+        <v>0.276919</v>
       </c>
       <c r="D51" t="n">
-        <v>0.629786</v>
+        <v>0.184619</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.762499</v>
+        <v>0.344366</v>
       </c>
       <c r="C52" t="n">
-        <v>0.730558</v>
+        <v>0.332474</v>
       </c>
       <c r="D52" t="n">
-        <v>0.620592</v>
+        <v>0.18589</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.67742</v>
+        <v>0.233638</v>
       </c>
       <c r="C53" t="n">
-        <v>0.623124</v>
+        <v>0.183105</v>
       </c>
       <c r="D53" t="n">
-        <v>0.626041</v>
+        <v>0.190391</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.707356</v>
+        <v>0.245842</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6251910000000001</v>
+        <v>0.182934</v>
       </c>
       <c r="D54" t="n">
-        <v>0.612456</v>
+        <v>0.19275</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.678122</v>
+        <v>0.246425</v>
       </c>
       <c r="C55" t="n">
-        <v>0.612737</v>
+        <v>0.187291</v>
       </c>
       <c r="D55" t="n">
-        <v>0.611832</v>
+        <v>0.188714</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.681823</v>
+        <v>0.240772</v>
       </c>
       <c r="C56" t="n">
-        <v>0.61442</v>
+        <v>0.191944</v>
       </c>
       <c r="D56" t="n">
-        <v>0.62163</v>
+        <v>0.186762</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.701352</v>
+        <v>0.244776</v>
       </c>
       <c r="C57" t="n">
-        <v>0.617416</v>
+        <v>0.192689</v>
       </c>
       <c r="D57" t="n">
-        <v>0.626627</v>
+        <v>0.185766</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.688924</v>
+        <v>0.246123</v>
       </c>
       <c r="C58" t="n">
-        <v>0.621636</v>
+        <v>0.197789</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6173149999999999</v>
+        <v>0.186956</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6837800000000001</v>
+        <v>0.239255</v>
       </c>
       <c r="C59" t="n">
-        <v>0.645055</v>
+        <v>0.200314</v>
       </c>
       <c r="D59" t="n">
-        <v>0.618847</v>
+        <v>0.191634</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.705915</v>
+        <v>0.248733</v>
       </c>
       <c r="C60" t="n">
-        <v>0.64037</v>
+        <v>0.200878</v>
       </c>
       <c r="D60" t="n">
-        <v>0.647907</v>
+        <v>0.197187</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.701268</v>
+        <v>0.249005</v>
       </c>
       <c r="C61" t="n">
-        <v>0.631452</v>
+        <v>0.212039</v>
       </c>
       <c r="D61" t="n">
-        <v>0.642558</v>
+        <v>0.210404</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.701352</v>
+        <v>0.250275</v>
       </c>
       <c r="C62" t="n">
-        <v>0.64956</v>
+        <v>0.213177</v>
       </c>
       <c r="D62" t="n">
-        <v>0.624958</v>
+        <v>0.217255</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.707555</v>
+        <v>0.272233</v>
       </c>
       <c r="C63" t="n">
-        <v>0.670002</v>
+        <v>0.224168</v>
       </c>
       <c r="D63" t="n">
-        <v>0.658782</v>
+        <v>0.224927</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.737456</v>
+        <v>0.289531</v>
       </c>
       <c r="C64" t="n">
-        <v>0.670947</v>
+        <v>0.261448</v>
       </c>
       <c r="D64" t="n">
-        <v>0.666876</v>
+        <v>0.243443</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.754182</v>
+        <v>0.316383</v>
       </c>
       <c r="C65" t="n">
-        <v>0.709341</v>
+        <v>0.278488</v>
       </c>
       <c r="D65" t="n">
-        <v>0.715648</v>
+        <v>0.281958</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8034019999999999</v>
+        <v>0.355296</v>
       </c>
       <c r="C66" t="n">
-        <v>0.741854</v>
+        <v>0.335418</v>
       </c>
       <c r="D66" t="n">
-        <v>0.660505</v>
+        <v>0.190045</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.727311</v>
+        <v>0.253703</v>
       </c>
       <c r="C67" t="n">
-        <v>0.636094</v>
+        <v>0.201419</v>
       </c>
       <c r="D67" t="n">
-        <v>0.66104</v>
+        <v>0.190729</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.735158</v>
+        <v>0.252862</v>
       </c>
       <c r="C68" t="n">
-        <v>0.645998</v>
+        <v>0.198384</v>
       </c>
       <c r="D68" t="n">
-        <v>0.643916</v>
+        <v>0.18958</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.743628</v>
+        <v>0.24896</v>
       </c>
       <c r="C69" t="n">
-        <v>0.650984</v>
+        <v>0.20435</v>
       </c>
       <c r="D69" t="n">
-        <v>0.643678</v>
+        <v>0.194946</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.725111</v>
+        <v>0.264913</v>
       </c>
       <c r="C70" t="n">
-        <v>0.641629</v>
+        <v>0.205169</v>
       </c>
       <c r="D70" t="n">
-        <v>0.64468</v>
+        <v>0.193243</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.736731</v>
+        <v>0.267783</v>
       </c>
       <c r="C71" t="n">
-        <v>0.660407</v>
+        <v>0.2016</v>
       </c>
       <c r="D71" t="n">
-        <v>0.634363</v>
+        <v>0.197993</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.722543</v>
+        <v>0.271279</v>
       </c>
       <c r="C72" t="n">
-        <v>0.646027</v>
+        <v>0.206494</v>
       </c>
       <c r="D72" t="n">
-        <v>0.659968</v>
+        <v>0.198158</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.727803</v>
+        <v>0.270948</v>
       </c>
       <c r="C73" t="n">
-        <v>0.663385</v>
+        <v>0.216717</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6725680000000001</v>
+        <v>0.207326</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.74112</v>
+        <v>0.262141</v>
       </c>
       <c r="C74" t="n">
-        <v>0.673204</v>
+        <v>0.214939</v>
       </c>
       <c r="D74" t="n">
-        <v>0.643336</v>
+        <v>0.205703</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.738219</v>
+        <v>0.281214</v>
       </c>
       <c r="C75" t="n">
-        <v>0.68138</v>
+        <v>0.226588</v>
       </c>
       <c r="D75" t="n">
-        <v>0.686469</v>
+        <v>0.221728</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7512990000000001</v>
+        <v>0.276773</v>
       </c>
       <c r="C76" t="n">
-        <v>0.695892</v>
+        <v>0.23675</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6844479999999999</v>
+        <v>0.224381</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.76569</v>
+        <v>0.292657</v>
       </c>
       <c r="C77" t="n">
-        <v>0.711032</v>
+        <v>0.250583</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7110919999999999</v>
+        <v>0.232541</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.790712</v>
+        <v>0.318338</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7235549999999999</v>
+        <v>0.26586</v>
       </c>
       <c r="D78" t="n">
-        <v>0.702457</v>
+        <v>0.259646</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.806218</v>
+        <v>0.335104</v>
       </c>
       <c r="C79" t="n">
-        <v>0.769122</v>
+        <v>0.297747</v>
       </c>
       <c r="D79" t="n">
-        <v>0.716183</v>
+        <v>0.285585</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.867456</v>
+        <v>0.389815</v>
       </c>
       <c r="C80" t="n">
-        <v>0.794153</v>
+        <v>0.344574</v>
       </c>
       <c r="D80" t="n">
-        <v>0.670947</v>
+        <v>0.195634</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.754202</v>
+        <v>0.258898</v>
       </c>
       <c r="C81" t="n">
-        <v>0.684103</v>
+        <v>0.205149</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6652</v>
+        <v>0.201198</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.777945</v>
+        <v>0.266088</v>
       </c>
       <c r="C82" t="n">
-        <v>0.665809</v>
+        <v>0.216208</v>
       </c>
       <c r="D82" t="n">
-        <v>0.671028</v>
+        <v>0.201411</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.747014</v>
+        <v>0.271289</v>
       </c>
       <c r="C83" t="n">
-        <v>0.681489</v>
+        <v>0.21025</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6886100000000001</v>
+        <v>0.202848</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.769172</v>
+        <v>0.268664</v>
       </c>
       <c r="C84" t="n">
-        <v>0.692371</v>
+        <v>0.216269</v>
       </c>
       <c r="D84" t="n">
-        <v>0.658728</v>
+        <v>0.202991</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.750753</v>
+        <v>0.274293</v>
       </c>
       <c r="C85" t="n">
-        <v>0.694917</v>
+        <v>0.228312</v>
       </c>
       <c r="D85" t="n">
-        <v>0.658505</v>
+        <v>0.209817</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.746124</v>
+        <v>0.276472</v>
       </c>
       <c r="C86" t="n">
-        <v>0.693943</v>
+        <v>0.23105</v>
       </c>
       <c r="D86" t="n">
-        <v>0.670234</v>
+        <v>0.209459</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.779069</v>
+        <v>0.282681</v>
       </c>
       <c r="C87" t="n">
-        <v>0.714649</v>
+        <v>0.231708</v>
       </c>
       <c r="D87" t="n">
-        <v>0.670312</v>
+        <v>0.21219</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.7731749999999999</v>
+        <v>0.283255</v>
       </c>
       <c r="C88" t="n">
-        <v>0.699802</v>
+        <v>0.233066</v>
       </c>
       <c r="D88" t="n">
-        <v>0.697462</v>
+        <v>0.215327</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.776689</v>
+        <v>0.293208</v>
       </c>
       <c r="C89" t="n">
-        <v>0.718178</v>
+        <v>0.251902</v>
       </c>
       <c r="D89" t="n">
-        <v>0.675601</v>
+        <v>0.226621</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.78261</v>
+        <v>0.3018</v>
       </c>
       <c r="C90" t="n">
-        <v>0.713384</v>
+        <v>0.256397</v>
       </c>
       <c r="D90" t="n">
-        <v>0.694913</v>
+        <v>0.232337</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.7922</v>
+        <v>0.320971</v>
       </c>
       <c r="C91" t="n">
-        <v>0.760179</v>
+        <v>0.26691</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7076519999999999</v>
+        <v>0.247706</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.828914</v>
+        <v>0.334292</v>
       </c>
       <c r="C92" t="n">
-        <v>0.75509</v>
+        <v>0.300597</v>
       </c>
       <c r="D92" t="n">
-        <v>0.741105</v>
+        <v>0.272785</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.859391</v>
+        <v>0.367937</v>
       </c>
       <c r="C93" t="n">
-        <v>0.793434</v>
+        <v>0.326331</v>
       </c>
       <c r="D93" t="n">
-        <v>0.749897</v>
+        <v>0.296013</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.917971</v>
+        <v>0.422836</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8470839999999999</v>
+        <v>0.379572</v>
       </c>
       <c r="D94" t="n">
-        <v>0.68985</v>
+        <v>0.216123</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8079499999999999</v>
+        <v>0.323038</v>
       </c>
       <c r="C95" t="n">
-        <v>0.719579</v>
+        <v>0.245847</v>
       </c>
       <c r="D95" t="n">
-        <v>0.698082</v>
+        <v>0.222398</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.804486</v>
+        <v>0.308658</v>
       </c>
       <c r="C96" t="n">
-        <v>0.730097</v>
+        <v>0.25181</v>
       </c>
       <c r="D96" t="n">
-        <v>0.720822</v>
+        <v>0.221899</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.789728</v>
+        <v>0.30784</v>
       </c>
       <c r="C97" t="n">
-        <v>0.726618</v>
+        <v>0.256289</v>
       </c>
       <c r="D97" t="n">
-        <v>0.688982</v>
+        <v>0.229435</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.825097</v>
+        <v>0.311899</v>
       </c>
       <c r="C98" t="n">
-        <v>0.772195</v>
+        <v>0.25717</v>
       </c>
       <c r="D98" t="n">
-        <v>0.690219</v>
+        <v>0.222603</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.83433</v>
+        <v>0.323239</v>
       </c>
       <c r="C99" t="n">
-        <v>0.746457</v>
+        <v>0.257668</v>
       </c>
       <c r="D99" t="n">
-        <v>0.690526</v>
+        <v>0.231669</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.826732</v>
+        <v>0.325091</v>
       </c>
       <c r="C100" t="n">
-        <v>0.737355</v>
+        <v>0.262505</v>
       </c>
       <c r="D100" t="n">
-        <v>0.70037</v>
+        <v>0.237944</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.844121</v>
+        <v>0.328242</v>
       </c>
       <c r="C101" t="n">
-        <v>0.747293</v>
+        <v>0.270257</v>
       </c>
       <c r="D101" t="n">
-        <v>0.719114</v>
+        <v>0.244185</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.852965</v>
+        <v>0.341516</v>
       </c>
       <c r="C102" t="n">
-        <v>0.765082</v>
+        <v>0.287797</v>
       </c>
       <c r="D102" t="n">
-        <v>0.714688</v>
+        <v>0.242989</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.84343</v>
+        <v>0.352191</v>
       </c>
       <c r="C103" t="n">
-        <v>0.7712869999999999</v>
+        <v>0.295794</v>
       </c>
       <c r="D103" t="n">
-        <v>0.7513</v>
+        <v>0.255732</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.851656</v>
+        <v>0.35582</v>
       </c>
       <c r="C104" t="n">
-        <v>0.799356</v>
+        <v>0.305318</v>
       </c>
       <c r="D104" t="n">
-        <v>0.730804</v>
+        <v>0.261522</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.853123</v>
+        <v>0.373029</v>
       </c>
       <c r="C105" t="n">
-        <v>0.816283</v>
+        <v>0.333534</v>
       </c>
       <c r="D105" t="n">
-        <v>0.737911</v>
+        <v>0.281406</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.91491</v>
+        <v>0.399614</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8473850000000001</v>
+        <v>0.345417</v>
       </c>
       <c r="D106" t="n">
-        <v>0.780475</v>
+        <v>0.304789</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.923297</v>
+        <v>0.416508</v>
       </c>
       <c r="C107" t="n">
-        <v>0.865024</v>
+        <v>0.384991</v>
       </c>
       <c r="D107" t="n">
-        <v>0.784388</v>
+        <v>0.317043</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.975701</v>
+        <v>0.474518</v>
       </c>
       <c r="C108" t="n">
-        <v>0.916617</v>
+        <v>0.429477</v>
       </c>
       <c r="D108" t="n">
-        <v>0.828748</v>
+        <v>0.301881</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.02631</v>
+        <v>0.538724</v>
       </c>
       <c r="C109" t="n">
-        <v>1.01458</v>
+        <v>0.508677</v>
       </c>
       <c r="D109" t="n">
-        <v>0.853816</v>
+        <v>0.29419</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.991103</v>
+        <v>0.396663</v>
       </c>
       <c r="C110" t="n">
-        <v>0.878779</v>
+        <v>0.338821</v>
       </c>
       <c r="D110" t="n">
-        <v>0.858521</v>
+        <v>0.305816</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.969681</v>
+        <v>0.411802</v>
       </c>
       <c r="C111" t="n">
-        <v>0.902879</v>
+        <v>0.334563</v>
       </c>
       <c r="D111" t="n">
-        <v>0.856513</v>
+        <v>0.303012</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.99143</v>
+        <v>0.405857</v>
       </c>
       <c r="C112" t="n">
-        <v>0.900943</v>
+        <v>0.334002</v>
       </c>
       <c r="D112" t="n">
-        <v>0.85387</v>
+        <v>0.307013</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.00264</v>
+        <v>0.404293</v>
       </c>
       <c r="C113" t="n">
-        <v>0.889114</v>
+        <v>0.351029</v>
       </c>
       <c r="D113" t="n">
-        <v>0.861586</v>
+        <v>0.309703</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.986421</v>
+        <v>0.402174</v>
       </c>
       <c r="C114" t="n">
-        <v>0.912219</v>
+        <v>0.35754</v>
       </c>
       <c r="D114" t="n">
-        <v>0.880237</v>
+        <v>0.32071</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.967969</v>
+        <v>0.432558</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9254520000000001</v>
+        <v>0.359768</v>
       </c>
       <c r="D115" t="n">
-        <v>0.909875</v>
+        <v>0.313045</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.00422</v>
+        <v>0.429975</v>
       </c>
       <c r="C116" t="n">
-        <v>0.911398</v>
+        <v>0.37124</v>
       </c>
       <c r="D116" t="n">
-        <v>0.898712</v>
+        <v>0.322236</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.02435</v>
+        <v>0.434738</v>
       </c>
       <c r="C117" t="n">
-        <v>0.948776</v>
+        <v>0.372605</v>
       </c>
       <c r="D117" t="n">
-        <v>0.867119</v>
+        <v>0.326204</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.01986</v>
+        <v>0.44741</v>
       </c>
       <c r="C118" t="n">
-        <v>0.965986</v>
+        <v>0.407067</v>
       </c>
       <c r="D118" t="n">
-        <v>0.896478</v>
+        <v>0.351805</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.00543</v>
+        <v>0.468266</v>
       </c>
       <c r="C119" t="n">
-        <v>0.981953</v>
+        <v>0.410819</v>
       </c>
       <c r="D119" t="n">
-        <v>0.897881</v>
+        <v>0.357696</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.06539</v>
+        <v>0.489212</v>
       </c>
       <c r="C120" t="n">
-        <v>1.00628</v>
+        <v>0.448048</v>
       </c>
       <c r="D120" t="n">
-        <v>0.919138</v>
+        <v>0.378753</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.10889</v>
+        <v>0.505719</v>
       </c>
       <c r="C121" t="n">
-        <v>1.03589</v>
+        <v>0.468353</v>
       </c>
       <c r="D121" t="n">
-        <v>0.940578</v>
+        <v>0.41819</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.16751</v>
+        <v>0.574748</v>
       </c>
       <c r="C122" t="n">
-        <v>1.10111</v>
+        <v>0.507404</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9708830000000001</v>
+        <v>0.44835</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.20571</v>
+        <v>0.627726</v>
       </c>
       <c r="C123" t="n">
-        <v>1.19318</v>
+        <v>0.606301</v>
       </c>
       <c r="D123" t="n">
-        <v>1.12851</v>
+        <v>0.457435</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.27987</v>
+        <v>0.593898</v>
       </c>
       <c r="C124" t="n">
-        <v>1.17283</v>
+        <v>0.503594</v>
       </c>
       <c r="D124" t="n">
-        <v>1.1701</v>
+        <v>0.466084</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.2803</v>
+        <v>0.604944</v>
       </c>
       <c r="C125" t="n">
-        <v>1.13747</v>
+        <v>0.525689</v>
       </c>
       <c r="D125" t="n">
-        <v>1.15989</v>
+        <v>0.481832</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.30125</v>
+        <v>0.607138</v>
       </c>
       <c r="C126" t="n">
-        <v>1.16884</v>
+        <v>0.506514</v>
       </c>
       <c r="D126" t="n">
-        <v>1.11497</v>
+        <v>0.48823</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.3078</v>
+        <v>0.619494</v>
       </c>
       <c r="C127" t="n">
-        <v>1.18741</v>
+        <v>0.532711</v>
       </c>
       <c r="D127" t="n">
-        <v>1.16377</v>
+        <v>0.464581</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.3337</v>
+        <v>0.628697</v>
       </c>
       <c r="C128" t="n">
-        <v>1.1804</v>
+        <v>0.535355</v>
       </c>
       <c r="D128" t="n">
-        <v>1.13418</v>
+        <v>0.49019</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.32175</v>
+        <v>0.625454</v>
       </c>
       <c r="C129" t="n">
-        <v>1.18963</v>
+        <v>0.546111</v>
       </c>
       <c r="D129" t="n">
-        <v>1.14398</v>
+        <v>0.489283</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.39502</v>
+        <v>0.652419</v>
       </c>
       <c r="C130" t="n">
-        <v>1.21746</v>
+        <v>0.556679</v>
       </c>
       <c r="D130" t="n">
-        <v>1.14631</v>
+        <v>0.490006</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.36034</v>
+        <v>0.656385</v>
       </c>
       <c r="C131" t="n">
-        <v>1.28014</v>
+        <v>0.564479</v>
       </c>
       <c r="D131" t="n">
-        <v>1.14375</v>
+        <v>0.50795</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.40762</v>
+        <v>0.653871</v>
       </c>
       <c r="C132" t="n">
-        <v>1.24474</v>
+        <v>0.571477</v>
       </c>
       <c r="D132" t="n">
-        <v>1.14705</v>
+        <v>0.516043</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.39143</v>
+        <v>0.672628</v>
       </c>
       <c r="C133" t="n">
-        <v>1.29163</v>
+        <v>0.586486</v>
       </c>
       <c r="D133" t="n">
-        <v>1.19267</v>
+        <v>0.523302</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.41135</v>
+        <v>0.696835</v>
       </c>
       <c r="C134" t="n">
-        <v>1.30542</v>
+        <v>0.604392</v>
       </c>
       <c r="D134" t="n">
-        <v>1.23524</v>
+        <v>0.542991</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.42421</v>
+        <v>0.742291</v>
       </c>
       <c r="C135" t="n">
-        <v>1.34484</v>
+        <v>0.664972</v>
       </c>
       <c r="D135" t="n">
-        <v>1.23529</v>
+        <v>0.584886</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.57257</v>
+        <v>0.792692</v>
       </c>
       <c r="C136" t="n">
-        <v>1.40269</v>
+        <v>0.720364</v>
       </c>
       <c r="D136" t="n">
-        <v>1.32128</v>
+        <v>0.624603</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.57793</v>
+        <v>0.877454</v>
       </c>
       <c r="C137" t="n">
-        <v>1.51093</v>
+        <v>0.808141</v>
       </c>
       <c r="D137" t="n">
-        <v>1.35178</v>
+        <v>0.593198</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.57716</v>
+        <v>0.777426</v>
       </c>
       <c r="C138" t="n">
-        <v>1.39471</v>
+        <v>0.639032</v>
       </c>
       <c r="D138" t="n">
-        <v>1.36731</v>
+        <v>0.593386</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.57374</v>
+        <v>0.7623450000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>1.40596</v>
+        <v>0.640164</v>
       </c>
       <c r="D139" t="n">
-        <v>1.35426</v>
+        <v>0.5980529999999999</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.5881</v>
+        <v>0.7668700000000001</v>
       </c>
       <c r="C140" t="n">
-        <v>1.41635</v>
+        <v>0.645074</v>
       </c>
       <c r="D140" t="n">
-        <v>1.34602</v>
+        <v>0.598338</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.60422</v>
+        <v>0.78909</v>
       </c>
       <c r="C141" t="n">
-        <v>1.4122</v>
+        <v>0.661776</v>
       </c>
       <c r="D141" t="n">
-        <v>1.35858</v>
+        <v>0.611692</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.61001</v>
+        <v>0.778417</v>
       </c>
       <c r="C142" t="n">
-        <v>1.41098</v>
+        <v>0.652262</v>
       </c>
       <c r="D142" t="n">
-        <v>1.36918</v>
+        <v>0.597356</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.6091</v>
+        <v>0.7947380000000001</v>
       </c>
       <c r="C143" t="n">
-        <v>1.49415</v>
+        <v>0.66035</v>
       </c>
       <c r="D143" t="n">
-        <v>1.37881</v>
+        <v>0.618212</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.21729</v>
+        <v>0.212059</v>
       </c>
       <c r="C2" t="n">
-        <v>0.177801</v>
+        <v>0.177774</v>
       </c>
       <c r="D2" t="n">
-        <v>0.176856</v>
+        <v>0.174708</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.221579</v>
+        <v>0.21381</v>
       </c>
       <c r="C3" t="n">
-        <v>0.184627</v>
+        <v>0.181273</v>
       </c>
       <c r="D3" t="n">
-        <v>0.176744</v>
+        <v>0.179164</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.217255</v>
+        <v>0.224723</v>
       </c>
       <c r="C4" t="n">
-        <v>0.182445</v>
+        <v>0.186017</v>
       </c>
       <c r="D4" t="n">
-        <v>0.181079</v>
+        <v>0.186069</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.230607</v>
+        <v>0.230405</v>
       </c>
       <c r="C5" t="n">
-        <v>0.203091</v>
+        <v>0.196597</v>
       </c>
       <c r="D5" t="n">
-        <v>0.192419</v>
+        <v>0.194522</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.240794</v>
+        <v>0.234802</v>
       </c>
       <c r="C6" t="n">
-        <v>0.20878</v>
+        <v>0.204781</v>
       </c>
       <c r="D6" t="n">
-        <v>0.202591</v>
+        <v>0.20232</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.255848</v>
+        <v>0.25039</v>
       </c>
       <c r="C7" t="n">
-        <v>0.218693</v>
+        <v>0.218749</v>
       </c>
       <c r="D7" t="n">
-        <v>0.21795</v>
+        <v>0.222934</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.285697</v>
+        <v>0.270618</v>
       </c>
       <c r="C8" t="n">
-        <v>0.258248</v>
+        <v>0.254576</v>
       </c>
       <c r="D8" t="n">
-        <v>0.252502</v>
+        <v>0.246534</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.315082</v>
+        <v>0.301914</v>
       </c>
       <c r="C9" t="n">
-        <v>0.289119</v>
+        <v>0.292921</v>
       </c>
       <c r="D9" t="n">
-        <v>0.176816</v>
+        <v>0.174808</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.20812</v>
+        <v>0.214352</v>
       </c>
       <c r="C10" t="n">
-        <v>0.167557</v>
+        <v>0.169752</v>
       </c>
       <c r="D10" t="n">
-        <v>0.172537</v>
+        <v>0.182082</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.218762</v>
+        <v>0.215446</v>
       </c>
       <c r="C11" t="n">
-        <v>0.16953</v>
+        <v>0.172455</v>
       </c>
       <c r="D11" t="n">
-        <v>0.172464</v>
+        <v>0.17752</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.211639</v>
+        <v>0.212937</v>
       </c>
       <c r="C12" t="n">
-        <v>0.170523</v>
+        <v>0.172979</v>
       </c>
       <c r="D12" t="n">
-        <v>0.172478</v>
+        <v>0.173415</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.211655</v>
+        <v>0.2142</v>
       </c>
       <c r="C13" t="n">
-        <v>0.179591</v>
+        <v>0.174512</v>
       </c>
       <c r="D13" t="n">
-        <v>0.172995</v>
+        <v>0.169686</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.22663</v>
+        <v>0.220543</v>
       </c>
       <c r="C14" t="n">
-        <v>0.174583</v>
+        <v>0.172893</v>
       </c>
       <c r="D14" t="n">
-        <v>0.173621</v>
+        <v>0.175676</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.21956</v>
+        <v>0.217064</v>
       </c>
       <c r="C15" t="n">
-        <v>0.176768</v>
+        <v>0.178031</v>
       </c>
       <c r="D15" t="n">
-        <v>0.176559</v>
+        <v>0.175724</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.220702</v>
+        <v>0.220689</v>
       </c>
       <c r="C16" t="n">
-        <v>0.176441</v>
+        <v>0.179526</v>
       </c>
       <c r="D16" t="n">
-        <v>0.185045</v>
+        <v>0.178077</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.231222</v>
+        <v>0.225825</v>
       </c>
       <c r="C17" t="n">
-        <v>0.181627</v>
+        <v>0.183372</v>
       </c>
       <c r="D17" t="n">
-        <v>0.180861</v>
+        <v>0.186823</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.22596</v>
+        <v>0.227109</v>
       </c>
       <c r="C18" t="n">
-        <v>0.188894</v>
+        <v>0.185415</v>
       </c>
       <c r="D18" t="n">
-        <v>0.185668</v>
+        <v>0.187363</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.238845</v>
+        <v>0.236623</v>
       </c>
       <c r="C19" t="n">
-        <v>0.194591</v>
+        <v>0.197524</v>
       </c>
       <c r="D19" t="n">
-        <v>0.191979</v>
+        <v>0.190644</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.245608</v>
+        <v>0.242527</v>
       </c>
       <c r="C20" t="n">
-        <v>0.205307</v>
+        <v>0.19904</v>
       </c>
       <c r="D20" t="n">
-        <v>0.208363</v>
+        <v>0.200807</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.254548</v>
+        <v>0.272221</v>
       </c>
       <c r="C21" t="n">
-        <v>0.21977</v>
+        <v>0.226284</v>
       </c>
       <c r="D21" t="n">
-        <v>0.221545</v>
+        <v>0.21414</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.281476</v>
+        <v>0.2755</v>
       </c>
       <c r="C22" t="n">
-        <v>0.247176</v>
+        <v>0.242271</v>
       </c>
       <c r="D22" t="n">
-        <v>0.23982</v>
+        <v>0.240204</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.301954</v>
+        <v>0.308943</v>
       </c>
       <c r="C23" t="n">
-        <v>0.288174</v>
+        <v>0.283063</v>
       </c>
       <c r="D23" t="n">
-        <v>0.17253</v>
+        <v>0.176437</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.222289</v>
+        <v>0.217503</v>
       </c>
       <c r="C24" t="n">
-        <v>0.175548</v>
+        <v>0.176444</v>
       </c>
       <c r="D24" t="n">
-        <v>0.180118</v>
+        <v>0.175333</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.219874</v>
+        <v>0.221299</v>
       </c>
       <c r="C25" t="n">
-        <v>0.16981</v>
+        <v>0.174454</v>
       </c>
       <c r="D25" t="n">
-        <v>0.178757</v>
+        <v>0.174029</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.224124</v>
+        <v>0.218634</v>
       </c>
       <c r="C26" t="n">
-        <v>0.174783</v>
+        <v>0.173184</v>
       </c>
       <c r="D26" t="n">
-        <v>0.174767</v>
+        <v>0.178581</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.220709</v>
+        <v>0.222744</v>
       </c>
       <c r="C27" t="n">
-        <v>0.173376</v>
+        <v>0.176483</v>
       </c>
       <c r="D27" t="n">
-        <v>0.18236</v>
+        <v>0.179599</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.220176</v>
+        <v>0.22742</v>
       </c>
       <c r="C28" t="n">
-        <v>0.17917</v>
+        <v>0.175711</v>
       </c>
       <c r="D28" t="n">
-        <v>0.176519</v>
+        <v>0.18249</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.224041</v>
+        <v>0.229587</v>
       </c>
       <c r="C29" t="n">
-        <v>0.181291</v>
+        <v>0.183909</v>
       </c>
       <c r="D29" t="n">
-        <v>0.180838</v>
+        <v>0.180481</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.231966</v>
+        <v>0.226777</v>
       </c>
       <c r="C30" t="n">
-        <v>0.185496</v>
+        <v>0.184035</v>
       </c>
       <c r="D30" t="n">
-        <v>0.187867</v>
+        <v>0.183796</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.236701</v>
+        <v>0.225008</v>
       </c>
       <c r="C31" t="n">
-        <v>0.182586</v>
+        <v>0.186455</v>
       </c>
       <c r="D31" t="n">
-        <v>0.183027</v>
+        <v>0.190829</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.236862</v>
+        <v>0.228969</v>
       </c>
       <c r="C32" t="n">
-        <v>0.189153</v>
+        <v>0.188619</v>
       </c>
       <c r="D32" t="n">
-        <v>0.190928</v>
+        <v>0.19448</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.236968</v>
+        <v>0.233133</v>
       </c>
       <c r="C33" t="n">
-        <v>0.203407</v>
+        <v>0.203952</v>
       </c>
       <c r="D33" t="n">
-        <v>0.193153</v>
+        <v>0.195842</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.247133</v>
+        <v>0.246474</v>
       </c>
       <c r="C34" t="n">
-        <v>0.205822</v>
+        <v>0.217679</v>
       </c>
       <c r="D34" t="n">
-        <v>0.207642</v>
+        <v>0.209579</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.256174</v>
+        <v>0.25728</v>
       </c>
       <c r="C35" t="n">
-        <v>0.223007</v>
+        <v>0.22782</v>
       </c>
       <c r="D35" t="n">
-        <v>0.221894</v>
+        <v>0.22706</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.280271</v>
+        <v>0.271702</v>
       </c>
       <c r="C36" t="n">
-        <v>0.252924</v>
+        <v>0.250189</v>
       </c>
       <c r="D36" t="n">
-        <v>0.243974</v>
+        <v>0.249981</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.307907</v>
+        <v>0.299935</v>
       </c>
       <c r="C37" t="n">
-        <v>0.285792</v>
+        <v>0.281541</v>
       </c>
       <c r="D37" t="n">
-        <v>0.177767</v>
+        <v>0.181006</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.225788</v>
+        <v>0.223806</v>
       </c>
       <c r="C38" t="n">
-        <v>0.179326</v>
+        <v>0.179599</v>
       </c>
       <c r="D38" t="n">
-        <v>0.17672</v>
+        <v>0.179479</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.225239</v>
+        <v>0.220452</v>
       </c>
       <c r="C39" t="n">
-        <v>0.176883</v>
+        <v>0.177651</v>
       </c>
       <c r="D39" t="n">
-        <v>0.177631</v>
+        <v>0.181901</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.224647</v>
+        <v>0.221792</v>
       </c>
       <c r="C40" t="n">
-        <v>0.179436</v>
+        <v>0.177424</v>
       </c>
       <c r="D40" t="n">
-        <v>0.184767</v>
+        <v>0.183298</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.228852</v>
+        <v>0.226961</v>
       </c>
       <c r="C41" t="n">
-        <v>0.182683</v>
+        <v>0.181627</v>
       </c>
       <c r="D41" t="n">
-        <v>0.177835</v>
+        <v>0.180303</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.228884</v>
+        <v>0.225024</v>
       </c>
       <c r="C42" t="n">
-        <v>0.180608</v>
+        <v>0.180998</v>
       </c>
       <c r="D42" t="n">
-        <v>0.181614</v>
+        <v>0.179364</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.230074</v>
+        <v>0.237717</v>
       </c>
       <c r="C43" t="n">
-        <v>0.193356</v>
+        <v>0.187559</v>
       </c>
       <c r="D43" t="n">
-        <v>0.188752</v>
+        <v>0.179193</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.229502</v>
+        <v>0.236147</v>
       </c>
       <c r="C44" t="n">
-        <v>0.190092</v>
+        <v>0.185824</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1912</v>
+        <v>0.190615</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.226836</v>
+        <v>0.234242</v>
       </c>
       <c r="C45" t="n">
-        <v>0.191815</v>
+        <v>0.190308</v>
       </c>
       <c r="D45" t="n">
-        <v>0.192221</v>
+        <v>0.19077</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.244788</v>
+        <v>0.237785</v>
       </c>
       <c r="C46" t="n">
-        <v>0.192329</v>
+        <v>0.190254</v>
       </c>
       <c r="D46" t="n">
-        <v>0.189254</v>
+        <v>0.195912</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.239042</v>
+        <v>0.243175</v>
       </c>
       <c r="C47" t="n">
-        <v>0.198001</v>
+        <v>0.197318</v>
       </c>
       <c r="D47" t="n">
-        <v>0.200476</v>
+        <v>0.198785</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.251055</v>
+        <v>0.243553</v>
       </c>
       <c r="C48" t="n">
-        <v>0.207803</v>
+        <v>0.207063</v>
       </c>
       <c r="D48" t="n">
-        <v>0.207117</v>
+        <v>0.206021</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.258636</v>
+        <v>0.259741</v>
       </c>
       <c r="C49" t="n">
-        <v>0.222577</v>
+        <v>0.219083</v>
       </c>
       <c r="D49" t="n">
-        <v>0.221013</v>
+        <v>0.225328</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.273272</v>
+        <v>0.275654</v>
       </c>
       <c r="C50" t="n">
-        <v>0.246729</v>
+        <v>0.241868</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2494</v>
+        <v>0.246718</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.306575</v>
+        <v>0.298088</v>
       </c>
       <c r="C51" t="n">
-        <v>0.276919</v>
+        <v>0.279919</v>
       </c>
       <c r="D51" t="n">
-        <v>0.184619</v>
+        <v>0.181625</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.344366</v>
+        <v>0.343293</v>
       </c>
       <c r="C52" t="n">
-        <v>0.332474</v>
+        <v>0.327443</v>
       </c>
       <c r="D52" t="n">
-        <v>0.18589</v>
+        <v>0.186687</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.233638</v>
+        <v>0.229985</v>
       </c>
       <c r="C53" t="n">
-        <v>0.183105</v>
+        <v>0.192937</v>
       </c>
       <c r="D53" t="n">
-        <v>0.190391</v>
+        <v>0.182798</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.245842</v>
+        <v>0.233353</v>
       </c>
       <c r="C54" t="n">
-        <v>0.182934</v>
+        <v>0.186243</v>
       </c>
       <c r="D54" t="n">
-        <v>0.19275</v>
+        <v>0.184372</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.246425</v>
+        <v>0.238513</v>
       </c>
       <c r="C55" t="n">
-        <v>0.187291</v>
+        <v>0.189504</v>
       </c>
       <c r="D55" t="n">
-        <v>0.188714</v>
+        <v>0.191793</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.240772</v>
+        <v>0.238332</v>
       </c>
       <c r="C56" t="n">
-        <v>0.191944</v>
+        <v>0.193281</v>
       </c>
       <c r="D56" t="n">
-        <v>0.186762</v>
+        <v>0.183639</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.244776</v>
+        <v>0.237755</v>
       </c>
       <c r="C57" t="n">
-        <v>0.192689</v>
+        <v>0.188579</v>
       </c>
       <c r="D57" t="n">
-        <v>0.185766</v>
+        <v>0.188664</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.246123</v>
+        <v>0.243071</v>
       </c>
       <c r="C58" t="n">
-        <v>0.197789</v>
+        <v>0.192744</v>
       </c>
       <c r="D58" t="n">
-        <v>0.186956</v>
+        <v>0.192716</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.239255</v>
+        <v>0.244764</v>
       </c>
       <c r="C59" t="n">
-        <v>0.200314</v>
+        <v>0.198302</v>
       </c>
       <c r="D59" t="n">
-        <v>0.191634</v>
+        <v>0.198875</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.248733</v>
+        <v>0.252044</v>
       </c>
       <c r="C60" t="n">
-        <v>0.200878</v>
+        <v>0.200996</v>
       </c>
       <c r="D60" t="n">
-        <v>0.197187</v>
+        <v>0.192746</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.249005</v>
+        <v>0.251304</v>
       </c>
       <c r="C61" t="n">
-        <v>0.212039</v>
+        <v>0.207047</v>
       </c>
       <c r="D61" t="n">
-        <v>0.210404</v>
+        <v>0.205226</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.250275</v>
+        <v>0.252082</v>
       </c>
       <c r="C62" t="n">
-        <v>0.213177</v>
+        <v>0.216461</v>
       </c>
       <c r="D62" t="n">
-        <v>0.217255</v>
+        <v>0.207176</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.272233</v>
+        <v>0.267515</v>
       </c>
       <c r="C63" t="n">
-        <v>0.224168</v>
+        <v>0.227567</v>
       </c>
       <c r="D63" t="n">
-        <v>0.224927</v>
+        <v>0.227544</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.289531</v>
+        <v>0.296963</v>
       </c>
       <c r="C64" t="n">
-        <v>0.261448</v>
+        <v>0.244365</v>
       </c>
       <c r="D64" t="n">
-        <v>0.243443</v>
+        <v>0.244324</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.316383</v>
+        <v>0.318004</v>
       </c>
       <c r="C65" t="n">
-        <v>0.278488</v>
+        <v>0.271918</v>
       </c>
       <c r="D65" t="n">
-        <v>0.281958</v>
+        <v>0.270319</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.355296</v>
+        <v>0.349645</v>
       </c>
       <c r="C66" t="n">
-        <v>0.335418</v>
+        <v>0.3324</v>
       </c>
       <c r="D66" t="n">
-        <v>0.190045</v>
+        <v>0.188607</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.253703</v>
+        <v>0.254995</v>
       </c>
       <c r="C67" t="n">
-        <v>0.201419</v>
+        <v>0.201137</v>
       </c>
       <c r="D67" t="n">
-        <v>0.190729</v>
+        <v>0.195636</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.252862</v>
+        <v>0.258188</v>
       </c>
       <c r="C68" t="n">
-        <v>0.198384</v>
+        <v>0.206507</v>
       </c>
       <c r="D68" t="n">
-        <v>0.18958</v>
+        <v>0.196971</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.24896</v>
+        <v>0.255292</v>
       </c>
       <c r="C69" t="n">
-        <v>0.20435</v>
+        <v>0.198222</v>
       </c>
       <c r="D69" t="n">
-        <v>0.194946</v>
+        <v>0.194575</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.264913</v>
+        <v>0.250959</v>
       </c>
       <c r="C70" t="n">
-        <v>0.205169</v>
+        <v>0.200267</v>
       </c>
       <c r="D70" t="n">
-        <v>0.193243</v>
+        <v>0.196367</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.267783</v>
+        <v>0.262795</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2016</v>
+        <v>0.206464</v>
       </c>
       <c r="D71" t="n">
-        <v>0.197993</v>
+        <v>0.200871</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.271279</v>
+        <v>0.261244</v>
       </c>
       <c r="C72" t="n">
-        <v>0.206494</v>
+        <v>0.206031</v>
       </c>
       <c r="D72" t="n">
-        <v>0.198158</v>
+        <v>0.200123</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.270948</v>
+        <v>0.257213</v>
       </c>
       <c r="C73" t="n">
-        <v>0.216717</v>
+        <v>0.20973</v>
       </c>
       <c r="D73" t="n">
-        <v>0.207326</v>
+        <v>0.200684</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.262141</v>
+        <v>0.273547</v>
       </c>
       <c r="C74" t="n">
-        <v>0.214939</v>
+        <v>0.213284</v>
       </c>
       <c r="D74" t="n">
-        <v>0.205703</v>
+        <v>0.209081</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.281214</v>
+        <v>0.274863</v>
       </c>
       <c r="C75" t="n">
-        <v>0.226588</v>
+        <v>0.218826</v>
       </c>
       <c r="D75" t="n">
-        <v>0.221728</v>
+        <v>0.214285</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.276773</v>
+        <v>0.298698</v>
       </c>
       <c r="C76" t="n">
-        <v>0.23675</v>
+        <v>0.23933</v>
       </c>
       <c r="D76" t="n">
-        <v>0.224381</v>
+        <v>0.22082</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.292657</v>
+        <v>0.297959</v>
       </c>
       <c r="C77" t="n">
-        <v>0.250583</v>
+        <v>0.243727</v>
       </c>
       <c r="D77" t="n">
-        <v>0.232541</v>
+        <v>0.236564</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.318338</v>
+        <v>0.305585</v>
       </c>
       <c r="C78" t="n">
-        <v>0.26586</v>
+        <v>0.264633</v>
       </c>
       <c r="D78" t="n">
-        <v>0.259646</v>
+        <v>0.254554</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.335104</v>
+        <v>0.328586</v>
       </c>
       <c r="C79" t="n">
-        <v>0.297747</v>
+        <v>0.293982</v>
       </c>
       <c r="D79" t="n">
-        <v>0.285585</v>
+        <v>0.286252</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.389815</v>
+        <v>0.376028</v>
       </c>
       <c r="C80" t="n">
-        <v>0.344574</v>
+        <v>0.344517</v>
       </c>
       <c r="D80" t="n">
-        <v>0.195634</v>
+        <v>0.204349</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.258898</v>
+        <v>0.258536</v>
       </c>
       <c r="C81" t="n">
-        <v>0.205149</v>
+        <v>0.207533</v>
       </c>
       <c r="D81" t="n">
-        <v>0.201198</v>
+        <v>0.197087</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.266088</v>
+        <v>0.270532</v>
       </c>
       <c r="C82" t="n">
-        <v>0.216208</v>
+        <v>0.212886</v>
       </c>
       <c r="D82" t="n">
-        <v>0.201411</v>
+        <v>0.204174</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.271289</v>
+        <v>0.268709</v>
       </c>
       <c r="C83" t="n">
-        <v>0.21025</v>
+        <v>0.216413</v>
       </c>
       <c r="D83" t="n">
-        <v>0.202848</v>
+        <v>0.202678</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.268664</v>
+        <v>0.267185</v>
       </c>
       <c r="C84" t="n">
-        <v>0.216269</v>
+        <v>0.225625</v>
       </c>
       <c r="D84" t="n">
-        <v>0.202991</v>
+        <v>0.201822</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.274293</v>
+        <v>0.27534</v>
       </c>
       <c r="C85" t="n">
-        <v>0.228312</v>
+        <v>0.218668</v>
       </c>
       <c r="D85" t="n">
-        <v>0.209817</v>
+        <v>0.209285</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.276472</v>
+        <v>0.283124</v>
       </c>
       <c r="C86" t="n">
-        <v>0.23105</v>
+        <v>0.227665</v>
       </c>
       <c r="D86" t="n">
-        <v>0.209459</v>
+        <v>0.206774</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.282681</v>
+        <v>0.280568</v>
       </c>
       <c r="C87" t="n">
-        <v>0.231708</v>
+        <v>0.226536</v>
       </c>
       <c r="D87" t="n">
-        <v>0.21219</v>
+        <v>0.208602</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.283255</v>
+        <v>0.283979</v>
       </c>
       <c r="C88" t="n">
-        <v>0.233066</v>
+        <v>0.234043</v>
       </c>
       <c r="D88" t="n">
-        <v>0.215327</v>
+        <v>0.22599</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.293208</v>
+        <v>0.292881</v>
       </c>
       <c r="C89" t="n">
-        <v>0.251902</v>
+        <v>0.241819</v>
       </c>
       <c r="D89" t="n">
-        <v>0.226621</v>
+        <v>0.226361</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.3018</v>
+        <v>0.30011</v>
       </c>
       <c r="C90" t="n">
-        <v>0.256397</v>
+        <v>0.249027</v>
       </c>
       <c r="D90" t="n">
-        <v>0.232337</v>
+        <v>0.229516</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.320971</v>
+        <v>0.317828</v>
       </c>
       <c r="C91" t="n">
-        <v>0.26691</v>
+        <v>0.268565</v>
       </c>
       <c r="D91" t="n">
-        <v>0.247706</v>
+        <v>0.241744</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.334292</v>
+        <v>0.334482</v>
       </c>
       <c r="C92" t="n">
-        <v>0.300597</v>
+        <v>0.295855</v>
       </c>
       <c r="D92" t="n">
-        <v>0.272785</v>
+        <v>0.260507</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.367937</v>
+        <v>0.367114</v>
       </c>
       <c r="C93" t="n">
-        <v>0.326331</v>
+        <v>0.317055</v>
       </c>
       <c r="D93" t="n">
-        <v>0.296013</v>
+        <v>0.291157</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.422836</v>
+        <v>0.418459</v>
       </c>
       <c r="C94" t="n">
-        <v>0.379572</v>
+        <v>0.376731</v>
       </c>
       <c r="D94" t="n">
-        <v>0.216123</v>
+        <v>0.214868</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.323038</v>
+        <v>0.306009</v>
       </c>
       <c r="C95" t="n">
-        <v>0.245847</v>
+        <v>0.252616</v>
       </c>
       <c r="D95" t="n">
-        <v>0.222398</v>
+        <v>0.221891</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.308658</v>
+        <v>0.310532</v>
       </c>
       <c r="C96" t="n">
-        <v>0.25181</v>
+        <v>0.249416</v>
       </c>
       <c r="D96" t="n">
-        <v>0.221899</v>
+        <v>0.220278</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.30784</v>
+        <v>0.306766</v>
       </c>
       <c r="C97" t="n">
-        <v>0.256289</v>
+        <v>0.258673</v>
       </c>
       <c r="D97" t="n">
-        <v>0.229435</v>
+        <v>0.223426</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.311899</v>
+        <v>0.322789</v>
       </c>
       <c r="C98" t="n">
-        <v>0.25717</v>
+        <v>0.263129</v>
       </c>
       <c r="D98" t="n">
-        <v>0.222603</v>
+        <v>0.235914</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.323239</v>
+        <v>0.325651</v>
       </c>
       <c r="C99" t="n">
-        <v>0.257668</v>
+        <v>0.255246</v>
       </c>
       <c r="D99" t="n">
-        <v>0.231669</v>
+        <v>0.22715</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.325091</v>
+        <v>0.337294</v>
       </c>
       <c r="C100" t="n">
-        <v>0.262505</v>
+        <v>0.265497</v>
       </c>
       <c r="D100" t="n">
-        <v>0.237944</v>
+        <v>0.229305</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.328242</v>
+        <v>0.324475</v>
       </c>
       <c r="C101" t="n">
-        <v>0.270257</v>
+        <v>0.274567</v>
       </c>
       <c r="D101" t="n">
-        <v>0.244185</v>
+        <v>0.244932</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.341516</v>
+        <v>0.340289</v>
       </c>
       <c r="C102" t="n">
-        <v>0.287797</v>
+        <v>0.275582</v>
       </c>
       <c r="D102" t="n">
-        <v>0.242989</v>
+        <v>0.251436</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.352191</v>
+        <v>0.342622</v>
       </c>
       <c r="C103" t="n">
-        <v>0.295794</v>
+        <v>0.292781</v>
       </c>
       <c r="D103" t="n">
-        <v>0.255732</v>
+        <v>0.248829</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.35582</v>
+        <v>0.365577</v>
       </c>
       <c r="C104" t="n">
-        <v>0.305318</v>
+        <v>0.307277</v>
       </c>
       <c r="D104" t="n">
-        <v>0.261522</v>
+        <v>0.264793</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.373029</v>
+        <v>0.378234</v>
       </c>
       <c r="C105" t="n">
-        <v>0.333534</v>
+        <v>0.323463</v>
       </c>
       <c r="D105" t="n">
-        <v>0.281406</v>
+        <v>0.272117</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.399614</v>
+        <v>0.398524</v>
       </c>
       <c r="C106" t="n">
-        <v>0.345417</v>
+        <v>0.337085</v>
       </c>
       <c r="D106" t="n">
-        <v>0.304789</v>
+        <v>0.303937</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.416508</v>
+        <v>0.423505</v>
       </c>
       <c r="C107" t="n">
-        <v>0.384991</v>
+        <v>0.38863</v>
       </c>
       <c r="D107" t="n">
-        <v>0.317043</v>
+        <v>0.320637</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.474518</v>
+        <v>0.464397</v>
       </c>
       <c r="C108" t="n">
-        <v>0.429477</v>
+        <v>0.419115</v>
       </c>
       <c r="D108" t="n">
-        <v>0.301881</v>
+        <v>0.308927</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.538724</v>
+        <v>0.549573</v>
       </c>
       <c r="C109" t="n">
-        <v>0.508677</v>
+        <v>0.514564</v>
       </c>
       <c r="D109" t="n">
-        <v>0.29419</v>
+        <v>0.305485</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.396663</v>
+        <v>0.386683</v>
       </c>
       <c r="C110" t="n">
-        <v>0.338821</v>
+        <v>0.326944</v>
       </c>
       <c r="D110" t="n">
-        <v>0.305816</v>
+        <v>0.308039</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.411802</v>
+        <v>0.39224</v>
       </c>
       <c r="C111" t="n">
-        <v>0.334563</v>
+        <v>0.344199</v>
       </c>
       <c r="D111" t="n">
-        <v>0.303012</v>
+        <v>0.302653</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.405857</v>
+        <v>0.406595</v>
       </c>
       <c r="C112" t="n">
-        <v>0.334002</v>
+        <v>0.331456</v>
       </c>
       <c r="D112" t="n">
-        <v>0.307013</v>
+        <v>0.307428</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.404293</v>
+        <v>0.40179</v>
       </c>
       <c r="C113" t="n">
-        <v>0.351029</v>
+        <v>0.367799</v>
       </c>
       <c r="D113" t="n">
-        <v>0.309703</v>
+        <v>0.311998</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.402174</v>
+        <v>0.427892</v>
       </c>
       <c r="C114" t="n">
-        <v>0.35754</v>
+        <v>0.341302</v>
       </c>
       <c r="D114" t="n">
-        <v>0.32071</v>
+        <v>0.316068</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.432558</v>
+        <v>0.428553</v>
       </c>
       <c r="C115" t="n">
-        <v>0.359768</v>
+        <v>0.360679</v>
       </c>
       <c r="D115" t="n">
-        <v>0.313045</v>
+        <v>0.328931</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.429975</v>
+        <v>0.449086</v>
       </c>
       <c r="C116" t="n">
-        <v>0.37124</v>
+        <v>0.354289</v>
       </c>
       <c r="D116" t="n">
-        <v>0.322236</v>
+        <v>0.319674</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.434738</v>
+        <v>0.442163</v>
       </c>
       <c r="C117" t="n">
-        <v>0.372605</v>
+        <v>0.376631</v>
       </c>
       <c r="D117" t="n">
-        <v>0.326204</v>
+        <v>0.333201</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.44741</v>
+        <v>0.43916</v>
       </c>
       <c r="C118" t="n">
-        <v>0.407067</v>
+        <v>0.38323</v>
       </c>
       <c r="D118" t="n">
-        <v>0.351805</v>
+        <v>0.348182</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.468266</v>
+        <v>0.459309</v>
       </c>
       <c r="C119" t="n">
-        <v>0.410819</v>
+        <v>0.405131</v>
       </c>
       <c r="D119" t="n">
-        <v>0.357696</v>
+        <v>0.368412</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.489212</v>
+        <v>0.483732</v>
       </c>
       <c r="C120" t="n">
-        <v>0.448048</v>
+        <v>0.423454</v>
       </c>
       <c r="D120" t="n">
-        <v>0.378753</v>
+        <v>0.388116</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.505719</v>
+        <v>0.533789</v>
       </c>
       <c r="C121" t="n">
-        <v>0.468353</v>
+        <v>0.462717</v>
       </c>
       <c r="D121" t="n">
-        <v>0.41819</v>
+        <v>0.401623</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.574748</v>
+        <v>0.561373</v>
       </c>
       <c r="C122" t="n">
-        <v>0.507404</v>
+        <v>0.513804</v>
       </c>
       <c r="D122" t="n">
-        <v>0.44835</v>
+        <v>0.441713</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.627726</v>
+        <v>0.640583</v>
       </c>
       <c r="C123" t="n">
-        <v>0.606301</v>
+        <v>0.605047</v>
       </c>
       <c r="D123" t="n">
-        <v>0.457435</v>
+        <v>0.476431</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.593898</v>
+        <v>0.58806</v>
       </c>
       <c r="C124" t="n">
-        <v>0.503594</v>
+        <v>0.509154</v>
       </c>
       <c r="D124" t="n">
-        <v>0.466084</v>
+        <v>0.467473</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.604944</v>
+        <v>0.604042</v>
       </c>
       <c r="C125" t="n">
-        <v>0.525689</v>
+        <v>0.512622</v>
       </c>
       <c r="D125" t="n">
-        <v>0.481832</v>
+        <v>0.46483</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.607138</v>
+        <v>0.617484</v>
       </c>
       <c r="C126" t="n">
-        <v>0.506514</v>
+        <v>0.509178</v>
       </c>
       <c r="D126" t="n">
-        <v>0.48823</v>
+        <v>0.484685</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.619494</v>
+        <v>0.609632</v>
       </c>
       <c r="C127" t="n">
-        <v>0.532711</v>
+        <v>0.523729</v>
       </c>
       <c r="D127" t="n">
-        <v>0.464581</v>
+        <v>0.479524</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.628697</v>
+        <v>0.6150910000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>0.535355</v>
+        <v>0.524623</v>
       </c>
       <c r="D128" t="n">
-        <v>0.49019</v>
+        <v>0.470291</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.625454</v>
+        <v>0.638133</v>
       </c>
       <c r="C129" t="n">
-        <v>0.546111</v>
+        <v>0.530819</v>
       </c>
       <c r="D129" t="n">
-        <v>0.489283</v>
+        <v>0.48882</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.652419</v>
+        <v>0.625472</v>
       </c>
       <c r="C130" t="n">
-        <v>0.556679</v>
+        <v>0.537764</v>
       </c>
       <c r="D130" t="n">
-        <v>0.490006</v>
+        <v>0.488943</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.656385</v>
+        <v>0.6487889999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>0.564479</v>
+        <v>0.55585</v>
       </c>
       <c r="D131" t="n">
-        <v>0.50795</v>
+        <v>0.503186</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.653871</v>
+        <v>0.673993</v>
       </c>
       <c r="C132" t="n">
-        <v>0.571477</v>
+        <v>0.582837</v>
       </c>
       <c r="D132" t="n">
-        <v>0.516043</v>
+        <v>0.509171</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.672628</v>
+        <v>0.682249</v>
       </c>
       <c r="C133" t="n">
-        <v>0.586486</v>
+        <v>0.602919</v>
       </c>
       <c r="D133" t="n">
-        <v>0.523302</v>
+        <v>0.511761</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.696835</v>
+        <v>0.712303</v>
       </c>
       <c r="C134" t="n">
-        <v>0.604392</v>
+        <v>0.606723</v>
       </c>
       <c r="D134" t="n">
-        <v>0.542991</v>
+        <v>0.5360200000000001</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.742291</v>
+        <v>0.741815</v>
       </c>
       <c r="C135" t="n">
-        <v>0.664972</v>
+        <v>0.648562</v>
       </c>
       <c r="D135" t="n">
-        <v>0.584886</v>
+        <v>0.564741</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.792692</v>
+        <v>0.787611</v>
       </c>
       <c r="C136" t="n">
-        <v>0.720364</v>
+        <v>0.69828</v>
       </c>
       <c r="D136" t="n">
-        <v>0.624603</v>
+        <v>0.609734</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.877454</v>
+        <v>0.884139</v>
       </c>
       <c r="C137" t="n">
-        <v>0.808141</v>
+        <v>0.796215</v>
       </c>
       <c r="D137" t="n">
-        <v>0.593198</v>
+        <v>0.609792</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.777426</v>
+        <v>0.764025</v>
       </c>
       <c r="C138" t="n">
-        <v>0.639032</v>
+        <v>0.642966</v>
       </c>
       <c r="D138" t="n">
-        <v>0.593386</v>
+        <v>0.608642</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.7623450000000001</v>
+        <v>0.767167</v>
       </c>
       <c r="C139" t="n">
-        <v>0.640164</v>
+        <v>0.6529</v>
       </c>
       <c r="D139" t="n">
-        <v>0.5980529999999999</v>
+        <v>0.60959</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.7668700000000001</v>
+        <v>0.769747</v>
       </c>
       <c r="C140" t="n">
-        <v>0.645074</v>
+        <v>0.644436</v>
       </c>
       <c r="D140" t="n">
-        <v>0.598338</v>
+        <v>0.606913</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.78909</v>
+        <v>0.782767</v>
       </c>
       <c r="C141" t="n">
-        <v>0.661776</v>
+        <v>0.655344</v>
       </c>
       <c r="D141" t="n">
-        <v>0.611692</v>
+        <v>0.614166</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.778417</v>
+        <v>0.801003</v>
       </c>
       <c r="C142" t="n">
-        <v>0.652262</v>
+        <v>0.668571</v>
       </c>
       <c r="D142" t="n">
-        <v>0.597356</v>
+        <v>0.616959</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.7947380000000001</v>
+        <v>0.794355</v>
       </c>
       <c r="C143" t="n">
-        <v>0.66035</v>
+        <v>0.67178</v>
       </c>
       <c r="D143" t="n">
-        <v>0.618212</v>
+        <v>0.617584</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.212059</v>
+        <v>0.0663432</v>
       </c>
       <c r="C2" t="n">
-        <v>0.177774</v>
+        <v>0.0602178</v>
       </c>
       <c r="D2" t="n">
-        <v>0.174708</v>
+        <v>0.0618398</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.21381</v>
+        <v>0.0668467</v>
       </c>
       <c r="C3" t="n">
-        <v>0.181273</v>
+        <v>0.0634391</v>
       </c>
       <c r="D3" t="n">
-        <v>0.179164</v>
+        <v>0.0650249</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.224723</v>
+        <v>0.07194010000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.186017</v>
+        <v>0.0653025</v>
       </c>
       <c r="D4" t="n">
-        <v>0.186069</v>
+        <v>0.0627992</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.230405</v>
+        <v>0.0790154</v>
       </c>
       <c r="C5" t="n">
-        <v>0.196597</v>
+        <v>0.07257039999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.194522</v>
+        <v>0.0710379</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.234802</v>
+        <v>0.0885847</v>
       </c>
       <c r="C6" t="n">
-        <v>0.204781</v>
+        <v>0.08614289999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.20232</v>
+        <v>0.0801221</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.25039</v>
+        <v>0.105059</v>
       </c>
       <c r="C7" t="n">
-        <v>0.218749</v>
+        <v>0.09824090000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.222934</v>
+        <v>0.09166589999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.270618</v>
+        <v>0.122843</v>
       </c>
       <c r="C8" t="n">
-        <v>0.254576</v>
+        <v>0.127676</v>
       </c>
       <c r="D8" t="n">
-        <v>0.246534</v>
+        <v>0.117979</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.301914</v>
+        <v>0.162773</v>
       </c>
       <c r="C9" t="n">
-        <v>0.292921</v>
+        <v>0.160635</v>
       </c>
       <c r="D9" t="n">
-        <v>0.174808</v>
+        <v>0.0539057</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.214352</v>
+        <v>0.0593424</v>
       </c>
       <c r="C10" t="n">
-        <v>0.169752</v>
+        <v>0.0547031</v>
       </c>
       <c r="D10" t="n">
-        <v>0.182082</v>
+        <v>0.0541259</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.215446</v>
+        <v>0.0601504</v>
       </c>
       <c r="C11" t="n">
-        <v>0.172455</v>
+        <v>0.0559345</v>
       </c>
       <c r="D11" t="n">
-        <v>0.17752</v>
+        <v>0.0560241</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.212937</v>
+        <v>0.0619888</v>
       </c>
       <c r="C12" t="n">
-        <v>0.172979</v>
+        <v>0.0580324</v>
       </c>
       <c r="D12" t="n">
-        <v>0.173415</v>
+        <v>0.0565801</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2142</v>
+        <v>0.0632532</v>
       </c>
       <c r="C13" t="n">
-        <v>0.174512</v>
+        <v>0.0573999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.169686</v>
+        <v>0.0573084</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.220543</v>
+        <v>0.0636244</v>
       </c>
       <c r="C14" t="n">
-        <v>0.172893</v>
+        <v>0.0574308</v>
       </c>
       <c r="D14" t="n">
-        <v>0.175676</v>
+        <v>0.0567039</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.217064</v>
+        <v>0.06372949999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.178031</v>
+        <v>0.0584666</v>
       </c>
       <c r="D15" t="n">
-        <v>0.175724</v>
+        <v>0.061151</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.220689</v>
+        <v>0.0678984</v>
       </c>
       <c r="C16" t="n">
-        <v>0.179526</v>
+        <v>0.0618349</v>
       </c>
       <c r="D16" t="n">
-        <v>0.178077</v>
+        <v>0.0627605</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.225825</v>
+        <v>0.069045</v>
       </c>
       <c r="C17" t="n">
-        <v>0.183372</v>
+        <v>0.06423909999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.186823</v>
+        <v>0.06780360000000001</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.227109</v>
+        <v>0.0742307</v>
       </c>
       <c r="C18" t="n">
-        <v>0.185415</v>
+        <v>0.0697984</v>
       </c>
       <c r="D18" t="n">
-        <v>0.187363</v>
+        <v>0.0707376</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.236623</v>
+        <v>0.0783292</v>
       </c>
       <c r="C19" t="n">
-        <v>0.197524</v>
+        <v>0.0779252</v>
       </c>
       <c r="D19" t="n">
-        <v>0.190644</v>
+        <v>0.07782</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.242527</v>
+        <v>0.0938701</v>
       </c>
       <c r="C20" t="n">
-        <v>0.19904</v>
+        <v>0.08642569999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.200807</v>
+        <v>0.0859713</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.272221</v>
+        <v>0.105028</v>
       </c>
       <c r="C21" t="n">
-        <v>0.226284</v>
+        <v>0.0993957</v>
       </c>
       <c r="D21" t="n">
-        <v>0.21414</v>
+        <v>0.09865500000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2755</v>
+        <v>0.125056</v>
       </c>
       <c r="C22" t="n">
-        <v>0.242271</v>
+        <v>0.13187</v>
       </c>
       <c r="D22" t="n">
-        <v>0.240204</v>
+        <v>0.127424</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.308943</v>
+        <v>0.162524</v>
       </c>
       <c r="C23" t="n">
-        <v>0.283063</v>
+        <v>0.168038</v>
       </c>
       <c r="D23" t="n">
-        <v>0.176437</v>
+        <v>0.0569021</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.217503</v>
+        <v>0.0648899</v>
       </c>
       <c r="C24" t="n">
-        <v>0.176444</v>
+        <v>0.0558212</v>
       </c>
       <c r="D24" t="n">
-        <v>0.175333</v>
+        <v>0.059281</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.221299</v>
+        <v>0.0686171</v>
       </c>
       <c r="C25" t="n">
-        <v>0.174454</v>
+        <v>0.0573184</v>
       </c>
       <c r="D25" t="n">
-        <v>0.174029</v>
+        <v>0.0589597</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.218634</v>
+        <v>0.067797</v>
       </c>
       <c r="C26" t="n">
-        <v>0.173184</v>
+        <v>0.0572657</v>
       </c>
       <c r="D26" t="n">
-        <v>0.178581</v>
+        <v>0.0584221</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.222744</v>
+        <v>0.0670399</v>
       </c>
       <c r="C27" t="n">
-        <v>0.176483</v>
+        <v>0.0583278</v>
       </c>
       <c r="D27" t="n">
-        <v>0.179599</v>
+        <v>0.0595067</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.22742</v>
+        <v>0.0687932</v>
       </c>
       <c r="C28" t="n">
-        <v>0.175711</v>
+        <v>0.0600626</v>
       </c>
       <c r="D28" t="n">
-        <v>0.18249</v>
+        <v>0.06247</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.229587</v>
+        <v>0.0683527</v>
       </c>
       <c r="C29" t="n">
-        <v>0.183909</v>
+        <v>0.0619651</v>
       </c>
       <c r="D29" t="n">
-        <v>0.180481</v>
+        <v>0.0610893</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.226777</v>
+        <v>0.0718447</v>
       </c>
       <c r="C30" t="n">
-        <v>0.184035</v>
+        <v>0.062396</v>
       </c>
       <c r="D30" t="n">
-        <v>0.183796</v>
+        <v>0.0657083</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.225008</v>
+        <v>0.0745007</v>
       </c>
       <c r="C31" t="n">
-        <v>0.186455</v>
+        <v>0.0659492</v>
       </c>
       <c r="D31" t="n">
-        <v>0.190829</v>
+        <v>0.0694389</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.228969</v>
+        <v>0.0790151</v>
       </c>
       <c r="C32" t="n">
-        <v>0.188619</v>
+        <v>0.0711415</v>
       </c>
       <c r="D32" t="n">
-        <v>0.19448</v>
+        <v>0.0723641</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.233133</v>
+        <v>0.08459659999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.203952</v>
+        <v>0.07609870000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.195842</v>
+        <v>0.080164</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.246474</v>
+        <v>0.0897854</v>
       </c>
       <c r="C34" t="n">
-        <v>0.217679</v>
+        <v>0.0866397</v>
       </c>
       <c r="D34" t="n">
-        <v>0.209579</v>
+        <v>0.0884103</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.25728</v>
+        <v>0.10085</v>
       </c>
       <c r="C35" t="n">
-        <v>0.22782</v>
+        <v>0.103239</v>
       </c>
       <c r="D35" t="n">
-        <v>0.22706</v>
+        <v>0.100121</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.271702</v>
+        <v>0.12531</v>
       </c>
       <c r="C36" t="n">
-        <v>0.250189</v>
+        <v>0.124167</v>
       </c>
       <c r="D36" t="n">
-        <v>0.249981</v>
+        <v>0.124675</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.299935</v>
+        <v>0.157665</v>
       </c>
       <c r="C37" t="n">
-        <v>0.281541</v>
+        <v>0.163277</v>
       </c>
       <c r="D37" t="n">
-        <v>0.181006</v>
+        <v>0.0587056</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.223806</v>
+        <v>0.06899950000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.179599</v>
+        <v>0.0578237</v>
       </c>
       <c r="D38" t="n">
-        <v>0.179479</v>
+        <v>0.0601642</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.220452</v>
+        <v>0.06994209999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.177651</v>
+        <v>0.0598401</v>
       </c>
       <c r="D39" t="n">
-        <v>0.181901</v>
+        <v>0.0621719</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.221792</v>
+        <v>0.0722172</v>
       </c>
       <c r="C40" t="n">
-        <v>0.177424</v>
+        <v>0.0595789</v>
       </c>
       <c r="D40" t="n">
-        <v>0.183298</v>
+        <v>0.06309670000000001</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.226961</v>
+        <v>0.0732577</v>
       </c>
       <c r="C41" t="n">
-        <v>0.181627</v>
+        <v>0.0612003</v>
       </c>
       <c r="D41" t="n">
-        <v>0.180303</v>
+        <v>0.0622348</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.225024</v>
+        <v>0.0717739</v>
       </c>
       <c r="C42" t="n">
-        <v>0.180998</v>
+        <v>0.0618416</v>
       </c>
       <c r="D42" t="n">
-        <v>0.179364</v>
+        <v>0.06349970000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.237717</v>
+        <v>0.0720799</v>
       </c>
       <c r="C43" t="n">
-        <v>0.187559</v>
+        <v>0.0652712</v>
       </c>
       <c r="D43" t="n">
-        <v>0.179193</v>
+        <v>0.0654356</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.236147</v>
+        <v>0.0756136</v>
       </c>
       <c r="C44" t="n">
-        <v>0.185824</v>
+        <v>0.0646186</v>
       </c>
       <c r="D44" t="n">
-        <v>0.190615</v>
+        <v>0.0664115</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.234242</v>
+        <v>0.0792257</v>
       </c>
       <c r="C45" t="n">
-        <v>0.190308</v>
+        <v>0.0716591</v>
       </c>
       <c r="D45" t="n">
-        <v>0.19077</v>
+        <v>0.0703674</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.237785</v>
+        <v>0.0799151</v>
       </c>
       <c r="C46" t="n">
-        <v>0.190254</v>
+        <v>0.07298250000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.195912</v>
+        <v>0.07142370000000001</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.243175</v>
+        <v>0.0849878</v>
       </c>
       <c r="C47" t="n">
-        <v>0.197318</v>
+        <v>0.08394409999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.198785</v>
+        <v>0.0788663</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.243553</v>
+        <v>0.092006</v>
       </c>
       <c r="C48" t="n">
-        <v>0.207063</v>
+        <v>0.0886405</v>
       </c>
       <c r="D48" t="n">
-        <v>0.206021</v>
+        <v>0.0875297</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.259741</v>
+        <v>0.102424</v>
       </c>
       <c r="C49" t="n">
-        <v>0.219083</v>
+        <v>0.0994935</v>
       </c>
       <c r="D49" t="n">
-        <v>0.225328</v>
+        <v>0.0993507</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.275654</v>
+        <v>0.119101</v>
       </c>
       <c r="C50" t="n">
-        <v>0.241868</v>
+        <v>0.119516</v>
       </c>
       <c r="D50" t="n">
-        <v>0.246718</v>
+        <v>0.126469</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.298088</v>
+        <v>0.148882</v>
       </c>
       <c r="C51" t="n">
-        <v>0.279919</v>
+        <v>0.145424</v>
       </c>
       <c r="D51" t="n">
-        <v>0.181625</v>
+        <v>0.0649639</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.343293</v>
+        <v>0.189312</v>
       </c>
       <c r="C52" t="n">
-        <v>0.327443</v>
+        <v>0.196853</v>
       </c>
       <c r="D52" t="n">
-        <v>0.186687</v>
+        <v>0.065065</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.229985</v>
+        <v>0.0814739</v>
       </c>
       <c r="C53" t="n">
-        <v>0.192937</v>
+        <v>0.0676132</v>
       </c>
       <c r="D53" t="n">
-        <v>0.182798</v>
+        <v>0.06424249999999999</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.233353</v>
+        <v>0.0807978</v>
       </c>
       <c r="C54" t="n">
-        <v>0.186243</v>
+        <v>0.0660867</v>
       </c>
       <c r="D54" t="n">
-        <v>0.184372</v>
+        <v>0.0644281</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.238513</v>
+        <v>0.0783712</v>
       </c>
       <c r="C55" t="n">
-        <v>0.189504</v>
+        <v>0.067746</v>
       </c>
       <c r="D55" t="n">
-        <v>0.191793</v>
+        <v>0.0673957</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.238332</v>
+        <v>0.0796589</v>
       </c>
       <c r="C56" t="n">
-        <v>0.193281</v>
+        <v>0.06906909999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.183639</v>
+        <v>0.0690047</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.237755</v>
+        <v>0.0819536</v>
       </c>
       <c r="C57" t="n">
-        <v>0.188579</v>
+        <v>0.07207180000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.188664</v>
+        <v>0.0703681</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.243071</v>
+        <v>0.08486349999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.192744</v>
+        <v>0.0744268</v>
       </c>
       <c r="D58" t="n">
-        <v>0.192716</v>
+        <v>0.07157719999999999</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.244764</v>
+        <v>0.0864031</v>
       </c>
       <c r="C59" t="n">
-        <v>0.198302</v>
+        <v>0.08060639999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.198875</v>
+        <v>0.07553799999999999</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.252044</v>
+        <v>0.08899600000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.200996</v>
+        <v>0.0784381</v>
       </c>
       <c r="D60" t="n">
-        <v>0.192746</v>
+        <v>0.076811</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.251304</v>
+        <v>0.09462950000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.207047</v>
+        <v>0.08532289999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.205226</v>
+        <v>0.0825688</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.252082</v>
+        <v>0.0999847</v>
       </c>
       <c r="C62" t="n">
-        <v>0.216461</v>
+        <v>0.096333</v>
       </c>
       <c r="D62" t="n">
-        <v>0.207176</v>
+        <v>0.0902231</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.267515</v>
+        <v>0.115726</v>
       </c>
       <c r="C63" t="n">
-        <v>0.227567</v>
+        <v>0.104435</v>
       </c>
       <c r="D63" t="n">
-        <v>0.227544</v>
+        <v>0.101765</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.296963</v>
+        <v>0.124984</v>
       </c>
       <c r="C64" t="n">
-        <v>0.244365</v>
+        <v>0.127818</v>
       </c>
       <c r="D64" t="n">
-        <v>0.244324</v>
+        <v>0.121831</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.318004</v>
+        <v>0.156847</v>
       </c>
       <c r="C65" t="n">
-        <v>0.271918</v>
+        <v>0.157365</v>
       </c>
       <c r="D65" t="n">
-        <v>0.270319</v>
+        <v>0.151002</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.349645</v>
+        <v>0.193212</v>
       </c>
       <c r="C66" t="n">
-        <v>0.3324</v>
+        <v>0.199474</v>
       </c>
       <c r="D66" t="n">
-        <v>0.188607</v>
+        <v>0.07239520000000001</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.254995</v>
+        <v>0.0921207</v>
       </c>
       <c r="C67" t="n">
-        <v>0.201137</v>
+        <v>0.0805761</v>
       </c>
       <c r="D67" t="n">
-        <v>0.195636</v>
+        <v>0.0704819</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.258188</v>
+        <v>0.095843</v>
       </c>
       <c r="C68" t="n">
-        <v>0.206507</v>
+        <v>0.0774204</v>
       </c>
       <c r="D68" t="n">
-        <v>0.196971</v>
+        <v>0.0729409</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.255292</v>
+        <v>0.0969761</v>
       </c>
       <c r="C69" t="n">
-        <v>0.198222</v>
+        <v>0.07958750000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.194575</v>
+        <v>0.0738726</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.250959</v>
+        <v>0.0975017</v>
       </c>
       <c r="C70" t="n">
-        <v>0.200267</v>
+        <v>0.0788325</v>
       </c>
       <c r="D70" t="n">
-        <v>0.196367</v>
+        <v>0.0761656</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.262795</v>
+        <v>0.101022</v>
       </c>
       <c r="C71" t="n">
-        <v>0.206464</v>
+        <v>0.0837195</v>
       </c>
       <c r="D71" t="n">
-        <v>0.200871</v>
+        <v>0.07788440000000001</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.261244</v>
+        <v>0.100402</v>
       </c>
       <c r="C72" t="n">
-        <v>0.206031</v>
+        <v>0.0871169</v>
       </c>
       <c r="D72" t="n">
-        <v>0.200123</v>
+        <v>0.08020389999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.257213</v>
+        <v>0.108201</v>
       </c>
       <c r="C73" t="n">
-        <v>0.20973</v>
+        <v>0.0892662</v>
       </c>
       <c r="D73" t="n">
-        <v>0.200684</v>
+        <v>0.0818354</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.273547</v>
+        <v>0.10708</v>
       </c>
       <c r="C74" t="n">
-        <v>0.213284</v>
+        <v>0.0950049</v>
       </c>
       <c r="D74" t="n">
-        <v>0.209081</v>
+        <v>0.086686</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.274863</v>
+        <v>0.120079</v>
       </c>
       <c r="C75" t="n">
-        <v>0.218826</v>
+        <v>0.100031</v>
       </c>
       <c r="D75" t="n">
-        <v>0.214285</v>
+        <v>0.09662419999999999</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.298698</v>
+        <v>0.123389</v>
       </c>
       <c r="C76" t="n">
-        <v>0.23933</v>
+        <v>0.109534</v>
       </c>
       <c r="D76" t="n">
-        <v>0.22082</v>
+        <v>0.100162</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.297959</v>
+        <v>0.13329</v>
       </c>
       <c r="C77" t="n">
-        <v>0.243727</v>
+        <v>0.125567</v>
       </c>
       <c r="D77" t="n">
-        <v>0.236564</v>
+        <v>0.115973</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.305585</v>
+        <v>0.143845</v>
       </c>
       <c r="C78" t="n">
-        <v>0.264633</v>
+        <v>0.137989</v>
       </c>
       <c r="D78" t="n">
-        <v>0.254554</v>
+        <v>0.129325</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.328586</v>
+        <v>0.173023</v>
       </c>
       <c r="C79" t="n">
-        <v>0.293982</v>
+        <v>0.169132</v>
       </c>
       <c r="D79" t="n">
-        <v>0.286252</v>
+        <v>0.161759</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.376028</v>
+        <v>0.209816</v>
       </c>
       <c r="C80" t="n">
-        <v>0.344517</v>
+        <v>0.212733</v>
       </c>
       <c r="D80" t="n">
-        <v>0.204349</v>
+        <v>0.0805461</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.258536</v>
+        <v>0.111535</v>
       </c>
       <c r="C81" t="n">
-        <v>0.207533</v>
+        <v>0.0959786</v>
       </c>
       <c r="D81" t="n">
-        <v>0.197087</v>
+        <v>0.0823636</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.270532</v>
+        <v>0.115893</v>
       </c>
       <c r="C82" t="n">
-        <v>0.212886</v>
+        <v>0.100532</v>
       </c>
       <c r="D82" t="n">
-        <v>0.204174</v>
+        <v>0.086021</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.268709</v>
+        <v>0.117981</v>
       </c>
       <c r="C83" t="n">
-        <v>0.216413</v>
+        <v>0.0983402</v>
       </c>
       <c r="D83" t="n">
-        <v>0.202678</v>
+        <v>0.0832541</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.267185</v>
+        <v>0.122438</v>
       </c>
       <c r="C84" t="n">
-        <v>0.225625</v>
+        <v>0.101587</v>
       </c>
       <c r="D84" t="n">
-        <v>0.201822</v>
+        <v>0.08788990000000001</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.27534</v>
+        <v>0.131128</v>
       </c>
       <c r="C85" t="n">
-        <v>0.218668</v>
+        <v>0.114756</v>
       </c>
       <c r="D85" t="n">
-        <v>0.209285</v>
+        <v>0.0907326</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.283124</v>
+        <v>0.130726</v>
       </c>
       <c r="C86" t="n">
-        <v>0.227665</v>
+        <v>0.103868</v>
       </c>
       <c r="D86" t="n">
-        <v>0.206774</v>
+        <v>0.0945923</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.280568</v>
+        <v>0.132458</v>
       </c>
       <c r="C87" t="n">
-        <v>0.226536</v>
+        <v>0.111102</v>
       </c>
       <c r="D87" t="n">
-        <v>0.208602</v>
+        <v>0.10181</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.283979</v>
+        <v>0.135492</v>
       </c>
       <c r="C88" t="n">
-        <v>0.234043</v>
+        <v>0.115374</v>
       </c>
       <c r="D88" t="n">
-        <v>0.22599</v>
+        <v>0.100655</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.292881</v>
+        <v>0.143737</v>
       </c>
       <c r="C89" t="n">
-        <v>0.241819</v>
+        <v>0.126673</v>
       </c>
       <c r="D89" t="n">
-        <v>0.226361</v>
+        <v>0.108048</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.30011</v>
+        <v>0.145337</v>
       </c>
       <c r="C90" t="n">
-        <v>0.249027</v>
+        <v>0.130188</v>
       </c>
       <c r="D90" t="n">
-        <v>0.229516</v>
+        <v>0.114416</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.317828</v>
+        <v>0.154561</v>
       </c>
       <c r="C91" t="n">
-        <v>0.268565</v>
+        <v>0.147291</v>
       </c>
       <c r="D91" t="n">
-        <v>0.241744</v>
+        <v>0.127622</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.334482</v>
+        <v>0.174403</v>
       </c>
       <c r="C92" t="n">
-        <v>0.295855</v>
+        <v>0.168467</v>
       </c>
       <c r="D92" t="n">
-        <v>0.260507</v>
+        <v>0.142534</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.367114</v>
+        <v>0.1984</v>
       </c>
       <c r="C93" t="n">
-        <v>0.317055</v>
+        <v>0.189286</v>
       </c>
       <c r="D93" t="n">
-        <v>0.291157</v>
+        <v>0.171049</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.418459</v>
+        <v>0.237598</v>
       </c>
       <c r="C94" t="n">
-        <v>0.376731</v>
+        <v>0.2279</v>
       </c>
       <c r="D94" t="n">
-        <v>0.214868</v>
+        <v>0.10101</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.306009</v>
+        <v>0.139749</v>
       </c>
       <c r="C95" t="n">
-        <v>0.252616</v>
+        <v>0.122365</v>
       </c>
       <c r="D95" t="n">
-        <v>0.221891</v>
+        <v>0.100146</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.310532</v>
+        <v>0.14365</v>
       </c>
       <c r="C96" t="n">
-        <v>0.249416</v>
+        <v>0.120842</v>
       </c>
       <c r="D96" t="n">
-        <v>0.220278</v>
+        <v>0.102446</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.306766</v>
+        <v>0.143191</v>
       </c>
       <c r="C97" t="n">
-        <v>0.258673</v>
+        <v>0.123861</v>
       </c>
       <c r="D97" t="n">
-        <v>0.223426</v>
+        <v>0.105894</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.322789</v>
+        <v>0.151352</v>
       </c>
       <c r="C98" t="n">
-        <v>0.263129</v>
+        <v>0.128193</v>
       </c>
       <c r="D98" t="n">
-        <v>0.235914</v>
+        <v>0.107392</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.325651</v>
+        <v>0.148611</v>
       </c>
       <c r="C99" t="n">
-        <v>0.255246</v>
+        <v>0.130652</v>
       </c>
       <c r="D99" t="n">
-        <v>0.22715</v>
+        <v>0.10856</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.337294</v>
+        <v>0.159511</v>
       </c>
       <c r="C100" t="n">
-        <v>0.265497</v>
+        <v>0.136525</v>
       </c>
       <c r="D100" t="n">
-        <v>0.229305</v>
+        <v>0.111789</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.324475</v>
+        <v>0.161058</v>
       </c>
       <c r="C101" t="n">
-        <v>0.274567</v>
+        <v>0.141619</v>
       </c>
       <c r="D101" t="n">
-        <v>0.244932</v>
+        <v>0.118214</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.340289</v>
+        <v>0.1638</v>
       </c>
       <c r="C102" t="n">
-        <v>0.275582</v>
+        <v>0.149979</v>
       </c>
       <c r="D102" t="n">
-        <v>0.251436</v>
+        <v>0.126074</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.342622</v>
+        <v>0.172162</v>
       </c>
       <c r="C103" t="n">
-        <v>0.292781</v>
+        <v>0.158796</v>
       </c>
       <c r="D103" t="n">
-        <v>0.248829</v>
+        <v>0.128049</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.365577</v>
+        <v>0.182031</v>
       </c>
       <c r="C104" t="n">
-        <v>0.307277</v>
+        <v>0.170567</v>
       </c>
       <c r="D104" t="n">
-        <v>0.264793</v>
+        <v>0.134095</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.378234</v>
+        <v>0.195053</v>
       </c>
       <c r="C105" t="n">
-        <v>0.323463</v>
+        <v>0.17852</v>
       </c>
       <c r="D105" t="n">
-        <v>0.272117</v>
+        <v>0.144394</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.398524</v>
+        <v>0.209272</v>
       </c>
       <c r="C106" t="n">
-        <v>0.337085</v>
+        <v>0.197648</v>
       </c>
       <c r="D106" t="n">
-        <v>0.303937</v>
+        <v>0.16012</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.423505</v>
+        <v>0.236626</v>
       </c>
       <c r="C107" t="n">
-        <v>0.38863</v>
+        <v>0.230515</v>
       </c>
       <c r="D107" t="n">
-        <v>0.320637</v>
+        <v>0.187606</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.464397</v>
+        <v>0.277478</v>
       </c>
       <c r="C108" t="n">
-        <v>0.419115</v>
+        <v>0.275915</v>
       </c>
       <c r="D108" t="n">
-        <v>0.308927</v>
+        <v>0.180294</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.549573</v>
+        <v>0.353376</v>
       </c>
       <c r="C109" t="n">
-        <v>0.514564</v>
+        <v>0.35297</v>
       </c>
       <c r="D109" t="n">
-        <v>0.305485</v>
+        <v>0.170794</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.386683</v>
+        <v>0.223541</v>
       </c>
       <c r="C110" t="n">
-        <v>0.326944</v>
+        <v>0.200022</v>
       </c>
       <c r="D110" t="n">
-        <v>0.308039</v>
+        <v>0.1749</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.39224</v>
+        <v>0.228677</v>
       </c>
       <c r="C111" t="n">
-        <v>0.344199</v>
+        <v>0.202625</v>
       </c>
       <c r="D111" t="n">
-        <v>0.302653</v>
+        <v>0.18023</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.406595</v>
+        <v>0.240582</v>
       </c>
       <c r="C112" t="n">
-        <v>0.331456</v>
+        <v>0.198722</v>
       </c>
       <c r="D112" t="n">
-        <v>0.307428</v>
+        <v>0.187324</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.40179</v>
+        <v>0.238575</v>
       </c>
       <c r="C113" t="n">
-        <v>0.367799</v>
+        <v>0.201959</v>
       </c>
       <c r="D113" t="n">
-        <v>0.311998</v>
+        <v>0.185291</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.427892</v>
+        <v>0.229884</v>
       </c>
       <c r="C114" t="n">
-        <v>0.341302</v>
+        <v>0.210806</v>
       </c>
       <c r="D114" t="n">
-        <v>0.316068</v>
+        <v>0.184626</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.428553</v>
+        <v>0.242735</v>
       </c>
       <c r="C115" t="n">
-        <v>0.360679</v>
+        <v>0.224796</v>
       </c>
       <c r="D115" t="n">
-        <v>0.328931</v>
+        <v>0.196241</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.449086</v>
+        <v>0.247922</v>
       </c>
       <c r="C116" t="n">
-        <v>0.354289</v>
+        <v>0.220215</v>
       </c>
       <c r="D116" t="n">
-        <v>0.319674</v>
+        <v>0.192996</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.442163</v>
+        <v>0.25171</v>
       </c>
       <c r="C117" t="n">
-        <v>0.376631</v>
+        <v>0.228365</v>
       </c>
       <c r="D117" t="n">
-        <v>0.333201</v>
+        <v>0.201266</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.43916</v>
+        <v>0.271687</v>
       </c>
       <c r="C118" t="n">
-        <v>0.38323</v>
+        <v>0.241435</v>
       </c>
       <c r="D118" t="n">
-        <v>0.348182</v>
+        <v>0.206668</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.459309</v>
+        <v>0.265784</v>
       </c>
       <c r="C119" t="n">
-        <v>0.405131</v>
+        <v>0.248</v>
       </c>
       <c r="D119" t="n">
-        <v>0.368412</v>
+        <v>0.22679</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.483732</v>
+        <v>0.29139</v>
       </c>
       <c r="C120" t="n">
-        <v>0.423454</v>
+        <v>0.27285</v>
       </c>
       <c r="D120" t="n">
-        <v>0.388116</v>
+        <v>0.230709</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.533789</v>
+        <v>0.325312</v>
       </c>
       <c r="C121" t="n">
-        <v>0.462717</v>
+        <v>0.297939</v>
       </c>
       <c r="D121" t="n">
-        <v>0.401623</v>
+        <v>0.251748</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.561373</v>
+        <v>0.367004</v>
       </c>
       <c r="C122" t="n">
-        <v>0.513804</v>
+        <v>0.345158</v>
       </c>
       <c r="D122" t="n">
-        <v>0.441713</v>
+        <v>0.301101</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.640583</v>
+        <v>0.425462</v>
       </c>
       <c r="C123" t="n">
-        <v>0.605047</v>
+        <v>0.440369</v>
       </c>
       <c r="D123" t="n">
-        <v>0.476431</v>
+        <v>0.274792</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.58806</v>
+        <v>0.378015</v>
       </c>
       <c r="C124" t="n">
-        <v>0.509154</v>
+        <v>0.307033</v>
       </c>
       <c r="D124" t="n">
-        <v>0.467473</v>
+        <v>0.282433</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.604042</v>
+        <v>0.365969</v>
       </c>
       <c r="C125" t="n">
-        <v>0.512622</v>
+        <v>0.312632</v>
       </c>
       <c r="D125" t="n">
-        <v>0.46483</v>
+        <v>0.289039</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.617484</v>
+        <v>0.3742</v>
       </c>
       <c r="C126" t="n">
-        <v>0.509178</v>
+        <v>0.313302</v>
       </c>
       <c r="D126" t="n">
-        <v>0.484685</v>
+        <v>0.279397</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.609632</v>
+        <v>0.384994</v>
       </c>
       <c r="C127" t="n">
-        <v>0.523729</v>
+        <v>0.318436</v>
       </c>
       <c r="D127" t="n">
-        <v>0.479524</v>
+        <v>0.298666</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.6150910000000001</v>
+        <v>0.382569</v>
       </c>
       <c r="C128" t="n">
-        <v>0.524623</v>
+        <v>0.330543</v>
       </c>
       <c r="D128" t="n">
-        <v>0.470291</v>
+        <v>0.293703</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.638133</v>
+        <v>0.398858</v>
       </c>
       <c r="C129" t="n">
-        <v>0.530819</v>
+        <v>0.327249</v>
       </c>
       <c r="D129" t="n">
-        <v>0.48882</v>
+        <v>0.296283</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.625472</v>
+        <v>0.402821</v>
       </c>
       <c r="C130" t="n">
-        <v>0.537764</v>
+        <v>0.337075</v>
       </c>
       <c r="D130" t="n">
-        <v>0.488943</v>
+        <v>0.303141</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.6487889999999999</v>
+        <v>0.413521</v>
       </c>
       <c r="C131" t="n">
-        <v>0.55585</v>
+        <v>0.339624</v>
       </c>
       <c r="D131" t="n">
-        <v>0.503186</v>
+        <v>0.311388</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.673993</v>
+        <v>0.413475</v>
       </c>
       <c r="C132" t="n">
-        <v>0.582837</v>
+        <v>0.358761</v>
       </c>
       <c r="D132" t="n">
-        <v>0.509171</v>
+        <v>0.32134</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.682249</v>
+        <v>0.4182</v>
       </c>
       <c r="C133" t="n">
-        <v>0.602919</v>
+        <v>0.372639</v>
       </c>
       <c r="D133" t="n">
-        <v>0.511761</v>
+        <v>0.326521</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.712303</v>
+        <v>0.436609</v>
       </c>
       <c r="C134" t="n">
-        <v>0.606723</v>
+        <v>0.384808</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5360200000000001</v>
+        <v>0.34753</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.741815</v>
+        <v>0.478278</v>
       </c>
       <c r="C135" t="n">
-        <v>0.648562</v>
+        <v>0.431565</v>
       </c>
       <c r="D135" t="n">
-        <v>0.564741</v>
+        <v>0.368182</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.787611</v>
+        <v>0.512042</v>
       </c>
       <c r="C136" t="n">
-        <v>0.69828</v>
+        <v>0.484502</v>
       </c>
       <c r="D136" t="n">
-        <v>0.609734</v>
+        <v>0.405092</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.884139</v>
+        <v>0.5727640000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.796215</v>
+        <v>0.571202</v>
       </c>
       <c r="D137" t="n">
-        <v>0.609792</v>
+        <v>0.347113</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.764025</v>
+        <v>0.466051</v>
       </c>
       <c r="C138" t="n">
-        <v>0.642966</v>
+        <v>0.362482</v>
       </c>
       <c r="D138" t="n">
-        <v>0.608642</v>
+        <v>0.340023</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.767167</v>
+        <v>0.463876</v>
       </c>
       <c r="C139" t="n">
-        <v>0.6529</v>
+        <v>0.366311</v>
       </c>
       <c r="D139" t="n">
-        <v>0.60959</v>
+        <v>0.336013</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.769747</v>
+        <v>0.475238</v>
       </c>
       <c r="C140" t="n">
-        <v>0.644436</v>
+        <v>0.382465</v>
       </c>
       <c r="D140" t="n">
-        <v>0.606913</v>
+        <v>0.358283</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.782767</v>
+        <v>0.476975</v>
       </c>
       <c r="C141" t="n">
-        <v>0.655344</v>
+        <v>0.376178</v>
       </c>
       <c r="D141" t="n">
-        <v>0.614166</v>
+        <v>0.342922</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.801003</v>
+        <v>0.485929</v>
       </c>
       <c r="C142" t="n">
-        <v>0.668571</v>
+        <v>0.38338</v>
       </c>
       <c r="D142" t="n">
-        <v>0.616959</v>
+        <v>0.349138</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.794355</v>
+        <v>0.491439</v>
       </c>
       <c r="C143" t="n">
-        <v>0.67178</v>
+        <v>0.39123</v>
       </c>
       <c r="D143" t="n">
-        <v>0.617584</v>
+        <v>0.359319</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0663432</v>
+        <v>0.0640549</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0602178</v>
+        <v>0.0604701</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0618398</v>
+        <v>0.0594423</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0668467</v>
+        <v>0.06390319999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0634391</v>
+        <v>0.0619198</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0650249</v>
+        <v>0.0617273</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07194010000000001</v>
+        <v>0.06458369999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0653025</v>
+        <v>0.0666141</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0627992</v>
+        <v>0.06429799999999999</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0790154</v>
+        <v>0.0720155</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07257039999999999</v>
+        <v>0.0715026</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0710379</v>
+        <v>0.07186339999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0885847</v>
+        <v>0.08094990000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08614289999999999</v>
+        <v>0.08345320000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0801221</v>
+        <v>0.083049</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.105059</v>
+        <v>0.0964117</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09824090000000001</v>
+        <v>0.0971403</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09166589999999999</v>
+        <v>0.0949807</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.122843</v>
+        <v>0.120373</v>
       </c>
       <c r="C8" t="n">
-        <v>0.127676</v>
+        <v>0.131331</v>
       </c>
       <c r="D8" t="n">
-        <v>0.117979</v>
+        <v>0.115284</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.162773</v>
+        <v>0.154951</v>
       </c>
       <c r="C9" t="n">
-        <v>0.160635</v>
+        <v>0.160355</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0539057</v>
+        <v>0.0548997</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0593424</v>
+        <v>0.0594383</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0547031</v>
+        <v>0.0555756</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0541259</v>
+        <v>0.0557409</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0601504</v>
+        <v>0.0599105</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0559345</v>
+        <v>0.0558443</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0560241</v>
+        <v>0.0566895</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0619888</v>
+        <v>0.061055</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0580324</v>
+        <v>0.0569184</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0565801</v>
+        <v>0.0568429</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0632532</v>
+        <v>0.0602847</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0573999</v>
+        <v>0.0577467</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0573084</v>
+        <v>0.0566841</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0636244</v>
+        <v>0.06444270000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0574308</v>
+        <v>0.0585443</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0567039</v>
+        <v>0.0591499</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.06372949999999999</v>
+        <v>0.0663904</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0584666</v>
+        <v>0.0612562</v>
       </c>
       <c r="D15" t="n">
-        <v>0.061151</v>
+        <v>0.0598967</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0678984</v>
+        <v>0.0638165</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0618349</v>
+        <v>0.0618411</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0627605</v>
+        <v>0.0621721</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.069045</v>
+        <v>0.0670404</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06423909999999999</v>
+        <v>0.0679124</v>
       </c>
       <c r="D17" t="n">
-        <v>0.06780360000000001</v>
+        <v>0.0653688</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0742307</v>
+        <v>0.07134740000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0697984</v>
+        <v>0.0715483</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0707376</v>
+        <v>0.07050869999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0783292</v>
+        <v>0.077303</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0779252</v>
+        <v>0.077676</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07782</v>
+        <v>0.07720399999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0938701</v>
+        <v>0.0865991</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08642569999999999</v>
+        <v>0.08686140000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0859713</v>
+        <v>0.0861783</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.105028</v>
+        <v>0.0946765</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0993957</v>
+        <v>0.103882</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09865500000000001</v>
+        <v>0.101209</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.125056</v>
+        <v>0.123165</v>
       </c>
       <c r="C22" t="n">
-        <v>0.13187</v>
+        <v>0.130987</v>
       </c>
       <c r="D22" t="n">
-        <v>0.127424</v>
+        <v>0.123444</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.162524</v>
+        <v>0.157829</v>
       </c>
       <c r="C23" t="n">
-        <v>0.168038</v>
+        <v>0.168754</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0569021</v>
+        <v>0.0599965</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0648899</v>
+        <v>0.0631757</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0558212</v>
+        <v>0.0605982</v>
       </c>
       <c r="D24" t="n">
-        <v>0.059281</v>
+        <v>0.0582879</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0686171</v>
+        <v>0.06462759999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0573184</v>
+        <v>0.057345</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0589597</v>
+        <v>0.060732</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.067797</v>
+        <v>0.0651273</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0572657</v>
+        <v>0.0597091</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0584221</v>
+        <v>0.0587946</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0670399</v>
+        <v>0.0637027</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0583278</v>
+        <v>0.0604287</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0595067</v>
+        <v>0.0602603</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0687932</v>
+        <v>0.0657387</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0600626</v>
+        <v>0.0596583</v>
       </c>
       <c r="D28" t="n">
-        <v>0.06247</v>
+        <v>0.0619397</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0683527</v>
+        <v>0.0676485</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0619651</v>
+        <v>0.0628927</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0610893</v>
+        <v>0.0613656</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0718447</v>
+        <v>0.0690399</v>
       </c>
       <c r="C30" t="n">
-        <v>0.062396</v>
+        <v>0.06510290000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0657083</v>
+        <v>0.0644948</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0745007</v>
+        <v>0.0705867</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0659492</v>
+        <v>0.0684329</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0694389</v>
+        <v>0.0676679</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0790151</v>
+        <v>0.0744705</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0711415</v>
+        <v>0.0728437</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0723641</v>
+        <v>0.07308240000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08459659999999999</v>
+        <v>0.080971</v>
       </c>
       <c r="C33" t="n">
-        <v>0.07609870000000001</v>
+        <v>0.0812508</v>
       </c>
       <c r="D33" t="n">
-        <v>0.080164</v>
+        <v>0.07879510000000001</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0897854</v>
+        <v>0.0855728</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0866397</v>
+        <v>0.0882193</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0884103</v>
+        <v>0.0902888</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.10085</v>
+        <v>0.101099</v>
       </c>
       <c r="C35" t="n">
-        <v>0.103239</v>
+        <v>0.103974</v>
       </c>
       <c r="D35" t="n">
-        <v>0.100121</v>
+        <v>0.100597</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.12531</v>
+        <v>0.116991</v>
       </c>
       <c r="C36" t="n">
-        <v>0.124167</v>
+        <v>0.129319</v>
       </c>
       <c r="D36" t="n">
-        <v>0.124675</v>
+        <v>0.124768</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.157665</v>
+        <v>0.149901</v>
       </c>
       <c r="C37" t="n">
-        <v>0.163277</v>
+        <v>0.165881</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0587056</v>
+        <v>0.0623103</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06899950000000001</v>
+        <v>0.06878720000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0578237</v>
+        <v>0.062059</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0601642</v>
+        <v>0.0616216</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.06994209999999999</v>
+        <v>0.069825</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0598401</v>
+        <v>0.06251089999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0621719</v>
+        <v>0.06352530000000001</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0722172</v>
+        <v>0.0692406</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0595789</v>
+        <v>0.0634431</v>
       </c>
       <c r="D40" t="n">
-        <v>0.06309670000000001</v>
+        <v>0.0633421</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0732577</v>
+        <v>0.0688744</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0612003</v>
+        <v>0.0633044</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0622348</v>
+        <v>0.06400309999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0717739</v>
+        <v>0.0696137</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0618416</v>
+        <v>0.067395</v>
       </c>
       <c r="D42" t="n">
-        <v>0.06349970000000001</v>
+        <v>0.0636871</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0720799</v>
+        <v>0.0733357</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0652712</v>
+        <v>0.0676781</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0654356</v>
+        <v>0.0693589</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0756136</v>
+        <v>0.07392799999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0646186</v>
+        <v>0.0738081</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0664115</v>
+        <v>0.070683</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0792257</v>
+        <v>0.0774063</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0716591</v>
+        <v>0.07254529999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0703674</v>
+        <v>0.07357130000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0799151</v>
+        <v>0.0802466</v>
       </c>
       <c r="C46" t="n">
-        <v>0.07298250000000001</v>
+        <v>0.07747510000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07142370000000001</v>
+        <v>0.07604909999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0849878</v>
+        <v>0.0870573</v>
       </c>
       <c r="C47" t="n">
-        <v>0.08394409999999999</v>
+        <v>0.08555359999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0788663</v>
+        <v>0.0811994</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.092006</v>
+        <v>0.09146269999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0886405</v>
+        <v>0.0927798</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0875297</v>
+        <v>0.09003659999999999</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.102424</v>
+        <v>0.09988329999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0994935</v>
+        <v>0.103785</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0993507</v>
+        <v>0.100612</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.119101</v>
+        <v>0.123056</v>
       </c>
       <c r="C50" t="n">
-        <v>0.119516</v>
+        <v>0.125534</v>
       </c>
       <c r="D50" t="n">
-        <v>0.126469</v>
+        <v>0.119162</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.148882</v>
+        <v>0.142954</v>
       </c>
       <c r="C51" t="n">
-        <v>0.145424</v>
+        <v>0.155632</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0649639</v>
+        <v>0.0652966</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.189312</v>
+        <v>0.190227</v>
       </c>
       <c r="C52" t="n">
-        <v>0.196853</v>
+        <v>0.209462</v>
       </c>
       <c r="D52" t="n">
-        <v>0.065065</v>
+        <v>0.06700010000000001</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0814739</v>
+        <v>0.0837463</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0676132</v>
+        <v>0.0719721</v>
       </c>
       <c r="D53" t="n">
-        <v>0.06424249999999999</v>
+        <v>0.0692628</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0807978</v>
+        <v>0.0819039</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0660867</v>
+        <v>0.0733116</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0644281</v>
+        <v>0.0680598</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0783712</v>
+        <v>0.0818068</v>
       </c>
       <c r="C55" t="n">
-        <v>0.067746</v>
+        <v>0.0735518</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0673957</v>
+        <v>0.0705032</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0796589</v>
+        <v>0.084991</v>
       </c>
       <c r="C56" t="n">
-        <v>0.06906909999999999</v>
+        <v>0.0764254</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0690047</v>
+        <v>0.0733282</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0819536</v>
+        <v>0.08484990000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.07207180000000001</v>
+        <v>0.0788118</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0703681</v>
+        <v>0.07480150000000001</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.08486349999999999</v>
+        <v>0.0856132</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0744268</v>
+        <v>0.0803034</v>
       </c>
       <c r="D58" t="n">
-        <v>0.07157719999999999</v>
+        <v>0.075975</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0864031</v>
+        <v>0.0882597</v>
       </c>
       <c r="C59" t="n">
-        <v>0.08060639999999999</v>
+        <v>0.08229309999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.07553799999999999</v>
+        <v>0.0834858</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.08899600000000001</v>
+        <v>0.0918612</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0784381</v>
+        <v>0.0875899</v>
       </c>
       <c r="D60" t="n">
-        <v>0.076811</v>
+        <v>0.08086839999999999</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.09462950000000001</v>
+        <v>0.0958321</v>
       </c>
       <c r="C61" t="n">
-        <v>0.08532289999999999</v>
+        <v>0.0924628</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0825688</v>
+        <v>0.0865412</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0999847</v>
+        <v>0.104762</v>
       </c>
       <c r="C62" t="n">
-        <v>0.096333</v>
+        <v>0.107143</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0902231</v>
+        <v>0.0954208</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.115726</v>
+        <v>0.11182</v>
       </c>
       <c r="C63" t="n">
-        <v>0.104435</v>
+        <v>0.113719</v>
       </c>
       <c r="D63" t="n">
-        <v>0.101765</v>
+        <v>0.106327</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.124984</v>
+        <v>0.130048</v>
       </c>
       <c r="C64" t="n">
-        <v>0.127818</v>
+        <v>0.133205</v>
       </c>
       <c r="D64" t="n">
-        <v>0.121831</v>
+        <v>0.126834</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.156847</v>
+        <v>0.152482</v>
       </c>
       <c r="C65" t="n">
-        <v>0.157365</v>
+        <v>0.166555</v>
       </c>
       <c r="D65" t="n">
-        <v>0.151002</v>
+        <v>0.159604</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.193212</v>
+        <v>0.197971</v>
       </c>
       <c r="C66" t="n">
-        <v>0.199474</v>
+        <v>0.211395</v>
       </c>
       <c r="D66" t="n">
-        <v>0.07239520000000001</v>
+        <v>0.07398059999999999</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0921207</v>
+        <v>0.0903475</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0805761</v>
+        <v>0.08363379999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0704819</v>
+        <v>0.0761318</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.095843</v>
+        <v>0.0920255</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0774204</v>
+        <v>0.08238760000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0729409</v>
+        <v>0.0785761</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0969761</v>
+        <v>0.0921684</v>
       </c>
       <c r="C69" t="n">
-        <v>0.07958750000000001</v>
+        <v>0.0850302</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0738726</v>
+        <v>0.0783861</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0975017</v>
+        <v>0.0944526</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0788325</v>
+        <v>0.0855321</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0761656</v>
+        <v>0.07937710000000001</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.101022</v>
+        <v>0.09870370000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0837195</v>
+        <v>0.09228980000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.07788440000000001</v>
+        <v>0.0799786</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.100402</v>
+        <v>0.101924</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0871169</v>
+        <v>0.0928655</v>
       </c>
       <c r="D72" t="n">
-        <v>0.08020389999999999</v>
+        <v>0.08203969999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.108201</v>
+        <v>0.105487</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0892662</v>
+        <v>0.09727040000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0818354</v>
+        <v>0.0866692</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.10708</v>
+        <v>0.112268</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0950049</v>
+        <v>0.104165</v>
       </c>
       <c r="D74" t="n">
-        <v>0.086686</v>
+        <v>0.09063549999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.120079</v>
+        <v>0.112975</v>
       </c>
       <c r="C75" t="n">
-        <v>0.100031</v>
+        <v>0.112652</v>
       </c>
       <c r="D75" t="n">
-        <v>0.09662419999999999</v>
+        <v>0.0976228</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.123389</v>
+        <v>0.121529</v>
       </c>
       <c r="C76" t="n">
-        <v>0.109534</v>
+        <v>0.118781</v>
       </c>
       <c r="D76" t="n">
-        <v>0.100162</v>
+        <v>0.10507</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.13329</v>
+        <v>0.136031</v>
       </c>
       <c r="C77" t="n">
-        <v>0.125567</v>
+        <v>0.134209</v>
       </c>
       <c r="D77" t="n">
-        <v>0.115973</v>
+        <v>0.116983</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.143845</v>
+        <v>0.153383</v>
       </c>
       <c r="C78" t="n">
-        <v>0.137989</v>
+        <v>0.149058</v>
       </c>
       <c r="D78" t="n">
-        <v>0.129325</v>
+        <v>0.133751</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.173023</v>
+        <v>0.173581</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169132</v>
+        <v>0.179792</v>
       </c>
       <c r="D79" t="n">
-        <v>0.161759</v>
+        <v>0.159601</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.209816</v>
+        <v>0.225496</v>
       </c>
       <c r="C80" t="n">
-        <v>0.212733</v>
+        <v>0.226022</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0805461</v>
+        <v>0.0816685</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.111535</v>
+        <v>0.110739</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0959786</v>
+        <v>0.0990095</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0823636</v>
+        <v>0.08345379999999999</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.115893</v>
+        <v>0.108309</v>
       </c>
       <c r="C82" t="n">
-        <v>0.100532</v>
+        <v>0.101014</v>
       </c>
       <c r="D82" t="n">
-        <v>0.086021</v>
+        <v>0.0849775</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.117981</v>
+        <v>0.117005</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0983402</v>
+        <v>0.102619</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0832541</v>
+        <v>0.0849628</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.122438</v>
+        <v>0.114765</v>
       </c>
       <c r="C84" t="n">
-        <v>0.101587</v>
+        <v>0.107364</v>
       </c>
       <c r="D84" t="n">
-        <v>0.08788990000000001</v>
+        <v>0.0896182</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.131128</v>
+        <v>0.120911</v>
       </c>
       <c r="C85" t="n">
-        <v>0.114756</v>
+        <v>0.107645</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0907326</v>
+        <v>0.0909657</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.130726</v>
+        <v>0.120821</v>
       </c>
       <c r="C86" t="n">
-        <v>0.103868</v>
+        <v>0.115039</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0945923</v>
+        <v>0.0941727</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.132458</v>
+        <v>0.129211</v>
       </c>
       <c r="C87" t="n">
-        <v>0.111102</v>
+        <v>0.123774</v>
       </c>
       <c r="D87" t="n">
-        <v>0.10181</v>
+        <v>0.0977835</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.135492</v>
+        <v>0.138338</v>
       </c>
       <c r="C88" t="n">
-        <v>0.115374</v>
+        <v>0.122895</v>
       </c>
       <c r="D88" t="n">
-        <v>0.100655</v>
+        <v>0.10437</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.143737</v>
+        <v>0.139195</v>
       </c>
       <c r="C89" t="n">
-        <v>0.126673</v>
+        <v>0.131423</v>
       </c>
       <c r="D89" t="n">
-        <v>0.108048</v>
+        <v>0.112211</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.145337</v>
+        <v>0.153588</v>
       </c>
       <c r="C90" t="n">
-        <v>0.130188</v>
+        <v>0.142623</v>
       </c>
       <c r="D90" t="n">
-        <v>0.114416</v>
+        <v>0.120394</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.154561</v>
+        <v>0.158559</v>
       </c>
       <c r="C91" t="n">
-        <v>0.147291</v>
+        <v>0.153574</v>
       </c>
       <c r="D91" t="n">
-        <v>0.127622</v>
+        <v>0.127552</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.174403</v>
+        <v>0.17812</v>
       </c>
       <c r="C92" t="n">
-        <v>0.168467</v>
+        <v>0.172731</v>
       </c>
       <c r="D92" t="n">
-        <v>0.142534</v>
+        <v>0.145666</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1984</v>
+        <v>0.201237</v>
       </c>
       <c r="C93" t="n">
-        <v>0.189286</v>
+        <v>0.204256</v>
       </c>
       <c r="D93" t="n">
-        <v>0.171049</v>
+        <v>0.171751</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.237598</v>
+        <v>0.249019</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2279</v>
+        <v>0.261349</v>
       </c>
       <c r="D94" t="n">
-        <v>0.10101</v>
+        <v>0.105819</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.139749</v>
+        <v>0.139887</v>
       </c>
       <c r="C95" t="n">
-        <v>0.122365</v>
+        <v>0.125649</v>
       </c>
       <c r="D95" t="n">
-        <v>0.100146</v>
+        <v>0.10451</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.14365</v>
+        <v>0.143609</v>
       </c>
       <c r="C96" t="n">
-        <v>0.120842</v>
+        <v>0.129842</v>
       </c>
       <c r="D96" t="n">
-        <v>0.102446</v>
+        <v>0.105187</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.143191</v>
+        <v>0.14808</v>
       </c>
       <c r="C97" t="n">
-        <v>0.123861</v>
+        <v>0.132296</v>
       </c>
       <c r="D97" t="n">
-        <v>0.105894</v>
+        <v>0.108089</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.151352</v>
+        <v>0.150579</v>
       </c>
       <c r="C98" t="n">
-        <v>0.128193</v>
+        <v>0.14554</v>
       </c>
       <c r="D98" t="n">
-        <v>0.107392</v>
+        <v>0.114526</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.148611</v>
+        <v>0.1514</v>
       </c>
       <c r="C99" t="n">
-        <v>0.130652</v>
+        <v>0.138031</v>
       </c>
       <c r="D99" t="n">
-        <v>0.10856</v>
+        <v>0.113774</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.159511</v>
+        <v>0.152512</v>
       </c>
       <c r="C100" t="n">
-        <v>0.136525</v>
+        <v>0.143608</v>
       </c>
       <c r="D100" t="n">
-        <v>0.111789</v>
+        <v>0.116911</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.161058</v>
+        <v>0.166419</v>
       </c>
       <c r="C101" t="n">
-        <v>0.141619</v>
+        <v>0.154932</v>
       </c>
       <c r="D101" t="n">
-        <v>0.118214</v>
+        <v>0.117741</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1638</v>
+        <v>0.164296</v>
       </c>
       <c r="C102" t="n">
-        <v>0.149979</v>
+        <v>0.163507</v>
       </c>
       <c r="D102" t="n">
-        <v>0.126074</v>
+        <v>0.133432</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.172162</v>
+        <v>0.171906</v>
       </c>
       <c r="C103" t="n">
-        <v>0.158796</v>
+        <v>0.16404</v>
       </c>
       <c r="D103" t="n">
-        <v>0.128049</v>
+        <v>0.130615</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.182031</v>
+        <v>0.17581</v>
       </c>
       <c r="C104" t="n">
-        <v>0.170567</v>
+        <v>0.176114</v>
       </c>
       <c r="D104" t="n">
-        <v>0.134095</v>
+        <v>0.139262</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.195053</v>
+        <v>0.187444</v>
       </c>
       <c r="C105" t="n">
-        <v>0.17852</v>
+        <v>0.195429</v>
       </c>
       <c r="D105" t="n">
-        <v>0.144394</v>
+        <v>0.149954</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.209272</v>
+        <v>0.217185</v>
       </c>
       <c r="C106" t="n">
-        <v>0.197648</v>
+        <v>0.214726</v>
       </c>
       <c r="D106" t="n">
-        <v>0.16012</v>
+        <v>0.171299</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.236626</v>
+        <v>0.230749</v>
       </c>
       <c r="C107" t="n">
-        <v>0.230515</v>
+        <v>0.242113</v>
       </c>
       <c r="D107" t="n">
-        <v>0.187606</v>
+        <v>0.194598</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.277478</v>
+        <v>0.276464</v>
       </c>
       <c r="C108" t="n">
-        <v>0.275915</v>
+        <v>0.289135</v>
       </c>
       <c r="D108" t="n">
-        <v>0.180294</v>
+        <v>0.186621</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.353376</v>
+        <v>0.346935</v>
       </c>
       <c r="C109" t="n">
-        <v>0.35297</v>
+        <v>0.375088</v>
       </c>
       <c r="D109" t="n">
-        <v>0.170794</v>
+        <v>0.182622</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.223541</v>
+        <v>0.245612</v>
       </c>
       <c r="C110" t="n">
-        <v>0.200022</v>
+        <v>0.214506</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1749</v>
+        <v>0.178502</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.228677</v>
+        <v>0.227756</v>
       </c>
       <c r="C111" t="n">
-        <v>0.202625</v>
+        <v>0.21803</v>
       </c>
       <c r="D111" t="n">
-        <v>0.18023</v>
+        <v>0.179681</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.240582</v>
+        <v>0.250659</v>
       </c>
       <c r="C112" t="n">
-        <v>0.198722</v>
+        <v>0.23233</v>
       </c>
       <c r="D112" t="n">
-        <v>0.187324</v>
+        <v>0.200218</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.238575</v>
+        <v>0.251724</v>
       </c>
       <c r="C113" t="n">
-        <v>0.201959</v>
+        <v>0.239655</v>
       </c>
       <c r="D113" t="n">
-        <v>0.185291</v>
+        <v>0.187019</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.229884</v>
+        <v>0.245855</v>
       </c>
       <c r="C114" t="n">
-        <v>0.210806</v>
+        <v>0.236011</v>
       </c>
       <c r="D114" t="n">
-        <v>0.184626</v>
+        <v>0.187468</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.242735</v>
+        <v>0.248283</v>
       </c>
       <c r="C115" t="n">
-        <v>0.224796</v>
+        <v>0.222659</v>
       </c>
       <c r="D115" t="n">
-        <v>0.196241</v>
+        <v>0.198419</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.247922</v>
+        <v>0.271844</v>
       </c>
       <c r="C116" t="n">
-        <v>0.220215</v>
+        <v>0.232207</v>
       </c>
       <c r="D116" t="n">
-        <v>0.192996</v>
+        <v>0.204727</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.25171</v>
+        <v>0.259812</v>
       </c>
       <c r="C117" t="n">
-        <v>0.228365</v>
+        <v>0.251053</v>
       </c>
       <c r="D117" t="n">
-        <v>0.201266</v>
+        <v>0.208462</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.271687</v>
+        <v>0.280296</v>
       </c>
       <c r="C118" t="n">
-        <v>0.241435</v>
+        <v>0.253539</v>
       </c>
       <c r="D118" t="n">
-        <v>0.206668</v>
+        <v>0.217936</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.265784</v>
+        <v>0.299489</v>
       </c>
       <c r="C119" t="n">
-        <v>0.248</v>
+        <v>0.270067</v>
       </c>
       <c r="D119" t="n">
-        <v>0.22679</v>
+        <v>0.228433</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.29139</v>
+        <v>0.298484</v>
       </c>
       <c r="C120" t="n">
-        <v>0.27285</v>
+        <v>0.296617</v>
       </c>
       <c r="D120" t="n">
-        <v>0.230709</v>
+        <v>0.25062</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.325312</v>
+        <v>0.327323</v>
       </c>
       <c r="C121" t="n">
-        <v>0.297939</v>
+        <v>0.325418</v>
       </c>
       <c r="D121" t="n">
-        <v>0.251748</v>
+        <v>0.274172</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.367004</v>
+        <v>0.37254</v>
       </c>
       <c r="C122" t="n">
-        <v>0.345158</v>
+        <v>0.378143</v>
       </c>
       <c r="D122" t="n">
-        <v>0.301101</v>
+        <v>0.32435</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.425462</v>
+        <v>0.471263</v>
       </c>
       <c r="C123" t="n">
-        <v>0.440369</v>
+        <v>0.454311</v>
       </c>
       <c r="D123" t="n">
-        <v>0.274792</v>
+        <v>0.285577</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.378015</v>
+        <v>0.372223</v>
       </c>
       <c r="C124" t="n">
-        <v>0.307033</v>
+        <v>0.325659</v>
       </c>
       <c r="D124" t="n">
-        <v>0.282433</v>
+        <v>0.281574</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.365969</v>
+        <v>0.368457</v>
       </c>
       <c r="C125" t="n">
-        <v>0.312632</v>
+        <v>0.318354</v>
       </c>
       <c r="D125" t="n">
-        <v>0.289039</v>
+        <v>0.285872</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.3742</v>
+        <v>0.386012</v>
       </c>
       <c r="C126" t="n">
-        <v>0.313302</v>
+        <v>0.329426</v>
       </c>
       <c r="D126" t="n">
-        <v>0.279397</v>
+        <v>0.305857</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.384994</v>
+        <v>0.388344</v>
       </c>
       <c r="C127" t="n">
-        <v>0.318436</v>
+        <v>0.340312</v>
       </c>
       <c r="D127" t="n">
-        <v>0.298666</v>
+        <v>0.299934</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.382569</v>
+        <v>0.38254</v>
       </c>
       <c r="C128" t="n">
-        <v>0.330543</v>
+        <v>0.337287</v>
       </c>
       <c r="D128" t="n">
-        <v>0.293703</v>
+        <v>0.303322</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.398858</v>
+        <v>0.391048</v>
       </c>
       <c r="C129" t="n">
-        <v>0.327249</v>
+        <v>0.343893</v>
       </c>
       <c r="D129" t="n">
-        <v>0.296283</v>
+        <v>0.30244</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.402821</v>
+        <v>0.402819</v>
       </c>
       <c r="C130" t="n">
-        <v>0.337075</v>
+        <v>0.35477</v>
       </c>
       <c r="D130" t="n">
-        <v>0.303141</v>
+        <v>0.310239</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.413521</v>
+        <v>0.408214</v>
       </c>
       <c r="C131" t="n">
-        <v>0.339624</v>
+        <v>0.366457</v>
       </c>
       <c r="D131" t="n">
-        <v>0.311388</v>
+        <v>0.327309</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.413475</v>
+        <v>0.406376</v>
       </c>
       <c r="C132" t="n">
-        <v>0.358761</v>
+        <v>0.371492</v>
       </c>
       <c r="D132" t="n">
-        <v>0.32134</v>
+        <v>0.329835</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.4182</v>
+        <v>0.436267</v>
       </c>
       <c r="C133" t="n">
-        <v>0.372639</v>
+        <v>0.397551</v>
       </c>
       <c r="D133" t="n">
-        <v>0.326521</v>
+        <v>0.335151</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.436609</v>
+        <v>0.448001</v>
       </c>
       <c r="C134" t="n">
-        <v>0.384808</v>
+        <v>0.41845</v>
       </c>
       <c r="D134" t="n">
-        <v>0.34753</v>
+        <v>0.353444</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.478278</v>
+        <v>0.489493</v>
       </c>
       <c r="C135" t="n">
-        <v>0.431565</v>
+        <v>0.452821</v>
       </c>
       <c r="D135" t="n">
-        <v>0.368182</v>
+        <v>0.381667</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.512042</v>
+        <v>0.5391</v>
       </c>
       <c r="C136" t="n">
-        <v>0.484502</v>
+        <v>0.512856</v>
       </c>
       <c r="D136" t="n">
-        <v>0.405092</v>
+        <v>0.419345</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.5727640000000001</v>
+        <v>0.626904</v>
       </c>
       <c r="C137" t="n">
-        <v>0.571202</v>
+        <v>0.605865</v>
       </c>
       <c r="D137" t="n">
-        <v>0.347113</v>
+        <v>0.340862</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.466051</v>
+        <v>0.453701</v>
       </c>
       <c r="C138" t="n">
-        <v>0.362482</v>
+        <v>0.384792</v>
       </c>
       <c r="D138" t="n">
-        <v>0.340023</v>
+        <v>0.345777</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.463876</v>
+        <v>0.45704</v>
       </c>
       <c r="C139" t="n">
-        <v>0.366311</v>
+        <v>0.383739</v>
       </c>
       <c r="D139" t="n">
-        <v>0.336013</v>
+        <v>0.350863</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.475238</v>
+        <v>0.460633</v>
       </c>
       <c r="C140" t="n">
-        <v>0.382465</v>
+        <v>0.392503</v>
       </c>
       <c r="D140" t="n">
-        <v>0.358283</v>
+        <v>0.351077</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.476975</v>
+        <v>0.472192</v>
       </c>
       <c r="C141" t="n">
-        <v>0.376178</v>
+        <v>0.392559</v>
       </c>
       <c r="D141" t="n">
-        <v>0.342922</v>
+        <v>0.357801</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.485929</v>
+        <v>0.477448</v>
       </c>
       <c r="C142" t="n">
-        <v>0.38338</v>
+        <v>0.409428</v>
       </c>
       <c r="D142" t="n">
-        <v>0.349138</v>
+        <v>0.361087</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.491439</v>
+        <v>0.473956</v>
       </c>
       <c r="C143" t="n">
-        <v>0.39123</v>
+        <v>0.406315</v>
       </c>
       <c r="D143" t="n">
-        <v>0.359319</v>
+        <v>0.365527</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -93,7 +93,7 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_set</v>
+            <v>absl::flat_hash_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +553,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185383</v>
+                  <v>0.0199746</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.185607</v>
+                  <v>0.0223711</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.186605</v>
+                  <v>0.0279843</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.187124</v>
+                  <v>0.0374557</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.188247</v>
+                  <v>0.0541003</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.189644</v>
+                  <v>0.0739308</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.191261</v>
+                  <v>0.0908332</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.193866</v>
+                  <v>0.119418</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.189625</v>
+                  <v>0.0160955</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.189347</v>
+                  <v>0.0165233</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.18967</v>
+                  <v>0.0170052</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.189651</v>
+                  <v>0.0176545</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.189799</v>
+                  <v>0.018734</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.190668</v>
+                  <v>0.020118</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.190507</v>
+                  <v>0.0231423</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.190882</v>
+                  <v>0.0275752</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.191645</v>
+                  <v>0.0337269</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.192909</v>
+                  <v>0.0441174</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.194129</v>
+                  <v>0.0560327</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.196017</v>
+                  <v>0.0735251</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.198191</v>
+                  <v>0.09810720000000001</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.201494</v>
+                  <v>0.118682</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.19585</v>
+                  <v>0.0168617</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.195797</v>
+                  <v>0.017117</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.195992</v>
+                  <v>0.0179684</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.195994</v>
+                  <v>0.018842</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.196362</v>
+                  <v>0.020762</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.196625</v>
+                  <v>0.0229493</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196864</v>
+                  <v>0.0261253</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.197264</v>
+                  <v>0.0299548</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.198098</v>
+                  <v>0.0351932</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.199083</v>
+                  <v>0.0437828</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.200285</v>
+                  <v>0.0554948</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.202461</v>
+                  <v>0.07231650000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.20494</v>
+                  <v>0.09074749999999999</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.208708</v>
+                  <v>0.117374</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.204984</v>
+                  <v>0.0170956</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.20572</v>
+                  <v>0.0178543</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.20395</v>
+                  <v>0.0189841</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.206755</v>
+                  <v>0.0200948</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.206874</v>
+                  <v>0.0217684</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.206643</v>
+                  <v>0.0244338</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.207752</v>
+                  <v>0.0277674</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.206632</v>
+                  <v>0.0324631</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.208039</v>
+                  <v>0.0387566</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.208508</v>
+                  <v>0.044976</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.21314</v>
+                  <v>0.0559175</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.214405</v>
+                  <v>0.0710027</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.216212</v>
+                  <v>0.0908212</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.220277</v>
+                  <v>0.117424</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.225836</v>
+                  <v>0.140864</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239701</v>
+                  <v>0.0189027</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239374</v>
+                  <v>0.0201008</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.239406</v>
+                  <v>0.021583</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.239685</v>
+                  <v>0.0235148</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.240074</v>
+                  <v>0.0261005</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.239923</v>
+                  <v>0.0293833</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.240387</v>
+                  <v>0.0337692</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.240948</v>
+                  <v>0.0392899</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.241596</v>
+                  <v>0.046662</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.242725</v>
+                  <v>0.0562823</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.2443</v>
+                  <v>0.0701638</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.246192</v>
+                  <v>0.0890341</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.249543</v>
+                  <v>0.114833</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.254656</v>
+                  <v>0.144939</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.255606</v>
+                  <v>0.0197502</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.25724</v>
+                  <v>0.0210028</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.258741</v>
+                  <v>0.0227789</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.256833</v>
+                  <v>0.0246593</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.257274</v>
+                  <v>0.0270269</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.262396</v>
+                  <v>0.0302493</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.25894</v>
+                  <v>0.0342455</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.261004</v>
+                  <v>0.0395435</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.260554</v>
+                  <v>0.0466214</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.260622</v>
+                  <v>0.0559597</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.265311</v>
+                  <v>0.0685593</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.27449</v>
+                  <v>0.0867699</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.282328</v>
+                  <v>0.111201</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.283954</v>
+                  <v>0.141494</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.434666</v>
+                  <v>0.0200207</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.448057</v>
+                  <v>0.0212269</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.385917</v>
+                  <v>0.0226945</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.399879</v>
+                  <v>0.0246895</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.455774</v>
+                  <v>0.0274303</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.443092</v>
+                  <v>0.0301632</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.39204</v>
+                  <v>0.0343383</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.360522</v>
+                  <v>0.0393209</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.359055</v>
+                  <v>0.0454285</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.395665</v>
+                  <v>0.0543419</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.376249</v>
+                  <v>0.06590409999999999</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.379278</v>
+                  <v>0.08316999999999999</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.403744</v>
+                  <v>0.106615</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.437741</v>
+                  <v>0.136838</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.550984</v>
+                  <v>0.0207148</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56246</v>
+                  <v>0.0218231</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.528468</v>
+                  <v>0.0235618</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.522787</v>
+                  <v>0.0254205</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.522766</v>
+                  <v>0.0277238</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.541872</v>
+                  <v>0.0309717</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.485955</v>
+                  <v>0.034493</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.504454</v>
+                  <v>0.0401348</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.513336</v>
+                  <v>0.0464552</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.443294</v>
+                  <v>0.0546064</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.449806</v>
+                  <v>0.065411</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.508251</v>
+                  <v>0.08111790000000001</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.455857</v>
+                  <v>0.10261</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.506961</v>
+                  <v>0.131855</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.497047</v>
+                  <v>0.167859</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.5698029999999999</v>
+                  <v>0.0308739</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.62543</v>
+                  <v>0.032613</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.578956</v>
+                  <v>0.034221</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.64242</v>
+                  <v>0.0360225</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.590384</v>
+                  <v>0.0383657</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.5832270000000001</v>
+                  <v>0.0408546</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.55203</v>
+                  <v>0.0441552</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.551107</v>
+                  <v>0.0485179</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.5461549999999999</v>
+                  <v>0.0552273</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.558638</v>
+                  <v>0.06492580000000001</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.546427</v>
+                  <v>0.0791367</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.541991</v>
+                  <v>0.0999347</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.530105</v>
+                  <v>0.128094</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.574083</v>
+                  <v>0.163548</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.678766</v>
+                  <v>0.0346339</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.691848</v>
+                  <v>0.0355354</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.627237</v>
+                  <v>0.0372352</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.6081220000000001</v>
+                  <v>0.0385047</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.639138</v>
+                  <v>0.0411049</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.632568</v>
+                  <v>0.0439798</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.64813</v>
+                  <v>0.04739</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6033500000000001</v>
+                  <v>0.0521658</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.6096279999999999</v>
+                  <v>0.0586895</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.666418</v>
+                  <v>0.0680711</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.722901</v>
+                  <v>0.0820838</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.6843399999999999</v>
+                  <v>0.101855</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.691974</v>
+                  <v>0.12951</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.7238830000000001</v>
+                  <v>0.163867</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.767194</v>
+                  <v>0.0468922</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.7875</v>
+                  <v>0.0482012</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.791062</v>
+                  <v>0.0491648</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.758329</v>
+                  <v>0.0527207</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.770876</v>
+                  <v>0.0528154</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.737333</v>
+                  <v>0.055782</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +987,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_set</v>
+            <v>foa_unordered_rc16_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1447,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.207513</v>
+                  <v>0.0185839</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.207817</v>
+                  <v>0.0180835</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.208593</v>
+                  <v>0.0186575</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.209369</v>
+                  <v>0.0219409</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.211344</v>
+                  <v>0.0348619</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.212097</v>
+                  <v>0.046746</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.213952</v>
+                  <v>0.0887013</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.217604</v>
+                  <v>0.119804</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.207746</v>
+                  <v>0.0180709</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.209665</v>
+                  <v>0.0184204</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20981</v>
+                  <v>0.0189457</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210476</v>
+                  <v>0.0193755</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.210732</v>
+                  <v>0.0198448</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.211696</v>
+                  <v>0.020306</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.212256</v>
+                  <v>0.0209034</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.212852</v>
+                  <v>0.0227075</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.213634</v>
+                  <v>0.0253999</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.215167</v>
+                  <v>0.0319034</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.215972</v>
+                  <v>0.0383341</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.21763</v>
+                  <v>0.0568493</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.220112</v>
+                  <v>0.0838647</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.223056</v>
+                  <v>0.131653</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.209433</v>
+                  <v>0.0187591</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.209564</v>
+                  <v>0.0191409</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.210185</v>
+                  <v>0.0197405</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.210438</v>
+                  <v>0.020439</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211247</v>
+                  <v>0.0212415</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.211254</v>
+                  <v>0.0219892</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.212385</v>
+                  <v>0.0234121</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.213096</v>
+                  <v>0.0264304</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.214233</v>
+                  <v>0.0302305</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.215302</v>
+                  <v>0.0366198</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.21649</v>
+                  <v>0.0459437</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.21861</v>
+                  <v>0.0594599</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.221448</v>
+                  <v>0.0878531</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.22576</v>
+                  <v>0.129282</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.213927</v>
+                  <v>0.0198852</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.214925</v>
+                  <v>0.0203496</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.215476</v>
+                  <v>0.0210131</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.215189</v>
+                  <v>0.0216736</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.216189</v>
+                  <v>0.0228112</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.21693</v>
+                  <v>0.0240973</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.218236</v>
+                  <v>0.0257658</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.219015</v>
+                  <v>0.0290975</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.221901</v>
+                  <v>0.0349767</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.219659</v>
+                  <v>0.0398391</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.222921</v>
+                  <v>0.0491529</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.224707</v>
+                  <v>0.06340750000000001</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.229186</v>
+                  <v>0.0843724</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.233644</v>
+                  <v>0.121267</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.241295</v>
+                  <v>0.167097</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239069</v>
+                  <v>0.0213247</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239541</v>
+                  <v>0.0219345</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.240295</v>
+                  <v>0.022889</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.242151</v>
+                  <v>0.0238477</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.243641</v>
+                  <v>0.0253224</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.243783</v>
+                  <v>0.0275992</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.244885</v>
+                  <v>0.0302451</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.246437</v>
+                  <v>0.0345438</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.247802</v>
+                  <v>0.0408319</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.249783</v>
+                  <v>0.0492235</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.252535</v>
+                  <v>0.061553</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.256059</v>
+                  <v>0.0805206</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.260138</v>
+                  <v>0.113447</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.268357</v>
+                  <v>0.161291</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.275224</v>
+                  <v>0.0217627</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.276503</v>
+                  <v>0.022553</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.277776</v>
+                  <v>0.0235574</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.278297</v>
+                  <v>0.0246975</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.280737</v>
+                  <v>0.0260874</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.28054</v>
+                  <v>0.0279758</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.281726</v>
+                  <v>0.030811</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.282924</v>
+                  <v>0.034622</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285336</v>
+                  <v>0.0402214</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.287671</v>
+                  <v>0.047952</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.291509</v>
+                  <v>0.0592906</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.2952</v>
+                  <v>0.07559440000000001</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307095</v>
+                  <v>0.103124</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.312665</v>
+                  <v>0.148399</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.287846</v>
+                  <v>0.0223391</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.302136</v>
+                  <v>0.0231769</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.27906</v>
+                  <v>0.0241129</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.304678</v>
+                  <v>0.0252673</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.356345</v>
+                  <v>0.0268372</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.288947</v>
+                  <v>0.0286828</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.290747</v>
+                  <v>0.0310672</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.28432</v>
+                  <v>0.0345672</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.296649</v>
+                  <v>0.0394295</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.295213</v>
+                  <v>0.0468561</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.314524</v>
+                  <v>0.0569589</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.322241</v>
+                  <v>0.07245</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.336039</v>
+                  <v>0.09784569999999999</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.321098</v>
+                  <v>0.139669</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.484726</v>
+                  <v>0.0237499</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.498166</v>
+                  <v>0.0249294</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.517987</v>
+                  <v>0.0266465</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.532666</v>
+                  <v>0.0293475</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.495137</v>
+                  <v>0.0325618</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.449602</v>
+                  <v>0.0359918</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.413912</v>
+                  <v>0.0391962</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.546197</v>
+                  <v>0.0423199</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.382799</v>
+                  <v>0.0459227</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.377815</v>
+                  <v>0.0516739</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.521379</v>
+                  <v>0.0586182</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.421292</v>
+                  <v>0.07141210000000001</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438736</v>
+                  <v>0.09303640000000001</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.521957</v>
+                  <v>0.131746</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.475413</v>
+                  <v>0.183631</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.617764</v>
+                  <v>0.0382801</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.654273</v>
+                  <v>0.0392846</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.6944939999999999</v>
+                  <v>0.040221</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.656334</v>
+                  <v>0.0413197</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.649984</v>
+                  <v>0.0426685</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.531063</v>
+                  <v>0.0443478</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.550509</v>
+                  <v>0.0465075</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.5761579999999999</v>
+                  <v>0.0495102</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.578</v>
+                  <v>0.0538235</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.647649</v>
+                  <v>0.0601526</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.63648</v>
+                  <v>0.0710412</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.628615</v>
+                  <v>0.0895113</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.59633</v>
+                  <v>0.122948</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.625355</v>
+                  <v>0.172866</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.659179</v>
+                  <v>0.0424721</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.666982</v>
+                  <v>0.0434258</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.656903</v>
+                  <v>0.044818</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.657123</v>
+                  <v>0.0458006</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.711487</v>
+                  <v>0.0473031</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.689036</v>
+                  <v>0.0493497</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.707103</v>
+                  <v>0.0516778</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6603290000000001</v>
+                  <v>0.0546998</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.687039</v>
+                  <v>0.0591634</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.737206</v>
+                  <v>0.0653265</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.720435</v>
+                  <v>0.0752591</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.759125</v>
+                  <v>0.0919177</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.798233</v>
+                  <v>0.121142</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.809383</v>
+                  <v>0.1684</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.738269</v>
+                  <v>0.0552701</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.739426</v>
+                  <v>0.0564094</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.752214</v>
+                  <v>0.0574369</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.772877</v>
+                  <v>0.0586381</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.746614</v>
+                  <v>0.0601686</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.761084</v>
+                  <v>0.0620335</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1881,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_set</v>
+            <v>foa_unordered_rc15_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2341,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.216837</v>
+                  <v>0.0201621</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.218104</v>
+                  <v>0.0205927</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.219175</v>
+                  <v>0.0213328</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.220505</v>
+                  <v>0.0224255</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.221362</v>
+                  <v>0.0228236</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.224182</v>
+                  <v>0.0246502</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.228887</v>
+                  <v>0.0289321</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.21728</v>
+                  <v>0.0176491</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.217315</v>
+                  <v>0.0179043</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.21793</v>
+                  <v>0.0181965</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217787</v>
+                  <v>0.0185586</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.217923</v>
+                  <v>0.0189253</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.218541</v>
+                  <v>0.0192987</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.21938</v>
+                  <v>0.0198485</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.220115</v>
+                  <v>0.0203825</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.22137</v>
+                  <v>0.0208815</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.222222</v>
+                  <v>0.0220019</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.223529</v>
+                  <v>0.022769</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.22549</v>
+                  <v>0.0243123</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.228447</v>
+                  <v>0.0273683</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.232987</v>
+                  <v>0.0323586</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.219102</v>
+                  <v>0.017563</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.219541</v>
+                  <v>0.0179077</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.219748</v>
+                  <v>0.0181191</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.219959</v>
+                  <v>0.0185128</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.220642</v>
+                  <v>0.0188997</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.221022</v>
+                  <v>0.0193475</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.221462</v>
+                  <v>0.0197701</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.222167</v>
+                  <v>0.0202878</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.223124</v>
+                  <v>0.0211156</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.224288</v>
+                  <v>0.0221556</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.225905</v>
+                  <v>0.0232419</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.227744</v>
+                  <v>0.0249746</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.230598</v>
+                  <v>0.0282488</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.236023</v>
+                  <v>0.0352729</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.223464</v>
+                  <v>0.017949</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.224531</v>
+                  <v>0.0182123</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.224587</v>
+                  <v>0.0184241</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.224483</v>
+                  <v>0.0187582</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.224507</v>
+                  <v>0.0191191</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.224405</v>
+                  <v>0.0195615</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.226664</v>
+                  <v>0.0201191</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.22932</v>
+                  <v>0.0206961</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.227395</v>
+                  <v>0.0215587</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.229934</v>
+                  <v>0.0226734</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.230548</v>
+                  <v>0.0242101</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.233495</v>
+                  <v>0.0265092</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.236796</v>
+                  <v>0.0299203</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.241887</v>
+                  <v>0.0362318</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.249886</v>
+                  <v>0.018616</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.250123</v>
+                  <v>0.0188728</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.250994</v>
+                  <v>0.0191354</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.250755</v>
+                  <v>0.0194676</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.252193</v>
+                  <v>0.0198285</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.253215</v>
+                  <v>0.0202084</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.254239</v>
+                  <v>0.0207233</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.254333</v>
+                  <v>0.0213995</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.254855</v>
+                  <v>0.0222513</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.25697</v>
+                  <v>0.023328</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.258883</v>
+                  <v>0.0249404</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.260853</v>
+                  <v>0.027529</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.264751</v>
+                  <v>0.0313116</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.269732</v>
+                  <v>0.0376983</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.276114</v>
+                  <v>0.0489477</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.273031</v>
+                  <v>0.019011</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.273085</v>
+                  <v>0.0193203</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.274781</v>
+                  <v>0.0197232</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.276111</v>
+                  <v>0.0201442</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.276388</v>
+                  <v>0.0205764</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.279423</v>
+                  <v>0.0210852</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.279404</v>
+                  <v>0.0217122</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.283286</v>
+                  <v>0.022629</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.283068</v>
+                  <v>0.0237333</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285769</v>
+                  <v>0.0254197</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.290016</v>
+                  <v>0.0277608</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.294341</v>
+                  <v>0.0313383</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.299975</v>
+                  <v>0.037026</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307466</v>
+                  <v>0.0465119</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.35631</v>
+                  <v>0.0192382</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.346467</v>
+                  <v>0.0195643</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.341993</v>
+                  <v>0.0199296</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.343153</v>
+                  <v>0.0204282</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.401885</v>
+                  <v>0.0208927</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.397565</v>
+                  <v>0.021538</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.332944</v>
+                  <v>0.0222851</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.344294</v>
+                  <v>0.0232149</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.325342</v>
+                  <v>0.0244507</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.352167</v>
+                  <v>0.0259784</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.337268</v>
+                  <v>0.0282943</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.36583</v>
+                  <v>0.0314579</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.380756</v>
+                  <v>0.0365879</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.421928</v>
+                  <v>0.0450952</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.501549</v>
+                  <v>0.0208871</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.537262</v>
+                  <v>0.0214555</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56011</v>
+                  <v>0.0220137</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.5275609999999999</v>
+                  <v>0.0225922</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.495897</v>
+                  <v>0.0232915</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.572755</v>
+                  <v>0.0246113</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.498945</v>
+                  <v>0.0266287</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.449178</v>
+                  <v>0.0293725</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.547782</v>
+                  <v>0.0323838</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.415949</v>
+                  <v>0.0353862</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.390068</v>
+                  <v>0.0384466</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.52965</v>
+                  <v>0.0416202</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.403388</v>
+                  <v>0.0456443</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438826</v>
+                  <v>0.0519131</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.602194</v>
+                  <v>0.0324166</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.620428</v>
+                  <v>0.0334394</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.725276</v>
+                  <v>0.0342435</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.702693</v>
+                  <v>0.0350556</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.73215</v>
+                  <v>0.0358717</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.661095</v>
+                  <v>0.0366873</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.606508</v>
+                  <v>0.0376708</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.582412</v>
+                  <v>0.0386302</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.6140600000000001</v>
+                  <v>0.0398146</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.607225</v>
+                  <v>0.0412212</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.58941</v>
+                  <v>0.0429427</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.744695</v>
+                  <v>0.0455556</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.644252</v>
+                  <v>0.0491536</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.5756869999999999</v>
+                  <v>0.054736</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.654726</v>
+                  <v>0.0644487</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.742186</v>
+                  <v>0.0379716</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.727647</v>
+                  <v>0.0387374</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.695211</v>
+                  <v>0.039425</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.797323</v>
+                  <v>0.0400483</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.741178</v>
+                  <v>0.0410584</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.736914</v>
+                  <v>0.0419449</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.781694</v>
+                  <v>0.0429313</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.746709</v>
+                  <v>0.0441977</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.689246</v>
+                  <v>0.0457638</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.72965</v>
+                  <v>0.0475294</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.8171620000000001</v>
+                  <v>0.0500786</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.776553</v>
+                  <v>0.0536186</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.784866</v>
+                  <v>0.0591599</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.837244</v>
+                  <v>0.0689019</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.8127220000000001</v>
+                  <v>0.0534654</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.830338</v>
+                  <v>0.0539555</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.815751</v>
+                  <v>0.0548494</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.825283</v>
+                  <v>0.0553747</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.822431</v>
+                  <v>0.0561235</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.828008</v>
+                  <v>0.0611306</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.854793</v>
+                  <v>0.0579442</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3210,36 +3210,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Hoja1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="3" style="1" width="11.42578125"/>
+    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>absl::flat_hash_set</t>
+          <t>absl::flat_hash_map</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_set</t>
+          <t>foa_unordered_rc16_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_set</t>
+          <t>foa_unordered_rc15_map</t>
         </is>
       </c>
     </row>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0640549</v>
+        <v>0.0610334</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0604701</v>
+        <v>0.06438199999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0594423</v>
+        <v>0.0577594</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06390319999999999</v>
+        <v>0.0607934</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0619198</v>
+        <v>0.0646267</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0617273</v>
+        <v>0.0591047</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06458369999999999</v>
+        <v>0.0642226</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0666141</v>
+        <v>0.0691688</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06429799999999999</v>
+        <v>0.0622853</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0720155</v>
+        <v>0.06920279999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0715026</v>
+        <v>0.0757536</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07186339999999999</v>
+        <v>0.0687832</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.08094990000000001</v>
+        <v>0.0759705</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08345320000000001</v>
+        <v>0.08616559999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.083049</v>
+        <v>0.0767698</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0964117</v>
+        <v>0.09386410000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0971403</v>
+        <v>0.0994194</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0949807</v>
+        <v>0.0876855</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.120373</v>
+        <v>0.109481</v>
       </c>
       <c r="C8" t="n">
-        <v>0.131331</v>
+        <v>0.132837</v>
       </c>
       <c r="D8" t="n">
-        <v>0.115284</v>
+        <v>0.10985</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.154951</v>
+        <v>0.144833</v>
       </c>
       <c r="C9" t="n">
-        <v>0.160355</v>
+        <v>0.169939</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0548997</v>
+        <v>0.0535584</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0594383</v>
+        <v>0.0594505</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0555756</v>
+        <v>0.0570511</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0557409</v>
+        <v>0.0549778</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0599105</v>
+        <v>0.0601635</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0558443</v>
+        <v>0.0572419</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0566895</v>
+        <v>0.0568217</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.061055</v>
+        <v>0.0596702</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0569184</v>
+        <v>0.0575392</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0568429</v>
+        <v>0.0573359</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0602847</v>
+        <v>0.0623974</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0577467</v>
+        <v>0.0599039</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0566841</v>
+        <v>0.0568301</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.06444270000000001</v>
+        <v>0.0614276</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0585443</v>
+        <v>0.0602391</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0591499</v>
+        <v>0.0588944</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0663904</v>
+        <v>0.0623398</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0612562</v>
+        <v>0.0608741</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0598967</v>
+        <v>0.0578721</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0638165</v>
+        <v>0.06725440000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0618411</v>
+        <v>0.0631176</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0621721</v>
+        <v>0.0626007</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0670404</v>
+        <v>0.06557830000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0679124</v>
+        <v>0.0675439</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0653688</v>
+        <v>0.06363009999999999</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07134740000000001</v>
+        <v>0.0700471</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0715483</v>
+        <v>0.07204530000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07050869999999999</v>
+        <v>0.06805</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.077303</v>
+        <v>0.0761018</v>
       </c>
       <c r="C19" t="n">
-        <v>0.077676</v>
+        <v>0.0824701</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07720399999999999</v>
+        <v>0.0729717</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0865991</v>
+        <v>0.0845968</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08686140000000001</v>
+        <v>0.0889315</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0861783</v>
+        <v>0.0837425</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0946765</v>
+        <v>0.09705809999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.103882</v>
+        <v>0.105815</v>
       </c>
       <c r="D21" t="n">
-        <v>0.101209</v>
+        <v>0.0959415</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.123165</v>
+        <v>0.115437</v>
       </c>
       <c r="C22" t="n">
-        <v>0.130987</v>
+        <v>0.132249</v>
       </c>
       <c r="D22" t="n">
-        <v>0.123444</v>
+        <v>0.119748</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.157829</v>
+        <v>0.152284</v>
       </c>
       <c r="C23" t="n">
-        <v>0.168754</v>
+        <v>0.169292</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0599965</v>
+        <v>0.0572378</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0631757</v>
+        <v>0.0651663</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0605982</v>
+        <v>0.0586213</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0582879</v>
+        <v>0.0571818</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.06462759999999999</v>
+        <v>0.0630198</v>
       </c>
       <c r="C25" t="n">
-        <v>0.057345</v>
+        <v>0.0582211</v>
       </c>
       <c r="D25" t="n">
-        <v>0.060732</v>
+        <v>0.0592238</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0651273</v>
+        <v>0.064152</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0597091</v>
+        <v>0.0609272</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0587946</v>
+        <v>0.0582864</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0637027</v>
+        <v>0.0655997</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0604287</v>
+        <v>0.059999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0602603</v>
+        <v>0.0577657</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0657387</v>
+        <v>0.0675834</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0596583</v>
+        <v>0.0600643</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0619397</v>
+        <v>0.0589344</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0676485</v>
+        <v>0.06837020000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0628927</v>
+        <v>0.0646211</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0613656</v>
+        <v>0.0616195</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0690399</v>
+        <v>0.070911</v>
       </c>
       <c r="C30" t="n">
-        <v>0.06510290000000001</v>
+        <v>0.0647876</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0644948</v>
+        <v>0.0622494</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0705867</v>
+        <v>0.0713234</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0684329</v>
+        <v>0.0670248</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0676679</v>
+        <v>0.06638570000000001</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0744705</v>
+        <v>0.0731662</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0728437</v>
+        <v>0.0747164</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07308240000000001</v>
+        <v>0.0705658</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.080971</v>
+        <v>0.0779405</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0812508</v>
+        <v>0.07915</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07879510000000001</v>
+        <v>0.0739684</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0855728</v>
+        <v>0.0869206</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0882193</v>
+        <v>0.0885362</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0902888</v>
+        <v>0.0875518</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.101099</v>
+        <v>0.0993864</v>
       </c>
       <c r="C35" t="n">
-        <v>0.103974</v>
+        <v>0.107452</v>
       </c>
       <c r="D35" t="n">
-        <v>0.100597</v>
+        <v>0.101125</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.116991</v>
+        <v>0.116921</v>
       </c>
       <c r="C36" t="n">
-        <v>0.129319</v>
+        <v>0.12964</v>
       </c>
       <c r="D36" t="n">
-        <v>0.124768</v>
+        <v>0.118952</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.149901</v>
+        <v>0.149003</v>
       </c>
       <c r="C37" t="n">
-        <v>0.165881</v>
+        <v>0.1829</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0623103</v>
+        <v>0.0603336</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06878720000000001</v>
+        <v>0.0689524</v>
       </c>
       <c r="C38" t="n">
-        <v>0.062059</v>
+        <v>0.06411210000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0616216</v>
+        <v>0.0591782</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.069825</v>
+        <v>0.07073359999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.06251089999999999</v>
+        <v>0.0623753</v>
       </c>
       <c r="D39" t="n">
-        <v>0.06352530000000001</v>
+        <v>0.06360979999999999</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0692406</v>
+        <v>0.0685395</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0634431</v>
+        <v>0.06565940000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0633421</v>
+        <v>0.0628672</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0688744</v>
+        <v>0.07122199999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0633044</v>
+        <v>0.0670645</v>
       </c>
       <c r="D41" t="n">
-        <v>0.06400309999999999</v>
+        <v>0.0612661</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0696137</v>
+        <v>0.0725157</v>
       </c>
       <c r="C42" t="n">
-        <v>0.067395</v>
+        <v>0.0667962</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0636871</v>
+        <v>0.0635063</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0733357</v>
+        <v>0.0726614</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0676781</v>
+        <v>0.069811</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0693589</v>
+        <v>0.0638145</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.07392799999999999</v>
+        <v>0.0754572</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0738081</v>
+        <v>0.0701203</v>
       </c>
       <c r="D44" t="n">
-        <v>0.070683</v>
+        <v>0.06648610000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0774063</v>
+        <v>0.07769230000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07254529999999999</v>
+        <v>0.0730247</v>
       </c>
       <c r="D45" t="n">
-        <v>0.07357130000000001</v>
+        <v>0.069326</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0802466</v>
+        <v>0.0815948</v>
       </c>
       <c r="C46" t="n">
-        <v>0.07747510000000001</v>
+        <v>0.0763837</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07604909999999999</v>
+        <v>0.07198350000000001</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0870573</v>
+        <v>0.0872025</v>
       </c>
       <c r="C47" t="n">
-        <v>0.08555359999999999</v>
+        <v>0.0808186</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0811994</v>
+        <v>0.07665420000000001</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.09146269999999999</v>
+        <v>0.09282849999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0927798</v>
+        <v>0.0930901</v>
       </c>
       <c r="D48" t="n">
-        <v>0.09003659999999999</v>
+        <v>0.08942840000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.09988329999999999</v>
+        <v>0.102175</v>
       </c>
       <c r="C49" t="n">
-        <v>0.103785</v>
+        <v>0.102246</v>
       </c>
       <c r="D49" t="n">
-        <v>0.100612</v>
+        <v>0.0974264</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.123056</v>
+        <v>0.118002</v>
       </c>
       <c r="C50" t="n">
-        <v>0.125534</v>
+        <v>0.123215</v>
       </c>
       <c r="D50" t="n">
-        <v>0.119162</v>
+        <v>0.116103</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.142954</v>
+        <v>0.149902</v>
       </c>
       <c r="C51" t="n">
-        <v>0.155632</v>
+        <v>0.156865</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0652966</v>
+        <v>0.0666432</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.190227</v>
+        <v>0.188945</v>
       </c>
       <c r="C52" t="n">
-        <v>0.209462</v>
+        <v>0.206533</v>
       </c>
       <c r="D52" t="n">
-        <v>0.06700010000000001</v>
+        <v>0.0645218</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0837463</v>
+        <v>0.08231289999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0719721</v>
+        <v>0.07126010000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0692628</v>
+        <v>0.0690423</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0819039</v>
+        <v>0.0808053</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0733116</v>
+        <v>0.0717573</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0680598</v>
+        <v>0.06746199999999999</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0818068</v>
+        <v>0.08138189999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0735518</v>
+        <v>0.0743471</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0705032</v>
+        <v>0.0678993</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.084991</v>
+        <v>0.0860345</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0764254</v>
+        <v>0.0764553</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0733282</v>
+        <v>0.0689048</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.08484990000000001</v>
+        <v>0.0857059</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0788118</v>
+        <v>0.0784069</v>
       </c>
       <c r="D57" t="n">
-        <v>0.07480150000000001</v>
+        <v>0.0735374</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0856132</v>
+        <v>0.0878066</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0803034</v>
+        <v>0.07896400000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.075975</v>
+        <v>0.0737278</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0882597</v>
+        <v>0.0895932</v>
       </c>
       <c r="C59" t="n">
-        <v>0.08229309999999999</v>
+        <v>0.0817271</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0834858</v>
+        <v>0.0746942</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0918612</v>
+        <v>0.0912688</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0875899</v>
+        <v>0.0892371</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08086839999999999</v>
+        <v>0.0772008</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0958321</v>
+        <v>0.09864000000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0924628</v>
+        <v>0.0953985</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0865412</v>
+        <v>0.08553379999999999</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.104762</v>
+        <v>0.104409</v>
       </c>
       <c r="C62" t="n">
-        <v>0.107143</v>
+        <v>0.10154</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0954208</v>
+        <v>0.0933253</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.11182</v>
+        <v>0.114348</v>
       </c>
       <c r="C63" t="n">
-        <v>0.113719</v>
+        <v>0.119024</v>
       </c>
       <c r="D63" t="n">
-        <v>0.106327</v>
+        <v>0.103135</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.130048</v>
+        <v>0.128773</v>
       </c>
       <c r="C64" t="n">
-        <v>0.133205</v>
+        <v>0.133529</v>
       </c>
       <c r="D64" t="n">
-        <v>0.126834</v>
+        <v>0.12585</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.152482</v>
+        <v>0.156946</v>
       </c>
       <c r="C65" t="n">
-        <v>0.166555</v>
+        <v>0.168753</v>
       </c>
       <c r="D65" t="n">
-        <v>0.159604</v>
+        <v>0.147801</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.197971</v>
+        <v>0.198869</v>
       </c>
       <c r="C66" t="n">
-        <v>0.211395</v>
+        <v>0.215605</v>
       </c>
       <c r="D66" t="n">
-        <v>0.07398059999999999</v>
+        <v>0.0714273</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0903475</v>
+        <v>0.09312719999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.08363379999999999</v>
+        <v>0.079816</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0761318</v>
+        <v>0.07085329999999999</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0920255</v>
+        <v>0.0940641</v>
       </c>
       <c r="C68" t="n">
-        <v>0.08238760000000001</v>
+        <v>0.0821914</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0785761</v>
+        <v>0.0742033</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0921684</v>
+        <v>0.098119</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0850302</v>
+        <v>0.0848749</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0783861</v>
+        <v>0.0749143</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0944526</v>
+        <v>0.0967594</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0855321</v>
+        <v>0.08659409999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.07937710000000001</v>
+        <v>0.0764838</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.09870370000000001</v>
+        <v>0.0968159</v>
       </c>
       <c r="C71" t="n">
-        <v>0.09228980000000001</v>
+        <v>0.092116</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0799786</v>
+        <v>0.079031</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.101924</v>
+        <v>0.103723</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0928655</v>
+        <v>0.09354179999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.08203969999999999</v>
+        <v>0.0802392</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.105487</v>
+        <v>0.10537</v>
       </c>
       <c r="C73" t="n">
-        <v>0.09727040000000001</v>
+        <v>0.0983595</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0866692</v>
+        <v>0.084088</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.112268</v>
+        <v>0.107356</v>
       </c>
       <c r="C74" t="n">
-        <v>0.104165</v>
+        <v>0.106135</v>
       </c>
       <c r="D74" t="n">
-        <v>0.09063549999999999</v>
+        <v>0.0868738</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.112975</v>
+        <v>0.115047</v>
       </c>
       <c r="C75" t="n">
-        <v>0.112652</v>
+        <v>0.1098</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0976228</v>
+        <v>0.09229859999999999</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.121529</v>
+        <v>0.122318</v>
       </c>
       <c r="C76" t="n">
-        <v>0.118781</v>
+        <v>0.122171</v>
       </c>
       <c r="D76" t="n">
-        <v>0.10507</v>
+        <v>0.10014</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.136031</v>
+        <v>0.135991</v>
       </c>
       <c r="C77" t="n">
-        <v>0.134209</v>
+        <v>0.132325</v>
       </c>
       <c r="D77" t="n">
-        <v>0.116983</v>
+        <v>0.113217</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.153383</v>
+        <v>0.156949</v>
       </c>
       <c r="C78" t="n">
-        <v>0.149058</v>
+        <v>0.153582</v>
       </c>
       <c r="D78" t="n">
-        <v>0.133751</v>
+        <v>0.13212</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.173581</v>
+        <v>0.17583</v>
       </c>
       <c r="C79" t="n">
-        <v>0.179792</v>
+        <v>0.190396</v>
       </c>
       <c r="D79" t="n">
-        <v>0.159601</v>
+        <v>0.158806</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.225496</v>
+        <v>0.217569</v>
       </c>
       <c r="C80" t="n">
-        <v>0.226022</v>
+        <v>0.239774</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0816685</v>
+        <v>0.0787076</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.110739</v>
+        <v>0.107241</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0990095</v>
+        <v>0.09923700000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.08345379999999999</v>
+        <v>0.08372839999999999</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.108309</v>
+        <v>0.111069</v>
       </c>
       <c r="C82" t="n">
-        <v>0.101014</v>
+        <v>0.0986137</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0849775</v>
+        <v>0.08199679999999999</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.117005</v>
+        <v>0.113874</v>
       </c>
       <c r="C83" t="n">
-        <v>0.102619</v>
+        <v>0.100907</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0849628</v>
+        <v>0.08694490000000001</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.114765</v>
+        <v>0.11572</v>
       </c>
       <c r="C84" t="n">
-        <v>0.107364</v>
+        <v>0.104878</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0896182</v>
+        <v>0.0849244</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.120911</v>
+        <v>0.116977</v>
       </c>
       <c r="C85" t="n">
-        <v>0.107645</v>
+        <v>0.11391</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0909657</v>
+        <v>0.0883207</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.120821</v>
+        <v>0.121802</v>
       </c>
       <c r="C86" t="n">
-        <v>0.115039</v>
+        <v>0.113085</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0941727</v>
+        <v>0.0922491</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.129211</v>
+        <v>0.125013</v>
       </c>
       <c r="C87" t="n">
-        <v>0.123774</v>
+        <v>0.117307</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0977835</v>
+        <v>0.0942471</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.138338</v>
+        <v>0.130491</v>
       </c>
       <c r="C88" t="n">
-        <v>0.122895</v>
+        <v>0.125635</v>
       </c>
       <c r="D88" t="n">
-        <v>0.10437</v>
+        <v>0.099617</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.139195</v>
+        <v>0.138302</v>
       </c>
       <c r="C89" t="n">
-        <v>0.131423</v>
+        <v>0.128729</v>
       </c>
       <c r="D89" t="n">
-        <v>0.112211</v>
+        <v>0.105558</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.153588</v>
+        <v>0.150106</v>
       </c>
       <c r="C90" t="n">
-        <v>0.142623</v>
+        <v>0.141767</v>
       </c>
       <c r="D90" t="n">
-        <v>0.120394</v>
+        <v>0.114599</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.158559</v>
+        <v>0.156201</v>
       </c>
       <c r="C91" t="n">
-        <v>0.153574</v>
+        <v>0.15319</v>
       </c>
       <c r="D91" t="n">
-        <v>0.127552</v>
+        <v>0.125165</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.17812</v>
+        <v>0.175574</v>
       </c>
       <c r="C92" t="n">
-        <v>0.172731</v>
+        <v>0.174166</v>
       </c>
       <c r="D92" t="n">
-        <v>0.145666</v>
+        <v>0.144753</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.201237</v>
+        <v>0.205245</v>
       </c>
       <c r="C93" t="n">
-        <v>0.204256</v>
+        <v>0.212651</v>
       </c>
       <c r="D93" t="n">
-        <v>0.171751</v>
+        <v>0.166046</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.249019</v>
+        <v>0.235242</v>
       </c>
       <c r="C94" t="n">
-        <v>0.261349</v>
+        <v>0.253475</v>
       </c>
       <c r="D94" t="n">
-        <v>0.105819</v>
+        <v>0.102088</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.139887</v>
+        <v>0.137658</v>
       </c>
       <c r="C95" t="n">
-        <v>0.125649</v>
+        <v>0.123401</v>
       </c>
       <c r="D95" t="n">
-        <v>0.10451</v>
+        <v>0.0996891</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.143609</v>
+        <v>0.142312</v>
       </c>
       <c r="C96" t="n">
-        <v>0.129842</v>
+        <v>0.129049</v>
       </c>
       <c r="D96" t="n">
-        <v>0.105187</v>
+        <v>0.104187</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.14808</v>
+        <v>0.1438</v>
       </c>
       <c r="C97" t="n">
-        <v>0.132296</v>
+        <v>0.130789</v>
       </c>
       <c r="D97" t="n">
-        <v>0.108089</v>
+        <v>0.104202</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.150579</v>
+        <v>0.146886</v>
       </c>
       <c r="C98" t="n">
-        <v>0.14554</v>
+        <v>0.133421</v>
       </c>
       <c r="D98" t="n">
-        <v>0.114526</v>
+        <v>0.107976</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1514</v>
+        <v>0.152151</v>
       </c>
       <c r="C99" t="n">
-        <v>0.138031</v>
+        <v>0.136954</v>
       </c>
       <c r="D99" t="n">
-        <v>0.113774</v>
+        <v>0.109834</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.152512</v>
+        <v>0.154213</v>
       </c>
       <c r="C100" t="n">
-        <v>0.143608</v>
+        <v>0.141835</v>
       </c>
       <c r="D100" t="n">
-        <v>0.116911</v>
+        <v>0.115784</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.166419</v>
+        <v>0.157521</v>
       </c>
       <c r="C101" t="n">
-        <v>0.154932</v>
+        <v>0.149046</v>
       </c>
       <c r="D101" t="n">
-        <v>0.117741</v>
+        <v>0.119105</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.164296</v>
+        <v>0.160171</v>
       </c>
       <c r="C102" t="n">
-        <v>0.163507</v>
+        <v>0.15567</v>
       </c>
       <c r="D102" t="n">
-        <v>0.133432</v>
+        <v>0.12248</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.171906</v>
+        <v>0.170461</v>
       </c>
       <c r="C103" t="n">
-        <v>0.16404</v>
+        <v>0.161701</v>
       </c>
       <c r="D103" t="n">
-        <v>0.130615</v>
+        <v>0.126672</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.17581</v>
+        <v>0.177628</v>
       </c>
       <c r="C104" t="n">
-        <v>0.176114</v>
+        <v>0.1684</v>
       </c>
       <c r="D104" t="n">
-        <v>0.139262</v>
+        <v>0.135723</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.187444</v>
+        <v>0.188365</v>
       </c>
       <c r="C105" t="n">
-        <v>0.195429</v>
+        <v>0.184349</v>
       </c>
       <c r="D105" t="n">
-        <v>0.149954</v>
+        <v>0.150343</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.217185</v>
+        <v>0.210092</v>
       </c>
       <c r="C106" t="n">
-        <v>0.214726</v>
+        <v>0.214249</v>
       </c>
       <c r="D106" t="n">
-        <v>0.171299</v>
+        <v>0.162462</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.230749</v>
+        <v>0.23526</v>
       </c>
       <c r="C107" t="n">
-        <v>0.242113</v>
+        <v>0.248516</v>
       </c>
       <c r="D107" t="n">
-        <v>0.194598</v>
+        <v>0.184555</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.276464</v>
+        <v>0.270354</v>
       </c>
       <c r="C108" t="n">
-        <v>0.289135</v>
+        <v>0.28912</v>
       </c>
       <c r="D108" t="n">
-        <v>0.186621</v>
+        <v>0.175604</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.346935</v>
+        <v>0.340623</v>
       </c>
       <c r="C109" t="n">
-        <v>0.375088</v>
+        <v>0.364474</v>
       </c>
       <c r="D109" t="n">
-        <v>0.182622</v>
+        <v>0.179224</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.245612</v>
+        <v>0.225577</v>
       </c>
       <c r="C110" t="n">
-        <v>0.214506</v>
+        <v>0.211557</v>
       </c>
       <c r="D110" t="n">
-        <v>0.178502</v>
+        <v>0.18068</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.227756</v>
+        <v>0.235089</v>
       </c>
       <c r="C111" t="n">
-        <v>0.21803</v>
+        <v>0.208387</v>
       </c>
       <c r="D111" t="n">
-        <v>0.179681</v>
+        <v>0.180815</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.250659</v>
+        <v>0.244439</v>
       </c>
       <c r="C112" t="n">
-        <v>0.23233</v>
+        <v>0.210644</v>
       </c>
       <c r="D112" t="n">
-        <v>0.200218</v>
+        <v>0.184221</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.251724</v>
+        <v>0.243901</v>
       </c>
       <c r="C113" t="n">
-        <v>0.239655</v>
+        <v>0.217446</v>
       </c>
       <c r="D113" t="n">
-        <v>0.187019</v>
+        <v>0.200138</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.245855</v>
+        <v>0.244271</v>
       </c>
       <c r="C114" t="n">
-        <v>0.236011</v>
+        <v>0.225355</v>
       </c>
       <c r="D114" t="n">
-        <v>0.187468</v>
+        <v>0.19328</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.248283</v>
+        <v>0.245293</v>
       </c>
       <c r="C115" t="n">
-        <v>0.222659</v>
+        <v>0.225775</v>
       </c>
       <c r="D115" t="n">
-        <v>0.198419</v>
+        <v>0.200177</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.271844</v>
+        <v>0.250842</v>
       </c>
       <c r="C116" t="n">
-        <v>0.232207</v>
+        <v>0.233999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.204727</v>
+        <v>0.202248</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.259812</v>
+        <v>0.265303</v>
       </c>
       <c r="C117" t="n">
-        <v>0.251053</v>
+        <v>0.24348</v>
       </c>
       <c r="D117" t="n">
-        <v>0.208462</v>
+        <v>0.206437</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.280296</v>
+        <v>0.258735</v>
       </c>
       <c r="C118" t="n">
-        <v>0.253539</v>
+        <v>0.2535</v>
       </c>
       <c r="D118" t="n">
-        <v>0.217936</v>
+        <v>0.200168</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.299489</v>
+        <v>0.265929</v>
       </c>
       <c r="C119" t="n">
-        <v>0.270067</v>
+        <v>0.247551</v>
       </c>
       <c r="D119" t="n">
-        <v>0.228433</v>
+        <v>0.207325</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.298484</v>
+        <v>0.275965</v>
       </c>
       <c r="C120" t="n">
-        <v>0.296617</v>
+        <v>0.270039</v>
       </c>
       <c r="D120" t="n">
-        <v>0.25062</v>
+        <v>0.224844</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.327323</v>
+        <v>0.305325</v>
       </c>
       <c r="C121" t="n">
-        <v>0.325418</v>
+        <v>0.311932</v>
       </c>
       <c r="D121" t="n">
-        <v>0.274172</v>
+        <v>0.25957</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.37254</v>
+        <v>0.369517</v>
       </c>
       <c r="C122" t="n">
-        <v>0.378143</v>
+        <v>0.365745</v>
       </c>
       <c r="D122" t="n">
-        <v>0.32435</v>
+        <v>0.301241</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.471263</v>
+        <v>0.443469</v>
       </c>
       <c r="C123" t="n">
-        <v>0.454311</v>
+        <v>0.448011</v>
       </c>
       <c r="D123" t="n">
-        <v>0.285577</v>
+        <v>0.292358</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.372223</v>
+        <v>0.372144</v>
       </c>
       <c r="C124" t="n">
-        <v>0.325659</v>
+        <v>0.320767</v>
       </c>
       <c r="D124" t="n">
-        <v>0.281574</v>
+        <v>0.280692</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.368457</v>
+        <v>0.375046</v>
       </c>
       <c r="C125" t="n">
-        <v>0.318354</v>
+        <v>0.330542</v>
       </c>
       <c r="D125" t="n">
-        <v>0.285872</v>
+        <v>0.286214</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.386012</v>
+        <v>0.373056</v>
       </c>
       <c r="C126" t="n">
-        <v>0.329426</v>
+        <v>0.317168</v>
       </c>
       <c r="D126" t="n">
-        <v>0.305857</v>
+        <v>0.293963</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.388344</v>
+        <v>0.391724</v>
       </c>
       <c r="C127" t="n">
-        <v>0.340312</v>
+        <v>0.322845</v>
       </c>
       <c r="D127" t="n">
-        <v>0.299934</v>
+        <v>0.297425</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.38254</v>
+        <v>0.384496</v>
       </c>
       <c r="C128" t="n">
-        <v>0.337287</v>
+        <v>0.336371</v>
       </c>
       <c r="D128" t="n">
-        <v>0.303322</v>
+        <v>0.30009</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.391048</v>
+        <v>0.414483</v>
       </c>
       <c r="C129" t="n">
-        <v>0.343893</v>
+        <v>0.347042</v>
       </c>
       <c r="D129" t="n">
-        <v>0.30244</v>
+        <v>0.299506</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.402819</v>
+        <v>0.39964</v>
       </c>
       <c r="C130" t="n">
-        <v>0.35477</v>
+        <v>0.346695</v>
       </c>
       <c r="D130" t="n">
-        <v>0.310239</v>
+        <v>0.316584</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.408214</v>
+        <v>0.410334</v>
       </c>
       <c r="C131" t="n">
-        <v>0.366457</v>
+        <v>0.36272</v>
       </c>
       <c r="D131" t="n">
-        <v>0.327309</v>
+        <v>0.307586</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.406376</v>
+        <v>0.412598</v>
       </c>
       <c r="C132" t="n">
-        <v>0.371492</v>
+        <v>0.381918</v>
       </c>
       <c r="D132" t="n">
-        <v>0.329835</v>
+        <v>0.330399</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.436267</v>
+        <v>0.431597</v>
       </c>
       <c r="C133" t="n">
-        <v>0.397551</v>
+        <v>0.385359</v>
       </c>
       <c r="D133" t="n">
-        <v>0.335151</v>
+        <v>0.326568</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.448001</v>
+        <v>0.45577</v>
       </c>
       <c r="C134" t="n">
-        <v>0.41845</v>
+        <v>0.416255</v>
       </c>
       <c r="D134" t="n">
-        <v>0.353444</v>
+        <v>0.352915</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.489493</v>
+        <v>0.484133</v>
       </c>
       <c r="C135" t="n">
-        <v>0.452821</v>
+        <v>0.440504</v>
       </c>
       <c r="D135" t="n">
-        <v>0.381667</v>
+        <v>0.378948</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5391</v>
+        <v>0.550085</v>
       </c>
       <c r="C136" t="n">
-        <v>0.512856</v>
+        <v>0.501435</v>
       </c>
       <c r="D136" t="n">
-        <v>0.419345</v>
+        <v>0.422533</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.626904</v>
+        <v>0.623653</v>
       </c>
       <c r="C137" t="n">
-        <v>0.605865</v>
+        <v>0.608112</v>
       </c>
       <c r="D137" t="n">
-        <v>0.340862</v>
+        <v>0.345303</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.453701</v>
+        <v>0.459137</v>
       </c>
       <c r="C138" t="n">
-        <v>0.384792</v>
+        <v>0.389531</v>
       </c>
       <c r="D138" t="n">
-        <v>0.345777</v>
+        <v>0.351949</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.45704</v>
+        <v>0.4616</v>
       </c>
       <c r="C139" t="n">
-        <v>0.383739</v>
+        <v>0.384166</v>
       </c>
       <c r="D139" t="n">
-        <v>0.350863</v>
+        <v>0.345671</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.460633</v>
+        <v>0.45778</v>
       </c>
       <c r="C140" t="n">
-        <v>0.392503</v>
+        <v>0.381912</v>
       </c>
       <c r="D140" t="n">
-        <v>0.351077</v>
+        <v>0.353086</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.472192</v>
+        <v>0.460782</v>
       </c>
       <c r="C141" t="n">
-        <v>0.392559</v>
+        <v>0.395251</v>
       </c>
       <c r="D141" t="n">
-        <v>0.357801</v>
+        <v>0.359841</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.477448</v>
+        <v>0.477437</v>
       </c>
       <c r="C142" t="n">
-        <v>0.409428</v>
+        <v>0.410586</v>
       </c>
       <c r="D142" t="n">
-        <v>0.361087</v>
+        <v>0.362995</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.473956</v>
+        <v>0.479389</v>
       </c>
       <c r="C143" t="n">
-        <v>0.406315</v>
+        <v>0.40901</v>
       </c>
       <c r="D143" t="n">
-        <v>0.365527</v>
+        <v>0.373351</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0610334</v>
+        <v>0.0619573</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06438199999999999</v>
+        <v>0.0629555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0577594</v>
+        <v>0.0590918</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0607934</v>
+        <v>0.0627317</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0646267</v>
+        <v>0.06563960000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0591047</v>
+        <v>0.0587274</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0642226</v>
+        <v>0.0659227</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0691688</v>
+        <v>0.0689328</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0622853</v>
+        <v>0.062873</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06920279999999999</v>
+        <v>0.071676</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0757536</v>
+        <v>0.0796145</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0687832</v>
+        <v>0.0706122</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0759705</v>
+        <v>0.0790256</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08616559999999999</v>
+        <v>0.08689180000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0767698</v>
+        <v>0.0755612</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09386410000000001</v>
+        <v>0.0989153</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0994194</v>
+        <v>0.100542</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0876855</v>
+        <v>0.09102689999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.109481</v>
+        <v>0.124266</v>
       </c>
       <c r="C8" t="n">
-        <v>0.132837</v>
+        <v>0.133592</v>
       </c>
       <c r="D8" t="n">
-        <v>0.10985</v>
+        <v>0.112341</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.144833</v>
+        <v>0.15394</v>
       </c>
       <c r="C9" t="n">
-        <v>0.169939</v>
+        <v>0.174808</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0535584</v>
+        <v>0.0533548</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0594505</v>
+        <v>0.0613866</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0570511</v>
+        <v>0.0565662</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0549778</v>
+        <v>0.0545783</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0601635</v>
+        <v>0.0597932</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0572419</v>
+        <v>0.0552188</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0568217</v>
+        <v>0.0550296</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0596702</v>
+        <v>0.0598136</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0575392</v>
+        <v>0.0564262</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0573359</v>
+        <v>0.054929</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0623974</v>
+        <v>0.0608637</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0599039</v>
+        <v>0.0588749</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0568301</v>
+        <v>0.0554788</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0614276</v>
+        <v>0.0606786</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0602391</v>
+        <v>0.0593688</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0588944</v>
+        <v>0.0583818</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0623398</v>
+        <v>0.0631343</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0608741</v>
+        <v>0.0601327</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0578721</v>
+        <v>0.0593018</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.06725440000000001</v>
+        <v>0.06490700000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0631176</v>
+        <v>0.0636226</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0626007</v>
+        <v>0.0603909</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06557830000000001</v>
+        <v>0.0675926</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0675439</v>
+        <v>0.0676525</v>
       </c>
       <c r="D17" t="n">
-        <v>0.06363009999999999</v>
+        <v>0.0634663</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0700471</v>
+        <v>0.07134160000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07204530000000001</v>
+        <v>0.0744889</v>
       </c>
       <c r="D18" t="n">
-        <v>0.06805</v>
+        <v>0.0684887</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0761018</v>
+        <v>0.07531210000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0824701</v>
+        <v>0.080106</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0729717</v>
+        <v>0.0749715</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0845968</v>
+        <v>0.08397399999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0889315</v>
+        <v>0.0919581</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0837425</v>
+        <v>0.0837374</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.09705809999999999</v>
+        <v>0.09609379999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.105815</v>
+        <v>0.106771</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0959415</v>
+        <v>0.0943346</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.115437</v>
+        <v>0.118571</v>
       </c>
       <c r="C22" t="n">
-        <v>0.132249</v>
+        <v>0.135248</v>
       </c>
       <c r="D22" t="n">
-        <v>0.119748</v>
+        <v>0.118449</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.152284</v>
+        <v>0.14947</v>
       </c>
       <c r="C23" t="n">
-        <v>0.169292</v>
+        <v>0.182274</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0572378</v>
+        <v>0.0571492</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0651663</v>
+        <v>0.06652189999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0586213</v>
+        <v>0.0585655</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0571818</v>
+        <v>0.0572952</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0630198</v>
+        <v>0.0622672</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0582211</v>
+        <v>0.0607796</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0592238</v>
+        <v>0.0580749</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.064152</v>
+        <v>0.06365270000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0609272</v>
+        <v>0.0592334</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0582864</v>
+        <v>0.0587567</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0655997</v>
+        <v>0.063925</v>
       </c>
       <c r="C27" t="n">
-        <v>0.059999</v>
+        <v>0.0615649</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0577657</v>
+        <v>0.0596367</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0675834</v>
+        <v>0.06513140000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0600643</v>
+        <v>0.0614989</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0589344</v>
+        <v>0.0590851</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.06837020000000001</v>
+        <v>0.0686122</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0646211</v>
+        <v>0.0622691</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0616195</v>
+        <v>0.060347</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.070911</v>
+        <v>0.06845229999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0647876</v>
+        <v>0.0660477</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0622494</v>
+        <v>0.06392780000000001</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0713234</v>
+        <v>0.07070170000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0670248</v>
+        <v>0.0668113</v>
       </c>
       <c r="D31" t="n">
-        <v>0.06638570000000001</v>
+        <v>0.0651364</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0731662</v>
+        <v>0.07249709999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0747164</v>
+        <v>0.0720967</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0705658</v>
+        <v>0.0707651</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0779405</v>
+        <v>0.0773466</v>
       </c>
       <c r="C33" t="n">
-        <v>0.07915</v>
+        <v>0.0791202</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0739684</v>
+        <v>0.0753086</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0869206</v>
+        <v>0.0871683</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0885362</v>
+        <v>0.0899481</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0875518</v>
+        <v>0.0850486</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0993864</v>
+        <v>0.0997897</v>
       </c>
       <c r="C35" t="n">
-        <v>0.107452</v>
+        <v>0.105805</v>
       </c>
       <c r="D35" t="n">
-        <v>0.101125</v>
+        <v>0.0980129</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.116921</v>
+        <v>0.124052</v>
       </c>
       <c r="C36" t="n">
-        <v>0.12964</v>
+        <v>0.128665</v>
       </c>
       <c r="D36" t="n">
-        <v>0.118952</v>
+        <v>0.119336</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.149003</v>
+        <v>0.153659</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1829</v>
+        <v>0.169106</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0603336</v>
+        <v>0.059815</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0689524</v>
+        <v>0.0693001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.06411210000000001</v>
+        <v>0.0606356</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0591782</v>
+        <v>0.0603642</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.07073359999999999</v>
+        <v>0.0695698</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0623753</v>
+        <v>0.06465750000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.06360979999999999</v>
+        <v>0.0612208</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0685395</v>
+        <v>0.0685071</v>
       </c>
       <c r="C40" t="n">
-        <v>0.06565940000000001</v>
+        <v>0.06371789999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0628672</v>
+        <v>0.0650234</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.07122199999999999</v>
+        <v>0.0694635</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0670645</v>
+        <v>0.0648971</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0612661</v>
+        <v>0.0623476</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0725157</v>
+        <v>0.07169159999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0667962</v>
+        <v>0.0669908</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0635063</v>
+        <v>0.0645144</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0726614</v>
+        <v>0.0738939</v>
       </c>
       <c r="C43" t="n">
-        <v>0.069811</v>
+        <v>0.0668797</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0638145</v>
+        <v>0.06586400000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0754572</v>
+        <v>0.0746068</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0701203</v>
+        <v>0.06972159999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.06648610000000001</v>
+        <v>0.0666117</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.07769230000000001</v>
+        <v>0.0762449</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0730247</v>
+        <v>0.0725886</v>
       </c>
       <c r="D45" t="n">
-        <v>0.069326</v>
+        <v>0.0717516</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0815948</v>
+        <v>0.08144179999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0763837</v>
+        <v>0.07868799999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07198350000000001</v>
+        <v>0.0715619</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0872025</v>
+        <v>0.08580740000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0808186</v>
+        <v>0.08529299999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.07665420000000001</v>
+        <v>0.0826906</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.09282849999999999</v>
+        <v>0.0915581</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0930901</v>
+        <v>0.08952839999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.08942840000000001</v>
+        <v>0.0897514</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.102175</v>
+        <v>0.102924</v>
       </c>
       <c r="C49" t="n">
-        <v>0.102246</v>
+        <v>0.104612</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0974264</v>
+        <v>0.09742190000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.118002</v>
+        <v>0.118279</v>
       </c>
       <c r="C50" t="n">
-        <v>0.123215</v>
+        <v>0.122807</v>
       </c>
       <c r="D50" t="n">
-        <v>0.116103</v>
+        <v>0.118602</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.149902</v>
+        <v>0.147724</v>
       </c>
       <c r="C51" t="n">
-        <v>0.156865</v>
+        <v>0.155883</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0666432</v>
+        <v>0.066181</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.188945</v>
+        <v>0.186722</v>
       </c>
       <c r="C52" t="n">
-        <v>0.206533</v>
+        <v>0.207831</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0645218</v>
+        <v>0.0677545</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.08231289999999999</v>
+        <v>0.0810341</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07126010000000001</v>
+        <v>0.0732241</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0690423</v>
+        <v>0.0670144</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0808053</v>
+        <v>0.08230469999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0717573</v>
+        <v>0.0729192</v>
       </c>
       <c r="D54" t="n">
-        <v>0.06746199999999999</v>
+        <v>0.0670116</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.08138189999999999</v>
+        <v>0.08360099999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0743471</v>
+        <v>0.0743142</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0678993</v>
+        <v>0.0676587</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0860345</v>
+        <v>0.08265550000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0764553</v>
+        <v>0.0773616</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0689048</v>
+        <v>0.0684641</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0857059</v>
+        <v>0.08512</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0784069</v>
+        <v>0.0785029</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0735374</v>
+        <v>0.07270799999999999</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0878066</v>
+        <v>0.0878935</v>
       </c>
       <c r="C58" t="n">
-        <v>0.07896400000000001</v>
+        <v>0.0810487</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0737278</v>
+        <v>0.0756324</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0895932</v>
+        <v>0.0872296</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0817271</v>
+        <v>0.0828687</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0746942</v>
+        <v>0.0756923</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0912688</v>
+        <v>0.0951198</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0892371</v>
+        <v>0.08907130000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0772008</v>
+        <v>0.0799091</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.09864000000000001</v>
+        <v>0.097507</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0953985</v>
+        <v>0.0942332</v>
       </c>
       <c r="D61" t="n">
-        <v>0.08553379999999999</v>
+        <v>0.08420900000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.104409</v>
+        <v>0.101371</v>
       </c>
       <c r="C62" t="n">
-        <v>0.10154</v>
+        <v>0.102956</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0933253</v>
+        <v>0.0965558</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.114348</v>
+        <v>0.113594</v>
       </c>
       <c r="C63" t="n">
-        <v>0.119024</v>
+        <v>0.114341</v>
       </c>
       <c r="D63" t="n">
-        <v>0.103135</v>
+        <v>0.113005</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.128773</v>
+        <v>0.126719</v>
       </c>
       <c r="C64" t="n">
-        <v>0.133529</v>
+        <v>0.133719</v>
       </c>
       <c r="D64" t="n">
-        <v>0.12585</v>
+        <v>0.123536</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.156946</v>
+        <v>0.153903</v>
       </c>
       <c r="C65" t="n">
-        <v>0.168753</v>
+        <v>0.160894</v>
       </c>
       <c r="D65" t="n">
-        <v>0.147801</v>
+        <v>0.149782</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.198869</v>
+        <v>0.193946</v>
       </c>
       <c r="C66" t="n">
-        <v>0.215605</v>
+        <v>0.213429</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0714273</v>
+        <v>0.07121769999999999</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.09312719999999999</v>
+        <v>0.0905175</v>
       </c>
       <c r="C67" t="n">
-        <v>0.079816</v>
+        <v>0.0832059</v>
       </c>
       <c r="D67" t="n">
-        <v>0.07085329999999999</v>
+        <v>0.0730923</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0940641</v>
+        <v>0.09197950000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0821914</v>
+        <v>0.0819213</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0742033</v>
+        <v>0.07621070000000001</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.098119</v>
+        <v>0.0939979</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0848749</v>
+        <v>0.0846321</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0749143</v>
+        <v>0.07506790000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0967594</v>
+        <v>0.0987874</v>
       </c>
       <c r="C70" t="n">
-        <v>0.08659409999999999</v>
+        <v>0.08769150000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0764838</v>
+        <v>0.07544389999999999</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0968159</v>
+        <v>0.0987634</v>
       </c>
       <c r="C71" t="n">
-        <v>0.092116</v>
+        <v>0.0902271</v>
       </c>
       <c r="D71" t="n">
-        <v>0.079031</v>
+        <v>0.0807291</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.103723</v>
+        <v>0.09891800000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.09354179999999999</v>
+        <v>0.0930996</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0802392</v>
+        <v>0.08066719999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.10537</v>
+        <v>0.102806</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0983595</v>
+        <v>0.09856239999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.084088</v>
+        <v>0.08393929999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.107356</v>
+        <v>0.10726</v>
       </c>
       <c r="C74" t="n">
-        <v>0.106135</v>
+        <v>0.106154</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0868738</v>
+        <v>0.0868347</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.115047</v>
+        <v>0.114576</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1098</v>
+        <v>0.111956</v>
       </c>
       <c r="D75" t="n">
-        <v>0.09229859999999999</v>
+        <v>0.09546109999999999</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.122318</v>
+        <v>0.125053</v>
       </c>
       <c r="C76" t="n">
-        <v>0.122171</v>
+        <v>0.122553</v>
       </c>
       <c r="D76" t="n">
-        <v>0.10014</v>
+        <v>0.104078</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.135991</v>
+        <v>0.136724</v>
       </c>
       <c r="C77" t="n">
-        <v>0.132325</v>
+        <v>0.13394</v>
       </c>
       <c r="D77" t="n">
-        <v>0.113217</v>
+        <v>0.114896</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.156949</v>
+        <v>0.1531</v>
       </c>
       <c r="C78" t="n">
-        <v>0.153582</v>
+        <v>0.149649</v>
       </c>
       <c r="D78" t="n">
-        <v>0.13212</v>
+        <v>0.134987</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.17583</v>
+        <v>0.18434</v>
       </c>
       <c r="C79" t="n">
-        <v>0.190396</v>
+        <v>0.181246</v>
       </c>
       <c r="D79" t="n">
-        <v>0.158806</v>
+        <v>0.159636</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.217569</v>
+        <v>0.231465</v>
       </c>
       <c r="C80" t="n">
-        <v>0.239774</v>
+        <v>0.234334</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0787076</v>
+        <v>0.0798333</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.107241</v>
+        <v>0.108357</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09923700000000001</v>
+        <v>0.102684</v>
       </c>
       <c r="D81" t="n">
-        <v>0.08372839999999999</v>
+        <v>0.07878830000000001</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.111069</v>
+        <v>0.112265</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0986137</v>
+        <v>0.104075</v>
       </c>
       <c r="D82" t="n">
-        <v>0.08199679999999999</v>
+        <v>0.0810975</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.113874</v>
+        <v>0.119228</v>
       </c>
       <c r="C83" t="n">
-        <v>0.100907</v>
+        <v>0.107602</v>
       </c>
       <c r="D83" t="n">
-        <v>0.08694490000000001</v>
+        <v>0.08534410000000001</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.11572</v>
+        <v>0.124183</v>
       </c>
       <c r="C84" t="n">
-        <v>0.104878</v>
+        <v>0.104669</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0849244</v>
+        <v>0.0886817</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.116977</v>
+        <v>0.117926</v>
       </c>
       <c r="C85" t="n">
-        <v>0.11391</v>
+        <v>0.110342</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0883207</v>
+        <v>0.0929104</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.121802</v>
+        <v>0.13159</v>
       </c>
       <c r="C86" t="n">
-        <v>0.113085</v>
+        <v>0.125318</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0922491</v>
+        <v>0.0932576</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.125013</v>
+        <v>0.125886</v>
       </c>
       <c r="C87" t="n">
-        <v>0.117307</v>
+        <v>0.115484</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0942471</v>
+        <v>0.09568</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.130491</v>
+        <v>0.130679</v>
       </c>
       <c r="C88" t="n">
-        <v>0.125635</v>
+        <v>0.121717</v>
       </c>
       <c r="D88" t="n">
-        <v>0.099617</v>
+        <v>0.101407</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.138302</v>
+        <v>0.137545</v>
       </c>
       <c r="C89" t="n">
-        <v>0.128729</v>
+        <v>0.137082</v>
       </c>
       <c r="D89" t="n">
-        <v>0.105558</v>
+        <v>0.106789</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.150106</v>
+        <v>0.151842</v>
       </c>
       <c r="C90" t="n">
-        <v>0.141767</v>
+        <v>0.141604</v>
       </c>
       <c r="D90" t="n">
-        <v>0.114599</v>
+        <v>0.11504</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.156201</v>
+        <v>0.158354</v>
       </c>
       <c r="C91" t="n">
-        <v>0.15319</v>
+        <v>0.153617</v>
       </c>
       <c r="D91" t="n">
-        <v>0.125165</v>
+        <v>0.125856</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.175574</v>
+        <v>0.174401</v>
       </c>
       <c r="C92" t="n">
-        <v>0.174166</v>
+        <v>0.174643</v>
       </c>
       <c r="D92" t="n">
-        <v>0.144753</v>
+        <v>0.144821</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.205245</v>
+        <v>0.201598</v>
       </c>
       <c r="C93" t="n">
-        <v>0.212651</v>
+        <v>0.208367</v>
       </c>
       <c r="D93" t="n">
-        <v>0.166046</v>
+        <v>0.168312</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.235242</v>
+        <v>0.236916</v>
       </c>
       <c r="C94" t="n">
-        <v>0.253475</v>
+        <v>0.253972</v>
       </c>
       <c r="D94" t="n">
-        <v>0.102088</v>
+        <v>0.09854060000000001</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.137658</v>
+        <v>0.135211</v>
       </c>
       <c r="C95" t="n">
-        <v>0.123401</v>
+        <v>0.125566</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0996891</v>
+        <v>0.100833</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.142312</v>
+        <v>0.139359</v>
       </c>
       <c r="C96" t="n">
-        <v>0.129049</v>
+        <v>0.124705</v>
       </c>
       <c r="D96" t="n">
-        <v>0.104187</v>
+        <v>0.102159</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1438</v>
+        <v>0.144166</v>
       </c>
       <c r="C97" t="n">
-        <v>0.130789</v>
+        <v>0.131759</v>
       </c>
       <c r="D97" t="n">
-        <v>0.104202</v>
+        <v>0.103415</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.146886</v>
+        <v>0.14367</v>
       </c>
       <c r="C98" t="n">
-        <v>0.133421</v>
+        <v>0.130455</v>
       </c>
       <c r="D98" t="n">
-        <v>0.107976</v>
+        <v>0.108699</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.152151</v>
+        <v>0.152934</v>
       </c>
       <c r="C99" t="n">
-        <v>0.136954</v>
+        <v>0.134993</v>
       </c>
       <c r="D99" t="n">
-        <v>0.109834</v>
+        <v>0.109049</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.154213</v>
+        <v>0.15069</v>
       </c>
       <c r="C100" t="n">
-        <v>0.141835</v>
+        <v>0.146092</v>
       </c>
       <c r="D100" t="n">
-        <v>0.115784</v>
+        <v>0.114834</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.157521</v>
+        <v>0.163264</v>
       </c>
       <c r="C101" t="n">
-        <v>0.149046</v>
+        <v>0.143711</v>
       </c>
       <c r="D101" t="n">
-        <v>0.119105</v>
+        <v>0.114502</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.160171</v>
+        <v>0.163769</v>
       </c>
       <c r="C102" t="n">
-        <v>0.15567</v>
+        <v>0.154025</v>
       </c>
       <c r="D102" t="n">
-        <v>0.12248</v>
+        <v>0.119054</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.170461</v>
+        <v>0.169717</v>
       </c>
       <c r="C103" t="n">
-        <v>0.161701</v>
+        <v>0.161284</v>
       </c>
       <c r="D103" t="n">
-        <v>0.126672</v>
+        <v>0.128306</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.177628</v>
+        <v>0.178342</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1684</v>
+        <v>0.173711</v>
       </c>
       <c r="D104" t="n">
-        <v>0.135723</v>
+        <v>0.1358</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.188365</v>
+        <v>0.188578</v>
       </c>
       <c r="C105" t="n">
-        <v>0.184349</v>
+        <v>0.188787</v>
       </c>
       <c r="D105" t="n">
-        <v>0.150343</v>
+        <v>0.147471</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.210092</v>
+        <v>0.214127</v>
       </c>
       <c r="C106" t="n">
-        <v>0.214249</v>
+        <v>0.212695</v>
       </c>
       <c r="D106" t="n">
-        <v>0.162462</v>
+        <v>0.162818</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.23526</v>
+        <v>0.236552</v>
       </c>
       <c r="C107" t="n">
-        <v>0.248516</v>
+        <v>0.240417</v>
       </c>
       <c r="D107" t="n">
-        <v>0.184555</v>
+        <v>0.190872</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.270354</v>
+        <v>0.281363</v>
       </c>
       <c r="C108" t="n">
-        <v>0.28912</v>
+        <v>0.290284</v>
       </c>
       <c r="D108" t="n">
-        <v>0.175604</v>
+        <v>0.176632</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.340623</v>
+        <v>0.355725</v>
       </c>
       <c r="C109" t="n">
-        <v>0.364474</v>
+        <v>0.366496</v>
       </c>
       <c r="D109" t="n">
-        <v>0.179224</v>
+        <v>0.188629</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.225577</v>
+        <v>0.227827</v>
       </c>
       <c r="C110" t="n">
-        <v>0.211557</v>
+        <v>0.210383</v>
       </c>
       <c r="D110" t="n">
-        <v>0.18068</v>
+        <v>0.186397</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.235089</v>
+        <v>0.253475</v>
       </c>
       <c r="C111" t="n">
-        <v>0.208387</v>
+        <v>0.220406</v>
       </c>
       <c r="D111" t="n">
-        <v>0.180815</v>
+        <v>0.180626</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.244439</v>
+        <v>0.252463</v>
       </c>
       <c r="C112" t="n">
-        <v>0.210644</v>
+        <v>0.211615</v>
       </c>
       <c r="D112" t="n">
-        <v>0.184221</v>
+        <v>0.181602</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.243901</v>
+        <v>0.250813</v>
       </c>
       <c r="C113" t="n">
-        <v>0.217446</v>
+        <v>0.233447</v>
       </c>
       <c r="D113" t="n">
-        <v>0.200138</v>
+        <v>0.184824</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.244271</v>
+        <v>0.254308</v>
       </c>
       <c r="C114" t="n">
-        <v>0.225355</v>
+        <v>0.235027</v>
       </c>
       <c r="D114" t="n">
-        <v>0.19328</v>
+        <v>0.209743</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.245293</v>
+        <v>0.247491</v>
       </c>
       <c r="C115" t="n">
-        <v>0.225775</v>
+        <v>0.251138</v>
       </c>
       <c r="D115" t="n">
-        <v>0.200177</v>
+        <v>0.212204</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.250842</v>
+        <v>0.259126</v>
       </c>
       <c r="C116" t="n">
-        <v>0.233999</v>
+        <v>0.239724</v>
       </c>
       <c r="D116" t="n">
-        <v>0.202248</v>
+        <v>0.195972</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.265303</v>
+        <v>0.257198</v>
       </c>
       <c r="C117" t="n">
-        <v>0.24348</v>
+        <v>0.246019</v>
       </c>
       <c r="D117" t="n">
-        <v>0.206437</v>
+        <v>0.199867</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.258735</v>
+        <v>0.288464</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2535</v>
+        <v>0.257039</v>
       </c>
       <c r="D118" t="n">
-        <v>0.200168</v>
+        <v>0.213611</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.265929</v>
+        <v>0.29828</v>
       </c>
       <c r="C119" t="n">
-        <v>0.247551</v>
+        <v>0.264617</v>
       </c>
       <c r="D119" t="n">
-        <v>0.207325</v>
+        <v>0.217299</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.275965</v>
+        <v>0.297289</v>
       </c>
       <c r="C120" t="n">
-        <v>0.270039</v>
+        <v>0.288257</v>
       </c>
       <c r="D120" t="n">
-        <v>0.224844</v>
+        <v>0.238049</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.305325</v>
+        <v>0.323692</v>
       </c>
       <c r="C121" t="n">
-        <v>0.311932</v>
+        <v>0.339051</v>
       </c>
       <c r="D121" t="n">
-        <v>0.25957</v>
+        <v>0.271649</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.369517</v>
+        <v>0.383114</v>
       </c>
       <c r="C122" t="n">
-        <v>0.365745</v>
+        <v>0.367751</v>
       </c>
       <c r="D122" t="n">
-        <v>0.301241</v>
+        <v>0.29867</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.443469</v>
+        <v>0.440113</v>
       </c>
       <c r="C123" t="n">
-        <v>0.448011</v>
+        <v>0.454146</v>
       </c>
       <c r="D123" t="n">
-        <v>0.292358</v>
+        <v>0.296621</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.372144</v>
+        <v>0.3708</v>
       </c>
       <c r="C124" t="n">
-        <v>0.320767</v>
+        <v>0.322918</v>
       </c>
       <c r="D124" t="n">
-        <v>0.280692</v>
+        <v>0.294317</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.375046</v>
+        <v>0.376276</v>
       </c>
       <c r="C125" t="n">
-        <v>0.330542</v>
+        <v>0.319391</v>
       </c>
       <c r="D125" t="n">
-        <v>0.286214</v>
+        <v>0.284149</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.373056</v>
+        <v>0.375818</v>
       </c>
       <c r="C126" t="n">
-        <v>0.317168</v>
+        <v>0.325904</v>
       </c>
       <c r="D126" t="n">
-        <v>0.293963</v>
+        <v>0.296302</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.391724</v>
+        <v>0.384011</v>
       </c>
       <c r="C127" t="n">
-        <v>0.322845</v>
+        <v>0.328629</v>
       </c>
       <c r="D127" t="n">
-        <v>0.297425</v>
+        <v>0.294386</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.384496</v>
+        <v>0.382229</v>
       </c>
       <c r="C128" t="n">
-        <v>0.336371</v>
+        <v>0.341502</v>
       </c>
       <c r="D128" t="n">
-        <v>0.30009</v>
+        <v>0.298569</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.414483</v>
+        <v>0.398279</v>
       </c>
       <c r="C129" t="n">
-        <v>0.347042</v>
+        <v>0.340287</v>
       </c>
       <c r="D129" t="n">
-        <v>0.299506</v>
+        <v>0.318279</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.39964</v>
+        <v>0.402653</v>
       </c>
       <c r="C130" t="n">
-        <v>0.346695</v>
+        <v>0.346739</v>
       </c>
       <c r="D130" t="n">
-        <v>0.316584</v>
+        <v>0.304389</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.410334</v>
+        <v>0.399324</v>
       </c>
       <c r="C131" t="n">
-        <v>0.36272</v>
+        <v>0.365552</v>
       </c>
       <c r="D131" t="n">
-        <v>0.307586</v>
+        <v>0.316843</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.412598</v>
+        <v>0.423641</v>
       </c>
       <c r="C132" t="n">
-        <v>0.381918</v>
+        <v>0.371317</v>
       </c>
       <c r="D132" t="n">
-        <v>0.330399</v>
+        <v>0.324322</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.431597</v>
+        <v>0.428339</v>
       </c>
       <c r="C133" t="n">
-        <v>0.385359</v>
+        <v>0.380155</v>
       </c>
       <c r="D133" t="n">
-        <v>0.326568</v>
+        <v>0.331086</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.45577</v>
+        <v>0.467337</v>
       </c>
       <c r="C134" t="n">
-        <v>0.416255</v>
+        <v>0.418854</v>
       </c>
       <c r="D134" t="n">
-        <v>0.352915</v>
+        <v>0.362387</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.484133</v>
+        <v>0.484268</v>
       </c>
       <c r="C135" t="n">
-        <v>0.440504</v>
+        <v>0.455881</v>
       </c>
       <c r="D135" t="n">
-        <v>0.378948</v>
+        <v>0.374562</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.550085</v>
+        <v>0.534822</v>
       </c>
       <c r="C136" t="n">
-        <v>0.501435</v>
+        <v>0.508711</v>
       </c>
       <c r="D136" t="n">
-        <v>0.422533</v>
+        <v>0.430731</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.623653</v>
+        <v>0.621318</v>
       </c>
       <c r="C137" t="n">
-        <v>0.608112</v>
+        <v>0.587279</v>
       </c>
       <c r="D137" t="n">
-        <v>0.345303</v>
+        <v>0.342379</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.459137</v>
+        <v>0.450696</v>
       </c>
       <c r="C138" t="n">
-        <v>0.389531</v>
+        <v>0.378355</v>
       </c>
       <c r="D138" t="n">
-        <v>0.351949</v>
+        <v>0.352971</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.4616</v>
+        <v>0.450965</v>
       </c>
       <c r="C139" t="n">
-        <v>0.384166</v>
+        <v>0.395304</v>
       </c>
       <c r="D139" t="n">
-        <v>0.345671</v>
+        <v>0.349093</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.45778</v>
+        <v>0.459779</v>
       </c>
       <c r="C140" t="n">
-        <v>0.381912</v>
+        <v>0.386914</v>
       </c>
       <c r="D140" t="n">
-        <v>0.353086</v>
+        <v>0.353718</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.460782</v>
+        <v>0.46016</v>
       </c>
       <c r="C141" t="n">
-        <v>0.395251</v>
+        <v>0.400375</v>
       </c>
       <c r="D141" t="n">
-        <v>0.359841</v>
+        <v>0.354749</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.477437</v>
+        <v>0.469649</v>
       </c>
       <c r="C142" t="n">
-        <v>0.410586</v>
+        <v>0.398517</v>
       </c>
       <c r="D142" t="n">
-        <v>0.362995</v>
+        <v>0.361131</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.479389</v>
+        <v>0.474063</v>
       </c>
       <c r="C143" t="n">
-        <v>0.40901</v>
+        <v>0.402601</v>
       </c>
       <c r="D143" t="n">
-        <v>0.373351</v>
+        <v>0.372008</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0619573</v>
+        <v>0.0624152</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0629555</v>
+        <v>0.06327380000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0590918</v>
+        <v>0.0575056</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0627317</v>
+        <v>0.0615526</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06563960000000001</v>
+        <v>0.06643979999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0587274</v>
+        <v>0.0612916</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0659227</v>
+        <v>0.06552769999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0689328</v>
+        <v>0.0687869</v>
       </c>
       <c r="D4" t="n">
-        <v>0.062873</v>
+        <v>0.0624571</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.071676</v>
+        <v>0.07109799999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0796145</v>
+        <v>0.0756642</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0706122</v>
+        <v>0.069233</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0790256</v>
+        <v>0.0799343</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08689180000000001</v>
+        <v>0.0865615</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0755612</v>
+        <v>0.0763358</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0989153</v>
+        <v>0.0941273</v>
       </c>
       <c r="C7" t="n">
-        <v>0.100542</v>
+        <v>0.103137</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09102689999999999</v>
+        <v>0.0884055</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.124266</v>
+        <v>0.119975</v>
       </c>
       <c r="C8" t="n">
-        <v>0.133592</v>
+        <v>0.134137</v>
       </c>
       <c r="D8" t="n">
-        <v>0.112341</v>
+        <v>0.110594</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.15394</v>
+        <v>0.15183</v>
       </c>
       <c r="C9" t="n">
-        <v>0.174808</v>
+        <v>0.164689</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0533548</v>
+        <v>0.0543717</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0613866</v>
+        <v>0.0599563</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0565662</v>
+        <v>0.0563387</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0545783</v>
+        <v>0.0549953</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0597932</v>
+        <v>0.0600829</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0552188</v>
+        <v>0.0563178</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0550296</v>
+        <v>0.0548858</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0598136</v>
+        <v>0.0591514</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0564262</v>
+        <v>0.0583873</v>
       </c>
       <c r="D12" t="n">
-        <v>0.054929</v>
+        <v>0.0558551</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0608637</v>
+        <v>0.0625464</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0588749</v>
+        <v>0.0561947</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0554788</v>
+        <v>0.0567359</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0606786</v>
+        <v>0.062112</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0593688</v>
+        <v>0.0598463</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0583818</v>
+        <v>0.0566498</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0631343</v>
+        <v>0.0626845</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0601327</v>
+        <v>0.0617566</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0593018</v>
+        <v>0.0583303</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.06490700000000001</v>
+        <v>0.0651685</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0636226</v>
+        <v>0.0633779</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0603909</v>
+        <v>0.0629058</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0675926</v>
+        <v>0.06631919999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0676525</v>
+        <v>0.066951</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0634663</v>
+        <v>0.0627163</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07134160000000001</v>
+        <v>0.0708202</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0744889</v>
+        <v>0.0728275</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0684887</v>
+        <v>0.0678178</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07531210000000001</v>
+        <v>0.0773021</v>
       </c>
       <c r="C19" t="n">
-        <v>0.080106</v>
+        <v>0.0819645</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0749715</v>
+        <v>0.07473490000000001</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08397399999999999</v>
+        <v>0.0866325</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0919581</v>
+        <v>0.08864610000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0837374</v>
+        <v>0.0818982</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.09609379999999999</v>
+        <v>0.100136</v>
       </c>
       <c r="C21" t="n">
-        <v>0.106771</v>
+        <v>0.106613</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0943346</v>
+        <v>0.0977852</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.118571</v>
+        <v>0.119514</v>
       </c>
       <c r="C22" t="n">
-        <v>0.135248</v>
+        <v>0.136565</v>
       </c>
       <c r="D22" t="n">
-        <v>0.118449</v>
+        <v>0.119294</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.14947</v>
+        <v>0.152968</v>
       </c>
       <c r="C23" t="n">
-        <v>0.182274</v>
+        <v>0.170997</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0571492</v>
+        <v>0.0561914</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06652189999999999</v>
+        <v>0.06426179999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0585655</v>
+        <v>0.0577691</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0572952</v>
+        <v>0.0568181</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0622672</v>
+        <v>0.0629043</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0607796</v>
+        <v>0.0597157</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0580749</v>
+        <v>0.0579867</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.06365270000000001</v>
+        <v>0.0659472</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0592334</v>
+        <v>0.0588859</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0587567</v>
+        <v>0.0572066</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.063925</v>
+        <v>0.0663304</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0615649</v>
+        <v>0.0598404</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0596367</v>
+        <v>0.0586808</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.06513140000000001</v>
+        <v>0.0676974</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0614989</v>
+        <v>0.0632086</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0590851</v>
+        <v>0.0599091</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0686122</v>
+        <v>0.0687425</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0622691</v>
+        <v>0.06555</v>
       </c>
       <c r="D29" t="n">
-        <v>0.060347</v>
+        <v>0.0614616</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.06845229999999999</v>
+        <v>0.06815069999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0660477</v>
+        <v>0.06485680000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06392780000000001</v>
+        <v>0.0627037</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.07070170000000001</v>
+        <v>0.0694535</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0668113</v>
+        <v>0.0690224</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0651364</v>
+        <v>0.0653744</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.07249709999999999</v>
+        <v>0.0737</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0720967</v>
+        <v>0.07205830000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0707651</v>
+        <v>0.0701119</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0773466</v>
+        <v>0.08042820000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0791202</v>
+        <v>0.0783341</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0753086</v>
+        <v>0.07746359999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0871683</v>
+        <v>0.0899814</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0899481</v>
+        <v>0.0914288</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0850486</v>
+        <v>0.0852234</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0997897</v>
+        <v>0.103885</v>
       </c>
       <c r="C35" t="n">
-        <v>0.105805</v>
+        <v>0.108102</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0980129</v>
+        <v>0.0964795</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.124052</v>
+        <v>0.11418</v>
       </c>
       <c r="C36" t="n">
-        <v>0.128665</v>
+        <v>0.127288</v>
       </c>
       <c r="D36" t="n">
-        <v>0.119336</v>
+        <v>0.121145</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.153659</v>
+        <v>0.151768</v>
       </c>
       <c r="C37" t="n">
-        <v>0.169106</v>
+        <v>0.172334</v>
       </c>
       <c r="D37" t="n">
-        <v>0.059815</v>
+        <v>0.0606795</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0693001</v>
+        <v>0.0719992</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0606356</v>
+        <v>0.0625479</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0603642</v>
+        <v>0.0616692</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0695698</v>
+        <v>0.0723887</v>
       </c>
       <c r="C39" t="n">
-        <v>0.06465750000000001</v>
+        <v>0.0644883</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0612208</v>
+        <v>0.0611885</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0685071</v>
+        <v>0.0688907</v>
       </c>
       <c r="C40" t="n">
-        <v>0.06371789999999999</v>
+        <v>0.06528929999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0650234</v>
+        <v>0.0631758</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0694635</v>
+        <v>0.072296</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0648971</v>
+        <v>0.06591669999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0623476</v>
+        <v>0.0634723</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.07169159999999999</v>
+        <v>0.07314279999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0669908</v>
+        <v>0.064777</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0645144</v>
+        <v>0.06374589999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0738939</v>
+        <v>0.0729071</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0668797</v>
+        <v>0.0692123</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06586400000000001</v>
+        <v>0.0643735</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0746068</v>
+        <v>0.0741356</v>
       </c>
       <c r="C44" t="n">
-        <v>0.06972159999999999</v>
+        <v>0.06950190000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0666117</v>
+        <v>0.0663735</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0762449</v>
+        <v>0.08049530000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0725886</v>
+        <v>0.0732831</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0717516</v>
+        <v>0.067967</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.08144179999999999</v>
+        <v>0.0796465</v>
       </c>
       <c r="C46" t="n">
-        <v>0.07868799999999999</v>
+        <v>0.0756165</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0715619</v>
+        <v>0.07544140000000001</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.08580740000000001</v>
+        <v>0.084587</v>
       </c>
       <c r="C47" t="n">
-        <v>0.08529299999999999</v>
+        <v>0.08343780000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0826906</v>
+        <v>0.0775854</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0915581</v>
+        <v>0.0924393</v>
       </c>
       <c r="C48" t="n">
-        <v>0.08952839999999999</v>
+        <v>0.0950619</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0897514</v>
+        <v>0.0870064</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.102924</v>
+        <v>0.102215</v>
       </c>
       <c r="C49" t="n">
-        <v>0.104612</v>
+        <v>0.103702</v>
       </c>
       <c r="D49" t="n">
-        <v>0.09742190000000001</v>
+        <v>0.09883210000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.118279</v>
+        <v>0.123149</v>
       </c>
       <c r="C50" t="n">
-        <v>0.122807</v>
+        <v>0.124227</v>
       </c>
       <c r="D50" t="n">
-        <v>0.118602</v>
+        <v>0.118476</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.147724</v>
+        <v>0.146205</v>
       </c>
       <c r="C51" t="n">
-        <v>0.155883</v>
+        <v>0.156598</v>
       </c>
       <c r="D51" t="n">
-        <v>0.066181</v>
+        <v>0.06521009999999999</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.186722</v>
+        <v>0.19589</v>
       </c>
       <c r="C52" t="n">
-        <v>0.207831</v>
+        <v>0.205829</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0677545</v>
+        <v>0.0656899</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0810341</v>
+        <v>0.08175780000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0732241</v>
+        <v>0.0730864</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0670144</v>
+        <v>0.06727</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.08230469999999999</v>
+        <v>0.08274910000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0729192</v>
+        <v>0.07414370000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0670116</v>
+        <v>0.0706136</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.08360099999999999</v>
+        <v>0.0855091</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0743142</v>
+        <v>0.0745546</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0676587</v>
+        <v>0.0690028</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08265550000000001</v>
+        <v>0.08170669999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0773616</v>
+        <v>0.0761411</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0684641</v>
+        <v>0.0697644</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.08512</v>
+        <v>0.08419459999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0785029</v>
+        <v>0.0825472</v>
       </c>
       <c r="D57" t="n">
-        <v>0.07270799999999999</v>
+        <v>0.0703215</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0878935</v>
+        <v>0.087814</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0810487</v>
+        <v>0.0810415</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0756324</v>
+        <v>0.07533819999999999</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0872296</v>
+        <v>0.08739429999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0828687</v>
+        <v>0.08584120000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0756923</v>
+        <v>0.0815119</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0951198</v>
+        <v>0.094016</v>
       </c>
       <c r="C60" t="n">
-        <v>0.08907130000000001</v>
+        <v>0.0876755</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0799091</v>
+        <v>0.0791084</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.097507</v>
+        <v>0.09940640000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0942332</v>
+        <v>0.09309969999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.08420900000000001</v>
+        <v>0.0845067</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.101371</v>
+        <v>0.104767</v>
       </c>
       <c r="C62" t="n">
-        <v>0.102956</v>
+        <v>0.102354</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0965558</v>
+        <v>0.09249590000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.113594</v>
+        <v>0.112176</v>
       </c>
       <c r="C63" t="n">
-        <v>0.114341</v>
+        <v>0.117195</v>
       </c>
       <c r="D63" t="n">
-        <v>0.113005</v>
+        <v>0.102677</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.126719</v>
+        <v>0.126893</v>
       </c>
       <c r="C64" t="n">
-        <v>0.133719</v>
+        <v>0.138894</v>
       </c>
       <c r="D64" t="n">
-        <v>0.123536</v>
+        <v>0.127304</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.153903</v>
+        <v>0.157021</v>
       </c>
       <c r="C65" t="n">
-        <v>0.160894</v>
+        <v>0.16473</v>
       </c>
       <c r="D65" t="n">
-        <v>0.149782</v>
+        <v>0.149226</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.193946</v>
+        <v>0.204948</v>
       </c>
       <c r="C66" t="n">
-        <v>0.213429</v>
+        <v>0.212059</v>
       </c>
       <c r="D66" t="n">
-        <v>0.07121769999999999</v>
+        <v>0.0710267</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0905175</v>
+        <v>0.0904861</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0832059</v>
+        <v>0.0846054</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0730923</v>
+        <v>0.0718343</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.09197950000000001</v>
+        <v>0.0931052</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0819213</v>
+        <v>0.08504009999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07621070000000001</v>
+        <v>0.072823</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0939979</v>
+        <v>0.092623</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0846321</v>
+        <v>0.0856001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.07506790000000001</v>
+        <v>0.0749036</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0987874</v>
+        <v>0.09584040000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.08769150000000001</v>
+        <v>0.0864717</v>
       </c>
       <c r="D70" t="n">
-        <v>0.07544389999999999</v>
+        <v>0.0756623</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0987634</v>
+        <v>0.0970809</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0902271</v>
+        <v>0.0904991</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0807291</v>
+        <v>0.0791574</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.09891800000000001</v>
+        <v>0.100942</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0930996</v>
+        <v>0.0939092</v>
       </c>
       <c r="D72" t="n">
-        <v>0.08066719999999999</v>
+        <v>0.0837798</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.102806</v>
+        <v>0.102518</v>
       </c>
       <c r="C73" t="n">
-        <v>0.09856239999999999</v>
+        <v>0.099777</v>
       </c>
       <c r="D73" t="n">
-        <v>0.08393929999999999</v>
+        <v>0.0837381</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.10726</v>
+        <v>0.105573</v>
       </c>
       <c r="C74" t="n">
-        <v>0.106154</v>
+        <v>0.108667</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0868347</v>
+        <v>0.0864289</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.114576</v>
+        <v>0.114696</v>
       </c>
       <c r="C75" t="n">
-        <v>0.111956</v>
+        <v>0.112102</v>
       </c>
       <c r="D75" t="n">
-        <v>0.09546109999999999</v>
+        <v>0.0973696</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.125053</v>
+        <v>0.119673</v>
       </c>
       <c r="C76" t="n">
-        <v>0.122553</v>
+        <v>0.12332</v>
       </c>
       <c r="D76" t="n">
-        <v>0.104078</v>
+        <v>0.10035</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.136724</v>
+        <v>0.139992</v>
       </c>
       <c r="C77" t="n">
-        <v>0.13394</v>
+        <v>0.138346</v>
       </c>
       <c r="D77" t="n">
-        <v>0.114896</v>
+        <v>0.116232</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.1531</v>
+        <v>0.161984</v>
       </c>
       <c r="C78" t="n">
-        <v>0.149649</v>
+        <v>0.154937</v>
       </c>
       <c r="D78" t="n">
-        <v>0.134987</v>
+        <v>0.129222</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.18434</v>
+        <v>0.185281</v>
       </c>
       <c r="C79" t="n">
-        <v>0.181246</v>
+        <v>0.193667</v>
       </c>
       <c r="D79" t="n">
-        <v>0.159636</v>
+        <v>0.161852</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.231465</v>
+        <v>0.231772</v>
       </c>
       <c r="C80" t="n">
-        <v>0.234334</v>
+        <v>0.246735</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0798333</v>
+        <v>0.0818494</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.108357</v>
+        <v>0.111841</v>
       </c>
       <c r="C81" t="n">
-        <v>0.102684</v>
+        <v>0.103183</v>
       </c>
       <c r="D81" t="n">
-        <v>0.07878830000000001</v>
+        <v>0.08217099999999999</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.112265</v>
+        <v>0.113108</v>
       </c>
       <c r="C82" t="n">
-        <v>0.104075</v>
+        <v>0.106596</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0810975</v>
+        <v>0.084032</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.119228</v>
+        <v>0.118522</v>
       </c>
       <c r="C83" t="n">
-        <v>0.107602</v>
+        <v>0.106637</v>
       </c>
       <c r="D83" t="n">
-        <v>0.08534410000000001</v>
+        <v>0.08560329999999999</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.124183</v>
+        <v>0.122483</v>
       </c>
       <c r="C84" t="n">
-        <v>0.104669</v>
+        <v>0.112596</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0886817</v>
+        <v>0.0889735</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.117926</v>
+        <v>0.12822</v>
       </c>
       <c r="C85" t="n">
-        <v>0.110342</v>
+        <v>0.11665</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0929104</v>
+        <v>0.0953032</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.13159</v>
+        <v>0.133162</v>
       </c>
       <c r="C86" t="n">
-        <v>0.125318</v>
+        <v>0.120302</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0932576</v>
+        <v>0.0968396</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.125886</v>
+        <v>0.136834</v>
       </c>
       <c r="C87" t="n">
-        <v>0.115484</v>
+        <v>0.128542</v>
       </c>
       <c r="D87" t="n">
-        <v>0.09568</v>
+        <v>0.10499</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.130679</v>
+        <v>0.14864</v>
       </c>
       <c r="C88" t="n">
-        <v>0.121717</v>
+        <v>0.133637</v>
       </c>
       <c r="D88" t="n">
-        <v>0.101407</v>
+        <v>0.107267</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.137545</v>
+        <v>0.151454</v>
       </c>
       <c r="C89" t="n">
-        <v>0.137082</v>
+        <v>0.135426</v>
       </c>
       <c r="D89" t="n">
-        <v>0.106789</v>
+        <v>0.114055</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.151842</v>
+        <v>0.160334</v>
       </c>
       <c r="C90" t="n">
-        <v>0.141604</v>
+        <v>0.152962</v>
       </c>
       <c r="D90" t="n">
-        <v>0.11504</v>
+        <v>0.124536</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.158354</v>
+        <v>0.17295</v>
       </c>
       <c r="C91" t="n">
-        <v>0.153617</v>
+        <v>0.165716</v>
       </c>
       <c r="D91" t="n">
-        <v>0.125856</v>
+        <v>0.136406</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.174401</v>
+        <v>0.184571</v>
       </c>
       <c r="C92" t="n">
-        <v>0.174643</v>
+        <v>0.18277</v>
       </c>
       <c r="D92" t="n">
-        <v>0.144821</v>
+        <v>0.152449</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.201598</v>
+        <v>0.21328</v>
       </c>
       <c r="C93" t="n">
-        <v>0.208367</v>
+        <v>0.215968</v>
       </c>
       <c r="D93" t="n">
-        <v>0.168312</v>
+        <v>0.178821</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.236916</v>
+        <v>0.25163</v>
       </c>
       <c r="C94" t="n">
-        <v>0.253972</v>
+        <v>0.257775</v>
       </c>
       <c r="D94" t="n">
-        <v>0.09854060000000001</v>
+        <v>0.110431</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.135211</v>
+        <v>0.147791</v>
       </c>
       <c r="C95" t="n">
-        <v>0.125566</v>
+        <v>0.134856</v>
       </c>
       <c r="D95" t="n">
-        <v>0.100833</v>
+        <v>0.104403</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.139359</v>
+        <v>0.144453</v>
       </c>
       <c r="C96" t="n">
-        <v>0.124705</v>
+        <v>0.137479</v>
       </c>
       <c r="D96" t="n">
-        <v>0.102159</v>
+        <v>0.112124</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.144166</v>
+        <v>0.149614</v>
       </c>
       <c r="C97" t="n">
-        <v>0.131759</v>
+        <v>0.136421</v>
       </c>
       <c r="D97" t="n">
-        <v>0.103415</v>
+        <v>0.112163</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.14367</v>
+        <v>0.150146</v>
       </c>
       <c r="C98" t="n">
-        <v>0.130455</v>
+        <v>0.137859</v>
       </c>
       <c r="D98" t="n">
-        <v>0.108699</v>
+        <v>0.108292</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.152934</v>
+        <v>0.155306</v>
       </c>
       <c r="C99" t="n">
-        <v>0.134993</v>
+        <v>0.135468</v>
       </c>
       <c r="D99" t="n">
-        <v>0.109049</v>
+        <v>0.116899</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.15069</v>
+        <v>0.164331</v>
       </c>
       <c r="C100" t="n">
-        <v>0.146092</v>
+        <v>0.147134</v>
       </c>
       <c r="D100" t="n">
-        <v>0.114834</v>
+        <v>0.116303</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.163264</v>
+        <v>0.163112</v>
       </c>
       <c r="C101" t="n">
-        <v>0.143711</v>
+        <v>0.158658</v>
       </c>
       <c r="D101" t="n">
-        <v>0.114502</v>
+        <v>0.125058</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.163769</v>
+        <v>0.169298</v>
       </c>
       <c r="C102" t="n">
-        <v>0.154025</v>
+        <v>0.156741</v>
       </c>
       <c r="D102" t="n">
-        <v>0.119054</v>
+        <v>0.127225</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.169717</v>
+        <v>0.173831</v>
       </c>
       <c r="C103" t="n">
-        <v>0.161284</v>
+        <v>0.165293</v>
       </c>
       <c r="D103" t="n">
-        <v>0.128306</v>
+        <v>0.133411</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.178342</v>
+        <v>0.185923</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173711</v>
+        <v>0.171593</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1358</v>
+        <v>0.136004</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.188578</v>
+        <v>0.194971</v>
       </c>
       <c r="C105" t="n">
-        <v>0.188787</v>
+        <v>0.18781</v>
       </c>
       <c r="D105" t="n">
-        <v>0.147471</v>
+        <v>0.148374</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.214127</v>
+        <v>0.213037</v>
       </c>
       <c r="C106" t="n">
-        <v>0.212695</v>
+        <v>0.215451</v>
       </c>
       <c r="D106" t="n">
-        <v>0.162818</v>
+        <v>0.171671</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.236552</v>
+        <v>0.23139</v>
       </c>
       <c r="C107" t="n">
-        <v>0.240417</v>
+        <v>0.241158</v>
       </c>
       <c r="D107" t="n">
-        <v>0.190872</v>
+        <v>0.191224</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.281363</v>
+        <v>0.272953</v>
       </c>
       <c r="C108" t="n">
-        <v>0.290284</v>
+        <v>0.295714</v>
       </c>
       <c r="D108" t="n">
-        <v>0.176632</v>
+        <v>0.185642</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.355725</v>
+        <v>0.352394</v>
       </c>
       <c r="C109" t="n">
-        <v>0.366496</v>
+        <v>0.374173</v>
       </c>
       <c r="D109" t="n">
-        <v>0.188629</v>
+        <v>0.180162</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.227827</v>
+        <v>0.240316</v>
       </c>
       <c r="C110" t="n">
-        <v>0.210383</v>
+        <v>0.203262</v>
       </c>
       <c r="D110" t="n">
-        <v>0.186397</v>
+        <v>0.181844</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.253475</v>
+        <v>0.245005</v>
       </c>
       <c r="C111" t="n">
-        <v>0.220406</v>
+        <v>0.220938</v>
       </c>
       <c r="D111" t="n">
-        <v>0.180626</v>
+        <v>0.181732</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.252463</v>
+        <v>0.244146</v>
       </c>
       <c r="C112" t="n">
-        <v>0.211615</v>
+        <v>0.211819</v>
       </c>
       <c r="D112" t="n">
-        <v>0.181602</v>
+        <v>0.187451</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.250813</v>
+        <v>0.259046</v>
       </c>
       <c r="C113" t="n">
-        <v>0.233447</v>
+        <v>0.223617</v>
       </c>
       <c r="D113" t="n">
-        <v>0.184824</v>
+        <v>0.191387</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.254308</v>
+        <v>0.242607</v>
       </c>
       <c r="C114" t="n">
-        <v>0.235027</v>
+        <v>0.230728</v>
       </c>
       <c r="D114" t="n">
-        <v>0.209743</v>
+        <v>0.203917</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.247491</v>
+        <v>0.25837</v>
       </c>
       <c r="C115" t="n">
-        <v>0.251138</v>
+        <v>0.233676</v>
       </c>
       <c r="D115" t="n">
-        <v>0.212204</v>
+        <v>0.194999</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.259126</v>
+        <v>0.267578</v>
       </c>
       <c r="C116" t="n">
-        <v>0.239724</v>
+        <v>0.23172</v>
       </c>
       <c r="D116" t="n">
-        <v>0.195972</v>
+        <v>0.200155</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.257198</v>
+        <v>0.263706</v>
       </c>
       <c r="C117" t="n">
-        <v>0.246019</v>
+        <v>0.238837</v>
       </c>
       <c r="D117" t="n">
-        <v>0.199867</v>
+        <v>0.203619</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.288464</v>
+        <v>0.262712</v>
       </c>
       <c r="C118" t="n">
-        <v>0.257039</v>
+        <v>0.255618</v>
       </c>
       <c r="D118" t="n">
-        <v>0.213611</v>
+        <v>0.219074</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.29828</v>
+        <v>0.284995</v>
       </c>
       <c r="C119" t="n">
-        <v>0.264617</v>
+        <v>0.268725</v>
       </c>
       <c r="D119" t="n">
-        <v>0.217299</v>
+        <v>0.229882</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.297289</v>
+        <v>0.315786</v>
       </c>
       <c r="C120" t="n">
-        <v>0.288257</v>
+        <v>0.282374</v>
       </c>
       <c r="D120" t="n">
-        <v>0.238049</v>
+        <v>0.237893</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.323692</v>
+        <v>0.328387</v>
       </c>
       <c r="C121" t="n">
-        <v>0.339051</v>
+        <v>0.318859</v>
       </c>
       <c r="D121" t="n">
-        <v>0.271649</v>
+        <v>0.266357</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.383114</v>
+        <v>0.369155</v>
       </c>
       <c r="C122" t="n">
-        <v>0.367751</v>
+        <v>0.368232</v>
       </c>
       <c r="D122" t="n">
-        <v>0.29867</v>
+        <v>0.308147</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.440113</v>
+        <v>0.457028</v>
       </c>
       <c r="C123" t="n">
-        <v>0.454146</v>
+        <v>0.455752</v>
       </c>
       <c r="D123" t="n">
-        <v>0.296621</v>
+        <v>0.285256</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.3708</v>
+        <v>0.368656</v>
       </c>
       <c r="C124" t="n">
-        <v>0.322918</v>
+        <v>0.313475</v>
       </c>
       <c r="D124" t="n">
-        <v>0.294317</v>
+        <v>0.282611</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.376276</v>
+        <v>0.380277</v>
       </c>
       <c r="C125" t="n">
-        <v>0.319391</v>
+        <v>0.322823</v>
       </c>
       <c r="D125" t="n">
-        <v>0.284149</v>
+        <v>0.285403</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.375818</v>
+        <v>0.379801</v>
       </c>
       <c r="C126" t="n">
-        <v>0.325904</v>
+        <v>0.321054</v>
       </c>
       <c r="D126" t="n">
-        <v>0.296302</v>
+        <v>0.283075</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.384011</v>
+        <v>0.372784</v>
       </c>
       <c r="C127" t="n">
-        <v>0.328629</v>
+        <v>0.338383</v>
       </c>
       <c r="D127" t="n">
-        <v>0.294386</v>
+        <v>0.291752</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.382229</v>
+        <v>0.386948</v>
       </c>
       <c r="C128" t="n">
-        <v>0.341502</v>
+        <v>0.333509</v>
       </c>
       <c r="D128" t="n">
-        <v>0.298569</v>
+        <v>0.304119</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.398279</v>
+        <v>0.396736</v>
       </c>
       <c r="C129" t="n">
-        <v>0.340287</v>
+        <v>0.34987</v>
       </c>
       <c r="D129" t="n">
-        <v>0.318279</v>
+        <v>0.306545</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.402653</v>
+        <v>0.414404</v>
       </c>
       <c r="C130" t="n">
-        <v>0.346739</v>
+        <v>0.350632</v>
       </c>
       <c r="D130" t="n">
-        <v>0.304389</v>
+        <v>0.300382</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.399324</v>
+        <v>0.406145</v>
       </c>
       <c r="C131" t="n">
-        <v>0.365552</v>
+        <v>0.355944</v>
       </c>
       <c r="D131" t="n">
-        <v>0.316843</v>
+        <v>0.313666</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.423641</v>
+        <v>0.42353</v>
       </c>
       <c r="C132" t="n">
-        <v>0.371317</v>
+        <v>0.377589</v>
       </c>
       <c r="D132" t="n">
-        <v>0.324322</v>
+        <v>0.323951</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.428339</v>
+        <v>0.421522</v>
       </c>
       <c r="C133" t="n">
-        <v>0.380155</v>
+        <v>0.385134</v>
       </c>
       <c r="D133" t="n">
-        <v>0.331086</v>
+        <v>0.338414</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.467337</v>
+        <v>0.449192</v>
       </c>
       <c r="C134" t="n">
-        <v>0.418854</v>
+        <v>0.401882</v>
       </c>
       <c r="D134" t="n">
-        <v>0.362387</v>
+        <v>0.349692</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.484268</v>
+        <v>0.493124</v>
       </c>
       <c r="C135" t="n">
-        <v>0.455881</v>
+        <v>0.450098</v>
       </c>
       <c r="D135" t="n">
-        <v>0.374562</v>
+        <v>0.37756</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.534822</v>
+        <v>0.548917</v>
       </c>
       <c r="C136" t="n">
-        <v>0.508711</v>
+        <v>0.5032759999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>0.430731</v>
+        <v>0.420367</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.621318</v>
+        <v>0.613192</v>
       </c>
       <c r="C137" t="n">
-        <v>0.587279</v>
+        <v>0.593315</v>
       </c>
       <c r="D137" t="n">
-        <v>0.342379</v>
+        <v>0.347711</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.450696</v>
+        <v>0.452668</v>
       </c>
       <c r="C138" t="n">
-        <v>0.378355</v>
+        <v>0.382215</v>
       </c>
       <c r="D138" t="n">
-        <v>0.352971</v>
+        <v>0.340989</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.450965</v>
+        <v>0.458234</v>
       </c>
       <c r="C139" t="n">
-        <v>0.395304</v>
+        <v>0.391065</v>
       </c>
       <c r="D139" t="n">
-        <v>0.349093</v>
+        <v>0.355535</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.459779</v>
+        <v>0.464231</v>
       </c>
       <c r="C140" t="n">
-        <v>0.386914</v>
+        <v>0.4013</v>
       </c>
       <c r="D140" t="n">
-        <v>0.353718</v>
+        <v>0.349153</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.46016</v>
+        <v>0.459951</v>
       </c>
       <c r="C141" t="n">
-        <v>0.400375</v>
+        <v>0.390557</v>
       </c>
       <c r="D141" t="n">
-        <v>0.354749</v>
+        <v>0.352549</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.469649</v>
+        <v>0.470896</v>
       </c>
       <c r="C142" t="n">
-        <v>0.398517</v>
+        <v>0.392961</v>
       </c>
       <c r="D142" t="n">
-        <v>0.361131</v>
+        <v>0.368164</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.474063</v>
+        <v>0.485158</v>
       </c>
       <c r="C143" t="n">
-        <v>0.402601</v>
+        <v>0.410029</v>
       </c>
       <c r="D143" t="n">
-        <v>0.372008</v>
+        <v>0.362441</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0624152</v>
+        <v>0.0601207</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06327380000000001</v>
+        <v>0.0607233</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0575056</v>
+        <v>0.0588508</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0615526</v>
+        <v>0.0611145</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06643979999999999</v>
+        <v>0.0658572</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0612916</v>
+        <v>0.0591797</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06552769999999999</v>
+        <v>0.0638794</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0687869</v>
+        <v>0.06902419999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0624571</v>
+        <v>0.0627897</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07109799999999999</v>
+        <v>0.0703693</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0756642</v>
+        <v>0.0766623</v>
       </c>
       <c r="D5" t="n">
-        <v>0.069233</v>
+        <v>0.0701765</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0799343</v>
+        <v>0.0782504</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0865615</v>
+        <v>0.0866059</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0763358</v>
+        <v>0.0754573</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0941273</v>
+        <v>0.0901749</v>
       </c>
       <c r="C7" t="n">
-        <v>0.103137</v>
+        <v>0.102657</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0884055</v>
+        <v>0.0890616</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.119975</v>
+        <v>0.113194</v>
       </c>
       <c r="C8" t="n">
-        <v>0.134137</v>
+        <v>0.130756</v>
       </c>
       <c r="D8" t="n">
-        <v>0.110594</v>
+        <v>0.111801</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.15183</v>
+        <v>0.148336</v>
       </c>
       <c r="C9" t="n">
-        <v>0.164689</v>
+        <v>0.165102</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0543717</v>
+        <v>0.0546257</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0599563</v>
+        <v>0.0593165</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0563387</v>
+        <v>0.0546758</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0549953</v>
+        <v>0.0540496</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0600829</v>
+        <v>0.0601132</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0563178</v>
+        <v>0.0556497</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0548858</v>
+        <v>0.0555784</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0591514</v>
+        <v>0.0598795</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0583873</v>
+        <v>0.057607</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0558551</v>
+        <v>0.0545526</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0625464</v>
+        <v>0.0630196</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0561947</v>
+        <v>0.0588052</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0567359</v>
+        <v>0.0568411</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.062112</v>
+        <v>0.0609956</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0598463</v>
+        <v>0.0580192</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0566498</v>
+        <v>0.0601341</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0626845</v>
+        <v>0.06318799999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0617566</v>
+        <v>0.061117</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0583303</v>
+        <v>0.0607671</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0651685</v>
+        <v>0.0644907</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0633779</v>
+        <v>0.06468160000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0629058</v>
+        <v>0.0606676</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06631919999999999</v>
+        <v>0.06815309999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.066951</v>
+        <v>0.0680611</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0627163</v>
+        <v>0.0639965</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0708202</v>
+        <v>0.0731591</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0728275</v>
+        <v>0.071953</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0678178</v>
+        <v>0.067048</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0773021</v>
+        <v>0.07851089999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0819645</v>
+        <v>0.0809037</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07473490000000001</v>
+        <v>0.07412299999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0866325</v>
+        <v>0.0871001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08864610000000001</v>
+        <v>0.0918857</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0818982</v>
+        <v>0.082122</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.100136</v>
+        <v>0.09743599999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.106613</v>
+        <v>0.107615</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0977852</v>
+        <v>0.09759420000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.119514</v>
+        <v>0.11676</v>
       </c>
       <c r="C22" t="n">
-        <v>0.136565</v>
+        <v>0.134477</v>
       </c>
       <c r="D22" t="n">
-        <v>0.119294</v>
+        <v>0.123448</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.152968</v>
+        <v>0.152638</v>
       </c>
       <c r="C23" t="n">
-        <v>0.170997</v>
+        <v>0.179066</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0561914</v>
+        <v>0.0568116</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06426179999999999</v>
+        <v>0.06336799999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0577691</v>
+        <v>0.0586713</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0568181</v>
+        <v>0.0578077</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0629043</v>
+        <v>0.0646978</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0597157</v>
+        <v>0.0589048</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0579867</v>
+        <v>0.0588249</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0659472</v>
+        <v>0.0661007</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0588859</v>
+        <v>0.0603675</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0572066</v>
+        <v>0.0586949</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0663304</v>
+        <v>0.06467539999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0598404</v>
+        <v>0.059687</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0586808</v>
+        <v>0.0592433</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0676974</v>
+        <v>0.0680171</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0632086</v>
+        <v>0.0618577</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0599091</v>
+        <v>0.061351</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0687425</v>
+        <v>0.0674709</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06555</v>
+        <v>0.06269859999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0614616</v>
+        <v>0.063623</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.06815069999999999</v>
+        <v>0.0695345</v>
       </c>
       <c r="C30" t="n">
-        <v>0.06485680000000001</v>
+        <v>0.06622160000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0627037</v>
+        <v>0.0642654</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0694535</v>
+        <v>0.0740415</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0690224</v>
+        <v>0.0689327</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0653744</v>
+        <v>0.0650138</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0737</v>
+        <v>0.0746117</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07205830000000001</v>
+        <v>0.0714294</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0701119</v>
+        <v>0.0687434</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08042820000000001</v>
+        <v>0.08078689999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0783341</v>
+        <v>0.07845489999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07746359999999999</v>
+        <v>0.0776415</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0899814</v>
+        <v>0.0878415</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0914288</v>
+        <v>0.0888275</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0852234</v>
+        <v>0.0854225</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.103885</v>
+        <v>0.0972442</v>
       </c>
       <c r="C35" t="n">
-        <v>0.108102</v>
+        <v>0.107825</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0964795</v>
+        <v>0.100974</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.11418</v>
+        <v>0.115046</v>
       </c>
       <c r="C36" t="n">
-        <v>0.127288</v>
+        <v>0.129377</v>
       </c>
       <c r="D36" t="n">
-        <v>0.121145</v>
+        <v>0.120202</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.151768</v>
+        <v>0.146664</v>
       </c>
       <c r="C37" t="n">
-        <v>0.172334</v>
+        <v>0.166231</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0606795</v>
+        <v>0.0603919</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0719992</v>
+        <v>0.07166260000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0625479</v>
+        <v>0.0616101</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0616692</v>
+        <v>0.0620558</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0723887</v>
+        <v>0.0680941</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0644883</v>
+        <v>0.0624942</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0611885</v>
+        <v>0.0615457</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0688907</v>
+        <v>0.0704478</v>
       </c>
       <c r="C40" t="n">
-        <v>0.06528929999999999</v>
+        <v>0.06276089999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0631758</v>
+        <v>0.0633537</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.072296</v>
+        <v>0.0700139</v>
       </c>
       <c r="C41" t="n">
-        <v>0.06591669999999999</v>
+        <v>0.0653548</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0634723</v>
+        <v>0.0635241</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.07314279999999999</v>
+        <v>0.06969740000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.064777</v>
+        <v>0.0675056</v>
       </c>
       <c r="D42" t="n">
-        <v>0.06374589999999999</v>
+        <v>0.0613781</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0729071</v>
+        <v>0.0722069</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0692123</v>
+        <v>0.0692562</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0643735</v>
+        <v>0.0639749</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0741356</v>
+        <v>0.07357859999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.06950190000000001</v>
+        <v>0.0698251</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0663735</v>
+        <v>0.0656399</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.08049530000000001</v>
+        <v>0.0771313</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0732831</v>
+        <v>0.07131940000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.067967</v>
+        <v>0.06824810000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0796465</v>
+        <v>0.0831543</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0756165</v>
+        <v>0.0767926</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07544140000000001</v>
+        <v>0.07268090000000001</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.084587</v>
+        <v>0.0850301</v>
       </c>
       <c r="C47" t="n">
-        <v>0.08343780000000001</v>
+        <v>0.08154649999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0775854</v>
+        <v>0.0792619</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0924393</v>
+        <v>0.0912641</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0950619</v>
+        <v>0.0919811</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0870064</v>
+        <v>0.0873192</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.102215</v>
+        <v>0.103523</v>
       </c>
       <c r="C49" t="n">
-        <v>0.103702</v>
+        <v>0.104077</v>
       </c>
       <c r="D49" t="n">
-        <v>0.09883210000000001</v>
+        <v>0.0982387</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.123149</v>
+        <v>0.118909</v>
       </c>
       <c r="C50" t="n">
-        <v>0.124227</v>
+        <v>0.127037</v>
       </c>
       <c r="D50" t="n">
-        <v>0.118476</v>
+        <v>0.116747</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.146205</v>
+        <v>0.145775</v>
       </c>
       <c r="C51" t="n">
-        <v>0.156598</v>
+        <v>0.15516</v>
       </c>
       <c r="D51" t="n">
-        <v>0.06521009999999999</v>
+        <v>0.06534180000000001</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.19589</v>
+        <v>0.188148</v>
       </c>
       <c r="C52" t="n">
-        <v>0.205829</v>
+        <v>0.208751</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0656899</v>
+        <v>0.06613049999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.08175780000000001</v>
+        <v>0.08224620000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0730864</v>
+        <v>0.0712108</v>
       </c>
       <c r="D53" t="n">
-        <v>0.06727</v>
+        <v>0.0665671</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.08274910000000001</v>
+        <v>0.080203</v>
       </c>
       <c r="C54" t="n">
-        <v>0.07414370000000001</v>
+        <v>0.0729334</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0706136</v>
+        <v>0.06779399999999999</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0855091</v>
+        <v>0.0862158</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0745546</v>
+        <v>0.0756151</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0690028</v>
+        <v>0.07099</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08170669999999999</v>
+        <v>0.08312659999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0761411</v>
+        <v>0.0747675</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0697644</v>
+        <v>0.0687005</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.08419459999999999</v>
+        <v>0.08528719999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0825472</v>
+        <v>0.0770334</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0703215</v>
+        <v>0.0726668</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.087814</v>
+        <v>0.0868569</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0810415</v>
+        <v>0.079758</v>
       </c>
       <c r="D58" t="n">
-        <v>0.07533819999999999</v>
+        <v>0.0722174</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.08739429999999999</v>
+        <v>0.0875845</v>
       </c>
       <c r="C59" t="n">
-        <v>0.08584120000000001</v>
+        <v>0.0839572</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0815119</v>
+        <v>0.07564940000000001</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.094016</v>
+        <v>0.0902517</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0876755</v>
+        <v>0.0900595</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0791084</v>
+        <v>0.0783512</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.09940640000000001</v>
+        <v>0.09580669999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.09309969999999999</v>
+        <v>0.09567059999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0845067</v>
+        <v>0.08477270000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.104767</v>
+        <v>0.102767</v>
       </c>
       <c r="C62" t="n">
-        <v>0.102354</v>
+        <v>0.103623</v>
       </c>
       <c r="D62" t="n">
-        <v>0.09249590000000001</v>
+        <v>0.0948161</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.112176</v>
+        <v>0.112931</v>
       </c>
       <c r="C63" t="n">
-        <v>0.117195</v>
+        <v>0.119076</v>
       </c>
       <c r="D63" t="n">
-        <v>0.102677</v>
+        <v>0.105621</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.126893</v>
+        <v>0.127983</v>
       </c>
       <c r="C64" t="n">
-        <v>0.138894</v>
+        <v>0.136843</v>
       </c>
       <c r="D64" t="n">
-        <v>0.127304</v>
+        <v>0.124833</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.157021</v>
+        <v>0.157134</v>
       </c>
       <c r="C65" t="n">
-        <v>0.16473</v>
+        <v>0.172722</v>
       </c>
       <c r="D65" t="n">
-        <v>0.149226</v>
+        <v>0.153416</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.204948</v>
+        <v>0.19611</v>
       </c>
       <c r="C66" t="n">
-        <v>0.212059</v>
+        <v>0.22084</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0710267</v>
+        <v>0.0710764</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0904861</v>
+        <v>0.0907781</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0846054</v>
+        <v>0.08087949999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0718343</v>
+        <v>0.0760489</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0931052</v>
+        <v>0.09416339999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.08504009999999999</v>
+        <v>0.0831534</v>
       </c>
       <c r="D68" t="n">
-        <v>0.072823</v>
+        <v>0.0741772</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.092623</v>
+        <v>0.0942726</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0856001</v>
+        <v>0.0840139</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0749036</v>
+        <v>0.0753384</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.09584040000000001</v>
+        <v>0.0964711</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0864717</v>
+        <v>0.0865909</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0756623</v>
+        <v>0.0756894</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0970809</v>
+        <v>0.0974612</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0904991</v>
+        <v>0.0890866</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0791574</v>
+        <v>0.0779855</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.100942</v>
+        <v>0.100623</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0939092</v>
+        <v>0.0935632</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0837798</v>
+        <v>0.08086459999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.102518</v>
+        <v>0.102995</v>
       </c>
       <c r="C73" t="n">
-        <v>0.099777</v>
+        <v>0.0974691</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0837381</v>
+        <v>0.0857078</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.105573</v>
+        <v>0.109717</v>
       </c>
       <c r="C74" t="n">
-        <v>0.108667</v>
+        <v>0.103036</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0864289</v>
+        <v>0.0882406</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.114696</v>
+        <v>0.112424</v>
       </c>
       <c r="C75" t="n">
-        <v>0.112102</v>
+        <v>0.108073</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0973696</v>
+        <v>0.0932914</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.119673</v>
+        <v>0.126169</v>
       </c>
       <c r="C76" t="n">
-        <v>0.12332</v>
+        <v>0.119768</v>
       </c>
       <c r="D76" t="n">
-        <v>0.10035</v>
+        <v>0.102323</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.139992</v>
+        <v>0.134897</v>
       </c>
       <c r="C77" t="n">
-        <v>0.138346</v>
+        <v>0.135235</v>
       </c>
       <c r="D77" t="n">
-        <v>0.116232</v>
+        <v>0.11229</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.161984</v>
+        <v>0.148436</v>
       </c>
       <c r="C78" t="n">
-        <v>0.154937</v>
+        <v>0.151959</v>
       </c>
       <c r="D78" t="n">
-        <v>0.129222</v>
+        <v>0.131123</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.185281</v>
+        <v>0.175035</v>
       </c>
       <c r="C79" t="n">
-        <v>0.193667</v>
+        <v>0.182068</v>
       </c>
       <c r="D79" t="n">
-        <v>0.161852</v>
+        <v>0.163734</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.231772</v>
+        <v>0.214856</v>
       </c>
       <c r="C80" t="n">
-        <v>0.246735</v>
+        <v>0.229824</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0818494</v>
+        <v>0.07954</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.111841</v>
+        <v>0.106256</v>
       </c>
       <c r="C81" t="n">
-        <v>0.103183</v>
+        <v>0.09485300000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.08217099999999999</v>
+        <v>0.08072509999999999</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.113108</v>
+        <v>0.113638</v>
       </c>
       <c r="C82" t="n">
-        <v>0.106596</v>
+        <v>0.100197</v>
       </c>
       <c r="D82" t="n">
-        <v>0.084032</v>
+        <v>0.08201070000000001</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.118522</v>
+        <v>0.115563</v>
       </c>
       <c r="C83" t="n">
-        <v>0.106637</v>
+        <v>0.10083</v>
       </c>
       <c r="D83" t="n">
-        <v>0.08560329999999999</v>
+        <v>0.0862967</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.122483</v>
+        <v>0.113858</v>
       </c>
       <c r="C84" t="n">
-        <v>0.112596</v>
+        <v>0.10615</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0889735</v>
+        <v>0.0868723</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.12822</v>
+        <v>0.120752</v>
       </c>
       <c r="C85" t="n">
-        <v>0.11665</v>
+        <v>0.107807</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0953032</v>
+        <v>0.0926911</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.133162</v>
+        <v>0.125379</v>
       </c>
       <c r="C86" t="n">
-        <v>0.120302</v>
+        <v>0.110376</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0968396</v>
+        <v>0.0926236</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.136834</v>
+        <v>0.125335</v>
       </c>
       <c r="C87" t="n">
-        <v>0.128542</v>
+        <v>0.115295</v>
       </c>
       <c r="D87" t="n">
-        <v>0.10499</v>
+        <v>0.0967039</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.14864</v>
+        <v>0.131323</v>
       </c>
       <c r="C88" t="n">
-        <v>0.133637</v>
+        <v>0.121876</v>
       </c>
       <c r="D88" t="n">
-        <v>0.107267</v>
+        <v>0.0989</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.151454</v>
+        <v>0.143267</v>
       </c>
       <c r="C89" t="n">
-        <v>0.135426</v>
+        <v>0.131109</v>
       </c>
       <c r="D89" t="n">
-        <v>0.114055</v>
+        <v>0.106291</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.160334</v>
+        <v>0.145939</v>
       </c>
       <c r="C90" t="n">
-        <v>0.152962</v>
+        <v>0.143548</v>
       </c>
       <c r="D90" t="n">
-        <v>0.124536</v>
+        <v>0.115506</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.17295</v>
+        <v>0.15944</v>
       </c>
       <c r="C91" t="n">
-        <v>0.165716</v>
+        <v>0.156002</v>
       </c>
       <c r="D91" t="n">
-        <v>0.136406</v>
+        <v>0.127067</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.184571</v>
+        <v>0.174109</v>
       </c>
       <c r="C92" t="n">
-        <v>0.18277</v>
+        <v>0.173289</v>
       </c>
       <c r="D92" t="n">
-        <v>0.152449</v>
+        <v>0.150505</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.21328</v>
+        <v>0.207639</v>
       </c>
       <c r="C93" t="n">
-        <v>0.215968</v>
+        <v>0.2068</v>
       </c>
       <c r="D93" t="n">
-        <v>0.178821</v>
+        <v>0.17252</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.25163</v>
+        <v>0.244098</v>
       </c>
       <c r="C94" t="n">
-        <v>0.257775</v>
+        <v>0.253656</v>
       </c>
       <c r="D94" t="n">
-        <v>0.110431</v>
+        <v>0.0995457</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.147791</v>
+        <v>0.137406</v>
       </c>
       <c r="C95" t="n">
-        <v>0.134856</v>
+        <v>0.125708</v>
       </c>
       <c r="D95" t="n">
-        <v>0.104403</v>
+        <v>0.0995099</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.144453</v>
+        <v>0.142914</v>
       </c>
       <c r="C96" t="n">
-        <v>0.137479</v>
+        <v>0.128345</v>
       </c>
       <c r="D96" t="n">
-        <v>0.112124</v>
+        <v>0.103602</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.149614</v>
+        <v>0.143813</v>
       </c>
       <c r="C97" t="n">
-        <v>0.136421</v>
+        <v>0.128821</v>
       </c>
       <c r="D97" t="n">
-        <v>0.112163</v>
+        <v>0.10303</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.150146</v>
+        <v>0.14675</v>
       </c>
       <c r="C98" t="n">
-        <v>0.137859</v>
+        <v>0.132119</v>
       </c>
       <c r="D98" t="n">
-        <v>0.108292</v>
+        <v>0.10594</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.155306</v>
+        <v>0.148353</v>
       </c>
       <c r="C99" t="n">
-        <v>0.135468</v>
+        <v>0.139209</v>
       </c>
       <c r="D99" t="n">
-        <v>0.116899</v>
+        <v>0.108869</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.164331</v>
+        <v>0.161703</v>
       </c>
       <c r="C100" t="n">
-        <v>0.147134</v>
+        <v>0.145916</v>
       </c>
       <c r="D100" t="n">
-        <v>0.116303</v>
+        <v>0.114244</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.163112</v>
+        <v>0.163699</v>
       </c>
       <c r="C101" t="n">
-        <v>0.158658</v>
+        <v>0.147832</v>
       </c>
       <c r="D101" t="n">
-        <v>0.125058</v>
+        <v>0.116931</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.169298</v>
+        <v>0.162853</v>
       </c>
       <c r="C102" t="n">
-        <v>0.156741</v>
+        <v>0.151321</v>
       </c>
       <c r="D102" t="n">
-        <v>0.127225</v>
+        <v>0.125976</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.173831</v>
+        <v>0.169089</v>
       </c>
       <c r="C103" t="n">
-        <v>0.165293</v>
+        <v>0.164385</v>
       </c>
       <c r="D103" t="n">
-        <v>0.133411</v>
+        <v>0.126724</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.185923</v>
+        <v>0.173537</v>
       </c>
       <c r="C104" t="n">
-        <v>0.171593</v>
+        <v>0.179335</v>
       </c>
       <c r="D104" t="n">
-        <v>0.136004</v>
+        <v>0.138502</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.194971</v>
+        <v>0.189587</v>
       </c>
       <c r="C105" t="n">
-        <v>0.18781</v>
+        <v>0.193154</v>
       </c>
       <c r="D105" t="n">
-        <v>0.148374</v>
+        <v>0.147654</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.213037</v>
+        <v>0.205852</v>
       </c>
       <c r="C106" t="n">
-        <v>0.215451</v>
+        <v>0.209744</v>
       </c>
       <c r="D106" t="n">
-        <v>0.171671</v>
+        <v>0.162347</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.23139</v>
+        <v>0.239446</v>
       </c>
       <c r="C107" t="n">
-        <v>0.241158</v>
+        <v>0.240922</v>
       </c>
       <c r="D107" t="n">
-        <v>0.191224</v>
+        <v>0.190022</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.272953</v>
+        <v>0.275431</v>
       </c>
       <c r="C108" t="n">
-        <v>0.295714</v>
+        <v>0.295223</v>
       </c>
       <c r="D108" t="n">
-        <v>0.185642</v>
+        <v>0.174167</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.352394</v>
+        <v>0.341925</v>
       </c>
       <c r="C109" t="n">
-        <v>0.374173</v>
+        <v>0.385008</v>
       </c>
       <c r="D109" t="n">
-        <v>0.180162</v>
+        <v>0.17536</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.240316</v>
+        <v>0.230333</v>
       </c>
       <c r="C110" t="n">
-        <v>0.203262</v>
+        <v>0.206131</v>
       </c>
       <c r="D110" t="n">
-        <v>0.181844</v>
+        <v>0.177037</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.245005</v>
+        <v>0.230538</v>
       </c>
       <c r="C111" t="n">
-        <v>0.220938</v>
+        <v>0.211833</v>
       </c>
       <c r="D111" t="n">
-        <v>0.181732</v>
+        <v>0.179981</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.244146</v>
+        <v>0.235311</v>
       </c>
       <c r="C112" t="n">
-        <v>0.211819</v>
+        <v>0.210702</v>
       </c>
       <c r="D112" t="n">
-        <v>0.187451</v>
+        <v>0.185431</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.259046</v>
+        <v>0.236745</v>
       </c>
       <c r="C113" t="n">
-        <v>0.223617</v>
+        <v>0.214594</v>
       </c>
       <c r="D113" t="n">
-        <v>0.191387</v>
+        <v>0.185648</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.242607</v>
+        <v>0.244309</v>
       </c>
       <c r="C114" t="n">
-        <v>0.230728</v>
+        <v>0.219801</v>
       </c>
       <c r="D114" t="n">
-        <v>0.203917</v>
+        <v>0.192433</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.25837</v>
+        <v>0.250761</v>
       </c>
       <c r="C115" t="n">
-        <v>0.233676</v>
+        <v>0.221877</v>
       </c>
       <c r="D115" t="n">
-        <v>0.194999</v>
+        <v>0.197137</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.267578</v>
+        <v>0.255716</v>
       </c>
       <c r="C116" t="n">
-        <v>0.23172</v>
+        <v>0.232861</v>
       </c>
       <c r="D116" t="n">
-        <v>0.200155</v>
+        <v>0.195707</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.263706</v>
+        <v>0.258331</v>
       </c>
       <c r="C117" t="n">
-        <v>0.238837</v>
+        <v>0.238234</v>
       </c>
       <c r="D117" t="n">
-        <v>0.203619</v>
+        <v>0.219705</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.262712</v>
+        <v>0.277564</v>
       </c>
       <c r="C118" t="n">
-        <v>0.255618</v>
+        <v>0.255239</v>
       </c>
       <c r="D118" t="n">
-        <v>0.219074</v>
+        <v>0.209714</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.284995</v>
+        <v>0.283195</v>
       </c>
       <c r="C119" t="n">
-        <v>0.268725</v>
+        <v>0.26327</v>
       </c>
       <c r="D119" t="n">
-        <v>0.229882</v>
+        <v>0.218452</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.315786</v>
+        <v>0.306004</v>
       </c>
       <c r="C120" t="n">
-        <v>0.282374</v>
+        <v>0.285199</v>
       </c>
       <c r="D120" t="n">
-        <v>0.237893</v>
+        <v>0.237114</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.328387</v>
+        <v>0.323745</v>
       </c>
       <c r="C121" t="n">
-        <v>0.318859</v>
+        <v>0.337945</v>
       </c>
       <c r="D121" t="n">
-        <v>0.266357</v>
+        <v>0.261435</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.369155</v>
+        <v>0.372038</v>
       </c>
       <c r="C122" t="n">
-        <v>0.368232</v>
+        <v>0.368288</v>
       </c>
       <c r="D122" t="n">
-        <v>0.308147</v>
+        <v>0.299667</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.457028</v>
+        <v>0.449549</v>
       </c>
       <c r="C123" t="n">
-        <v>0.455752</v>
+        <v>0.447947</v>
       </c>
       <c r="D123" t="n">
-        <v>0.285256</v>
+        <v>0.279966</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.368656</v>
+        <v>0.362984</v>
       </c>
       <c r="C124" t="n">
-        <v>0.313475</v>
+        <v>0.317951</v>
       </c>
       <c r="D124" t="n">
-        <v>0.282611</v>
+        <v>0.284306</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.380277</v>
+        <v>0.360968</v>
       </c>
       <c r="C125" t="n">
-        <v>0.322823</v>
+        <v>0.32486</v>
       </c>
       <c r="D125" t="n">
-        <v>0.285403</v>
+        <v>0.287599</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.379801</v>
+        <v>0.369539</v>
       </c>
       <c r="C126" t="n">
-        <v>0.321054</v>
+        <v>0.324571</v>
       </c>
       <c r="D126" t="n">
-        <v>0.283075</v>
+        <v>0.290327</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.372784</v>
+        <v>0.378382</v>
       </c>
       <c r="C127" t="n">
-        <v>0.338383</v>
+        <v>0.335804</v>
       </c>
       <c r="D127" t="n">
-        <v>0.291752</v>
+        <v>0.286482</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.386948</v>
+        <v>0.380383</v>
       </c>
       <c r="C128" t="n">
-        <v>0.333509</v>
+        <v>0.328742</v>
       </c>
       <c r="D128" t="n">
-        <v>0.304119</v>
+        <v>0.294585</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.396736</v>
+        <v>0.38927</v>
       </c>
       <c r="C129" t="n">
-        <v>0.34987</v>
+        <v>0.337321</v>
       </c>
       <c r="D129" t="n">
-        <v>0.306545</v>
+        <v>0.298408</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.414404</v>
+        <v>0.405579</v>
       </c>
       <c r="C130" t="n">
-        <v>0.350632</v>
+        <v>0.349647</v>
       </c>
       <c r="D130" t="n">
-        <v>0.300382</v>
+        <v>0.303527</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.406145</v>
+        <v>0.410301</v>
       </c>
       <c r="C131" t="n">
-        <v>0.355944</v>
+        <v>0.360508</v>
       </c>
       <c r="D131" t="n">
-        <v>0.313666</v>
+        <v>0.312186</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.42353</v>
+        <v>0.427446</v>
       </c>
       <c r="C132" t="n">
-        <v>0.377589</v>
+        <v>0.36432</v>
       </c>
       <c r="D132" t="n">
-        <v>0.323951</v>
+        <v>0.324797</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.421522</v>
+        <v>0.435789</v>
       </c>
       <c r="C133" t="n">
-        <v>0.385134</v>
+        <v>0.39571</v>
       </c>
       <c r="D133" t="n">
-        <v>0.338414</v>
+        <v>0.331222</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.449192</v>
+        <v>0.450404</v>
       </c>
       <c r="C134" t="n">
-        <v>0.401882</v>
+        <v>0.406501</v>
       </c>
       <c r="D134" t="n">
-        <v>0.349692</v>
+        <v>0.343236</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.493124</v>
+        <v>0.493091</v>
       </c>
       <c r="C135" t="n">
-        <v>0.450098</v>
+        <v>0.440886</v>
       </c>
       <c r="D135" t="n">
-        <v>0.37756</v>
+        <v>0.380722</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.548917</v>
+        <v>0.540943</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5032759999999999</v>
+        <v>0.50126</v>
       </c>
       <c r="D136" t="n">
-        <v>0.420367</v>
+        <v>0.410787</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.613192</v>
+        <v>0.623017</v>
       </c>
       <c r="C137" t="n">
-        <v>0.593315</v>
+        <v>0.5858910000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>0.347711</v>
+        <v>0.347425</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.452668</v>
+        <v>0.449885</v>
       </c>
       <c r="C138" t="n">
-        <v>0.382215</v>
+        <v>0.375558</v>
       </c>
       <c r="D138" t="n">
-        <v>0.340989</v>
+        <v>0.342391</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.458234</v>
+        <v>0.446911</v>
       </c>
       <c r="C139" t="n">
-        <v>0.391065</v>
+        <v>0.388713</v>
       </c>
       <c r="D139" t="n">
-        <v>0.355535</v>
+        <v>0.345724</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.464231</v>
+        <v>0.45627</v>
       </c>
       <c r="C140" t="n">
-        <v>0.4013</v>
+        <v>0.40021</v>
       </c>
       <c r="D140" t="n">
-        <v>0.349153</v>
+        <v>0.346174</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.459951</v>
+        <v>0.467727</v>
       </c>
       <c r="C141" t="n">
-        <v>0.390557</v>
+        <v>0.403108</v>
       </c>
       <c r="D141" t="n">
-        <v>0.352549</v>
+        <v>0.351674</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.470896</v>
+        <v>0.468542</v>
       </c>
       <c r="C142" t="n">
-        <v>0.392961</v>
+        <v>0.398481</v>
       </c>
       <c r="D142" t="n">
-        <v>0.368164</v>
+        <v>0.355938</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.485158</v>
+        <v>0.479256</v>
       </c>
       <c r="C143" t="n">
-        <v>0.410029</v>
+        <v>0.405997</v>
       </c>
       <c r="D143" t="n">
-        <v>0.362441</v>
+        <v>0.35695</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0601207</v>
+        <v>0.0611118</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0607233</v>
+        <v>0.0625766</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0588508</v>
+        <v>0.0572691</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0611145</v>
+        <v>0.0625869</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0658572</v>
+        <v>0.0658936</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0591797</v>
+        <v>0.0607119</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0638794</v>
+        <v>0.0654618</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06902419999999999</v>
+        <v>0.07011539999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0627897</v>
+        <v>0.062648</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0703693</v>
+        <v>0.0757251</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0766623</v>
+        <v>0.0786386</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0701765</v>
+        <v>0.0687266</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0782504</v>
+        <v>0.0814599</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0866059</v>
+        <v>0.08925710000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0754573</v>
+        <v>0.0754847</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0901749</v>
+        <v>0.09502969999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.102657</v>
+        <v>0.102284</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0890616</v>
+        <v>0.09043519999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.113194</v>
+        <v>0.120648</v>
       </c>
       <c r="C8" t="n">
-        <v>0.130756</v>
+        <v>0.132181</v>
       </c>
       <c r="D8" t="n">
-        <v>0.111801</v>
+        <v>0.111699</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148336</v>
+        <v>0.153885</v>
       </c>
       <c r="C9" t="n">
-        <v>0.165102</v>
+        <v>0.164975</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0546257</v>
+        <v>0.0544328</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0593165</v>
+        <v>0.0602649</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0546758</v>
+        <v>0.0557148</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0540496</v>
+        <v>0.0553433</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0601132</v>
+        <v>0.0588318</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0556497</v>
+        <v>0.0566488</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0555784</v>
+        <v>0.0551216</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0598795</v>
+        <v>0.0605164</v>
       </c>
       <c r="C12" t="n">
-        <v>0.057607</v>
+        <v>0.0572232</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0545526</v>
+        <v>0.0559955</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0630196</v>
+        <v>0.06498809999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0588052</v>
+        <v>0.0572067</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0568411</v>
+        <v>0.0555617</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0609956</v>
+        <v>0.0619086</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0580192</v>
+        <v>0.0579386</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0601341</v>
+        <v>0.0559059</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.06318799999999999</v>
+        <v>0.0649459</v>
       </c>
       <c r="C15" t="n">
-        <v>0.061117</v>
+        <v>0.0613174</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0607671</v>
+        <v>0.0584252</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0644907</v>
+        <v>0.0685949</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06468160000000001</v>
+        <v>0.06526</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0606676</v>
+        <v>0.0600119</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06815309999999999</v>
+        <v>0.0675058</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0680611</v>
+        <v>0.0675384</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0639965</v>
+        <v>0.0628811</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0731591</v>
+        <v>0.071128</v>
       </c>
       <c r="C18" t="n">
-        <v>0.071953</v>
+        <v>0.07565479999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.067048</v>
+        <v>0.06657299999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07851089999999999</v>
+        <v>0.0740936</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0809037</v>
+        <v>0.0778563</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07412299999999999</v>
+        <v>0.0713954</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0871001</v>
+        <v>0.083026</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0918857</v>
+        <v>0.08755979999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.082122</v>
+        <v>0.08044510000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.09743599999999999</v>
+        <v>0.0947205</v>
       </c>
       <c r="C21" t="n">
-        <v>0.107615</v>
+        <v>0.102021</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09759420000000001</v>
+        <v>0.0927818</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.11676</v>
+        <v>0.116563</v>
       </c>
       <c r="C22" t="n">
-        <v>0.134477</v>
+        <v>0.136857</v>
       </c>
       <c r="D22" t="n">
-        <v>0.123448</v>
+        <v>0.12221</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.152638</v>
+        <v>0.152363</v>
       </c>
       <c r="C23" t="n">
-        <v>0.179066</v>
+        <v>0.169584</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0568116</v>
+        <v>0.055945</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06336799999999999</v>
+        <v>0.0643157</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0586713</v>
+        <v>0.0596558</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0578077</v>
+        <v>0.0564984</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0646978</v>
+        <v>0.06332409999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0589048</v>
+        <v>0.0576001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0588249</v>
+        <v>0.0580644</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0661007</v>
+        <v>0.0653794</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0603675</v>
+        <v>0.0626873</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0586949</v>
+        <v>0.0572751</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06467539999999999</v>
+        <v>0.0672992</v>
       </c>
       <c r="C27" t="n">
-        <v>0.059687</v>
+        <v>0.0593353</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0592433</v>
+        <v>0.0572512</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0680171</v>
+        <v>0.0658913</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0618577</v>
+        <v>0.0604551</v>
       </c>
       <c r="D28" t="n">
-        <v>0.061351</v>
+        <v>0.0595012</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0674709</v>
+        <v>0.0691208</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06269859999999999</v>
+        <v>0.0623503</v>
       </c>
       <c r="D29" t="n">
-        <v>0.063623</v>
+        <v>0.0606849</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0695345</v>
+        <v>0.0678168</v>
       </c>
       <c r="C30" t="n">
-        <v>0.06622160000000001</v>
+        <v>0.0660326</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0642654</v>
+        <v>0.0630843</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0740415</v>
+        <v>0.0720437</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0689327</v>
+        <v>0.0696637</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0650138</v>
+        <v>0.0682483</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0746117</v>
+        <v>0.0747337</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0714294</v>
+        <v>0.0729023</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0687434</v>
+        <v>0.0701263</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08078689999999999</v>
+        <v>0.079733</v>
       </c>
       <c r="C33" t="n">
-        <v>0.07845489999999999</v>
+        <v>0.0795385</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0776415</v>
+        <v>0.0761549</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0878415</v>
+        <v>0.0877542</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0888275</v>
+        <v>0.09100900000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0854225</v>
+        <v>0.08642279999999999</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0972442</v>
+        <v>0.100134</v>
       </c>
       <c r="C35" t="n">
-        <v>0.107825</v>
+        <v>0.107411</v>
       </c>
       <c r="D35" t="n">
-        <v>0.100974</v>
+        <v>0.101338</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.115046</v>
+        <v>0.112467</v>
       </c>
       <c r="C36" t="n">
-        <v>0.129377</v>
+        <v>0.134273</v>
       </c>
       <c r="D36" t="n">
-        <v>0.120202</v>
+        <v>0.119798</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.146664</v>
+        <v>0.14798</v>
       </c>
       <c r="C37" t="n">
-        <v>0.166231</v>
+        <v>0.172134</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0603919</v>
+        <v>0.0612104</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.07166260000000001</v>
+        <v>0.06766129999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0616101</v>
+        <v>0.0622589</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0620558</v>
+        <v>0.0598956</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0680941</v>
+        <v>0.06846099999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0624942</v>
+        <v>0.06535000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0615457</v>
+        <v>0.0604875</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0704478</v>
+        <v>0.0719475</v>
       </c>
       <c r="C40" t="n">
-        <v>0.06276089999999999</v>
+        <v>0.0648856</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0633537</v>
+        <v>0.0621636</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0700139</v>
+        <v>0.0740357</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0653548</v>
+        <v>0.0662949</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0635241</v>
+        <v>0.0655821</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.06969740000000001</v>
+        <v>0.073006</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0675056</v>
+        <v>0.0677527</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0613781</v>
+        <v>0.0644284</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0722069</v>
+        <v>0.0760304</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0692562</v>
+        <v>0.0665973</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0639749</v>
+        <v>0.0638382</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.07357859999999999</v>
+        <v>0.0760063</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0698251</v>
+        <v>0.06946140000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0656399</v>
+        <v>0.0676764</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0771313</v>
+        <v>0.0760763</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07131940000000001</v>
+        <v>0.0732482</v>
       </c>
       <c r="D45" t="n">
-        <v>0.06824810000000001</v>
+        <v>0.0714748</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0831543</v>
+        <v>0.08417860000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0767926</v>
+        <v>0.0775974</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07268090000000001</v>
+        <v>0.0717199</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0850301</v>
+        <v>0.0850172</v>
       </c>
       <c r="C47" t="n">
-        <v>0.08154649999999999</v>
+        <v>0.08212469999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0792619</v>
+        <v>0.07742930000000001</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0912641</v>
+        <v>0.09296219999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0919811</v>
+        <v>0.09332310000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0873192</v>
+        <v>0.0872624</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.103523</v>
+        <v>0.102099</v>
       </c>
       <c r="C49" t="n">
-        <v>0.104077</v>
+        <v>0.103858</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0982387</v>
+        <v>0.097264</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.118909</v>
+        <v>0.11856</v>
       </c>
       <c r="C50" t="n">
-        <v>0.127037</v>
+        <v>0.126521</v>
       </c>
       <c r="D50" t="n">
-        <v>0.116747</v>
+        <v>0.1173</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.145775</v>
+        <v>0.145728</v>
       </c>
       <c r="C51" t="n">
-        <v>0.15516</v>
+        <v>0.158924</v>
       </c>
       <c r="D51" t="n">
-        <v>0.06534180000000001</v>
+        <v>0.066118</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.188148</v>
+        <v>0.187645</v>
       </c>
       <c r="C52" t="n">
-        <v>0.208751</v>
+        <v>0.202839</v>
       </c>
       <c r="D52" t="n">
-        <v>0.06613049999999999</v>
+        <v>0.0657514</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.08224620000000001</v>
+        <v>0.0813102</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0712108</v>
+        <v>0.0728005</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0665671</v>
+        <v>0.0659907</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.080203</v>
+        <v>0.08231189999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0729334</v>
+        <v>0.0718646</v>
       </c>
       <c r="D54" t="n">
-        <v>0.06779399999999999</v>
+        <v>0.06753049999999999</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0862158</v>
+        <v>0.08418249999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0756151</v>
+        <v>0.0770911</v>
       </c>
       <c r="D55" t="n">
-        <v>0.07099</v>
+        <v>0.0687623</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08312659999999999</v>
+        <v>0.0832003</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0747675</v>
+        <v>0.07459490000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0687005</v>
+        <v>0.0716941</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.08528719999999999</v>
+        <v>0.08629050000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0770334</v>
+        <v>0.0782866</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0726668</v>
+        <v>0.0713712</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0868569</v>
+        <v>0.0869269</v>
       </c>
       <c r="C58" t="n">
-        <v>0.079758</v>
+        <v>0.0869236</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0722174</v>
+        <v>0.073794</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0875845</v>
+        <v>0.0909084</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0839572</v>
+        <v>0.0838315</v>
       </c>
       <c r="D59" t="n">
-        <v>0.07564940000000001</v>
+        <v>0.0755132</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0902517</v>
+        <v>0.094442</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0900595</v>
+        <v>0.0887648</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0783512</v>
+        <v>0.078654</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.09580669999999999</v>
+        <v>0.0984872</v>
       </c>
       <c r="C61" t="n">
-        <v>0.09567059999999999</v>
+        <v>0.09342449999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.08477270000000001</v>
+        <v>0.0855171</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.102767</v>
+        <v>0.105104</v>
       </c>
       <c r="C62" t="n">
-        <v>0.103623</v>
+        <v>0.106825</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0948161</v>
+        <v>0.0915938</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.112931</v>
+        <v>0.11335</v>
       </c>
       <c r="C63" t="n">
-        <v>0.119076</v>
+        <v>0.114248</v>
       </c>
       <c r="D63" t="n">
-        <v>0.105621</v>
+        <v>0.105781</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.127983</v>
+        <v>0.133098</v>
       </c>
       <c r="C64" t="n">
-        <v>0.136843</v>
+        <v>0.134716</v>
       </c>
       <c r="D64" t="n">
-        <v>0.124833</v>
+        <v>0.126011</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.157134</v>
+        <v>0.153701</v>
       </c>
       <c r="C65" t="n">
-        <v>0.172722</v>
+        <v>0.166082</v>
       </c>
       <c r="D65" t="n">
-        <v>0.153416</v>
+        <v>0.147045</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.19611</v>
+        <v>0.199209</v>
       </c>
       <c r="C66" t="n">
-        <v>0.22084</v>
+        <v>0.212251</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0710764</v>
+        <v>0.070423</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0907781</v>
+        <v>0.09098870000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.08087949999999999</v>
+        <v>0.0802803</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0760489</v>
+        <v>0.0732197</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.09416339999999999</v>
+        <v>0.09154950000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0831534</v>
+        <v>0.08334859999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0741772</v>
+        <v>0.0755763</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0942726</v>
+        <v>0.0926405</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0840139</v>
+        <v>0.0839853</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0753384</v>
+        <v>0.0739766</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0964711</v>
+        <v>0.0981939</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0865909</v>
+        <v>0.0860361</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0756894</v>
+        <v>0.077639</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0974612</v>
+        <v>0.0956569</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0890866</v>
+        <v>0.09068030000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0779855</v>
+        <v>0.0773472</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.100623</v>
+        <v>0.100463</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0935632</v>
+        <v>0.0936592</v>
       </c>
       <c r="D72" t="n">
-        <v>0.08086459999999999</v>
+        <v>0.079704</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.102995</v>
+        <v>0.100998</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0974691</v>
+        <v>0.0965669</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0857078</v>
+        <v>0.08200730000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.109717</v>
+        <v>0.106929</v>
       </c>
       <c r="C74" t="n">
-        <v>0.103036</v>
+        <v>0.102798</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0882406</v>
+        <v>0.08530160000000001</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.112424</v>
+        <v>0.113295</v>
       </c>
       <c r="C75" t="n">
-        <v>0.108073</v>
+        <v>0.112602</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0932914</v>
+        <v>0.0938219</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.126169</v>
+        <v>0.122209</v>
       </c>
       <c r="C76" t="n">
-        <v>0.119768</v>
+        <v>0.12016</v>
       </c>
       <c r="D76" t="n">
-        <v>0.102323</v>
+        <v>0.102064</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.134897</v>
+        <v>0.135498</v>
       </c>
       <c r="C77" t="n">
-        <v>0.135235</v>
+        <v>0.13098</v>
       </c>
       <c r="D77" t="n">
-        <v>0.11229</v>
+        <v>0.113951</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.148436</v>
+        <v>0.157368</v>
       </c>
       <c r="C78" t="n">
-        <v>0.151959</v>
+        <v>0.151994</v>
       </c>
       <c r="D78" t="n">
-        <v>0.131123</v>
+        <v>0.133571</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.175035</v>
+        <v>0.18609</v>
       </c>
       <c r="C79" t="n">
-        <v>0.182068</v>
+        <v>0.191324</v>
       </c>
       <c r="D79" t="n">
-        <v>0.163734</v>
+        <v>0.160375</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.214856</v>
+        <v>0.227338</v>
       </c>
       <c r="C80" t="n">
-        <v>0.229824</v>
+        <v>0.237818</v>
       </c>
       <c r="D80" t="n">
-        <v>0.07954</v>
+        <v>0.0799985</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.106256</v>
+        <v>0.113973</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09485300000000001</v>
+        <v>0.0974184</v>
       </c>
       <c r="D81" t="n">
-        <v>0.08072509999999999</v>
+        <v>0.0848356</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.113638</v>
+        <v>0.115545</v>
       </c>
       <c r="C82" t="n">
-        <v>0.100197</v>
+        <v>0.0976069</v>
       </c>
       <c r="D82" t="n">
-        <v>0.08201070000000001</v>
+        <v>0.08502270000000001</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.115563</v>
+        <v>0.118848</v>
       </c>
       <c r="C83" t="n">
-        <v>0.10083</v>
+        <v>0.106879</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0862967</v>
+        <v>0.0877214</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.113858</v>
+        <v>0.125102</v>
       </c>
       <c r="C84" t="n">
-        <v>0.10615</v>
+        <v>0.104106</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0868723</v>
+        <v>0.085329</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.120752</v>
+        <v>0.120922</v>
       </c>
       <c r="C85" t="n">
-        <v>0.107807</v>
+        <v>0.114354</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0926911</v>
+        <v>0.09064469999999999</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.125379</v>
+        <v>0.126681</v>
       </c>
       <c r="C86" t="n">
-        <v>0.110376</v>
+        <v>0.113154</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0926236</v>
+        <v>0.0995992</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.125335</v>
+        <v>0.131151</v>
       </c>
       <c r="C87" t="n">
-        <v>0.115295</v>
+        <v>0.119911</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0967039</v>
+        <v>0.095914</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.131323</v>
+        <v>0.133021</v>
       </c>
       <c r="C88" t="n">
-        <v>0.121876</v>
+        <v>0.120563</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0989</v>
+        <v>0.103125</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.143267</v>
+        <v>0.138467</v>
       </c>
       <c r="C89" t="n">
-        <v>0.131109</v>
+        <v>0.128412</v>
       </c>
       <c r="D89" t="n">
-        <v>0.106291</v>
+        <v>0.105101</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.145939</v>
+        <v>0.147125</v>
       </c>
       <c r="C90" t="n">
-        <v>0.143548</v>
+        <v>0.140319</v>
       </c>
       <c r="D90" t="n">
-        <v>0.115506</v>
+        <v>0.117662</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.15944</v>
+        <v>0.158251</v>
       </c>
       <c r="C91" t="n">
-        <v>0.156002</v>
+        <v>0.155237</v>
       </c>
       <c r="D91" t="n">
-        <v>0.127067</v>
+        <v>0.127942</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.174109</v>
+        <v>0.173546</v>
       </c>
       <c r="C92" t="n">
-        <v>0.173289</v>
+        <v>0.175604</v>
       </c>
       <c r="D92" t="n">
-        <v>0.150505</v>
+        <v>0.141237</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.207639</v>
+        <v>0.200781</v>
       </c>
       <c r="C93" t="n">
-        <v>0.2068</v>
+        <v>0.209337</v>
       </c>
       <c r="D93" t="n">
-        <v>0.17252</v>
+        <v>0.170033</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.244098</v>
+        <v>0.240621</v>
       </c>
       <c r="C94" t="n">
-        <v>0.253656</v>
+        <v>0.258599</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0995457</v>
+        <v>0.100794</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.137406</v>
+        <v>0.13815</v>
       </c>
       <c r="C95" t="n">
-        <v>0.125708</v>
+        <v>0.124996</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0995099</v>
+        <v>0.104022</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.142914</v>
+        <v>0.147733</v>
       </c>
       <c r="C96" t="n">
-        <v>0.128345</v>
+        <v>0.125634</v>
       </c>
       <c r="D96" t="n">
-        <v>0.103602</v>
+        <v>0.104491</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.143813</v>
+        <v>0.145118</v>
       </c>
       <c r="C97" t="n">
-        <v>0.128821</v>
+        <v>0.134735</v>
       </c>
       <c r="D97" t="n">
-        <v>0.10303</v>
+        <v>0.106532</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.14675</v>
+        <v>0.153701</v>
       </c>
       <c r="C98" t="n">
-        <v>0.132119</v>
+        <v>0.139413</v>
       </c>
       <c r="D98" t="n">
-        <v>0.10594</v>
+        <v>0.109955</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.148353</v>
+        <v>0.153785</v>
       </c>
       <c r="C99" t="n">
-        <v>0.139209</v>
+        <v>0.137082</v>
       </c>
       <c r="D99" t="n">
-        <v>0.108869</v>
+        <v>0.109466</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.161703</v>
+        <v>0.153433</v>
       </c>
       <c r="C100" t="n">
-        <v>0.145916</v>
+        <v>0.143756</v>
       </c>
       <c r="D100" t="n">
-        <v>0.114244</v>
+        <v>0.111734</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.163699</v>
+        <v>0.154948</v>
       </c>
       <c r="C101" t="n">
-        <v>0.147832</v>
+        <v>0.149694</v>
       </c>
       <c r="D101" t="n">
-        <v>0.116931</v>
+        <v>0.117428</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.162853</v>
+        <v>0.160679</v>
       </c>
       <c r="C102" t="n">
-        <v>0.151321</v>
+        <v>0.150871</v>
       </c>
       <c r="D102" t="n">
-        <v>0.125976</v>
+        <v>0.125739</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.169089</v>
+        <v>0.175442</v>
       </c>
       <c r="C103" t="n">
-        <v>0.164385</v>
+        <v>0.165486</v>
       </c>
       <c r="D103" t="n">
-        <v>0.126724</v>
+        <v>0.129545</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.173537</v>
+        <v>0.181309</v>
       </c>
       <c r="C104" t="n">
-        <v>0.179335</v>
+        <v>0.178187</v>
       </c>
       <c r="D104" t="n">
-        <v>0.138502</v>
+        <v>0.141872</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.189587</v>
+        <v>0.194665</v>
       </c>
       <c r="C105" t="n">
-        <v>0.193154</v>
+        <v>0.184569</v>
       </c>
       <c r="D105" t="n">
-        <v>0.147654</v>
+        <v>0.14978</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.205852</v>
+        <v>0.203738</v>
       </c>
       <c r="C106" t="n">
-        <v>0.209744</v>
+        <v>0.205234</v>
       </c>
       <c r="D106" t="n">
-        <v>0.162347</v>
+        <v>0.165279</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.239446</v>
+        <v>0.232616</v>
       </c>
       <c r="C107" t="n">
-        <v>0.240922</v>
+        <v>0.24974</v>
       </c>
       <c r="D107" t="n">
-        <v>0.190022</v>
+        <v>0.187737</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.275431</v>
+        <v>0.278791</v>
       </c>
       <c r="C108" t="n">
-        <v>0.295223</v>
+        <v>0.294328</v>
       </c>
       <c r="D108" t="n">
-        <v>0.174167</v>
+        <v>0.174002</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.341925</v>
+        <v>0.348227</v>
       </c>
       <c r="C109" t="n">
-        <v>0.385008</v>
+        <v>0.37723</v>
       </c>
       <c r="D109" t="n">
-        <v>0.17536</v>
+        <v>0.180302</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.230333</v>
+        <v>0.22477</v>
       </c>
       <c r="C110" t="n">
-        <v>0.206131</v>
+        <v>0.205851</v>
       </c>
       <c r="D110" t="n">
-        <v>0.177037</v>
+        <v>0.182376</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.230538</v>
+        <v>0.232134</v>
       </c>
       <c r="C111" t="n">
-        <v>0.211833</v>
+        <v>0.207215</v>
       </c>
       <c r="D111" t="n">
-        <v>0.179981</v>
+        <v>0.184962</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.235311</v>
+        <v>0.247724</v>
       </c>
       <c r="C112" t="n">
-        <v>0.210702</v>
+        <v>0.209054</v>
       </c>
       <c r="D112" t="n">
-        <v>0.185431</v>
+        <v>0.1843</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.236745</v>
+        <v>0.233736</v>
       </c>
       <c r="C113" t="n">
-        <v>0.214594</v>
+        <v>0.216857</v>
       </c>
       <c r="D113" t="n">
-        <v>0.185648</v>
+        <v>0.194969</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.244309</v>
+        <v>0.256652</v>
       </c>
       <c r="C114" t="n">
-        <v>0.219801</v>
+        <v>0.221256</v>
       </c>
       <c r="D114" t="n">
-        <v>0.192433</v>
+        <v>0.187449</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.250761</v>
+        <v>0.246823</v>
       </c>
       <c r="C115" t="n">
-        <v>0.221877</v>
+        <v>0.23009</v>
       </c>
       <c r="D115" t="n">
-        <v>0.197137</v>
+        <v>0.205875</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.255716</v>
+        <v>0.276704</v>
       </c>
       <c r="C116" t="n">
-        <v>0.232861</v>
+        <v>0.236148</v>
       </c>
       <c r="D116" t="n">
-        <v>0.195707</v>
+        <v>0.200398</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.258331</v>
+        <v>0.26607</v>
       </c>
       <c r="C117" t="n">
-        <v>0.238234</v>
+        <v>0.240834</v>
       </c>
       <c r="D117" t="n">
-        <v>0.219705</v>
+        <v>0.207741</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.277564</v>
+        <v>0.271902</v>
       </c>
       <c r="C118" t="n">
-        <v>0.255239</v>
+        <v>0.250166</v>
       </c>
       <c r="D118" t="n">
-        <v>0.209714</v>
+        <v>0.207158</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.283195</v>
+        <v>0.277099</v>
       </c>
       <c r="C119" t="n">
-        <v>0.26327</v>
+        <v>0.275568</v>
       </c>
       <c r="D119" t="n">
-        <v>0.218452</v>
+        <v>0.218679</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.306004</v>
+        <v>0.299936</v>
       </c>
       <c r="C120" t="n">
-        <v>0.285199</v>
+        <v>0.287792</v>
       </c>
       <c r="D120" t="n">
-        <v>0.237114</v>
+        <v>0.241778</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.323745</v>
+        <v>0.346577</v>
       </c>
       <c r="C121" t="n">
-        <v>0.337945</v>
+        <v>0.316032</v>
       </c>
       <c r="D121" t="n">
-        <v>0.261435</v>
+        <v>0.260735</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.372038</v>
+        <v>0.37968</v>
       </c>
       <c r="C122" t="n">
-        <v>0.368288</v>
+        <v>0.394393</v>
       </c>
       <c r="D122" t="n">
-        <v>0.299667</v>
+        <v>0.295071</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.449549</v>
+        <v>0.474589</v>
       </c>
       <c r="C123" t="n">
-        <v>0.447947</v>
+        <v>0.440611</v>
       </c>
       <c r="D123" t="n">
-        <v>0.279966</v>
+        <v>0.282984</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.362984</v>
+        <v>0.369636</v>
       </c>
       <c r="C124" t="n">
-        <v>0.317951</v>
+        <v>0.313569</v>
       </c>
       <c r="D124" t="n">
-        <v>0.284306</v>
+        <v>0.281748</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.360968</v>
+        <v>0.374194</v>
       </c>
       <c r="C125" t="n">
-        <v>0.32486</v>
+        <v>0.324758</v>
       </c>
       <c r="D125" t="n">
-        <v>0.287599</v>
+        <v>0.281675</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.369539</v>
+        <v>0.382279</v>
       </c>
       <c r="C126" t="n">
-        <v>0.324571</v>
+        <v>0.31941</v>
       </c>
       <c r="D126" t="n">
-        <v>0.290327</v>
+        <v>0.2917</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.378382</v>
+        <v>0.385865</v>
       </c>
       <c r="C127" t="n">
-        <v>0.335804</v>
+        <v>0.33629</v>
       </c>
       <c r="D127" t="n">
-        <v>0.286482</v>
+        <v>0.291391</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.380383</v>
+        <v>0.378694</v>
       </c>
       <c r="C128" t="n">
-        <v>0.328742</v>
+        <v>0.338438</v>
       </c>
       <c r="D128" t="n">
-        <v>0.294585</v>
+        <v>0.304016</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.38927</v>
+        <v>0.395111</v>
       </c>
       <c r="C129" t="n">
-        <v>0.337321</v>
+        <v>0.352511</v>
       </c>
       <c r="D129" t="n">
-        <v>0.298408</v>
+        <v>0.298073</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.405579</v>
+        <v>0.408803</v>
       </c>
       <c r="C130" t="n">
-        <v>0.349647</v>
+        <v>0.341893</v>
       </c>
       <c r="D130" t="n">
-        <v>0.303527</v>
+        <v>0.304909</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.410301</v>
+        <v>0.41544</v>
       </c>
       <c r="C131" t="n">
-        <v>0.360508</v>
+        <v>0.356978</v>
       </c>
       <c r="D131" t="n">
-        <v>0.312186</v>
+        <v>0.307101</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.427446</v>
+        <v>0.425108</v>
       </c>
       <c r="C132" t="n">
-        <v>0.36432</v>
+        <v>0.369689</v>
       </c>
       <c r="D132" t="n">
-        <v>0.324797</v>
+        <v>0.32693</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.435789</v>
+        <v>0.435926</v>
       </c>
       <c r="C133" t="n">
-        <v>0.39571</v>
+        <v>0.394396</v>
       </c>
       <c r="D133" t="n">
-        <v>0.331222</v>
+        <v>0.335311</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.450404</v>
+        <v>0.458776</v>
       </c>
       <c r="C134" t="n">
-        <v>0.406501</v>
+        <v>0.406818</v>
       </c>
       <c r="D134" t="n">
-        <v>0.343236</v>
+        <v>0.346792</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.493091</v>
+        <v>0.49386</v>
       </c>
       <c r="C135" t="n">
-        <v>0.440886</v>
+        <v>0.450101</v>
       </c>
       <c r="D135" t="n">
-        <v>0.380722</v>
+        <v>0.382502</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.540943</v>
+        <v>0.531331</v>
       </c>
       <c r="C136" t="n">
-        <v>0.50126</v>
+        <v>0.493242</v>
       </c>
       <c r="D136" t="n">
-        <v>0.410787</v>
+        <v>0.409271</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.623017</v>
+        <v>0.624924</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5858910000000001</v>
+        <v>0.606409</v>
       </c>
       <c r="D137" t="n">
-        <v>0.347425</v>
+        <v>0.343221</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.449885</v>
+        <v>0.449038</v>
       </c>
       <c r="C138" t="n">
-        <v>0.375558</v>
+        <v>0.37621</v>
       </c>
       <c r="D138" t="n">
-        <v>0.342391</v>
+        <v>0.344628</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.446911</v>
+        <v>0.457916</v>
       </c>
       <c r="C139" t="n">
-        <v>0.388713</v>
+        <v>0.383198</v>
       </c>
       <c r="D139" t="n">
-        <v>0.345724</v>
+        <v>0.353916</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.45627</v>
+        <v>0.461806</v>
       </c>
       <c r="C140" t="n">
-        <v>0.40021</v>
+        <v>0.387569</v>
       </c>
       <c r="D140" t="n">
-        <v>0.346174</v>
+        <v>0.349504</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.467727</v>
+        <v>0.469356</v>
       </c>
       <c r="C141" t="n">
-        <v>0.403108</v>
+        <v>0.391308</v>
       </c>
       <c r="D141" t="n">
-        <v>0.351674</v>
+        <v>0.357442</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.468542</v>
+        <v>0.475188</v>
       </c>
       <c r="C142" t="n">
-        <v>0.398481</v>
+        <v>0.402507</v>
       </c>
       <c r="D142" t="n">
-        <v>0.355938</v>
+        <v>0.357472</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.479256</v>
+        <v>0.480757</v>
       </c>
       <c r="C143" t="n">
-        <v>0.405997</v>
+        <v>0.406281</v>
       </c>
       <c r="D143" t="n">
-        <v>0.35695</v>
+        <v>0.365739</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0611118</v>
+        <v>0.061052</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0625766</v>
+        <v>0.061179</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0572691</v>
+        <v>0.0562439</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0625869</v>
+        <v>0.06445190000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0658936</v>
+        <v>0.065525</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0607119</v>
+        <v>0.0622049</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0654618</v>
+        <v>0.0675249</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07011539999999999</v>
+        <v>0.070141</v>
       </c>
       <c r="D4" t="n">
-        <v>0.062648</v>
+        <v>0.0641969</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0757251</v>
+        <v>0.0717149</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0786386</v>
+        <v>0.0773403</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0687266</v>
+        <v>0.06829490000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0814599</v>
+        <v>0.08202280000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08925710000000001</v>
+        <v>0.0856645</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0754847</v>
+        <v>0.074069</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09502969999999999</v>
+        <v>0.098456</v>
       </c>
       <c r="C7" t="n">
-        <v>0.102284</v>
+        <v>0.102503</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09043519999999999</v>
+        <v>0.08799949999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.120648</v>
+        <v>0.120814</v>
       </c>
       <c r="C8" t="n">
-        <v>0.132181</v>
+        <v>0.133194</v>
       </c>
       <c r="D8" t="n">
-        <v>0.111699</v>
+        <v>0.109555</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.153885</v>
+        <v>0.157787</v>
       </c>
       <c r="C9" t="n">
-        <v>0.164975</v>
+        <v>0.174605</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0544328</v>
+        <v>0.054274</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0602649</v>
+        <v>0.0591706</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0557148</v>
+        <v>0.0546545</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0553433</v>
+        <v>0.053723</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0588318</v>
+        <v>0.06290370000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0566488</v>
+        <v>0.0576553</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0551216</v>
+        <v>0.0536736</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0605164</v>
+        <v>0.0584967</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0572232</v>
+        <v>0.0575642</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0559955</v>
+        <v>0.0543846</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.06498809999999999</v>
+        <v>0.06011</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0572067</v>
+        <v>0.0574326</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0555617</v>
+        <v>0.0547095</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0619086</v>
+        <v>0.0613927</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0579386</v>
+        <v>0.0610126</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0559059</v>
+        <v>0.0563482</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0649459</v>
+        <v>0.0628499</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0613174</v>
+        <v>0.0617757</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0584252</v>
+        <v>0.0586912</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0685949</v>
+        <v>0.0651706</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06526</v>
+        <v>0.0653934</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0600119</v>
+        <v>0.0621674</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0675058</v>
+        <v>0.0667592</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0675384</v>
+        <v>0.0693151</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0628811</v>
+        <v>0.0645636</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.071128</v>
+        <v>0.072326</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07565479999999999</v>
+        <v>0.0739968</v>
       </c>
       <c r="D18" t="n">
-        <v>0.06657299999999999</v>
+        <v>0.067955</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0740936</v>
+        <v>0.07638349999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0778563</v>
+        <v>0.0804344</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0713954</v>
+        <v>0.0743255</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.083026</v>
+        <v>0.0852678</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08755979999999999</v>
+        <v>0.0931452</v>
       </c>
       <c r="D20" t="n">
-        <v>0.08044510000000001</v>
+        <v>0.0839729</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0947205</v>
+        <v>0.102377</v>
       </c>
       <c r="C21" t="n">
-        <v>0.102021</v>
+        <v>0.106818</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0927818</v>
+        <v>0.09808799999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.116563</v>
+        <v>0.119322</v>
       </c>
       <c r="C22" t="n">
-        <v>0.136857</v>
+        <v>0.136972</v>
       </c>
       <c r="D22" t="n">
-        <v>0.12221</v>
+        <v>0.117767</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.152363</v>
+        <v>0.147097</v>
       </c>
       <c r="C23" t="n">
-        <v>0.169584</v>
+        <v>0.16911</v>
       </c>
       <c r="D23" t="n">
-        <v>0.055945</v>
+        <v>0.0571335</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0643157</v>
+        <v>0.0626482</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0596558</v>
+        <v>0.0595599</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0564984</v>
+        <v>0.0565278</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.06332409999999999</v>
+        <v>0.062875</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0576001</v>
+        <v>0.0588564</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0580644</v>
+        <v>0.0572419</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0653794</v>
+        <v>0.06488049999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0626873</v>
+        <v>0.0588208</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0572751</v>
+        <v>0.0589622</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0672992</v>
+        <v>0.0642209</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0593353</v>
+        <v>0.0606023</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0572512</v>
+        <v>0.058944</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0658913</v>
+        <v>0.0651677</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0604551</v>
+        <v>0.0611953</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0595012</v>
+        <v>0.0604505</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0691208</v>
+        <v>0.0678035</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0623503</v>
+        <v>0.0642678</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0606849</v>
+        <v>0.0602806</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0678168</v>
+        <v>0.0705442</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0660326</v>
+        <v>0.06414590000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0630843</v>
+        <v>0.0637071</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0720437</v>
+        <v>0.0723747</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0696637</v>
+        <v>0.0694256</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0682483</v>
+        <v>0.0639549</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0747337</v>
+        <v>0.0758438</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0729023</v>
+        <v>0.0730426</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0701263</v>
+        <v>0.07119449999999999</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.079733</v>
+        <v>0.0782545</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0795385</v>
+        <v>0.0793933</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0761549</v>
+        <v>0.0761126</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0877542</v>
+        <v>0.0894561</v>
       </c>
       <c r="C34" t="n">
-        <v>0.09100900000000001</v>
+        <v>0.09004479999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.08642279999999999</v>
+        <v>0.0869809</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.100134</v>
+        <v>0.0969764</v>
       </c>
       <c r="C35" t="n">
-        <v>0.107411</v>
+        <v>0.106222</v>
       </c>
       <c r="D35" t="n">
-        <v>0.101338</v>
+        <v>0.09922839999999999</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.112467</v>
+        <v>0.117136</v>
       </c>
       <c r="C36" t="n">
-        <v>0.134273</v>
+        <v>0.129331</v>
       </c>
       <c r="D36" t="n">
-        <v>0.119798</v>
+        <v>0.122476</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.14798</v>
+        <v>0.148941</v>
       </c>
       <c r="C37" t="n">
-        <v>0.172134</v>
+        <v>0.166937</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0612104</v>
+        <v>0.0602115</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06766129999999999</v>
+        <v>0.0706696</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0622589</v>
+        <v>0.0612344</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0598956</v>
+        <v>0.060136</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.06846099999999999</v>
+        <v>0.0698616</v>
       </c>
       <c r="C39" t="n">
-        <v>0.06535000000000001</v>
+        <v>0.0629304</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0604875</v>
+        <v>0.059443</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0719475</v>
+        <v>0.0710041</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0648856</v>
+        <v>0.06457259999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0621636</v>
+        <v>0.0642688</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0740357</v>
+        <v>0.07121669999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0662949</v>
+        <v>0.06584909999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0655821</v>
+        <v>0.06284099999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.073006</v>
+        <v>0.0752674</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0677527</v>
+        <v>0.066715</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0644284</v>
+        <v>0.06443740000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0760304</v>
+        <v>0.0709154</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0665973</v>
+        <v>0.0692898</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0638382</v>
+        <v>0.06400400000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0760063</v>
+        <v>0.0739047</v>
       </c>
       <c r="C44" t="n">
-        <v>0.06946140000000001</v>
+        <v>0.0709867</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0676764</v>
+        <v>0.066526</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0760763</v>
+        <v>0.07719280000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0732482</v>
+        <v>0.0738222</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0714748</v>
+        <v>0.0680056</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.08417860000000001</v>
+        <v>0.0795807</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0775974</v>
+        <v>0.0758335</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0717199</v>
+        <v>0.0732872</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0850172</v>
+        <v>0.08754140000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.08212469999999999</v>
+        <v>0.0826474</v>
       </c>
       <c r="D47" t="n">
-        <v>0.07742930000000001</v>
+        <v>0.0766979</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.09296219999999999</v>
+        <v>0.0918167</v>
       </c>
       <c r="C48" t="n">
-        <v>0.09332310000000001</v>
+        <v>0.0938985</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0872624</v>
+        <v>0.08757810000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.102099</v>
+        <v>0.102624</v>
       </c>
       <c r="C49" t="n">
-        <v>0.103858</v>
+        <v>0.105428</v>
       </c>
       <c r="D49" t="n">
-        <v>0.097264</v>
+        <v>0.09911010000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.11856</v>
+        <v>0.123182</v>
       </c>
       <c r="C50" t="n">
-        <v>0.126521</v>
+        <v>0.128432</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1173</v>
+        <v>0.118887</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.145728</v>
+        <v>0.147263</v>
       </c>
       <c r="C51" t="n">
-        <v>0.158924</v>
+        <v>0.15877</v>
       </c>
       <c r="D51" t="n">
-        <v>0.066118</v>
+        <v>0.0643437</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.187645</v>
+        <v>0.19029</v>
       </c>
       <c r="C52" t="n">
-        <v>0.202839</v>
+        <v>0.212971</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0657514</v>
+        <v>0.068869</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0813102</v>
+        <v>0.08202719999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0728005</v>
+        <v>0.07272480000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0659907</v>
+        <v>0.0675313</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.08231189999999999</v>
+        <v>0.08082159999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0718646</v>
+        <v>0.07453079999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.06753049999999999</v>
+        <v>0.06755650000000001</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.08418249999999999</v>
+        <v>0.0849094</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0770911</v>
+        <v>0.07463359999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0687623</v>
+        <v>0.06712890000000001</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0832003</v>
+        <v>0.08607090000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.07459490000000001</v>
+        <v>0.0756452</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0716941</v>
+        <v>0.06990209999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.08629050000000001</v>
+        <v>0.08585189999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0782866</v>
+        <v>0.0787394</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0713712</v>
+        <v>0.07003379999999999</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0869269</v>
+        <v>0.0890755</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0869236</v>
+        <v>0.0800343</v>
       </c>
       <c r="D58" t="n">
-        <v>0.073794</v>
+        <v>0.0750449</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0909084</v>
+        <v>0.0888617</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0838315</v>
+        <v>0.087251</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0755132</v>
+        <v>0.0773838</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.094442</v>
+        <v>0.0938713</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0887648</v>
+        <v>0.0880538</v>
       </c>
       <c r="D60" t="n">
-        <v>0.078654</v>
+        <v>0.0803905</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0984872</v>
+        <v>0.0962102</v>
       </c>
       <c r="C61" t="n">
-        <v>0.09342449999999999</v>
+        <v>0.0944012</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0855171</v>
+        <v>0.0857291</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.105104</v>
+        <v>0.103624</v>
       </c>
       <c r="C62" t="n">
-        <v>0.106825</v>
+        <v>0.102097</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0915938</v>
+        <v>0.09353880000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.11335</v>
+        <v>0.113744</v>
       </c>
       <c r="C63" t="n">
-        <v>0.114248</v>
+        <v>0.115268</v>
       </c>
       <c r="D63" t="n">
-        <v>0.105781</v>
+        <v>0.104985</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.133098</v>
+        <v>0.12795</v>
       </c>
       <c r="C64" t="n">
-        <v>0.134716</v>
+        <v>0.140803</v>
       </c>
       <c r="D64" t="n">
-        <v>0.126011</v>
+        <v>0.120982</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.153701</v>
+        <v>0.152393</v>
       </c>
       <c r="C65" t="n">
-        <v>0.166082</v>
+        <v>0.167744</v>
       </c>
       <c r="D65" t="n">
-        <v>0.147045</v>
+        <v>0.149553</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.199209</v>
+        <v>0.200725</v>
       </c>
       <c r="C66" t="n">
-        <v>0.212251</v>
+        <v>0.216077</v>
       </c>
       <c r="D66" t="n">
-        <v>0.070423</v>
+        <v>0.0762713</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.09098870000000001</v>
+        <v>0.0930584</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0802803</v>
+        <v>0.08036359999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0732197</v>
+        <v>0.0716552</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.09154950000000001</v>
+        <v>0.0934487</v>
       </c>
       <c r="C68" t="n">
-        <v>0.08334859999999999</v>
+        <v>0.0820015</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0755763</v>
+        <v>0.07362340000000001</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0926405</v>
+        <v>0.09464599999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0839853</v>
+        <v>0.08446869999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0739766</v>
+        <v>0.0744061</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0981939</v>
+        <v>0.09632259999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0860361</v>
+        <v>0.0854598</v>
       </c>
       <c r="D70" t="n">
-        <v>0.077639</v>
+        <v>0.0760512</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0956569</v>
+        <v>0.0981596</v>
       </c>
       <c r="C71" t="n">
-        <v>0.09068030000000001</v>
+        <v>0.09206499999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0773472</v>
+        <v>0.0776633</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.100463</v>
+        <v>0.101793</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0936592</v>
+        <v>0.0923532</v>
       </c>
       <c r="D72" t="n">
-        <v>0.079704</v>
+        <v>0.08134130000000001</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.100998</v>
+        <v>0.103081</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0965669</v>
+        <v>0.094961</v>
       </c>
       <c r="D73" t="n">
-        <v>0.08200730000000001</v>
+        <v>0.0839886</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.106929</v>
+        <v>0.110942</v>
       </c>
       <c r="C74" t="n">
-        <v>0.102798</v>
+        <v>0.10347</v>
       </c>
       <c r="D74" t="n">
-        <v>0.08530160000000001</v>
+        <v>0.0889629</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.113295</v>
+        <v>0.113582</v>
       </c>
       <c r="C75" t="n">
-        <v>0.112602</v>
+        <v>0.111549</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0938219</v>
+        <v>0.0934247</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.122209</v>
+        <v>0.125428</v>
       </c>
       <c r="C76" t="n">
-        <v>0.12016</v>
+        <v>0.120832</v>
       </c>
       <c r="D76" t="n">
-        <v>0.102064</v>
+        <v>0.10111</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.135498</v>
+        <v>0.135577</v>
       </c>
       <c r="C77" t="n">
-        <v>0.13098</v>
+        <v>0.131201</v>
       </c>
       <c r="D77" t="n">
-        <v>0.113951</v>
+        <v>0.115376</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.157368</v>
+        <v>0.151376</v>
       </c>
       <c r="C78" t="n">
-        <v>0.151994</v>
+        <v>0.156113</v>
       </c>
       <c r="D78" t="n">
-        <v>0.133571</v>
+        <v>0.129219</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.18609</v>
+        <v>0.175815</v>
       </c>
       <c r="C79" t="n">
-        <v>0.191324</v>
+        <v>0.185679</v>
       </c>
       <c r="D79" t="n">
-        <v>0.160375</v>
+        <v>0.157805</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227338</v>
+        <v>0.225721</v>
       </c>
       <c r="C80" t="n">
-        <v>0.237818</v>
+        <v>0.230408</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0799985</v>
+        <v>0.0796543</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.113973</v>
+        <v>0.112716</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0974184</v>
+        <v>0.09556870000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0848356</v>
+        <v>0.0788336</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.115545</v>
+        <v>0.112267</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0976069</v>
+        <v>0.0977172</v>
       </c>
       <c r="D82" t="n">
-        <v>0.08502270000000001</v>
+        <v>0.0827918</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.118848</v>
+        <v>0.111418</v>
       </c>
       <c r="C83" t="n">
-        <v>0.106879</v>
+        <v>0.101424</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0877214</v>
+        <v>0.08551250000000001</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.125102</v>
+        <v>0.119092</v>
       </c>
       <c r="C84" t="n">
-        <v>0.104106</v>
+        <v>0.103776</v>
       </c>
       <c r="D84" t="n">
-        <v>0.085329</v>
+        <v>0.0850829</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.120922</v>
+        <v>0.115484</v>
       </c>
       <c r="C85" t="n">
-        <v>0.114354</v>
+        <v>0.10822</v>
       </c>
       <c r="D85" t="n">
-        <v>0.09064469999999999</v>
+        <v>0.0877599</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.126681</v>
+        <v>0.120836</v>
       </c>
       <c r="C86" t="n">
-        <v>0.113154</v>
+        <v>0.11109</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0995992</v>
+        <v>0.0929522</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.131151</v>
+        <v>0.12647</v>
       </c>
       <c r="C87" t="n">
-        <v>0.119911</v>
+        <v>0.117499</v>
       </c>
       <c r="D87" t="n">
-        <v>0.095914</v>
+        <v>0.0966636</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.133021</v>
+        <v>0.129334</v>
       </c>
       <c r="C88" t="n">
-        <v>0.120563</v>
+        <v>0.122012</v>
       </c>
       <c r="D88" t="n">
-        <v>0.103125</v>
+        <v>0.101158</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.138467</v>
+        <v>0.144256</v>
       </c>
       <c r="C89" t="n">
-        <v>0.128412</v>
+        <v>0.135612</v>
       </c>
       <c r="D89" t="n">
-        <v>0.105101</v>
+        <v>0.106145</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.147125</v>
+        <v>0.147667</v>
       </c>
       <c r="C90" t="n">
-        <v>0.140319</v>
+        <v>0.141271</v>
       </c>
       <c r="D90" t="n">
-        <v>0.117662</v>
+        <v>0.115652</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.158251</v>
+        <v>0.161284</v>
       </c>
       <c r="C91" t="n">
-        <v>0.155237</v>
+        <v>0.154343</v>
       </c>
       <c r="D91" t="n">
-        <v>0.127942</v>
+        <v>0.125171</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.173546</v>
+        <v>0.173807</v>
       </c>
       <c r="C92" t="n">
-        <v>0.175604</v>
+        <v>0.173626</v>
       </c>
       <c r="D92" t="n">
-        <v>0.141237</v>
+        <v>0.150127</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.200781</v>
+        <v>0.200312</v>
       </c>
       <c r="C93" t="n">
-        <v>0.209337</v>
+        <v>0.210268</v>
       </c>
       <c r="D93" t="n">
-        <v>0.170033</v>
+        <v>0.172224</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.240621</v>
+        <v>0.24339</v>
       </c>
       <c r="C94" t="n">
-        <v>0.258599</v>
+        <v>0.255612</v>
       </c>
       <c r="D94" t="n">
-        <v>0.100794</v>
+        <v>0.103831</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.13815</v>
+        <v>0.135622</v>
       </c>
       <c r="C95" t="n">
-        <v>0.124996</v>
+        <v>0.124506</v>
       </c>
       <c r="D95" t="n">
-        <v>0.104022</v>
+        <v>0.102711</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.147733</v>
+        <v>0.141751</v>
       </c>
       <c r="C96" t="n">
-        <v>0.125634</v>
+        <v>0.128391</v>
       </c>
       <c r="D96" t="n">
-        <v>0.104491</v>
+        <v>0.104058</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.145118</v>
+        <v>0.145839</v>
       </c>
       <c r="C97" t="n">
-        <v>0.134735</v>
+        <v>0.131264</v>
       </c>
       <c r="D97" t="n">
-        <v>0.106532</v>
+        <v>0.106089</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.153701</v>
+        <v>0.149022</v>
       </c>
       <c r="C98" t="n">
-        <v>0.139413</v>
+        <v>0.131091</v>
       </c>
       <c r="D98" t="n">
-        <v>0.109955</v>
+        <v>0.108916</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.153785</v>
+        <v>0.149665</v>
       </c>
       <c r="C99" t="n">
-        <v>0.137082</v>
+        <v>0.137841</v>
       </c>
       <c r="D99" t="n">
-        <v>0.109466</v>
+        <v>0.109221</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.153433</v>
+        <v>0.158213</v>
       </c>
       <c r="C100" t="n">
-        <v>0.143756</v>
+        <v>0.145878</v>
       </c>
       <c r="D100" t="n">
-        <v>0.111734</v>
+        <v>0.116322</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.154948</v>
+        <v>0.158123</v>
       </c>
       <c r="C101" t="n">
-        <v>0.149694</v>
+        <v>0.146196</v>
       </c>
       <c r="D101" t="n">
-        <v>0.117428</v>
+        <v>0.115492</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.160679</v>
+        <v>0.164647</v>
       </c>
       <c r="C102" t="n">
-        <v>0.150871</v>
+        <v>0.154061</v>
       </c>
       <c r="D102" t="n">
-        <v>0.125739</v>
+        <v>0.122809</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.175442</v>
+        <v>0.175373</v>
       </c>
       <c r="C103" t="n">
-        <v>0.165486</v>
+        <v>0.160229</v>
       </c>
       <c r="D103" t="n">
-        <v>0.129545</v>
+        <v>0.128622</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.181309</v>
+        <v>0.182384</v>
       </c>
       <c r="C104" t="n">
-        <v>0.178187</v>
+        <v>0.169297</v>
       </c>
       <c r="D104" t="n">
-        <v>0.141872</v>
+        <v>0.135116</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.194665</v>
+        <v>0.189517</v>
       </c>
       <c r="C105" t="n">
-        <v>0.184569</v>
+        <v>0.188428</v>
       </c>
       <c r="D105" t="n">
-        <v>0.14978</v>
+        <v>0.147968</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.203738</v>
+        <v>0.211399</v>
       </c>
       <c r="C106" t="n">
-        <v>0.205234</v>
+        <v>0.213885</v>
       </c>
       <c r="D106" t="n">
-        <v>0.165279</v>
+        <v>0.165444</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.232616</v>
+        <v>0.227375</v>
       </c>
       <c r="C107" t="n">
-        <v>0.24974</v>
+        <v>0.235513</v>
       </c>
       <c r="D107" t="n">
-        <v>0.187737</v>
+        <v>0.186722</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.278791</v>
+        <v>0.272329</v>
       </c>
       <c r="C108" t="n">
-        <v>0.294328</v>
+        <v>0.288401</v>
       </c>
       <c r="D108" t="n">
-        <v>0.174002</v>
+        <v>0.180381</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.348227</v>
+        <v>0.351414</v>
       </c>
       <c r="C109" t="n">
-        <v>0.37723</v>
+        <v>0.381543</v>
       </c>
       <c r="D109" t="n">
-        <v>0.180302</v>
+        <v>0.176778</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.22477</v>
+        <v>0.227587</v>
       </c>
       <c r="C110" t="n">
-        <v>0.205851</v>
+        <v>0.200151</v>
       </c>
       <c r="D110" t="n">
-        <v>0.182376</v>
+        <v>0.183405</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.232134</v>
+        <v>0.226623</v>
       </c>
       <c r="C111" t="n">
-        <v>0.207215</v>
+        <v>0.219828</v>
       </c>
       <c r="D111" t="n">
-        <v>0.184962</v>
+        <v>0.191634</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.247724</v>
+        <v>0.236013</v>
       </c>
       <c r="C112" t="n">
-        <v>0.209054</v>
+        <v>0.212441</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1843</v>
+        <v>0.179372</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.233736</v>
+        <v>0.250365</v>
       </c>
       <c r="C113" t="n">
-        <v>0.216857</v>
+        <v>0.218033</v>
       </c>
       <c r="D113" t="n">
-        <v>0.194969</v>
+        <v>0.184142</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.256652</v>
+        <v>0.240221</v>
       </c>
       <c r="C114" t="n">
-        <v>0.221256</v>
+        <v>0.219723</v>
       </c>
       <c r="D114" t="n">
-        <v>0.187449</v>
+        <v>0.192319</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.246823</v>
+        <v>0.244373</v>
       </c>
       <c r="C115" t="n">
-        <v>0.23009</v>
+        <v>0.230984</v>
       </c>
       <c r="D115" t="n">
-        <v>0.205875</v>
+        <v>0.194796</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.276704</v>
+        <v>0.251593</v>
       </c>
       <c r="C116" t="n">
-        <v>0.236148</v>
+        <v>0.23004</v>
       </c>
       <c r="D116" t="n">
-        <v>0.200398</v>
+        <v>0.198784</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.26607</v>
+        <v>0.279741</v>
       </c>
       <c r="C117" t="n">
-        <v>0.240834</v>
+        <v>0.251769</v>
       </c>
       <c r="D117" t="n">
-        <v>0.207741</v>
+        <v>0.204177</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.271902</v>
+        <v>0.273884</v>
       </c>
       <c r="C118" t="n">
-        <v>0.250166</v>
+        <v>0.254001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.207158</v>
+        <v>0.223109</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.277099</v>
+        <v>0.284856</v>
       </c>
       <c r="C119" t="n">
-        <v>0.275568</v>
+        <v>0.289185</v>
       </c>
       <c r="D119" t="n">
-        <v>0.218679</v>
+        <v>0.233756</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.299936</v>
+        <v>0.316387</v>
       </c>
       <c r="C120" t="n">
-        <v>0.287792</v>
+        <v>0.291982</v>
       </c>
       <c r="D120" t="n">
-        <v>0.241778</v>
+        <v>0.235217</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.346577</v>
+        <v>0.341312</v>
       </c>
       <c r="C121" t="n">
-        <v>0.316032</v>
+        <v>0.31552</v>
       </c>
       <c r="D121" t="n">
-        <v>0.260735</v>
+        <v>0.262754</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.37968</v>
+        <v>0.376395</v>
       </c>
       <c r="C122" t="n">
-        <v>0.394393</v>
+        <v>0.364603</v>
       </c>
       <c r="D122" t="n">
-        <v>0.295071</v>
+        <v>0.300577</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.474589</v>
+        <v>0.444275</v>
       </c>
       <c r="C123" t="n">
-        <v>0.440611</v>
+        <v>0.457364</v>
       </c>
       <c r="D123" t="n">
-        <v>0.282984</v>
+        <v>0.284697</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.369636</v>
+        <v>0.366565</v>
       </c>
       <c r="C124" t="n">
-        <v>0.313569</v>
+        <v>0.325562</v>
       </c>
       <c r="D124" t="n">
-        <v>0.281748</v>
+        <v>0.279782</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.374194</v>
+        <v>0.372131</v>
       </c>
       <c r="C125" t="n">
-        <v>0.324758</v>
+        <v>0.318141</v>
       </c>
       <c r="D125" t="n">
-        <v>0.281675</v>
+        <v>0.290667</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.382279</v>
+        <v>0.365044</v>
       </c>
       <c r="C126" t="n">
-        <v>0.31941</v>
+        <v>0.323938</v>
       </c>
       <c r="D126" t="n">
-        <v>0.2917</v>
+        <v>0.294704</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.385865</v>
+        <v>0.380279</v>
       </c>
       <c r="C127" t="n">
-        <v>0.33629</v>
+        <v>0.330775</v>
       </c>
       <c r="D127" t="n">
-        <v>0.291391</v>
+        <v>0.301705</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.378694</v>
+        <v>0.395118</v>
       </c>
       <c r="C128" t="n">
-        <v>0.338438</v>
+        <v>0.339369</v>
       </c>
       <c r="D128" t="n">
-        <v>0.304016</v>
+        <v>0.292252</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.395111</v>
+        <v>0.381966</v>
       </c>
       <c r="C129" t="n">
-        <v>0.352511</v>
+        <v>0.353068</v>
       </c>
       <c r="D129" t="n">
-        <v>0.298073</v>
+        <v>0.298253</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.408803</v>
+        <v>0.396478</v>
       </c>
       <c r="C130" t="n">
-        <v>0.341893</v>
+        <v>0.352738</v>
       </c>
       <c r="D130" t="n">
-        <v>0.304909</v>
+        <v>0.30796</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.41544</v>
+        <v>0.412846</v>
       </c>
       <c r="C131" t="n">
-        <v>0.356978</v>
+        <v>0.362233</v>
       </c>
       <c r="D131" t="n">
-        <v>0.307101</v>
+        <v>0.308793</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.425108</v>
+        <v>0.422636</v>
       </c>
       <c r="C132" t="n">
-        <v>0.369689</v>
+        <v>0.379776</v>
       </c>
       <c r="D132" t="n">
-        <v>0.32693</v>
+        <v>0.323029</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.435926</v>
+        <v>0.424059</v>
       </c>
       <c r="C133" t="n">
-        <v>0.394396</v>
+        <v>0.39167</v>
       </c>
       <c r="D133" t="n">
-        <v>0.335311</v>
+        <v>0.336949</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.458776</v>
+        <v>0.463779</v>
       </c>
       <c r="C134" t="n">
-        <v>0.406818</v>
+        <v>0.408712</v>
       </c>
       <c r="D134" t="n">
-        <v>0.346792</v>
+        <v>0.35399</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.49386</v>
+        <v>0.483873</v>
       </c>
       <c r="C135" t="n">
-        <v>0.450101</v>
+        <v>0.448624</v>
       </c>
       <c r="D135" t="n">
-        <v>0.382502</v>
+        <v>0.389371</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.531331</v>
+        <v>0.540928</v>
       </c>
       <c r="C136" t="n">
-        <v>0.493242</v>
+        <v>0.5026119999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>0.409271</v>
+        <v>0.415525</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.624924</v>
+        <v>0.615571</v>
       </c>
       <c r="C137" t="n">
-        <v>0.606409</v>
+        <v>0.594237</v>
       </c>
       <c r="D137" t="n">
-        <v>0.343221</v>
+        <v>0.343411</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.449038</v>
+        <v>0.458057</v>
       </c>
       <c r="C138" t="n">
-        <v>0.37621</v>
+        <v>0.384822</v>
       </c>
       <c r="D138" t="n">
-        <v>0.344628</v>
+        <v>0.343397</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.457916</v>
+        <v>0.451388</v>
       </c>
       <c r="C139" t="n">
-        <v>0.383198</v>
+        <v>0.388244</v>
       </c>
       <c r="D139" t="n">
-        <v>0.353916</v>
+        <v>0.351995</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.461806</v>
+        <v>0.459336</v>
       </c>
       <c r="C140" t="n">
-        <v>0.387569</v>
+        <v>0.388243</v>
       </c>
       <c r="D140" t="n">
-        <v>0.349504</v>
+        <v>0.350104</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.469356</v>
+        <v>0.461524</v>
       </c>
       <c r="C141" t="n">
-        <v>0.391308</v>
+        <v>0.398061</v>
       </c>
       <c r="D141" t="n">
-        <v>0.357442</v>
+        <v>0.354264</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.475188</v>
+        <v>0.469849</v>
       </c>
       <c r="C142" t="n">
-        <v>0.402507</v>
+        <v>0.404102</v>
       </c>
       <c r="D142" t="n">
-        <v>0.357472</v>
+        <v>0.361689</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.480757</v>
+        <v>0.475436</v>
       </c>
       <c r="C143" t="n">
-        <v>0.406281</v>
+        <v>0.403572</v>
       </c>
       <c r="D143" t="n">
-        <v>0.365739</v>
+        <v>0.366642</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.061052</v>
+        <v>0.0600415</v>
       </c>
       <c r="C2" t="n">
-        <v>0.061179</v>
+        <v>0.0611711</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0562439</v>
+        <v>0.0560853</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06445190000000001</v>
+        <v>0.0640474</v>
       </c>
       <c r="C3" t="n">
-        <v>0.065525</v>
+        <v>0.064002</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0622049</v>
+        <v>0.0603765</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0675249</v>
+        <v>0.06669750000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.070141</v>
+        <v>0.0699866</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0641969</v>
+        <v>0.0628846</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0717149</v>
+        <v>0.0734457</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0773403</v>
+        <v>0.0790496</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06829490000000001</v>
+        <v>0.06959220000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.08202280000000001</v>
+        <v>0.08113919999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0856645</v>
+        <v>0.0878736</v>
       </c>
       <c r="D6" t="n">
-        <v>0.074069</v>
+        <v>0.0746975</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.098456</v>
+        <v>0.09898129999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.102503</v>
+        <v>0.101249</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08799949999999999</v>
+        <v>0.09241489999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.120814</v>
+        <v>0.120153</v>
       </c>
       <c r="C8" t="n">
-        <v>0.133194</v>
+        <v>0.133485</v>
       </c>
       <c r="D8" t="n">
-        <v>0.109555</v>
+        <v>0.111866</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.157787</v>
+        <v>0.149299</v>
       </c>
       <c r="C9" t="n">
-        <v>0.174605</v>
+        <v>0.162797</v>
       </c>
       <c r="D9" t="n">
-        <v>0.054274</v>
+        <v>0.0552015</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0591706</v>
+        <v>0.0594073</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0546545</v>
+        <v>0.0553039</v>
       </c>
       <c r="D10" t="n">
-        <v>0.053723</v>
+        <v>0.0541753</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06290370000000001</v>
+        <v>0.0579965</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0576553</v>
+        <v>0.0568603</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0536736</v>
+        <v>0.0553848</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0584967</v>
+        <v>0.060748</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0575642</v>
+        <v>0.0570482</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0543846</v>
+        <v>0.0556691</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.06011</v>
+        <v>0.0612938</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0574326</v>
+        <v>0.0590715</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0547095</v>
+        <v>0.0558028</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0613927</v>
+        <v>0.0629329</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0610126</v>
+        <v>0.0587771</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0563482</v>
+        <v>0.055485</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0628499</v>
+        <v>0.0613929</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0617757</v>
+        <v>0.0600945</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0586912</v>
+        <v>0.058284</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0651706</v>
+        <v>0.0671447</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0653934</v>
+        <v>0.06786449999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0621674</v>
+        <v>0.0601258</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0667592</v>
+        <v>0.0668311</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0693151</v>
+        <v>0.0671279</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0645636</v>
+        <v>0.0632495</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.072326</v>
+        <v>0.07237200000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0739968</v>
+        <v>0.07469779999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.067955</v>
+        <v>0.067783</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07638349999999999</v>
+        <v>0.0755966</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0804344</v>
+        <v>0.0788917</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0743255</v>
+        <v>0.074466</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0852678</v>
+        <v>0.0895946</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0931452</v>
+        <v>0.09004189999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0839729</v>
+        <v>0.0878322</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.102377</v>
+        <v>0.101644</v>
       </c>
       <c r="C21" t="n">
-        <v>0.106818</v>
+        <v>0.103626</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09808799999999999</v>
+        <v>0.0939363</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.119322</v>
+        <v>0.130091</v>
       </c>
       <c r="C22" t="n">
-        <v>0.136972</v>
+        <v>0.142828</v>
       </c>
       <c r="D22" t="n">
-        <v>0.117767</v>
+        <v>0.116127</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.147097</v>
+        <v>0.153342</v>
       </c>
       <c r="C23" t="n">
-        <v>0.16911</v>
+        <v>0.16688</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0571335</v>
+        <v>0.0571602</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0626482</v>
+        <v>0.0628262</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0595599</v>
+        <v>0.0588724</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0565278</v>
+        <v>0.0577343</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.062875</v>
+        <v>0.063753</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0588564</v>
+        <v>0.0577799</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0572419</v>
+        <v>0.0596221</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.06488049999999999</v>
+        <v>0.06296300000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0588208</v>
+        <v>0.0592862</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0589622</v>
+        <v>0.0592255</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0642209</v>
+        <v>0.06540799999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0606023</v>
+        <v>0.0600981</v>
       </c>
       <c r="D27" t="n">
-        <v>0.058944</v>
+        <v>0.0609193</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0651677</v>
+        <v>0.0658286</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0611953</v>
+        <v>0.0614541</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0604505</v>
+        <v>0.0609476</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0678035</v>
+        <v>0.0669705</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0642678</v>
+        <v>0.0615593</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0602806</v>
+        <v>0.0624288</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0705442</v>
+        <v>0.06867040000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.06414590000000001</v>
+        <v>0.0642609</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0637071</v>
+        <v>0.06430429999999999</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0723747</v>
+        <v>0.0741459</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0694256</v>
+        <v>0.0681987</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0639549</v>
+        <v>0.0657348</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0758438</v>
+        <v>0.0756479</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0730426</v>
+        <v>0.0713877</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07119449999999999</v>
+        <v>0.07009460000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0782545</v>
+        <v>0.0804245</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0793933</v>
+        <v>0.08033849999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0761126</v>
+        <v>0.0758322</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0894561</v>
+        <v>0.08552990000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.09004479999999999</v>
+        <v>0.0911762</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0869809</v>
+        <v>0.0855556</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0969764</v>
+        <v>0.101546</v>
       </c>
       <c r="C35" t="n">
-        <v>0.106222</v>
+        <v>0.109822</v>
       </c>
       <c r="D35" t="n">
-        <v>0.09922839999999999</v>
+        <v>0.101226</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.117136</v>
+        <v>0.118822</v>
       </c>
       <c r="C36" t="n">
-        <v>0.129331</v>
+        <v>0.132091</v>
       </c>
       <c r="D36" t="n">
-        <v>0.122476</v>
+        <v>0.120132</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.148941</v>
+        <v>0.145212</v>
       </c>
       <c r="C37" t="n">
-        <v>0.166937</v>
+        <v>0.163529</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0602115</v>
+        <v>0.0606715</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0706696</v>
+        <v>0.0675973</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0612344</v>
+        <v>0.0606648</v>
       </c>
       <c r="D38" t="n">
-        <v>0.060136</v>
+        <v>0.0591307</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0698616</v>
+        <v>0.0675022</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0629304</v>
+        <v>0.06443749999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.059443</v>
+        <v>0.0619187</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0710041</v>
+        <v>0.0702203</v>
       </c>
       <c r="C40" t="n">
-        <v>0.06457259999999999</v>
+        <v>0.0653166</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0642688</v>
+        <v>0.0610884</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.07121669999999999</v>
+        <v>0.0705065</v>
       </c>
       <c r="C41" t="n">
-        <v>0.06584909999999999</v>
+        <v>0.0658678</v>
       </c>
       <c r="D41" t="n">
-        <v>0.06284099999999999</v>
+        <v>0.06395729999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0752674</v>
+        <v>0.0726415</v>
       </c>
       <c r="C42" t="n">
-        <v>0.066715</v>
+        <v>0.0659711</v>
       </c>
       <c r="D42" t="n">
-        <v>0.06443740000000001</v>
+        <v>0.0630814</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0709154</v>
+        <v>0.0724004</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0692898</v>
+        <v>0.0681069</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06400400000000001</v>
+        <v>0.0655664</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0739047</v>
+        <v>0.07507519999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0709867</v>
+        <v>0.0718356</v>
       </c>
       <c r="D44" t="n">
-        <v>0.066526</v>
+        <v>0.066339</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.07719280000000001</v>
+        <v>0.07456649999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0738222</v>
+        <v>0.0722228</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0680056</v>
+        <v>0.068468</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0795807</v>
+        <v>0.0793581</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0758335</v>
+        <v>0.077358</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0732872</v>
+        <v>0.0727281</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.08754140000000001</v>
+        <v>0.0849509</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0826474</v>
+        <v>0.0828964</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0766979</v>
+        <v>0.0801847</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0918167</v>
+        <v>0.0919701</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0938985</v>
+        <v>0.0900258</v>
       </c>
       <c r="D48" t="n">
-        <v>0.08757810000000001</v>
+        <v>0.0856469</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.102624</v>
+        <v>0.101355</v>
       </c>
       <c r="C49" t="n">
-        <v>0.105428</v>
+        <v>0.104102</v>
       </c>
       <c r="D49" t="n">
-        <v>0.09911010000000001</v>
+        <v>0.100863</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.123182</v>
+        <v>0.114374</v>
       </c>
       <c r="C50" t="n">
-        <v>0.128432</v>
+        <v>0.122365</v>
       </c>
       <c r="D50" t="n">
-        <v>0.118887</v>
+        <v>0.116347</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.147263</v>
+        <v>0.144218</v>
       </c>
       <c r="C51" t="n">
-        <v>0.15877</v>
+        <v>0.153293</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0643437</v>
+        <v>0.06687559999999999</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.19029</v>
+        <v>0.188944</v>
       </c>
       <c r="C52" t="n">
-        <v>0.212971</v>
+        <v>0.200468</v>
       </c>
       <c r="D52" t="n">
-        <v>0.068869</v>
+        <v>0.0645544</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.08202719999999999</v>
+        <v>0.08024199999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07272480000000001</v>
+        <v>0.07172820000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0675313</v>
+        <v>0.06884759999999999</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.08082159999999999</v>
+        <v>0.08110150000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.07453079999999999</v>
+        <v>0.0742454</v>
       </c>
       <c r="D54" t="n">
-        <v>0.06755650000000001</v>
+        <v>0.0675675</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0849094</v>
+        <v>0.08389539999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.07463359999999999</v>
+        <v>0.0742572</v>
       </c>
       <c r="D55" t="n">
-        <v>0.06712890000000001</v>
+        <v>0.07103669999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08607090000000001</v>
+        <v>0.08429300000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0756452</v>
+        <v>0.0765253</v>
       </c>
       <c r="D56" t="n">
-        <v>0.06990209999999999</v>
+        <v>0.0699255</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.08585189999999999</v>
+        <v>0.08782470000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0787394</v>
+        <v>0.0781433</v>
       </c>
       <c r="D57" t="n">
-        <v>0.07003379999999999</v>
+        <v>0.0701543</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0890755</v>
+        <v>0.08712350000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0800343</v>
+        <v>0.0784687</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0750449</v>
+        <v>0.0748031</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0888617</v>
+        <v>0.08888790000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.087251</v>
+        <v>0.0857236</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0773838</v>
+        <v>0.07742889999999999</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0938713</v>
+        <v>0.092478</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0880538</v>
+        <v>0.0917084</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0803905</v>
+        <v>0.07987379999999999</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0962102</v>
+        <v>0.09587229999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0944012</v>
+        <v>0.09177929999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0857291</v>
+        <v>0.08399330000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.103624</v>
+        <v>0.106061</v>
       </c>
       <c r="C62" t="n">
-        <v>0.102097</v>
+        <v>0.102773</v>
       </c>
       <c r="D62" t="n">
-        <v>0.09353880000000001</v>
+        <v>0.0927423</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.113744</v>
+        <v>0.117293</v>
       </c>
       <c r="C63" t="n">
-        <v>0.115268</v>
+        <v>0.114648</v>
       </c>
       <c r="D63" t="n">
-        <v>0.104985</v>
+        <v>0.105871</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.12795</v>
+        <v>0.13226</v>
       </c>
       <c r="C64" t="n">
-        <v>0.140803</v>
+        <v>0.133641</v>
       </c>
       <c r="D64" t="n">
-        <v>0.120982</v>
+        <v>0.125818</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.152393</v>
+        <v>0.156901</v>
       </c>
       <c r="C65" t="n">
-        <v>0.167744</v>
+        <v>0.166517</v>
       </c>
       <c r="D65" t="n">
-        <v>0.149553</v>
+        <v>0.148688</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.200725</v>
+        <v>0.198888</v>
       </c>
       <c r="C66" t="n">
-        <v>0.216077</v>
+        <v>0.212172</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0762713</v>
+        <v>0.0726564</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0930584</v>
+        <v>0.0896617</v>
       </c>
       <c r="C67" t="n">
-        <v>0.08036359999999999</v>
+        <v>0.081064</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0716552</v>
+        <v>0.07409200000000001</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0934487</v>
+        <v>0.09249590000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0820015</v>
+        <v>0.081051</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07362340000000001</v>
+        <v>0.0748238</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.09464599999999999</v>
+        <v>0.0949554</v>
       </c>
       <c r="C69" t="n">
-        <v>0.08446869999999999</v>
+        <v>0.0875117</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0744061</v>
+        <v>0.0738554</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.09632259999999999</v>
+        <v>0.0996025</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0854598</v>
+        <v>0.0905379</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0760512</v>
+        <v>0.0749201</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0981596</v>
+        <v>0.0980261</v>
       </c>
       <c r="C71" t="n">
-        <v>0.09206499999999999</v>
+        <v>0.093136</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0776633</v>
+        <v>0.0765372</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.101793</v>
+        <v>0.09911499999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0923532</v>
+        <v>0.0961214</v>
       </c>
       <c r="D72" t="n">
-        <v>0.08134130000000001</v>
+        <v>0.080377</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.103081</v>
+        <v>0.104557</v>
       </c>
       <c r="C73" t="n">
-        <v>0.094961</v>
+        <v>0.0975765</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0839886</v>
+        <v>0.0862967</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.110942</v>
+        <v>0.109602</v>
       </c>
       <c r="C74" t="n">
-        <v>0.10347</v>
+        <v>0.102015</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0889629</v>
+        <v>0.0895072</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.113582</v>
+        <v>0.117646</v>
       </c>
       <c r="C75" t="n">
-        <v>0.111549</v>
+        <v>0.109012</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0934247</v>
+        <v>0.0961384</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.125428</v>
+        <v>0.125313</v>
       </c>
       <c r="C76" t="n">
-        <v>0.120832</v>
+        <v>0.116298</v>
       </c>
       <c r="D76" t="n">
-        <v>0.10111</v>
+        <v>0.103667</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.135577</v>
+        <v>0.134161</v>
       </c>
       <c r="C77" t="n">
-        <v>0.131201</v>
+        <v>0.130329</v>
       </c>
       <c r="D77" t="n">
-        <v>0.115376</v>
+        <v>0.110638</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.151376</v>
+        <v>0.150329</v>
       </c>
       <c r="C78" t="n">
-        <v>0.156113</v>
+        <v>0.151976</v>
       </c>
       <c r="D78" t="n">
-        <v>0.129219</v>
+        <v>0.132482</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.175815</v>
+        <v>0.176247</v>
       </c>
       <c r="C79" t="n">
-        <v>0.185679</v>
+        <v>0.182799</v>
       </c>
       <c r="D79" t="n">
-        <v>0.157805</v>
+        <v>0.158362</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.225721</v>
+        <v>0.220905</v>
       </c>
       <c r="C80" t="n">
-        <v>0.230408</v>
+        <v>0.237753</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0796543</v>
+        <v>0.07847750000000001</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.112716</v>
+        <v>0.11029</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09556870000000001</v>
+        <v>0.0936309</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0788336</v>
+        <v>0.0803059</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.112267</v>
+        <v>0.108239</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0977172</v>
+        <v>0.0989271</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0827918</v>
+        <v>0.0833228</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.111418</v>
+        <v>0.112785</v>
       </c>
       <c r="C83" t="n">
-        <v>0.101424</v>
+        <v>0.101532</v>
       </c>
       <c r="D83" t="n">
-        <v>0.08551250000000001</v>
+        <v>0.0831766</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.119092</v>
+        <v>0.116812</v>
       </c>
       <c r="C84" t="n">
-        <v>0.103776</v>
+        <v>0.104815</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0850829</v>
+        <v>0.08491650000000001</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.115484</v>
+        <v>0.116145</v>
       </c>
       <c r="C85" t="n">
-        <v>0.10822</v>
+        <v>0.105364</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0877599</v>
+        <v>0.08727070000000001</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.120836</v>
+        <v>0.121427</v>
       </c>
       <c r="C86" t="n">
-        <v>0.11109</v>
+        <v>0.112229</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0929522</v>
+        <v>0.09229800000000001</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.12647</v>
+        <v>0.127662</v>
       </c>
       <c r="C87" t="n">
-        <v>0.117499</v>
+        <v>0.116968</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0966636</v>
+        <v>0.0937548</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129334</v>
+        <v>0.131529</v>
       </c>
       <c r="C88" t="n">
-        <v>0.122012</v>
+        <v>0.123665</v>
       </c>
       <c r="D88" t="n">
-        <v>0.101158</v>
+        <v>0.0996118</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.144256</v>
+        <v>0.140309</v>
       </c>
       <c r="C89" t="n">
-        <v>0.135612</v>
+        <v>0.131642</v>
       </c>
       <c r="D89" t="n">
-        <v>0.106145</v>
+        <v>0.105683</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.147667</v>
+        <v>0.14678</v>
       </c>
       <c r="C90" t="n">
-        <v>0.141271</v>
+        <v>0.142462</v>
       </c>
       <c r="D90" t="n">
-        <v>0.115652</v>
+        <v>0.115167</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.161284</v>
+        <v>0.159071</v>
       </c>
       <c r="C91" t="n">
-        <v>0.154343</v>
+        <v>0.159673</v>
       </c>
       <c r="D91" t="n">
-        <v>0.125171</v>
+        <v>0.127815</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.173807</v>
+        <v>0.176976</v>
       </c>
       <c r="C92" t="n">
-        <v>0.173626</v>
+        <v>0.174421</v>
       </c>
       <c r="D92" t="n">
-        <v>0.150127</v>
+        <v>0.146915</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.200312</v>
+        <v>0.202266</v>
       </c>
       <c r="C93" t="n">
-        <v>0.210268</v>
+        <v>0.204455</v>
       </c>
       <c r="D93" t="n">
-        <v>0.172224</v>
+        <v>0.16753</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.24339</v>
+        <v>0.239819</v>
       </c>
       <c r="C94" t="n">
-        <v>0.255612</v>
+        <v>0.252373</v>
       </c>
       <c r="D94" t="n">
-        <v>0.103831</v>
+        <v>0.0987306</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.135622</v>
+        <v>0.140002</v>
       </c>
       <c r="C95" t="n">
-        <v>0.124506</v>
+        <v>0.128657</v>
       </c>
       <c r="D95" t="n">
-        <v>0.102711</v>
+        <v>0.100921</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.141751</v>
+        <v>0.143848</v>
       </c>
       <c r="C96" t="n">
-        <v>0.128391</v>
+        <v>0.126652</v>
       </c>
       <c r="D96" t="n">
-        <v>0.104058</v>
+        <v>0.103227</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.145839</v>
+        <v>0.140967</v>
       </c>
       <c r="C97" t="n">
-        <v>0.131264</v>
+        <v>0.128393</v>
       </c>
       <c r="D97" t="n">
-        <v>0.106089</v>
+        <v>0.105068</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149022</v>
+        <v>0.143836</v>
       </c>
       <c r="C98" t="n">
-        <v>0.131091</v>
+        <v>0.132439</v>
       </c>
       <c r="D98" t="n">
-        <v>0.108916</v>
+        <v>0.105998</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.149665</v>
+        <v>0.148707</v>
       </c>
       <c r="C99" t="n">
-        <v>0.137841</v>
+        <v>0.136045</v>
       </c>
       <c r="D99" t="n">
-        <v>0.109221</v>
+        <v>0.110903</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.158213</v>
+        <v>0.152849</v>
       </c>
       <c r="C100" t="n">
-        <v>0.145878</v>
+        <v>0.141848</v>
       </c>
       <c r="D100" t="n">
-        <v>0.116322</v>
+        <v>0.11352</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.158123</v>
+        <v>0.164701</v>
       </c>
       <c r="C101" t="n">
-        <v>0.146196</v>
+        <v>0.148344</v>
       </c>
       <c r="D101" t="n">
-        <v>0.115492</v>
+        <v>0.115289</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.164647</v>
+        <v>0.16537</v>
       </c>
       <c r="C102" t="n">
-        <v>0.154061</v>
+        <v>0.154271</v>
       </c>
       <c r="D102" t="n">
-        <v>0.122809</v>
+        <v>0.121954</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.175373</v>
+        <v>0.168049</v>
       </c>
       <c r="C103" t="n">
-        <v>0.160229</v>
+        <v>0.164726</v>
       </c>
       <c r="D103" t="n">
-        <v>0.128622</v>
+        <v>0.126161</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.182384</v>
+        <v>0.177186</v>
       </c>
       <c r="C104" t="n">
-        <v>0.169297</v>
+        <v>0.17458</v>
       </c>
       <c r="D104" t="n">
-        <v>0.135116</v>
+        <v>0.136122</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.189517</v>
+        <v>0.188846</v>
       </c>
       <c r="C105" t="n">
-        <v>0.188428</v>
+        <v>0.186167</v>
       </c>
       <c r="D105" t="n">
-        <v>0.147968</v>
+        <v>0.148053</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.211399</v>
+        <v>0.201952</v>
       </c>
       <c r="C106" t="n">
-        <v>0.213885</v>
+        <v>0.208049</v>
       </c>
       <c r="D106" t="n">
-        <v>0.165444</v>
+        <v>0.167248</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.227375</v>
+        <v>0.227684</v>
       </c>
       <c r="C107" t="n">
-        <v>0.235513</v>
+        <v>0.246032</v>
       </c>
       <c r="D107" t="n">
-        <v>0.186722</v>
+        <v>0.188615</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.272329</v>
+        <v>0.281255</v>
       </c>
       <c r="C108" t="n">
-        <v>0.288401</v>
+        <v>0.297107</v>
       </c>
       <c r="D108" t="n">
-        <v>0.180381</v>
+        <v>0.183291</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.351414</v>
+        <v>0.347149</v>
       </c>
       <c r="C109" t="n">
-        <v>0.381543</v>
+        <v>0.370535</v>
       </c>
       <c r="D109" t="n">
-        <v>0.176778</v>
+        <v>0.182437</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.227587</v>
+        <v>0.239576</v>
       </c>
       <c r="C110" t="n">
-        <v>0.200151</v>
+        <v>0.221501</v>
       </c>
       <c r="D110" t="n">
-        <v>0.183405</v>
+        <v>0.183949</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.226623</v>
+        <v>0.235053</v>
       </c>
       <c r="C111" t="n">
-        <v>0.219828</v>
+        <v>0.225756</v>
       </c>
       <c r="D111" t="n">
-        <v>0.191634</v>
+        <v>0.182148</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.236013</v>
+        <v>0.237662</v>
       </c>
       <c r="C112" t="n">
-        <v>0.212441</v>
+        <v>0.215977</v>
       </c>
       <c r="D112" t="n">
-        <v>0.179372</v>
+        <v>0.179894</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.250365</v>
+        <v>0.232678</v>
       </c>
       <c r="C113" t="n">
-        <v>0.218033</v>
+        <v>0.22282</v>
       </c>
       <c r="D113" t="n">
-        <v>0.184142</v>
+        <v>0.196694</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.240221</v>
+        <v>0.257918</v>
       </c>
       <c r="C114" t="n">
-        <v>0.219723</v>
+        <v>0.224285</v>
       </c>
       <c r="D114" t="n">
-        <v>0.192319</v>
+        <v>0.1841</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.244373</v>
+        <v>0.268664</v>
       </c>
       <c r="C115" t="n">
-        <v>0.230984</v>
+        <v>0.227012</v>
       </c>
       <c r="D115" t="n">
-        <v>0.194796</v>
+        <v>0.192387</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.251593</v>
+        <v>0.267518</v>
       </c>
       <c r="C116" t="n">
-        <v>0.23004</v>
+        <v>0.230581</v>
       </c>
       <c r="D116" t="n">
-        <v>0.198784</v>
+        <v>0.201584</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.279741</v>
+        <v>0.268565</v>
       </c>
       <c r="C117" t="n">
-        <v>0.251769</v>
+        <v>0.246014</v>
       </c>
       <c r="D117" t="n">
-        <v>0.204177</v>
+        <v>0.199409</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.273884</v>
+        <v>0.271888</v>
       </c>
       <c r="C118" t="n">
-        <v>0.254001</v>
+        <v>0.260863</v>
       </c>
       <c r="D118" t="n">
-        <v>0.223109</v>
+        <v>0.212233</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.284856</v>
+        <v>0.28693</v>
       </c>
       <c r="C119" t="n">
-        <v>0.289185</v>
+        <v>0.263252</v>
       </c>
       <c r="D119" t="n">
-        <v>0.233756</v>
+        <v>0.230604</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.316387</v>
+        <v>0.301997</v>
       </c>
       <c r="C120" t="n">
-        <v>0.291982</v>
+        <v>0.28641</v>
       </c>
       <c r="D120" t="n">
-        <v>0.235217</v>
+        <v>0.237202</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.341312</v>
+        <v>0.342657</v>
       </c>
       <c r="C121" t="n">
-        <v>0.31552</v>
+        <v>0.318093</v>
       </c>
       <c r="D121" t="n">
-        <v>0.262754</v>
+        <v>0.260101</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.376395</v>
+        <v>0.375425</v>
       </c>
       <c r="C122" t="n">
-        <v>0.364603</v>
+        <v>0.3729</v>
       </c>
       <c r="D122" t="n">
-        <v>0.300577</v>
+        <v>0.319922</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.444275</v>
+        <v>0.439718</v>
       </c>
       <c r="C123" t="n">
-        <v>0.457364</v>
+        <v>0.457187</v>
       </c>
       <c r="D123" t="n">
-        <v>0.284697</v>
+        <v>0.283958</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.366565</v>
+        <v>0.360068</v>
       </c>
       <c r="C124" t="n">
-        <v>0.325562</v>
+        <v>0.313908</v>
       </c>
       <c r="D124" t="n">
-        <v>0.279782</v>
+        <v>0.282632</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.372131</v>
+        <v>0.378774</v>
       </c>
       <c r="C125" t="n">
-        <v>0.318141</v>
+        <v>0.316038</v>
       </c>
       <c r="D125" t="n">
-        <v>0.290667</v>
+        <v>0.288077</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.365044</v>
+        <v>0.379969</v>
       </c>
       <c r="C126" t="n">
-        <v>0.323938</v>
+        <v>0.325695</v>
       </c>
       <c r="D126" t="n">
-        <v>0.294704</v>
+        <v>0.288144</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.380279</v>
+        <v>0.385314</v>
       </c>
       <c r="C127" t="n">
-        <v>0.330775</v>
+        <v>0.3368</v>
       </c>
       <c r="D127" t="n">
-        <v>0.301705</v>
+        <v>0.305047</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.395118</v>
+        <v>0.395051</v>
       </c>
       <c r="C128" t="n">
-        <v>0.339369</v>
+        <v>0.341483</v>
       </c>
       <c r="D128" t="n">
-        <v>0.292252</v>
+        <v>0.293597</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.381966</v>
+        <v>0.388059</v>
       </c>
       <c r="C129" t="n">
-        <v>0.353068</v>
+        <v>0.344033</v>
       </c>
       <c r="D129" t="n">
-        <v>0.298253</v>
+        <v>0.307427</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.396478</v>
+        <v>0.40412</v>
       </c>
       <c r="C130" t="n">
-        <v>0.352738</v>
+        <v>0.356158</v>
       </c>
       <c r="D130" t="n">
-        <v>0.30796</v>
+        <v>0.31082</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.412846</v>
+        <v>0.40659</v>
       </c>
       <c r="C131" t="n">
-        <v>0.362233</v>
+        <v>0.365896</v>
       </c>
       <c r="D131" t="n">
-        <v>0.308793</v>
+        <v>0.311567</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.422636</v>
+        <v>0.416862</v>
       </c>
       <c r="C132" t="n">
-        <v>0.379776</v>
+        <v>0.36529</v>
       </c>
       <c r="D132" t="n">
-        <v>0.323029</v>
+        <v>0.319963</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.424059</v>
+        <v>0.440276</v>
       </c>
       <c r="C133" t="n">
-        <v>0.39167</v>
+        <v>0.397328</v>
       </c>
       <c r="D133" t="n">
-        <v>0.336949</v>
+        <v>0.338014</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.463779</v>
+        <v>0.452787</v>
       </c>
       <c r="C134" t="n">
-        <v>0.408712</v>
+        <v>0.416345</v>
       </c>
       <c r="D134" t="n">
-        <v>0.35399</v>
+        <v>0.340093</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.483873</v>
+        <v>0.486237</v>
       </c>
       <c r="C135" t="n">
-        <v>0.448624</v>
+        <v>0.453737</v>
       </c>
       <c r="D135" t="n">
-        <v>0.389371</v>
+        <v>0.374782</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.540928</v>
+        <v>0.533998</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5026119999999999</v>
+        <v>0.50917</v>
       </c>
       <c r="D136" t="n">
-        <v>0.415525</v>
+        <v>0.420008</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.615571</v>
+        <v>0.615687</v>
       </c>
       <c r="C137" t="n">
-        <v>0.594237</v>
+        <v>0.592614</v>
       </c>
       <c r="D137" t="n">
-        <v>0.343411</v>
+        <v>0.3472</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.458057</v>
+        <v>0.449162</v>
       </c>
       <c r="C138" t="n">
-        <v>0.384822</v>
+        <v>0.377809</v>
       </c>
       <c r="D138" t="n">
-        <v>0.343397</v>
+        <v>0.346569</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.451388</v>
+        <v>0.455279</v>
       </c>
       <c r="C139" t="n">
-        <v>0.388244</v>
+        <v>0.383731</v>
       </c>
       <c r="D139" t="n">
-        <v>0.351995</v>
+        <v>0.349038</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.459336</v>
+        <v>0.461799</v>
       </c>
       <c r="C140" t="n">
-        <v>0.388243</v>
+        <v>0.386158</v>
       </c>
       <c r="D140" t="n">
-        <v>0.350104</v>
+        <v>0.356163</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.461524</v>
+        <v>0.46327</v>
       </c>
       <c r="C141" t="n">
-        <v>0.398061</v>
+        <v>0.397541</v>
       </c>
       <c r="D141" t="n">
-        <v>0.354264</v>
+        <v>0.35479</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.469849</v>
+        <v>0.470215</v>
       </c>
       <c r="C142" t="n">
-        <v>0.404102</v>
+        <v>0.400605</v>
       </c>
       <c r="D142" t="n">
-        <v>0.361689</v>
+        <v>0.357459</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.475436</v>
+        <v>0.4853</v>
       </c>
       <c r="C143" t="n">
-        <v>0.403572</v>
+        <v>0.416716</v>
       </c>
       <c r="D143" t="n">
-        <v>0.366642</v>
+        <v>0.362274</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0600415</v>
+        <v>0.0608975</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0611711</v>
+        <v>0.0630208</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0560853</v>
+        <v>0.056741</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0640474</v>
+        <v>0.0614678</v>
       </c>
       <c r="C3" t="n">
-        <v>0.064002</v>
+        <v>0.0648907</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0603765</v>
+        <v>0.0596961</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06669750000000001</v>
+        <v>0.0647437</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0699866</v>
+        <v>0.0686037</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0628846</v>
+        <v>0.0615754</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0734457</v>
+        <v>0.0724646</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0790496</v>
+        <v>0.0774041</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06959220000000001</v>
+        <v>0.06896869999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.08113919999999999</v>
+        <v>0.0820603</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0878736</v>
+        <v>0.0867604</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0746975</v>
+        <v>0.07540819999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09898129999999999</v>
+        <v>0.0918532</v>
       </c>
       <c r="C7" t="n">
-        <v>0.101249</v>
+        <v>0.100677</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09241489999999999</v>
+        <v>0.0885517</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.120153</v>
+        <v>0.118742</v>
       </c>
       <c r="C8" t="n">
-        <v>0.133485</v>
+        <v>0.131399</v>
       </c>
       <c r="D8" t="n">
-        <v>0.111866</v>
+        <v>0.110078</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149299</v>
+        <v>0.154768</v>
       </c>
       <c r="C9" t="n">
-        <v>0.162797</v>
+        <v>0.170185</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0552015</v>
+        <v>0.054956</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0594073</v>
+        <v>0.0606483</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0553039</v>
+        <v>0.0568213</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0541753</v>
+        <v>0.0543201</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0579965</v>
+        <v>0.0598906</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0568603</v>
+        <v>0.0585099</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0553848</v>
+        <v>0.0555962</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.060748</v>
+        <v>0.0616641</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0570482</v>
+        <v>0.0565708</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0556691</v>
+        <v>0.0550049</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0612938</v>
+        <v>0.06286369999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0590715</v>
+        <v>0.0585716</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0558028</v>
+        <v>0.0553904</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0629329</v>
+        <v>0.0613617</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0587771</v>
+        <v>0.0609665</v>
       </c>
       <c r="D14" t="n">
-        <v>0.055485</v>
+        <v>0.0580939</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0613929</v>
+        <v>0.06362760000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0600945</v>
+        <v>0.06304510000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.058284</v>
+        <v>0.058911</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0671447</v>
+        <v>0.0679522</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06786449999999999</v>
+        <v>0.06266620000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0601258</v>
+        <v>0.0591896</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0668311</v>
+        <v>0.0666235</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0671279</v>
+        <v>0.065137</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0632495</v>
+        <v>0.0639395</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07237200000000001</v>
+        <v>0.0700105</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07469779999999999</v>
+        <v>0.0735315</v>
       </c>
       <c r="D18" t="n">
-        <v>0.067783</v>
+        <v>0.0677162</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0755966</v>
+        <v>0.0757249</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0788917</v>
+        <v>0.0806674</v>
       </c>
       <c r="D19" t="n">
-        <v>0.074466</v>
+        <v>0.07580919999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0895946</v>
+        <v>0.0824791</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09004189999999999</v>
+        <v>0.09105580000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0878322</v>
+        <v>0.08456760000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.101644</v>
+        <v>0.100639</v>
       </c>
       <c r="C21" t="n">
-        <v>0.103626</v>
+        <v>0.102679</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0939363</v>
+        <v>0.0967751</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.130091</v>
+        <v>0.120172</v>
       </c>
       <c r="C22" t="n">
-        <v>0.142828</v>
+        <v>0.137306</v>
       </c>
       <c r="D22" t="n">
-        <v>0.116127</v>
+        <v>0.118378</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.153342</v>
+        <v>0.151992</v>
       </c>
       <c r="C23" t="n">
-        <v>0.16688</v>
+        <v>0.174093</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0571602</v>
+        <v>0.0559848</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0628262</v>
+        <v>0.06274879999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0588724</v>
+        <v>0.0571487</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0577343</v>
+        <v>0.0564033</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.063753</v>
+        <v>0.0645676</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0577799</v>
+        <v>0.059717</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0596221</v>
+        <v>0.0593563</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.06296300000000001</v>
+        <v>0.0637567</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0592862</v>
+        <v>0.0588891</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0592255</v>
+        <v>0.0577636</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06540799999999999</v>
+        <v>0.06603290000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0600981</v>
+        <v>0.0598025</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0609193</v>
+        <v>0.0597753</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0658286</v>
+        <v>0.0682526</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0614541</v>
+        <v>0.0604416</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0609476</v>
+        <v>0.0587462</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0669705</v>
+        <v>0.0692888</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0615593</v>
+        <v>0.0642788</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0624288</v>
+        <v>0.06256150000000001</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.06867040000000001</v>
+        <v>0.0681244</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0642609</v>
+        <v>0.06512</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06430429999999999</v>
+        <v>0.0648639</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0741459</v>
+        <v>0.07230209999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0681987</v>
+        <v>0.06767189999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0657348</v>
+        <v>0.06776409999999999</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0756479</v>
+        <v>0.076276</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0713877</v>
+        <v>0.07325859999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07009460000000001</v>
+        <v>0.06867180000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0804245</v>
+        <v>0.08128870000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.08033849999999999</v>
+        <v>0.0796646</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0758322</v>
+        <v>0.0762959</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08552990000000001</v>
+        <v>0.0882382</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0911762</v>
+        <v>0.0879067</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0855556</v>
+        <v>0.0853071</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.101546</v>
+        <v>0.09791469999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.109822</v>
+        <v>0.107126</v>
       </c>
       <c r="D35" t="n">
-        <v>0.101226</v>
+        <v>0.0980314</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.118822</v>
+        <v>0.119827</v>
       </c>
       <c r="C36" t="n">
-        <v>0.132091</v>
+        <v>0.127451</v>
       </c>
       <c r="D36" t="n">
-        <v>0.120132</v>
+        <v>0.120364</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.145212</v>
+        <v>0.152742</v>
       </c>
       <c r="C37" t="n">
-        <v>0.163529</v>
+        <v>0.166829</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0606715</v>
+        <v>0.0603968</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0675973</v>
+        <v>0.06892860000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0606648</v>
+        <v>0.0619714</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0591307</v>
+        <v>0.0598391</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0675022</v>
+        <v>0.06908250000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.06443749999999999</v>
+        <v>0.064427</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0619187</v>
+        <v>0.0607662</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0702203</v>
+        <v>0.07214859999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0653166</v>
+        <v>0.0650027</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0610884</v>
+        <v>0.0621244</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0705065</v>
+        <v>0.07027269999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0658678</v>
+        <v>0.0672947</v>
       </c>
       <c r="D41" t="n">
-        <v>0.06395729999999999</v>
+        <v>0.0633457</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0726415</v>
+        <v>0.07235469999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0659711</v>
+        <v>0.0665365</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0630814</v>
+        <v>0.0654694</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0724004</v>
+        <v>0.0724225</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0681069</v>
+        <v>0.0686441</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0655664</v>
+        <v>0.066734</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.07507519999999999</v>
+        <v>0.0763455</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0718356</v>
+        <v>0.0696826</v>
       </c>
       <c r="D44" t="n">
-        <v>0.066339</v>
+        <v>0.0665772</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.07456649999999999</v>
+        <v>0.07728549999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0722228</v>
+        <v>0.07263</v>
       </c>
       <c r="D45" t="n">
-        <v>0.068468</v>
+        <v>0.0684239</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0793581</v>
+        <v>0.0830055</v>
       </c>
       <c r="C46" t="n">
-        <v>0.077358</v>
+        <v>0.07662389999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0727281</v>
+        <v>0.0747915</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0849509</v>
+        <v>0.0831711</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0828964</v>
+        <v>0.0822865</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0801847</v>
+        <v>0.07664600000000001</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0919701</v>
+        <v>0.0918665</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0900258</v>
+        <v>0.0906044</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0856469</v>
+        <v>0.0895002</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.101355</v>
+        <v>0.103068</v>
       </c>
       <c r="C49" t="n">
-        <v>0.104102</v>
+        <v>0.103394</v>
       </c>
       <c r="D49" t="n">
-        <v>0.100863</v>
+        <v>0.0996118</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.114374</v>
+        <v>0.120855</v>
       </c>
       <c r="C50" t="n">
-        <v>0.122365</v>
+        <v>0.122693</v>
       </c>
       <c r="D50" t="n">
-        <v>0.116347</v>
+        <v>0.120587</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.144218</v>
+        <v>0.15312</v>
       </c>
       <c r="C51" t="n">
-        <v>0.153293</v>
+        <v>0.164609</v>
       </c>
       <c r="D51" t="n">
-        <v>0.06687559999999999</v>
+        <v>0.0676665</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.188944</v>
+        <v>0.193146</v>
       </c>
       <c r="C52" t="n">
-        <v>0.200468</v>
+        <v>0.212617</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0645544</v>
+        <v>0.0659962</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.08024199999999999</v>
+        <v>0.0798387</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07172820000000001</v>
+        <v>0.07396220000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.06884759999999999</v>
+        <v>0.0700544</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.08110150000000001</v>
+        <v>0.0821248</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0742454</v>
+        <v>0.0742686</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0675675</v>
+        <v>0.0707927</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.08389539999999999</v>
+        <v>0.0815823</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0742572</v>
+        <v>0.0743014</v>
       </c>
       <c r="D55" t="n">
-        <v>0.07103669999999999</v>
+        <v>0.0697024</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08429300000000001</v>
+        <v>0.08345039999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0765253</v>
+        <v>0.0773013</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0699255</v>
+        <v>0.07060710000000001</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.08782470000000001</v>
+        <v>0.0861965</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0781433</v>
+        <v>0.07852099999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0701543</v>
+        <v>0.0728713</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.08712350000000001</v>
+        <v>0.0874188</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0784687</v>
+        <v>0.0791293</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0748031</v>
+        <v>0.071618</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.08888790000000001</v>
+        <v>0.0902766</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0857236</v>
+        <v>0.0825396</v>
       </c>
       <c r="D59" t="n">
-        <v>0.07742889999999999</v>
+        <v>0.0808995</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.092478</v>
+        <v>0.09308379999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0917084</v>
+        <v>0.0887496</v>
       </c>
       <c r="D60" t="n">
-        <v>0.07987379999999999</v>
+        <v>0.08079210000000001</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.09587229999999999</v>
+        <v>0.09730800000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.09177929999999999</v>
+        <v>0.0958749</v>
       </c>
       <c r="D61" t="n">
-        <v>0.08399330000000001</v>
+        <v>0.08826009999999999</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.106061</v>
+        <v>0.103287</v>
       </c>
       <c r="C62" t="n">
-        <v>0.102773</v>
+        <v>0.103792</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0927423</v>
+        <v>0.0953204</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.117293</v>
+        <v>0.111736</v>
       </c>
       <c r="C63" t="n">
-        <v>0.114648</v>
+        <v>0.114896</v>
       </c>
       <c r="D63" t="n">
-        <v>0.105871</v>
+        <v>0.104689</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.13226</v>
+        <v>0.134306</v>
       </c>
       <c r="C64" t="n">
-        <v>0.133641</v>
+        <v>0.135917</v>
       </c>
       <c r="D64" t="n">
-        <v>0.125818</v>
+        <v>0.121694</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.156901</v>
+        <v>0.153827</v>
       </c>
       <c r="C65" t="n">
-        <v>0.166517</v>
+        <v>0.16467</v>
       </c>
       <c r="D65" t="n">
-        <v>0.148688</v>
+        <v>0.14722</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.198888</v>
+        <v>0.203168</v>
       </c>
       <c r="C66" t="n">
-        <v>0.212172</v>
+        <v>0.219604</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0726564</v>
+        <v>0.0738621</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0896617</v>
+        <v>0.0896856</v>
       </c>
       <c r="C67" t="n">
-        <v>0.081064</v>
+        <v>0.0800462</v>
       </c>
       <c r="D67" t="n">
-        <v>0.07409200000000001</v>
+        <v>0.0724962</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.09249590000000001</v>
+        <v>0.0962297</v>
       </c>
       <c r="C68" t="n">
-        <v>0.081051</v>
+        <v>0.08442479999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0748238</v>
+        <v>0.0748986</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0949554</v>
+        <v>0.09468169999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0875117</v>
+        <v>0.08328679999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0738554</v>
+        <v>0.07607120000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0996025</v>
+        <v>0.0936729</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0905379</v>
+        <v>0.0842835</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0749201</v>
+        <v>0.07531019999999999</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0980261</v>
+        <v>0.101541</v>
       </c>
       <c r="C71" t="n">
-        <v>0.093136</v>
+        <v>0.0925381</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0765372</v>
+        <v>0.0788485</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.09911499999999999</v>
+        <v>0.101135</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0961214</v>
+        <v>0.0958049</v>
       </c>
       <c r="D72" t="n">
-        <v>0.080377</v>
+        <v>0.07966230000000001</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.104557</v>
+        <v>0.104174</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0975765</v>
+        <v>0.09664159999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0862967</v>
+        <v>0.082317</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.109602</v>
+        <v>0.105695</v>
       </c>
       <c r="C74" t="n">
-        <v>0.102015</v>
+        <v>0.106567</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0895072</v>
+        <v>0.0860966</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.117646</v>
+        <v>0.116131</v>
       </c>
       <c r="C75" t="n">
-        <v>0.109012</v>
+        <v>0.111677</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0961384</v>
+        <v>0.0937067</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.125313</v>
+        <v>0.122868</v>
       </c>
       <c r="C76" t="n">
-        <v>0.116298</v>
+        <v>0.127257</v>
       </c>
       <c r="D76" t="n">
-        <v>0.103667</v>
+        <v>0.104811</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.134161</v>
+        <v>0.133604</v>
       </c>
       <c r="C77" t="n">
-        <v>0.130329</v>
+        <v>0.139217</v>
       </c>
       <c r="D77" t="n">
-        <v>0.110638</v>
+        <v>0.113578</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.150329</v>
+        <v>0.157198</v>
       </c>
       <c r="C78" t="n">
-        <v>0.151976</v>
+        <v>0.154529</v>
       </c>
       <c r="D78" t="n">
-        <v>0.132482</v>
+        <v>0.131394</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.176247</v>
+        <v>0.185125</v>
       </c>
       <c r="C79" t="n">
-        <v>0.182799</v>
+        <v>0.194136</v>
       </c>
       <c r="D79" t="n">
-        <v>0.158362</v>
+        <v>0.161532</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.220905</v>
+        <v>0.228265</v>
       </c>
       <c r="C80" t="n">
-        <v>0.237753</v>
+        <v>0.237899</v>
       </c>
       <c r="D80" t="n">
-        <v>0.07847750000000001</v>
+        <v>0.0803154</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.11029</v>
+        <v>0.109032</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0936309</v>
+        <v>0.09974479999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0803059</v>
+        <v>0.0822724</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.108239</v>
+        <v>0.112844</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0989271</v>
+        <v>0.102707</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0833228</v>
+        <v>0.08367239999999999</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.112785</v>
+        <v>0.117072</v>
       </c>
       <c r="C83" t="n">
-        <v>0.101532</v>
+        <v>0.106537</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0831766</v>
+        <v>0.08696859999999999</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.116812</v>
+        <v>0.120774</v>
       </c>
       <c r="C84" t="n">
-        <v>0.104815</v>
+        <v>0.103037</v>
       </c>
       <c r="D84" t="n">
-        <v>0.08491650000000001</v>
+        <v>0.0865575</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.116145</v>
+        <v>0.129209</v>
       </c>
       <c r="C85" t="n">
-        <v>0.105364</v>
+        <v>0.113876</v>
       </c>
       <c r="D85" t="n">
-        <v>0.08727070000000001</v>
+        <v>0.09311899999999999</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.121427</v>
+        <v>0.128081</v>
       </c>
       <c r="C86" t="n">
-        <v>0.112229</v>
+        <v>0.121319</v>
       </c>
       <c r="D86" t="n">
-        <v>0.09229800000000001</v>
+        <v>0.0961873</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.127662</v>
+        <v>0.136349</v>
       </c>
       <c r="C87" t="n">
-        <v>0.116968</v>
+        <v>0.121121</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0937548</v>
+        <v>0.0987138</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.131529</v>
+        <v>0.13561</v>
       </c>
       <c r="C88" t="n">
-        <v>0.123665</v>
+        <v>0.120409</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0996118</v>
+        <v>0.10139</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.140309</v>
+        <v>0.138719</v>
       </c>
       <c r="C89" t="n">
-        <v>0.131642</v>
+        <v>0.1301</v>
       </c>
       <c r="D89" t="n">
-        <v>0.105683</v>
+        <v>0.104885</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.14678</v>
+        <v>0.146148</v>
       </c>
       <c r="C90" t="n">
-        <v>0.142462</v>
+        <v>0.151309</v>
       </c>
       <c r="D90" t="n">
-        <v>0.115167</v>
+        <v>0.112927</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.159071</v>
+        <v>0.162631</v>
       </c>
       <c r="C91" t="n">
-        <v>0.159673</v>
+        <v>0.15651</v>
       </c>
       <c r="D91" t="n">
-        <v>0.127815</v>
+        <v>0.131968</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.176976</v>
+        <v>0.177837</v>
       </c>
       <c r="C92" t="n">
-        <v>0.174421</v>
+        <v>0.176357</v>
       </c>
       <c r="D92" t="n">
-        <v>0.146915</v>
+        <v>0.146923</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.202266</v>
+        <v>0.210247</v>
       </c>
       <c r="C93" t="n">
-        <v>0.204455</v>
+        <v>0.214413</v>
       </c>
       <c r="D93" t="n">
-        <v>0.16753</v>
+        <v>0.174457</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.239819</v>
+        <v>0.247653</v>
       </c>
       <c r="C94" t="n">
-        <v>0.252373</v>
+        <v>0.261927</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0987306</v>
+        <v>0.101784</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.140002</v>
+        <v>0.136851</v>
       </c>
       <c r="C95" t="n">
-        <v>0.128657</v>
+        <v>0.124052</v>
       </c>
       <c r="D95" t="n">
-        <v>0.100921</v>
+        <v>0.101954</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.143848</v>
+        <v>0.144482</v>
       </c>
       <c r="C96" t="n">
-        <v>0.126652</v>
+        <v>0.13321</v>
       </c>
       <c r="D96" t="n">
-        <v>0.103227</v>
+        <v>0.104137</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.140967</v>
+        <v>0.144809</v>
       </c>
       <c r="C97" t="n">
-        <v>0.128393</v>
+        <v>0.130881</v>
       </c>
       <c r="D97" t="n">
-        <v>0.105068</v>
+        <v>0.106413</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.143836</v>
+        <v>0.148505</v>
       </c>
       <c r="C98" t="n">
-        <v>0.132439</v>
+        <v>0.132495</v>
       </c>
       <c r="D98" t="n">
-        <v>0.105998</v>
+        <v>0.109047</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.148707</v>
+        <v>0.155623</v>
       </c>
       <c r="C99" t="n">
-        <v>0.136045</v>
+        <v>0.137374</v>
       </c>
       <c r="D99" t="n">
-        <v>0.110903</v>
+        <v>0.110229</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.152849</v>
+        <v>0.156431</v>
       </c>
       <c r="C100" t="n">
-        <v>0.141848</v>
+        <v>0.149417</v>
       </c>
       <c r="D100" t="n">
-        <v>0.11352</v>
+        <v>0.115565</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.164701</v>
+        <v>0.165061</v>
       </c>
       <c r="C101" t="n">
-        <v>0.148344</v>
+        <v>0.151957</v>
       </c>
       <c r="D101" t="n">
-        <v>0.115289</v>
+        <v>0.121688</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.16537</v>
+        <v>0.168525</v>
       </c>
       <c r="C102" t="n">
-        <v>0.154271</v>
+        <v>0.16091</v>
       </c>
       <c r="D102" t="n">
-        <v>0.121954</v>
+        <v>0.125502</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.168049</v>
+        <v>0.170335</v>
       </c>
       <c r="C103" t="n">
-        <v>0.164726</v>
+        <v>0.167202</v>
       </c>
       <c r="D103" t="n">
-        <v>0.126161</v>
+        <v>0.12774</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.177186</v>
+        <v>0.179139</v>
       </c>
       <c r="C104" t="n">
-        <v>0.17458</v>
+        <v>0.179878</v>
       </c>
       <c r="D104" t="n">
-        <v>0.136122</v>
+        <v>0.139874</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.188846</v>
+        <v>0.19431</v>
       </c>
       <c r="C105" t="n">
-        <v>0.186167</v>
+        <v>0.191812</v>
       </c>
       <c r="D105" t="n">
-        <v>0.148053</v>
+        <v>0.154145</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.201952</v>
+        <v>0.214876</v>
       </c>
       <c r="C106" t="n">
-        <v>0.208049</v>
+        <v>0.210512</v>
       </c>
       <c r="D106" t="n">
-        <v>0.167248</v>
+        <v>0.16906</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.227684</v>
+        <v>0.24034</v>
       </c>
       <c r="C107" t="n">
-        <v>0.246032</v>
+        <v>0.246142</v>
       </c>
       <c r="D107" t="n">
-        <v>0.188615</v>
+        <v>0.189107</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.281255</v>
+        <v>0.284811</v>
       </c>
       <c r="C108" t="n">
-        <v>0.297107</v>
+        <v>0.296169</v>
       </c>
       <c r="D108" t="n">
-        <v>0.183291</v>
+        <v>0.179787</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.347149</v>
+        <v>0.338825</v>
       </c>
       <c r="C109" t="n">
-        <v>0.370535</v>
+        <v>0.37152</v>
       </c>
       <c r="D109" t="n">
-        <v>0.182437</v>
+        <v>0.189424</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.239576</v>
+        <v>0.236895</v>
       </c>
       <c r="C110" t="n">
-        <v>0.221501</v>
+        <v>0.21618</v>
       </c>
       <c r="D110" t="n">
-        <v>0.183949</v>
+        <v>0.176961</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.235053</v>
+        <v>0.228858</v>
       </c>
       <c r="C111" t="n">
-        <v>0.225756</v>
+        <v>0.206621</v>
       </c>
       <c r="D111" t="n">
-        <v>0.182148</v>
+        <v>0.199657</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.237662</v>
+        <v>0.229971</v>
       </c>
       <c r="C112" t="n">
-        <v>0.215977</v>
+        <v>0.2104</v>
       </c>
       <c r="D112" t="n">
-        <v>0.179894</v>
+        <v>0.192713</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.232678</v>
+        <v>0.238578</v>
       </c>
       <c r="C113" t="n">
-        <v>0.22282</v>
+        <v>0.215052</v>
       </c>
       <c r="D113" t="n">
-        <v>0.196694</v>
+        <v>0.183694</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.257918</v>
+        <v>0.242939</v>
       </c>
       <c r="C114" t="n">
-        <v>0.224285</v>
+        <v>0.218028</v>
       </c>
       <c r="D114" t="n">
-        <v>0.1841</v>
+        <v>0.188776</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.268664</v>
+        <v>0.261516</v>
       </c>
       <c r="C115" t="n">
-        <v>0.227012</v>
+        <v>0.22595</v>
       </c>
       <c r="D115" t="n">
-        <v>0.192387</v>
+        <v>0.194466</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.267518</v>
+        <v>0.264895</v>
       </c>
       <c r="C116" t="n">
-        <v>0.230581</v>
+        <v>0.229503</v>
       </c>
       <c r="D116" t="n">
-        <v>0.201584</v>
+        <v>0.198724</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.268565</v>
+        <v>0.287032</v>
       </c>
       <c r="C117" t="n">
-        <v>0.246014</v>
+        <v>0.265811</v>
       </c>
       <c r="D117" t="n">
-        <v>0.199409</v>
+        <v>0.213189</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.271888</v>
+        <v>0.268303</v>
       </c>
       <c r="C118" t="n">
-        <v>0.260863</v>
+        <v>0.268275</v>
       </c>
       <c r="D118" t="n">
-        <v>0.212233</v>
+        <v>0.218827</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.28693</v>
+        <v>0.281531</v>
       </c>
       <c r="C119" t="n">
-        <v>0.263252</v>
+        <v>0.264001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.230604</v>
+        <v>0.227831</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.301997</v>
+        <v>0.301839</v>
       </c>
       <c r="C120" t="n">
-        <v>0.28641</v>
+        <v>0.299332</v>
       </c>
       <c r="D120" t="n">
-        <v>0.237202</v>
+        <v>0.248824</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.342657</v>
+        <v>0.321159</v>
       </c>
       <c r="C121" t="n">
-        <v>0.318093</v>
+        <v>0.317445</v>
       </c>
       <c r="D121" t="n">
-        <v>0.260101</v>
+        <v>0.277548</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.375425</v>
+        <v>0.370735</v>
       </c>
       <c r="C122" t="n">
-        <v>0.3729</v>
+        <v>0.368147</v>
       </c>
       <c r="D122" t="n">
-        <v>0.319922</v>
+        <v>0.299278</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.439718</v>
+        <v>0.442286</v>
       </c>
       <c r="C123" t="n">
-        <v>0.457187</v>
+        <v>0.455849</v>
       </c>
       <c r="D123" t="n">
-        <v>0.283958</v>
+        <v>0.283891</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.360068</v>
+        <v>0.363776</v>
       </c>
       <c r="C124" t="n">
-        <v>0.313908</v>
+        <v>0.322241</v>
       </c>
       <c r="D124" t="n">
-        <v>0.282632</v>
+        <v>0.281953</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.378774</v>
+        <v>0.38247</v>
       </c>
       <c r="C125" t="n">
-        <v>0.316038</v>
+        <v>0.315896</v>
       </c>
       <c r="D125" t="n">
-        <v>0.288077</v>
+        <v>0.285755</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.379969</v>
+        <v>0.371553</v>
       </c>
       <c r="C126" t="n">
-        <v>0.325695</v>
+        <v>0.32432</v>
       </c>
       <c r="D126" t="n">
-        <v>0.288144</v>
+        <v>0.289228</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.385314</v>
+        <v>0.376289</v>
       </c>
       <c r="C127" t="n">
-        <v>0.3368</v>
+        <v>0.329486</v>
       </c>
       <c r="D127" t="n">
-        <v>0.305047</v>
+        <v>0.287864</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.395051</v>
+        <v>0.383095</v>
       </c>
       <c r="C128" t="n">
-        <v>0.341483</v>
+        <v>0.341538</v>
       </c>
       <c r="D128" t="n">
-        <v>0.293597</v>
+        <v>0.293936</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.388059</v>
+        <v>0.39285</v>
       </c>
       <c r="C129" t="n">
-        <v>0.344033</v>
+        <v>0.339249</v>
       </c>
       <c r="D129" t="n">
-        <v>0.307427</v>
+        <v>0.299378</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.40412</v>
+        <v>0.399165</v>
       </c>
       <c r="C130" t="n">
-        <v>0.356158</v>
+        <v>0.343739</v>
       </c>
       <c r="D130" t="n">
-        <v>0.31082</v>
+        <v>0.299543</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.40659</v>
+        <v>0.399519</v>
       </c>
       <c r="C131" t="n">
-        <v>0.365896</v>
+        <v>0.355868</v>
       </c>
       <c r="D131" t="n">
-        <v>0.311567</v>
+        <v>0.313225</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.416862</v>
+        <v>0.413767</v>
       </c>
       <c r="C132" t="n">
-        <v>0.36529</v>
+        <v>0.374598</v>
       </c>
       <c r="D132" t="n">
-        <v>0.319963</v>
+        <v>0.313568</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.440276</v>
+        <v>0.431083</v>
       </c>
       <c r="C133" t="n">
-        <v>0.397328</v>
+        <v>0.393216</v>
       </c>
       <c r="D133" t="n">
-        <v>0.338014</v>
+        <v>0.331846</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.452787</v>
+        <v>0.463286</v>
       </c>
       <c r="C134" t="n">
-        <v>0.416345</v>
+        <v>0.420117</v>
       </c>
       <c r="D134" t="n">
-        <v>0.340093</v>
+        <v>0.343281</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.486237</v>
+        <v>0.490375</v>
       </c>
       <c r="C135" t="n">
-        <v>0.453737</v>
+        <v>0.457596</v>
       </c>
       <c r="D135" t="n">
-        <v>0.374782</v>
+        <v>0.379699</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.533998</v>
+        <v>0.533423</v>
       </c>
       <c r="C136" t="n">
-        <v>0.50917</v>
+        <v>0.489743</v>
       </c>
       <c r="D136" t="n">
-        <v>0.420008</v>
+        <v>0.419659</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.615687</v>
+        <v>0.627765</v>
       </c>
       <c r="C137" t="n">
-        <v>0.592614</v>
+        <v>0.599077</v>
       </c>
       <c r="D137" t="n">
-        <v>0.3472</v>
+        <v>0.347846</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.449162</v>
+        <v>0.449127</v>
       </c>
       <c r="C138" t="n">
-        <v>0.377809</v>
+        <v>0.382521</v>
       </c>
       <c r="D138" t="n">
-        <v>0.346569</v>
+        <v>0.346329</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.455279</v>
+        <v>0.450098</v>
       </c>
       <c r="C139" t="n">
-        <v>0.383731</v>
+        <v>0.380524</v>
       </c>
       <c r="D139" t="n">
-        <v>0.349038</v>
+        <v>0.347432</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.461799</v>
+        <v>0.46548</v>
       </c>
       <c r="C140" t="n">
-        <v>0.386158</v>
+        <v>0.38775</v>
       </c>
       <c r="D140" t="n">
-        <v>0.356163</v>
+        <v>0.349958</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.46327</v>
+        <v>0.475473</v>
       </c>
       <c r="C141" t="n">
-        <v>0.397541</v>
+        <v>0.38882</v>
       </c>
       <c r="D141" t="n">
-        <v>0.35479</v>
+        <v>0.351061</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.470215</v>
+        <v>0.463852</v>
       </c>
       <c r="C142" t="n">
-        <v>0.400605</v>
+        <v>0.404665</v>
       </c>
       <c r="D142" t="n">
-        <v>0.357459</v>
+        <v>0.35568</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.4853</v>
+        <v>0.474403</v>
       </c>
       <c r="C143" t="n">
-        <v>0.416716</v>
+        <v>0.403763</v>
       </c>
       <c r="D143" t="n">
-        <v>0.362274</v>
+        <v>0.369253</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0608975</v>
+        <v>0.0603389</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0630208</v>
+        <v>0.0622726</v>
       </c>
       <c r="D2" t="n">
-        <v>0.056741</v>
+        <v>0.0577708</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0614678</v>
+        <v>0.062038</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0648907</v>
+        <v>0.0634238</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0596961</v>
+        <v>0.0593117</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0647437</v>
+        <v>0.0676607</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0686037</v>
+        <v>0.0711078</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0615754</v>
+        <v>0.0637991</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0724646</v>
+        <v>0.0737105</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0774041</v>
+        <v>0.07772759999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06896869999999999</v>
+        <v>0.0702681</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0820603</v>
+        <v>0.0841513</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0867604</v>
+        <v>0.08514099999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07540819999999999</v>
+        <v>0.0759239</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0918532</v>
+        <v>0.0959458</v>
       </c>
       <c r="C7" t="n">
-        <v>0.100677</v>
+        <v>0.102088</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0885517</v>
+        <v>0.08933290000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.118742</v>
+        <v>0.120722</v>
       </c>
       <c r="C8" t="n">
-        <v>0.131399</v>
+        <v>0.131434</v>
       </c>
       <c r="D8" t="n">
-        <v>0.110078</v>
+        <v>0.110586</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.154768</v>
+        <v>0.151284</v>
       </c>
       <c r="C9" t="n">
-        <v>0.170185</v>
+        <v>0.160935</v>
       </c>
       <c r="D9" t="n">
-        <v>0.054956</v>
+        <v>0.0539145</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0606483</v>
+        <v>0.0597723</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0568213</v>
+        <v>0.0551852</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0543201</v>
+        <v>0.0561803</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0598906</v>
+        <v>0.0596558</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0585099</v>
+        <v>0.0558247</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0555962</v>
+        <v>0.0553969</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0616641</v>
+        <v>0.0609012</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0565708</v>
+        <v>0.0570132</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0550049</v>
+        <v>0.0558634</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.06286369999999999</v>
+        <v>0.0613877</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0585716</v>
+        <v>0.05652</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0553904</v>
+        <v>0.0555963</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0613617</v>
+        <v>0.0635498</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0609665</v>
+        <v>0.0597032</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0580939</v>
+        <v>0.0563964</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.06362760000000001</v>
+        <v>0.06334869999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06304510000000001</v>
+        <v>0.0618748</v>
       </c>
       <c r="D15" t="n">
-        <v>0.058911</v>
+        <v>0.0571382</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0679522</v>
+        <v>0.0640136</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06266620000000001</v>
+        <v>0.06306440000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0591896</v>
+        <v>0.060675</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0666235</v>
+        <v>0.0683991</v>
       </c>
       <c r="C17" t="n">
-        <v>0.065137</v>
+        <v>0.0666537</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0639395</v>
+        <v>0.0618394</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0700105</v>
+        <v>0.0718713</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0735315</v>
+        <v>0.0716832</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0677162</v>
+        <v>0.0678922</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0757249</v>
+        <v>0.07759439999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0806674</v>
+        <v>0.0802129</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07580919999999999</v>
+        <v>0.0746153</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0824791</v>
+        <v>0.0866691</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09105580000000001</v>
+        <v>0.0923152</v>
       </c>
       <c r="D20" t="n">
-        <v>0.08456760000000001</v>
+        <v>0.0830137</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.100639</v>
+        <v>0.09896480000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.102679</v>
+        <v>0.103204</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0967751</v>
+        <v>0.0954779</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.120172</v>
+        <v>0.127478</v>
       </c>
       <c r="C22" t="n">
-        <v>0.137306</v>
+        <v>0.133216</v>
       </c>
       <c r="D22" t="n">
-        <v>0.118378</v>
+        <v>0.118527</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.151992</v>
+        <v>0.163647</v>
       </c>
       <c r="C23" t="n">
-        <v>0.174093</v>
+        <v>0.171932</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0559848</v>
+        <v>0.05649</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06274879999999999</v>
+        <v>0.0636308</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0571487</v>
+        <v>0.0571109</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0564033</v>
+        <v>0.0583621</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0645676</v>
+        <v>0.06335590000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.059717</v>
+        <v>0.0578998</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0593563</v>
+        <v>0.0572876</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0637567</v>
+        <v>0.0654785</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0588891</v>
+        <v>0.0603257</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0577636</v>
+        <v>0.0581163</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06603290000000001</v>
+        <v>0.065834</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0598025</v>
+        <v>0.0610939</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0597753</v>
+        <v>0.0579035</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0682526</v>
+        <v>0.0667194</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0604416</v>
+        <v>0.0606388</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0587462</v>
+        <v>0.0581381</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0692888</v>
+        <v>0.0659671</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0642788</v>
+        <v>0.0631313</v>
       </c>
       <c r="D29" t="n">
-        <v>0.06256150000000001</v>
+        <v>0.0607501</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0681244</v>
+        <v>0.0688732</v>
       </c>
       <c r="C30" t="n">
-        <v>0.06512</v>
+        <v>0.0641864</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0648639</v>
+        <v>0.0616063</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.07230209999999999</v>
+        <v>0.07171569999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06767189999999999</v>
+        <v>0.0672297</v>
       </c>
       <c r="D31" t="n">
-        <v>0.06776409999999999</v>
+        <v>0.0659874</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.076276</v>
+        <v>0.07424939999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07325859999999999</v>
+        <v>0.0758423</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06867180000000001</v>
+        <v>0.0692323</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08128870000000001</v>
+        <v>0.0805336</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0796646</v>
+        <v>0.0795989</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0762959</v>
+        <v>0.0789165</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0882382</v>
+        <v>0.08797480000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0879067</v>
+        <v>0.08952110000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0853071</v>
+        <v>0.0870808</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.09791469999999999</v>
+        <v>0.102433</v>
       </c>
       <c r="C35" t="n">
-        <v>0.107126</v>
+        <v>0.10709</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0980314</v>
+        <v>0.098938</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.119827</v>
+        <v>0.117084</v>
       </c>
       <c r="C36" t="n">
-        <v>0.127451</v>
+        <v>0.131221</v>
       </c>
       <c r="D36" t="n">
-        <v>0.120364</v>
+        <v>0.125343</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.152742</v>
+        <v>0.148298</v>
       </c>
       <c r="C37" t="n">
-        <v>0.166829</v>
+        <v>0.166797</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0603968</v>
+        <v>0.0598214</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06892860000000001</v>
+        <v>0.0668233</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0619714</v>
+        <v>0.0603372</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0598391</v>
+        <v>0.0592675</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.06908250000000001</v>
+        <v>0.0706485</v>
       </c>
       <c r="C39" t="n">
-        <v>0.064427</v>
+        <v>0.06276039999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0607662</v>
+        <v>0.0604167</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.07214859999999999</v>
+        <v>0.06943630000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0650027</v>
+        <v>0.0654593</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0621244</v>
+        <v>0.06300210000000001</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.07027269999999999</v>
+        <v>0.0712637</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0672947</v>
+        <v>0.0659974</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0633457</v>
+        <v>0.0633375</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.07235469999999999</v>
+        <v>0.06966029999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0665365</v>
+        <v>0.06599919999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0654694</v>
+        <v>0.063647</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0724225</v>
+        <v>0.0722599</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0686441</v>
+        <v>0.0667413</v>
       </c>
       <c r="D43" t="n">
-        <v>0.066734</v>
+        <v>0.0645178</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0763455</v>
+        <v>0.07563839999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0696826</v>
+        <v>0.069601</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0665772</v>
+        <v>0.06480950000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.07728549999999999</v>
+        <v>0.0799941</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07263</v>
+        <v>0.07149850000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0684239</v>
+        <v>0.0705794</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0830055</v>
+        <v>0.07848090000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.07662389999999999</v>
+        <v>0.0752432</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0747915</v>
+        <v>0.0713931</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0831711</v>
+        <v>0.0870008</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0822865</v>
+        <v>0.0816342</v>
       </c>
       <c r="D47" t="n">
-        <v>0.07664600000000001</v>
+        <v>0.0783895</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0918665</v>
+        <v>0.0915903</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0906044</v>
+        <v>0.0946427</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0895002</v>
+        <v>0.0859338</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.103068</v>
+        <v>0.102514</v>
       </c>
       <c r="C49" t="n">
-        <v>0.103394</v>
+        <v>0.105063</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0996118</v>
+        <v>0.098084</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.120855</v>
+        <v>0.116515</v>
       </c>
       <c r="C50" t="n">
-        <v>0.122693</v>
+        <v>0.122226</v>
       </c>
       <c r="D50" t="n">
-        <v>0.120587</v>
+        <v>0.118637</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.15312</v>
+        <v>0.146393</v>
       </c>
       <c r="C51" t="n">
-        <v>0.164609</v>
+        <v>0.152834</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0676665</v>
+        <v>0.06524870000000001</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.193146</v>
+        <v>0.191381</v>
       </c>
       <c r="C52" t="n">
-        <v>0.212617</v>
+        <v>0.205133</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0659962</v>
+        <v>0.06721580000000001</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0798387</v>
+        <v>0.0798864</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07396220000000001</v>
+        <v>0.0721372</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0700544</v>
+        <v>0.0660707</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0821248</v>
+        <v>0.08429399999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0742686</v>
+        <v>0.075208</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0707927</v>
+        <v>0.0677118</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0815823</v>
+        <v>0.0844369</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0743014</v>
+        <v>0.0745647</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0697024</v>
+        <v>0.0684094</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08345039999999999</v>
+        <v>0.0832234</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0773013</v>
+        <v>0.0769875</v>
       </c>
       <c r="D56" t="n">
-        <v>0.07060710000000001</v>
+        <v>0.0704496</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0861965</v>
+        <v>0.08487980000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.07852099999999999</v>
+        <v>0.0776384</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0728713</v>
+        <v>0.0708433</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0874188</v>
+        <v>0.08677360000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0791293</v>
+        <v>0.08041810000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.071618</v>
+        <v>0.07498440000000001</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0902766</v>
+        <v>0.09178119999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0825396</v>
+        <v>0.08881940000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0808995</v>
+        <v>0.0767219</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.09308379999999999</v>
+        <v>0.0937571</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0887496</v>
+        <v>0.08916200000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08079210000000001</v>
+        <v>0.081264</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.09730800000000001</v>
+        <v>0.0979592</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0958749</v>
+        <v>0.09546209999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.08826009999999999</v>
+        <v>0.0854409</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.103287</v>
+        <v>0.107312</v>
       </c>
       <c r="C62" t="n">
-        <v>0.103792</v>
+        <v>0.102154</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0953204</v>
+        <v>0.0919172</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.111736</v>
+        <v>0.113102</v>
       </c>
       <c r="C63" t="n">
-        <v>0.114896</v>
+        <v>0.121594</v>
       </c>
       <c r="D63" t="n">
-        <v>0.104689</v>
+        <v>0.110257</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.134306</v>
+        <v>0.132106</v>
       </c>
       <c r="C64" t="n">
-        <v>0.135917</v>
+        <v>0.134754</v>
       </c>
       <c r="D64" t="n">
-        <v>0.121694</v>
+        <v>0.121785</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.153827</v>
+        <v>0.160213</v>
       </c>
       <c r="C65" t="n">
-        <v>0.16467</v>
+        <v>0.16302</v>
       </c>
       <c r="D65" t="n">
-        <v>0.14722</v>
+        <v>0.150556</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.203168</v>
+        <v>0.20293</v>
       </c>
       <c r="C66" t="n">
-        <v>0.219604</v>
+        <v>0.213053</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0738621</v>
+        <v>0.07186439999999999</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0896856</v>
+        <v>0.0915127</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0800462</v>
+        <v>0.0788464</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0724962</v>
+        <v>0.0729422</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0962297</v>
+        <v>0.0946403</v>
       </c>
       <c r="C68" t="n">
-        <v>0.08442479999999999</v>
+        <v>0.0831023</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0748986</v>
+        <v>0.0737532</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.09468169999999999</v>
+        <v>0.0960178</v>
       </c>
       <c r="C69" t="n">
-        <v>0.08328679999999999</v>
+        <v>0.0865498</v>
       </c>
       <c r="D69" t="n">
-        <v>0.07607120000000001</v>
+        <v>0.07604229999999999</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0936729</v>
+        <v>0.0990205</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0842835</v>
+        <v>0.0873313</v>
       </c>
       <c r="D70" t="n">
-        <v>0.07531019999999999</v>
+        <v>0.0757939</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.101541</v>
+        <v>0.0993648</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0925381</v>
+        <v>0.0888523</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0788485</v>
+        <v>0.078498</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.101135</v>
+        <v>0.09934999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0958049</v>
+        <v>0.08927309999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.07966230000000001</v>
+        <v>0.0804933</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.104174</v>
+        <v>0.106595</v>
       </c>
       <c r="C73" t="n">
-        <v>0.09664159999999999</v>
+        <v>0.09866949999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.082317</v>
+        <v>0.0914219</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.105695</v>
+        <v>0.10842</v>
       </c>
       <c r="C74" t="n">
-        <v>0.106567</v>
+        <v>0.10375</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0860966</v>
+        <v>0.0868231</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.116131</v>
+        <v>0.114915</v>
       </c>
       <c r="C75" t="n">
-        <v>0.111677</v>
+        <v>0.10998</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0937067</v>
+        <v>0.0942221</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.122868</v>
+        <v>0.124501</v>
       </c>
       <c r="C76" t="n">
-        <v>0.127257</v>
+        <v>0.11853</v>
       </c>
       <c r="D76" t="n">
-        <v>0.104811</v>
+        <v>0.0995576</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.133604</v>
+        <v>0.136131</v>
       </c>
       <c r="C77" t="n">
-        <v>0.139217</v>
+        <v>0.133082</v>
       </c>
       <c r="D77" t="n">
-        <v>0.113578</v>
+        <v>0.116472</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.157198</v>
+        <v>0.149555</v>
       </c>
       <c r="C78" t="n">
-        <v>0.154529</v>
+        <v>0.153146</v>
       </c>
       <c r="D78" t="n">
-        <v>0.131394</v>
+        <v>0.130746</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.185125</v>
+        <v>0.175053</v>
       </c>
       <c r="C79" t="n">
-        <v>0.194136</v>
+        <v>0.185453</v>
       </c>
       <c r="D79" t="n">
-        <v>0.161532</v>
+        <v>0.158451</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.228265</v>
+        <v>0.21966</v>
       </c>
       <c r="C80" t="n">
-        <v>0.237899</v>
+        <v>0.227363</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0803154</v>
+        <v>0.08011740000000001</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.109032</v>
+        <v>0.10585</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09974479999999999</v>
+        <v>0.097668</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0822724</v>
+        <v>0.07960059999999999</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.112844</v>
+        <v>0.108666</v>
       </c>
       <c r="C82" t="n">
-        <v>0.102707</v>
+        <v>0.0990115</v>
       </c>
       <c r="D82" t="n">
-        <v>0.08367239999999999</v>
+        <v>0.0823637</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.117072</v>
+        <v>0.108345</v>
       </c>
       <c r="C83" t="n">
-        <v>0.106537</v>
+        <v>0.09952370000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.08696859999999999</v>
+        <v>0.0825588</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.120774</v>
+        <v>0.113697</v>
       </c>
       <c r="C84" t="n">
-        <v>0.103037</v>
+        <v>0.103136</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0865575</v>
+        <v>0.0862431</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.129209</v>
+        <v>0.119401</v>
       </c>
       <c r="C85" t="n">
-        <v>0.113876</v>
+        <v>0.107966</v>
       </c>
       <c r="D85" t="n">
-        <v>0.09311899999999999</v>
+        <v>0.08980680000000001</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.128081</v>
+        <v>0.127159</v>
       </c>
       <c r="C86" t="n">
-        <v>0.121319</v>
+        <v>0.111423</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0961873</v>
+        <v>0.0932877</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.136349</v>
+        <v>0.132824</v>
       </c>
       <c r="C87" t="n">
-        <v>0.121121</v>
+        <v>0.121782</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0987138</v>
+        <v>0.0950196</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.13561</v>
+        <v>0.135389</v>
       </c>
       <c r="C88" t="n">
-        <v>0.120409</v>
+        <v>0.120638</v>
       </c>
       <c r="D88" t="n">
-        <v>0.10139</v>
+        <v>0.09942670000000001</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.138719</v>
+        <v>0.138346</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1301</v>
+        <v>0.130616</v>
       </c>
       <c r="D89" t="n">
-        <v>0.104885</v>
+        <v>0.105464</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.146148</v>
+        <v>0.148339</v>
       </c>
       <c r="C90" t="n">
-        <v>0.151309</v>
+        <v>0.139438</v>
       </c>
       <c r="D90" t="n">
-        <v>0.112927</v>
+        <v>0.113296</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.162631</v>
+        <v>0.160026</v>
       </c>
       <c r="C91" t="n">
-        <v>0.15651</v>
+        <v>0.158337</v>
       </c>
       <c r="D91" t="n">
-        <v>0.131968</v>
+        <v>0.123835</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.177837</v>
+        <v>0.176154</v>
       </c>
       <c r="C92" t="n">
-        <v>0.176357</v>
+        <v>0.177281</v>
       </c>
       <c r="D92" t="n">
-        <v>0.146923</v>
+        <v>0.146126</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.210247</v>
+        <v>0.203569</v>
       </c>
       <c r="C93" t="n">
-        <v>0.214413</v>
+        <v>0.204528</v>
       </c>
       <c r="D93" t="n">
-        <v>0.174457</v>
+        <v>0.172246</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.247653</v>
+        <v>0.245399</v>
       </c>
       <c r="C94" t="n">
-        <v>0.261927</v>
+        <v>0.256148</v>
       </c>
       <c r="D94" t="n">
-        <v>0.101784</v>
+        <v>0.100734</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.136851</v>
+        <v>0.136764</v>
       </c>
       <c r="C95" t="n">
-        <v>0.124052</v>
+        <v>0.12682</v>
       </c>
       <c r="D95" t="n">
-        <v>0.101954</v>
+        <v>0.0998358</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.144482</v>
+        <v>0.143522</v>
       </c>
       <c r="C96" t="n">
-        <v>0.13321</v>
+        <v>0.125949</v>
       </c>
       <c r="D96" t="n">
-        <v>0.104137</v>
+        <v>0.10133</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.144809</v>
+        <v>0.142966</v>
       </c>
       <c r="C97" t="n">
-        <v>0.130881</v>
+        <v>0.128963</v>
       </c>
       <c r="D97" t="n">
-        <v>0.106413</v>
+        <v>0.104051</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.148505</v>
+        <v>0.146882</v>
       </c>
       <c r="C98" t="n">
-        <v>0.132495</v>
+        <v>0.133245</v>
       </c>
       <c r="D98" t="n">
-        <v>0.109047</v>
+        <v>0.108349</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.155623</v>
+        <v>0.152196</v>
       </c>
       <c r="C99" t="n">
-        <v>0.137374</v>
+        <v>0.137433</v>
       </c>
       <c r="D99" t="n">
-        <v>0.110229</v>
+        <v>0.109407</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.156431</v>
+        <v>0.157385</v>
       </c>
       <c r="C100" t="n">
-        <v>0.149417</v>
+        <v>0.140403</v>
       </c>
       <c r="D100" t="n">
-        <v>0.115565</v>
+        <v>0.112936</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.165061</v>
+        <v>0.160132</v>
       </c>
       <c r="C101" t="n">
-        <v>0.151957</v>
+        <v>0.144451</v>
       </c>
       <c r="D101" t="n">
-        <v>0.121688</v>
+        <v>0.117122</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.168525</v>
+        <v>0.168826</v>
       </c>
       <c r="C102" t="n">
-        <v>0.16091</v>
+        <v>0.156196</v>
       </c>
       <c r="D102" t="n">
-        <v>0.125502</v>
+        <v>0.123813</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.170335</v>
+        <v>0.171619</v>
       </c>
       <c r="C103" t="n">
-        <v>0.167202</v>
+        <v>0.160708</v>
       </c>
       <c r="D103" t="n">
-        <v>0.12774</v>
+        <v>0.127603</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.179139</v>
+        <v>0.179806</v>
       </c>
       <c r="C104" t="n">
-        <v>0.179878</v>
+        <v>0.172864</v>
       </c>
       <c r="D104" t="n">
-        <v>0.139874</v>
+        <v>0.135971</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.19431</v>
+        <v>0.189298</v>
       </c>
       <c r="C105" t="n">
-        <v>0.191812</v>
+        <v>0.189626</v>
       </c>
       <c r="D105" t="n">
-        <v>0.154145</v>
+        <v>0.144467</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.214876</v>
+        <v>0.210295</v>
       </c>
       <c r="C106" t="n">
-        <v>0.210512</v>
+        <v>0.207353</v>
       </c>
       <c r="D106" t="n">
-        <v>0.16906</v>
+        <v>0.167528</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.24034</v>
+        <v>0.237105</v>
       </c>
       <c r="C107" t="n">
-        <v>0.246142</v>
+        <v>0.237975</v>
       </c>
       <c r="D107" t="n">
-        <v>0.189107</v>
+        <v>0.186664</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.284811</v>
+        <v>0.270705</v>
       </c>
       <c r="C108" t="n">
-        <v>0.296169</v>
+        <v>0.291981</v>
       </c>
       <c r="D108" t="n">
-        <v>0.179787</v>
+        <v>0.173688</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.338825</v>
+        <v>0.343664</v>
       </c>
       <c r="C109" t="n">
-        <v>0.37152</v>
+        <v>0.374979</v>
       </c>
       <c r="D109" t="n">
-        <v>0.189424</v>
+        <v>0.182973</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.236895</v>
+        <v>0.240628</v>
       </c>
       <c r="C110" t="n">
-        <v>0.21618</v>
+        <v>0.205115</v>
       </c>
       <c r="D110" t="n">
-        <v>0.176961</v>
+        <v>0.184968</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.228858</v>
+        <v>0.22765</v>
       </c>
       <c r="C111" t="n">
-        <v>0.206621</v>
+        <v>0.210195</v>
       </c>
       <c r="D111" t="n">
-        <v>0.199657</v>
+        <v>0.180226</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.229971</v>
+        <v>0.231274</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2104</v>
+        <v>0.214889</v>
       </c>
       <c r="D112" t="n">
-        <v>0.192713</v>
+        <v>0.185519</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.238578</v>
+        <v>0.242057</v>
       </c>
       <c r="C113" t="n">
-        <v>0.215052</v>
+        <v>0.216717</v>
       </c>
       <c r="D113" t="n">
-        <v>0.183694</v>
+        <v>0.195242</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.242939</v>
+        <v>0.247064</v>
       </c>
       <c r="C114" t="n">
-        <v>0.218028</v>
+        <v>0.219763</v>
       </c>
       <c r="D114" t="n">
-        <v>0.188776</v>
+        <v>0.192586</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.261516</v>
+        <v>0.247447</v>
       </c>
       <c r="C115" t="n">
-        <v>0.22595</v>
+        <v>0.223561</v>
       </c>
       <c r="D115" t="n">
-        <v>0.194466</v>
+        <v>0.196295</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.264895</v>
+        <v>0.269163</v>
       </c>
       <c r="C116" t="n">
-        <v>0.229503</v>
+        <v>0.254383</v>
       </c>
       <c r="D116" t="n">
-        <v>0.198724</v>
+        <v>0.210665</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.287032</v>
+        <v>0.266048</v>
       </c>
       <c r="C117" t="n">
-        <v>0.265811</v>
+        <v>0.243023</v>
       </c>
       <c r="D117" t="n">
-        <v>0.213189</v>
+        <v>0.202943</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.268303</v>
+        <v>0.272101</v>
       </c>
       <c r="C118" t="n">
-        <v>0.268275</v>
+        <v>0.24904</v>
       </c>
       <c r="D118" t="n">
-        <v>0.218827</v>
+        <v>0.211073</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.281531</v>
+        <v>0.281514</v>
       </c>
       <c r="C119" t="n">
-        <v>0.264001</v>
+        <v>0.269205</v>
       </c>
       <c r="D119" t="n">
-        <v>0.227831</v>
+        <v>0.221386</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.301839</v>
+        <v>0.305814</v>
       </c>
       <c r="C120" t="n">
-        <v>0.299332</v>
+        <v>0.28888</v>
       </c>
       <c r="D120" t="n">
-        <v>0.248824</v>
+        <v>0.245355</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.321159</v>
+        <v>0.339253</v>
       </c>
       <c r="C121" t="n">
-        <v>0.317445</v>
+        <v>0.327589</v>
       </c>
       <c r="D121" t="n">
-        <v>0.277548</v>
+        <v>0.26871</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.370735</v>
+        <v>0.370718</v>
       </c>
       <c r="C122" t="n">
-        <v>0.368147</v>
+        <v>0.370126</v>
       </c>
       <c r="D122" t="n">
-        <v>0.299278</v>
+        <v>0.300577</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.442286</v>
+        <v>0.438687</v>
       </c>
       <c r="C123" t="n">
-        <v>0.455849</v>
+        <v>0.45282</v>
       </c>
       <c r="D123" t="n">
-        <v>0.283891</v>
+        <v>0.295721</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.363776</v>
+        <v>0.360285</v>
       </c>
       <c r="C124" t="n">
-        <v>0.322241</v>
+        <v>0.323474</v>
       </c>
       <c r="D124" t="n">
-        <v>0.281953</v>
+        <v>0.28659</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.38247</v>
+        <v>0.367149</v>
       </c>
       <c r="C125" t="n">
-        <v>0.315896</v>
+        <v>0.332303</v>
       </c>
       <c r="D125" t="n">
-        <v>0.285755</v>
+        <v>0.286975</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.371553</v>
+        <v>0.370306</v>
       </c>
       <c r="C126" t="n">
-        <v>0.32432</v>
+        <v>0.327548</v>
       </c>
       <c r="D126" t="n">
-        <v>0.289228</v>
+        <v>0.295743</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.376289</v>
+        <v>0.383159</v>
       </c>
       <c r="C127" t="n">
-        <v>0.329486</v>
+        <v>0.337304</v>
       </c>
       <c r="D127" t="n">
-        <v>0.287864</v>
+        <v>0.297299</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.383095</v>
+        <v>0.38354</v>
       </c>
       <c r="C128" t="n">
-        <v>0.341538</v>
+        <v>0.340252</v>
       </c>
       <c r="D128" t="n">
-        <v>0.293936</v>
+        <v>0.299298</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.39285</v>
+        <v>0.398079</v>
       </c>
       <c r="C129" t="n">
-        <v>0.339249</v>
+        <v>0.342387</v>
       </c>
       <c r="D129" t="n">
-        <v>0.299378</v>
+        <v>0.299186</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.399165</v>
+        <v>0.405065</v>
       </c>
       <c r="C130" t="n">
-        <v>0.343739</v>
+        <v>0.353118</v>
       </c>
       <c r="D130" t="n">
-        <v>0.299543</v>
+        <v>0.30722</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.399519</v>
+        <v>0.406958</v>
       </c>
       <c r="C131" t="n">
-        <v>0.355868</v>
+        <v>0.361046</v>
       </c>
       <c r="D131" t="n">
-        <v>0.313225</v>
+        <v>0.31934</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.413767</v>
+        <v>0.418694</v>
       </c>
       <c r="C132" t="n">
-        <v>0.374598</v>
+        <v>0.370045</v>
       </c>
       <c r="D132" t="n">
-        <v>0.313568</v>
+        <v>0.323097</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.431083</v>
+        <v>0.431076</v>
       </c>
       <c r="C133" t="n">
-        <v>0.393216</v>
+        <v>0.385723</v>
       </c>
       <c r="D133" t="n">
-        <v>0.331846</v>
+        <v>0.339816</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.463286</v>
+        <v>0.452629</v>
       </c>
       <c r="C134" t="n">
-        <v>0.420117</v>
+        <v>0.40731</v>
       </c>
       <c r="D134" t="n">
-        <v>0.343281</v>
+        <v>0.349777</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.490375</v>
+        <v>0.493171</v>
       </c>
       <c r="C135" t="n">
-        <v>0.457596</v>
+        <v>0.446948</v>
       </c>
       <c r="D135" t="n">
-        <v>0.379699</v>
+        <v>0.369546</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.533423</v>
+        <v>0.539149</v>
       </c>
       <c r="C136" t="n">
-        <v>0.489743</v>
+        <v>0.490332</v>
       </c>
       <c r="D136" t="n">
-        <v>0.419659</v>
+        <v>0.434698</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.627765</v>
+        <v>0.6225000000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.599077</v>
+        <v>0.594153</v>
       </c>
       <c r="D137" t="n">
-        <v>0.347846</v>
+        <v>0.352087</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.449127</v>
+        <v>0.453414</v>
       </c>
       <c r="C138" t="n">
-        <v>0.382521</v>
+        <v>0.382529</v>
       </c>
       <c r="D138" t="n">
-        <v>0.346329</v>
+        <v>0.35325</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.450098</v>
+        <v>0.451845</v>
       </c>
       <c r="C139" t="n">
-        <v>0.380524</v>
+        <v>0.3821</v>
       </c>
       <c r="D139" t="n">
-        <v>0.347432</v>
+        <v>0.345956</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.46548</v>
+        <v>0.462323</v>
       </c>
       <c r="C140" t="n">
-        <v>0.38775</v>
+        <v>0.391582</v>
       </c>
       <c r="D140" t="n">
-        <v>0.349958</v>
+        <v>0.356526</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.475473</v>
+        <v>0.459763</v>
       </c>
       <c r="C141" t="n">
-        <v>0.38882</v>
+        <v>0.380733</v>
       </c>
       <c r="D141" t="n">
-        <v>0.351061</v>
+        <v>0.34174</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.463852</v>
+        <v>0.456693</v>
       </c>
       <c r="C142" t="n">
-        <v>0.404665</v>
+        <v>0.396259</v>
       </c>
       <c r="D142" t="n">
-        <v>0.35568</v>
+        <v>0.362794</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.474403</v>
+        <v>0.478225</v>
       </c>
       <c r="C143" t="n">
-        <v>0.403763</v>
+        <v>0.416823</v>
       </c>
       <c r="D143" t="n">
-        <v>0.369253</v>
+        <v>0.365724</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0603389</v>
+        <v>0.061556</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0622726</v>
+        <v>0.212241</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0577708</v>
+        <v>0.0614678</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.062038</v>
+        <v>0.064216</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0634238</v>
+        <v>0.21362</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0593117</v>
+        <v>0.063862</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0676607</v>
+        <v>0.06452479999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0711078</v>
+        <v>0.226035</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0637991</v>
+        <v>0.0686459</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0737105</v>
+        <v>0.0726083</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07772759999999999</v>
+        <v>0.235498</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0702681</v>
+        <v>0.07333199999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0841513</v>
+        <v>0.0833359</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08514099999999999</v>
+        <v>0.247409</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0759239</v>
+        <v>0.0824129</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0959458</v>
+        <v>0.0968045</v>
       </c>
       <c r="C7" t="n">
-        <v>0.102088</v>
+        <v>0.2647</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08933290000000001</v>
+        <v>0.0927089</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.120722</v>
+        <v>0.119418</v>
       </c>
       <c r="C8" t="n">
-        <v>0.131434</v>
+        <v>0.20174</v>
       </c>
       <c r="D8" t="n">
-        <v>0.110586</v>
+        <v>0.124258</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.151284</v>
+        <v>0.151063</v>
       </c>
       <c r="C9" t="n">
-        <v>0.160935</v>
+        <v>0.206152</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0539145</v>
+        <v>0.0574966</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0597723</v>
+        <v>0.0580768</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0551852</v>
+        <v>0.213659</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0561803</v>
+        <v>0.0582093</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0596558</v>
+        <v>0.0600344</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0558247</v>
+        <v>0.210785</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0553969</v>
+        <v>0.0568226</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0609012</v>
+        <v>0.0613729</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0570132</v>
+        <v>0.212359</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0558634</v>
+        <v>0.0578048</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0613877</v>
+        <v>0.0609578</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05652</v>
+        <v>0.216297</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0555963</v>
+        <v>0.0584345</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0635498</v>
+        <v>0.0618314</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0597032</v>
+        <v>0.210337</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0563964</v>
+        <v>0.0589324</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.06334869999999999</v>
+        <v>0.06272850000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0618748</v>
+        <v>0.208154</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0571382</v>
+        <v>0.0616742</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0640136</v>
+        <v>0.0651675</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06306440000000001</v>
+        <v>0.210051</v>
       </c>
       <c r="D16" t="n">
-        <v>0.060675</v>
+        <v>0.06162</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0683991</v>
+        <v>0.0663432</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0666537</v>
+        <v>0.216842</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0618394</v>
+        <v>0.06604649999999999</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0718713</v>
+        <v>0.0698714</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0716832</v>
+        <v>0.228297</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0678922</v>
+        <v>0.06976259999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07759439999999999</v>
+        <v>0.07618129999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0802129</v>
+        <v>0.234767</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0746153</v>
+        <v>0.07477689999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0866691</v>
+        <v>0.0820673</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0923152</v>
+        <v>0.261612</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0830137</v>
+        <v>0.0841147</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.09896480000000001</v>
+        <v>0.09152100000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.103204</v>
+        <v>0.272405</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0954779</v>
+        <v>0.09951160000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.127478</v>
+        <v>0.113539</v>
       </c>
       <c r="C22" t="n">
-        <v>0.133216</v>
+        <v>0.208993</v>
       </c>
       <c r="D22" t="n">
-        <v>0.118527</v>
+        <v>0.123578</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.163647</v>
+        <v>0.144467</v>
       </c>
       <c r="C23" t="n">
-        <v>0.171932</v>
+        <v>0.215911</v>
       </c>
       <c r="D23" t="n">
-        <v>0.05649</v>
+        <v>0.0591626</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0636308</v>
+        <v>0.0619751</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0571109</v>
+        <v>0.215551</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0583621</v>
+        <v>0.0607022</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.06335590000000001</v>
+        <v>0.06485399999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0578998</v>
+        <v>0.211377</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0572876</v>
+        <v>0.0615019</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0654785</v>
+        <v>0.06399820000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0603257</v>
+        <v>0.214039</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0581163</v>
+        <v>0.0612957</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.065834</v>
+        <v>0.0645667</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0610939</v>
+        <v>0.219309</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0579035</v>
+        <v>0.0608878</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0667194</v>
+        <v>0.0664781</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0606388</v>
+        <v>0.21548</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0581381</v>
+        <v>0.0621708</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0659671</v>
+        <v>0.06760529999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0631313</v>
+        <v>0.222933</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0607501</v>
+        <v>0.0646694</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0688732</v>
+        <v>0.06805990000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0641864</v>
+        <v>0.222123</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0616063</v>
+        <v>0.0664665</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.07171569999999999</v>
+        <v>0.0742443</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0672297</v>
+        <v>0.224966</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0659874</v>
+        <v>0.07087549999999999</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.07424939999999999</v>
+        <v>0.0754431</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0758423</v>
+        <v>0.227801</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0692323</v>
+        <v>0.0739414</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0805336</v>
+        <v>0.08216610000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0795989</v>
+        <v>0.250755</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0789165</v>
+        <v>0.08367810000000001</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08797480000000001</v>
+        <v>0.090628</v>
       </c>
       <c r="C34" t="n">
-        <v>0.08952110000000001</v>
+        <v>0.251323</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0870808</v>
+        <v>0.0875136</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.102433</v>
+        <v>0.100397</v>
       </c>
       <c r="C35" t="n">
-        <v>0.10709</v>
+        <v>0.268961</v>
       </c>
       <c r="D35" t="n">
-        <v>0.098938</v>
+        <v>0.101972</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.117084</v>
+        <v>0.120777</v>
       </c>
       <c r="C36" t="n">
-        <v>0.131221</v>
+        <v>0.296777</v>
       </c>
       <c r="D36" t="n">
-        <v>0.125343</v>
+        <v>0.123417</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.148298</v>
+        <v>0.148499</v>
       </c>
       <c r="C37" t="n">
-        <v>0.166797</v>
+        <v>0.213756</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0598214</v>
+        <v>0.0640448</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0668233</v>
+        <v>0.07257</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0603372</v>
+        <v>0.219085</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0592675</v>
+        <v>0.0645184</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0706485</v>
+        <v>0.0690035</v>
       </c>
       <c r="C39" t="n">
-        <v>0.06276039999999999</v>
+        <v>0.214609</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0604167</v>
+        <v>0.0656949</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.06943630000000001</v>
+        <v>0.07037789999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0654593</v>
+        <v>0.218807</v>
       </c>
       <c r="D40" t="n">
-        <v>0.06300210000000001</v>
+        <v>0.0647624</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0712637</v>
+        <v>0.07006610000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0659974</v>
+        <v>0.220665</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0633375</v>
+        <v>0.06701020000000001</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.06966029999999999</v>
+        <v>0.0715797</v>
       </c>
       <c r="C42" t="n">
-        <v>0.06599919999999999</v>
+        <v>0.218186</v>
       </c>
       <c r="D42" t="n">
-        <v>0.063647</v>
+        <v>0.0656209</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0722599</v>
+        <v>0.0736851</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0667413</v>
+        <v>0.225722</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0645178</v>
+        <v>0.0690157</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.07563839999999999</v>
+        <v>0.07417849999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.069601</v>
+        <v>0.228392</v>
       </c>
       <c r="D44" t="n">
-        <v>0.06480950000000001</v>
+        <v>0.07407420000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0799941</v>
+        <v>0.0782701</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07149850000000001</v>
+        <v>0.234214</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0705794</v>
+        <v>0.0731897</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.07848090000000001</v>
+        <v>0.0799154</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0752432</v>
+        <v>0.235776</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0713931</v>
+        <v>0.0782769</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0870008</v>
+        <v>0.0861948</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0816342</v>
+        <v>0.241914</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0783895</v>
+        <v>0.0838578</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0915903</v>
+        <v>0.0921573</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0946427</v>
+        <v>0.259596</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0859338</v>
+        <v>0.0900765</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.102514</v>
+        <v>0.105372</v>
       </c>
       <c r="C49" t="n">
-        <v>0.105063</v>
+        <v>0.274127</v>
       </c>
       <c r="D49" t="n">
-        <v>0.098084</v>
+        <v>0.101518</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.116515</v>
+        <v>0.120327</v>
       </c>
       <c r="C50" t="n">
-        <v>0.122226</v>
+        <v>0.287024</v>
       </c>
       <c r="D50" t="n">
-        <v>0.118637</v>
+        <v>0.131723</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.146393</v>
+        <v>0.150152</v>
       </c>
       <c r="C51" t="n">
-        <v>0.152834</v>
+        <v>0.221307</v>
       </c>
       <c r="D51" t="n">
-        <v>0.06524870000000001</v>
+        <v>0.06913279999999999</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.191381</v>
+        <v>0.192425</v>
       </c>
       <c r="C52" t="n">
-        <v>0.205133</v>
+        <v>0.223262</v>
       </c>
       <c r="D52" t="n">
-        <v>0.06721580000000001</v>
+        <v>0.0697174</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0798864</v>
+        <v>0.0819484</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0721372</v>
+        <v>0.221477</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0660707</v>
+        <v>0.0699562</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.08429399999999999</v>
+        <v>0.0825993</v>
       </c>
       <c r="C54" t="n">
-        <v>0.075208</v>
+        <v>0.221676</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0677118</v>
+        <v>0.0724896</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0844369</v>
+        <v>0.08320420000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0745647</v>
+        <v>0.230386</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0684094</v>
+        <v>0.074045</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0832234</v>
+        <v>0.083262</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0769875</v>
+        <v>0.229894</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0704496</v>
+        <v>0.0732501</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.08487980000000001</v>
+        <v>0.08600530000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0776384</v>
+        <v>0.235356</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0708433</v>
+        <v>0.0742351</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.08677360000000001</v>
+        <v>0.08886230000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.08041810000000001</v>
+        <v>0.233708</v>
       </c>
       <c r="D58" t="n">
-        <v>0.07498440000000001</v>
+        <v>0.0766973</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.09178119999999999</v>
+        <v>0.08881699999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.08881940000000001</v>
+        <v>0.241513</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0767219</v>
+        <v>0.0783746</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0937571</v>
+        <v>0.0915484</v>
       </c>
       <c r="C60" t="n">
-        <v>0.08916200000000001</v>
+        <v>0.244725</v>
       </c>
       <c r="D60" t="n">
-        <v>0.081264</v>
+        <v>0.0854596</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0979592</v>
+        <v>0.100319</v>
       </c>
       <c r="C61" t="n">
-        <v>0.09546209999999999</v>
+        <v>0.257144</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0854409</v>
+        <v>0.08992169999999999</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.107312</v>
+        <v>0.108515</v>
       </c>
       <c r="C62" t="n">
-        <v>0.102154</v>
+        <v>0.265896</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0919172</v>
+        <v>0.0987576</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.113102</v>
+        <v>0.114985</v>
       </c>
       <c r="C63" t="n">
-        <v>0.121594</v>
+        <v>0.28326</v>
       </c>
       <c r="D63" t="n">
-        <v>0.110257</v>
+        <v>0.111678</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.132106</v>
+        <v>0.129163</v>
       </c>
       <c r="C64" t="n">
-        <v>0.134754</v>
+        <v>0.307992</v>
       </c>
       <c r="D64" t="n">
-        <v>0.121785</v>
+        <v>0.128885</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.160213</v>
+        <v>0.161981</v>
       </c>
       <c r="C65" t="n">
-        <v>0.16302</v>
+        <v>0.323299</v>
       </c>
       <c r="D65" t="n">
-        <v>0.150556</v>
+        <v>0.154819</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.20293</v>
+        <v>0.200815</v>
       </c>
       <c r="C66" t="n">
-        <v>0.213053</v>
+        <v>0.324208</v>
       </c>
       <c r="D66" t="n">
-        <v>0.07186439999999999</v>
+        <v>0.0752384</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0915127</v>
+        <v>0.0914121</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0788464</v>
+        <v>0.327001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0729422</v>
+        <v>0.0757034</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0946403</v>
+        <v>0.0926631</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0831023</v>
+        <v>0.326347</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0737532</v>
+        <v>0.0781449</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0960178</v>
+        <v>0.0940216</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0865498</v>
+        <v>0.32988</v>
       </c>
       <c r="D69" t="n">
-        <v>0.07604229999999999</v>
+        <v>0.07679130000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0990205</v>
+        <v>0.0978608</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0873313</v>
+        <v>0.33736</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0757939</v>
+        <v>0.0820438</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0993648</v>
+        <v>0.100343</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0888523</v>
+        <v>0.331831</v>
       </c>
       <c r="D71" t="n">
-        <v>0.078498</v>
+        <v>0.0830929</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.09934999999999999</v>
+        <v>0.0986315</v>
       </c>
       <c r="C72" t="n">
-        <v>0.08927309999999999</v>
+        <v>0.337594</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0804933</v>
+        <v>0.083954</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.106595</v>
+        <v>0.105567</v>
       </c>
       <c r="C73" t="n">
-        <v>0.09866949999999999</v>
+        <v>0.339506</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0914219</v>
+        <v>0.0882059</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.10842</v>
+        <v>0.108207</v>
       </c>
       <c r="C74" t="n">
-        <v>0.10375</v>
+        <v>0.352722</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0868231</v>
+        <v>0.0919432</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.114915</v>
+        <v>0.120728</v>
       </c>
       <c r="C75" t="n">
-        <v>0.10998</v>
+        <v>0.356886</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0942221</v>
+        <v>0.0982343</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.124501</v>
+        <v>0.126569</v>
       </c>
       <c r="C76" t="n">
-        <v>0.11853</v>
+        <v>0.383423</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0995576</v>
+        <v>0.111239</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.136131</v>
+        <v>0.134822</v>
       </c>
       <c r="C77" t="n">
-        <v>0.133082</v>
+        <v>0.394639</v>
       </c>
       <c r="D77" t="n">
-        <v>0.116472</v>
+        <v>0.11712</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.149555</v>
+        <v>0.153904</v>
       </c>
       <c r="C78" t="n">
-        <v>0.153146</v>
+        <v>0.406838</v>
       </c>
       <c r="D78" t="n">
-        <v>0.130746</v>
+        <v>0.136902</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.175053</v>
+        <v>0.179787</v>
       </c>
       <c r="C79" t="n">
-        <v>0.185453</v>
+        <v>0.529903</v>
       </c>
       <c r="D79" t="n">
-        <v>0.158451</v>
+        <v>0.17081</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.21966</v>
+        <v>0.221287</v>
       </c>
       <c r="C80" t="n">
-        <v>0.227363</v>
+        <v>0.5268119999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.08011740000000001</v>
+        <v>0.0846021</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.10585</v>
+        <v>0.110506</v>
       </c>
       <c r="C81" t="n">
-        <v>0.097668</v>
+        <v>0.545731</v>
       </c>
       <c r="D81" t="n">
-        <v>0.07960059999999999</v>
+        <v>0.0841978</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.108666</v>
+        <v>0.10861</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0990115</v>
+        <v>0.544082</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0823637</v>
+        <v>0.0862137</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.108345</v>
+        <v>0.112096</v>
       </c>
       <c r="C83" t="n">
-        <v>0.09952370000000001</v>
+        <v>0.5300280000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0825588</v>
+        <v>0.0877956</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.113697</v>
+        <v>0.114811</v>
       </c>
       <c r="C84" t="n">
-        <v>0.103136</v>
+        <v>0.565142</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0862431</v>
+        <v>0.0938013</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.119401</v>
+        <v>0.122805</v>
       </c>
       <c r="C85" t="n">
-        <v>0.107966</v>
+        <v>0.54753</v>
       </c>
       <c r="D85" t="n">
-        <v>0.08980680000000001</v>
+        <v>0.0933136</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.127159</v>
+        <v>0.122284</v>
       </c>
       <c r="C86" t="n">
-        <v>0.111423</v>
+        <v>0.572944</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0932877</v>
+        <v>0.09569709999999999</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.132824</v>
+        <v>0.126965</v>
       </c>
       <c r="C87" t="n">
-        <v>0.121782</v>
+        <v>0.564121</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0950196</v>
+        <v>0.0978768</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.135389</v>
+        <v>0.129853</v>
       </c>
       <c r="C88" t="n">
-        <v>0.120638</v>
+        <v>0.57081</v>
       </c>
       <c r="D88" t="n">
-        <v>0.09942670000000001</v>
+        <v>0.109783</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.138346</v>
+        <v>0.140956</v>
       </c>
       <c r="C89" t="n">
-        <v>0.130616</v>
+        <v>0.580179</v>
       </c>
       <c r="D89" t="n">
-        <v>0.105464</v>
+        <v>0.11351</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.148339</v>
+        <v>0.149006</v>
       </c>
       <c r="C90" t="n">
-        <v>0.139438</v>
+        <v>0.590759</v>
       </c>
       <c r="D90" t="n">
-        <v>0.113296</v>
+        <v>0.120044</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.160026</v>
+        <v>0.161903</v>
       </c>
       <c r="C91" t="n">
-        <v>0.158337</v>
+        <v>0.608278</v>
       </c>
       <c r="D91" t="n">
-        <v>0.123835</v>
+        <v>0.130164</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.176154</v>
+        <v>0.180354</v>
       </c>
       <c r="C92" t="n">
-        <v>0.177281</v>
+        <v>0.623229</v>
       </c>
       <c r="D92" t="n">
-        <v>0.146126</v>
+        <v>0.150419</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.203569</v>
+        <v>0.206853</v>
       </c>
       <c r="C93" t="n">
-        <v>0.204528</v>
+        <v>0.659977</v>
       </c>
       <c r="D93" t="n">
-        <v>0.172246</v>
+        <v>0.172975</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.245399</v>
+        <v>0.239255</v>
       </c>
       <c r="C94" t="n">
-        <v>0.256148</v>
+        <v>0.79682</v>
       </c>
       <c r="D94" t="n">
-        <v>0.100734</v>
+        <v>0.106749</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.136764</v>
+        <v>0.138248</v>
       </c>
       <c r="C95" t="n">
-        <v>0.12682</v>
+        <v>0.79052</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0998358</v>
+        <v>0.106194</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.143522</v>
+        <v>0.145989</v>
       </c>
       <c r="C96" t="n">
-        <v>0.125949</v>
+        <v>0.789987</v>
       </c>
       <c r="D96" t="n">
-        <v>0.10133</v>
+        <v>0.107075</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.142966</v>
+        <v>0.141445</v>
       </c>
       <c r="C97" t="n">
-        <v>0.128963</v>
+        <v>0.810097</v>
       </c>
       <c r="D97" t="n">
-        <v>0.104051</v>
+        <v>0.110031</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.146882</v>
+        <v>0.144495</v>
       </c>
       <c r="C98" t="n">
-        <v>0.133245</v>
+        <v>0.80219</v>
       </c>
       <c r="D98" t="n">
-        <v>0.108349</v>
+        <v>0.109917</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.152196</v>
+        <v>0.153898</v>
       </c>
       <c r="C99" t="n">
-        <v>0.137433</v>
+        <v>0.804609</v>
       </c>
       <c r="D99" t="n">
-        <v>0.109407</v>
+        <v>0.115997</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.157385</v>
+        <v>0.155115</v>
       </c>
       <c r="C100" t="n">
-        <v>0.140403</v>
+        <v>0.807853</v>
       </c>
       <c r="D100" t="n">
-        <v>0.112936</v>
+        <v>0.116969</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.160132</v>
+        <v>0.156553</v>
       </c>
       <c r="C101" t="n">
-        <v>0.144451</v>
+        <v>0.7956530000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.117122</v>
+        <v>0.127266</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.168826</v>
+        <v>0.167335</v>
       </c>
       <c r="C102" t="n">
-        <v>0.156196</v>
+        <v>0.79439</v>
       </c>
       <c r="D102" t="n">
-        <v>0.123813</v>
+        <v>0.132505</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.171619</v>
+        <v>0.176551</v>
       </c>
       <c r="C103" t="n">
-        <v>0.160708</v>
+        <v>0.810285</v>
       </c>
       <c r="D103" t="n">
-        <v>0.127603</v>
+        <v>0.139289</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.179806</v>
+        <v>0.182088</v>
       </c>
       <c r="C104" t="n">
-        <v>0.172864</v>
+        <v>0.819252</v>
       </c>
       <c r="D104" t="n">
-        <v>0.135971</v>
+        <v>0.145509</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.189298</v>
+        <v>0.197125</v>
       </c>
       <c r="C105" t="n">
-        <v>0.189626</v>
+        <v>0.851869</v>
       </c>
       <c r="D105" t="n">
-        <v>0.144467</v>
+        <v>0.154355</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.210295</v>
+        <v>0.211647</v>
       </c>
       <c r="C106" t="n">
-        <v>0.207353</v>
+        <v>0.868277</v>
       </c>
       <c r="D106" t="n">
-        <v>0.167528</v>
+        <v>0.175813</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.237105</v>
+        <v>0.234877</v>
       </c>
       <c r="C107" t="n">
-        <v>0.237975</v>
+        <v>0.899824</v>
       </c>
       <c r="D107" t="n">
-        <v>0.186664</v>
+        <v>0.200844</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.270705</v>
+        <v>0.275874</v>
       </c>
       <c r="C108" t="n">
-        <v>0.291981</v>
+        <v>0.946273</v>
       </c>
       <c r="D108" t="n">
-        <v>0.173688</v>
+        <v>0.189269</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.343664</v>
+        <v>0.338608</v>
       </c>
       <c r="C109" t="n">
-        <v>0.374979</v>
+        <v>0.943226</v>
       </c>
       <c r="D109" t="n">
-        <v>0.182973</v>
+        <v>0.188399</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.240628</v>
+        <v>0.244552</v>
       </c>
       <c r="C110" t="n">
-        <v>0.205115</v>
+        <v>0.940481</v>
       </c>
       <c r="D110" t="n">
-        <v>0.184968</v>
+        <v>0.184018</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.22765</v>
+        <v>0.250195</v>
       </c>
       <c r="C111" t="n">
-        <v>0.210195</v>
+        <v>0.944066</v>
       </c>
       <c r="D111" t="n">
-        <v>0.180226</v>
+        <v>0.182211</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.231274</v>
+        <v>0.232024</v>
       </c>
       <c r="C112" t="n">
-        <v>0.214889</v>
+        <v>0.955346</v>
       </c>
       <c r="D112" t="n">
-        <v>0.185519</v>
+        <v>0.193347</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.242057</v>
+        <v>0.233783</v>
       </c>
       <c r="C113" t="n">
-        <v>0.216717</v>
+        <v>0.9218229999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.195242</v>
+        <v>0.201069</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.247064</v>
+        <v>0.257044</v>
       </c>
       <c r="C114" t="n">
-        <v>0.219763</v>
+        <v>0.939808</v>
       </c>
       <c r="D114" t="n">
-        <v>0.192586</v>
+        <v>0.191789</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.247447</v>
+        <v>0.256643</v>
       </c>
       <c r="C115" t="n">
-        <v>0.223561</v>
+        <v>0.945208</v>
       </c>
       <c r="D115" t="n">
-        <v>0.196295</v>
+        <v>0.215231</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.269163</v>
+        <v>0.26273</v>
       </c>
       <c r="C116" t="n">
-        <v>0.254383</v>
+        <v>0.932829</v>
       </c>
       <c r="D116" t="n">
-        <v>0.210665</v>
+        <v>0.20308</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.266048</v>
+        <v>0.264642</v>
       </c>
       <c r="C117" t="n">
-        <v>0.243023</v>
+        <v>0.976481</v>
       </c>
       <c r="D117" t="n">
-        <v>0.202943</v>
+        <v>0.206963</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.272101</v>
+        <v>0.284081</v>
       </c>
       <c r="C118" t="n">
-        <v>0.24904</v>
+        <v>0.943761</v>
       </c>
       <c r="D118" t="n">
-        <v>0.211073</v>
+        <v>0.229814</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.281514</v>
+        <v>0.277962</v>
       </c>
       <c r="C119" t="n">
-        <v>0.269205</v>
+        <v>0.996074</v>
       </c>
       <c r="D119" t="n">
-        <v>0.221386</v>
+        <v>0.23837</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.305814</v>
+        <v>0.322108</v>
       </c>
       <c r="C120" t="n">
-        <v>0.28888</v>
+        <v>1.01316</v>
       </c>
       <c r="D120" t="n">
-        <v>0.245355</v>
+        <v>0.254747</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.339253</v>
+        <v>0.323496</v>
       </c>
       <c r="C121" t="n">
-        <v>0.327589</v>
+        <v>1.05627</v>
       </c>
       <c r="D121" t="n">
-        <v>0.26871</v>
+        <v>0.263215</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.370718</v>
+        <v>0.399002</v>
       </c>
       <c r="C122" t="n">
-        <v>0.370126</v>
+        <v>1.02398</v>
       </c>
       <c r="D122" t="n">
-        <v>0.300577</v>
+        <v>0.31882</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.438687</v>
+        <v>0.462987</v>
       </c>
       <c r="C123" t="n">
-        <v>0.45282</v>
+        <v>1.03104</v>
       </c>
       <c r="D123" t="n">
-        <v>0.295721</v>
+        <v>0.282334</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.360285</v>
+        <v>0.363147</v>
       </c>
       <c r="C124" t="n">
-        <v>0.323474</v>
+        <v>1.03859</v>
       </c>
       <c r="D124" t="n">
-        <v>0.28659</v>
+        <v>0.291131</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.367149</v>
+        <v>0.372818</v>
       </c>
       <c r="C125" t="n">
-        <v>0.332303</v>
+        <v>1.04106</v>
       </c>
       <c r="D125" t="n">
-        <v>0.286975</v>
+        <v>0.288596</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.370306</v>
+        <v>0.37539</v>
       </c>
       <c r="C126" t="n">
-        <v>0.327548</v>
+        <v>1.03284</v>
       </c>
       <c r="D126" t="n">
-        <v>0.295743</v>
+        <v>0.29677</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.383159</v>
+        <v>0.373678</v>
       </c>
       <c r="C127" t="n">
-        <v>0.337304</v>
+        <v>1.03832</v>
       </c>
       <c r="D127" t="n">
-        <v>0.297299</v>
+        <v>0.300456</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.38354</v>
+        <v>0.382344</v>
       </c>
       <c r="C128" t="n">
-        <v>0.340252</v>
+        <v>1.03021</v>
       </c>
       <c r="D128" t="n">
-        <v>0.299298</v>
+        <v>0.307117</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.398079</v>
+        <v>0.391561</v>
       </c>
       <c r="C129" t="n">
-        <v>0.342387</v>
+        <v>1.03328</v>
       </c>
       <c r="D129" t="n">
-        <v>0.299186</v>
+        <v>0.299182</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.405065</v>
+        <v>0.401089</v>
       </c>
       <c r="C130" t="n">
-        <v>0.353118</v>
+        <v>1.04496</v>
       </c>
       <c r="D130" t="n">
-        <v>0.30722</v>
+        <v>0.307388</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.406958</v>
+        <v>0.412293</v>
       </c>
       <c r="C131" t="n">
-        <v>0.361046</v>
+        <v>1.06669</v>
       </c>
       <c r="D131" t="n">
-        <v>0.31934</v>
+        <v>0.315158</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.418694</v>
+        <v>0.412153</v>
       </c>
       <c r="C132" t="n">
-        <v>0.370045</v>
+        <v>1.04579</v>
       </c>
       <c r="D132" t="n">
-        <v>0.323097</v>
+        <v>0.325775</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.431076</v>
+        <v>0.432792</v>
       </c>
       <c r="C133" t="n">
-        <v>0.385723</v>
+        <v>1.08694</v>
       </c>
       <c r="D133" t="n">
-        <v>0.339816</v>
+        <v>0.343792</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.452629</v>
+        <v>0.456724</v>
       </c>
       <c r="C134" t="n">
-        <v>0.40731</v>
+        <v>1.11687</v>
       </c>
       <c r="D134" t="n">
-        <v>0.349777</v>
+        <v>0.359864</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.493171</v>
+        <v>0.491151</v>
       </c>
       <c r="C135" t="n">
-        <v>0.446948</v>
+        <v>1.14689</v>
       </c>
       <c r="D135" t="n">
-        <v>0.369546</v>
+        <v>0.36769</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.539149</v>
+        <v>0.536906</v>
       </c>
       <c r="C136" t="n">
-        <v>0.490332</v>
+        <v>1.12669</v>
       </c>
       <c r="D136" t="n">
-        <v>0.434698</v>
+        <v>0.427278</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6225000000000001</v>
+        <v>0.62132</v>
       </c>
       <c r="C137" t="n">
-        <v>0.594153</v>
+        <v>1.14843</v>
       </c>
       <c r="D137" t="n">
-        <v>0.352087</v>
+        <v>0.337051</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.453414</v>
+        <v>0.453437</v>
       </c>
       <c r="C138" t="n">
-        <v>0.382529</v>
+        <v>1.12682</v>
       </c>
       <c r="D138" t="n">
-        <v>0.35325</v>
+        <v>0.351697</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.451845</v>
+        <v>0.457704</v>
       </c>
       <c r="C139" t="n">
-        <v>0.3821</v>
+        <v>1.14469</v>
       </c>
       <c r="D139" t="n">
-        <v>0.345956</v>
+        <v>0.346146</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.462323</v>
+        <v>0.462126</v>
       </c>
       <c r="C140" t="n">
-        <v>0.391582</v>
+        <v>1.14464</v>
       </c>
       <c r="D140" t="n">
-        <v>0.356526</v>
+        <v>0.34741</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.459763</v>
+        <v>0.465543</v>
       </c>
       <c r="C141" t="n">
-        <v>0.380733</v>
+        <v>1.14265</v>
       </c>
       <c r="D141" t="n">
-        <v>0.34174</v>
+        <v>0.356365</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.456693</v>
+        <v>0.472262</v>
       </c>
       <c r="C142" t="n">
-        <v>0.396259</v>
+        <v>1.15142</v>
       </c>
       <c r="D142" t="n">
-        <v>0.362794</v>
+        <v>0.354798</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.478225</v>
+        <v>0.473548</v>
       </c>
       <c r="C143" t="n">
-        <v>0.416823</v>
+        <v>1.15237</v>
       </c>
       <c r="D143" t="n">
-        <v>0.365724</v>
+        <v>0.36401</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -93,7 +93,15 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +561,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0199746</v>
+                  <v>0.0177347</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0223711</v>
+                  <v>0.0188852</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0279843</v>
+                  <v>0.0234555</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0374557</v>
+                  <v>0.0338857</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0541003</v>
+                  <v>0.0472317</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0739308</v>
+                  <v>0.0575473</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0908332</v>
+                  <v>0.0891636</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119418</v>
+                  <v>0.114971</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0160955</v>
+                  <v>0.0165384</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0165233</v>
+                  <v>0.0169788</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0170052</v>
+                  <v>0.017486</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0176545</v>
+                  <v>0.0179473</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.018734</v>
+                  <v>0.0190006</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.020118</v>
+                  <v>0.0210354</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0231423</v>
+                  <v>0.0232111</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0275752</v>
+                  <v>0.0273704</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0337269</v>
+                  <v>0.033242</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0441174</v>
+                  <v>0.0424186</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0560327</v>
+                  <v>0.0554736</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0735251</v>
+                  <v>0.0712052</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.09810720000000001</v>
+                  <v>0.095737</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.118682</v>
+                  <v>0.120816</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0168617</v>
+                  <v>0.0166553</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.017117</v>
+                  <v>0.0171951</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0179684</v>
+                  <v>0.0178482</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.018842</v>
+                  <v>0.0186904</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.020762</v>
+                  <v>0.0199208</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0229493</v>
+                  <v>0.0220798</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0261253</v>
+                  <v>0.0261723</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0299548</v>
+                  <v>0.0299174</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0351932</v>
+                  <v>0.0360282</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0437828</v>
+                  <v>0.0442657</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0554948</v>
+                  <v>0.0555848</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.07231650000000001</v>
+                  <v>0.07283770000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.09074749999999999</v>
+                  <v>0.0951668</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.117374</v>
+                  <v>0.118945</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0170956</v>
+                  <v>0.0173426</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0178543</v>
+                  <v>0.0180617</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0189841</v>
+                  <v>0.018949</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0200948</v>
+                  <v>0.020392</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0217684</v>
+                  <v>0.0223588</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0244338</v>
+                  <v>0.024542</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0277674</v>
+                  <v>0.0279483</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0324631</v>
+                  <v>0.0324731</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0387566</v>
+                  <v>0.0380715</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.044976</v>
+                  <v>0.0466525</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0559175</v>
+                  <v>0.056909</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0710027</v>
+                  <v>0.0714974</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0908212</v>
+                  <v>0.0912895</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.117424</v>
+                  <v>0.117883</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.140864</v>
+                  <v>0.142422</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0189027</v>
+                  <v>0.019195</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0201008</v>
+                  <v>0.0203607</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.021583</v>
+                  <v>0.0218136</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0235148</v>
+                  <v>0.0236284</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0261005</v>
+                  <v>0.0264708</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0293833</v>
+                  <v>0.0297098</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0337692</v>
+                  <v>0.0338513</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0392899</v>
+                  <v>0.0398965</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.046662</v>
+                  <v>0.0472513</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0562823</v>
+                  <v>0.0571737</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0701638</v>
+                  <v>0.0718768</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0890341</v>
+                  <v>0.09075809999999999</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.114833</v>
+                  <v>0.116281</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.144939</v>
+                  <v>0.146073</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0197502</v>
+                  <v>0.0198702</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0210028</v>
+                  <v>0.0212214</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0227789</v>
+                  <v>0.0226574</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0246593</v>
+                  <v>0.0247929</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0270269</v>
+                  <v>0.0271637</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302493</v>
+                  <v>0.0304312</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0342455</v>
+                  <v>0.0345894</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0395435</v>
+                  <v>0.0396103</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0466214</v>
+                  <v>0.0467754</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0559597</v>
+                  <v>0.0560361</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0685593</v>
+                  <v>0.0688766</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0867699</v>
+                  <v>0.08715820000000001</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.111201</v>
+                  <v>0.111126</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.141494</v>
+                  <v>0.142408</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0200207</v>
+                  <v>0.0204979</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0212269</v>
+                  <v>0.021371</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0226945</v>
+                  <v>0.0231017</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0246895</v>
+                  <v>0.0250312</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0274303</v>
+                  <v>0.0273671</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0301632</v>
+                  <v>0.030302</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0343383</v>
+                  <v>0.0342767</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0393209</v>
+                  <v>0.0392133</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0454285</v>
+                  <v>0.0459474</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0543419</v>
+                  <v>0.0545635</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.06590409999999999</v>
+                  <v>0.066873</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.08316999999999999</v>
+                  <v>0.08354640000000001</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.106615</v>
+                  <v>0.106964</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.136838</v>
+                  <v>0.137477</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0207148</v>
+                  <v>0.0212266</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0218231</v>
+                  <v>0.0219642</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0235618</v>
+                  <v>0.0233059</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0254205</v>
+                  <v>0.024965</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0277238</v>
+                  <v>0.027507</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0309717</v>
+                  <v>0.0303621</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.034493</v>
+                  <v>0.0349354</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0401348</v>
+                  <v>0.0402101</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0464552</v>
+                  <v>0.0463648</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0546064</v>
+                  <v>0.0548707</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.065411</v>
+                  <v>0.0654704</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08111790000000001</v>
+                  <v>0.0815046</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.10261</v>
+                  <v>0.103387</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.131855</v>
+                  <v>0.132347</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.167859</v>
+                  <v>0.16884</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0308739</v>
+                  <v>0.031373</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.032613</v>
+                  <v>0.032779</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.034221</v>
+                  <v>0.0342392</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0360225</v>
+                  <v>0.036179</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0383657</v>
+                  <v>0.0382276</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0408546</v>
+                  <v>0.0406218</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0441552</v>
+                  <v>0.0440363</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0485179</v>
+                  <v>0.0485942</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0552273</v>
+                  <v>0.0553814</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.06492580000000001</v>
+                  <v>0.06523229999999999</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0791367</v>
+                  <v>0.0794011</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0999347</v>
+                  <v>0.100166</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128094</v>
+                  <v>0.128268</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.163548</v>
+                  <v>0.163701</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0346339</v>
+                  <v>0.0346198</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0355354</v>
+                  <v>0.0354654</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0372352</v>
+                  <v>0.0366085</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0385047</v>
+                  <v>0.0388945</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0411049</v>
+                  <v>0.0409798</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0439798</v>
+                  <v>0.0433231</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.04739</v>
+                  <v>0.0478824</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0521658</v>
+                  <v>0.0522531</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0586895</v>
+                  <v>0.0589284</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0680711</v>
+                  <v>0.0684761</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0820838</v>
+                  <v>0.08256520000000001</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101855</v>
+                  <v>0.102351</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.12951</v>
+                  <v>0.129668</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.163867</v>
+                  <v>0.164095</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0468922</v>
+                  <v>0.0467531</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0482012</v>
+                  <v>0.0489469</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0491648</v>
+                  <v>0.0492735</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0527207</v>
+                  <v>0.0513704</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0528154</v>
+                  <v>0.0529331</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.055782</v>
+                  <v>0.0552064</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +995,15 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>ankerl::unordered_dense::map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1463,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0185839</v>
+                  <v>0.0281637</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0180835</v>
+                  <v>0.0303387</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0186575</v>
+                  <v>0.0343874</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0219409</v>
+                  <v>0.0402264</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0348619</v>
+                  <v>0.0512406</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.046746</v>
+                  <v>0.0595602</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0887013</v>
+                  <v>0.0203069</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119804</v>
+                  <v>0.0208109</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0180709</v>
+                  <v>0.0212582</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0184204</v>
+                  <v>0.0219184</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0189457</v>
+                  <v>0.0229526</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0193755</v>
+                  <v>0.0241664</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0198448</v>
+                  <v>0.0254836</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.020306</v>
+                  <v>0.0273195</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0209034</v>
+                  <v>0.0296545</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0227075</v>
+                  <v>0.0332014</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0253999</v>
+                  <v>0.0379014</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0319034</v>
+                  <v>0.0448099</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0383341</v>
+                  <v>0.0539658</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0568493</v>
+                  <v>0.06603249999999999</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0838647</v>
+                  <v>0.020671</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.131653</v>
+                  <v>0.0211785</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0187591</v>
+                  <v>0.0218233</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0191409</v>
+                  <v>0.0225927</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0197405</v>
+                  <v>0.0234831</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.020439</v>
+                  <v>0.0247358</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0212415</v>
+                  <v>0.0261932</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0219892</v>
+                  <v>0.0277728</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0234121</v>
+                  <v>0.0302705</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0264304</v>
+                  <v>0.0337553</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0302305</v>
+                  <v>0.038208</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0366198</v>
+                  <v>0.0438485</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0459437</v>
+                  <v>0.053142</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0594599</v>
+                  <v>0.06538140000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0878531</v>
+                  <v>0.081438</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.129282</v>
+                  <v>0.0211673</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0198852</v>
+                  <v>0.0217646</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0203496</v>
+                  <v>0.0225445</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0210131</v>
+                  <v>0.0235978</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0216736</v>
+                  <v>0.0247356</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0228112</v>
+                  <v>0.0261785</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0240973</v>
+                  <v>0.028181</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0257658</v>
+                  <v>0.0306195</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0290975</v>
+                  <v>0.0343078</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0349767</v>
+                  <v>0.0390459</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0398391</v>
+                  <v>0.0453654</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0491529</v>
+                  <v>0.0534848</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.06340750000000001</v>
+                  <v>0.0640006</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0843724</v>
+                  <v>0.0778128</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.121267</v>
+                  <v>0.0213048</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.167097</v>
+                  <v>0.0219901</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0213247</v>
+                  <v>0.0226809</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0219345</v>
+                  <v>0.0235119</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.022889</v>
+                  <v>0.0248035</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0238477</v>
+                  <v>0.0261888</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0253224</v>
+                  <v>0.0281</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0275992</v>
+                  <v>0.0307155</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0302451</v>
+                  <v>0.0340517</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0345438</v>
+                  <v>0.039017</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0408319</v>
+                  <v>0.0450472</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0492235</v>
+                  <v>0.0537333</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.061553</v>
+                  <v>0.0640087</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0805206</v>
+                  <v>0.0761191</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.113447</v>
+                  <v>0.0215671</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.161291</v>
+                  <v>0.022204</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0217627</v>
+                  <v>0.0229249</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.022553</v>
+                  <v>0.0238263</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0235574</v>
+                  <v>0.0250022</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0246975</v>
+                  <v>0.0265029</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0260874</v>
+                  <v>0.0283501</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0279758</v>
+                  <v>0.0309632</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030811</v>
+                  <v>0.0342816</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.034622</v>
+                  <v>0.0384953</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0402214</v>
+                  <v>0.0444329</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.047952</v>
+                  <v>0.0524612</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0592906</v>
+                  <v>0.0624264</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.07559440000000001</v>
+                  <v>0.0748988</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.103124</v>
+                  <v>0.025562</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.148399</v>
+                  <v>0.0275782</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0223391</v>
+                  <v>0.0280806</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0231769</v>
+                  <v>0.0285806</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0241129</v>
+                  <v>0.0282565</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0252673</v>
+                  <v>0.0294624</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0268372</v>
+                  <v>0.0308743</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0286828</v>
+                  <v>0.0341176</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0310672</v>
+                  <v>0.0361708</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0345672</v>
+                  <v>0.0410182</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0394295</v>
+                  <v>0.0463375</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0468561</v>
+                  <v>0.0537404</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0569589</v>
+                  <v>0.06263730000000001</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.07245</v>
+                  <v>0.0750686</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.09784569999999999</v>
+                  <v>0.09099740000000001</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.139669</v>
+                  <v>0.0543355</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0237499</v>
+                  <v>0.055378</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0249294</v>
+                  <v>0.0553167</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0266465</v>
+                  <v>0.0560005</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0293475</v>
+                  <v>0.0571877</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0325618</v>
+                  <v>0.0572869</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0359918</v>
+                  <v>0.059316</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0391962</v>
+                  <v>0.0627822</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0423199</v>
+                  <v>0.0641979</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0459227</v>
+                  <v>0.0676554</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0516739</v>
+                  <v>0.0737056</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0586182</v>
+                  <v>0.0815784</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.07141210000000001</v>
+                  <v>0.0931374</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.09303640000000001</v>
+                  <v>0.108481</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.131746</v>
+                  <v>0.0822619</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.183631</v>
+                  <v>0.082784</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0382801</v>
+                  <v>0.08355269999999999</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0392846</v>
+                  <v>0.08275150000000001</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.040221</v>
+                  <v>0.0835095</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0413197</v>
+                  <v>0.0843792</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0426685</v>
+                  <v>0.0856725</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0443478</v>
+                  <v>0.0874267</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0465075</v>
+                  <v>0.0900903</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0495102</v>
+                  <v>0.093279</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0538235</v>
+                  <v>0.09896530000000001</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0601526</v>
+                  <v>0.106256</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0710412</v>
+                  <v>0.117781</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0895113</v>
+                  <v>0.133615</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.122948</v>
+                  <v>0.093722</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.172866</v>
+                  <v>0.094073</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0424721</v>
+                  <v>0.0945521</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0434258</v>
+                  <v>0.0951642</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.044818</v>
+                  <v>0.09592340000000001</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0458006</v>
+                  <v>0.09669759999999999</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0473031</v>
+                  <v>0.100979</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0493497</v>
+                  <v>0.0998585</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0516778</v>
+                  <v>0.106291</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0546998</v>
+                  <v>0.106045</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0591634</v>
+                  <v>0.114325</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0653265</v>
+                  <v>0.118703</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0752591</v>
+                  <v>0.132586</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0919177</v>
+                  <v>0.144449</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.121142</v>
+                  <v>0.100829</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.1684</v>
+                  <v>0.101255</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0552701</v>
+                  <v>0.101684</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0564094</v>
+                  <v>0.102426</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0574369</v>
+                  <v>0.103294</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0586381</v>
+                  <v>0.104327</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0601686</v>
+                  <v>0.108111</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0620335</v>
+                  <v>0.107678</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1897,15 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>foa_unordered_rc15_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2365,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0201621</v>
+                  <v>0.0250893</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0205927</v>
+                  <v>0.026459</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0213328</v>
+                  <v>0.0281826</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0224255</v>
+                  <v>0.0301669</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0228236</v>
+                  <v>0.0330464</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0246502</v>
+                  <v>0.0400324</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0289321</v>
+                  <v>0.0515425</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0176491</v>
+                  <v>0.0219549</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0179043</v>
+                  <v>0.0220185</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0181965</v>
+                  <v>0.0223959</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0185586</v>
+                  <v>0.0226063</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0189253</v>
+                  <v>0.022828</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0192987</v>
+                  <v>0.0232419</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0198485</v>
+                  <v>0.0238637</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0203825</v>
+                  <v>0.0243176</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0208815</v>
+                  <v>0.0252184</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0220019</v>
+                  <v>0.0262676</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.022769</v>
+                  <v>0.0283896</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0243123</v>
+                  <v>0.0314271</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0273683</v>
+                  <v>0.0373705</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0323586</v>
+                  <v>0.0483472</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.017563</v>
+                  <v>0.0216108</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0179077</v>
+                  <v>0.0218212</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0181191</v>
+                  <v>0.0221418</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0185128</v>
+                  <v>0.0223588</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0188997</v>
+                  <v>0.0227307</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0193475</v>
+                  <v>0.0232391</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0197701</v>
+                  <v>0.0238749</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0202878</v>
+                  <v>0.0245752</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0211156</v>
+                  <v>0.0255408</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0221556</v>
+                  <v>0.026853</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0232419</v>
+                  <v>0.0288755</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0249746</v>
+                  <v>0.0325576</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0282488</v>
+                  <v>0.0370074</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0352729</v>
+                  <v>0.0451778</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.017949</v>
+                  <v>0.0225246</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0182123</v>
+                  <v>0.022845</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0184241</v>
+                  <v>0.0231005</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0187582</v>
+                  <v>0.0234427</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0191191</v>
+                  <v>0.0238108</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0195615</v>
+                  <v>0.0242156</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0201191</v>
+                  <v>0.0247109</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0206961</v>
+                  <v>0.0253455</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0215587</v>
+                  <v>0.0263488</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0226734</v>
+                  <v>0.0275133</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0242101</v>
+                  <v>0.0294802</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0265092</v>
+                  <v>0.0325566</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0299203</v>
+                  <v>0.0372371</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0362318</v>
+                  <v>0.0445091</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.018616</v>
+                  <v>0.0233299</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0188728</v>
+                  <v>0.0235644</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0191354</v>
+                  <v>0.0237683</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0194676</v>
+                  <v>0.0240722</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0198285</v>
+                  <v>0.0244168</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0202084</v>
+                  <v>0.0249086</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0207233</v>
+                  <v>0.0254511</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0213995</v>
+                  <v>0.0261448</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0222513</v>
+                  <v>0.027135</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.023328</v>
+                  <v>0.0284505</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0249404</v>
+                  <v>0.0303024</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.027529</v>
+                  <v>0.0330686</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0313116</v>
+                  <v>0.0376382</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0376983</v>
+                  <v>0.0447934</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0489477</v>
+                  <v>0.057162</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.019011</v>
+                  <v>0.024014</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0193203</v>
+                  <v>0.0243849</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0197232</v>
+                  <v>0.02468</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0201442</v>
+                  <v>0.0250072</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0205764</v>
+                  <v>0.02551</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0210852</v>
+                  <v>0.0259831</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0217122</v>
+                  <v>0.0267313</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.022629</v>
+                  <v>0.0276698</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0237333</v>
+                  <v>0.0288476</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0254197</v>
+                  <v>0.0307247</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0277608</v>
+                  <v>0.0333151</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0313383</v>
+                  <v>0.0375379</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.037026</v>
+                  <v>0.043859</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0465119</v>
+                  <v>0.0545188</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0192382</v>
+                  <v>0.0242604</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0195643</v>
+                  <v>0.0245599</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0199296</v>
+                  <v>0.0248882</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0204282</v>
+                  <v>0.025275</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0208927</v>
+                  <v>0.0257971</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.021538</v>
+                  <v>0.02637</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0222851</v>
+                  <v>0.027152</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0232149</v>
+                  <v>0.0281046</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0244507</v>
+                  <v>0.0295407</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0259784</v>
+                  <v>0.0311837</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0282943</v>
+                  <v>0.0336176</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0314579</v>
+                  <v>0.0371264</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0365879</v>
+                  <v>0.0426593</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0450952</v>
+                  <v>0.0519684</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0208871</v>
+                  <v>0.0258587</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0214555</v>
+                  <v>0.0264334</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0220137</v>
+                  <v>0.0269028</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0225922</v>
+                  <v>0.0275923</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0232915</v>
+                  <v>0.0285702</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0246113</v>
+                  <v>0.0300087</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0266287</v>
+                  <v>0.0323097</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0293725</v>
+                  <v>0.0365878</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0323838</v>
+                  <v>0.0391818</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0353862</v>
+                  <v>0.0416919</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0384466</v>
+                  <v>0.0450736</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0416202</v>
+                  <v>0.0484289</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0456443</v>
+                  <v>0.0531234</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0519131</v>
+                  <v>0.059985</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0324166</v>
+                  <v>0.0387026</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0334394</v>
+                  <v>0.039979</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0342435</v>
+                  <v>0.0407366</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0350556</v>
+                  <v>0.0414101</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0358717</v>
+                  <v>0.0421872</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0366873</v>
+                  <v>0.0431039</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0376708</v>
+                  <v>0.0440965</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0386302</v>
+                  <v>0.0454494</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0398146</v>
+                  <v>0.046805</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0412212</v>
+                  <v>0.0482005</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0429427</v>
+                  <v>0.0502533</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0455556</v>
+                  <v>0.0531382</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0491536</v>
+                  <v>0.0571138</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.054736</v>
+                  <v>0.0631661</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0644487</v>
+                  <v>0.0734669</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0379716</v>
+                  <v>0.045661</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0387374</v>
+                  <v>0.0461072</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.039425</v>
+                  <v>0.047175</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0400483</v>
+                  <v>0.0476817</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0410584</v>
+                  <v>0.0488919</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0419449</v>
+                  <v>0.0497329</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0429313</v>
+                  <v>0.0514961</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0441977</v>
+                  <v>0.0522748</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0457638</v>
+                  <v>0.0539706</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0475294</v>
+                  <v>0.0561519</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0500786</v>
+                  <v>0.0589165</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0536186</v>
+                  <v>0.0627973</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0591599</v>
+                  <v>0.06854</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.0689019</v>
+                  <v>0.0781154</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0534654</v>
+                  <v>0.0641977</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0539555</v>
+                  <v>0.0653511</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0548494</v>
+                  <v>0.0658188</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0553747</v>
+                  <v>0.0669466</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0561235</v>
+                  <v>0.0672373</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0611306</v>
+                  <v>0.0686155</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0579442</v>
+                  <v>0.0692349</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3216,14 +3240,14 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="7" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3234,7 +3258,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>ankerl::unordered_dense::map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0603389</v>
+        <v>0.0606023</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0622726</v>
+        <v>0.0609749</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0577708</v>
+        <v>0.05467</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.062038</v>
+        <v>0.0616801</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0634238</v>
+        <v>0.0642981</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0593117</v>
+        <v>0.0577374</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0676607</v>
+        <v>0.06562419999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0711078</v>
+        <v>0.0674921</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0637991</v>
+        <v>0.0623551</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0737105</v>
+        <v>0.0732348</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07772759999999999</v>
+        <v>0.0792064</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0702681</v>
+        <v>0.0671192</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0841513</v>
+        <v>0.08190939999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08514099999999999</v>
+        <v>0.08712689999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0759239</v>
+        <v>0.07537339999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0959458</v>
+        <v>0.09608079999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.102088</v>
+        <v>0.10156</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08933290000000001</v>
+        <v>0.0922953</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.120722</v>
+        <v>0.114204</v>
       </c>
       <c r="C8" t="n">
-        <v>0.131434</v>
+        <v>0.132216</v>
       </c>
       <c r="D8" t="n">
-        <v>0.110586</v>
+        <v>0.116839</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.151284</v>
+        <v>0.148451</v>
       </c>
       <c r="C9" t="n">
-        <v>0.160935</v>
+        <v>0.164145</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0539145</v>
+        <v>0.0535376</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0597723</v>
+        <v>0.0603545</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0551852</v>
+        <v>0.055547</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0561803</v>
+        <v>0.0541611</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0596558</v>
+        <v>0.0605561</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0558247</v>
+        <v>0.0569784</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0553969</v>
+        <v>0.0533865</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0609012</v>
+        <v>0.0607454</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0570132</v>
+        <v>0.0570136</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0558634</v>
+        <v>0.054077</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0613877</v>
+        <v>0.0612034</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05652</v>
+        <v>0.0569133</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0555963</v>
+        <v>0.0542701</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0635498</v>
+        <v>0.0615489</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0597032</v>
+        <v>0.0593179</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0563964</v>
+        <v>0.0554748</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.06334869999999999</v>
+        <v>0.0615996</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0618748</v>
+        <v>0.0611112</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0571382</v>
+        <v>0.0563347</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0640136</v>
+        <v>0.06603290000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06306440000000001</v>
+        <v>0.0648278</v>
       </c>
       <c r="D16" t="n">
-        <v>0.060675</v>
+        <v>0.0580037</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0683991</v>
+        <v>0.06749380000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0666537</v>
+        <v>0.0680326</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0618394</v>
+        <v>0.0625901</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0718713</v>
+        <v>0.068454</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0716832</v>
+        <v>0.073561</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0678922</v>
+        <v>0.0658985</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07759439999999999</v>
+        <v>0.0748178</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0802129</v>
+        <v>0.07948909999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0746153</v>
+        <v>0.0734505</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0866691</v>
+        <v>0.0836047</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0923152</v>
+        <v>0.0888774</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0830137</v>
+        <v>0.0853438</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.09896480000000001</v>
+        <v>0.09784859999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.103204</v>
+        <v>0.101843</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0954779</v>
+        <v>0.0957509</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.127478</v>
+        <v>0.118552</v>
       </c>
       <c r="C22" t="n">
-        <v>0.133216</v>
+        <v>0.132642</v>
       </c>
       <c r="D22" t="n">
-        <v>0.118527</v>
+        <v>0.12523</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.163647</v>
+        <v>0.144822</v>
       </c>
       <c r="C23" t="n">
-        <v>0.171932</v>
+        <v>0.171729</v>
       </c>
       <c r="D23" t="n">
-        <v>0.05649</v>
+        <v>0.0548599</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0636308</v>
+        <v>0.06370969999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0571109</v>
+        <v>0.059327</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0583621</v>
+        <v>0.057212</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.06335590000000001</v>
+        <v>0.06483269999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0578998</v>
+        <v>0.0574639</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0572876</v>
+        <v>0.0557282</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0654785</v>
+        <v>0.0650662</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0603257</v>
+        <v>0.059633</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0581163</v>
+        <v>0.0553642</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.065834</v>
+        <v>0.0645694</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0610939</v>
+        <v>0.0606182</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0579035</v>
+        <v>0.057394</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0667194</v>
+        <v>0.0651948</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0606388</v>
+        <v>0.0625376</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0581381</v>
+        <v>0.0583406</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0659671</v>
+        <v>0.0677517</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0631313</v>
+        <v>0.0629962</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0607501</v>
+        <v>0.0601334</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0688732</v>
+        <v>0.0677137</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0641864</v>
+        <v>0.0661928</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0616063</v>
+        <v>0.06131</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.07171569999999999</v>
+        <v>0.0712575</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0672297</v>
+        <v>0.0668165</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0659874</v>
+        <v>0.0642354</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.07424939999999999</v>
+        <v>0.0751501</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0758423</v>
+        <v>0.07148549999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0692323</v>
+        <v>0.0687725</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0805336</v>
+        <v>0.078961</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0795989</v>
+        <v>0.0792679</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0789165</v>
+        <v>0.0753833</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08797480000000001</v>
+        <v>0.0882372</v>
       </c>
       <c r="C34" t="n">
-        <v>0.08952110000000001</v>
+        <v>0.09075859999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0870808</v>
+        <v>0.0865262</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.102433</v>
+        <v>0.0964405</v>
       </c>
       <c r="C35" t="n">
-        <v>0.10709</v>
+        <v>0.106487</v>
       </c>
       <c r="D35" t="n">
-        <v>0.098938</v>
+        <v>0.100957</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.117084</v>
+        <v>0.118324</v>
       </c>
       <c r="C36" t="n">
-        <v>0.131221</v>
+        <v>0.130375</v>
       </c>
       <c r="D36" t="n">
-        <v>0.125343</v>
+        <v>0.120847</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.148298</v>
+        <v>0.143425</v>
       </c>
       <c r="C37" t="n">
-        <v>0.166797</v>
+        <v>0.163939</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0598214</v>
+        <v>0.0591327</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0668233</v>
+        <v>0.069442</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0603372</v>
+        <v>0.0620694</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0592675</v>
+        <v>0.060045</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0706485</v>
+        <v>0.069204</v>
       </c>
       <c r="C39" t="n">
-        <v>0.06276039999999999</v>
+        <v>0.0643772</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0604167</v>
+        <v>0.0607543</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.06943630000000001</v>
+        <v>0.0707725</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0654593</v>
+        <v>0.0643451</v>
       </c>
       <c r="D40" t="n">
-        <v>0.06300210000000001</v>
+        <v>0.0597086</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0712637</v>
+        <v>0.07087839999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0659974</v>
+        <v>0.0636211</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0633375</v>
+        <v>0.0606561</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.06966029999999999</v>
+        <v>0.0747623</v>
       </c>
       <c r="C42" t="n">
-        <v>0.06599919999999999</v>
+        <v>0.0663195</v>
       </c>
       <c r="D42" t="n">
-        <v>0.063647</v>
+        <v>0.0640252</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0722599</v>
+        <v>0.0725532</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0667413</v>
+        <v>0.06677569999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0645178</v>
+        <v>0.0636655</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.07563839999999999</v>
+        <v>0.0760392</v>
       </c>
       <c r="C44" t="n">
-        <v>0.069601</v>
+        <v>0.06881089999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.06480950000000001</v>
+        <v>0.0652272</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0799941</v>
+        <v>0.0803702</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07149850000000001</v>
+        <v>0.07372919999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0705794</v>
+        <v>0.0698734</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.07848090000000001</v>
+        <v>0.079351</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0752432</v>
+        <v>0.0782347</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0713931</v>
+        <v>0.07199800000000001</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0870008</v>
+        <v>0.08399470000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0816342</v>
+        <v>0.0818228</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0783895</v>
+        <v>0.0802133</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0915903</v>
+        <v>0.0911964</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0946427</v>
+        <v>0.0925031</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0859338</v>
+        <v>0.08479680000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.102514</v>
+        <v>0.102852</v>
       </c>
       <c r="C49" t="n">
-        <v>0.105063</v>
+        <v>0.102327</v>
       </c>
       <c r="D49" t="n">
-        <v>0.098084</v>
+        <v>0.0990441</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.116515</v>
+        <v>0.117111</v>
       </c>
       <c r="C50" t="n">
-        <v>0.122226</v>
+        <v>0.12598</v>
       </c>
       <c r="D50" t="n">
-        <v>0.118637</v>
+        <v>0.118861</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.146393</v>
+        <v>0.150777</v>
       </c>
       <c r="C51" t="n">
-        <v>0.152834</v>
+        <v>0.152784</v>
       </c>
       <c r="D51" t="n">
-        <v>0.06524870000000001</v>
+        <v>0.0649227</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.191381</v>
+        <v>0.187322</v>
       </c>
       <c r="C52" t="n">
-        <v>0.205133</v>
+        <v>0.206967</v>
       </c>
       <c r="D52" t="n">
-        <v>0.06721580000000001</v>
+        <v>0.0660611</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0798864</v>
+        <v>0.0797892</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0721372</v>
+        <v>0.07050480000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0660707</v>
+        <v>0.0663363</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.08429399999999999</v>
+        <v>0.0843686</v>
       </c>
       <c r="C54" t="n">
-        <v>0.075208</v>
+        <v>0.0732226</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0677118</v>
+        <v>0.06584859999999999</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0844369</v>
+        <v>0.0811983</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0745647</v>
+        <v>0.0723478</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0684094</v>
+        <v>0.06650739999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0832234</v>
+        <v>0.084175</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0769875</v>
+        <v>0.0776974</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0704496</v>
+        <v>0.06647930000000001</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.08487980000000001</v>
+        <v>0.0838841</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0776384</v>
+        <v>0.0778335</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0708433</v>
+        <v>0.0691387</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.08677360000000001</v>
+        <v>0.0880155</v>
       </c>
       <c r="C58" t="n">
-        <v>0.08041810000000001</v>
+        <v>0.0797774</v>
       </c>
       <c r="D58" t="n">
-        <v>0.07498440000000001</v>
+        <v>0.07077360000000001</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.09178119999999999</v>
+        <v>0.0897939</v>
       </c>
       <c r="C59" t="n">
-        <v>0.08881940000000001</v>
+        <v>0.0852757</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0767219</v>
+        <v>0.07413500000000001</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0937571</v>
+        <v>0.09541669999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.08916200000000001</v>
+        <v>0.08583300000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.081264</v>
+        <v>0.0778884</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0979592</v>
+        <v>0.09809950000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.09546209999999999</v>
+        <v>0.0931186</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0854409</v>
+        <v>0.0846147</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.107312</v>
+        <v>0.103299</v>
       </c>
       <c r="C62" t="n">
-        <v>0.102154</v>
+        <v>0.101731</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0919172</v>
+        <v>0.0900165</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.113102</v>
+        <v>0.112539</v>
       </c>
       <c r="C63" t="n">
-        <v>0.121594</v>
+        <v>0.114859</v>
       </c>
       <c r="D63" t="n">
-        <v>0.110257</v>
+        <v>0.102449</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.132106</v>
+        <v>0.129456</v>
       </c>
       <c r="C64" t="n">
-        <v>0.134754</v>
+        <v>0.133359</v>
       </c>
       <c r="D64" t="n">
-        <v>0.121785</v>
+        <v>0.123476</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.160213</v>
+        <v>0.155061</v>
       </c>
       <c r="C65" t="n">
-        <v>0.16302</v>
+        <v>0.166893</v>
       </c>
       <c r="D65" t="n">
-        <v>0.150556</v>
+        <v>0.14959</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.20293</v>
+        <v>0.201279</v>
       </c>
       <c r="C66" t="n">
-        <v>0.213053</v>
+        <v>0.21469</v>
       </c>
       <c r="D66" t="n">
-        <v>0.07186439999999999</v>
+        <v>0.06935479999999999</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0915127</v>
+        <v>0.09199069999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0788464</v>
+        <v>0.0790768</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0729422</v>
+        <v>0.0694385</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0946403</v>
+        <v>0.0955873</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0831023</v>
+        <v>0.0829366</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0737532</v>
+        <v>0.07065150000000001</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0960178</v>
+        <v>0.0944803</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0865498</v>
+        <v>0.0865595</v>
       </c>
       <c r="D69" t="n">
-        <v>0.07604229999999999</v>
+        <v>0.0733905</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0990205</v>
+        <v>0.09470919999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0873313</v>
+        <v>0.0863408</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0757939</v>
+        <v>0.074443</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0993648</v>
+        <v>0.09650830000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0888523</v>
+        <v>0.0903317</v>
       </c>
       <c r="D71" t="n">
-        <v>0.078498</v>
+        <v>0.0767632</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.09934999999999999</v>
+        <v>0.103641</v>
       </c>
       <c r="C72" t="n">
-        <v>0.08927309999999999</v>
+        <v>0.0904794</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0804933</v>
+        <v>0.0792871</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.106595</v>
+        <v>0.105129</v>
       </c>
       <c r="C73" t="n">
-        <v>0.09866949999999999</v>
+        <v>0.096965</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0914219</v>
+        <v>0.0820843</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.10842</v>
+        <v>0.108904</v>
       </c>
       <c r="C74" t="n">
-        <v>0.10375</v>
+        <v>0.104419</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0868231</v>
+        <v>0.0877044</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.114915</v>
+        <v>0.113043</v>
       </c>
       <c r="C75" t="n">
-        <v>0.10998</v>
+        <v>0.107854</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0942221</v>
+        <v>0.0934778</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.124501</v>
+        <v>0.125324</v>
       </c>
       <c r="C76" t="n">
-        <v>0.11853</v>
+        <v>0.115261</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0995576</v>
+        <v>0.101486</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.136131</v>
+        <v>0.135974</v>
       </c>
       <c r="C77" t="n">
-        <v>0.133082</v>
+        <v>0.131105</v>
       </c>
       <c r="D77" t="n">
-        <v>0.116472</v>
+        <v>0.112898</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.149555</v>
+        <v>0.149862</v>
       </c>
       <c r="C78" t="n">
-        <v>0.153146</v>
+        <v>0.148822</v>
       </c>
       <c r="D78" t="n">
-        <v>0.130746</v>
+        <v>0.131944</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.175053</v>
+        <v>0.179106</v>
       </c>
       <c r="C79" t="n">
-        <v>0.185453</v>
+        <v>0.178854</v>
       </c>
       <c r="D79" t="n">
-        <v>0.158451</v>
+        <v>0.158432</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.21966</v>
+        <v>0.224951</v>
       </c>
       <c r="C80" t="n">
-        <v>0.227363</v>
+        <v>0.233068</v>
       </c>
       <c r="D80" t="n">
-        <v>0.08011740000000001</v>
+        <v>0.0763249</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.10585</v>
+        <v>0.107901</v>
       </c>
       <c r="C81" t="n">
-        <v>0.097668</v>
+        <v>0.0950587</v>
       </c>
       <c r="D81" t="n">
-        <v>0.07960059999999999</v>
+        <v>0.0782349</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.108666</v>
+        <v>0.110241</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0990115</v>
+        <v>0.0956055</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0823637</v>
+        <v>0.0799644</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.108345</v>
+        <v>0.114397</v>
       </c>
       <c r="C83" t="n">
-        <v>0.09952370000000001</v>
+        <v>0.0994622</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0825588</v>
+        <v>0.0822642</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.113697</v>
+        <v>0.118834</v>
       </c>
       <c r="C84" t="n">
-        <v>0.103136</v>
+        <v>0.102952</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0862431</v>
+        <v>0.0842049</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.119401</v>
+        <v>0.120311</v>
       </c>
       <c r="C85" t="n">
-        <v>0.107966</v>
+        <v>0.105339</v>
       </c>
       <c r="D85" t="n">
-        <v>0.08980680000000001</v>
+        <v>0.0876552</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.127159</v>
+        <v>0.118922</v>
       </c>
       <c r="C86" t="n">
-        <v>0.111423</v>
+        <v>0.110476</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0932877</v>
+        <v>0.0910393</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.132824</v>
+        <v>0.124358</v>
       </c>
       <c r="C87" t="n">
-        <v>0.121782</v>
+        <v>0.117689</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0950196</v>
+        <v>0.09231930000000001</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.135389</v>
+        <v>0.131953</v>
       </c>
       <c r="C88" t="n">
-        <v>0.120638</v>
+        <v>0.120572</v>
       </c>
       <c r="D88" t="n">
-        <v>0.09942670000000001</v>
+        <v>0.0978731</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.138346</v>
+        <v>0.140445</v>
       </c>
       <c r="C89" t="n">
-        <v>0.130616</v>
+        <v>0.13031</v>
       </c>
       <c r="D89" t="n">
-        <v>0.105464</v>
+        <v>0.106813</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.148339</v>
+        <v>0.144835</v>
       </c>
       <c r="C90" t="n">
-        <v>0.139438</v>
+        <v>0.144341</v>
       </c>
       <c r="D90" t="n">
-        <v>0.113296</v>
+        <v>0.114224</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.160026</v>
+        <v>0.163772</v>
       </c>
       <c r="C91" t="n">
-        <v>0.158337</v>
+        <v>0.151985</v>
       </c>
       <c r="D91" t="n">
-        <v>0.123835</v>
+        <v>0.12514</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.176154</v>
+        <v>0.1754</v>
       </c>
       <c r="C92" t="n">
-        <v>0.177281</v>
+        <v>0.17251</v>
       </c>
       <c r="D92" t="n">
-        <v>0.146126</v>
+        <v>0.142036</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.203569</v>
+        <v>0.20246</v>
       </c>
       <c r="C93" t="n">
-        <v>0.204528</v>
+        <v>0.205712</v>
       </c>
       <c r="D93" t="n">
-        <v>0.172246</v>
+        <v>0.165232</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.245399</v>
+        <v>0.244036</v>
       </c>
       <c r="C94" t="n">
-        <v>0.256148</v>
+        <v>0.262464</v>
       </c>
       <c r="D94" t="n">
-        <v>0.100734</v>
+        <v>0.0992886</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.136764</v>
+        <v>0.135534</v>
       </c>
       <c r="C95" t="n">
-        <v>0.12682</v>
+        <v>0.12457</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0998358</v>
+        <v>0.09718209999999999</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.143522</v>
+        <v>0.140559</v>
       </c>
       <c r="C96" t="n">
-        <v>0.125949</v>
+        <v>0.126509</v>
       </c>
       <c r="D96" t="n">
-        <v>0.10133</v>
+        <v>0.102182</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.142966</v>
+        <v>0.146115</v>
       </c>
       <c r="C97" t="n">
-        <v>0.128963</v>
+        <v>0.129092</v>
       </c>
       <c r="D97" t="n">
-        <v>0.104051</v>
+        <v>0.104685</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.146882</v>
+        <v>0.145428</v>
       </c>
       <c r="C98" t="n">
-        <v>0.133245</v>
+        <v>0.130223</v>
       </c>
       <c r="D98" t="n">
-        <v>0.108349</v>
+        <v>0.103918</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.152196</v>
+        <v>0.144937</v>
       </c>
       <c r="C99" t="n">
-        <v>0.137433</v>
+        <v>0.139274</v>
       </c>
       <c r="D99" t="n">
-        <v>0.109407</v>
+        <v>0.105157</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.157385</v>
+        <v>0.154956</v>
       </c>
       <c r="C100" t="n">
-        <v>0.140403</v>
+        <v>0.13905</v>
       </c>
       <c r="D100" t="n">
-        <v>0.112936</v>
+        <v>0.111687</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.160132</v>
+        <v>0.15901</v>
       </c>
       <c r="C101" t="n">
-        <v>0.144451</v>
+        <v>0.147196</v>
       </c>
       <c r="D101" t="n">
-        <v>0.117122</v>
+        <v>0.112529</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.168826</v>
+        <v>0.163653</v>
       </c>
       <c r="C102" t="n">
-        <v>0.156196</v>
+        <v>0.155941</v>
       </c>
       <c r="D102" t="n">
-        <v>0.123813</v>
+        <v>0.122077</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.171619</v>
+        <v>0.171485</v>
       </c>
       <c r="C103" t="n">
-        <v>0.160708</v>
+        <v>0.157993</v>
       </c>
       <c r="D103" t="n">
-        <v>0.127603</v>
+        <v>0.129578</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.179806</v>
+        <v>0.181144</v>
       </c>
       <c r="C104" t="n">
-        <v>0.172864</v>
+        <v>0.175492</v>
       </c>
       <c r="D104" t="n">
-        <v>0.135971</v>
+        <v>0.134975</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.189298</v>
+        <v>0.194028</v>
       </c>
       <c r="C105" t="n">
-        <v>0.189626</v>
+        <v>0.186528</v>
       </c>
       <c r="D105" t="n">
-        <v>0.144467</v>
+        <v>0.146027</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.210295</v>
+        <v>0.206172</v>
       </c>
       <c r="C106" t="n">
-        <v>0.207353</v>
+        <v>0.218118</v>
       </c>
       <c r="D106" t="n">
-        <v>0.167528</v>
+        <v>0.163388</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.237105</v>
+        <v>0.23438</v>
       </c>
       <c r="C107" t="n">
-        <v>0.237975</v>
+        <v>0.244232</v>
       </c>
       <c r="D107" t="n">
-        <v>0.186664</v>
+        <v>0.186313</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.270705</v>
+        <v>0.269351</v>
       </c>
       <c r="C108" t="n">
-        <v>0.291981</v>
+        <v>0.280706</v>
       </c>
       <c r="D108" t="n">
-        <v>0.173688</v>
+        <v>0.174775</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.343664</v>
+        <v>0.356887</v>
       </c>
       <c r="C109" t="n">
-        <v>0.374979</v>
+        <v>0.373735</v>
       </c>
       <c r="D109" t="n">
-        <v>0.182973</v>
+        <v>0.171724</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.240628</v>
+        <v>0.230407</v>
       </c>
       <c r="C110" t="n">
-        <v>0.205115</v>
+        <v>0.201272</v>
       </c>
       <c r="D110" t="n">
-        <v>0.184968</v>
+        <v>0.191685</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.22765</v>
+        <v>0.231622</v>
       </c>
       <c r="C111" t="n">
-        <v>0.210195</v>
+        <v>0.208285</v>
       </c>
       <c r="D111" t="n">
-        <v>0.180226</v>
+        <v>0.178231</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.231274</v>
+        <v>0.244841</v>
       </c>
       <c r="C112" t="n">
-        <v>0.214889</v>
+        <v>0.214945</v>
       </c>
       <c r="D112" t="n">
-        <v>0.185519</v>
+        <v>0.180296</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.242057</v>
+        <v>0.249744</v>
       </c>
       <c r="C113" t="n">
-        <v>0.216717</v>
+        <v>0.218353</v>
       </c>
       <c r="D113" t="n">
-        <v>0.195242</v>
+        <v>0.183311</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.247064</v>
+        <v>0.239913</v>
       </c>
       <c r="C114" t="n">
-        <v>0.219763</v>
+        <v>0.22458</v>
       </c>
       <c r="D114" t="n">
-        <v>0.192586</v>
+        <v>0.187269</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.247447</v>
+        <v>0.250845</v>
       </c>
       <c r="C115" t="n">
-        <v>0.223561</v>
+        <v>0.223027</v>
       </c>
       <c r="D115" t="n">
-        <v>0.196295</v>
+        <v>0.195184</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.269163</v>
+        <v>0.254987</v>
       </c>
       <c r="C116" t="n">
-        <v>0.254383</v>
+        <v>0.230104</v>
       </c>
       <c r="D116" t="n">
-        <v>0.210665</v>
+        <v>0.197443</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.266048</v>
+        <v>0.252648</v>
       </c>
       <c r="C117" t="n">
-        <v>0.243023</v>
+        <v>0.242926</v>
       </c>
       <c r="D117" t="n">
-        <v>0.202943</v>
+        <v>0.201975</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.272101</v>
+        <v>0.268064</v>
       </c>
       <c r="C118" t="n">
-        <v>0.24904</v>
+        <v>0.250073</v>
       </c>
       <c r="D118" t="n">
-        <v>0.211073</v>
+        <v>0.213164</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.281514</v>
+        <v>0.27773</v>
       </c>
       <c r="C119" t="n">
-        <v>0.269205</v>
+        <v>0.264542</v>
       </c>
       <c r="D119" t="n">
-        <v>0.221386</v>
+        <v>0.224132</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.305814</v>
+        <v>0.29557</v>
       </c>
       <c r="C120" t="n">
-        <v>0.28888</v>
+        <v>0.287227</v>
       </c>
       <c r="D120" t="n">
-        <v>0.245355</v>
+        <v>0.228442</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.339253</v>
+        <v>0.330742</v>
       </c>
       <c r="C121" t="n">
-        <v>0.327589</v>
+        <v>0.316357</v>
       </c>
       <c r="D121" t="n">
-        <v>0.26871</v>
+        <v>0.256793</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.370718</v>
+        <v>0.372487</v>
       </c>
       <c r="C122" t="n">
-        <v>0.370126</v>
+        <v>0.376233</v>
       </c>
       <c r="D122" t="n">
-        <v>0.300577</v>
+        <v>0.31055</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.438687</v>
+        <v>0.435898</v>
       </c>
       <c r="C123" t="n">
-        <v>0.45282</v>
+        <v>0.446285</v>
       </c>
       <c r="D123" t="n">
-        <v>0.295721</v>
+        <v>0.275884</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.360285</v>
+        <v>0.367545</v>
       </c>
       <c r="C124" t="n">
-        <v>0.323474</v>
+        <v>0.322524</v>
       </c>
       <c r="D124" t="n">
-        <v>0.28659</v>
+        <v>0.282816</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.367149</v>
+        <v>0.366614</v>
       </c>
       <c r="C125" t="n">
-        <v>0.332303</v>
+        <v>0.315966</v>
       </c>
       <c r="D125" t="n">
-        <v>0.286975</v>
+        <v>0.288182</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.370306</v>
+        <v>0.369049</v>
       </c>
       <c r="C126" t="n">
-        <v>0.327548</v>
+        <v>0.323201</v>
       </c>
       <c r="D126" t="n">
-        <v>0.295743</v>
+        <v>0.290455</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.383159</v>
+        <v>0.373775</v>
       </c>
       <c r="C127" t="n">
-        <v>0.337304</v>
+        <v>0.331744</v>
       </c>
       <c r="D127" t="n">
-        <v>0.297299</v>
+        <v>0.297864</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.38354</v>
+        <v>0.377447</v>
       </c>
       <c r="C128" t="n">
-        <v>0.340252</v>
+        <v>0.340093</v>
       </c>
       <c r="D128" t="n">
-        <v>0.299298</v>
+        <v>0.286663</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.398079</v>
+        <v>0.376238</v>
       </c>
       <c r="C129" t="n">
-        <v>0.342387</v>
+        <v>0.330115</v>
       </c>
       <c r="D129" t="n">
-        <v>0.299186</v>
+        <v>0.284452</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.405065</v>
+        <v>0.396952</v>
       </c>
       <c r="C130" t="n">
-        <v>0.353118</v>
+        <v>0.348927</v>
       </c>
       <c r="D130" t="n">
-        <v>0.30722</v>
+        <v>0.306139</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.406958</v>
+        <v>0.383952</v>
       </c>
       <c r="C131" t="n">
-        <v>0.361046</v>
+        <v>0.360035</v>
       </c>
       <c r="D131" t="n">
-        <v>0.31934</v>
+        <v>0.309046</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.418694</v>
+        <v>0.414194</v>
       </c>
       <c r="C132" t="n">
-        <v>0.370045</v>
+        <v>0.351549</v>
       </c>
       <c r="D132" t="n">
-        <v>0.323097</v>
+        <v>0.302211</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.431076</v>
+        <v>0.424103</v>
       </c>
       <c r="C133" t="n">
-        <v>0.385723</v>
+        <v>0.369716</v>
       </c>
       <c r="D133" t="n">
-        <v>0.339816</v>
+        <v>0.331689</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.452629</v>
+        <v>0.455947</v>
       </c>
       <c r="C134" t="n">
-        <v>0.40731</v>
+        <v>0.412549</v>
       </c>
       <c r="D134" t="n">
-        <v>0.349777</v>
+        <v>0.336929</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.493171</v>
+        <v>0.461892</v>
       </c>
       <c r="C135" t="n">
-        <v>0.446948</v>
+        <v>0.437248</v>
       </c>
       <c r="D135" t="n">
-        <v>0.369546</v>
+        <v>0.379566</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.539149</v>
+        <v>0.523487</v>
       </c>
       <c r="C136" t="n">
-        <v>0.490332</v>
+        <v>0.491807</v>
       </c>
       <c r="D136" t="n">
-        <v>0.434698</v>
+        <v>0.400538</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6225000000000001</v>
+        <v>0.599402</v>
       </c>
       <c r="C137" t="n">
-        <v>0.594153</v>
+        <v>0.577359</v>
       </c>
       <c r="D137" t="n">
-        <v>0.352087</v>
+        <v>0.334035</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.453414</v>
+        <v>0.436585</v>
       </c>
       <c r="C138" t="n">
-        <v>0.382529</v>
+        <v>0.361631</v>
       </c>
       <c r="D138" t="n">
-        <v>0.35325</v>
+        <v>0.33346</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.451845</v>
+        <v>0.439101</v>
       </c>
       <c r="C139" t="n">
-        <v>0.3821</v>
+        <v>0.36997</v>
       </c>
       <c r="D139" t="n">
-        <v>0.345956</v>
+        <v>0.330237</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.462323</v>
+        <v>0.436522</v>
       </c>
       <c r="C140" t="n">
-        <v>0.391582</v>
+        <v>0.36474</v>
       </c>
       <c r="D140" t="n">
-        <v>0.356526</v>
+        <v>0.333789</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.459763</v>
+        <v>0.445942</v>
       </c>
       <c r="C141" t="n">
-        <v>0.380733</v>
+        <v>0.38258</v>
       </c>
       <c r="D141" t="n">
-        <v>0.34174</v>
+        <v>0.354992</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.456693</v>
+        <v>0.45217</v>
       </c>
       <c r="C142" t="n">
-        <v>0.396259</v>
+        <v>0.389965</v>
       </c>
       <c r="D142" t="n">
-        <v>0.362794</v>
+        <v>0.370283</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.478225</v>
+        <v>0.451868</v>
       </c>
       <c r="C143" t="n">
-        <v>0.416823</v>
+        <v>0.391134</v>
       </c>
       <c r="D143" t="n">
-        <v>0.365724</v>
+        <v>0.353973</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0606023</v>
+        <v>0.0600567</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0609749</v>
+        <v>0.063038</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05467</v>
+        <v>0.0553478</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0616801</v>
+        <v>0.0605881</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0642981</v>
+        <v>0.0636304</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0577374</v>
+        <v>0.0586488</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06562419999999999</v>
+        <v>0.0646666</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0674921</v>
+        <v>0.0694203</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0623551</v>
+        <v>0.0605159</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0732348</v>
+        <v>0.0705016</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0792064</v>
+        <v>0.07457370000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0671192</v>
+        <v>0.0673971</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.08190939999999999</v>
+        <v>0.0808416</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08712689999999999</v>
+        <v>0.0876731</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07537339999999999</v>
+        <v>0.07433629999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09608079999999999</v>
+        <v>0.0975777</v>
       </c>
       <c r="C7" t="n">
-        <v>0.10156</v>
+        <v>0.10025</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0922953</v>
+        <v>0.0937158</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.114204</v>
+        <v>0.126374</v>
       </c>
       <c r="C8" t="n">
-        <v>0.132216</v>
+        <v>0.130906</v>
       </c>
       <c r="D8" t="n">
-        <v>0.116839</v>
+        <v>0.115429</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148451</v>
+        <v>0.159819</v>
       </c>
       <c r="C9" t="n">
-        <v>0.164145</v>
+        <v>0.164373</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0535376</v>
+        <v>0.0527531</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0603545</v>
+        <v>0.0586637</v>
       </c>
       <c r="C10" t="n">
-        <v>0.055547</v>
+        <v>0.0553815</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0541611</v>
+        <v>0.0532307</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0605561</v>
+        <v>0.0589556</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0569784</v>
+        <v>0.0572852</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0533865</v>
+        <v>0.0527895</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0607454</v>
+        <v>0.0604221</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0570136</v>
+        <v>0.0579975</v>
       </c>
       <c r="D12" t="n">
-        <v>0.054077</v>
+        <v>0.0560528</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0612034</v>
+        <v>0.0600088</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0569133</v>
+        <v>0.0582482</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0542701</v>
+        <v>0.0567037</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0615489</v>
+        <v>0.0614321</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0593179</v>
+        <v>0.0597956</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0554748</v>
+        <v>0.0592843</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0615996</v>
+        <v>0.0629787</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0611112</v>
+        <v>0.0600829</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0563347</v>
+        <v>0.0559366</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.06603290000000001</v>
+        <v>0.0638243</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0648278</v>
+        <v>0.0638963</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0580037</v>
+        <v>0.0598519</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06749380000000001</v>
+        <v>0.06568069999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0680326</v>
+        <v>0.0668256</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0625901</v>
+        <v>0.0611682</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.068454</v>
+        <v>0.07315240000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.073561</v>
+        <v>0.0771379</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0658985</v>
+        <v>0.0689085</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0748178</v>
+        <v>0.0769301</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07948909999999999</v>
+        <v>0.0784337</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0734505</v>
+        <v>0.07401439999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0836047</v>
+        <v>0.0858226</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0888774</v>
+        <v>0.0892741</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0853438</v>
+        <v>0.08345710000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.09784859999999999</v>
+        <v>0.100276</v>
       </c>
       <c r="C21" t="n">
-        <v>0.101843</v>
+        <v>0.104585</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0957509</v>
+        <v>0.0962422</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.118552</v>
+        <v>0.120932</v>
       </c>
       <c r="C22" t="n">
-        <v>0.132642</v>
+        <v>0.13302</v>
       </c>
       <c r="D22" t="n">
-        <v>0.12523</v>
+        <v>0.12433</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.144822</v>
+        <v>0.154783</v>
       </c>
       <c r="C23" t="n">
-        <v>0.171729</v>
+        <v>0.174054</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0548599</v>
+        <v>0.0566777</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06370969999999999</v>
+        <v>0.0641444</v>
       </c>
       <c r="C24" t="n">
-        <v>0.059327</v>
+        <v>0.0587218</v>
       </c>
       <c r="D24" t="n">
-        <v>0.057212</v>
+        <v>0.0567048</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.06483269999999999</v>
+        <v>0.06505560000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0574639</v>
+        <v>0.0582713</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0557282</v>
+        <v>0.0558669</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0650662</v>
+        <v>0.0625716</v>
       </c>
       <c r="C26" t="n">
-        <v>0.059633</v>
+        <v>0.060574</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0553642</v>
+        <v>0.0566727</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0645694</v>
+        <v>0.06398280000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0606182</v>
+        <v>0.0610263</v>
       </c>
       <c r="D27" t="n">
-        <v>0.057394</v>
+        <v>0.0569224</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0651948</v>
+        <v>0.06404269999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0625376</v>
+        <v>0.0618261</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0583406</v>
+        <v>0.0599139</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0677517</v>
+        <v>0.0659082</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0629962</v>
+        <v>0.0622659</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0601334</v>
+        <v>0.0592115</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0677137</v>
+        <v>0.072433</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0661928</v>
+        <v>0.0646487</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06131</v>
+        <v>0.06522890000000001</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0712575</v>
+        <v>0.07002899999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0668165</v>
+        <v>0.0676441</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0642354</v>
+        <v>0.063787</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0751501</v>
+        <v>0.07524260000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07148549999999999</v>
+        <v>0.07246130000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0687725</v>
+        <v>0.06963569999999999</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.078961</v>
+        <v>0.08338520000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0792679</v>
+        <v>0.0813638</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0753833</v>
+        <v>0.07711270000000001</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0882372</v>
+        <v>0.0860699</v>
       </c>
       <c r="C34" t="n">
-        <v>0.09075859999999999</v>
+        <v>0.0956383</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0865262</v>
+        <v>0.08744109999999999</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0964405</v>
+        <v>0.100416</v>
       </c>
       <c r="C35" t="n">
-        <v>0.106487</v>
+        <v>0.106823</v>
       </c>
       <c r="D35" t="n">
-        <v>0.100957</v>
+        <v>0.104419</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.118324</v>
+        <v>0.116549</v>
       </c>
       <c r="C36" t="n">
-        <v>0.130375</v>
+        <v>0.132127</v>
       </c>
       <c r="D36" t="n">
-        <v>0.120847</v>
+        <v>0.126128</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.143425</v>
+        <v>0.143956</v>
       </c>
       <c r="C37" t="n">
-        <v>0.163939</v>
+        <v>0.167814</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0591327</v>
+        <v>0.0586336</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.069442</v>
+        <v>0.0689669</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0620694</v>
+        <v>0.0634441</v>
       </c>
       <c r="D38" t="n">
-        <v>0.060045</v>
+        <v>0.0584932</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.069204</v>
+        <v>0.0699994</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0643772</v>
+        <v>0.06311799999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0607543</v>
+        <v>0.0591158</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0707725</v>
+        <v>0.0702327</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0643451</v>
+        <v>0.0644252</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0597086</v>
+        <v>0.0597914</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.07087839999999999</v>
+        <v>0.07107189999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0636211</v>
+        <v>0.06602089999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0606561</v>
+        <v>0.0604992</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0747623</v>
+        <v>0.07094930000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0663195</v>
+        <v>0.0654969</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0640252</v>
+        <v>0.0609663</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0725532</v>
+        <v>0.07234599999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.06677569999999999</v>
+        <v>0.0685784</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0636655</v>
+        <v>0.0625018</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0760392</v>
+        <v>0.0758693</v>
       </c>
       <c r="C44" t="n">
-        <v>0.06881089999999999</v>
+        <v>0.0690142</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0652272</v>
+        <v>0.0663682</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0803702</v>
+        <v>0.0764253</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07372919999999999</v>
+        <v>0.0724211</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0698734</v>
+        <v>0.06737070000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.079351</v>
+        <v>0.0796024</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0782347</v>
+        <v>0.07612679999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07199800000000001</v>
+        <v>0.0709451</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.08399470000000001</v>
+        <v>0.0826847</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0818228</v>
+        <v>0.08361590000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0802133</v>
+        <v>0.078836</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0911964</v>
+        <v>0.0934321</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0925031</v>
+        <v>0.09174</v>
       </c>
       <c r="D48" t="n">
-        <v>0.08479680000000001</v>
+        <v>0.08601930000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.102852</v>
+        <v>0.10496</v>
       </c>
       <c r="C49" t="n">
-        <v>0.102327</v>
+        <v>0.103301</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0990441</v>
+        <v>0.101376</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.117111</v>
+        <v>0.121468</v>
       </c>
       <c r="C50" t="n">
-        <v>0.12598</v>
+        <v>0.123789</v>
       </c>
       <c r="D50" t="n">
-        <v>0.118861</v>
+        <v>0.116264</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.150777</v>
+        <v>0.147728</v>
       </c>
       <c r="C51" t="n">
-        <v>0.152784</v>
+        <v>0.160822</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0649227</v>
+        <v>0.0649121</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.187322</v>
+        <v>0.185918</v>
       </c>
       <c r="C52" t="n">
-        <v>0.206967</v>
+        <v>0.199392</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0660611</v>
+        <v>0.06511939999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0797892</v>
+        <v>0.0802128</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07050480000000001</v>
+        <v>0.0709277</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0663363</v>
+        <v>0.0675558</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0843686</v>
+        <v>0.0802836</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0732226</v>
+        <v>0.0733557</v>
       </c>
       <c r="D54" t="n">
-        <v>0.06584859999999999</v>
+        <v>0.0658603</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0811983</v>
+        <v>0.0802402</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0723478</v>
+        <v>0.0747473</v>
       </c>
       <c r="D55" t="n">
-        <v>0.06650739999999999</v>
+        <v>0.0674999</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.084175</v>
+        <v>0.08363950000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0776974</v>
+        <v>0.0775077</v>
       </c>
       <c r="D56" t="n">
-        <v>0.06647930000000001</v>
+        <v>0.0687015</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0838841</v>
+        <v>0.0865498</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0778335</v>
+        <v>0.075957</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0691387</v>
+        <v>0.0703777</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0880155</v>
+        <v>0.0855292</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0797774</v>
+        <v>0.0825849</v>
       </c>
       <c r="D58" t="n">
-        <v>0.07077360000000001</v>
+        <v>0.0719856</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0897939</v>
+        <v>0.0886551</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0852757</v>
+        <v>0.0835997</v>
       </c>
       <c r="D59" t="n">
-        <v>0.07413500000000001</v>
+        <v>0.07585310000000001</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.09541669999999999</v>
+        <v>0.09362529999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.08583300000000001</v>
+        <v>0.0894493</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0778884</v>
+        <v>0.07783089999999999</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.09809950000000001</v>
+        <v>0.0990066</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0931186</v>
+        <v>0.09161560000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0846147</v>
+        <v>0.0829588</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.103299</v>
+        <v>0.103632</v>
       </c>
       <c r="C62" t="n">
-        <v>0.101731</v>
+        <v>0.105181</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0900165</v>
+        <v>0.09563869999999999</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.112539</v>
+        <v>0.114633</v>
       </c>
       <c r="C63" t="n">
-        <v>0.114859</v>
+        <v>0.115046</v>
       </c>
       <c r="D63" t="n">
-        <v>0.102449</v>
+        <v>0.106542</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.129456</v>
+        <v>0.128273</v>
       </c>
       <c r="C64" t="n">
-        <v>0.133359</v>
+        <v>0.135591</v>
       </c>
       <c r="D64" t="n">
-        <v>0.123476</v>
+        <v>0.122367</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.155061</v>
+        <v>0.151398</v>
       </c>
       <c r="C65" t="n">
-        <v>0.166893</v>
+        <v>0.166095</v>
       </c>
       <c r="D65" t="n">
-        <v>0.14959</v>
+        <v>0.156379</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.201279</v>
+        <v>0.194331</v>
       </c>
       <c r="C66" t="n">
-        <v>0.21469</v>
+        <v>0.213116</v>
       </c>
       <c r="D66" t="n">
-        <v>0.06935479999999999</v>
+        <v>0.0721082</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.09199069999999999</v>
+        <v>0.0921897</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0790768</v>
+        <v>0.0809267</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0694385</v>
+        <v>0.0704959</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0955873</v>
+        <v>0.0939388</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0829366</v>
+        <v>0.0829019</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07065150000000001</v>
+        <v>0.0749972</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0944803</v>
+        <v>0.0923918</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0865595</v>
+        <v>0.0831446</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0733905</v>
+        <v>0.07395939999999999</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.09470919999999999</v>
+        <v>0.100661</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0863408</v>
+        <v>0.0884654</v>
       </c>
       <c r="D70" t="n">
-        <v>0.074443</v>
+        <v>0.0763617</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.09650830000000001</v>
+        <v>0.0989042</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0903317</v>
+        <v>0.0886472</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0767632</v>
+        <v>0.07655430000000001</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.103641</v>
+        <v>0.101458</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0904794</v>
+        <v>0.094514</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0792871</v>
+        <v>0.07844130000000001</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.105129</v>
+        <v>0.104703</v>
       </c>
       <c r="C73" t="n">
-        <v>0.096965</v>
+        <v>0.0971442</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0820843</v>
+        <v>0.0825157</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.108904</v>
+        <v>0.108271</v>
       </c>
       <c r="C74" t="n">
-        <v>0.104419</v>
+        <v>0.103484</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0877044</v>
+        <v>0.0869989</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.113043</v>
+        <v>0.114484</v>
       </c>
       <c r="C75" t="n">
-        <v>0.107854</v>
+        <v>0.110808</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0934778</v>
+        <v>0.0933001</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.125324</v>
+        <v>0.1226</v>
       </c>
       <c r="C76" t="n">
-        <v>0.115261</v>
+        <v>0.117151</v>
       </c>
       <c r="D76" t="n">
-        <v>0.101486</v>
+        <v>0.101325</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.135974</v>
+        <v>0.135642</v>
       </c>
       <c r="C77" t="n">
-        <v>0.131105</v>
+        <v>0.13506</v>
       </c>
       <c r="D77" t="n">
-        <v>0.112898</v>
+        <v>0.111826</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.149862</v>
+        <v>0.155444</v>
       </c>
       <c r="C78" t="n">
-        <v>0.148822</v>
+        <v>0.152977</v>
       </c>
       <c r="D78" t="n">
-        <v>0.131944</v>
+        <v>0.129344</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179106</v>
+        <v>0.175991</v>
       </c>
       <c r="C79" t="n">
-        <v>0.178854</v>
+        <v>0.18456</v>
       </c>
       <c r="D79" t="n">
-        <v>0.158432</v>
+        <v>0.166723</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.224951</v>
+        <v>0.232856</v>
       </c>
       <c r="C80" t="n">
-        <v>0.233068</v>
+        <v>0.237393</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0763249</v>
+        <v>0.0793301</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.107901</v>
+        <v>0.108633</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0950587</v>
+        <v>0.0972276</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0782349</v>
+        <v>0.07881390000000001</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.110241</v>
+        <v>0.110269</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0956055</v>
+        <v>0.09646440000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0799644</v>
+        <v>0.0842183</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.114397</v>
+        <v>0.110634</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0994622</v>
+        <v>0.100555</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0822642</v>
+        <v>0.08179640000000001</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.118834</v>
+        <v>0.119183</v>
       </c>
       <c r="C84" t="n">
-        <v>0.102952</v>
+        <v>0.102968</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0842049</v>
+        <v>0.083234</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.120311</v>
+        <v>0.120534</v>
       </c>
       <c r="C85" t="n">
-        <v>0.105339</v>
+        <v>0.105728</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0876552</v>
+        <v>0.0897294</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.118922</v>
+        <v>0.121979</v>
       </c>
       <c r="C86" t="n">
-        <v>0.110476</v>
+        <v>0.112258</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0910393</v>
+        <v>0.0895943</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.124358</v>
+        <v>0.128216</v>
       </c>
       <c r="C87" t="n">
-        <v>0.117689</v>
+        <v>0.115073</v>
       </c>
       <c r="D87" t="n">
-        <v>0.09231930000000001</v>
+        <v>0.09531480000000001</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.131953</v>
+        <v>0.136077</v>
       </c>
       <c r="C88" t="n">
-        <v>0.120572</v>
+        <v>0.126915</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0978731</v>
+        <v>0.101631</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.140445</v>
+        <v>0.142498</v>
       </c>
       <c r="C89" t="n">
-        <v>0.13031</v>
+        <v>0.133779</v>
       </c>
       <c r="D89" t="n">
-        <v>0.106813</v>
+        <v>0.108697</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.144835</v>
+        <v>0.149932</v>
       </c>
       <c r="C90" t="n">
-        <v>0.144341</v>
+        <v>0.140111</v>
       </c>
       <c r="D90" t="n">
-        <v>0.114224</v>
+        <v>0.113983</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.163772</v>
+        <v>0.159264</v>
       </c>
       <c r="C91" t="n">
-        <v>0.151985</v>
+        <v>0.154308</v>
       </c>
       <c r="D91" t="n">
-        <v>0.12514</v>
+        <v>0.124718</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1754</v>
+        <v>0.176003</v>
       </c>
       <c r="C92" t="n">
-        <v>0.17251</v>
+        <v>0.178662</v>
       </c>
       <c r="D92" t="n">
-        <v>0.142036</v>
+        <v>0.142231</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.20246</v>
+        <v>0.19813</v>
       </c>
       <c r="C93" t="n">
-        <v>0.205712</v>
+        <v>0.203327</v>
       </c>
       <c r="D93" t="n">
-        <v>0.165232</v>
+        <v>0.166319</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.244036</v>
+        <v>0.241014</v>
       </c>
       <c r="C94" t="n">
-        <v>0.262464</v>
+        <v>0.25365</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0992886</v>
+        <v>0.100568</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.135534</v>
+        <v>0.136827</v>
       </c>
       <c r="C95" t="n">
-        <v>0.12457</v>
+        <v>0.123861</v>
       </c>
       <c r="D95" t="n">
-        <v>0.09718209999999999</v>
+        <v>0.100967</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.140559</v>
+        <v>0.14243</v>
       </c>
       <c r="C96" t="n">
-        <v>0.126509</v>
+        <v>0.127278</v>
       </c>
       <c r="D96" t="n">
-        <v>0.102182</v>
+        <v>0.102229</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.146115</v>
+        <v>0.147786</v>
       </c>
       <c r="C97" t="n">
-        <v>0.129092</v>
+        <v>0.130744</v>
       </c>
       <c r="D97" t="n">
-        <v>0.104685</v>
+        <v>0.104499</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.145428</v>
+        <v>0.14758</v>
       </c>
       <c r="C98" t="n">
-        <v>0.130223</v>
+        <v>0.132577</v>
       </c>
       <c r="D98" t="n">
-        <v>0.103918</v>
+        <v>0.105187</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.144937</v>
+        <v>0.15277</v>
       </c>
       <c r="C99" t="n">
-        <v>0.139274</v>
+        <v>0.139752</v>
       </c>
       <c r="D99" t="n">
-        <v>0.105157</v>
+        <v>0.112669</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.154956</v>
+        <v>0.152449</v>
       </c>
       <c r="C100" t="n">
-        <v>0.13905</v>
+        <v>0.137678</v>
       </c>
       <c r="D100" t="n">
-        <v>0.111687</v>
+        <v>0.110538</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.15901</v>
+        <v>0.161022</v>
       </c>
       <c r="C101" t="n">
-        <v>0.147196</v>
+        <v>0.151822</v>
       </c>
       <c r="D101" t="n">
-        <v>0.112529</v>
+        <v>0.114859</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.163653</v>
+        <v>0.164007</v>
       </c>
       <c r="C102" t="n">
-        <v>0.155941</v>
+        <v>0.151317</v>
       </c>
       <c r="D102" t="n">
-        <v>0.122077</v>
+        <v>0.119559</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.171485</v>
+        <v>0.168178</v>
       </c>
       <c r="C103" t="n">
-        <v>0.157993</v>
+        <v>0.159928</v>
       </c>
       <c r="D103" t="n">
-        <v>0.129578</v>
+        <v>0.126312</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.181144</v>
+        <v>0.176119</v>
       </c>
       <c r="C104" t="n">
-        <v>0.175492</v>
+        <v>0.171257</v>
       </c>
       <c r="D104" t="n">
-        <v>0.134975</v>
+        <v>0.134073</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.194028</v>
+        <v>0.190202</v>
       </c>
       <c r="C105" t="n">
-        <v>0.186528</v>
+        <v>0.186774</v>
       </c>
       <c r="D105" t="n">
-        <v>0.146027</v>
+        <v>0.14796</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.206172</v>
+        <v>0.20733</v>
       </c>
       <c r="C106" t="n">
-        <v>0.218118</v>
+        <v>0.211059</v>
       </c>
       <c r="D106" t="n">
-        <v>0.163388</v>
+        <v>0.164319</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
+        <v>0.240486</v>
+      </c>
+      <c r="C107" t="n">
         <v>0.23438</v>
       </c>
-      <c r="C107" t="n">
-        <v>0.244232</v>
-      </c>
       <c r="D107" t="n">
-        <v>0.186313</v>
+        <v>0.181318</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.269351</v>
+        <v>0.282368</v>
       </c>
       <c r="C108" t="n">
-        <v>0.280706</v>
+        <v>0.288075</v>
       </c>
       <c r="D108" t="n">
-        <v>0.174775</v>
+        <v>0.172795</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.356887</v>
+        <v>0.345718</v>
       </c>
       <c r="C109" t="n">
-        <v>0.373735</v>
+        <v>0.358794</v>
       </c>
       <c r="D109" t="n">
-        <v>0.171724</v>
+        <v>0.179318</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.230407</v>
+        <v>0.231289</v>
       </c>
       <c r="C110" t="n">
-        <v>0.201272</v>
+        <v>0.214468</v>
       </c>
       <c r="D110" t="n">
-        <v>0.191685</v>
+        <v>0.179957</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.231622</v>
+        <v>0.236697</v>
       </c>
       <c r="C111" t="n">
-        <v>0.208285</v>
+        <v>0.210654</v>
       </c>
       <c r="D111" t="n">
-        <v>0.178231</v>
+        <v>0.187538</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.244841</v>
+        <v>0.236046</v>
       </c>
       <c r="C112" t="n">
-        <v>0.214945</v>
+        <v>0.218249</v>
       </c>
       <c r="D112" t="n">
-        <v>0.180296</v>
+        <v>0.190159</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.249744</v>
+        <v>0.244525</v>
       </c>
       <c r="C113" t="n">
-        <v>0.218353</v>
+        <v>0.218436</v>
       </c>
       <c r="D113" t="n">
-        <v>0.183311</v>
+        <v>0.183049</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.239913</v>
+        <v>0.246691</v>
       </c>
       <c r="C114" t="n">
-        <v>0.22458</v>
+        <v>0.223496</v>
       </c>
       <c r="D114" t="n">
-        <v>0.187269</v>
+        <v>0.184459</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.250845</v>
+        <v>0.252193</v>
       </c>
       <c r="C115" t="n">
-        <v>0.223027</v>
+        <v>0.224375</v>
       </c>
       <c r="D115" t="n">
-        <v>0.195184</v>
+        <v>0.198938</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.254987</v>
+        <v>0.260472</v>
       </c>
       <c r="C116" t="n">
-        <v>0.230104</v>
+        <v>0.237301</v>
       </c>
       <c r="D116" t="n">
-        <v>0.197443</v>
+        <v>0.206088</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.252648</v>
+        <v>0.256269</v>
       </c>
       <c r="C117" t="n">
-        <v>0.242926</v>
+        <v>0.241717</v>
       </c>
       <c r="D117" t="n">
-        <v>0.201975</v>
+        <v>0.209662</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.268064</v>
+        <v>0.267923</v>
       </c>
       <c r="C118" t="n">
-        <v>0.250073</v>
+        <v>0.253672</v>
       </c>
       <c r="D118" t="n">
-        <v>0.213164</v>
+        <v>0.215784</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.27773</v>
+        <v>0.286854</v>
       </c>
       <c r="C119" t="n">
-        <v>0.264542</v>
+        <v>0.264488</v>
       </c>
       <c r="D119" t="n">
-        <v>0.224132</v>
+        <v>0.224191</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.29557</v>
+        <v>0.293705</v>
       </c>
       <c r="C120" t="n">
-        <v>0.287227</v>
+        <v>0.303086</v>
       </c>
       <c r="D120" t="n">
-        <v>0.228442</v>
+        <v>0.234588</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.330742</v>
+        <v>0.333696</v>
       </c>
       <c r="C121" t="n">
-        <v>0.316357</v>
+        <v>0.3202</v>
       </c>
       <c r="D121" t="n">
-        <v>0.256793</v>
+        <v>0.267298</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.372487</v>
+        <v>0.371993</v>
       </c>
       <c r="C122" t="n">
-        <v>0.376233</v>
+        <v>0.361621</v>
       </c>
       <c r="D122" t="n">
-        <v>0.31055</v>
+        <v>0.298144</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.435898</v>
+        <v>0.447251</v>
       </c>
       <c r="C123" t="n">
-        <v>0.446285</v>
+        <v>0.461499</v>
       </c>
       <c r="D123" t="n">
-        <v>0.275884</v>
+        <v>0.286376</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.367545</v>
+        <v>0.372507</v>
       </c>
       <c r="C124" t="n">
-        <v>0.322524</v>
+        <v>0.319665</v>
       </c>
       <c r="D124" t="n">
-        <v>0.282816</v>
+        <v>0.276456</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.366614</v>
+        <v>0.378419</v>
       </c>
       <c r="C125" t="n">
-        <v>0.315966</v>
+        <v>0.31898</v>
       </c>
       <c r="D125" t="n">
-        <v>0.288182</v>
+        <v>0.287733</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.369049</v>
+        <v>0.370839</v>
       </c>
       <c r="C126" t="n">
-        <v>0.323201</v>
+        <v>0.328166</v>
       </c>
       <c r="D126" t="n">
-        <v>0.290455</v>
+        <v>0.28841</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.373775</v>
+        <v>0.378979</v>
       </c>
       <c r="C127" t="n">
-        <v>0.331744</v>
+        <v>0.330798</v>
       </c>
       <c r="D127" t="n">
-        <v>0.297864</v>
+        <v>0.29682</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.377447</v>
+        <v>0.38839</v>
       </c>
       <c r="C128" t="n">
-        <v>0.340093</v>
+        <v>0.33682</v>
       </c>
       <c r="D128" t="n">
-        <v>0.286663</v>
+        <v>0.299198</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.376238</v>
+        <v>0.386853</v>
       </c>
       <c r="C129" t="n">
-        <v>0.330115</v>
+        <v>0.337742</v>
       </c>
       <c r="D129" t="n">
-        <v>0.284452</v>
+        <v>0.2904</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.396952</v>
+        <v>0.402424</v>
       </c>
       <c r="C130" t="n">
-        <v>0.348927</v>
+        <v>0.347268</v>
       </c>
       <c r="D130" t="n">
-        <v>0.306139</v>
+        <v>0.303379</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.383952</v>
+        <v>0.41751</v>
       </c>
       <c r="C131" t="n">
-        <v>0.360035</v>
+        <v>0.357824</v>
       </c>
       <c r="D131" t="n">
-        <v>0.309046</v>
+        <v>0.308813</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.414194</v>
+        <v>0.408853</v>
       </c>
       <c r="C132" t="n">
-        <v>0.351549</v>
+        <v>0.365387</v>
       </c>
       <c r="D132" t="n">
-        <v>0.302211</v>
+        <v>0.3198</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.424103</v>
+        <v>0.438876</v>
       </c>
       <c r="C133" t="n">
-        <v>0.369716</v>
+        <v>0.385325</v>
       </c>
       <c r="D133" t="n">
-        <v>0.331689</v>
+        <v>0.33333</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.455947</v>
+        <v>0.456221</v>
       </c>
       <c r="C134" t="n">
-        <v>0.412549</v>
+        <v>0.419899</v>
       </c>
       <c r="D134" t="n">
-        <v>0.336929</v>
+        <v>0.340685</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.461892</v>
+        <v>0.49236</v>
       </c>
       <c r="C135" t="n">
-        <v>0.437248</v>
+        <v>0.448088</v>
       </c>
       <c r="D135" t="n">
-        <v>0.379566</v>
+        <v>0.377238</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.523487</v>
+        <v>0.541867</v>
       </c>
       <c r="C136" t="n">
-        <v>0.491807</v>
+        <v>0.500793</v>
       </c>
       <c r="D136" t="n">
-        <v>0.400538</v>
+        <v>0.419568</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.599402</v>
+        <v>0.618837</v>
       </c>
       <c r="C137" t="n">
-        <v>0.577359</v>
+        <v>0.595907</v>
       </c>
       <c r="D137" t="n">
-        <v>0.334035</v>
+        <v>0.340449</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.436585</v>
+        <v>0.449313</v>
       </c>
       <c r="C138" t="n">
-        <v>0.361631</v>
+        <v>0.380493</v>
       </c>
       <c r="D138" t="n">
-        <v>0.33346</v>
+        <v>0.353064</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.439101</v>
+        <v>0.45557</v>
       </c>
       <c r="C139" t="n">
-        <v>0.36997</v>
+        <v>0.378822</v>
       </c>
       <c r="D139" t="n">
-        <v>0.330237</v>
+        <v>0.350295</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.436522</v>
+        <v>0.457833</v>
       </c>
       <c r="C140" t="n">
-        <v>0.36474</v>
+        <v>0.402906</v>
       </c>
       <c r="D140" t="n">
-        <v>0.333789</v>
+        <v>0.356295</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.445942</v>
+        <v>0.47004</v>
       </c>
       <c r="C141" t="n">
-        <v>0.38258</v>
+        <v>0.390573</v>
       </c>
       <c r="D141" t="n">
-        <v>0.354992</v>
+        <v>0.351323</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.45217</v>
+        <v>0.473229</v>
       </c>
       <c r="C142" t="n">
-        <v>0.389965</v>
+        <v>0.393621</v>
       </c>
       <c r="D142" t="n">
-        <v>0.370283</v>
+        <v>0.357136</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.451868</v>
+        <v>0.480806</v>
       </c>
       <c r="C143" t="n">
-        <v>0.391134</v>
+        <v>0.40711</v>
       </c>
       <c r="D143" t="n">
-        <v>0.353973</v>
+        <v>0.357545</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0600567</v>
+        <v>0.0604522</v>
       </c>
       <c r="C2" t="n">
-        <v>0.063038</v>
+        <v>0.0622621</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0553478</v>
+        <v>0.0522016</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0605881</v>
+        <v>0.0630415</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0636304</v>
+        <v>0.0673362</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0586488</v>
+        <v>0.0544929</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0646666</v>
+        <v>0.0667003</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0694203</v>
+        <v>0.06927850000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0605159</v>
+        <v>0.05802</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0705016</v>
+        <v>0.073086</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07457370000000001</v>
+        <v>0.07603939999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0673971</v>
+        <v>0.0630304</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0808416</v>
+        <v>0.0825355</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0876731</v>
+        <v>0.0890999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07433629999999999</v>
+        <v>0.0738964</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0975777</v>
+        <v>0.0996398</v>
       </c>
       <c r="C7" t="n">
-        <v>0.10025</v>
+        <v>0.103375</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0937158</v>
+        <v>0.0874376</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.126374</v>
+        <v>0.125358</v>
       </c>
       <c r="C8" t="n">
-        <v>0.130906</v>
+        <v>0.132818</v>
       </c>
       <c r="D8" t="n">
-        <v>0.115429</v>
+        <v>0.111616</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.159819</v>
+        <v>0.155783</v>
       </c>
       <c r="C9" t="n">
-        <v>0.164373</v>
+        <v>0.164734</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0527531</v>
+        <v>0.0479708</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0586637</v>
+        <v>0.0612084</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0553815</v>
+        <v>0.0570891</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0532307</v>
+        <v>0.047624</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0589556</v>
+        <v>0.0596206</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0572852</v>
+        <v>0.0577963</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0527895</v>
+        <v>0.0489521</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0604221</v>
+        <v>0.059086</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0579975</v>
+        <v>0.0570573</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0560528</v>
+        <v>0.0493899</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0600088</v>
+        <v>0.0611527</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0582482</v>
+        <v>0.0577489</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0567037</v>
+        <v>0.0489847</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0614321</v>
+        <v>0.0607776</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0597956</v>
+        <v>0.0588272</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0592843</v>
+        <v>0.0512414</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0629787</v>
+        <v>0.06345050000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0600829</v>
+        <v>0.0615287</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0559366</v>
+        <v>0.0511005</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0638243</v>
+        <v>0.0635981</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0638963</v>
+        <v>0.06529840000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0598519</v>
+        <v>0.0563996</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06568069999999999</v>
+        <v>0.0692846</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0668256</v>
+        <v>0.0698086</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0611682</v>
+        <v>0.0582553</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07315240000000001</v>
+        <v>0.071927</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0771379</v>
+        <v>0.0735962</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0689085</v>
+        <v>0.06352820000000001</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0769301</v>
+        <v>0.0769606</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0784337</v>
+        <v>0.08059570000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07401439999999999</v>
+        <v>0.069408</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0858226</v>
+        <v>0.084483</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0892741</v>
+        <v>0.0900055</v>
       </c>
       <c r="D20" t="n">
-        <v>0.08345710000000001</v>
+        <v>0.07795729999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.100276</v>
+        <v>0.0938703</v>
       </c>
       <c r="C21" t="n">
-        <v>0.104585</v>
+        <v>0.10908</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0962422</v>
+        <v>0.0911718</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.120932</v>
+        <v>0.116457</v>
       </c>
       <c r="C22" t="n">
-        <v>0.13302</v>
+        <v>0.134828</v>
       </c>
       <c r="D22" t="n">
-        <v>0.12433</v>
+        <v>0.119552</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.154783</v>
+        <v>0.150481</v>
       </c>
       <c r="C23" t="n">
-        <v>0.174054</v>
+        <v>0.171413</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0566777</v>
+        <v>0.0494879</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0641444</v>
+        <v>0.0617967</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0587218</v>
+        <v>0.0577783</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0567048</v>
+        <v>0.0493953</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.06505560000000001</v>
+        <v>0.0642403</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0582713</v>
+        <v>0.0586695</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0558669</v>
+        <v>0.0512687</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0625716</v>
+        <v>0.065456</v>
       </c>
       <c r="C26" t="n">
-        <v>0.060574</v>
+        <v>0.0590353</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0566727</v>
+        <v>0.0509859</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06398280000000001</v>
+        <v>0.0667167</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0610263</v>
+        <v>0.0595884</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0569224</v>
+        <v>0.0562266</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.06404269999999999</v>
+        <v>0.0663473</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0618261</v>
+        <v>0.0618351</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0599139</v>
+        <v>0.0541664</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0659082</v>
+        <v>0.06725689999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0622659</v>
+        <v>0.0636782</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0592115</v>
+        <v>0.0557745</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.072433</v>
+        <v>0.06920709999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0646487</v>
+        <v>0.0661573</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06522890000000001</v>
+        <v>0.056811</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.07002899999999999</v>
+        <v>0.0712018</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0676441</v>
+        <v>0.0677638</v>
       </c>
       <c r="D31" t="n">
-        <v>0.063787</v>
+        <v>0.0592918</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.07524260000000001</v>
+        <v>0.07682079999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07246130000000001</v>
+        <v>0.0721856</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06963569999999999</v>
+        <v>0.0636591</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08338520000000001</v>
+        <v>0.0815047</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0813638</v>
+        <v>0.0790611</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07711270000000001</v>
+        <v>0.0704486</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0860699</v>
+        <v>0.0845056</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0956383</v>
+        <v>0.089798</v>
       </c>
       <c r="D34" t="n">
-        <v>0.08744109999999999</v>
+        <v>0.07820779999999999</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.100416</v>
+        <v>0.103897</v>
       </c>
       <c r="C35" t="n">
-        <v>0.106823</v>
+        <v>0.111323</v>
       </c>
       <c r="D35" t="n">
-        <v>0.104419</v>
+        <v>0.0941438</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.116549</v>
+        <v>0.112117</v>
       </c>
       <c r="C36" t="n">
-        <v>0.132127</v>
+        <v>0.133169</v>
       </c>
       <c r="D36" t="n">
-        <v>0.126128</v>
+        <v>0.118771</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.143956</v>
+        <v>0.147032</v>
       </c>
       <c r="C37" t="n">
-        <v>0.167814</v>
+        <v>0.169191</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0586336</v>
+        <v>0.0532729</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0689669</v>
+        <v>0.07208009999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0634441</v>
+        <v>0.06295820000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0584932</v>
+        <v>0.0551783</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0699994</v>
+        <v>0.0694071</v>
       </c>
       <c r="C39" t="n">
-        <v>0.06311799999999999</v>
+        <v>0.064592</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0591158</v>
+        <v>0.0544205</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0702327</v>
+        <v>0.0717262</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0644252</v>
+        <v>0.0653614</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0597914</v>
+        <v>0.0555839</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.07107189999999999</v>
+        <v>0.0719373</v>
       </c>
       <c r="C41" t="n">
-        <v>0.06602089999999999</v>
+        <v>0.0678951</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0604992</v>
+        <v>0.0562935</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.07094930000000001</v>
+        <v>0.0713553</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0654969</v>
+        <v>0.0669143</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0609663</v>
+        <v>0.0567335</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.07234599999999999</v>
+        <v>0.0725821</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0685784</v>
+        <v>0.0686722</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0625018</v>
+        <v>0.0596934</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0758693</v>
+        <v>0.07440479999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0690142</v>
+        <v>0.0689106</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0663682</v>
+        <v>0.0607392</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0764253</v>
+        <v>0.0772777</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0724211</v>
+        <v>0.0740432</v>
       </c>
       <c r="D45" t="n">
-        <v>0.06737070000000001</v>
+        <v>0.06277190000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0796024</v>
+        <v>0.07749780000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.07612679999999999</v>
+        <v>0.0795674</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0709451</v>
+        <v>0.0678642</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0826847</v>
+        <v>0.0855736</v>
       </c>
       <c r="C47" t="n">
-        <v>0.08361590000000001</v>
+        <v>0.0869312</v>
       </c>
       <c r="D47" t="n">
-        <v>0.078836</v>
+        <v>0.075417</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0934321</v>
+        <v>0.09122470000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.09174</v>
+        <v>0.0917789</v>
       </c>
       <c r="D48" t="n">
-        <v>0.08601930000000001</v>
+        <v>0.0820293</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.10496</v>
+        <v>0.104163</v>
       </c>
       <c r="C49" t="n">
-        <v>0.103301</v>
+        <v>0.105191</v>
       </c>
       <c r="D49" t="n">
-        <v>0.101376</v>
+        <v>0.0922714</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.121468</v>
+        <v>0.116514</v>
       </c>
       <c r="C50" t="n">
-        <v>0.123789</v>
+        <v>0.129477</v>
       </c>
       <c r="D50" t="n">
-        <v>0.116264</v>
+        <v>0.113701</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.147728</v>
+        <v>0.145756</v>
       </c>
       <c r="C51" t="n">
-        <v>0.160822</v>
+        <v>0.167479</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0649121</v>
+        <v>0.0579602</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.185918</v>
+        <v>0.189124</v>
       </c>
       <c r="C52" t="n">
-        <v>0.199392</v>
+        <v>0.20478</v>
       </c>
       <c r="D52" t="n">
-        <v>0.06511939999999999</v>
+        <v>0.0593162</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0802128</v>
+        <v>0.081881</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0709277</v>
+        <v>0.0710638</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0675558</v>
+        <v>0.059617</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0802836</v>
+        <v>0.0827099</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0733557</v>
+        <v>0.0715374</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0658603</v>
+        <v>0.0609544</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0802402</v>
+        <v>0.0826484</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0747473</v>
+        <v>0.07308630000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0674999</v>
+        <v>0.0620043</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08363950000000001</v>
+        <v>0.08721619999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0775077</v>
+        <v>0.0758791</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0687015</v>
+        <v>0.0616559</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0865498</v>
+        <v>0.08305460000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.075957</v>
+        <v>0.0771157</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0703777</v>
+        <v>0.0620939</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0855292</v>
+        <v>0.08542470000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0825849</v>
+        <v>0.0806558</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0719856</v>
+        <v>0.06532060000000001</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0886551</v>
+        <v>0.0884272</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0835997</v>
+        <v>0.08352999999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.07585310000000001</v>
+        <v>0.0689707</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.09362529999999999</v>
+        <v>0.09322030000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0894493</v>
+        <v>0.08656369999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.07783089999999999</v>
+        <v>0.07296519999999999</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0990066</v>
+        <v>0.09580379999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.09161560000000001</v>
+        <v>0.0936454</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0829588</v>
+        <v>0.07945099999999999</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.103632</v>
+        <v>0.104064</v>
       </c>
       <c r="C62" t="n">
-        <v>0.105181</v>
+        <v>0.104491</v>
       </c>
       <c r="D62" t="n">
-        <v>0.09563869999999999</v>
+        <v>0.0855431</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.114633</v>
+        <v>0.113931</v>
       </c>
       <c r="C63" t="n">
-        <v>0.115046</v>
+        <v>0.114322</v>
       </c>
       <c r="D63" t="n">
-        <v>0.106542</v>
+        <v>0.0983207</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.128273</v>
+        <v>0.132728</v>
       </c>
       <c r="C64" t="n">
-        <v>0.135591</v>
+        <v>0.136096</v>
       </c>
       <c r="D64" t="n">
-        <v>0.122367</v>
+        <v>0.116377</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.151398</v>
+        <v>0.153275</v>
       </c>
       <c r="C65" t="n">
-        <v>0.166095</v>
+        <v>0.166055</v>
       </c>
       <c r="D65" t="n">
-        <v>0.156379</v>
+        <v>0.141692</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.194331</v>
+        <v>0.19398</v>
       </c>
       <c r="C66" t="n">
-        <v>0.213116</v>
+        <v>0.217014</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0721082</v>
+        <v>0.0644199</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0921897</v>
+        <v>0.0902371</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0809267</v>
+        <v>0.08025880000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0704959</v>
+        <v>0.065229</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0939388</v>
+        <v>0.09791229999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0829019</v>
+        <v>0.0859813</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0749972</v>
+        <v>0.06495670000000001</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0923918</v>
+        <v>0.0942452</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0831446</v>
+        <v>0.0824691</v>
       </c>
       <c r="D69" t="n">
-        <v>0.07395939999999999</v>
+        <v>0.06925290000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.100661</v>
+        <v>0.09973899999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0884654</v>
+        <v>0.08666939999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0763617</v>
+        <v>0.06703290000000001</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0989042</v>
+        <v>0.09779409999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0886472</v>
+        <v>0.08849890000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.07655430000000001</v>
+        <v>0.0702511</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.101458</v>
+        <v>0.100791</v>
       </c>
       <c r="C72" t="n">
-        <v>0.094514</v>
+        <v>0.09214559999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.07844130000000001</v>
+        <v>0.0721699</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.104703</v>
+        <v>0.103155</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0971442</v>
+        <v>0.0988988</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0825157</v>
+        <v>0.0745702</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.108271</v>
+        <v>0.107902</v>
       </c>
       <c r="C74" t="n">
-        <v>0.103484</v>
+        <v>0.102644</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0869989</v>
+        <v>0.0816798</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.114484</v>
+        <v>0.115519</v>
       </c>
       <c r="C75" t="n">
-        <v>0.110808</v>
+        <v>0.107991</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0933001</v>
+        <v>0.08720940000000001</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1226</v>
+        <v>0.123443</v>
       </c>
       <c r="C76" t="n">
-        <v>0.117151</v>
+        <v>0.120913</v>
       </c>
       <c r="D76" t="n">
-        <v>0.101325</v>
+        <v>0.0936521</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.135642</v>
+        <v>0.134222</v>
       </c>
       <c r="C77" t="n">
-        <v>0.13506</v>
+        <v>0.133327</v>
       </c>
       <c r="D77" t="n">
-        <v>0.111826</v>
+        <v>0.107729</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.155444</v>
+        <v>0.155498</v>
       </c>
       <c r="C78" t="n">
-        <v>0.152977</v>
+        <v>0.151422</v>
       </c>
       <c r="D78" t="n">
-        <v>0.129344</v>
+        <v>0.126648</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.175991</v>
+        <v>0.18303</v>
       </c>
       <c r="C79" t="n">
-        <v>0.18456</v>
+        <v>0.182969</v>
       </c>
       <c r="D79" t="n">
-        <v>0.166723</v>
+        <v>0.152945</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.232856</v>
+        <v>0.218308</v>
       </c>
       <c r="C80" t="n">
-        <v>0.237393</v>
+        <v>0.244941</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0793301</v>
+        <v>0.0737416</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.108633</v>
+        <v>0.108202</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0972276</v>
+        <v>0.09960239999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.07881390000000001</v>
+        <v>0.0769031</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.110269</v>
+        <v>0.116752</v>
       </c>
       <c r="C82" t="n">
-        <v>0.09646440000000001</v>
+        <v>0.0984134</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0842183</v>
+        <v>0.0751648</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.110634</v>
+        <v>0.117498</v>
       </c>
       <c r="C83" t="n">
-        <v>0.100555</v>
+        <v>0.101366</v>
       </c>
       <c r="D83" t="n">
-        <v>0.08179640000000001</v>
+        <v>0.0792482</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.119183</v>
+        <v>0.118721</v>
       </c>
       <c r="C84" t="n">
-        <v>0.102968</v>
+        <v>0.103431</v>
       </c>
       <c r="D84" t="n">
-        <v>0.083234</v>
+        <v>0.07760880000000001</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.120534</v>
+        <v>0.117468</v>
       </c>
       <c r="C85" t="n">
-        <v>0.105728</v>
+        <v>0.104794</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0897294</v>
+        <v>0.0812922</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.121979</v>
+        <v>0.121471</v>
       </c>
       <c r="C86" t="n">
-        <v>0.112258</v>
+        <v>0.112486</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0895943</v>
+        <v>0.0832301</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.128216</v>
+        <v>0.127363</v>
       </c>
       <c r="C87" t="n">
-        <v>0.115073</v>
+        <v>0.118927</v>
       </c>
       <c r="D87" t="n">
-        <v>0.09531480000000001</v>
+        <v>0.08926000000000001</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.136077</v>
+        <v>0.136156</v>
       </c>
       <c r="C88" t="n">
-        <v>0.126915</v>
+        <v>0.127276</v>
       </c>
       <c r="D88" t="n">
-        <v>0.101631</v>
+        <v>0.0934363</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.142498</v>
+        <v>0.140955</v>
       </c>
       <c r="C89" t="n">
-        <v>0.133779</v>
+        <v>0.131001</v>
       </c>
       <c r="D89" t="n">
-        <v>0.108697</v>
+        <v>0.100997</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.149932</v>
+        <v>0.149872</v>
       </c>
       <c r="C90" t="n">
-        <v>0.140111</v>
+        <v>0.142456</v>
       </c>
       <c r="D90" t="n">
-        <v>0.113983</v>
+        <v>0.107581</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.159264</v>
+        <v>0.1583</v>
       </c>
       <c r="C91" t="n">
-        <v>0.154308</v>
+        <v>0.156561</v>
       </c>
       <c r="D91" t="n">
-        <v>0.124718</v>
+        <v>0.118331</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.176003</v>
+        <v>0.180479</v>
       </c>
       <c r="C92" t="n">
-        <v>0.178662</v>
+        <v>0.177006</v>
       </c>
       <c r="D92" t="n">
-        <v>0.142231</v>
+        <v>0.138887</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.19813</v>
+        <v>0.206777</v>
       </c>
       <c r="C93" t="n">
-        <v>0.203327</v>
+        <v>0.206034</v>
       </c>
       <c r="D93" t="n">
-        <v>0.166319</v>
+        <v>0.162251</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.241014</v>
+        <v>0.240529</v>
       </c>
       <c r="C94" t="n">
-        <v>0.25365</v>
+        <v>0.261408</v>
       </c>
       <c r="D94" t="n">
-        <v>0.100568</v>
+        <v>0.0945916</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.136827</v>
+        <v>0.137879</v>
       </c>
       <c r="C95" t="n">
-        <v>0.123861</v>
+        <v>0.129306</v>
       </c>
       <c r="D95" t="n">
-        <v>0.100967</v>
+        <v>0.0988187</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.14243</v>
+        <v>0.139954</v>
       </c>
       <c r="C96" t="n">
-        <v>0.127278</v>
+        <v>0.126661</v>
       </c>
       <c r="D96" t="n">
-        <v>0.102229</v>
+        <v>0.0932226</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.147786</v>
+        <v>0.14523</v>
       </c>
       <c r="C97" t="n">
-        <v>0.130744</v>
+        <v>0.129588</v>
       </c>
       <c r="D97" t="n">
-        <v>0.104499</v>
+        <v>0.09916850000000001</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.14758</v>
+        <v>0.146149</v>
       </c>
       <c r="C98" t="n">
-        <v>0.132577</v>
+        <v>0.134577</v>
       </c>
       <c r="D98" t="n">
-        <v>0.105187</v>
+        <v>0.101433</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.15277</v>
+        <v>0.155009</v>
       </c>
       <c r="C99" t="n">
-        <v>0.139752</v>
+        <v>0.138026</v>
       </c>
       <c r="D99" t="n">
-        <v>0.112669</v>
+        <v>0.104932</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.152449</v>
+        <v>0.151897</v>
       </c>
       <c r="C100" t="n">
-        <v>0.137678</v>
+        <v>0.140613</v>
       </c>
       <c r="D100" t="n">
-        <v>0.110538</v>
+        <v>0.110024</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.161022</v>
+        <v>0.164713</v>
       </c>
       <c r="C101" t="n">
-        <v>0.151822</v>
+        <v>0.150114</v>
       </c>
       <c r="D101" t="n">
-        <v>0.114859</v>
+        <v>0.110326</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.164007</v>
+        <v>0.16665</v>
       </c>
       <c r="C102" t="n">
-        <v>0.151317</v>
+        <v>0.157281</v>
       </c>
       <c r="D102" t="n">
-        <v>0.119559</v>
+        <v>0.118391</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.168178</v>
+        <v>0.175239</v>
       </c>
       <c r="C103" t="n">
-        <v>0.159928</v>
+        <v>0.161766</v>
       </c>
       <c r="D103" t="n">
-        <v>0.126312</v>
+        <v>0.124649</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.176119</v>
+        <v>0.185839</v>
       </c>
       <c r="C104" t="n">
-        <v>0.171257</v>
+        <v>0.177865</v>
       </c>
       <c r="D104" t="n">
-        <v>0.134073</v>
+        <v>0.128847</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.190202</v>
+        <v>0.193175</v>
       </c>
       <c r="C105" t="n">
-        <v>0.186774</v>
+        <v>0.194168</v>
       </c>
       <c r="D105" t="n">
-        <v>0.14796</v>
+        <v>0.138614</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.20733</v>
+        <v>0.20216</v>
       </c>
       <c r="C106" t="n">
-        <v>0.211059</v>
+        <v>0.211539</v>
       </c>
       <c r="D106" t="n">
-        <v>0.164319</v>
+        <v>0.162535</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.240486</v>
+        <v>0.237238</v>
       </c>
       <c r="C107" t="n">
-        <v>0.23438</v>
+        <v>0.245157</v>
       </c>
       <c r="D107" t="n">
-        <v>0.181318</v>
+        <v>0.17912</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.282368</v>
+        <v>0.274218</v>
       </c>
       <c r="C108" t="n">
-        <v>0.288075</v>
+        <v>0.294293</v>
       </c>
       <c r="D108" t="n">
-        <v>0.172795</v>
+        <v>0.168146</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.345718</v>
+        <v>0.340928</v>
       </c>
       <c r="C109" t="n">
-        <v>0.358794</v>
+        <v>0.374329</v>
       </c>
       <c r="D109" t="n">
-        <v>0.179318</v>
+        <v>0.172677</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.231289</v>
+        <v>0.242125</v>
       </c>
       <c r="C110" t="n">
-        <v>0.214468</v>
+        <v>0.216394</v>
       </c>
       <c r="D110" t="n">
-        <v>0.179957</v>
+        <v>0.174821</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.236697</v>
+        <v>0.245036</v>
       </c>
       <c r="C111" t="n">
-        <v>0.210654</v>
+        <v>0.220409</v>
       </c>
       <c r="D111" t="n">
-        <v>0.187538</v>
+        <v>0.179714</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.236046</v>
+        <v>0.237247</v>
       </c>
       <c r="C112" t="n">
-        <v>0.218249</v>
+        <v>0.22148</v>
       </c>
       <c r="D112" t="n">
-        <v>0.190159</v>
+        <v>0.186442</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.244525</v>
+        <v>0.249432</v>
       </c>
       <c r="C113" t="n">
-        <v>0.218436</v>
+        <v>0.228022</v>
       </c>
       <c r="D113" t="n">
-        <v>0.183049</v>
+        <v>0.188543</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.246691</v>
+        <v>0.255992</v>
       </c>
       <c r="C114" t="n">
-        <v>0.223496</v>
+        <v>0.23449</v>
       </c>
       <c r="D114" t="n">
-        <v>0.184459</v>
+        <v>0.195531</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.252193</v>
+        <v>0.241944</v>
       </c>
       <c r="C115" t="n">
-        <v>0.224375</v>
+        <v>0.227428</v>
       </c>
       <c r="D115" t="n">
-        <v>0.198938</v>
+        <v>0.197629</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.260472</v>
+        <v>0.25239</v>
       </c>
       <c r="C116" t="n">
-        <v>0.237301</v>
+        <v>0.236158</v>
       </c>
       <c r="D116" t="n">
-        <v>0.206088</v>
+        <v>0.202466</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.256269</v>
+        <v>0.272302</v>
       </c>
       <c r="C117" t="n">
-        <v>0.241717</v>
+        <v>0.248896</v>
       </c>
       <c r="D117" t="n">
-        <v>0.209662</v>
+        <v>0.210916</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.267923</v>
+        <v>0.29263</v>
       </c>
       <c r="C118" t="n">
-        <v>0.253672</v>
+        <v>0.25363</v>
       </c>
       <c r="D118" t="n">
-        <v>0.215784</v>
+        <v>0.210653</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.286854</v>
+        <v>0.282375</v>
       </c>
       <c r="C119" t="n">
-        <v>0.264488</v>
+        <v>0.272643</v>
       </c>
       <c r="D119" t="n">
-        <v>0.224191</v>
+        <v>0.219463</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.293705</v>
+        <v>0.303113</v>
       </c>
       <c r="C120" t="n">
-        <v>0.303086</v>
+        <v>0.288235</v>
       </c>
       <c r="D120" t="n">
-        <v>0.234588</v>
+        <v>0.229021</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.333696</v>
+        <v>0.325538</v>
       </c>
       <c r="C121" t="n">
-        <v>0.3202</v>
+        <v>0.315852</v>
       </c>
       <c r="D121" t="n">
-        <v>0.267298</v>
+        <v>0.256645</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.371993</v>
+        <v>0.371126</v>
       </c>
       <c r="C122" t="n">
-        <v>0.361621</v>
+        <v>0.373955</v>
       </c>
       <c r="D122" t="n">
-        <v>0.298144</v>
+        <v>0.298472</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.447251</v>
+        <v>0.442474</v>
       </c>
       <c r="C123" t="n">
-        <v>0.461499</v>
+        <v>0.482186</v>
       </c>
       <c r="D123" t="n">
-        <v>0.286376</v>
+        <v>0.282883</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.372507</v>
+        <v>0.357191</v>
       </c>
       <c r="C124" t="n">
-        <v>0.319665</v>
+        <v>0.318995</v>
       </c>
       <c r="D124" t="n">
-        <v>0.276456</v>
+        <v>0.283498</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.378419</v>
+        <v>0.370054</v>
       </c>
       <c r="C125" t="n">
-        <v>0.31898</v>
+        <v>0.319762</v>
       </c>
       <c r="D125" t="n">
-        <v>0.287733</v>
+        <v>0.286174</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.370839</v>
+        <v>0.375249</v>
       </c>
       <c r="C126" t="n">
-        <v>0.328166</v>
+        <v>0.319836</v>
       </c>
       <c r="D126" t="n">
-        <v>0.28841</v>
+        <v>0.293523</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.378979</v>
+        <v>0.378431</v>
       </c>
       <c r="C127" t="n">
-        <v>0.330798</v>
+        <v>0.334072</v>
       </c>
       <c r="D127" t="n">
-        <v>0.29682</v>
+        <v>0.28802</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.38839</v>
+        <v>0.38723</v>
       </c>
       <c r="C128" t="n">
-        <v>0.33682</v>
+        <v>0.331654</v>
       </c>
       <c r="D128" t="n">
-        <v>0.299198</v>
+        <v>0.296877</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.386853</v>
+        <v>0.393546</v>
       </c>
       <c r="C129" t="n">
-        <v>0.337742</v>
+        <v>0.351192</v>
       </c>
       <c r="D129" t="n">
-        <v>0.2904</v>
+        <v>0.30067</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.402424</v>
+        <v>0.398805</v>
       </c>
       <c r="C130" t="n">
-        <v>0.347268</v>
+        <v>0.345911</v>
       </c>
       <c r="D130" t="n">
-        <v>0.303379</v>
+        <v>0.298133</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.41751</v>
+        <v>0.418693</v>
       </c>
       <c r="C131" t="n">
-        <v>0.357824</v>
+        <v>0.356439</v>
       </c>
       <c r="D131" t="n">
-        <v>0.308813</v>
+        <v>0.30226</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.408853</v>
+        <v>0.420788</v>
       </c>
       <c r="C132" t="n">
-        <v>0.365387</v>
+        <v>0.368989</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3198</v>
+        <v>0.322318</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.438876</v>
+        <v>0.42648</v>
       </c>
       <c r="C133" t="n">
-        <v>0.385325</v>
+        <v>0.385504</v>
       </c>
       <c r="D133" t="n">
-        <v>0.33333</v>
+        <v>0.326521</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.456221</v>
+        <v>0.458782</v>
       </c>
       <c r="C134" t="n">
-        <v>0.419899</v>
+        <v>0.416233</v>
       </c>
       <c r="D134" t="n">
-        <v>0.340685</v>
+        <v>0.341278</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.49236</v>
+        <v>0.490589</v>
       </c>
       <c r="C135" t="n">
-        <v>0.448088</v>
+        <v>0.453113</v>
       </c>
       <c r="D135" t="n">
-        <v>0.377238</v>
+        <v>0.373756</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.541867</v>
+        <v>0.542871</v>
       </c>
       <c r="C136" t="n">
-        <v>0.500793</v>
+        <v>0.499834</v>
       </c>
       <c r="D136" t="n">
-        <v>0.419568</v>
+        <v>0.409437</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.618837</v>
+        <v>0.629185</v>
       </c>
       <c r="C137" t="n">
-        <v>0.595907</v>
+        <v>0.591246</v>
       </c>
       <c r="D137" t="n">
-        <v>0.340449</v>
+        <v>0.344202</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.449313</v>
+        <v>0.453948</v>
       </c>
       <c r="C138" t="n">
-        <v>0.380493</v>
+        <v>0.375283</v>
       </c>
       <c r="D138" t="n">
-        <v>0.353064</v>
+        <v>0.346386</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.45557</v>
+        <v>0.461815</v>
       </c>
       <c r="C139" t="n">
-        <v>0.378822</v>
+        <v>0.38799</v>
       </c>
       <c r="D139" t="n">
-        <v>0.350295</v>
+        <v>0.346747</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.457833</v>
+        <v>0.461024</v>
       </c>
       <c r="C140" t="n">
-        <v>0.402906</v>
+        <v>0.400176</v>
       </c>
       <c r="D140" t="n">
-        <v>0.356295</v>
+        <v>0.353985</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.47004</v>
+        <v>0.452936</v>
       </c>
       <c r="C141" t="n">
-        <v>0.390573</v>
+        <v>0.402635</v>
       </c>
       <c r="D141" t="n">
-        <v>0.351323</v>
+        <v>0.36408</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.473229</v>
+        <v>0.471085</v>
       </c>
       <c r="C142" t="n">
-        <v>0.393621</v>
+        <v>0.408219</v>
       </c>
       <c r="D142" t="n">
-        <v>0.357136</v>
+        <v>0.352861</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.480806</v>
+        <v>0.484704</v>
       </c>
       <c r="C143" t="n">
-        <v>0.40711</v>
+        <v>0.401575</v>
       </c>
       <c r="D143" t="n">
-        <v>0.357545</v>
+        <v>0.3595</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0604522</v>
+        <v>0.0618278</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0622621</v>
+        <v>0.0614609</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0522016</v>
+        <v>0.0515951</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0630415</v>
+        <v>0.06626659999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0673362</v>
+        <v>0.064947</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0544929</v>
+        <v>0.0527557</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0667003</v>
+        <v>0.07155980000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06927850000000001</v>
+        <v>0.0698637</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05802</v>
+        <v>0.0562166</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.073086</v>
+        <v>0.0735359</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07603939999999999</v>
+        <v>0.076318</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0630304</v>
+        <v>0.0632867</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0825355</v>
+        <v>0.07971259999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0890999</v>
+        <v>0.08585280000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0738964</v>
+        <v>0.0725446</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0996398</v>
+        <v>0.09690219999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.103375</v>
+        <v>0.10142</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0874376</v>
+        <v>0.0868791</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.125358</v>
+        <v>0.119872</v>
       </c>
       <c r="C8" t="n">
-        <v>0.132818</v>
+        <v>0.130221</v>
       </c>
       <c r="D8" t="n">
-        <v>0.111616</v>
+        <v>0.112633</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.155783</v>
+        <v>0.16525</v>
       </c>
       <c r="C9" t="n">
-        <v>0.164734</v>
+        <v>0.163644</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0479708</v>
+        <v>0.149798</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0612084</v>
+        <v>0.0598332</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0570891</v>
+        <v>0.0557741</v>
       </c>
       <c r="D10" t="n">
-        <v>0.047624</v>
+        <v>0.0497593</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0596206</v>
+        <v>0.0597377</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0577963</v>
+        <v>0.0562053</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0489521</v>
+        <v>0.0488697</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.059086</v>
+        <v>0.0609809</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0570573</v>
+        <v>0.0571682</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0493899</v>
+        <v>0.0493088</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0611527</v>
+        <v>0.0646645</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0577489</v>
+        <v>0.0571337</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0489847</v>
+        <v>0.0498552</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0607776</v>
+        <v>0.06489</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0588272</v>
+        <v>0.0588062</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0512414</v>
+        <v>0.0537038</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.06345050000000001</v>
+        <v>0.06459670000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0615287</v>
+        <v>0.0598301</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0511005</v>
+        <v>0.0521764</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0635981</v>
+        <v>0.065204</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06529840000000001</v>
+        <v>0.0649623</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0563996</v>
+        <v>0.0539478</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0692846</v>
+        <v>0.0691383</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0698086</v>
+        <v>0.0660147</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0582553</v>
+        <v>0.0591139</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.071927</v>
+        <v>0.0728259</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0735962</v>
+        <v>0.07198549999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.06352820000000001</v>
+        <v>0.06464</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0769606</v>
+        <v>0.0787673</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08059570000000001</v>
+        <v>0.0803233</v>
       </c>
       <c r="D19" t="n">
-        <v>0.069408</v>
+        <v>0.0705959</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.084483</v>
+        <v>0.08674370000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0900055</v>
+        <v>0.08965960000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07795729999999999</v>
+        <v>0.0820731</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0938703</v>
+        <v>0.10252</v>
       </c>
       <c r="C21" t="n">
-        <v>0.10908</v>
+        <v>0.10377</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0911718</v>
+        <v>0.09228989999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.116457</v>
+        <v>0.116421</v>
       </c>
       <c r="C22" t="n">
-        <v>0.134828</v>
+        <v>0.132796</v>
       </c>
       <c r="D22" t="n">
-        <v>0.119552</v>
+        <v>0.118286</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.150481</v>
+        <v>0.156778</v>
       </c>
       <c r="C23" t="n">
-        <v>0.171413</v>
+        <v>0.170569</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0494879</v>
+        <v>0.155083</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0617967</v>
+        <v>0.0632519</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0577783</v>
+        <v>0.0580116</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0493953</v>
+        <v>0.0524074</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0642403</v>
+        <v>0.0646095</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0586695</v>
+        <v>0.0576643</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0512687</v>
+        <v>0.0506827</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.065456</v>
+        <v>0.06360739999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0590353</v>
+        <v>0.05796</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0509859</v>
+        <v>0.0514525</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0667167</v>
+        <v>0.066263</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0595884</v>
+        <v>0.0592992</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0562266</v>
+        <v>0.0516612</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0663473</v>
+        <v>0.0679382</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0618351</v>
+        <v>0.0617423</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0541664</v>
+        <v>0.0521135</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.06725689999999999</v>
+        <v>0.0702344</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0636782</v>
+        <v>0.0628956</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0557745</v>
+        <v>0.0540034</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.06920709999999999</v>
+        <v>0.06814240000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0661573</v>
+        <v>0.066926</v>
       </c>
       <c r="D30" t="n">
-        <v>0.056811</v>
+        <v>0.057105</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0712018</v>
+        <v>0.0720706</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0677638</v>
+        <v>0.06661640000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0592918</v>
+        <v>0.0619476</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.07682079999999999</v>
+        <v>0.07554</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0721856</v>
+        <v>0.0724482</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0636591</v>
+        <v>0.06374639999999999</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0815047</v>
+        <v>0.0802551</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0790611</v>
+        <v>0.0827113</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0704486</v>
+        <v>0.0708999</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0845056</v>
+        <v>0.0895685</v>
       </c>
       <c r="C34" t="n">
-        <v>0.089798</v>
+        <v>0.0905801</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07820779999999999</v>
+        <v>0.08308020000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.103897</v>
+        <v>0.104747</v>
       </c>
       <c r="C35" t="n">
-        <v>0.111323</v>
+        <v>0.108703</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0941438</v>
+        <v>0.0980727</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.112117</v>
+        <v>0.126964</v>
       </c>
       <c r="C36" t="n">
-        <v>0.133169</v>
+        <v>0.128396</v>
       </c>
       <c r="D36" t="n">
-        <v>0.118771</v>
+        <v>0.121004</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.147032</v>
+        <v>0.149149</v>
       </c>
       <c r="C37" t="n">
-        <v>0.169191</v>
+        <v>0.173373</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0532729</v>
+        <v>0.158268</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.07208009999999999</v>
+        <v>0.069392</v>
       </c>
       <c r="C38" t="n">
-        <v>0.06295820000000001</v>
+        <v>0.0604897</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0551783</v>
+        <v>0.0529601</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0694071</v>
+        <v>0.0701205</v>
       </c>
       <c r="C39" t="n">
-        <v>0.064592</v>
+        <v>0.0620213</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0544205</v>
+        <v>0.0540999</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0717262</v>
+        <v>0.0696899</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0653614</v>
+        <v>0.0635486</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0555839</v>
+        <v>0.0553792</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0719373</v>
+        <v>0.071508</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0678951</v>
+        <v>0.0641829</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0562935</v>
+        <v>0.0572346</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0713553</v>
+        <v>0.07121230000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0669143</v>
+        <v>0.0680461</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0567335</v>
+        <v>0.0578434</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0725821</v>
+        <v>0.07330150000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0686722</v>
+        <v>0.0670119</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0596934</v>
+        <v>0.0611756</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.07440479999999999</v>
+        <v>0.0746339</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0689106</v>
+        <v>0.0699087</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0607392</v>
+        <v>0.0593</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0772777</v>
+        <v>0.0749788</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0740432</v>
+        <v>0.0729204</v>
       </c>
       <c r="D45" t="n">
-        <v>0.06277190000000001</v>
+        <v>0.0641294</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.07749780000000001</v>
+        <v>0.07910349999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0795674</v>
+        <v>0.0768298</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0678642</v>
+        <v>0.06830029999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0855736</v>
+        <v>0.0860144</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0869312</v>
+        <v>0.084387</v>
       </c>
       <c r="D47" t="n">
-        <v>0.075417</v>
+        <v>0.0721306</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.09122470000000001</v>
+        <v>0.0905624</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0917789</v>
+        <v>0.091157</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0820293</v>
+        <v>0.0826165</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.104163</v>
+        <v>0.104034</v>
       </c>
       <c r="C49" t="n">
-        <v>0.105191</v>
+        <v>0.103245</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0922714</v>
+        <v>0.09401329999999999</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.116514</v>
+        <v>0.117276</v>
       </c>
       <c r="C50" t="n">
-        <v>0.129477</v>
+        <v>0.125865</v>
       </c>
       <c r="D50" t="n">
-        <v>0.113701</v>
+        <v>0.115586</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.145756</v>
+        <v>0.145719</v>
       </c>
       <c r="C51" t="n">
-        <v>0.167479</v>
+        <v>0.155045</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0579602</v>
+        <v>0.144993</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.189124</v>
+        <v>0.19427</v>
       </c>
       <c r="C52" t="n">
-        <v>0.20478</v>
+        <v>0.204774</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0593162</v>
+        <v>0.185464</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.081881</v>
+        <v>0.08076759999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0710638</v>
+        <v>0.07446220000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.059617</v>
+        <v>0.0605075</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0827099</v>
+        <v>0.0811799</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0715374</v>
+        <v>0.0744243</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0609544</v>
+        <v>0.0610549</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0826484</v>
+        <v>0.0820511</v>
       </c>
       <c r="C55" t="n">
-        <v>0.07308630000000001</v>
+        <v>0.0747385</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0620043</v>
+        <v>0.0619926</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08721619999999999</v>
+        <v>0.0824091</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0758791</v>
+        <v>0.0748451</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0616559</v>
+        <v>0.062805</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.08305460000000001</v>
+        <v>0.0840832</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0771157</v>
+        <v>0.078611</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0620939</v>
+        <v>0.0636887</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.08542470000000001</v>
+        <v>0.0878562</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0806558</v>
+        <v>0.0802788</v>
       </c>
       <c r="D58" t="n">
-        <v>0.06532060000000001</v>
+        <v>0.0668069</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0884272</v>
+        <v>0.0936091</v>
       </c>
       <c r="C59" t="n">
-        <v>0.08352999999999999</v>
+        <v>0.0823619</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0689707</v>
+        <v>0.0702077</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.09322030000000001</v>
+        <v>0.0934749</v>
       </c>
       <c r="C60" t="n">
-        <v>0.08656369999999999</v>
+        <v>0.086533</v>
       </c>
       <c r="D60" t="n">
-        <v>0.07296519999999999</v>
+        <v>0.0721392</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.09580379999999999</v>
+        <v>0.09560340000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0936454</v>
+        <v>0.0920203</v>
       </c>
       <c r="D61" t="n">
-        <v>0.07945099999999999</v>
+        <v>0.0806207</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.104064</v>
+        <v>0.106113</v>
       </c>
       <c r="C62" t="n">
-        <v>0.104491</v>
+        <v>0.107176</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0855431</v>
+        <v>0.0887286</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.113931</v>
+        <v>0.113477</v>
       </c>
       <c r="C63" t="n">
-        <v>0.114322</v>
+        <v>0.116999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0983207</v>
+        <v>0.10203</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.132728</v>
+        <v>0.132283</v>
       </c>
       <c r="C64" t="n">
-        <v>0.136096</v>
+        <v>0.13504</v>
       </c>
       <c r="D64" t="n">
-        <v>0.116377</v>
+        <v>0.119898</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.153275</v>
+        <v>0.15471</v>
       </c>
       <c r="C65" t="n">
-        <v>0.166055</v>
+        <v>0.166682</v>
       </c>
       <c r="D65" t="n">
-        <v>0.141692</v>
+        <v>0.146684</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.19398</v>
+        <v>0.195931</v>
       </c>
       <c r="C66" t="n">
-        <v>0.217014</v>
+        <v>0.211431</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0644199</v>
+        <v>0.193672</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0902371</v>
+        <v>0.0932825</v>
       </c>
       <c r="C67" t="n">
-        <v>0.08025880000000001</v>
+        <v>0.07948470000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.065229</v>
+        <v>0.0675434</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.09791229999999999</v>
+        <v>0.091596</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0859813</v>
+        <v>0.08296480000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.06495670000000001</v>
+        <v>0.0676475</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0942452</v>
+        <v>0.0955908</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0824691</v>
+        <v>0.0856407</v>
       </c>
       <c r="D69" t="n">
-        <v>0.06925290000000001</v>
+        <v>0.0684912</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.09973899999999999</v>
+        <v>0.095384</v>
       </c>
       <c r="C70" t="n">
-        <v>0.08666939999999999</v>
+        <v>0.0879622</v>
       </c>
       <c r="D70" t="n">
-        <v>0.06703290000000001</v>
+        <v>0.0685678</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.09779409999999999</v>
+        <v>0.100739</v>
       </c>
       <c r="C71" t="n">
-        <v>0.08849890000000001</v>
+        <v>0.0883779</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0702511</v>
+        <v>0.06990109999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.100791</v>
+        <v>0.101367</v>
       </c>
       <c r="C72" t="n">
-        <v>0.09214559999999999</v>
+        <v>0.09278989999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0721699</v>
+        <v>0.07356840000000001</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.103155</v>
+        <v>0.105648</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0988988</v>
+        <v>0.098717</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0745702</v>
+        <v>0.0755966</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.107902</v>
+        <v>0.107703</v>
       </c>
       <c r="C74" t="n">
-        <v>0.102644</v>
+        <v>0.103014</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0816798</v>
+        <v>0.080775</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.115519</v>
+        <v>0.117404</v>
       </c>
       <c r="C75" t="n">
-        <v>0.107991</v>
+        <v>0.111481</v>
       </c>
       <c r="D75" t="n">
-        <v>0.08720940000000001</v>
+        <v>0.08716839999999999</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.123443</v>
+        <v>0.122568</v>
       </c>
       <c r="C76" t="n">
-        <v>0.120913</v>
+        <v>0.122512</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0936521</v>
+        <v>0.0970724</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.134222</v>
+        <v>0.132169</v>
       </c>
       <c r="C77" t="n">
-        <v>0.133327</v>
+        <v>0.133102</v>
       </c>
       <c r="D77" t="n">
-        <v>0.107729</v>
+        <v>0.112248</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.155498</v>
+        <v>0.147172</v>
       </c>
       <c r="C78" t="n">
-        <v>0.151422</v>
+        <v>0.149314</v>
       </c>
       <c r="D78" t="n">
-        <v>0.126648</v>
+        <v>0.128029</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.18303</v>
+        <v>0.174669</v>
       </c>
       <c r="C79" t="n">
-        <v>0.182969</v>
+        <v>0.181805</v>
       </c>
       <c r="D79" t="n">
-        <v>0.152945</v>
+        <v>0.153066</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.218308</v>
+        <v>0.223538</v>
       </c>
       <c r="C80" t="n">
-        <v>0.244941</v>
+        <v>0.235674</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0737416</v>
+        <v>0.198657</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.108202</v>
+        <v>0.107484</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09960239999999999</v>
+        <v>0.097625</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0769031</v>
+        <v>0.07496750000000001</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.116752</v>
+        <v>0.108793</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0984134</v>
+        <v>0.09811780000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0751648</v>
+        <v>0.0765117</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.117498</v>
+        <v>0.115987</v>
       </c>
       <c r="C83" t="n">
-        <v>0.101366</v>
+        <v>0.101918</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0792482</v>
+        <v>0.0769479</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.118721</v>
+        <v>0.114885</v>
       </c>
       <c r="C84" t="n">
-        <v>0.103431</v>
+        <v>0.103333</v>
       </c>
       <c r="D84" t="n">
-        <v>0.07760880000000001</v>
+        <v>0.07934099999999999</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.117468</v>
+        <v>0.119347</v>
       </c>
       <c r="C85" t="n">
-        <v>0.104794</v>
+        <v>0.11014</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0812922</v>
+        <v>0.0814275</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.121471</v>
+        <v>0.122273</v>
       </c>
       <c r="C86" t="n">
-        <v>0.112486</v>
+        <v>0.112768</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0832301</v>
+        <v>0.08412409999999999</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.127363</v>
+        <v>0.13063</v>
       </c>
       <c r="C87" t="n">
-        <v>0.118927</v>
+        <v>0.120465</v>
       </c>
       <c r="D87" t="n">
-        <v>0.08926000000000001</v>
+        <v>0.09056</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.136156</v>
+        <v>0.133892</v>
       </c>
       <c r="C88" t="n">
-        <v>0.127276</v>
+        <v>0.123605</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0934363</v>
+        <v>0.0963391</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.140955</v>
+        <v>0.141305</v>
       </c>
       <c r="C89" t="n">
-        <v>0.131001</v>
+        <v>0.128889</v>
       </c>
       <c r="D89" t="n">
-        <v>0.100997</v>
+        <v>0.102144</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.149872</v>
+        <v>0.149208</v>
       </c>
       <c r="C90" t="n">
-        <v>0.142456</v>
+        <v>0.138927</v>
       </c>
       <c r="D90" t="n">
-        <v>0.107581</v>
+        <v>0.108099</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1583</v>
+        <v>0.158195</v>
       </c>
       <c r="C91" t="n">
-        <v>0.156561</v>
+        <v>0.156018</v>
       </c>
       <c r="D91" t="n">
-        <v>0.118331</v>
+        <v>0.118861</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.180479</v>
+        <v>0.171772</v>
       </c>
       <c r="C92" t="n">
-        <v>0.177006</v>
+        <v>0.1748</v>
       </c>
       <c r="D92" t="n">
-        <v>0.138887</v>
+        <v>0.140669</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.206777</v>
+        <v>0.201202</v>
       </c>
       <c r="C93" t="n">
-        <v>0.206034</v>
+        <v>0.206832</v>
       </c>
       <c r="D93" t="n">
-        <v>0.162251</v>
+        <v>0.163751</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.240529</v>
+        <v>0.243026</v>
       </c>
       <c r="C94" t="n">
-        <v>0.261408</v>
+        <v>0.25501</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0945916</v>
+        <v>0.205942</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.137879</v>
+        <v>0.136244</v>
       </c>
       <c r="C95" t="n">
-        <v>0.129306</v>
+        <v>0.126421</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0988187</v>
+        <v>0.0936973</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.139954</v>
+        <v>0.143612</v>
       </c>
       <c r="C96" t="n">
-        <v>0.126661</v>
+        <v>0.127837</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0932226</v>
+        <v>0.09544039999999999</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.14523</v>
+        <v>0.142548</v>
       </c>
       <c r="C97" t="n">
-        <v>0.129588</v>
+        <v>0.134249</v>
       </c>
       <c r="D97" t="n">
-        <v>0.09916850000000001</v>
+        <v>0.101264</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.146149</v>
+        <v>0.14654</v>
       </c>
       <c r="C98" t="n">
-        <v>0.134577</v>
+        <v>0.133693</v>
       </c>
       <c r="D98" t="n">
-        <v>0.101433</v>
+        <v>0.0995023</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.155009</v>
+        <v>0.1505</v>
       </c>
       <c r="C99" t="n">
-        <v>0.138026</v>
+        <v>0.141287</v>
       </c>
       <c r="D99" t="n">
-        <v>0.104932</v>
+        <v>0.106878</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.151897</v>
+        <v>0.153095</v>
       </c>
       <c r="C100" t="n">
-        <v>0.140613</v>
+        <v>0.142187</v>
       </c>
       <c r="D100" t="n">
-        <v>0.110024</v>
+        <v>0.11109</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.164713</v>
+        <v>0.158184</v>
       </c>
       <c r="C101" t="n">
-        <v>0.150114</v>
+        <v>0.151163</v>
       </c>
       <c r="D101" t="n">
-        <v>0.110326</v>
+        <v>0.113135</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.16665</v>
+        <v>0.161614</v>
       </c>
       <c r="C102" t="n">
-        <v>0.157281</v>
+        <v>0.15293</v>
       </c>
       <c r="D102" t="n">
-        <v>0.118391</v>
+        <v>0.114449</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.175239</v>
+        <v>0.17128</v>
       </c>
       <c r="C103" t="n">
-        <v>0.161766</v>
+        <v>0.157119</v>
       </c>
       <c r="D103" t="n">
-        <v>0.124649</v>
+        <v>0.119487</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.185839</v>
+        <v>0.179761</v>
       </c>
       <c r="C104" t="n">
-        <v>0.177865</v>
+        <v>0.17054</v>
       </c>
       <c r="D104" t="n">
-        <v>0.128847</v>
+        <v>0.129068</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.193175</v>
+        <v>0.189799</v>
       </c>
       <c r="C105" t="n">
-        <v>0.194168</v>
+        <v>0.184264</v>
       </c>
       <c r="D105" t="n">
-        <v>0.138614</v>
+        <v>0.137253</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.20216</v>
+        <v>0.21132</v>
       </c>
       <c r="C106" t="n">
-        <v>0.211539</v>
+        <v>0.214492</v>
       </c>
       <c r="D106" t="n">
-        <v>0.162535</v>
+        <v>0.153206</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.237238</v>
+        <v>0.233798</v>
       </c>
       <c r="C107" t="n">
-        <v>0.245157</v>
+        <v>0.241782</v>
       </c>
       <c r="D107" t="n">
-        <v>0.17912</v>
+        <v>0.182754</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.274218</v>
+        <v>0.282379</v>
       </c>
       <c r="C108" t="n">
-        <v>0.294293</v>
+        <v>0.285435</v>
       </c>
       <c r="D108" t="n">
-        <v>0.168146</v>
+        <v>0.219867</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.340928</v>
+        <v>0.344525</v>
       </c>
       <c r="C109" t="n">
-        <v>0.374329</v>
+        <v>0.374</v>
       </c>
       <c r="D109" t="n">
-        <v>0.172677</v>
+        <v>0.285223</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.242125</v>
+        <v>0.234974</v>
       </c>
       <c r="C110" t="n">
-        <v>0.216394</v>
+        <v>0.214534</v>
       </c>
       <c r="D110" t="n">
-        <v>0.174821</v>
+        <v>0.169427</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.245036</v>
+        <v>0.230679</v>
       </c>
       <c r="C111" t="n">
-        <v>0.220409</v>
+        <v>0.220472</v>
       </c>
       <c r="D111" t="n">
-        <v>0.179714</v>
+        <v>0.180263</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.237247</v>
+        <v>0.250275</v>
       </c>
       <c r="C112" t="n">
-        <v>0.22148</v>
+        <v>0.213992</v>
       </c>
       <c r="D112" t="n">
-        <v>0.186442</v>
+        <v>0.174942</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.249432</v>
+        <v>0.236233</v>
       </c>
       <c r="C113" t="n">
-        <v>0.228022</v>
+        <v>0.22147</v>
       </c>
       <c r="D113" t="n">
-        <v>0.188543</v>
+        <v>0.180101</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.255992</v>
+        <v>0.238963</v>
       </c>
       <c r="C114" t="n">
-        <v>0.23449</v>
+        <v>0.221184</v>
       </c>
       <c r="D114" t="n">
-        <v>0.195531</v>
+        <v>0.185962</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.241944</v>
+        <v>0.244993</v>
       </c>
       <c r="C115" t="n">
-        <v>0.227428</v>
+        <v>0.2264</v>
       </c>
       <c r="D115" t="n">
-        <v>0.197629</v>
+        <v>0.189292</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.25239</v>
+        <v>0.249428</v>
       </c>
       <c r="C116" t="n">
-        <v>0.236158</v>
+        <v>0.237875</v>
       </c>
       <c r="D116" t="n">
-        <v>0.202466</v>
+        <v>0.192532</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.272302</v>
+        <v>0.278832</v>
       </c>
       <c r="C117" t="n">
-        <v>0.248896</v>
+        <v>0.251096</v>
       </c>
       <c r="D117" t="n">
-        <v>0.210916</v>
+        <v>0.198986</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.29263</v>
+        <v>0.271371</v>
       </c>
       <c r="C118" t="n">
-        <v>0.25363</v>
+        <v>0.247801</v>
       </c>
       <c r="D118" t="n">
-        <v>0.210653</v>
+        <v>0.207748</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.282375</v>
+        <v>0.298174</v>
       </c>
       <c r="C119" t="n">
-        <v>0.272643</v>
+        <v>0.286405</v>
       </c>
       <c r="D119" t="n">
-        <v>0.219463</v>
+        <v>0.232936</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.303113</v>
+        <v>0.321494</v>
       </c>
       <c r="C120" t="n">
-        <v>0.288235</v>
+        <v>0.315378</v>
       </c>
       <c r="D120" t="n">
-        <v>0.229021</v>
+        <v>0.232571</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.325538</v>
+        <v>0.350999</v>
       </c>
       <c r="C121" t="n">
-        <v>0.315852</v>
+        <v>0.335964</v>
       </c>
       <c r="D121" t="n">
-        <v>0.256645</v>
+        <v>0.255221</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.371126</v>
+        <v>0.36969</v>
       </c>
       <c r="C122" t="n">
-        <v>0.373955</v>
+        <v>0.398464</v>
       </c>
       <c r="D122" t="n">
-        <v>0.298472</v>
+        <v>0.299385</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.442474</v>
+        <v>0.443519</v>
       </c>
       <c r="C123" t="n">
-        <v>0.482186</v>
+        <v>0.452579</v>
       </c>
       <c r="D123" t="n">
-        <v>0.282883</v>
+        <v>0.363162</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.357191</v>
+        <v>0.367709</v>
       </c>
       <c r="C124" t="n">
-        <v>0.318995</v>
+        <v>0.315062</v>
       </c>
       <c r="D124" t="n">
-        <v>0.283498</v>
+        <v>0.273929</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.370054</v>
+        <v>0.365705</v>
       </c>
       <c r="C125" t="n">
-        <v>0.319762</v>
+        <v>0.323709</v>
       </c>
       <c r="D125" t="n">
-        <v>0.286174</v>
+        <v>0.281085</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.375249</v>
+        <v>0.371249</v>
       </c>
       <c r="C126" t="n">
-        <v>0.319836</v>
+        <v>0.328603</v>
       </c>
       <c r="D126" t="n">
-        <v>0.293523</v>
+        <v>0.275959</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.378431</v>
+        <v>0.386718</v>
       </c>
       <c r="C127" t="n">
-        <v>0.334072</v>
+        <v>0.333171</v>
       </c>
       <c r="D127" t="n">
-        <v>0.28802</v>
+        <v>0.286411</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.38723</v>
+        <v>0.389336</v>
       </c>
       <c r="C128" t="n">
-        <v>0.331654</v>
+        <v>0.333708</v>
       </c>
       <c r="D128" t="n">
-        <v>0.296877</v>
+        <v>0.284105</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.393546</v>
+        <v>0.390174</v>
       </c>
       <c r="C129" t="n">
-        <v>0.351192</v>
+        <v>0.342319</v>
       </c>
       <c r="D129" t="n">
-        <v>0.30067</v>
+        <v>0.293609</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.398805</v>
+        <v>0.392108</v>
       </c>
       <c r="C130" t="n">
-        <v>0.345911</v>
+        <v>0.348058</v>
       </c>
       <c r="D130" t="n">
-        <v>0.298133</v>
+        <v>0.298713</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.418693</v>
+        <v>0.4055</v>
       </c>
       <c r="C131" t="n">
-        <v>0.356439</v>
+        <v>0.36973</v>
       </c>
       <c r="D131" t="n">
-        <v>0.30226</v>
+        <v>0.307582</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.420788</v>
+        <v>0.414875</v>
       </c>
       <c r="C132" t="n">
-        <v>0.368989</v>
+        <v>0.367681</v>
       </c>
       <c r="D132" t="n">
-        <v>0.322318</v>
+        <v>0.308488</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.42648</v>
+        <v>0.425278</v>
       </c>
       <c r="C133" t="n">
-        <v>0.385504</v>
+        <v>0.394551</v>
       </c>
       <c r="D133" t="n">
-        <v>0.326521</v>
+        <v>0.329951</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.458782</v>
+        <v>0.462526</v>
       </c>
       <c r="C134" t="n">
-        <v>0.416233</v>
+        <v>0.414519</v>
       </c>
       <c r="D134" t="n">
-        <v>0.341278</v>
+        <v>0.339992</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.490589</v>
+        <v>0.489602</v>
       </c>
       <c r="C135" t="n">
-        <v>0.453113</v>
+        <v>0.450958</v>
       </c>
       <c r="D135" t="n">
-        <v>0.373756</v>
+        <v>0.372277</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.542871</v>
+        <v>0.536158</v>
       </c>
       <c r="C136" t="n">
-        <v>0.499834</v>
+        <v>0.509211</v>
       </c>
       <c r="D136" t="n">
-        <v>0.409437</v>
+        <v>0.420399</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.629185</v>
+        <v>0.61829</v>
       </c>
       <c r="C137" t="n">
-        <v>0.591246</v>
+        <v>0.605702</v>
       </c>
       <c r="D137" t="n">
-        <v>0.344202</v>
+        <v>0.477132</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.453948</v>
+        <v>0.448704</v>
       </c>
       <c r="C138" t="n">
-        <v>0.375283</v>
+        <v>0.381556</v>
       </c>
       <c r="D138" t="n">
-        <v>0.346386</v>
+        <v>0.330328</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.461815</v>
+        <v>0.453877</v>
       </c>
       <c r="C139" t="n">
-        <v>0.38799</v>
+        <v>0.392795</v>
       </c>
       <c r="D139" t="n">
-        <v>0.346747</v>
+        <v>0.336179</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.461024</v>
+        <v>0.464191</v>
       </c>
       <c r="C140" t="n">
-        <v>0.400176</v>
+        <v>0.389828</v>
       </c>
       <c r="D140" t="n">
-        <v>0.353985</v>
+        <v>0.334148</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.452936</v>
+        <v>0.46815</v>
       </c>
       <c r="C141" t="n">
-        <v>0.402635</v>
+        <v>0.393461</v>
       </c>
       <c r="D141" t="n">
-        <v>0.36408</v>
+        <v>0.343367</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.471085</v>
+        <v>0.462438</v>
       </c>
       <c r="C142" t="n">
-        <v>0.408219</v>
+        <v>0.404708</v>
       </c>
       <c r="D142" t="n">
-        <v>0.352861</v>
+        <v>0.368561</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.484704</v>
+        <v>0.518455</v>
       </c>
       <c r="C143" t="n">
-        <v>0.401575</v>
+        <v>0.428353</v>
       </c>
       <c r="D143" t="n">
-        <v>0.3595</v>
+        <v>0.354921</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0618278</v>
+        <v>0.0611537</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0614609</v>
+        <v>0.0609703</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0515951</v>
+        <v>0.0591303</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06626659999999999</v>
+        <v>0.0617151</v>
       </c>
       <c r="C3" t="n">
-        <v>0.064947</v>
+        <v>0.06525</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0527557</v>
+        <v>0.0613028</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07155980000000001</v>
+        <v>0.06747880000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0698637</v>
+        <v>0.0691761</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0562166</v>
+        <v>0.0666737</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0735359</v>
+        <v>0.07004390000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.076318</v>
+        <v>0.0787602</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0632867</v>
+        <v>0.07228560000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07971259999999999</v>
+        <v>0.08091520000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08585280000000001</v>
+        <v>0.09003849999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0725446</v>
+        <v>0.08104649999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09690219999999999</v>
+        <v>0.09507</v>
       </c>
       <c r="C7" t="n">
-        <v>0.10142</v>
+        <v>0.100802</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0868791</v>
+        <v>0.09500020000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.119872</v>
+        <v>0.114801</v>
       </c>
       <c r="C8" t="n">
-        <v>0.130221</v>
+        <v>0.130525</v>
       </c>
       <c r="D8" t="n">
-        <v>0.112633</v>
+        <v>0.123959</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.16525</v>
+        <v>0.150061</v>
       </c>
       <c r="C9" t="n">
-        <v>0.163644</v>
+        <v>0.16319</v>
       </c>
       <c r="D9" t="n">
-        <v>0.149798</v>
+        <v>0.1569</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0598332</v>
+        <v>0.0594391</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0557741</v>
+        <v>0.0574237</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0497593</v>
+        <v>0.0579555</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0597377</v>
+        <v>0.0601881</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0562053</v>
+        <v>0.0566601</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0488697</v>
+        <v>0.0562317</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0609809</v>
+        <v>0.0593741</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0571682</v>
+        <v>0.0552741</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0493088</v>
+        <v>0.0587643</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0646645</v>
+        <v>0.0597972</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0571337</v>
+        <v>0.057543</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0498552</v>
+        <v>0.0570606</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.06489</v>
+        <v>0.0607677</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0588062</v>
+        <v>0.0600099</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0537038</v>
+        <v>0.0605564</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.06459670000000001</v>
+        <v>0.0613525</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0598301</v>
+        <v>0.0606806</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0521764</v>
+        <v>0.0603548</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.065204</v>
+        <v>0.0647238</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0649623</v>
+        <v>0.0647414</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0539478</v>
+        <v>0.06710380000000001</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0691383</v>
+        <v>0.06783790000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0660147</v>
+        <v>0.0680669</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0591139</v>
+        <v>0.0680231</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0728259</v>
+        <v>0.0731257</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07198549999999999</v>
+        <v>0.07370790000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.06464</v>
+        <v>0.07335129999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0787673</v>
+        <v>0.0760551</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0803233</v>
+        <v>0.080305</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0705959</v>
+        <v>0.08188819999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08674370000000001</v>
+        <v>0.08311300000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08965960000000001</v>
+        <v>0.09067649999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0820731</v>
+        <v>0.09261270000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.10252</v>
+        <v>0.09396930000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.10377</v>
+        <v>0.102603</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09228989999999999</v>
+        <v>0.103098</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.116421</v>
+        <v>0.114076</v>
       </c>
       <c r="C22" t="n">
-        <v>0.132796</v>
+        <v>0.133248</v>
       </c>
       <c r="D22" t="n">
-        <v>0.118286</v>
+        <v>0.12635</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.156778</v>
+        <v>0.14642</v>
       </c>
       <c r="C23" t="n">
-        <v>0.170569</v>
+        <v>0.16625</v>
       </c>
       <c r="D23" t="n">
-        <v>0.155083</v>
+        <v>0.162525</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0632519</v>
+        <v>0.0619954</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0580116</v>
+        <v>0.0575701</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0524074</v>
+        <v>0.0599031</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0646095</v>
+        <v>0.0634613</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0576643</v>
+        <v>0.0583944</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0506827</v>
+        <v>0.0606626</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.06360739999999999</v>
+        <v>0.0644639</v>
       </c>
       <c r="C26" t="n">
-        <v>0.05796</v>
+        <v>0.0623861</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0514525</v>
+        <v>0.0634116</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.066263</v>
+        <v>0.0644786</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0592992</v>
+        <v>0.0624884</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0516612</v>
+        <v>0.0636886</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0679382</v>
+        <v>0.0656028</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0617423</v>
+        <v>0.0625901</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0521135</v>
+        <v>0.0640859</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0702344</v>
+        <v>0.0697598</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0628956</v>
+        <v>0.0618704</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0540034</v>
+        <v>0.0650613</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.06814240000000001</v>
+        <v>0.0660497</v>
       </c>
       <c r="C30" t="n">
-        <v>0.066926</v>
+        <v>0.0699359</v>
       </c>
       <c r="D30" t="n">
-        <v>0.057105</v>
+        <v>0.06705949999999999</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0720706</v>
+        <v>0.07146710000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06661640000000001</v>
+        <v>0.0663352</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0619476</v>
+        <v>0.0713125</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.07554</v>
+        <v>0.07342949999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0724482</v>
+        <v>0.0719651</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06374639999999999</v>
+        <v>0.0764904</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0802551</v>
+        <v>0.0787742</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0827113</v>
+        <v>0.07884049999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0708999</v>
+        <v>0.0820678</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0895685</v>
+        <v>0.09043760000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0905801</v>
+        <v>0.0916385</v>
       </c>
       <c r="D34" t="n">
-        <v>0.08308020000000001</v>
+        <v>0.09301669999999999</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.104747</v>
+        <v>0.0974339</v>
       </c>
       <c r="C35" t="n">
-        <v>0.108703</v>
+        <v>0.107652</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0980727</v>
+        <v>0.10693</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.126964</v>
+        <v>0.11431</v>
       </c>
       <c r="C36" t="n">
-        <v>0.128396</v>
+        <v>0.131563</v>
       </c>
       <c r="D36" t="n">
-        <v>0.121004</v>
+        <v>0.137281</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.149149</v>
+        <v>0.147043</v>
       </c>
       <c r="C37" t="n">
-        <v>0.173373</v>
+        <v>0.168439</v>
       </c>
       <c r="D37" t="n">
-        <v>0.158268</v>
+        <v>0.165221</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.069392</v>
+        <v>0.0699345</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0604897</v>
+        <v>0.06399000000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0529601</v>
+        <v>0.0638064</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0701205</v>
+        <v>0.0691794</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0620213</v>
+        <v>0.0618105</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0540999</v>
+        <v>0.0659602</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0696899</v>
+        <v>0.06910719999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0635486</v>
+        <v>0.06455610000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0553792</v>
+        <v>0.06703679999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.071508</v>
+        <v>0.0720893</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0641829</v>
+        <v>0.0649419</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0572346</v>
+        <v>0.0666722</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.07121230000000001</v>
+        <v>0.0727628</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0680461</v>
+        <v>0.06898120000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0578434</v>
+        <v>0.06834469999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.07330150000000001</v>
+        <v>0.07310120000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0670119</v>
+        <v>0.0685607</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0611756</v>
+        <v>0.0702277</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0746339</v>
+        <v>0.07391399999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0699087</v>
+        <v>0.0697093</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0593</v>
+        <v>0.0721818</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0749788</v>
+        <v>0.0768025</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0729204</v>
+        <v>0.07326870000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0641294</v>
+        <v>0.0754136</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.07910349999999999</v>
+        <v>0.0788455</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0768298</v>
+        <v>0.0757343</v>
       </c>
       <c r="D46" t="n">
-        <v>0.06830029999999999</v>
+        <v>0.07864409999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0860144</v>
+        <v>0.08480219999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.084387</v>
+        <v>0.0808981</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0721306</v>
+        <v>0.0849912</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0905624</v>
+        <v>0.0923151</v>
       </c>
       <c r="C48" t="n">
-        <v>0.091157</v>
+        <v>0.0902188</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0826165</v>
+        <v>0.09253400000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.104034</v>
+        <v>0.104</v>
       </c>
       <c r="C49" t="n">
-        <v>0.103245</v>
+        <v>0.104249</v>
       </c>
       <c r="D49" t="n">
-        <v>0.09401329999999999</v>
+        <v>0.110482</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.117276</v>
+        <v>0.116263</v>
       </c>
       <c r="C50" t="n">
-        <v>0.125865</v>
+        <v>0.122981</v>
       </c>
       <c r="D50" t="n">
-        <v>0.115586</v>
+        <v>0.128952</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.145719</v>
+        <v>0.146217</v>
       </c>
       <c r="C51" t="n">
-        <v>0.155045</v>
+        <v>0.154234</v>
       </c>
       <c r="D51" t="n">
-        <v>0.144993</v>
+        <v>0.159633</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.19427</v>
+        <v>0.187211</v>
       </c>
       <c r="C52" t="n">
-        <v>0.204774</v>
+        <v>0.204941</v>
       </c>
       <c r="D52" t="n">
-        <v>0.185464</v>
+        <v>0.195437</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.08076759999999999</v>
+        <v>0.0812344</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07446220000000001</v>
+        <v>0.0717564</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0605075</v>
+        <v>0.0748687</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0811799</v>
+        <v>0.0816431</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0744243</v>
+        <v>0.07600170000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0610549</v>
+        <v>0.07553120000000001</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0820511</v>
+        <v>0.089742</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0747385</v>
+        <v>0.0744407</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0619926</v>
+        <v>0.07703649999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0824091</v>
+        <v>0.0834313</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0748451</v>
+        <v>0.07597909999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.062805</v>
+        <v>0.0780917</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0840832</v>
+        <v>0.0855916</v>
       </c>
       <c r="C57" t="n">
-        <v>0.078611</v>
+        <v>0.0781284</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0636887</v>
+        <v>0.0805343</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0878562</v>
+        <v>0.09020930000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0802788</v>
+        <v>0.0813372</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0668069</v>
+        <v>0.08208269999999999</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0936091</v>
+        <v>0.0929671</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0823619</v>
+        <v>0.08464919999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0702077</v>
+        <v>0.0870441</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0934749</v>
+        <v>0.0911904</v>
       </c>
       <c r="C60" t="n">
-        <v>0.086533</v>
+        <v>0.08752749999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0721392</v>
+        <v>0.090642</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.09560340000000001</v>
+        <v>0.0967618</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0920203</v>
+        <v>0.0940786</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0806207</v>
+        <v>0.0952682</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.106113</v>
+        <v>0.101964</v>
       </c>
       <c r="C62" t="n">
-        <v>0.107176</v>
+        <v>0.108681</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0887286</v>
+        <v>0.103049</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.113477</v>
+        <v>0.114082</v>
       </c>
       <c r="C63" t="n">
-        <v>0.116999</v>
+        <v>0.1167</v>
       </c>
       <c r="D63" t="n">
-        <v>0.10203</v>
+        <v>0.118968</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.132283</v>
+        <v>0.132395</v>
       </c>
       <c r="C64" t="n">
-        <v>0.13504</v>
+        <v>0.13585</v>
       </c>
       <c r="D64" t="n">
-        <v>0.119898</v>
+        <v>0.137895</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.15471</v>
+        <v>0.154303</v>
       </c>
       <c r="C65" t="n">
-        <v>0.166682</v>
+        <v>0.163346</v>
       </c>
       <c r="D65" t="n">
-        <v>0.146684</v>
+        <v>0.162277</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.195931</v>
+        <v>0.193985</v>
       </c>
       <c r="C66" t="n">
-        <v>0.211431</v>
+        <v>0.214977</v>
       </c>
       <c r="D66" t="n">
-        <v>0.193672</v>
+        <v>0.201829</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0932825</v>
+        <v>0.09299300000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.07948470000000001</v>
+        <v>0.0790684</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0675434</v>
+        <v>0.0841317</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.091596</v>
+        <v>0.0927444</v>
       </c>
       <c r="C68" t="n">
-        <v>0.08296480000000001</v>
+        <v>0.08299429999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0676475</v>
+        <v>0.0838078</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0955908</v>
+        <v>0.0942895</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0856407</v>
+        <v>0.08521960000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0684912</v>
+        <v>0.08685470000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.095384</v>
+        <v>0.09617050000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0879622</v>
+        <v>0.0875657</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0685678</v>
+        <v>0.0895547</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.100739</v>
+        <v>0.10157</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0883779</v>
+        <v>0.0924547</v>
       </c>
       <c r="D71" t="n">
-        <v>0.06990109999999999</v>
+        <v>0.0899179</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.101367</v>
+        <v>0.101752</v>
       </c>
       <c r="C72" t="n">
-        <v>0.09278989999999999</v>
+        <v>0.09264500000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.07356840000000001</v>
+        <v>0.0952819</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.105648</v>
+        <v>0.103686</v>
       </c>
       <c r="C73" t="n">
-        <v>0.098717</v>
+        <v>0.0987021</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0755966</v>
+        <v>0.100086</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.107703</v>
+        <v>0.11148</v>
       </c>
       <c r="C74" t="n">
-        <v>0.103014</v>
+        <v>0.104974</v>
       </c>
       <c r="D74" t="n">
-        <v>0.080775</v>
+        <v>0.106111</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.117404</v>
+        <v>0.116352</v>
       </c>
       <c r="C75" t="n">
-        <v>0.111481</v>
+        <v>0.111829</v>
       </c>
       <c r="D75" t="n">
-        <v>0.08716839999999999</v>
+        <v>0.113015</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.122568</v>
+        <v>0.126593</v>
       </c>
       <c r="C76" t="n">
-        <v>0.122512</v>
+        <v>0.12534</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0970724</v>
+        <v>0.120549</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.132169</v>
+        <v>0.139588</v>
       </c>
       <c r="C77" t="n">
-        <v>0.133102</v>
+        <v>0.136585</v>
       </c>
       <c r="D77" t="n">
-        <v>0.112248</v>
+        <v>0.13855</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.147172</v>
+        <v>0.159911</v>
       </c>
       <c r="C78" t="n">
-        <v>0.149314</v>
+        <v>0.157456</v>
       </c>
       <c r="D78" t="n">
-        <v>0.128029</v>
+        <v>0.154786</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.174669</v>
+        <v>0.189982</v>
       </c>
       <c r="C79" t="n">
-        <v>0.181805</v>
+        <v>0.193782</v>
       </c>
       <c r="D79" t="n">
-        <v>0.153066</v>
+        <v>0.179928</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.223538</v>
+        <v>0.219516</v>
       </c>
       <c r="C80" t="n">
-        <v>0.235674</v>
+        <v>0.236342</v>
       </c>
       <c r="D80" t="n">
-        <v>0.198657</v>
+        <v>0.218922</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.107484</v>
+        <v>0.111293</v>
       </c>
       <c r="C81" t="n">
-        <v>0.097625</v>
+        <v>0.102459</v>
       </c>
       <c r="D81" t="n">
-        <v>0.07496750000000001</v>
+        <v>0.09843780000000001</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.108793</v>
+        <v>0.115752</v>
       </c>
       <c r="C82" t="n">
-        <v>0.09811780000000001</v>
+        <v>0.105055</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0765117</v>
+        <v>0.105679</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.115987</v>
+        <v>0.114695</v>
       </c>
       <c r="C83" t="n">
-        <v>0.101918</v>
+        <v>0.102448</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0769479</v>
+        <v>0.111793</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.114885</v>
+        <v>0.121197</v>
       </c>
       <c r="C84" t="n">
-        <v>0.103333</v>
+        <v>0.102312</v>
       </c>
       <c r="D84" t="n">
-        <v>0.07934099999999999</v>
+        <v>0.112216</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.119347</v>
+        <v>0.129059</v>
       </c>
       <c r="C85" t="n">
-        <v>0.11014</v>
+        <v>0.112768</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0814275</v>
+        <v>0.111272</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.122273</v>
+        <v>0.134717</v>
       </c>
       <c r="C86" t="n">
-        <v>0.112768</v>
+        <v>0.119837</v>
       </c>
       <c r="D86" t="n">
-        <v>0.08412409999999999</v>
+        <v>0.122084</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.13063</v>
+        <v>0.135757</v>
       </c>
       <c r="C87" t="n">
-        <v>0.120465</v>
+        <v>0.127011</v>
       </c>
       <c r="D87" t="n">
-        <v>0.09056</v>
+        <v>0.119617</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.133892</v>
+        <v>0.135494</v>
       </c>
       <c r="C88" t="n">
-        <v>0.123605</v>
+        <v>0.128645</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0963391</v>
+        <v>0.12553</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.141305</v>
+        <v>0.13769</v>
       </c>
       <c r="C89" t="n">
-        <v>0.128889</v>
+        <v>0.136209</v>
       </c>
       <c r="D89" t="n">
-        <v>0.102144</v>
+        <v>0.131627</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.149208</v>
+        <v>0.148706</v>
       </c>
       <c r="C90" t="n">
-        <v>0.138927</v>
+        <v>0.138912</v>
       </c>
       <c r="D90" t="n">
-        <v>0.108099</v>
+        <v>0.138343</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.158195</v>
+        <v>0.160474</v>
       </c>
       <c r="C91" t="n">
-        <v>0.156018</v>
+        <v>0.166561</v>
       </c>
       <c r="D91" t="n">
-        <v>0.118861</v>
+        <v>0.160152</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.171772</v>
+        <v>0.18078</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1748</v>
+        <v>0.175524</v>
       </c>
       <c r="D92" t="n">
-        <v>0.140669</v>
+        <v>0.170835</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.201202</v>
+        <v>0.201653</v>
       </c>
       <c r="C93" t="n">
-        <v>0.206832</v>
+        <v>0.212574</v>
       </c>
       <c r="D93" t="n">
-        <v>0.163751</v>
+        <v>0.191968</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.243026</v>
+        <v>0.238865</v>
       </c>
       <c r="C94" t="n">
-        <v>0.25501</v>
+        <v>0.255083</v>
       </c>
       <c r="D94" t="n">
-        <v>0.205942</v>
+        <v>0.242987</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.136244</v>
+        <v>0.139706</v>
       </c>
       <c r="C95" t="n">
-        <v>0.126421</v>
+        <v>0.126644</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0936973</v>
+        <v>0.122171</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.143612</v>
+        <v>0.14394</v>
       </c>
       <c r="C96" t="n">
-        <v>0.127837</v>
+        <v>0.125098</v>
       </c>
       <c r="D96" t="n">
-        <v>0.09544039999999999</v>
+        <v>0.128146</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.142548</v>
+        <v>0.14712</v>
       </c>
       <c r="C97" t="n">
-        <v>0.134249</v>
+        <v>0.129731</v>
       </c>
       <c r="D97" t="n">
-        <v>0.101264</v>
+        <v>0.129996</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.14654</v>
+        <v>0.146371</v>
       </c>
       <c r="C98" t="n">
-        <v>0.133693</v>
+        <v>0.133658</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0995023</v>
+        <v>0.130842</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1505</v>
+        <v>0.153671</v>
       </c>
       <c r="C99" t="n">
-        <v>0.141287</v>
+        <v>0.134791</v>
       </c>
       <c r="D99" t="n">
-        <v>0.106878</v>
+        <v>0.135209</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.153095</v>
+        <v>0.150901</v>
       </c>
       <c r="C100" t="n">
-        <v>0.142187</v>
+        <v>0.143132</v>
       </c>
       <c r="D100" t="n">
-        <v>0.11109</v>
+        <v>0.139465</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.158184</v>
+        <v>0.159872</v>
       </c>
       <c r="C101" t="n">
-        <v>0.151163</v>
+        <v>0.146648</v>
       </c>
       <c r="D101" t="n">
-        <v>0.113135</v>
+        <v>0.143647</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.161614</v>
+        <v>0.163088</v>
       </c>
       <c r="C102" t="n">
-        <v>0.15293</v>
+        <v>0.153706</v>
       </c>
       <c r="D102" t="n">
-        <v>0.114449</v>
+        <v>0.149684</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.17128</v>
+        <v>0.167994</v>
       </c>
       <c r="C103" t="n">
-        <v>0.157119</v>
+        <v>0.165318</v>
       </c>
       <c r="D103" t="n">
-        <v>0.119487</v>
+        <v>0.158924</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.179761</v>
+        <v>0.182971</v>
       </c>
       <c r="C104" t="n">
-        <v>0.17054</v>
+        <v>0.17352</v>
       </c>
       <c r="D104" t="n">
-        <v>0.129068</v>
+        <v>0.169866</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.189799</v>
+        <v>0.192469</v>
       </c>
       <c r="C105" t="n">
-        <v>0.184264</v>
+        <v>0.187636</v>
       </c>
       <c r="D105" t="n">
-        <v>0.137253</v>
+        <v>0.179646</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.21132</v>
+        <v>0.205724</v>
       </c>
       <c r="C106" t="n">
-        <v>0.214492</v>
+        <v>0.208133</v>
       </c>
       <c r="D106" t="n">
-        <v>0.153206</v>
+        <v>0.200281</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.233798</v>
+        <v>0.231183</v>
       </c>
       <c r="C107" t="n">
-        <v>0.241782</v>
+        <v>0.236546</v>
       </c>
       <c r="D107" t="n">
-        <v>0.182754</v>
+        <v>0.232692</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.282379</v>
+        <v>0.280205</v>
       </c>
       <c r="C108" t="n">
-        <v>0.285435</v>
+        <v>0.296243</v>
       </c>
       <c r="D108" t="n">
-        <v>0.219867</v>
+        <v>0.264655</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.344525</v>
+        <v>0.33996</v>
       </c>
       <c r="C109" t="n">
-        <v>0.374</v>
+        <v>0.374037</v>
       </c>
       <c r="D109" t="n">
-        <v>0.285223</v>
+        <v>0.328512</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.234974</v>
+        <v>0.238183</v>
       </c>
       <c r="C110" t="n">
-        <v>0.214534</v>
+        <v>0.203766</v>
       </c>
       <c r="D110" t="n">
-        <v>0.169427</v>
+        <v>0.206498</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.230679</v>
+        <v>0.239578</v>
       </c>
       <c r="C111" t="n">
-        <v>0.220472</v>
+        <v>0.21076</v>
       </c>
       <c r="D111" t="n">
-        <v>0.180263</v>
+        <v>0.212078</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.250275</v>
+        <v>0.239685</v>
       </c>
       <c r="C112" t="n">
-        <v>0.213992</v>
+        <v>0.215378</v>
       </c>
       <c r="D112" t="n">
-        <v>0.174942</v>
+        <v>0.214575</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.236233</v>
+        <v>0.237826</v>
       </c>
       <c r="C113" t="n">
-        <v>0.22147</v>
+        <v>0.218603</v>
       </c>
       <c r="D113" t="n">
-        <v>0.180101</v>
+        <v>0.21442</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.238963</v>
+        <v>0.254</v>
       </c>
       <c r="C114" t="n">
-        <v>0.221184</v>
+        <v>0.220006</v>
       </c>
       <c r="D114" t="n">
-        <v>0.185962</v>
+        <v>0.227038</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.244993</v>
+        <v>0.268852</v>
       </c>
       <c r="C115" t="n">
-        <v>0.2264</v>
+        <v>0.242482</v>
       </c>
       <c r="D115" t="n">
-        <v>0.189292</v>
+        <v>0.22291</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.249428</v>
+        <v>0.252062</v>
       </c>
       <c r="C116" t="n">
-        <v>0.237875</v>
+        <v>0.231088</v>
       </c>
       <c r="D116" t="n">
-        <v>0.192532</v>
+        <v>0.241443</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.278832</v>
+        <v>0.255043</v>
       </c>
       <c r="C117" t="n">
-        <v>0.251096</v>
+        <v>0.243395</v>
       </c>
       <c r="D117" t="n">
-        <v>0.198986</v>
+        <v>0.259347</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.271371</v>
+        <v>0.292343</v>
       </c>
       <c r="C118" t="n">
-        <v>0.247801</v>
+        <v>0.272583</v>
       </c>
       <c r="D118" t="n">
-        <v>0.207748</v>
+        <v>0.250025</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.298174</v>
+        <v>0.281132</v>
       </c>
       <c r="C119" t="n">
-        <v>0.286405</v>
+        <v>0.274018</v>
       </c>
       <c r="D119" t="n">
-        <v>0.232936</v>
+        <v>0.263164</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.321494</v>
+        <v>0.297897</v>
       </c>
       <c r="C120" t="n">
-        <v>0.315378</v>
+        <v>0.291984</v>
       </c>
       <c r="D120" t="n">
-        <v>0.232571</v>
+        <v>0.29254</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.350999</v>
+        <v>0.355495</v>
       </c>
       <c r="C121" t="n">
-        <v>0.335964</v>
+        <v>0.318437</v>
       </c>
       <c r="D121" t="n">
-        <v>0.255221</v>
+        <v>0.300583</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.36969</v>
+        <v>0.373309</v>
       </c>
       <c r="C122" t="n">
-        <v>0.398464</v>
+        <v>0.373419</v>
       </c>
       <c r="D122" t="n">
-        <v>0.299385</v>
+        <v>0.36523</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.443519</v>
+        <v>0.436845</v>
       </c>
       <c r="C123" t="n">
-        <v>0.452579</v>
+        <v>0.47149</v>
       </c>
       <c r="D123" t="n">
-        <v>0.363162</v>
+        <v>0.411623</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.367709</v>
+        <v>0.367444</v>
       </c>
       <c r="C124" t="n">
-        <v>0.315062</v>
+        <v>0.318724</v>
       </c>
       <c r="D124" t="n">
-        <v>0.273929</v>
+        <v>0.313893</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.365705</v>
+        <v>0.37489</v>
       </c>
       <c r="C125" t="n">
-        <v>0.323709</v>
+        <v>0.335863</v>
       </c>
       <c r="D125" t="n">
-        <v>0.281085</v>
+        <v>0.329221</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.371249</v>
+        <v>0.375972</v>
       </c>
       <c r="C126" t="n">
-        <v>0.328603</v>
+        <v>0.331423</v>
       </c>
       <c r="D126" t="n">
-        <v>0.275959</v>
+        <v>0.334883</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.386718</v>
+        <v>0.38082</v>
       </c>
       <c r="C127" t="n">
-        <v>0.333171</v>
+        <v>0.329124</v>
       </c>
       <c r="D127" t="n">
-        <v>0.286411</v>
+        <v>0.326486</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.389336</v>
+        <v>0.384224</v>
       </c>
       <c r="C128" t="n">
-        <v>0.333708</v>
+        <v>0.343054</v>
       </c>
       <c r="D128" t="n">
-        <v>0.284105</v>
+        <v>0.336678</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.390174</v>
+        <v>0.391275</v>
       </c>
       <c r="C129" t="n">
-        <v>0.342319</v>
+        <v>0.344011</v>
       </c>
       <c r="D129" t="n">
-        <v>0.293609</v>
+        <v>0.337463</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.392108</v>
+        <v>0.40565</v>
       </c>
       <c r="C130" t="n">
-        <v>0.348058</v>
+        <v>0.346313</v>
       </c>
       <c r="D130" t="n">
-        <v>0.298713</v>
+        <v>0.353877</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.4055</v>
+        <v>0.411099</v>
       </c>
       <c r="C131" t="n">
-        <v>0.36973</v>
+        <v>0.369656</v>
       </c>
       <c r="D131" t="n">
-        <v>0.307582</v>
+        <v>0.356577</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.414875</v>
+        <v>0.420495</v>
       </c>
       <c r="C132" t="n">
-        <v>0.367681</v>
+        <v>0.383726</v>
       </c>
       <c r="D132" t="n">
-        <v>0.308488</v>
+        <v>0.366376</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.425278</v>
+        <v>0.445988</v>
       </c>
       <c r="C133" t="n">
-        <v>0.394551</v>
+        <v>0.394592</v>
       </c>
       <c r="D133" t="n">
-        <v>0.329951</v>
+        <v>0.379768</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.462526</v>
+        <v>0.455598</v>
       </c>
       <c r="C134" t="n">
-        <v>0.414519</v>
+        <v>0.406235</v>
       </c>
       <c r="D134" t="n">
-        <v>0.339992</v>
+        <v>0.399619</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.489602</v>
+        <v>0.487886</v>
       </c>
       <c r="C135" t="n">
-        <v>0.450958</v>
+        <v>0.454671</v>
       </c>
       <c r="D135" t="n">
-        <v>0.372277</v>
+        <v>0.419548</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.536158</v>
+        <v>0.541504</v>
       </c>
       <c r="C136" t="n">
-        <v>0.509211</v>
+        <v>0.492104</v>
       </c>
       <c r="D136" t="n">
-        <v>0.420399</v>
+        <v>0.46866</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.61829</v>
+        <v>0.636455</v>
       </c>
       <c r="C137" t="n">
-        <v>0.605702</v>
+        <v>0.58733</v>
       </c>
       <c r="D137" t="n">
-        <v>0.477132</v>
+        <v>0.550288</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.448704</v>
+        <v>0.46225</v>
       </c>
       <c r="C138" t="n">
-        <v>0.381556</v>
+        <v>0.384646</v>
       </c>
       <c r="D138" t="n">
-        <v>0.330328</v>
+        <v>0.380986</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.453877</v>
+        <v>0.449464</v>
       </c>
       <c r="C139" t="n">
-        <v>0.392795</v>
+        <v>0.378366</v>
       </c>
       <c r="D139" t="n">
-        <v>0.336179</v>
+        <v>0.386253</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.464191</v>
+        <v>0.454409</v>
       </c>
       <c r="C140" t="n">
-        <v>0.389828</v>
+        <v>0.391898</v>
       </c>
       <c r="D140" t="n">
-        <v>0.334148</v>
+        <v>0.393182</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.46815</v>
+        <v>0.467677</v>
       </c>
       <c r="C141" t="n">
-        <v>0.393461</v>
+        <v>0.397324</v>
       </c>
       <c r="D141" t="n">
-        <v>0.343367</v>
+        <v>0.396159</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.462438</v>
+        <v>0.476117</v>
       </c>
       <c r="C142" t="n">
-        <v>0.404708</v>
+        <v>0.390877</v>
       </c>
       <c r="D142" t="n">
-        <v>0.368561</v>
+        <v>0.404262</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.518455</v>
+        <v>0.474486</v>
       </c>
       <c r="C143" t="n">
-        <v>0.428353</v>
+        <v>0.409857</v>
       </c>
       <c r="D143" t="n">
-        <v>0.354921</v>
+        <v>0.398111</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0611537</v>
+        <v>0.0605851</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0609703</v>
+        <v>0.061641</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0591303</v>
+        <v>0.0588306</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0617151</v>
+        <v>0.0644499</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06525</v>
+        <v>0.0650549</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0613028</v>
+        <v>0.06271400000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06747880000000001</v>
+        <v>0.06692330000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0691761</v>
+        <v>0.0682941</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0666737</v>
+        <v>0.0652126</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07004390000000001</v>
+        <v>0.0735779</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0787602</v>
+        <v>0.0750358</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07228560000000001</v>
+        <v>0.0767089</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.08091520000000001</v>
+        <v>0.0848197</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09003849999999999</v>
+        <v>0.08709459999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08104649999999999</v>
+        <v>0.0886139</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09507</v>
+        <v>0.09790980000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.100802</v>
+        <v>0.104735</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09500020000000001</v>
+        <v>0.09929590000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.114801</v>
+        <v>0.119223</v>
       </c>
       <c r="C8" t="n">
-        <v>0.130525</v>
+        <v>0.1354</v>
       </c>
       <c r="D8" t="n">
-        <v>0.123959</v>
+        <v>0.12198</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.150061</v>
+        <v>0.152689</v>
       </c>
       <c r="C9" t="n">
-        <v>0.16319</v>
+        <v>0.165951</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1569</v>
+        <v>0.164116</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0594391</v>
+        <v>0.0615179</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0574237</v>
+        <v>0.0553733</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0579555</v>
+        <v>0.0559012</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0601881</v>
+        <v>0.0609575</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0566601</v>
+        <v>0.0567159</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0562317</v>
+        <v>0.0576811</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0593741</v>
+        <v>0.0601445</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0552741</v>
+        <v>0.0585515</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0587643</v>
+        <v>0.0591215</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0597972</v>
+        <v>0.0609911</v>
       </c>
       <c r="C13" t="n">
-        <v>0.057543</v>
+        <v>0.0583287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0570606</v>
+        <v>0.0578783</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0607677</v>
+        <v>0.06356820000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0600099</v>
+        <v>0.0586918</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0605564</v>
+        <v>0.059387</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0613525</v>
+        <v>0.0621937</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0606806</v>
+        <v>0.060604</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0603548</v>
+        <v>0.0608946</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0647238</v>
+        <v>0.0647161</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0647414</v>
+        <v>0.06400749999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.06710380000000001</v>
+        <v>0.0647916</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06783790000000001</v>
+        <v>0.06554989999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0680669</v>
+        <v>0.0676363</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0680231</v>
+        <v>0.06875920000000001</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0731257</v>
+        <v>0.06813279999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07370790000000001</v>
+        <v>0.07324550000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07335129999999999</v>
+        <v>0.0740615</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0760551</v>
+        <v>0.0734663</v>
       </c>
       <c r="C19" t="n">
-        <v>0.080305</v>
+        <v>0.0793041</v>
       </c>
       <c r="D19" t="n">
-        <v>0.08188819999999999</v>
+        <v>0.0807855</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08311300000000001</v>
+        <v>0.08237369999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09067649999999999</v>
+        <v>0.0905268</v>
       </c>
       <c r="D20" t="n">
-        <v>0.09261270000000001</v>
+        <v>0.089724</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.09396930000000001</v>
+        <v>0.0932698</v>
       </c>
       <c r="C21" t="n">
-        <v>0.102603</v>
+        <v>0.106568</v>
       </c>
       <c r="D21" t="n">
-        <v>0.103098</v>
+        <v>0.107712</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.114076</v>
+        <v>0.114248</v>
       </c>
       <c r="C22" t="n">
-        <v>0.133248</v>
+        <v>0.131858</v>
       </c>
       <c r="D22" t="n">
-        <v>0.12635</v>
+        <v>0.131191</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.14642</v>
+        <v>0.142054</v>
       </c>
       <c r="C23" t="n">
-        <v>0.16625</v>
+        <v>0.181816</v>
       </c>
       <c r="D23" t="n">
-        <v>0.162525</v>
+        <v>0.162528</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0619954</v>
+        <v>0.0629894</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0575701</v>
+        <v>0.0599506</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0599031</v>
+        <v>0.0602101</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0634613</v>
+        <v>0.06341579999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0583944</v>
+        <v>0.0599904</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0606626</v>
+        <v>0.0616403</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0644639</v>
+        <v>0.0648695</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0623861</v>
+        <v>0.0586365</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0634116</v>
+        <v>0.0606765</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0644786</v>
+        <v>0.0667336</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0624884</v>
+        <v>0.0605702</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0636886</v>
+        <v>0.0621922</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0656028</v>
+        <v>0.0649933</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0625901</v>
+        <v>0.0608675</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0640859</v>
+        <v>0.0628833</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0697598</v>
+        <v>0.0688231</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0618704</v>
+        <v>0.06331199999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0650613</v>
+        <v>0.06622409999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0660497</v>
+        <v>0.0714162</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0699359</v>
+        <v>0.0655044</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06705949999999999</v>
+        <v>0.0674824</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.07146710000000001</v>
+        <v>0.071784</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0663352</v>
+        <v>0.06731959999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0713125</v>
+        <v>0.06946040000000001</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.07342949999999999</v>
+        <v>0.0764546</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0719651</v>
+        <v>0.07176200000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0764904</v>
+        <v>0.0748964</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0787742</v>
+        <v>0.0786512</v>
       </c>
       <c r="C33" t="n">
-        <v>0.07884049999999999</v>
+        <v>0.0797928</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0820678</v>
+        <v>0.08387</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.09043760000000001</v>
+        <v>0.086953</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0916385</v>
+        <v>0.08945930000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.09301669999999999</v>
+        <v>0.0916578</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0974339</v>
+        <v>0.0998758</v>
       </c>
       <c r="C35" t="n">
-        <v>0.107652</v>
+        <v>0.107682</v>
       </c>
       <c r="D35" t="n">
-        <v>0.10693</v>
+        <v>0.104169</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.11431</v>
+        <v>0.119846</v>
       </c>
       <c r="C36" t="n">
-        <v>0.131563</v>
+        <v>0.127448</v>
       </c>
       <c r="D36" t="n">
-        <v>0.137281</v>
+        <v>0.129163</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.147043</v>
+        <v>0.146499</v>
       </c>
       <c r="C37" t="n">
-        <v>0.168439</v>
+        <v>0.165262</v>
       </c>
       <c r="D37" t="n">
-        <v>0.165221</v>
+        <v>0.166341</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0699345</v>
+        <v>0.07070650000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.06399000000000001</v>
+        <v>0.0620521</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0638064</v>
+        <v>0.06626219999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0691794</v>
+        <v>0.0691828</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0618105</v>
+        <v>0.06279990000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0659602</v>
+        <v>0.0644308</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.06910719999999999</v>
+        <v>0.0705635</v>
       </c>
       <c r="C40" t="n">
-        <v>0.06455610000000001</v>
+        <v>0.0647997</v>
       </c>
       <c r="D40" t="n">
-        <v>0.06703679999999999</v>
+        <v>0.06495769999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0720893</v>
+        <v>0.0699331</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0649419</v>
+        <v>0.0650911</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0666722</v>
+        <v>0.0666398</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0727628</v>
+        <v>0.0703927</v>
       </c>
       <c r="C42" t="n">
-        <v>0.06898120000000001</v>
+        <v>0.0653957</v>
       </c>
       <c r="D42" t="n">
-        <v>0.06834469999999999</v>
+        <v>0.0703819</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.07310120000000001</v>
+        <v>0.0741324</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0685607</v>
+        <v>0.0671103</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0702277</v>
+        <v>0.0694834</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.07391399999999999</v>
+        <v>0.0756521</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0697093</v>
+        <v>0.0680215</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0721818</v>
+        <v>0.0721329</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0768025</v>
+        <v>0.07639840000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07326870000000001</v>
+        <v>0.0724099</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0754136</v>
+        <v>0.0757969</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0788455</v>
+        <v>0.0800934</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0757343</v>
+        <v>0.0770825</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07864409999999999</v>
+        <v>0.0789846</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.08480219999999999</v>
+        <v>0.0862622</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0808981</v>
+        <v>0.08445999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0849912</v>
+        <v>0.0838921</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0923151</v>
+        <v>0.0889268</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0902188</v>
+        <v>0.0969378</v>
       </c>
       <c r="D48" t="n">
-        <v>0.09253400000000001</v>
+        <v>0.0932574</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.104</v>
+        <v>0.103249</v>
       </c>
       <c r="C49" t="n">
-        <v>0.104249</v>
+        <v>0.101934</v>
       </c>
       <c r="D49" t="n">
-        <v>0.110482</v>
+        <v>0.107479</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.116263</v>
+        <v>0.125548</v>
       </c>
       <c r="C50" t="n">
-        <v>0.122981</v>
+        <v>0.128536</v>
       </c>
       <c r="D50" t="n">
-        <v>0.128952</v>
+        <v>0.129621</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.146217</v>
+        <v>0.146541</v>
       </c>
       <c r="C51" t="n">
-        <v>0.154234</v>
+        <v>0.156314</v>
       </c>
       <c r="D51" t="n">
-        <v>0.159633</v>
+        <v>0.156241</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.187211</v>
+        <v>0.189718</v>
       </c>
       <c r="C52" t="n">
-        <v>0.204941</v>
+        <v>0.212038</v>
       </c>
       <c r="D52" t="n">
-        <v>0.195437</v>
+        <v>0.195892</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0812344</v>
+        <v>0.079735</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0717564</v>
+        <v>0.0718044</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0748687</v>
+        <v>0.07394249999999999</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0816431</v>
+        <v>0.0788746</v>
       </c>
       <c r="C54" t="n">
-        <v>0.07600170000000001</v>
+        <v>0.074743</v>
       </c>
       <c r="D54" t="n">
-        <v>0.07553120000000001</v>
+        <v>0.0743817</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.089742</v>
+        <v>0.0815254</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0744407</v>
+        <v>0.0734735</v>
       </c>
       <c r="D55" t="n">
-        <v>0.07703649999999999</v>
+        <v>0.07590479999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0834313</v>
+        <v>0.0833652</v>
       </c>
       <c r="C56" t="n">
-        <v>0.07597909999999999</v>
+        <v>0.0765919</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0780917</v>
+        <v>0.07678450000000001</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0855916</v>
+        <v>0.0863717</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0781284</v>
+        <v>0.0787731</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0805343</v>
+        <v>0.0786197</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.09020930000000001</v>
+        <v>0.0879185</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0813372</v>
+        <v>0.0793195</v>
       </c>
       <c r="D58" t="n">
-        <v>0.08208269999999999</v>
+        <v>0.0819044</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0929671</v>
+        <v>0.08987970000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.08464919999999999</v>
+        <v>0.0832846</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0870441</v>
+        <v>0.0852653</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0911904</v>
+        <v>0.0934164</v>
       </c>
       <c r="C60" t="n">
-        <v>0.08752749999999999</v>
+        <v>0.0875909</v>
       </c>
       <c r="D60" t="n">
-        <v>0.090642</v>
+        <v>0.0902155</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0967618</v>
+        <v>0.0983281</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0940786</v>
+        <v>0.0945812</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0952682</v>
+        <v>0.0934668</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.101964</v>
+        <v>0.102796</v>
       </c>
       <c r="C62" t="n">
-        <v>0.108681</v>
+        <v>0.105475</v>
       </c>
       <c r="D62" t="n">
-        <v>0.103049</v>
+        <v>0.10474</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.114082</v>
+        <v>0.115051</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1167</v>
+        <v>0.116581</v>
       </c>
       <c r="D63" t="n">
-        <v>0.118968</v>
+        <v>0.115988</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.132395</v>
+        <v>0.127674</v>
       </c>
       <c r="C64" t="n">
-        <v>0.13585</v>
+        <v>0.132835</v>
       </c>
       <c r="D64" t="n">
-        <v>0.137895</v>
+        <v>0.137349</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.154303</v>
+        <v>0.157163</v>
       </c>
       <c r="C65" t="n">
-        <v>0.163346</v>
+        <v>0.16614</v>
       </c>
       <c r="D65" t="n">
-        <v>0.162277</v>
+        <v>0.16147</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.193985</v>
+        <v>0.197886</v>
       </c>
       <c r="C66" t="n">
-        <v>0.214977</v>
+        <v>0.219297</v>
       </c>
       <c r="D66" t="n">
-        <v>0.201829</v>
+        <v>0.201641</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.09299300000000001</v>
+        <v>0.089102</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0790684</v>
+        <v>0.08057930000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0841317</v>
+        <v>0.0829665</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0927444</v>
+        <v>0.0933797</v>
       </c>
       <c r="C68" t="n">
-        <v>0.08299429999999999</v>
+        <v>0.0811209</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0838078</v>
+        <v>0.0858405</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0942895</v>
+        <v>0.09380520000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.08521960000000001</v>
+        <v>0.08384510000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.08685470000000001</v>
+        <v>0.08708680000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.09617050000000001</v>
+        <v>0.0954038</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0875657</v>
+        <v>0.08706</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0895547</v>
+        <v>0.0875214</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.10157</v>
+        <v>0.09856769999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0924547</v>
+        <v>0.0916704</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0899179</v>
+        <v>0.0918012</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.101752</v>
+        <v>0.0995564</v>
       </c>
       <c r="C72" t="n">
-        <v>0.09264500000000001</v>
+        <v>0.0916777</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0952819</v>
+        <v>0.09556190000000001</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.103686</v>
+        <v>0.106226</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0987021</v>
+        <v>0.100168</v>
       </c>
       <c r="D73" t="n">
-        <v>0.100086</v>
+        <v>0.0967592</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.11148</v>
+        <v>0.106224</v>
       </c>
       <c r="C74" t="n">
-        <v>0.104974</v>
+        <v>0.104122</v>
       </c>
       <c r="D74" t="n">
-        <v>0.106111</v>
+        <v>0.10246</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.116352</v>
+        <v>0.115324</v>
       </c>
       <c r="C75" t="n">
-        <v>0.111829</v>
+        <v>0.111317</v>
       </c>
       <c r="D75" t="n">
-        <v>0.113015</v>
+        <v>0.109018</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.126593</v>
+        <v>0.124208</v>
       </c>
       <c r="C76" t="n">
-        <v>0.12534</v>
+        <v>0.121054</v>
       </c>
       <c r="D76" t="n">
-        <v>0.120549</v>
+        <v>0.117867</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.139588</v>
+        <v>0.134901</v>
       </c>
       <c r="C77" t="n">
-        <v>0.136585</v>
+        <v>0.136542</v>
       </c>
       <c r="D77" t="n">
-        <v>0.13855</v>
+        <v>0.133329</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.159911</v>
+        <v>0.156376</v>
       </c>
       <c r="C78" t="n">
-        <v>0.157456</v>
+        <v>0.151883</v>
       </c>
       <c r="D78" t="n">
-        <v>0.154786</v>
+        <v>0.153528</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.189982</v>
+        <v>0.174802</v>
       </c>
       <c r="C79" t="n">
-        <v>0.193782</v>
+        <v>0.182188</v>
       </c>
       <c r="D79" t="n">
-        <v>0.179928</v>
+        <v>0.181672</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.219516</v>
+        <v>0.222119</v>
       </c>
       <c r="C80" t="n">
-        <v>0.236342</v>
+        <v>0.227068</v>
       </c>
       <c r="D80" t="n">
-        <v>0.218922</v>
+        <v>0.225108</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.111293</v>
+        <v>0.105299</v>
       </c>
       <c r="C81" t="n">
-        <v>0.102459</v>
+        <v>0.095596</v>
       </c>
       <c r="D81" t="n">
-        <v>0.09843780000000001</v>
+        <v>0.09588439999999999</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.115752</v>
+        <v>0.111649</v>
       </c>
       <c r="C82" t="n">
-        <v>0.105055</v>
+        <v>0.09990690000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.105679</v>
+        <v>0.100284</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.114695</v>
+        <v>0.113466</v>
       </c>
       <c r="C83" t="n">
-        <v>0.102448</v>
+        <v>0.101735</v>
       </c>
       <c r="D83" t="n">
-        <v>0.111793</v>
+        <v>0.102659</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.121197</v>
+        <v>0.117085</v>
       </c>
       <c r="C84" t="n">
-        <v>0.102312</v>
+        <v>0.105952</v>
       </c>
       <c r="D84" t="n">
-        <v>0.112216</v>
+        <v>0.105109</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.129059</v>
+        <v>0.118661</v>
       </c>
       <c r="C85" t="n">
-        <v>0.112768</v>
+        <v>0.114612</v>
       </c>
       <c r="D85" t="n">
-        <v>0.111272</v>
+        <v>0.10937</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.134717</v>
+        <v>0.123016</v>
       </c>
       <c r="C86" t="n">
-        <v>0.119837</v>
+        <v>0.113123</v>
       </c>
       <c r="D86" t="n">
-        <v>0.122084</v>
+        <v>0.112864</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.135757</v>
+        <v>0.128893</v>
       </c>
       <c r="C87" t="n">
-        <v>0.127011</v>
+        <v>0.114902</v>
       </c>
       <c r="D87" t="n">
-        <v>0.119617</v>
+        <v>0.117158</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.135494</v>
+        <v>0.133475</v>
       </c>
       <c r="C88" t="n">
-        <v>0.128645</v>
+        <v>0.121413</v>
       </c>
       <c r="D88" t="n">
-        <v>0.12553</v>
+        <v>0.121066</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.13769</v>
+        <v>0.138292</v>
       </c>
       <c r="C89" t="n">
-        <v>0.136209</v>
+        <v>0.134247</v>
       </c>
       <c r="D89" t="n">
-        <v>0.131627</v>
+        <v>0.129784</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.148706</v>
+        <v>0.149593</v>
       </c>
       <c r="C90" t="n">
-        <v>0.138912</v>
+        <v>0.14221</v>
       </c>
       <c r="D90" t="n">
-        <v>0.138343</v>
+        <v>0.14689</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.160474</v>
+        <v>0.16329</v>
       </c>
       <c r="C91" t="n">
-        <v>0.166561</v>
+        <v>0.155962</v>
       </c>
       <c r="D91" t="n">
-        <v>0.160152</v>
+        <v>0.149823</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.18078</v>
+        <v>0.180775</v>
       </c>
       <c r="C92" t="n">
-        <v>0.175524</v>
+        <v>0.176167</v>
       </c>
       <c r="D92" t="n">
-        <v>0.170835</v>
+        <v>0.168763</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.201653</v>
+        <v>0.204098</v>
       </c>
       <c r="C93" t="n">
-        <v>0.212574</v>
+        <v>0.210787</v>
       </c>
       <c r="D93" t="n">
-        <v>0.191968</v>
+        <v>0.193565</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.238865</v>
+        <v>0.244316</v>
       </c>
       <c r="C94" t="n">
-        <v>0.255083</v>
+        <v>0.256816</v>
       </c>
       <c r="D94" t="n">
-        <v>0.242987</v>
+        <v>0.231935</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.139706</v>
+        <v>0.137825</v>
       </c>
       <c r="C95" t="n">
-        <v>0.126644</v>
+        <v>0.127369</v>
       </c>
       <c r="D95" t="n">
-        <v>0.122171</v>
+        <v>0.127668</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.14394</v>
+        <v>0.141186</v>
       </c>
       <c r="C96" t="n">
-        <v>0.125098</v>
+        <v>0.125059</v>
       </c>
       <c r="D96" t="n">
-        <v>0.128146</v>
+        <v>0.128039</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.14712</v>
+        <v>0.144851</v>
       </c>
       <c r="C97" t="n">
-        <v>0.129731</v>
+        <v>0.130681</v>
       </c>
       <c r="D97" t="n">
-        <v>0.129996</v>
+        <v>0.130299</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.146371</v>
+        <v>0.149792</v>
       </c>
       <c r="C98" t="n">
-        <v>0.133658</v>
+        <v>0.132325</v>
       </c>
       <c r="D98" t="n">
-        <v>0.130842</v>
+        <v>0.135624</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.153671</v>
+        <v>0.157653</v>
       </c>
       <c r="C99" t="n">
-        <v>0.134791</v>
+        <v>0.13821</v>
       </c>
       <c r="D99" t="n">
-        <v>0.135209</v>
+        <v>0.133693</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.150901</v>
+        <v>0.163431</v>
       </c>
       <c r="C100" t="n">
-        <v>0.143132</v>
+        <v>0.142648</v>
       </c>
       <c r="D100" t="n">
-        <v>0.139465</v>
+        <v>0.147689</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.159872</v>
+        <v>0.159592</v>
       </c>
       <c r="C101" t="n">
-        <v>0.146648</v>
+        <v>0.148748</v>
       </c>
       <c r="D101" t="n">
-        <v>0.143647</v>
+        <v>0.152378</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.163088</v>
+        <v>0.164897</v>
       </c>
       <c r="C102" t="n">
-        <v>0.153706</v>
+        <v>0.153518</v>
       </c>
       <c r="D102" t="n">
-        <v>0.149684</v>
+        <v>0.150394</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.167994</v>
+        <v>0.173919</v>
       </c>
       <c r="C103" t="n">
-        <v>0.165318</v>
+        <v>0.163288</v>
       </c>
       <c r="D103" t="n">
-        <v>0.158924</v>
+        <v>0.168543</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.182971</v>
+        <v>0.181057</v>
       </c>
       <c r="C104" t="n">
-        <v>0.17352</v>
+        <v>0.173029</v>
       </c>
       <c r="D104" t="n">
-        <v>0.169866</v>
+        <v>0.169748</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.192469</v>
+        <v>0.195496</v>
       </c>
       <c r="C105" t="n">
-        <v>0.187636</v>
+        <v>0.195588</v>
       </c>
       <c r="D105" t="n">
-        <v>0.179646</v>
+        <v>0.185818</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.205724</v>
+        <v>0.212047</v>
       </c>
       <c r="C106" t="n">
-        <v>0.208133</v>
+        <v>0.216234</v>
       </c>
       <c r="D106" t="n">
-        <v>0.200281</v>
+        <v>0.196313</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.231183</v>
+        <v>0.230919</v>
       </c>
       <c r="C107" t="n">
-        <v>0.236546</v>
+        <v>0.23881</v>
       </c>
       <c r="D107" t="n">
-        <v>0.232692</v>
+        <v>0.224324</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.280205</v>
+        <v>0.268588</v>
       </c>
       <c r="C108" t="n">
-        <v>0.296243</v>
+        <v>0.291995</v>
       </c>
       <c r="D108" t="n">
-        <v>0.264655</v>
+        <v>0.259443</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.33996</v>
+        <v>0.343543</v>
       </c>
       <c r="C109" t="n">
-        <v>0.374037</v>
+        <v>0.380917</v>
       </c>
       <c r="D109" t="n">
-        <v>0.328512</v>
+        <v>0.335386</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.238183</v>
+        <v>0.242039</v>
       </c>
       <c r="C110" t="n">
-        <v>0.203766</v>
+        <v>0.203551</v>
       </c>
       <c r="D110" t="n">
-        <v>0.206498</v>
+        <v>0.20381</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.239578</v>
+        <v>0.24191</v>
       </c>
       <c r="C111" t="n">
-        <v>0.21076</v>
+        <v>0.206858</v>
       </c>
       <c r="D111" t="n">
-        <v>0.212078</v>
+        <v>0.227938</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.239685</v>
+        <v>0.245509</v>
       </c>
       <c r="C112" t="n">
-        <v>0.215378</v>
+        <v>0.213733</v>
       </c>
       <c r="D112" t="n">
-        <v>0.214575</v>
+        <v>0.221399</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.237826</v>
+        <v>0.229902</v>
       </c>
       <c r="C113" t="n">
-        <v>0.218603</v>
+        <v>0.231723</v>
       </c>
       <c r="D113" t="n">
-        <v>0.21442</v>
+        <v>0.216143</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.254</v>
+        <v>0.24185</v>
       </c>
       <c r="C114" t="n">
-        <v>0.220006</v>
+        <v>0.216743</v>
       </c>
       <c r="D114" t="n">
-        <v>0.227038</v>
+        <v>0.222117</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.268852</v>
+        <v>0.242083</v>
       </c>
       <c r="C115" t="n">
-        <v>0.242482</v>
+        <v>0.245673</v>
       </c>
       <c r="D115" t="n">
-        <v>0.22291</v>
+        <v>0.228144</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.252062</v>
+        <v>0.266727</v>
       </c>
       <c r="C116" t="n">
-        <v>0.231088</v>
+        <v>0.232924</v>
       </c>
       <c r="D116" t="n">
-        <v>0.241443</v>
+        <v>0.2424</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.255043</v>
+        <v>0.263731</v>
       </c>
       <c r="C117" t="n">
-        <v>0.243395</v>
+        <v>0.241006</v>
       </c>
       <c r="D117" t="n">
-        <v>0.259347</v>
+        <v>0.251511</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.292343</v>
+        <v>0.275345</v>
       </c>
       <c r="C118" t="n">
-        <v>0.272583</v>
+        <v>0.262848</v>
       </c>
       <c r="D118" t="n">
-        <v>0.250025</v>
+        <v>0.250078</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.281132</v>
+        <v>0.299439</v>
       </c>
       <c r="C119" t="n">
-        <v>0.274018</v>
+        <v>0.273815</v>
       </c>
       <c r="D119" t="n">
-        <v>0.263164</v>
+        <v>0.255793</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.297897</v>
+        <v>0.292206</v>
       </c>
       <c r="C120" t="n">
-        <v>0.291984</v>
+        <v>0.294704</v>
       </c>
       <c r="D120" t="n">
-        <v>0.29254</v>
+        <v>0.275014</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.355495</v>
+        <v>0.341433</v>
       </c>
       <c r="C121" t="n">
-        <v>0.318437</v>
+        <v>0.32186</v>
       </c>
       <c r="D121" t="n">
-        <v>0.300583</v>
+        <v>0.311708</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.373309</v>
+        <v>0.372728</v>
       </c>
       <c r="C122" t="n">
-        <v>0.373419</v>
+        <v>0.366234</v>
       </c>
       <c r="D122" t="n">
-        <v>0.36523</v>
+        <v>0.35654</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.436845</v>
+        <v>0.470001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.47149</v>
+        <v>0.454113</v>
       </c>
       <c r="D123" t="n">
-        <v>0.411623</v>
+        <v>0.411645</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.367444</v>
+        <v>0.366835</v>
       </c>
       <c r="C124" t="n">
-        <v>0.318724</v>
+        <v>0.326049</v>
       </c>
       <c r="D124" t="n">
-        <v>0.313893</v>
+        <v>0.330346</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.37489</v>
+        <v>0.366428</v>
       </c>
       <c r="C125" t="n">
-        <v>0.335863</v>
+        <v>0.316552</v>
       </c>
       <c r="D125" t="n">
-        <v>0.329221</v>
+        <v>0.318161</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.375972</v>
+        <v>0.377198</v>
       </c>
       <c r="C126" t="n">
-        <v>0.331423</v>
+        <v>0.314544</v>
       </c>
       <c r="D126" t="n">
-        <v>0.334883</v>
+        <v>0.325891</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.38082</v>
+        <v>0.381812</v>
       </c>
       <c r="C127" t="n">
-        <v>0.329124</v>
+        <v>0.326487</v>
       </c>
       <c r="D127" t="n">
-        <v>0.326486</v>
+        <v>0.330503</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.384224</v>
+        <v>0.389157</v>
       </c>
       <c r="C128" t="n">
-        <v>0.343054</v>
+        <v>0.344732</v>
       </c>
       <c r="D128" t="n">
-        <v>0.336678</v>
+        <v>0.345497</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.391275</v>
+        <v>0.391147</v>
       </c>
       <c r="C129" t="n">
-        <v>0.344011</v>
+        <v>0.345428</v>
       </c>
       <c r="D129" t="n">
-        <v>0.337463</v>
+        <v>0.349669</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.40565</v>
+        <v>0.410232</v>
       </c>
       <c r="C130" t="n">
-        <v>0.346313</v>
+        <v>0.347354</v>
       </c>
       <c r="D130" t="n">
-        <v>0.353877</v>
+        <v>0.344226</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.411099</v>
+        <v>0.404309</v>
       </c>
       <c r="C131" t="n">
-        <v>0.369656</v>
+        <v>0.355324</v>
       </c>
       <c r="D131" t="n">
-        <v>0.356577</v>
+        <v>0.347868</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.420495</v>
+        <v>0.425373</v>
       </c>
       <c r="C132" t="n">
-        <v>0.383726</v>
+        <v>0.380224</v>
       </c>
       <c r="D132" t="n">
-        <v>0.366376</v>
+        <v>0.367785</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.445988</v>
+        <v>0.446443</v>
       </c>
       <c r="C133" t="n">
-        <v>0.394592</v>
+        <v>0.396972</v>
       </c>
       <c r="D133" t="n">
-        <v>0.379768</v>
+        <v>0.38913</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.455598</v>
+        <v>0.45642</v>
       </c>
       <c r="C134" t="n">
-        <v>0.406235</v>
+        <v>0.403479</v>
       </c>
       <c r="D134" t="n">
-        <v>0.399619</v>
+        <v>0.404045</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.487886</v>
+        <v>0.478245</v>
       </c>
       <c r="C135" t="n">
-        <v>0.454671</v>
+        <v>0.447633</v>
       </c>
       <c r="D135" t="n">
-        <v>0.419548</v>
+        <v>0.420528</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.541504</v>
+        <v>0.535035</v>
       </c>
       <c r="C136" t="n">
-        <v>0.492104</v>
+        <v>0.498442</v>
       </c>
       <c r="D136" t="n">
-        <v>0.46866</v>
+        <v>0.464513</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.636455</v>
+        <v>0.615182</v>
       </c>
       <c r="C137" t="n">
-        <v>0.58733</v>
+        <v>0.606419</v>
       </c>
       <c r="D137" t="n">
-        <v>0.550288</v>
+        <v>0.548345</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.46225</v>
+        <v>0.447446</v>
       </c>
       <c r="C138" t="n">
-        <v>0.384646</v>
+        <v>0.385551</v>
       </c>
       <c r="D138" t="n">
-        <v>0.380986</v>
+        <v>0.378003</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.449464</v>
+        <v>0.45281</v>
       </c>
       <c r="C139" t="n">
-        <v>0.378366</v>
+        <v>0.387693</v>
       </c>
       <c r="D139" t="n">
-        <v>0.386253</v>
+        <v>0.388807</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.454409</v>
+        <v>0.461777</v>
       </c>
       <c r="C140" t="n">
-        <v>0.391898</v>
+        <v>0.387521</v>
       </c>
       <c r="D140" t="n">
-        <v>0.393182</v>
+        <v>0.380531</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.467677</v>
+        <v>0.470072</v>
       </c>
       <c r="C141" t="n">
-        <v>0.397324</v>
+        <v>0.395465</v>
       </c>
       <c r="D141" t="n">
-        <v>0.396159</v>
+        <v>0.399433</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.476117</v>
+        <v>0.47295</v>
       </c>
       <c r="C142" t="n">
-        <v>0.390877</v>
+        <v>0.392921</v>
       </c>
       <c r="D142" t="n">
-        <v>0.404262</v>
+        <v>0.400134</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.474486</v>
+        <v>0.474613</v>
       </c>
       <c r="C143" t="n">
-        <v>0.409857</v>
+        <v>0.411899</v>
       </c>
       <c r="D143" t="n">
-        <v>0.398111</v>
+        <v>0.409607</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0605851</v>
+        <v>0.0594608</v>
       </c>
       <c r="C2" t="n">
-        <v>0.061641</v>
+        <v>0.062807</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0588306</v>
+        <v>0.0623085</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0644499</v>
+        <v>0.06348429999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0650549</v>
+        <v>0.0661867</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06271400000000001</v>
+        <v>0.0654917</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06692330000000001</v>
+        <v>0.0666892</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0682941</v>
+        <v>0.0696865</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0652126</v>
+        <v>0.0696605</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0735779</v>
+        <v>0.07240050000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0750358</v>
+        <v>0.076295</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0767089</v>
+        <v>0.0825032</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0848197</v>
+        <v>0.0816698</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08709459999999999</v>
+        <v>0.0877365</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0886139</v>
+        <v>0.0885741</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09790980000000001</v>
+        <v>0.098551</v>
       </c>
       <c r="C7" t="n">
-        <v>0.104735</v>
+        <v>0.102673</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09929590000000001</v>
+        <v>0.117303</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.119223</v>
+        <v>0.117183</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1354</v>
+        <v>0.133417</v>
       </c>
       <c r="D8" t="n">
-        <v>0.12198</v>
+        <v>0.151714</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.152689</v>
+        <v>0.159373</v>
       </c>
       <c r="C9" t="n">
-        <v>0.165951</v>
+        <v>0.161705</v>
       </c>
       <c r="D9" t="n">
-        <v>0.164116</v>
+        <v>0.207481</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0615179</v>
+        <v>0.0592658</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0553733</v>
+        <v>0.0564003</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0559012</v>
+        <v>0.0555457</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0609575</v>
+        <v>0.0590019</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0567159</v>
+        <v>0.0568863</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0576811</v>
+        <v>0.057998</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0601445</v>
+        <v>0.0605454</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0585515</v>
+        <v>0.0575468</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0591215</v>
+        <v>0.0565794</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0609911</v>
+        <v>0.061392</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0583287</v>
+        <v>0.0586673</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0578783</v>
+        <v>0.0569987</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.06356820000000001</v>
+        <v>0.0622021</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0586918</v>
+        <v>0.0613798</v>
       </c>
       <c r="D14" t="n">
-        <v>0.059387</v>
+        <v>0.0579307</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0621937</v>
+        <v>0.0628597</v>
       </c>
       <c r="C15" t="n">
-        <v>0.060604</v>
+        <v>0.0615324</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0608946</v>
+        <v>0.0608818</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0647161</v>
+        <v>0.0658806</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06400749999999999</v>
+        <v>0.0642822</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0647916</v>
+        <v>0.06350509999999999</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06554989999999999</v>
+        <v>0.0686442</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0676363</v>
+        <v>0.0691423</v>
       </c>
       <c r="D17" t="n">
-        <v>0.06875920000000001</v>
+        <v>0.0672397</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.06813279999999999</v>
+        <v>0.0702446</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07324550000000001</v>
+        <v>0.07125099999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0740615</v>
+        <v>0.0744278</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0734663</v>
+        <v>0.0783421</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0793041</v>
+        <v>0.0800109</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0807855</v>
+        <v>0.08400729999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08237369999999999</v>
+        <v>0.08550729999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0905268</v>
+        <v>0.0907293</v>
       </c>
       <c r="D20" t="n">
-        <v>0.089724</v>
+        <v>0.09578390000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0932698</v>
+        <v>0.09738289999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.106568</v>
+        <v>0.105507</v>
       </c>
       <c r="D21" t="n">
-        <v>0.107712</v>
+        <v>0.118334</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.114248</v>
+        <v>0.118068</v>
       </c>
       <c r="C22" t="n">
-        <v>0.131858</v>
+        <v>0.13661</v>
       </c>
       <c r="D22" t="n">
-        <v>0.131191</v>
+        <v>0.158931</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.142054</v>
+        <v>0.155695</v>
       </c>
       <c r="C23" t="n">
-        <v>0.181816</v>
+        <v>0.169802</v>
       </c>
       <c r="D23" t="n">
-        <v>0.162528</v>
+        <v>0.205206</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0629894</v>
+        <v>0.0626082</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0599506</v>
+        <v>0.0577195</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0602101</v>
+        <v>0.0570608</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.06341579999999999</v>
+        <v>0.0643977</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0599904</v>
+        <v>0.0592506</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0616403</v>
+        <v>0.0585729</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0648695</v>
+        <v>0.06503150000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0586365</v>
+        <v>0.0586546</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0606765</v>
+        <v>0.0574042</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0667336</v>
+        <v>0.06448189999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0605702</v>
+        <v>0.0600987</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0621922</v>
+        <v>0.0621769</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0649933</v>
+        <v>0.0701031</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0608675</v>
+        <v>0.0609349</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0628833</v>
+        <v>0.0613366</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0688231</v>
+        <v>0.0712795</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06331199999999999</v>
+        <v>0.06316960000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.06622409999999999</v>
+        <v>0.0616029</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0714162</v>
+        <v>0.07117030000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0655044</v>
+        <v>0.06423520000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0674824</v>
+        <v>0.0662996</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.071784</v>
+        <v>0.0706188</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06731959999999999</v>
+        <v>0.0661335</v>
       </c>
       <c r="D31" t="n">
-        <v>0.06946040000000001</v>
+        <v>0.068382</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0764546</v>
+        <v>0.0731904</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07176200000000001</v>
+        <v>0.0725693</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0748964</v>
+        <v>0.07460890000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0786512</v>
+        <v>0.0810013</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0797928</v>
+        <v>0.0781813</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08387</v>
+        <v>0.0849158</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.086953</v>
+        <v>0.0866503</v>
       </c>
       <c r="C34" t="n">
-        <v>0.08945930000000001</v>
+        <v>0.090526</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0916578</v>
+        <v>0.0957822</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0998758</v>
+        <v>0.09873460000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.107682</v>
+        <v>0.106781</v>
       </c>
       <c r="D35" t="n">
-        <v>0.104169</v>
+        <v>0.121754</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.119846</v>
+        <v>0.123591</v>
       </c>
       <c r="C36" t="n">
-        <v>0.127448</v>
+        <v>0.125811</v>
       </c>
       <c r="D36" t="n">
-        <v>0.129163</v>
+        <v>0.156381</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.146499</v>
+        <v>0.144077</v>
       </c>
       <c r="C37" t="n">
-        <v>0.165262</v>
+        <v>0.16773</v>
       </c>
       <c r="D37" t="n">
-        <v>0.166341</v>
+        <v>0.205341</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.07070650000000001</v>
+        <v>0.0679022</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0620521</v>
+        <v>0.0634381</v>
       </c>
       <c r="D38" t="n">
-        <v>0.06626219999999999</v>
+        <v>0.0633286</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0691828</v>
+        <v>0.0707067</v>
       </c>
       <c r="C39" t="n">
-        <v>0.06279990000000001</v>
+        <v>0.0622514</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0644308</v>
+        <v>0.0623277</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0705635</v>
+        <v>0.0689879</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0647997</v>
+        <v>0.0642968</v>
       </c>
       <c r="D40" t="n">
-        <v>0.06495769999999999</v>
+        <v>0.0632301</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0699331</v>
+        <v>0.0710305</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0650911</v>
+        <v>0.0657865</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0666398</v>
+        <v>0.0662261</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0703927</v>
+        <v>0.07153569999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0653957</v>
+        <v>0.06594510000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0703819</v>
+        <v>0.0671484</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0741324</v>
+        <v>0.07405150000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0671103</v>
+        <v>0.06815640000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0694834</v>
+        <v>0.06847</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0756521</v>
+        <v>0.07323200000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0680215</v>
+        <v>0.0682191</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0721329</v>
+        <v>0.06842189999999999</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.07639840000000001</v>
+        <v>0.07520209999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0724099</v>
+        <v>0.0712325</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0757969</v>
+        <v>0.0751201</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0800934</v>
+        <v>0.0826966</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0770825</v>
+        <v>0.07709589999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0789846</v>
+        <v>0.07578409999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0862622</v>
+        <v>0.0863549</v>
       </c>
       <c r="C47" t="n">
-        <v>0.08445999999999999</v>
+        <v>0.0819414</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0838921</v>
+        <v>0.0863474</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0889268</v>
+        <v>0.0915735</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0969378</v>
+        <v>0.08963160000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0932574</v>
+        <v>0.0954605</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.103249</v>
+        <v>0.100448</v>
       </c>
       <c r="C49" t="n">
-        <v>0.101934</v>
+        <v>0.104437</v>
       </c>
       <c r="D49" t="n">
-        <v>0.107479</v>
+        <v>0.11324</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.125548</v>
+        <v>0.114376</v>
       </c>
       <c r="C50" t="n">
-        <v>0.128536</v>
+        <v>0.119656</v>
       </c>
       <c r="D50" t="n">
-        <v>0.129621</v>
+        <v>0.141223</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.146541</v>
+        <v>0.14706</v>
       </c>
       <c r="C51" t="n">
-        <v>0.156314</v>
+        <v>0.152728</v>
       </c>
       <c r="D51" t="n">
-        <v>0.156241</v>
+        <v>0.199865</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.189718</v>
+        <v>0.186816</v>
       </c>
       <c r="C52" t="n">
-        <v>0.212038</v>
+        <v>0.204865</v>
       </c>
       <c r="D52" t="n">
-        <v>0.195892</v>
+        <v>0.254406</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.079735</v>
+        <v>0.0790035</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0718044</v>
+        <v>0.0726159</v>
       </c>
       <c r="D53" t="n">
-        <v>0.07394249999999999</v>
+        <v>0.0712111</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0788746</v>
+        <v>0.0805032</v>
       </c>
       <c r="C54" t="n">
-        <v>0.074743</v>
+        <v>0.0747931</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0743817</v>
+        <v>0.07116400000000001</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0815254</v>
+        <v>0.0808199</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0734735</v>
+        <v>0.0754457</v>
       </c>
       <c r="D55" t="n">
-        <v>0.07590479999999999</v>
+        <v>0.07424500000000001</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0833652</v>
+        <v>0.0866991</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0765919</v>
+        <v>0.080086</v>
       </c>
       <c r="D56" t="n">
-        <v>0.07678450000000001</v>
+        <v>0.0744336</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0863717</v>
+        <v>0.085784</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0787731</v>
+        <v>0.0766902</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0786197</v>
+        <v>0.0755763</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0879185</v>
+        <v>0.0870306</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0793195</v>
+        <v>0.0809843</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0819044</v>
+        <v>0.08019999999999999</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.08987970000000001</v>
+        <v>0.0918163</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0832846</v>
+        <v>0.0857941</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0852653</v>
+        <v>0.0846952</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0934164</v>
+        <v>0.0982783</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0875909</v>
+        <v>0.0866624</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0902155</v>
+        <v>0.0888978</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0983281</v>
+        <v>0.0981601</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0945812</v>
+        <v>0.0937033</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0934668</v>
+        <v>0.094442</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.102796</v>
+        <v>0.106326</v>
       </c>
       <c r="C62" t="n">
-        <v>0.105475</v>
+        <v>0.106621</v>
       </c>
       <c r="D62" t="n">
-        <v>0.10474</v>
+        <v>0.109012</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.115051</v>
+        <v>0.113145</v>
       </c>
       <c r="C63" t="n">
-        <v>0.116581</v>
+        <v>0.113889</v>
       </c>
       <c r="D63" t="n">
-        <v>0.115988</v>
+        <v>0.120698</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.127674</v>
+        <v>0.128036</v>
       </c>
       <c r="C64" t="n">
-        <v>0.132835</v>
+        <v>0.140297</v>
       </c>
       <c r="D64" t="n">
-        <v>0.137349</v>
+        <v>0.152614</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.157163</v>
+        <v>0.156536</v>
       </c>
       <c r="C65" t="n">
-        <v>0.16614</v>
+        <v>0.166419</v>
       </c>
       <c r="D65" t="n">
-        <v>0.16147</v>
+        <v>0.198897</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.197886</v>
+        <v>0.195509</v>
       </c>
       <c r="C66" t="n">
-        <v>0.219297</v>
+        <v>0.213622</v>
       </c>
       <c r="D66" t="n">
-        <v>0.201641</v>
+        <v>0.263707</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.089102</v>
+        <v>0.0923756</v>
       </c>
       <c r="C67" t="n">
-        <v>0.08057930000000001</v>
+        <v>0.0806886</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0829665</v>
+        <v>0.08194750000000001</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0933797</v>
+        <v>0.0940811</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0811209</v>
+        <v>0.08513179999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0858405</v>
+        <v>0.0827869</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.09380520000000001</v>
+        <v>0.0982674</v>
       </c>
       <c r="C69" t="n">
-        <v>0.08384510000000001</v>
+        <v>0.0878024</v>
       </c>
       <c r="D69" t="n">
-        <v>0.08708680000000001</v>
+        <v>0.0837277</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0954038</v>
+        <v>0.0949709</v>
       </c>
       <c r="C70" t="n">
-        <v>0.08706</v>
+        <v>0.0884033</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0875214</v>
+        <v>0.0839698</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.09856769999999999</v>
+        <v>0.0982031</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0916704</v>
+        <v>0.087023</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0918012</v>
+        <v>0.0868753</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0995564</v>
+        <v>0.100476</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0916777</v>
+        <v>0.0913756</v>
       </c>
       <c r="D72" t="n">
-        <v>0.09556190000000001</v>
+        <v>0.0942212</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.106226</v>
+        <v>0.105217</v>
       </c>
       <c r="C73" t="n">
-        <v>0.100168</v>
+        <v>0.0999234</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0967592</v>
+        <v>0.09803630000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.106224</v>
+        <v>0.108194</v>
       </c>
       <c r="C74" t="n">
-        <v>0.104122</v>
+        <v>0.100522</v>
       </c>
       <c r="D74" t="n">
-        <v>0.10246</v>
+        <v>0.10228</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.115324</v>
+        <v>0.115005</v>
       </c>
       <c r="C75" t="n">
-        <v>0.111317</v>
+        <v>0.109229</v>
       </c>
       <c r="D75" t="n">
-        <v>0.109018</v>
+        <v>0.11428</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.124208</v>
+        <v>0.127086</v>
       </c>
       <c r="C76" t="n">
-        <v>0.121054</v>
+        <v>0.122172</v>
       </c>
       <c r="D76" t="n">
-        <v>0.117867</v>
+        <v>0.126089</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.134901</v>
+        <v>0.135895</v>
       </c>
       <c r="C77" t="n">
-        <v>0.136542</v>
+        <v>0.135503</v>
       </c>
       <c r="D77" t="n">
-        <v>0.133329</v>
+        <v>0.144088</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.156376</v>
+        <v>0.152269</v>
       </c>
       <c r="C78" t="n">
-        <v>0.151883</v>
+        <v>0.157472</v>
       </c>
       <c r="D78" t="n">
-        <v>0.153528</v>
+        <v>0.16849</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.174802</v>
+        <v>0.18067</v>
       </c>
       <c r="C79" t="n">
-        <v>0.182188</v>
+        <v>0.18354</v>
       </c>
       <c r="D79" t="n">
-        <v>0.181672</v>
+        <v>0.210641</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.222119</v>
+        <v>0.217158</v>
       </c>
       <c r="C80" t="n">
-        <v>0.227068</v>
+        <v>0.235348</v>
       </c>
       <c r="D80" t="n">
-        <v>0.225108</v>
+        <v>0.275795</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.105299</v>
+        <v>0.109151</v>
       </c>
       <c r="C81" t="n">
-        <v>0.095596</v>
+        <v>0.0957412</v>
       </c>
       <c r="D81" t="n">
-        <v>0.09588439999999999</v>
+        <v>0.0963159</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.111649</v>
+        <v>0.114283</v>
       </c>
       <c r="C82" t="n">
-        <v>0.09990690000000001</v>
+        <v>0.103189</v>
       </c>
       <c r="D82" t="n">
-        <v>0.100284</v>
+        <v>0.09792910000000001</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.113466</v>
+        <v>0.113514</v>
       </c>
       <c r="C83" t="n">
-        <v>0.101735</v>
+        <v>0.100022</v>
       </c>
       <c r="D83" t="n">
-        <v>0.102659</v>
+        <v>0.100299</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.117085</v>
+        <v>0.12644</v>
       </c>
       <c r="C84" t="n">
-        <v>0.105952</v>
+        <v>0.109716</v>
       </c>
       <c r="D84" t="n">
-        <v>0.105109</v>
+        <v>0.101246</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.118661</v>
+        <v>0.120604</v>
       </c>
       <c r="C85" t="n">
-        <v>0.114612</v>
+        <v>0.116234</v>
       </c>
       <c r="D85" t="n">
-        <v>0.10937</v>
+        <v>0.106474</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.123016</v>
+        <v>0.121895</v>
       </c>
       <c r="C86" t="n">
-        <v>0.113123</v>
+        <v>0.112543</v>
       </c>
       <c r="D86" t="n">
-        <v>0.112864</v>
+        <v>0.11199</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.128893</v>
+        <v>0.128658</v>
       </c>
       <c r="C87" t="n">
-        <v>0.114902</v>
+        <v>0.113654</v>
       </c>
       <c r="D87" t="n">
-        <v>0.117158</v>
+        <v>0.116779</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.133475</v>
+        <v>0.132399</v>
       </c>
       <c r="C88" t="n">
-        <v>0.121413</v>
+        <v>0.121603</v>
       </c>
       <c r="D88" t="n">
-        <v>0.121066</v>
+        <v>0.120138</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.138292</v>
+        <v>0.141907</v>
       </c>
       <c r="C89" t="n">
-        <v>0.134247</v>
+        <v>0.133751</v>
       </c>
       <c r="D89" t="n">
-        <v>0.129784</v>
+        <v>0.132603</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.149593</v>
+        <v>0.152079</v>
       </c>
       <c r="C90" t="n">
-        <v>0.14221</v>
+        <v>0.141735</v>
       </c>
       <c r="D90" t="n">
-        <v>0.14689</v>
+        <v>0.143567</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.16329</v>
+        <v>0.158679</v>
       </c>
       <c r="C91" t="n">
-        <v>0.155962</v>
+        <v>0.150852</v>
       </c>
       <c r="D91" t="n">
-        <v>0.149823</v>
+        <v>0.162911</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.180775</v>
+        <v>0.1832</v>
       </c>
       <c r="C92" t="n">
-        <v>0.176167</v>
+        <v>0.172866</v>
       </c>
       <c r="D92" t="n">
-        <v>0.168763</v>
+        <v>0.18899</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.204098</v>
+        <v>0.201872</v>
       </c>
       <c r="C93" t="n">
-        <v>0.210787</v>
+        <v>0.210566</v>
       </c>
       <c r="D93" t="n">
-        <v>0.193565</v>
+        <v>0.226349</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.244316</v>
+        <v>0.244778</v>
       </c>
       <c r="C94" t="n">
-        <v>0.256816</v>
+        <v>0.256411</v>
       </c>
       <c r="D94" t="n">
-        <v>0.231935</v>
+        <v>0.304986</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.137825</v>
+        <v>0.150307</v>
       </c>
       <c r="C95" t="n">
-        <v>0.127369</v>
+        <v>0.125483</v>
       </c>
       <c r="D95" t="n">
-        <v>0.127668</v>
+        <v>0.127414</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.141186</v>
+        <v>0.147472</v>
       </c>
       <c r="C96" t="n">
-        <v>0.125059</v>
+        <v>0.131007</v>
       </c>
       <c r="D96" t="n">
-        <v>0.128039</v>
+        <v>0.124142</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.144851</v>
+        <v>0.148358</v>
       </c>
       <c r="C97" t="n">
-        <v>0.130681</v>
+        <v>0.132224</v>
       </c>
       <c r="D97" t="n">
-        <v>0.130299</v>
+        <v>0.13364</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149792</v>
+        <v>0.146183</v>
       </c>
       <c r="C98" t="n">
-        <v>0.132325</v>
+        <v>0.137737</v>
       </c>
       <c r="D98" t="n">
-        <v>0.135624</v>
+        <v>0.132606</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.157653</v>
+        <v>0.154648</v>
       </c>
       <c r="C99" t="n">
-        <v>0.13821</v>
+        <v>0.140418</v>
       </c>
       <c r="D99" t="n">
-        <v>0.133693</v>
+        <v>0.147985</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.163431</v>
+        <v>0.154941</v>
       </c>
       <c r="C100" t="n">
-        <v>0.142648</v>
+        <v>0.146382</v>
       </c>
       <c r="D100" t="n">
-        <v>0.147689</v>
+        <v>0.143343</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.159592</v>
+        <v>0.166934</v>
       </c>
       <c r="C101" t="n">
-        <v>0.148748</v>
+        <v>0.152634</v>
       </c>
       <c r="D101" t="n">
-        <v>0.152378</v>
+        <v>0.147534</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.164897</v>
+        <v>0.166124</v>
       </c>
       <c r="C102" t="n">
-        <v>0.153518</v>
+        <v>0.151749</v>
       </c>
       <c r="D102" t="n">
-        <v>0.150394</v>
+        <v>0.156938</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.173919</v>
+        <v>0.173605</v>
       </c>
       <c r="C103" t="n">
-        <v>0.163288</v>
+        <v>0.163087</v>
       </c>
       <c r="D103" t="n">
-        <v>0.168543</v>
+        <v>0.161722</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.181057</v>
+        <v>0.181113</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173029</v>
+        <v>0.169857</v>
       </c>
       <c r="D104" t="n">
-        <v>0.169748</v>
+        <v>0.186971</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.195496</v>
+        <v>0.190345</v>
       </c>
       <c r="C105" t="n">
-        <v>0.195588</v>
+        <v>0.192562</v>
       </c>
       <c r="D105" t="n">
-        <v>0.185818</v>
+        <v>0.188505</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.212047</v>
+        <v>0.211323</v>
       </c>
       <c r="C106" t="n">
-        <v>0.216234</v>
+        <v>0.206466</v>
       </c>
       <c r="D106" t="n">
-        <v>0.196313</v>
+        <v>0.213356</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.230919</v>
+        <v>0.234409</v>
       </c>
       <c r="C107" t="n">
-        <v>0.23881</v>
+        <v>0.24009</v>
       </c>
       <c r="D107" t="n">
-        <v>0.224324</v>
+        <v>0.263203</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.268588</v>
+        <v>0.283305</v>
       </c>
       <c r="C108" t="n">
-        <v>0.291995</v>
+        <v>0.286863</v>
       </c>
       <c r="D108" t="n">
-        <v>0.259443</v>
+        <v>0.341125</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.343543</v>
+        <v>0.34983</v>
       </c>
       <c r="C109" t="n">
-        <v>0.380917</v>
+        <v>0.380552</v>
       </c>
       <c r="D109" t="n">
-        <v>0.335386</v>
+        <v>0.474507</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.242039</v>
+        <v>0.234316</v>
       </c>
       <c r="C110" t="n">
-        <v>0.203551</v>
+        <v>0.207476</v>
       </c>
       <c r="D110" t="n">
-        <v>0.20381</v>
+        <v>0.206355</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.24191</v>
+        <v>0.237051</v>
       </c>
       <c r="C111" t="n">
-        <v>0.206858</v>
+        <v>0.206918</v>
       </c>
       <c r="D111" t="n">
-        <v>0.227938</v>
+        <v>0.209453</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.245509</v>
+        <v>0.23402</v>
       </c>
       <c r="C112" t="n">
-        <v>0.213733</v>
+        <v>0.211702</v>
       </c>
       <c r="D112" t="n">
-        <v>0.221399</v>
+        <v>0.227912</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.229902</v>
+        <v>0.234435</v>
       </c>
       <c r="C113" t="n">
-        <v>0.231723</v>
+        <v>0.220934</v>
       </c>
       <c r="D113" t="n">
-        <v>0.216143</v>
+        <v>0.21735</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.24185</v>
+        <v>0.243222</v>
       </c>
       <c r="C114" t="n">
-        <v>0.216743</v>
+        <v>0.219491</v>
       </c>
       <c r="D114" t="n">
-        <v>0.222117</v>
+        <v>0.224582</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.242083</v>
+        <v>0.2642</v>
       </c>
       <c r="C115" t="n">
-        <v>0.245673</v>
+        <v>0.219083</v>
       </c>
       <c r="D115" t="n">
-        <v>0.228144</v>
+        <v>0.234099</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.266727</v>
+        <v>0.251367</v>
       </c>
       <c r="C116" t="n">
-        <v>0.232924</v>
+        <v>0.237856</v>
       </c>
       <c r="D116" t="n">
-        <v>0.2424</v>
+        <v>0.229286</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.263731</v>
+        <v>0.260566</v>
       </c>
       <c r="C117" t="n">
-        <v>0.241006</v>
+        <v>0.248376</v>
       </c>
       <c r="D117" t="n">
-        <v>0.251511</v>
+        <v>0.242873</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.275345</v>
+        <v>0.267011</v>
       </c>
       <c r="C118" t="n">
-        <v>0.262848</v>
+        <v>0.250251</v>
       </c>
       <c r="D118" t="n">
-        <v>0.250078</v>
+        <v>0.257797</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.299439</v>
+        <v>0.284059</v>
       </c>
       <c r="C119" t="n">
-        <v>0.273815</v>
+        <v>0.265895</v>
       </c>
       <c r="D119" t="n">
-        <v>0.255793</v>
+        <v>0.275943</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.292206</v>
+        <v>0.308374</v>
       </c>
       <c r="C120" t="n">
-        <v>0.294704</v>
+        <v>0.298307</v>
       </c>
       <c r="D120" t="n">
-        <v>0.275014</v>
+        <v>0.299794</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.341433</v>
+        <v>0.3367</v>
       </c>
       <c r="C121" t="n">
-        <v>0.32186</v>
+        <v>0.325236</v>
       </c>
       <c r="D121" t="n">
-        <v>0.311708</v>
+        <v>0.336971</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.372728</v>
+        <v>0.373529</v>
       </c>
       <c r="C122" t="n">
-        <v>0.366234</v>
+        <v>0.372654</v>
       </c>
       <c r="D122" t="n">
-        <v>0.35654</v>
+        <v>0.413333</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.470001</v>
+        <v>0.43895</v>
       </c>
       <c r="C123" t="n">
-        <v>0.454113</v>
+        <v>0.452155</v>
       </c>
       <c r="D123" t="n">
-        <v>0.411645</v>
+        <v>0.5752660000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.366835</v>
+        <v>0.36321</v>
       </c>
       <c r="C124" t="n">
-        <v>0.326049</v>
+        <v>0.321554</v>
       </c>
       <c r="D124" t="n">
-        <v>0.330346</v>
+        <v>0.321518</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.366428</v>
+        <v>0.371781</v>
       </c>
       <c r="C125" t="n">
-        <v>0.316552</v>
+        <v>0.323007</v>
       </c>
       <c r="D125" t="n">
-        <v>0.318161</v>
+        <v>0.313842</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.377198</v>
+        <v>0.383412</v>
       </c>
       <c r="C126" t="n">
-        <v>0.314544</v>
+        <v>0.333245</v>
       </c>
       <c r="D126" t="n">
-        <v>0.325891</v>
+        <v>0.332458</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.381812</v>
+        <v>0.371321</v>
       </c>
       <c r="C127" t="n">
-        <v>0.326487</v>
+        <v>0.332496</v>
       </c>
       <c r="D127" t="n">
-        <v>0.330503</v>
+        <v>0.335928</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.389157</v>
+        <v>0.389309</v>
       </c>
       <c r="C128" t="n">
-        <v>0.344732</v>
+        <v>0.332137</v>
       </c>
       <c r="D128" t="n">
-        <v>0.345497</v>
+        <v>0.340536</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.391147</v>
+        <v>0.386873</v>
       </c>
       <c r="C129" t="n">
-        <v>0.345428</v>
+        <v>0.343167</v>
       </c>
       <c r="D129" t="n">
-        <v>0.349669</v>
+        <v>0.341962</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.410232</v>
+        <v>0.394152</v>
       </c>
       <c r="C130" t="n">
-        <v>0.347354</v>
+        <v>0.349542</v>
       </c>
       <c r="D130" t="n">
-        <v>0.344226</v>
+        <v>0.357093</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.404309</v>
+        <v>0.405604</v>
       </c>
       <c r="C131" t="n">
-        <v>0.355324</v>
+        <v>0.359336</v>
       </c>
       <c r="D131" t="n">
-        <v>0.347868</v>
+        <v>0.367087</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.425373</v>
+        <v>0.432989</v>
       </c>
       <c r="C132" t="n">
-        <v>0.380224</v>
+        <v>0.369137</v>
       </c>
       <c r="D132" t="n">
-        <v>0.367785</v>
+        <v>0.372922</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.446443</v>
+        <v>0.435007</v>
       </c>
       <c r="C133" t="n">
-        <v>0.396972</v>
+        <v>0.39537</v>
       </c>
       <c r="D133" t="n">
-        <v>0.38913</v>
+        <v>0.397311</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.45642</v>
+        <v>0.44944</v>
       </c>
       <c r="C134" t="n">
-        <v>0.403479</v>
+        <v>0.417851</v>
       </c>
       <c r="D134" t="n">
-        <v>0.404045</v>
+        <v>0.424882</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.478245</v>
+        <v>0.497373</v>
       </c>
       <c r="C135" t="n">
-        <v>0.447633</v>
+        <v>0.457447</v>
       </c>
       <c r="D135" t="n">
-        <v>0.420528</v>
+        <v>0.474933</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.535035</v>
+        <v>0.5337809999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>0.498442</v>
+        <v>0.516881</v>
       </c>
       <c r="D136" t="n">
-        <v>0.464513</v>
+        <v>0.56272</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.615182</v>
+        <v>0.624464</v>
       </c>
       <c r="C137" t="n">
-        <v>0.606419</v>
+        <v>0.601154</v>
       </c>
       <c r="D137" t="n">
-        <v>0.548345</v>
+        <v>0.72766</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.447446</v>
+        <v>0.454794</v>
       </c>
       <c r="C138" t="n">
-        <v>0.385551</v>
+        <v>0.377213</v>
       </c>
       <c r="D138" t="n">
-        <v>0.378003</v>
+        <v>0.389811</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.45281</v>
+        <v>0.468373</v>
       </c>
       <c r="C139" t="n">
-        <v>0.387693</v>
+        <v>0.382404</v>
       </c>
       <c r="D139" t="n">
-        <v>0.388807</v>
+        <v>0.386624</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.461777</v>
+        <v>0.466149</v>
       </c>
       <c r="C140" t="n">
-        <v>0.387521</v>
+        <v>0.391487</v>
       </c>
       <c r="D140" t="n">
-        <v>0.380531</v>
+        <v>0.384978</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.470072</v>
+        <v>0.470086</v>
       </c>
       <c r="C141" t="n">
-        <v>0.395465</v>
+        <v>0.386713</v>
       </c>
       <c r="D141" t="n">
-        <v>0.399433</v>
+        <v>0.395964</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.47295</v>
+        <v>0.476065</v>
       </c>
       <c r="C142" t="n">
-        <v>0.392921</v>
+        <v>0.410183</v>
       </c>
       <c r="D142" t="n">
-        <v>0.400134</v>
+        <v>0.406567</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.474613</v>
+        <v>0.477842</v>
       </c>
       <c r="C143" t="n">
-        <v>0.411899</v>
+        <v>0.41188</v>
       </c>
       <c r="D143" t="n">
-        <v>0.409607</v>
+        <v>0.413758</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0594608</v>
+        <v>0.0614166</v>
       </c>
       <c r="C2" t="n">
-        <v>0.062807</v>
+        <v>0.06282790000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0623085</v>
+        <v>0.0511544</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06348429999999999</v>
+        <v>0.0622919</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0661867</v>
+        <v>0.0654464</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0654917</v>
+        <v>0.0548924</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0666892</v>
+        <v>0.06598619999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0696865</v>
+        <v>0.0703786</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0696605</v>
+        <v>0.0575272</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07240050000000001</v>
+        <v>0.07226349999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.076295</v>
+        <v>0.0783944</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0825032</v>
+        <v>0.0644092</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0816698</v>
+        <v>0.0817677</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0877365</v>
+        <v>0.08722679999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0885741</v>
+        <v>0.0710412</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.098551</v>
+        <v>0.0920989</v>
       </c>
       <c r="C7" t="n">
-        <v>0.102673</v>
+        <v>0.10008</v>
       </c>
       <c r="D7" t="n">
-        <v>0.117303</v>
+        <v>0.0850297</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.117183</v>
+        <v>0.114401</v>
       </c>
       <c r="C8" t="n">
-        <v>0.133417</v>
+        <v>0.131202</v>
       </c>
       <c r="D8" t="n">
-        <v>0.151714</v>
+        <v>0.108445</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.159373</v>
+        <v>0.150003</v>
       </c>
       <c r="C9" t="n">
-        <v>0.161705</v>
+        <v>0.161829</v>
       </c>
       <c r="D9" t="n">
-        <v>0.207481</v>
+        <v>0.0477165</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0592658</v>
+        <v>0.0588307</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0564003</v>
+        <v>0.0575368</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0555457</v>
+        <v>0.0475554</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0590019</v>
+        <v>0.0578703</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0568863</v>
+        <v>0.0570001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.057998</v>
+        <v>0.0489312</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0605454</v>
+        <v>0.0605326</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0575468</v>
+        <v>0.0550139</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0565794</v>
+        <v>0.0484527</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.061392</v>
+        <v>0.0604577</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0586673</v>
+        <v>0.0569422</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0569987</v>
+        <v>0.0488058</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0622021</v>
+        <v>0.0611783</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0613798</v>
+        <v>0.0582163</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0579307</v>
+        <v>0.049865</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0628597</v>
+        <v>0.0621305</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0615324</v>
+        <v>0.0609724</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0608818</v>
+        <v>0.0518843</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0658806</v>
+        <v>0.0643382</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0642822</v>
+        <v>0.0641381</v>
       </c>
       <c r="D16" t="n">
-        <v>0.06350509999999999</v>
+        <v>0.0566595</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0686442</v>
+        <v>0.06612999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0691423</v>
+        <v>0.06677660000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0672397</v>
+        <v>0.0568171</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0702446</v>
+        <v>0.0696473</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07125099999999999</v>
+        <v>0.0716772</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0744278</v>
+        <v>0.06277389999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0783421</v>
+        <v>0.0735237</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0800109</v>
+        <v>0.0811331</v>
       </c>
       <c r="D19" t="n">
-        <v>0.08400729999999999</v>
+        <v>0.0693811</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08550729999999999</v>
+        <v>0.08668430000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0907293</v>
+        <v>0.08840240000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.09578390000000001</v>
+        <v>0.0798948</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.09738289999999999</v>
+        <v>0.0985418</v>
       </c>
       <c r="C21" t="n">
-        <v>0.105507</v>
+        <v>0.107824</v>
       </c>
       <c r="D21" t="n">
-        <v>0.118334</v>
+        <v>0.09143850000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.118068</v>
+        <v>0.116559</v>
       </c>
       <c r="C22" t="n">
-        <v>0.13661</v>
+        <v>0.131041</v>
       </c>
       <c r="D22" t="n">
-        <v>0.158931</v>
+        <v>0.11643</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.155695</v>
+        <v>0.157961</v>
       </c>
       <c r="C23" t="n">
-        <v>0.169802</v>
+        <v>0.165635</v>
       </c>
       <c r="D23" t="n">
-        <v>0.205206</v>
+        <v>0.0523641</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0626082</v>
+        <v>0.0644151</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0577195</v>
+        <v>0.0564053</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0570608</v>
+        <v>0.0499075</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0643977</v>
+        <v>0.06398</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0592506</v>
+        <v>0.0580193</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0585729</v>
+        <v>0.0504871</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.06503150000000001</v>
+        <v>0.0657026</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0586546</v>
+        <v>0.0602928</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0574042</v>
+        <v>0.0517085</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06448189999999999</v>
+        <v>0.0640082</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0600987</v>
+        <v>0.062544</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0621769</v>
+        <v>0.0519389</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0701031</v>
+        <v>0.06539730000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0609349</v>
+        <v>0.0608524</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0613366</v>
+        <v>0.0527019</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0712795</v>
+        <v>0.066846</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06316960000000001</v>
+        <v>0.0621977</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0616029</v>
+        <v>0.054692</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.07117030000000001</v>
+        <v>0.07059</v>
       </c>
       <c r="C30" t="n">
-        <v>0.06423520000000001</v>
+        <v>0.0647654</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0662996</v>
+        <v>0.0546126</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0706188</v>
+        <v>0.071715</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0661335</v>
+        <v>0.06623</v>
       </c>
       <c r="D31" t="n">
-        <v>0.068382</v>
+        <v>0.0587566</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0731904</v>
+        <v>0.07674980000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0725693</v>
+        <v>0.0725391</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07460890000000001</v>
+        <v>0.06357930000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0810013</v>
+        <v>0.0804759</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0781813</v>
+        <v>0.08087469999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0849158</v>
+        <v>0.0700136</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0866503</v>
+        <v>0.09182070000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.090526</v>
+        <v>0.0887222</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0957822</v>
+        <v>0.0785834</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.09873460000000001</v>
+        <v>0.103245</v>
       </c>
       <c r="C35" t="n">
-        <v>0.106781</v>
+        <v>0.105441</v>
       </c>
       <c r="D35" t="n">
-        <v>0.121754</v>
+        <v>0.09617249999999999</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.123591</v>
+        <v>0.116084</v>
       </c>
       <c r="C36" t="n">
-        <v>0.125811</v>
+        <v>0.130012</v>
       </c>
       <c r="D36" t="n">
-        <v>0.156381</v>
+        <v>0.117792</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.144077</v>
+        <v>0.147135</v>
       </c>
       <c r="C37" t="n">
-        <v>0.16773</v>
+        <v>0.172527</v>
       </c>
       <c r="D37" t="n">
-        <v>0.205341</v>
+        <v>0.0533663</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0679022</v>
+        <v>0.0682745</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0634381</v>
+        <v>0.0618209</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0633286</v>
+        <v>0.0534164</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0707067</v>
+        <v>0.06832290000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0622514</v>
+        <v>0.06289980000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0623277</v>
+        <v>0.0531932</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0689879</v>
+        <v>0.07024809999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0642968</v>
+        <v>0.0662205</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0632301</v>
+        <v>0.0559845</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0710305</v>
+        <v>0.0690277</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0657865</v>
+        <v>0.0652388</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0662261</v>
+        <v>0.0552835</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.07153569999999999</v>
+        <v>0.0714235</v>
       </c>
       <c r="C42" t="n">
-        <v>0.06594510000000001</v>
+        <v>0.0655751</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0671484</v>
+        <v>0.0554903</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.07405150000000001</v>
+        <v>0.0714535</v>
       </c>
       <c r="C43" t="n">
-        <v>0.06815640000000001</v>
+        <v>0.06943050000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06847</v>
+        <v>0.0571115</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.07323200000000001</v>
+        <v>0.0774566</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0682191</v>
+        <v>0.07239180000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.06842189999999999</v>
+        <v>0.0612688</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.07520209999999999</v>
+        <v>0.0753127</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0712325</v>
+        <v>0.0732274</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0751201</v>
+        <v>0.0621404</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0826966</v>
+        <v>0.078967</v>
       </c>
       <c r="C46" t="n">
-        <v>0.07709589999999999</v>
+        <v>0.0766613</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07578409999999999</v>
+        <v>0.0654399</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0863549</v>
+        <v>0.0848105</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0819414</v>
+        <v>0.08745319999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0863474</v>
+        <v>0.0713897</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0915735</v>
+        <v>0.0926043</v>
       </c>
       <c r="C48" t="n">
-        <v>0.08963160000000001</v>
+        <v>0.0915378</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0954605</v>
+        <v>0.0803685</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.100448</v>
+        <v>0.100538</v>
       </c>
       <c r="C49" t="n">
-        <v>0.104437</v>
+        <v>0.103879</v>
       </c>
       <c r="D49" t="n">
-        <v>0.11324</v>
+        <v>0.0953121</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.114376</v>
+        <v>0.123949</v>
       </c>
       <c r="C50" t="n">
-        <v>0.119656</v>
+        <v>0.122308</v>
       </c>
       <c r="D50" t="n">
-        <v>0.141223</v>
+        <v>0.114182</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.14706</v>
+        <v>0.152975</v>
       </c>
       <c r="C51" t="n">
-        <v>0.152728</v>
+        <v>0.153686</v>
       </c>
       <c r="D51" t="n">
-        <v>0.199865</v>
+        <v>0.0587538</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.186816</v>
+        <v>0.185133</v>
       </c>
       <c r="C52" t="n">
-        <v>0.204865</v>
+        <v>0.21441</v>
       </c>
       <c r="D52" t="n">
-        <v>0.254406</v>
+        <v>0.0585107</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0790035</v>
+        <v>0.0804671</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0726159</v>
+        <v>0.07007579999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0712111</v>
+        <v>0.0591461</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0805032</v>
+        <v>0.083804</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0747931</v>
+        <v>0.07301530000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.07116400000000001</v>
+        <v>0.0607425</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0808199</v>
+        <v>0.081095</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0754457</v>
+        <v>0.07453410000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.07424500000000001</v>
+        <v>0.0612037</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0866991</v>
+        <v>0.08435040000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.080086</v>
+        <v>0.0771517</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0744336</v>
+        <v>0.0624882</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.085784</v>
+        <v>0.0859312</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0766902</v>
+        <v>0.078359</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0755763</v>
+        <v>0.0642658</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0870306</v>
+        <v>0.087519</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0809843</v>
+        <v>0.07978730000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.08019999999999999</v>
+        <v>0.0653149</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0918163</v>
+        <v>0.0916662</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0857941</v>
+        <v>0.08234420000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0846952</v>
+        <v>0.072173</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0982783</v>
+        <v>0.0963987</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0866624</v>
+        <v>0.08610089999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0888978</v>
+        <v>0.0724123</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0981601</v>
+        <v>0.0958333</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0937033</v>
+        <v>0.0950691</v>
       </c>
       <c r="D61" t="n">
-        <v>0.094442</v>
+        <v>0.08035390000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.106326</v>
+        <v>0.103412</v>
       </c>
       <c r="C62" t="n">
-        <v>0.106621</v>
+        <v>0.102266</v>
       </c>
       <c r="D62" t="n">
-        <v>0.109012</v>
+        <v>0.0881291</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.113145</v>
+        <v>0.110178</v>
       </c>
       <c r="C63" t="n">
-        <v>0.113889</v>
+        <v>0.112813</v>
       </c>
       <c r="D63" t="n">
-        <v>0.120698</v>
+        <v>0.09668350000000001</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.128036</v>
+        <v>0.1282</v>
       </c>
       <c r="C64" t="n">
-        <v>0.140297</v>
+        <v>0.136481</v>
       </c>
       <c r="D64" t="n">
-        <v>0.152614</v>
+        <v>0.119</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.156536</v>
+        <v>0.153297</v>
       </c>
       <c r="C65" t="n">
-        <v>0.166419</v>
+        <v>0.168804</v>
       </c>
       <c r="D65" t="n">
-        <v>0.198897</v>
+        <v>0.149186</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.195509</v>
+        <v>0.198754</v>
       </c>
       <c r="C66" t="n">
-        <v>0.213622</v>
+        <v>0.211662</v>
       </c>
       <c r="D66" t="n">
-        <v>0.263707</v>
+        <v>0.0645526</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0923756</v>
+        <v>0.0922364</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0806886</v>
+        <v>0.0794561</v>
       </c>
       <c r="D67" t="n">
-        <v>0.08194750000000001</v>
+        <v>0.0637387</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0940811</v>
+        <v>0.0926632</v>
       </c>
       <c r="C68" t="n">
-        <v>0.08513179999999999</v>
+        <v>0.08371820000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0827869</v>
+        <v>0.0653562</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0982674</v>
+        <v>0.09956569999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0878024</v>
+        <v>0.0847541</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0837277</v>
+        <v>0.06640699999999999</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0949709</v>
+        <v>0.0947445</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0884033</v>
+        <v>0.088828</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0839698</v>
+        <v>0.06905890000000001</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0982031</v>
+        <v>0.0969727</v>
       </c>
       <c r="C71" t="n">
-        <v>0.087023</v>
+        <v>0.0915552</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0868753</v>
+        <v>0.07004870000000001</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.100476</v>
+        <v>0.105878</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0913756</v>
+        <v>0.0963667</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0942212</v>
+        <v>0.0719432</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.105217</v>
+        <v>0.102499</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0999234</v>
+        <v>0.09975199999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.09803630000000001</v>
+        <v>0.0760826</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.108194</v>
+        <v>0.109508</v>
       </c>
       <c r="C74" t="n">
-        <v>0.100522</v>
+        <v>0.104185</v>
       </c>
       <c r="D74" t="n">
-        <v>0.10228</v>
+        <v>0.0841039</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.115005</v>
+        <v>0.114521</v>
       </c>
       <c r="C75" t="n">
-        <v>0.109229</v>
+        <v>0.114098</v>
       </c>
       <c r="D75" t="n">
-        <v>0.11428</v>
+        <v>0.088232</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.127086</v>
+        <v>0.125154</v>
       </c>
       <c r="C76" t="n">
-        <v>0.122172</v>
+        <v>0.125484</v>
       </c>
       <c r="D76" t="n">
-        <v>0.126089</v>
+        <v>0.09542340000000001</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.135895</v>
+        <v>0.13669</v>
       </c>
       <c r="C77" t="n">
-        <v>0.135503</v>
+        <v>0.139014</v>
       </c>
       <c r="D77" t="n">
-        <v>0.144088</v>
+        <v>0.110544</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.152269</v>
+        <v>0.152106</v>
       </c>
       <c r="C78" t="n">
-        <v>0.157472</v>
+        <v>0.156623</v>
       </c>
       <c r="D78" t="n">
-        <v>0.16849</v>
+        <v>0.124803</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.18067</v>
+        <v>0.192455</v>
       </c>
       <c r="C79" t="n">
-        <v>0.18354</v>
+        <v>0.191104</v>
       </c>
       <c r="D79" t="n">
-        <v>0.210641</v>
+        <v>0.159071</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.217158</v>
+        <v>0.227339</v>
       </c>
       <c r="C80" t="n">
-        <v>0.235348</v>
+        <v>0.247929</v>
       </c>
       <c r="D80" t="n">
-        <v>0.275795</v>
+        <v>0.07345459999999999</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.109151</v>
+        <v>0.111104</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0957412</v>
+        <v>0.100132</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0963159</v>
+        <v>0.0723111</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.114283</v>
+        <v>0.108964</v>
       </c>
       <c r="C82" t="n">
-        <v>0.103189</v>
+        <v>0.0982859</v>
       </c>
       <c r="D82" t="n">
-        <v>0.09792910000000001</v>
+        <v>0.0804226</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.113514</v>
+        <v>0.112851</v>
       </c>
       <c r="C83" t="n">
-        <v>0.100022</v>
+        <v>0.099927</v>
       </c>
       <c r="D83" t="n">
-        <v>0.100299</v>
+        <v>0.0801689</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.12644</v>
+        <v>0.122668</v>
       </c>
       <c r="C84" t="n">
-        <v>0.109716</v>
+        <v>0.111643</v>
       </c>
       <c r="D84" t="n">
-        <v>0.101246</v>
+        <v>0.07943649999999999</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.120604</v>
+        <v>0.122406</v>
       </c>
       <c r="C85" t="n">
-        <v>0.116234</v>
+        <v>0.108575</v>
       </c>
       <c r="D85" t="n">
-        <v>0.106474</v>
+        <v>0.08262269999999999</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.121895</v>
+        <v>0.1251</v>
       </c>
       <c r="C86" t="n">
-        <v>0.112543</v>
+        <v>0.11109</v>
       </c>
       <c r="D86" t="n">
-        <v>0.11199</v>
+        <v>0.0857438</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.128658</v>
+        <v>0.129991</v>
       </c>
       <c r="C87" t="n">
-        <v>0.113654</v>
+        <v>0.121097</v>
       </c>
       <c r="D87" t="n">
-        <v>0.116779</v>
+        <v>0.0918369</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.132399</v>
+        <v>0.1324</v>
       </c>
       <c r="C88" t="n">
-        <v>0.121603</v>
+        <v>0.122734</v>
       </c>
       <c r="D88" t="n">
-        <v>0.120138</v>
+        <v>0.0941727</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.141907</v>
+        <v>0.14257</v>
       </c>
       <c r="C89" t="n">
-        <v>0.133751</v>
+        <v>0.132341</v>
       </c>
       <c r="D89" t="n">
-        <v>0.132603</v>
+        <v>0.0971142</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.152079</v>
+        <v>0.14613</v>
       </c>
       <c r="C90" t="n">
-        <v>0.141735</v>
+        <v>0.137959</v>
       </c>
       <c r="D90" t="n">
-        <v>0.143567</v>
+        <v>0.107595</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.158679</v>
+        <v>0.159162</v>
       </c>
       <c r="C91" t="n">
-        <v>0.150852</v>
+        <v>0.154836</v>
       </c>
       <c r="D91" t="n">
-        <v>0.162911</v>
+        <v>0.118998</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1832</v>
+        <v>0.179267</v>
       </c>
       <c r="C92" t="n">
-        <v>0.172866</v>
+        <v>0.172287</v>
       </c>
       <c r="D92" t="n">
-        <v>0.18899</v>
+        <v>0.137786</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.201872</v>
+        <v>0.198242</v>
       </c>
       <c r="C93" t="n">
-        <v>0.210566</v>
+        <v>0.203935</v>
       </c>
       <c r="D93" t="n">
-        <v>0.226349</v>
+        <v>0.158732</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.244778</v>
+        <v>0.247428</v>
       </c>
       <c r="C94" t="n">
-        <v>0.256411</v>
+        <v>0.270358</v>
       </c>
       <c r="D94" t="n">
-        <v>0.304986</v>
+        <v>0.0935777</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.150307</v>
+        <v>0.141738</v>
       </c>
       <c r="C95" t="n">
-        <v>0.125483</v>
+        <v>0.130822</v>
       </c>
       <c r="D95" t="n">
-        <v>0.127414</v>
+        <v>0.102508</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.147472</v>
+        <v>0.141337</v>
       </c>
       <c r="C96" t="n">
-        <v>0.131007</v>
+        <v>0.125565</v>
       </c>
       <c r="D96" t="n">
-        <v>0.124142</v>
+        <v>0.09937459999999999</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.148358</v>
+        <v>0.144833</v>
       </c>
       <c r="C97" t="n">
-        <v>0.132224</v>
+        <v>0.129089</v>
       </c>
       <c r="D97" t="n">
-        <v>0.13364</v>
+        <v>0.09853140000000001</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.146183</v>
+        <v>0.146848</v>
       </c>
       <c r="C98" t="n">
-        <v>0.137737</v>
+        <v>0.141942</v>
       </c>
       <c r="D98" t="n">
-        <v>0.132606</v>
+        <v>0.100264</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.154648</v>
+        <v>0.146905</v>
       </c>
       <c r="C99" t="n">
-        <v>0.140418</v>
+        <v>0.14007</v>
       </c>
       <c r="D99" t="n">
-        <v>0.147985</v>
+        <v>0.10613</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.154941</v>
+        <v>0.15805</v>
       </c>
       <c r="C100" t="n">
-        <v>0.146382</v>
+        <v>0.145636</v>
       </c>
       <c r="D100" t="n">
-        <v>0.143343</v>
+        <v>0.105558</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.166934</v>
+        <v>0.166868</v>
       </c>
       <c r="C101" t="n">
-        <v>0.152634</v>
+        <v>0.151861</v>
       </c>
       <c r="D101" t="n">
-        <v>0.147534</v>
+        <v>0.116017</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.166124</v>
+        <v>0.177518</v>
       </c>
       <c r="C102" t="n">
-        <v>0.151749</v>
+        <v>0.155524</v>
       </c>
       <c r="D102" t="n">
-        <v>0.156938</v>
+        <v>0.117389</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.173605</v>
+        <v>0.172545</v>
       </c>
       <c r="C103" t="n">
-        <v>0.163087</v>
+        <v>0.161084</v>
       </c>
       <c r="D103" t="n">
-        <v>0.161722</v>
+        <v>0.120576</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.181113</v>
+        <v>0.178308</v>
       </c>
       <c r="C104" t="n">
-        <v>0.169857</v>
+        <v>0.17374</v>
       </c>
       <c r="D104" t="n">
-        <v>0.186971</v>
+        <v>0.129665</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.190345</v>
+        <v>0.193578</v>
       </c>
       <c r="C105" t="n">
-        <v>0.192562</v>
+        <v>0.195912</v>
       </c>
       <c r="D105" t="n">
-        <v>0.188505</v>
+        <v>0.141455</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.211323</v>
+        <v>0.204526</v>
       </c>
       <c r="C106" t="n">
-        <v>0.206466</v>
+        <v>0.205528</v>
       </c>
       <c r="D106" t="n">
-        <v>0.213356</v>
+        <v>0.158402</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.234409</v>
+        <v>0.235394</v>
       </c>
       <c r="C107" t="n">
-        <v>0.24009</v>
+        <v>0.247464</v>
       </c>
       <c r="D107" t="n">
-        <v>0.263203</v>
+        <v>0.188699</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.283305</v>
+        <v>0.272204</v>
       </c>
       <c r="C108" t="n">
-        <v>0.286863</v>
+        <v>0.296144</v>
       </c>
       <c r="D108" t="n">
-        <v>0.341125</v>
+        <v>0.186815</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.34983</v>
+        <v>0.356849</v>
       </c>
       <c r="C109" t="n">
-        <v>0.380552</v>
+        <v>0.370356</v>
       </c>
       <c r="D109" t="n">
-        <v>0.474507</v>
+        <v>0.187596</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.234316</v>
+        <v>0.230061</v>
       </c>
       <c r="C110" t="n">
-        <v>0.207476</v>
+        <v>0.218521</v>
       </c>
       <c r="D110" t="n">
-        <v>0.206355</v>
+        <v>0.185423</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.237051</v>
+        <v>0.233189</v>
       </c>
       <c r="C111" t="n">
-        <v>0.206918</v>
+        <v>0.206998</v>
       </c>
       <c r="D111" t="n">
-        <v>0.209453</v>
+        <v>0.176277</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.23402</v>
+        <v>0.234704</v>
       </c>
       <c r="C112" t="n">
-        <v>0.211702</v>
+        <v>0.212497</v>
       </c>
       <c r="D112" t="n">
-        <v>0.227912</v>
+        <v>0.186556</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.234435</v>
+        <v>0.238263</v>
       </c>
       <c r="C113" t="n">
-        <v>0.220934</v>
+        <v>0.216636</v>
       </c>
       <c r="D113" t="n">
-        <v>0.21735</v>
+        <v>0.181915</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.243222</v>
+        <v>0.245662</v>
       </c>
       <c r="C114" t="n">
-        <v>0.219491</v>
+        <v>0.22029</v>
       </c>
       <c r="D114" t="n">
-        <v>0.224582</v>
+        <v>0.193261</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.2642</v>
+        <v>0.246179</v>
       </c>
       <c r="C115" t="n">
-        <v>0.219083</v>
+        <v>0.244827</v>
       </c>
       <c r="D115" t="n">
-        <v>0.234099</v>
+        <v>0.188671</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.251367</v>
+        <v>0.26829</v>
       </c>
       <c r="C116" t="n">
-        <v>0.237856</v>
+        <v>0.24221</v>
       </c>
       <c r="D116" t="n">
-        <v>0.229286</v>
+        <v>0.19665</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.260566</v>
+        <v>0.26337</v>
       </c>
       <c r="C117" t="n">
-        <v>0.248376</v>
+        <v>0.251669</v>
       </c>
       <c r="D117" t="n">
-        <v>0.242873</v>
+        <v>0.217279</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.267011</v>
+        <v>0.289361</v>
       </c>
       <c r="C118" t="n">
-        <v>0.250251</v>
+        <v>0.254534</v>
       </c>
       <c r="D118" t="n">
-        <v>0.257797</v>
+        <v>0.205059</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.284059</v>
+        <v>0.280565</v>
       </c>
       <c r="C119" t="n">
-        <v>0.265895</v>
+        <v>0.268965</v>
       </c>
       <c r="D119" t="n">
-        <v>0.275943</v>
+        <v>0.215655</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.308374</v>
+        <v>0.29925</v>
       </c>
       <c r="C120" t="n">
-        <v>0.298307</v>
+        <v>0.282716</v>
       </c>
       <c r="D120" t="n">
-        <v>0.299794</v>
+        <v>0.230642</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.3367</v>
+        <v>0.33858</v>
       </c>
       <c r="C121" t="n">
-        <v>0.325236</v>
+        <v>0.32046</v>
       </c>
       <c r="D121" t="n">
-        <v>0.336971</v>
+        <v>0.257344</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.373529</v>
+        <v>0.37513</v>
       </c>
       <c r="C122" t="n">
-        <v>0.372654</v>
+        <v>0.374143</v>
       </c>
       <c r="D122" t="n">
-        <v>0.413333</v>
+        <v>0.320587</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.43895</v>
+        <v>0.439244</v>
       </c>
       <c r="C123" t="n">
-        <v>0.452155</v>
+        <v>0.467371</v>
       </c>
       <c r="D123" t="n">
-        <v>0.5752660000000001</v>
+        <v>0.27177</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.36321</v>
+        <v>0.360517</v>
       </c>
       <c r="C124" t="n">
-        <v>0.321554</v>
+        <v>0.324875</v>
       </c>
       <c r="D124" t="n">
-        <v>0.321518</v>
+        <v>0.281766</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.371781</v>
+        <v>0.366183</v>
       </c>
       <c r="C125" t="n">
-        <v>0.323007</v>
+        <v>0.326064</v>
       </c>
       <c r="D125" t="n">
-        <v>0.313842</v>
+        <v>0.285332</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.383412</v>
+        <v>0.379796</v>
       </c>
       <c r="C126" t="n">
-        <v>0.333245</v>
+        <v>0.326283</v>
       </c>
       <c r="D126" t="n">
-        <v>0.332458</v>
+        <v>0.290495</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.371321</v>
+        <v>0.383419</v>
       </c>
       <c r="C127" t="n">
-        <v>0.332496</v>
+        <v>0.328138</v>
       </c>
       <c r="D127" t="n">
-        <v>0.335928</v>
+        <v>0.293797</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.389309</v>
+        <v>0.382878</v>
       </c>
       <c r="C128" t="n">
-        <v>0.332137</v>
+        <v>0.333191</v>
       </c>
       <c r="D128" t="n">
-        <v>0.340536</v>
+        <v>0.294984</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.386873</v>
+        <v>0.387773</v>
       </c>
       <c r="C129" t="n">
-        <v>0.343167</v>
+        <v>0.350582</v>
       </c>
       <c r="D129" t="n">
-        <v>0.341962</v>
+        <v>0.307631</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.394152</v>
+        <v>0.410308</v>
       </c>
       <c r="C130" t="n">
-        <v>0.349542</v>
+        <v>0.34912</v>
       </c>
       <c r="D130" t="n">
-        <v>0.357093</v>
+        <v>0.305211</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.405604</v>
+        <v>0.412478</v>
       </c>
       <c r="C131" t="n">
-        <v>0.359336</v>
+        <v>0.369595</v>
       </c>
       <c r="D131" t="n">
-        <v>0.367087</v>
+        <v>0.305521</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.432989</v>
+        <v>0.414846</v>
       </c>
       <c r="C132" t="n">
-        <v>0.369137</v>
+        <v>0.371172</v>
       </c>
       <c r="D132" t="n">
-        <v>0.372922</v>
+        <v>0.317675</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.435007</v>
+        <v>0.435425</v>
       </c>
       <c r="C133" t="n">
-        <v>0.39537</v>
+        <v>0.384198</v>
       </c>
       <c r="D133" t="n">
-        <v>0.397311</v>
+        <v>0.325694</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.44944</v>
+        <v>0.444398</v>
       </c>
       <c r="C134" t="n">
-        <v>0.417851</v>
+        <v>0.414193</v>
       </c>
       <c r="D134" t="n">
-        <v>0.424882</v>
+        <v>0.333935</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.497373</v>
+        <v>0.480002</v>
       </c>
       <c r="C135" t="n">
-        <v>0.457447</v>
+        <v>0.44203</v>
       </c>
       <c r="D135" t="n">
-        <v>0.474933</v>
+        <v>0.362496</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5337809999999999</v>
+        <v>0.540457</v>
       </c>
       <c r="C136" t="n">
-        <v>0.516881</v>
+        <v>0.503271</v>
       </c>
       <c r="D136" t="n">
-        <v>0.56272</v>
+        <v>0.416204</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.624464</v>
+        <v>0.630269</v>
       </c>
       <c r="C137" t="n">
-        <v>0.601154</v>
+        <v>0.605758</v>
       </c>
       <c r="D137" t="n">
-        <v>0.72766</v>
+        <v>0.344067</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.454794</v>
+        <v>0.448523</v>
       </c>
       <c r="C138" t="n">
-        <v>0.377213</v>
+        <v>0.374355</v>
       </c>
       <c r="D138" t="n">
-        <v>0.389811</v>
+        <v>0.342427</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.468373</v>
+        <v>0.458815</v>
       </c>
       <c r="C139" t="n">
-        <v>0.382404</v>
+        <v>0.386372</v>
       </c>
       <c r="D139" t="n">
-        <v>0.386624</v>
+        <v>0.337517</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.466149</v>
+        <v>0.448884</v>
       </c>
       <c r="C140" t="n">
-        <v>0.391487</v>
+        <v>0.384815</v>
       </c>
       <c r="D140" t="n">
-        <v>0.384978</v>
+        <v>0.347275</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.470086</v>
+        <v>0.461556</v>
       </c>
       <c r="C141" t="n">
-        <v>0.386713</v>
+        <v>0.393706</v>
       </c>
       <c r="D141" t="n">
-        <v>0.395964</v>
+        <v>0.348815</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.476065</v>
+        <v>0.470293</v>
       </c>
       <c r="C142" t="n">
-        <v>0.410183</v>
+        <v>0.397634</v>
       </c>
       <c r="D142" t="n">
-        <v>0.406567</v>
+        <v>0.35525</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.477842</v>
+        <v>0.482739</v>
       </c>
       <c r="C143" t="n">
-        <v>0.41188</v>
+        <v>0.410094</v>
       </c>
       <c r="D143" t="n">
-        <v>0.413758</v>
+        <v>0.371219</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0614166</v>
+        <v>0.0601393</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06282790000000001</v>
+        <v>0.0640231</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0511544</v>
+        <v>0.0570107</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0622919</v>
+        <v>0.0613816</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0654464</v>
+        <v>0.0652421</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0548924</v>
+        <v>0.06259389999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06598619999999999</v>
+        <v>0.06462909999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0703786</v>
+        <v>0.06871670000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0575272</v>
+        <v>0.0583334</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07226349999999999</v>
+        <v>0.0681151</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0783944</v>
+        <v>0.07593229999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0644092</v>
+        <v>0.0629152</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0817677</v>
+        <v>0.078905</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08722679999999999</v>
+        <v>0.0867768</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0710412</v>
+        <v>0.0661769</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0920989</v>
+        <v>0.0946951</v>
       </c>
       <c r="C7" t="n">
-        <v>0.10008</v>
+        <v>0.101805</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0850297</v>
+        <v>0.0714718</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.114401</v>
+        <v>0.110344</v>
       </c>
       <c r="C8" t="n">
-        <v>0.131202</v>
+        <v>0.133263</v>
       </c>
       <c r="D8" t="n">
-        <v>0.108445</v>
+        <v>0.08298949999999999</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.150003</v>
+        <v>0.149336</v>
       </c>
       <c r="C9" t="n">
-        <v>0.161829</v>
+        <v>0.168213</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0477165</v>
+        <v>0.0569141</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0588307</v>
+        <v>0.0600383</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0575368</v>
+        <v>0.0557225</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0475554</v>
+        <v>0.0571343</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0578703</v>
+        <v>0.0607041</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0570001</v>
+        <v>0.0572975</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0489312</v>
+        <v>0.055839</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0605326</v>
+        <v>0.0624285</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0550139</v>
+        <v>0.0586545</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0484527</v>
+        <v>0.0589895</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0604577</v>
+        <v>0.06255579999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0569422</v>
+        <v>0.0579385</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0488058</v>
+        <v>0.0567164</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0611783</v>
+        <v>0.0621575</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0582163</v>
+        <v>0.0601152</v>
       </c>
       <c r="D14" t="n">
-        <v>0.049865</v>
+        <v>0.0562361</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0621305</v>
+        <v>0.06262810000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0609724</v>
+        <v>0.0607026</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0518843</v>
+        <v>0.0570003</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0643382</v>
+        <v>0.06537660000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0641381</v>
+        <v>0.06463670000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0566595</v>
+        <v>0.0597501</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06612999999999999</v>
+        <v>0.0677114</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06677660000000001</v>
+        <v>0.0673728</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0568171</v>
+        <v>0.0606278</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0696473</v>
+        <v>0.0681725</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0716772</v>
+        <v>0.0731858</v>
       </c>
       <c r="D18" t="n">
-        <v>0.06277389999999999</v>
+        <v>0.0620717</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0735237</v>
+        <v>0.07517890000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0811331</v>
+        <v>0.07997659999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0693811</v>
+        <v>0.06501220000000001</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08668430000000001</v>
+        <v>0.0821458</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08840240000000001</v>
+        <v>0.08976099999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0798948</v>
+        <v>0.06845900000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0985418</v>
+        <v>0.09720479999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.107824</v>
+        <v>0.103078</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09143850000000001</v>
+        <v>0.0740705</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.116559</v>
+        <v>0.112287</v>
       </c>
       <c r="C22" t="n">
-        <v>0.131041</v>
+        <v>0.132636</v>
       </c>
       <c r="D22" t="n">
-        <v>0.11643</v>
+        <v>0.08430260000000001</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.157961</v>
+        <v>0.146538</v>
       </c>
       <c r="C23" t="n">
-        <v>0.165635</v>
+        <v>0.171421</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0523641</v>
+        <v>0.0564561</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0644151</v>
+        <v>0.0620609</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0564053</v>
+        <v>0.0580686</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0499075</v>
+        <v>0.0564129</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.06398</v>
+        <v>0.06501949999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0580193</v>
+        <v>0.0586822</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0504871</v>
+        <v>0.0578301</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0657026</v>
+        <v>0.06408079999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0602928</v>
+        <v>0.0587219</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0517085</v>
+        <v>0.0585389</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0640082</v>
+        <v>0.0663479</v>
       </c>
       <c r="C27" t="n">
-        <v>0.062544</v>
+        <v>0.0602611</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0519389</v>
+        <v>0.0574962</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.06539730000000001</v>
+        <v>0.0656973</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0608524</v>
+        <v>0.0629152</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0527019</v>
+        <v>0.059461</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.066846</v>
+        <v>0.0663508</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0621977</v>
+        <v>0.0640623</v>
       </c>
       <c r="D29" t="n">
-        <v>0.054692</v>
+        <v>0.0583966</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.07059</v>
+        <v>0.0696502</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0647654</v>
+        <v>0.0652496</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0546126</v>
+        <v>0.0601743</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.071715</v>
+        <v>0.07259069999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06623</v>
+        <v>0.06790880000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0587566</v>
+        <v>0.0610924</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.07674980000000001</v>
+        <v>0.0732733</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0725391</v>
+        <v>0.0733959</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06357930000000001</v>
+        <v>0.061146</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0804759</v>
+        <v>0.07963779999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.08087469999999999</v>
+        <v>0.0790019</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0700136</v>
+        <v>0.0645061</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.09182070000000001</v>
+        <v>0.08801589999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0887222</v>
+        <v>0.0919999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0785834</v>
+        <v>0.07013610000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.103245</v>
+        <v>0.100151</v>
       </c>
       <c r="C35" t="n">
-        <v>0.105441</v>
+        <v>0.104323</v>
       </c>
       <c r="D35" t="n">
-        <v>0.09617249999999999</v>
+        <v>0.0753263</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.116084</v>
+        <v>0.112886</v>
       </c>
       <c r="C36" t="n">
-        <v>0.130012</v>
+        <v>0.128338</v>
       </c>
       <c r="D36" t="n">
-        <v>0.117792</v>
+        <v>0.086775</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.147135</v>
+        <v>0.143281</v>
       </c>
       <c r="C37" t="n">
-        <v>0.172527</v>
+        <v>0.169435</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0533663</v>
+        <v>0.0620147</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0682745</v>
+        <v>0.068561</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0618209</v>
+        <v>0.061771</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0534164</v>
+        <v>0.0626299</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.06832290000000001</v>
+        <v>0.071246</v>
       </c>
       <c r="C39" t="n">
-        <v>0.06289980000000001</v>
+        <v>0.06303449999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0531932</v>
+        <v>0.059623</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.07024809999999999</v>
+        <v>0.07096619999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0662205</v>
+        <v>0.0649416</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0559845</v>
+        <v>0.0628418</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0690277</v>
+        <v>0.0717131</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0652388</v>
+        <v>0.06632159999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0552835</v>
+        <v>0.0634368</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0714235</v>
+        <v>0.0710181</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0655751</v>
+        <v>0.0679496</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0554903</v>
+        <v>0.0628929</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0714535</v>
+        <v>0.07212060000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.06943050000000001</v>
+        <v>0.0674476</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0571115</v>
+        <v>0.0616536</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0774566</v>
+        <v>0.0789591</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07239180000000001</v>
+        <v>0.07059890000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0612688</v>
+        <v>0.0629416</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0753127</v>
+        <v>0.0763461</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0732274</v>
+        <v>0.076873</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0621404</v>
+        <v>0.0649975</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.078967</v>
+        <v>0.0801848</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0766613</v>
+        <v>0.0753373</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0654399</v>
+        <v>0.0650292</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0848105</v>
+        <v>0.08594300000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.08745319999999999</v>
+        <v>0.0825166</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0713897</v>
+        <v>0.070355</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0926043</v>
+        <v>0.09132029999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0915378</v>
+        <v>0.0949598</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0803685</v>
+        <v>0.0712274</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.100538</v>
+        <v>0.103499</v>
       </c>
       <c r="C49" t="n">
-        <v>0.103879</v>
+        <v>0.10294</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0953121</v>
+        <v>0.07585980000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.123949</v>
+        <v>0.121958</v>
       </c>
       <c r="C50" t="n">
-        <v>0.122308</v>
+        <v>0.126612</v>
       </c>
       <c r="D50" t="n">
-        <v>0.114182</v>
+        <v>0.0854328</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.152975</v>
+        <v>0.145696</v>
       </c>
       <c r="C51" t="n">
-        <v>0.153686</v>
+        <v>0.1592</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0587538</v>
+        <v>0.0652746</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.185133</v>
+        <v>0.187959</v>
       </c>
       <c r="C52" t="n">
-        <v>0.21441</v>
+        <v>0.198275</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0585107</v>
+        <v>0.06438049999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0804671</v>
+        <v>0.0804763</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07007579999999999</v>
+        <v>0.0712274</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0591461</v>
+        <v>0.0645765</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.083804</v>
+        <v>0.080377</v>
       </c>
       <c r="C54" t="n">
-        <v>0.07301530000000001</v>
+        <v>0.07168819999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0607425</v>
+        <v>0.06727180000000001</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.081095</v>
+        <v>0.0822505</v>
       </c>
       <c r="C55" t="n">
-        <v>0.07453410000000001</v>
+        <v>0.0724427</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0612037</v>
+        <v>0.06775539999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08435040000000001</v>
+        <v>0.08446919999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0771517</v>
+        <v>0.07455779999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0624882</v>
+        <v>0.0665594</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0859312</v>
+        <v>0.0866252</v>
       </c>
       <c r="C57" t="n">
-        <v>0.078359</v>
+        <v>0.0760894</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0642658</v>
+        <v>0.0689268</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.087519</v>
+        <v>0.0864123</v>
       </c>
       <c r="C58" t="n">
-        <v>0.07978730000000001</v>
+        <v>0.0803444</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0653149</v>
+        <v>0.0688098</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0916662</v>
+        <v>0.0899679</v>
       </c>
       <c r="C59" t="n">
-        <v>0.08234420000000001</v>
+        <v>0.08451699999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.072173</v>
+        <v>0.06954440000000001</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0963987</v>
+        <v>0.0939786</v>
       </c>
       <c r="C60" t="n">
-        <v>0.08610089999999999</v>
+        <v>0.0880143</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0724123</v>
+        <v>0.0741768</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0958333</v>
+        <v>0.100091</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0950691</v>
+        <v>0.0965049</v>
       </c>
       <c r="D61" t="n">
-        <v>0.08035390000000001</v>
+        <v>0.0741071</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.103412</v>
+        <v>0.10427</v>
       </c>
       <c r="C62" t="n">
-        <v>0.102266</v>
+        <v>0.103004</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0881291</v>
+        <v>0.07863299999999999</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.110178</v>
+        <v>0.115599</v>
       </c>
       <c r="C63" t="n">
-        <v>0.112813</v>
+        <v>0.114878</v>
       </c>
       <c r="D63" t="n">
-        <v>0.09668350000000001</v>
+        <v>0.0809609</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1282</v>
+        <v>0.129753</v>
       </c>
       <c r="C64" t="n">
-        <v>0.136481</v>
+        <v>0.133977</v>
       </c>
       <c r="D64" t="n">
-        <v>0.119</v>
+        <v>0.09015670000000001</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.153297</v>
+        <v>0.153307</v>
       </c>
       <c r="C65" t="n">
-        <v>0.168804</v>
+        <v>0.168454</v>
       </c>
       <c r="D65" t="n">
-        <v>0.149186</v>
+        <v>0.101559</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.198754</v>
+        <v>0.197637</v>
       </c>
       <c r="C66" t="n">
-        <v>0.211662</v>
+        <v>0.207836</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0645526</v>
+        <v>0.0728999</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0922364</v>
+        <v>0.0965796</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0794561</v>
+        <v>0.0807484</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0637387</v>
+        <v>0.0714486</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0926632</v>
+        <v>0.0916233</v>
       </c>
       <c r="C68" t="n">
-        <v>0.08371820000000001</v>
+        <v>0.0835297</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0653562</v>
+        <v>0.07249120000000001</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.09956569999999999</v>
+        <v>0.0958085</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0847541</v>
+        <v>0.0858626</v>
       </c>
       <c r="D69" t="n">
-        <v>0.06640699999999999</v>
+        <v>0.0739287</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0947445</v>
+        <v>0.0966877</v>
       </c>
       <c r="C70" t="n">
-        <v>0.088828</v>
+        <v>0.0866548</v>
       </c>
       <c r="D70" t="n">
-        <v>0.06905890000000001</v>
+        <v>0.0729871</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0969727</v>
+        <v>0.09754110000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0915552</v>
+        <v>0.0905642</v>
       </c>
       <c r="D71" t="n">
-        <v>0.07004870000000001</v>
+        <v>0.0720619</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.105878</v>
+        <v>0.100685</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0963667</v>
+        <v>0.0921126</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0719432</v>
+        <v>0.074881</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.102499</v>
+        <v>0.102892</v>
       </c>
       <c r="C73" t="n">
-        <v>0.09975199999999999</v>
+        <v>0.0960647</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0760826</v>
+        <v>0.07741820000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.109508</v>
+        <v>0.109099</v>
       </c>
       <c r="C74" t="n">
-        <v>0.104185</v>
+        <v>0.102816</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0841039</v>
+        <v>0.0798176</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.114521</v>
+        <v>0.113752</v>
       </c>
       <c r="C75" t="n">
-        <v>0.114098</v>
+        <v>0.110227</v>
       </c>
       <c r="D75" t="n">
-        <v>0.088232</v>
+        <v>0.0833458</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.125154</v>
+        <v>0.120517</v>
       </c>
       <c r="C76" t="n">
-        <v>0.125484</v>
+        <v>0.120482</v>
       </c>
       <c r="D76" t="n">
-        <v>0.09542340000000001</v>
+        <v>0.08518299999999999</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.13669</v>
+        <v>0.136585</v>
       </c>
       <c r="C77" t="n">
-        <v>0.139014</v>
+        <v>0.132993</v>
       </c>
       <c r="D77" t="n">
-        <v>0.110544</v>
+        <v>0.0947098</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.152106</v>
+        <v>0.151138</v>
       </c>
       <c r="C78" t="n">
-        <v>0.156623</v>
+        <v>0.157013</v>
       </c>
       <c r="D78" t="n">
-        <v>0.124803</v>
+        <v>0.102903</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.192455</v>
+        <v>0.182084</v>
       </c>
       <c r="C79" t="n">
-        <v>0.191104</v>
+        <v>0.185462</v>
       </c>
       <c r="D79" t="n">
-        <v>0.159071</v>
+        <v>0.118128</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227339</v>
+        <v>0.218376</v>
       </c>
       <c r="C80" t="n">
-        <v>0.247929</v>
+        <v>0.229302</v>
       </c>
       <c r="D80" t="n">
-        <v>0.07345459999999999</v>
+        <v>0.0779744</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.111104</v>
+        <v>0.108462</v>
       </c>
       <c r="C81" t="n">
-        <v>0.100132</v>
+        <v>0.0949942</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0723111</v>
+        <v>0.077977</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.108964</v>
+        <v>0.110561</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0982859</v>
+        <v>0.101232</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0804226</v>
+        <v>0.07989839999999999</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.112851</v>
+        <v>0.113027</v>
       </c>
       <c r="C83" t="n">
-        <v>0.099927</v>
+        <v>0.101672</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0801689</v>
+        <v>0.0801858</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.122668</v>
+        <v>0.119158</v>
       </c>
       <c r="C84" t="n">
-        <v>0.111643</v>
+        <v>0.103687</v>
       </c>
       <c r="D84" t="n">
-        <v>0.07943649999999999</v>
+        <v>0.0855133</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.122406</v>
+        <v>0.119085</v>
       </c>
       <c r="C85" t="n">
-        <v>0.108575</v>
+        <v>0.105107</v>
       </c>
       <c r="D85" t="n">
-        <v>0.08262269999999999</v>
+        <v>0.08629290000000001</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1251</v>
+        <v>0.123203</v>
       </c>
       <c r="C86" t="n">
-        <v>0.11109</v>
+        <v>0.111397</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0857438</v>
+        <v>0.089646</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.129991</v>
+        <v>0.128991</v>
       </c>
       <c r="C87" t="n">
-        <v>0.121097</v>
+        <v>0.117351</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0918369</v>
+        <v>0.089672</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.1324</v>
+        <v>0.142399</v>
       </c>
       <c r="C88" t="n">
-        <v>0.122734</v>
+        <v>0.123477</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0941727</v>
+        <v>0.0937429</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.14257</v>
+        <v>0.141356</v>
       </c>
       <c r="C89" t="n">
-        <v>0.132341</v>
+        <v>0.133229</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0971142</v>
+        <v>0.0949632</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.14613</v>
+        <v>0.149201</v>
       </c>
       <c r="C90" t="n">
-        <v>0.137959</v>
+        <v>0.138309</v>
       </c>
       <c r="D90" t="n">
-        <v>0.107595</v>
+        <v>0.103623</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.159162</v>
+        <v>0.160003</v>
       </c>
       <c r="C91" t="n">
-        <v>0.154836</v>
+        <v>0.155087</v>
       </c>
       <c r="D91" t="n">
-        <v>0.118998</v>
+        <v>0.10752</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.179267</v>
+        <v>0.177216</v>
       </c>
       <c r="C92" t="n">
-        <v>0.172287</v>
+        <v>0.178788</v>
       </c>
       <c r="D92" t="n">
-        <v>0.137786</v>
+        <v>0.115885</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.198242</v>
+        <v>0.205776</v>
       </c>
       <c r="C93" t="n">
-        <v>0.203935</v>
+        <v>0.20524</v>
       </c>
       <c r="D93" t="n">
-        <v>0.158732</v>
+        <v>0.128295</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.247428</v>
+        <v>0.23838</v>
       </c>
       <c r="C94" t="n">
-        <v>0.270358</v>
+        <v>0.258652</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0935777</v>
+        <v>0.102943</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.141738</v>
+        <v>0.137115</v>
       </c>
       <c r="C95" t="n">
-        <v>0.130822</v>
+        <v>0.122649</v>
       </c>
       <c r="D95" t="n">
-        <v>0.102508</v>
+        <v>0.0999796</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.141337</v>
+        <v>0.139776</v>
       </c>
       <c r="C96" t="n">
-        <v>0.125565</v>
+        <v>0.130658</v>
       </c>
       <c r="D96" t="n">
-        <v>0.09937459999999999</v>
+        <v>0.102919</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.144833</v>
+        <v>0.144688</v>
       </c>
       <c r="C97" t="n">
-        <v>0.129089</v>
+        <v>0.129838</v>
       </c>
       <c r="D97" t="n">
-        <v>0.09853140000000001</v>
+        <v>0.106319</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.146848</v>
+        <v>0.144628</v>
       </c>
       <c r="C98" t="n">
-        <v>0.141942</v>
+        <v>0.133949</v>
       </c>
       <c r="D98" t="n">
-        <v>0.100264</v>
+        <v>0.103985</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.146905</v>
+        <v>0.14832</v>
       </c>
       <c r="C99" t="n">
-        <v>0.14007</v>
+        <v>0.139224</v>
       </c>
       <c r="D99" t="n">
-        <v>0.10613</v>
+        <v>0.110265</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.15805</v>
+        <v>0.152207</v>
       </c>
       <c r="C100" t="n">
-        <v>0.145636</v>
+        <v>0.141884</v>
       </c>
       <c r="D100" t="n">
-        <v>0.105558</v>
+        <v>0.110688</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.166868</v>
+        <v>0.155319</v>
       </c>
       <c r="C101" t="n">
-        <v>0.151861</v>
+        <v>0.14939</v>
       </c>
       <c r="D101" t="n">
-        <v>0.116017</v>
+        <v>0.111903</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.177518</v>
+        <v>0.16297</v>
       </c>
       <c r="C102" t="n">
-        <v>0.155524</v>
+        <v>0.153842</v>
       </c>
       <c r="D102" t="n">
-        <v>0.117389</v>
+        <v>0.115828</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.172545</v>
+        <v>0.170581</v>
       </c>
       <c r="C103" t="n">
-        <v>0.161084</v>
+        <v>0.160206</v>
       </c>
       <c r="D103" t="n">
-        <v>0.120576</v>
+        <v>0.117826</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.178308</v>
+        <v>0.178293</v>
       </c>
       <c r="C104" t="n">
-        <v>0.17374</v>
+        <v>0.17233</v>
       </c>
       <c r="D104" t="n">
-        <v>0.129665</v>
+        <v>0.124976</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.193578</v>
+        <v>0.189388</v>
       </c>
       <c r="C105" t="n">
-        <v>0.195912</v>
+        <v>0.187945</v>
       </c>
       <c r="D105" t="n">
-        <v>0.141455</v>
+        <v>0.133287</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.204526</v>
+        <v>0.213009</v>
       </c>
       <c r="C106" t="n">
-        <v>0.205528</v>
+        <v>0.211913</v>
       </c>
       <c r="D106" t="n">
-        <v>0.158402</v>
+        <v>0.142852</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.235394</v>
+        <v>0.230808</v>
       </c>
       <c r="C107" t="n">
-        <v>0.247464</v>
+        <v>0.249992</v>
       </c>
       <c r="D107" t="n">
-        <v>0.188699</v>
+        <v>0.150944</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.272204</v>
+        <v>0.27507</v>
       </c>
       <c r="C108" t="n">
-        <v>0.296144</v>
+        <v>0.288035</v>
       </c>
       <c r="D108" t="n">
-        <v>0.186815</v>
+        <v>0.185509</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.356849</v>
+        <v>0.339633</v>
       </c>
       <c r="C109" t="n">
-        <v>0.370356</v>
+        <v>0.365953</v>
       </c>
       <c r="D109" t="n">
-        <v>0.187596</v>
+        <v>0.188087</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.230061</v>
+        <v>0.236155</v>
       </c>
       <c r="C110" t="n">
-        <v>0.218521</v>
+        <v>0.204914</v>
       </c>
       <c r="D110" t="n">
-        <v>0.185423</v>
+        <v>0.180789</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.233189</v>
+        <v>0.230722</v>
       </c>
       <c r="C111" t="n">
-        <v>0.206998</v>
+        <v>0.219884</v>
       </c>
       <c r="D111" t="n">
-        <v>0.176277</v>
+        <v>0.183242</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.234704</v>
+        <v>0.246713</v>
       </c>
       <c r="C112" t="n">
-        <v>0.212497</v>
+        <v>0.214763</v>
       </c>
       <c r="D112" t="n">
-        <v>0.186556</v>
+        <v>0.192304</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.238263</v>
+        <v>0.246799</v>
       </c>
       <c r="C113" t="n">
-        <v>0.216636</v>
+        <v>0.211579</v>
       </c>
       <c r="D113" t="n">
-        <v>0.181915</v>
+        <v>0.187995</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.245662</v>
+        <v>0.253889</v>
       </c>
       <c r="C114" t="n">
-        <v>0.22029</v>
+        <v>0.227673</v>
       </c>
       <c r="D114" t="n">
-        <v>0.193261</v>
+        <v>0.193166</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.246179</v>
+        <v>0.251546</v>
       </c>
       <c r="C115" t="n">
-        <v>0.244827</v>
+        <v>0.226831</v>
       </c>
       <c r="D115" t="n">
-        <v>0.188671</v>
+        <v>0.191455</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.26829</v>
+        <v>0.254726</v>
       </c>
       <c r="C116" t="n">
-        <v>0.24221</v>
+        <v>0.248036</v>
       </c>
       <c r="D116" t="n">
-        <v>0.19665</v>
+        <v>0.20845</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.26337</v>
+        <v>0.266832</v>
       </c>
       <c r="C117" t="n">
-        <v>0.251669</v>
+        <v>0.250794</v>
       </c>
       <c r="D117" t="n">
-        <v>0.217279</v>
+        <v>0.217217</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.289361</v>
+        <v>0.266352</v>
       </c>
       <c r="C118" t="n">
-        <v>0.254534</v>
+        <v>0.264942</v>
       </c>
       <c r="D118" t="n">
-        <v>0.205059</v>
+        <v>0.205664</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.280565</v>
+        <v>0.283927</v>
       </c>
       <c r="C119" t="n">
-        <v>0.268965</v>
+        <v>0.269842</v>
       </c>
       <c r="D119" t="n">
-        <v>0.215655</v>
+        <v>0.216736</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.29925</v>
+        <v>0.312098</v>
       </c>
       <c r="C120" t="n">
-        <v>0.282716</v>
+        <v>0.299372</v>
       </c>
       <c r="D120" t="n">
-        <v>0.230642</v>
+        <v>0.224891</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.33858</v>
+        <v>0.339212</v>
       </c>
       <c r="C121" t="n">
-        <v>0.32046</v>
+        <v>0.319133</v>
       </c>
       <c r="D121" t="n">
-        <v>0.257344</v>
+        <v>0.231323</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.37513</v>
+        <v>0.373463</v>
       </c>
       <c r="C122" t="n">
-        <v>0.374143</v>
+        <v>0.375857</v>
       </c>
       <c r="D122" t="n">
-        <v>0.320587</v>
+        <v>0.275059</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.439244</v>
+        <v>0.472544</v>
       </c>
       <c r="C123" t="n">
-        <v>0.467371</v>
+        <v>0.468555</v>
       </c>
       <c r="D123" t="n">
-        <v>0.27177</v>
+        <v>0.292676</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.360517</v>
+        <v>0.363623</v>
       </c>
       <c r="C124" t="n">
-        <v>0.324875</v>
+        <v>0.318977</v>
       </c>
       <c r="D124" t="n">
-        <v>0.281766</v>
+        <v>0.283726</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.366183</v>
+        <v>0.376599</v>
       </c>
       <c r="C125" t="n">
-        <v>0.326064</v>
+        <v>0.320421</v>
       </c>
       <c r="D125" t="n">
-        <v>0.285332</v>
+        <v>0.291672</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.379796</v>
+        <v>0.376447</v>
       </c>
       <c r="C126" t="n">
-        <v>0.326283</v>
+        <v>0.323246</v>
       </c>
       <c r="D126" t="n">
-        <v>0.290495</v>
+        <v>0.298568</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.383419</v>
+        <v>0.381078</v>
       </c>
       <c r="C127" t="n">
-        <v>0.328138</v>
+        <v>0.325465</v>
       </c>
       <c r="D127" t="n">
-        <v>0.293797</v>
+        <v>0.30746</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.382878</v>
+        <v>0.390379</v>
       </c>
       <c r="C128" t="n">
-        <v>0.333191</v>
+        <v>0.333188</v>
       </c>
       <c r="D128" t="n">
-        <v>0.294984</v>
+        <v>0.308451</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.387773</v>
+        <v>0.387726</v>
       </c>
       <c r="C129" t="n">
-        <v>0.350582</v>
+        <v>0.348233</v>
       </c>
       <c r="D129" t="n">
-        <v>0.307631</v>
+        <v>0.302865</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.410308</v>
+        <v>0.401303</v>
       </c>
       <c r="C130" t="n">
-        <v>0.34912</v>
+        <v>0.343007</v>
       </c>
       <c r="D130" t="n">
-        <v>0.305211</v>
+        <v>0.303087</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.412478</v>
+        <v>0.400083</v>
       </c>
       <c r="C131" t="n">
-        <v>0.369595</v>
+        <v>0.358752</v>
       </c>
       <c r="D131" t="n">
-        <v>0.305521</v>
+        <v>0.306048</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.414846</v>
+        <v>0.40595</v>
       </c>
       <c r="C132" t="n">
-        <v>0.371172</v>
+        <v>0.371018</v>
       </c>
       <c r="D132" t="n">
-        <v>0.317675</v>
+        <v>0.319192</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.435425</v>
+        <v>0.454011</v>
       </c>
       <c r="C133" t="n">
-        <v>0.384198</v>
+        <v>0.395767</v>
       </c>
       <c r="D133" t="n">
-        <v>0.325694</v>
+        <v>0.321654</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.444398</v>
+        <v>0.453027</v>
       </c>
       <c r="C134" t="n">
-        <v>0.414193</v>
+        <v>0.416862</v>
       </c>
       <c r="D134" t="n">
-        <v>0.333935</v>
+        <v>0.340539</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.480002</v>
+        <v>0.484989</v>
       </c>
       <c r="C135" t="n">
-        <v>0.44203</v>
+        <v>0.459025</v>
       </c>
       <c r="D135" t="n">
-        <v>0.362496</v>
+        <v>0.347394</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.540457</v>
+        <v>0.542942</v>
       </c>
       <c r="C136" t="n">
-        <v>0.503271</v>
+        <v>0.499695</v>
       </c>
       <c r="D136" t="n">
-        <v>0.416204</v>
+        <v>0.368234</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.630269</v>
+        <v>0.619854</v>
       </c>
       <c r="C137" t="n">
-        <v>0.605758</v>
+        <v>0.58469</v>
       </c>
       <c r="D137" t="n">
-        <v>0.344067</v>
+        <v>0.355065</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.448523</v>
+        <v>0.459062</v>
       </c>
       <c r="C138" t="n">
-        <v>0.374355</v>
+        <v>0.391747</v>
       </c>
       <c r="D138" t="n">
-        <v>0.342427</v>
+        <v>0.350442</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.458815</v>
+        <v>0.456836</v>
       </c>
       <c r="C139" t="n">
-        <v>0.386372</v>
+        <v>0.377478</v>
       </c>
       <c r="D139" t="n">
-        <v>0.337517</v>
+        <v>0.345652</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.448884</v>
+        <v>0.456664</v>
       </c>
       <c r="C140" t="n">
-        <v>0.384815</v>
+        <v>0.389079</v>
       </c>
       <c r="D140" t="n">
-        <v>0.347275</v>
+        <v>0.361678</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.461556</v>
+        <v>0.468357</v>
       </c>
       <c r="C141" t="n">
-        <v>0.393706</v>
+        <v>0.397465</v>
       </c>
       <c r="D141" t="n">
-        <v>0.348815</v>
+        <v>0.359132</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.470293</v>
+        <v>0.480055</v>
       </c>
       <c r="C142" t="n">
-        <v>0.397634</v>
+        <v>0.392916</v>
       </c>
       <c r="D142" t="n">
-        <v>0.35525</v>
+        <v>0.3649</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.482739</v>
+        <v>0.481252</v>
       </c>
       <c r="C143" t="n">
-        <v>0.410094</v>
+        <v>0.40465</v>
       </c>
       <c r="D143" t="n">
-        <v>0.371219</v>
+        <v>0.369511</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0601393</v>
+        <v>0.0624517</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0640231</v>
+        <v>0.0625405</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0570107</v>
+        <v>0.0559719</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0613816</v>
+        <v>0.0617385</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0652421</v>
+        <v>0.064598</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06259389999999999</v>
+        <v>0.0573174</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06462909999999999</v>
+        <v>0.0674886</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06871670000000001</v>
+        <v>0.0714461</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0583334</v>
+        <v>0.05694</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0681151</v>
+        <v>0.0727646</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07593229999999999</v>
+        <v>0.075753</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0629152</v>
+        <v>0.0588831</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.078905</v>
+        <v>0.0829696</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0867768</v>
+        <v>0.0863985</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0661769</v>
+        <v>0.06270630000000001</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0946951</v>
+        <v>0.09599149999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.101805</v>
+        <v>0.09948750000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0714718</v>
+        <v>0.06737990000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.110344</v>
+        <v>0.119269</v>
       </c>
       <c r="C8" t="n">
-        <v>0.133263</v>
+        <v>0.129531</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08298949999999999</v>
+        <v>0.07901710000000001</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149336</v>
+        <v>0.153476</v>
       </c>
       <c r="C9" t="n">
-        <v>0.168213</v>
+        <v>0.164965</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0569141</v>
+        <v>0.0550401</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0600383</v>
+        <v>0.0596782</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0557225</v>
+        <v>0.056799</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0571343</v>
+        <v>0.0548272</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0607041</v>
+        <v>0.0607179</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0572975</v>
+        <v>0.0551435</v>
       </c>
       <c r="D11" t="n">
-        <v>0.055839</v>
+        <v>0.0569339</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0624285</v>
+        <v>0.0609588</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0586545</v>
+        <v>0.0568194</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0589895</v>
+        <v>0.055372</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.06255579999999999</v>
+        <v>0.0619185</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0579385</v>
+        <v>0.0579521</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0567164</v>
+        <v>0.0552464</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0621575</v>
+        <v>0.0607926</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0601152</v>
+        <v>0.0597259</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0562361</v>
+        <v>0.0552042</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.06262810000000001</v>
+        <v>0.0620318</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0607026</v>
+        <v>0.06371449999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0570003</v>
+        <v>0.0568842</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.06537660000000001</v>
+        <v>0.065619</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06463670000000001</v>
+        <v>0.0629774</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0597501</v>
+        <v>0.0579798</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0677114</v>
+        <v>0.06749049999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0673728</v>
+        <v>0.066327</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0606278</v>
+        <v>0.0571902</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0681725</v>
+        <v>0.0717928</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0731858</v>
+        <v>0.07738680000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0620717</v>
+        <v>0.0589563</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07517890000000001</v>
+        <v>0.0777085</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07997659999999999</v>
+        <v>0.0798118</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06501220000000001</v>
+        <v>0.060645</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0821458</v>
+        <v>0.0851317</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08976099999999999</v>
+        <v>0.09033529999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.06845900000000001</v>
+        <v>0.0653092</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.09720479999999999</v>
+        <v>0.102746</v>
       </c>
       <c r="C21" t="n">
-        <v>0.103078</v>
+        <v>0.102947</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0740705</v>
+        <v>0.07219589999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.112287</v>
+        <v>0.118416</v>
       </c>
       <c r="C22" t="n">
-        <v>0.132636</v>
+        <v>0.1364</v>
       </c>
       <c r="D22" t="n">
-        <v>0.08430260000000001</v>
+        <v>0.082788</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.146538</v>
+        <v>0.153873</v>
       </c>
       <c r="C23" t="n">
-        <v>0.171421</v>
+        <v>0.173346</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0564561</v>
+        <v>0.0567556</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0620609</v>
+        <v>0.0634874</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0580686</v>
+        <v>0.0601046</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0564129</v>
+        <v>0.0574325</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.06501949999999999</v>
+        <v>0.0667171</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0586822</v>
+        <v>0.0577252</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0578301</v>
+        <v>0.0564192</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.06408079999999999</v>
+        <v>0.0637557</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0587219</v>
+        <v>0.0599842</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0585389</v>
+        <v>0.0557637</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0663479</v>
+        <v>0.0663159</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0602611</v>
+        <v>0.0604713</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0574962</v>
+        <v>0.0571875</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0656973</v>
+        <v>0.0672775</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0629152</v>
+        <v>0.0635549</v>
       </c>
       <c r="D28" t="n">
-        <v>0.059461</v>
+        <v>0.0580465</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0663508</v>
+        <v>0.0670139</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0640623</v>
+        <v>0.0627665</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0583966</v>
+        <v>0.0571213</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0696502</v>
+        <v>0.0703583</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0652496</v>
+        <v>0.06699670000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0601743</v>
+        <v>0.0567191</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.07259069999999999</v>
+        <v>0.07204149999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06790880000000001</v>
+        <v>0.0682305</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0610924</v>
+        <v>0.0581938</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0732733</v>
+        <v>0.0725277</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0733959</v>
+        <v>0.0734721</v>
       </c>
       <c r="D32" t="n">
-        <v>0.061146</v>
+        <v>0.0604727</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.07963779999999999</v>
+        <v>0.0780593</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0790019</v>
+        <v>0.07773770000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0645061</v>
+        <v>0.0628951</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08801589999999999</v>
+        <v>0.08613709999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0919999</v>
+        <v>0.0896507</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07013610000000001</v>
+        <v>0.0667886</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.100151</v>
+        <v>0.0955288</v>
       </c>
       <c r="C35" t="n">
-        <v>0.104323</v>
+        <v>0.105342</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0753263</v>
+        <v>0.0723586</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.112886</v>
+        <v>0.120916</v>
       </c>
       <c r="C36" t="n">
-        <v>0.128338</v>
+        <v>0.125951</v>
       </c>
       <c r="D36" t="n">
-        <v>0.086775</v>
+        <v>0.08472200000000001</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.143281</v>
+        <v>0.1456</v>
       </c>
       <c r="C37" t="n">
-        <v>0.169435</v>
+        <v>0.169083</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0620147</v>
+        <v>0.0582607</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.068561</v>
+        <v>0.0682464</v>
       </c>
       <c r="C38" t="n">
-        <v>0.061771</v>
+        <v>0.0631684</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0626299</v>
+        <v>0.0566299</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.071246</v>
+        <v>0.0708</v>
       </c>
       <c r="C39" t="n">
-        <v>0.06303449999999999</v>
+        <v>0.0625975</v>
       </c>
       <c r="D39" t="n">
-        <v>0.059623</v>
+        <v>0.0587823</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.07096619999999999</v>
+        <v>0.0710976</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0649416</v>
+        <v>0.0648541</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0628418</v>
+        <v>0.0580827</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0717131</v>
+        <v>0.0714225</v>
       </c>
       <c r="C41" t="n">
-        <v>0.06632159999999999</v>
+        <v>0.06568259999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0634368</v>
+        <v>0.0591632</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0710181</v>
+        <v>0.0736914</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0679496</v>
+        <v>0.0668825</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0628929</v>
+        <v>0.0608047</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.07212060000000001</v>
+        <v>0.07386470000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0674476</v>
+        <v>0.0669028</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0616536</v>
+        <v>0.0621391</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0789591</v>
+        <v>0.073571</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07059890000000001</v>
+        <v>0.07257089999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0629416</v>
+        <v>0.0638734</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0763461</v>
+        <v>0.0781357</v>
       </c>
       <c r="C45" t="n">
-        <v>0.076873</v>
+        <v>0.0747092</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0649975</v>
+        <v>0.0634004</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0801848</v>
+        <v>0.0784556</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0753373</v>
+        <v>0.0778282</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0650292</v>
+        <v>0.06478399999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.08594300000000001</v>
+        <v>0.0837782</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0825166</v>
+        <v>0.0824124</v>
       </c>
       <c r="D47" t="n">
-        <v>0.070355</v>
+        <v>0.0653199</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.09132029999999999</v>
+        <v>0.0905634</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0949598</v>
+        <v>0.0921042</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0712274</v>
+        <v>0.0728454</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.103499</v>
+        <v>0.103326</v>
       </c>
       <c r="C49" t="n">
-        <v>0.10294</v>
+        <v>0.107475</v>
       </c>
       <c r="D49" t="n">
-        <v>0.07585980000000001</v>
+        <v>0.0740687</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.121958</v>
+        <v>0.118705</v>
       </c>
       <c r="C50" t="n">
-        <v>0.126612</v>
+        <v>0.127859</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0854328</v>
+        <v>0.0808422</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.145696</v>
+        <v>0.139644</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1592</v>
+        <v>0.160893</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0652746</v>
+        <v>0.0634546</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.187959</v>
+        <v>0.186294</v>
       </c>
       <c r="C52" t="n">
-        <v>0.198275</v>
+        <v>0.204941</v>
       </c>
       <c r="D52" t="n">
-        <v>0.06438049999999999</v>
+        <v>0.0646171</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0804763</v>
+        <v>0.0789339</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0712274</v>
+        <v>0.0721933</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0645765</v>
+        <v>0.06448429999999999</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.080377</v>
+        <v>0.0816909</v>
       </c>
       <c r="C54" t="n">
-        <v>0.07168819999999999</v>
+        <v>0.07393089999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.06727180000000001</v>
+        <v>0.0647235</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0822505</v>
+        <v>0.0816955</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0724427</v>
+        <v>0.0781013</v>
       </c>
       <c r="D55" t="n">
-        <v>0.06775539999999999</v>
+        <v>0.06394370000000001</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08446919999999999</v>
+        <v>0.0831239</v>
       </c>
       <c r="C56" t="n">
-        <v>0.07455779999999999</v>
+        <v>0.075402</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0665594</v>
+        <v>0.06741900000000001</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0866252</v>
+        <v>0.0846658</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0760894</v>
+        <v>0.07780479999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0689268</v>
+        <v>0.0660278</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0864123</v>
+        <v>0.086007</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0803444</v>
+        <v>0.0814209</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0688098</v>
+        <v>0.0671279</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0899679</v>
+        <v>0.0894982</v>
       </c>
       <c r="C59" t="n">
-        <v>0.08451699999999999</v>
+        <v>0.0828696</v>
       </c>
       <c r="D59" t="n">
-        <v>0.06954440000000001</v>
+        <v>0.06858880000000001</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0939786</v>
+        <v>0.09220639999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0880143</v>
+        <v>0.08639289999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0741768</v>
+        <v>0.0702605</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.100091</v>
+        <v>0.0980422</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0965049</v>
+        <v>0.0912071</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0741071</v>
+        <v>0.0753014</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.10427</v>
+        <v>0.103223</v>
       </c>
       <c r="C62" t="n">
-        <v>0.103004</v>
+        <v>0.107007</v>
       </c>
       <c r="D62" t="n">
-        <v>0.07863299999999999</v>
+        <v>0.07826519999999999</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.115599</v>
+        <v>0.122871</v>
       </c>
       <c r="C63" t="n">
-        <v>0.114878</v>
+        <v>0.117761</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0809609</v>
+        <v>0.0812539</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.129753</v>
+        <v>0.131582</v>
       </c>
       <c r="C64" t="n">
-        <v>0.133977</v>
+        <v>0.137843</v>
       </c>
       <c r="D64" t="n">
-        <v>0.09015670000000001</v>
+        <v>0.09199450000000001</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.153307</v>
+        <v>0.157312</v>
       </c>
       <c r="C65" t="n">
-        <v>0.168454</v>
+        <v>0.166101</v>
       </c>
       <c r="D65" t="n">
-        <v>0.101559</v>
+        <v>0.102066</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.197637</v>
+        <v>0.194817</v>
       </c>
       <c r="C66" t="n">
-        <v>0.207836</v>
+        <v>0.219643</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0728999</v>
+        <v>0.0679292</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0965796</v>
+        <v>0.08983049999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0807484</v>
+        <v>0.0818019</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0714486</v>
+        <v>0.0715464</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0916233</v>
+        <v>0.0932766</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0835297</v>
+        <v>0.082608</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07249120000000001</v>
+        <v>0.0699394</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0958085</v>
+        <v>0.0933702</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0858626</v>
+        <v>0.0848165</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0739287</v>
+        <v>0.0710369</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0966877</v>
+        <v>0.0955366</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0866548</v>
+        <v>0.08730789999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0729871</v>
+        <v>0.0717542</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.09754110000000001</v>
+        <v>0.0992812</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0905642</v>
+        <v>0.0923506</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0720619</v>
+        <v>0.0732564</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.100685</v>
+        <v>0.103286</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0921126</v>
+        <v>0.093151</v>
       </c>
       <c r="D72" t="n">
-        <v>0.074881</v>
+        <v>0.07579379999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.102892</v>
+        <v>0.104316</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0960647</v>
+        <v>0.0971665</v>
       </c>
       <c r="D73" t="n">
-        <v>0.07741820000000001</v>
+        <v>0.0756578</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.109099</v>
+        <v>0.109061</v>
       </c>
       <c r="C74" t="n">
-        <v>0.102816</v>
+        <v>0.106253</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0798176</v>
+        <v>0.0794786</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.113752</v>
+        <v>0.117619</v>
       </c>
       <c r="C75" t="n">
-        <v>0.110227</v>
+        <v>0.112054</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0833458</v>
+        <v>0.082271</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.120517</v>
+        <v>0.125418</v>
       </c>
       <c r="C76" t="n">
-        <v>0.120482</v>
+        <v>0.12202</v>
       </c>
       <c r="D76" t="n">
-        <v>0.08518299999999999</v>
+        <v>0.0836986</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.136585</v>
+        <v>0.138465</v>
       </c>
       <c r="C77" t="n">
-        <v>0.132993</v>
+        <v>0.136341</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0947098</v>
+        <v>0.09295100000000001</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.151138</v>
+        <v>0.160368</v>
       </c>
       <c r="C78" t="n">
-        <v>0.157013</v>
+        <v>0.160981</v>
       </c>
       <c r="D78" t="n">
-        <v>0.102903</v>
+        <v>0.10051</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.182084</v>
+        <v>0.188011</v>
       </c>
       <c r="C79" t="n">
-        <v>0.185462</v>
+        <v>0.186767</v>
       </c>
       <c r="D79" t="n">
-        <v>0.118128</v>
+        <v>0.115182</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.218376</v>
+        <v>0.233892</v>
       </c>
       <c r="C80" t="n">
-        <v>0.229302</v>
+        <v>0.23985</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0779744</v>
+        <v>0.07625560000000001</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.108462</v>
+        <v>0.109906</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0949942</v>
+        <v>0.100493</v>
       </c>
       <c r="D81" t="n">
-        <v>0.077977</v>
+        <v>0.0785247</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.110561</v>
+        <v>0.111499</v>
       </c>
       <c r="C82" t="n">
-        <v>0.101232</v>
+        <v>0.09864879999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>0.07989839999999999</v>
+        <v>0.0800413</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.113027</v>
+        <v>0.114011</v>
       </c>
       <c r="C83" t="n">
-        <v>0.101672</v>
+        <v>0.106344</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0801858</v>
+        <v>0.0821026</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.119158</v>
+        <v>0.121127</v>
       </c>
       <c r="C84" t="n">
-        <v>0.103687</v>
+        <v>0.108817</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0855133</v>
+        <v>0.0849956</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.119085</v>
+        <v>0.120721</v>
       </c>
       <c r="C85" t="n">
-        <v>0.105107</v>
+        <v>0.109549</v>
       </c>
       <c r="D85" t="n">
-        <v>0.08629290000000001</v>
+        <v>0.08393059999999999</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.123203</v>
+        <v>0.121959</v>
       </c>
       <c r="C86" t="n">
-        <v>0.111397</v>
+        <v>0.117997</v>
       </c>
       <c r="D86" t="n">
-        <v>0.089646</v>
+        <v>0.0859939</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.128991</v>
+        <v>0.124495</v>
       </c>
       <c r="C87" t="n">
-        <v>0.117351</v>
+        <v>0.116887</v>
       </c>
       <c r="D87" t="n">
-        <v>0.089672</v>
+        <v>0.0899954</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.142399</v>
+        <v>0.134377</v>
       </c>
       <c r="C88" t="n">
-        <v>0.123477</v>
+        <v>0.120027</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0937429</v>
+        <v>0.0929981</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.141356</v>
+        <v>0.143777</v>
       </c>
       <c r="C89" t="n">
-        <v>0.133229</v>
+        <v>0.135163</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0949632</v>
+        <v>0.09644170000000001</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.149201</v>
+        <v>0.149747</v>
       </c>
       <c r="C90" t="n">
-        <v>0.138309</v>
+        <v>0.139905</v>
       </c>
       <c r="D90" t="n">
-        <v>0.103623</v>
+        <v>0.101458</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.160003</v>
+        <v>0.165358</v>
       </c>
       <c r="C91" t="n">
-        <v>0.155087</v>
+        <v>0.154105</v>
       </c>
       <c r="D91" t="n">
-        <v>0.10752</v>
+        <v>0.104743</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.177216</v>
+        <v>0.176408</v>
       </c>
       <c r="C92" t="n">
-        <v>0.178788</v>
+        <v>0.174335</v>
       </c>
       <c r="D92" t="n">
-        <v>0.115885</v>
+        <v>0.115464</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.205776</v>
+        <v>0.201267</v>
       </c>
       <c r="C93" t="n">
-        <v>0.20524</v>
+        <v>0.21178</v>
       </c>
       <c r="D93" t="n">
-        <v>0.128295</v>
+        <v>0.131711</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.23838</v>
+        <v>0.248706</v>
       </c>
       <c r="C94" t="n">
-        <v>0.258652</v>
+        <v>0.258601</v>
       </c>
       <c r="D94" t="n">
-        <v>0.102943</v>
+        <v>0.09696879999999999</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.137115</v>
+        <v>0.13922</v>
       </c>
       <c r="C95" t="n">
-        <v>0.122649</v>
+        <v>0.127846</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0999796</v>
+        <v>0.100192</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.139776</v>
+        <v>0.142581</v>
       </c>
       <c r="C96" t="n">
-        <v>0.130658</v>
+        <v>0.129232</v>
       </c>
       <c r="D96" t="n">
-        <v>0.102919</v>
+        <v>0.101913</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.144688</v>
+        <v>0.145218</v>
       </c>
       <c r="C97" t="n">
-        <v>0.129838</v>
+        <v>0.130877</v>
       </c>
       <c r="D97" t="n">
-        <v>0.106319</v>
+        <v>0.099471</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.144628</v>
+        <v>0.143366</v>
       </c>
       <c r="C98" t="n">
-        <v>0.133949</v>
+        <v>0.13358</v>
       </c>
       <c r="D98" t="n">
-        <v>0.103985</v>
+        <v>0.104128</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.14832</v>
+        <v>0.151818</v>
       </c>
       <c r="C99" t="n">
-        <v>0.139224</v>
+        <v>0.141085</v>
       </c>
       <c r="D99" t="n">
-        <v>0.110265</v>
+        <v>0.106095</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.152207</v>
+        <v>0.155254</v>
       </c>
       <c r="C100" t="n">
-        <v>0.141884</v>
+        <v>0.141885</v>
       </c>
       <c r="D100" t="n">
-        <v>0.110688</v>
+        <v>0.109126</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.155319</v>
+        <v>0.163165</v>
       </c>
       <c r="C101" t="n">
-        <v>0.14939</v>
+        <v>0.154616</v>
       </c>
       <c r="D101" t="n">
-        <v>0.111903</v>
+        <v>0.112285</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.16297</v>
+        <v>0.170278</v>
       </c>
       <c r="C102" t="n">
-        <v>0.153842</v>
+        <v>0.162739</v>
       </c>
       <c r="D102" t="n">
-        <v>0.115828</v>
+        <v>0.118151</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.170581</v>
+        <v>0.179306</v>
       </c>
       <c r="C103" t="n">
-        <v>0.160206</v>
+        <v>0.168144</v>
       </c>
       <c r="D103" t="n">
-        <v>0.117826</v>
+        <v>0.122001</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.178293</v>
+        <v>0.184341</v>
       </c>
       <c r="C104" t="n">
-        <v>0.17233</v>
+        <v>0.175694</v>
       </c>
       <c r="D104" t="n">
-        <v>0.124976</v>
+        <v>0.126639</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.189388</v>
+        <v>0.20284</v>
       </c>
       <c r="C105" t="n">
-        <v>0.187945</v>
+        <v>0.188988</v>
       </c>
       <c r="D105" t="n">
-        <v>0.133287</v>
+        <v>0.128764</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.213009</v>
+        <v>0.213733</v>
       </c>
       <c r="C106" t="n">
-        <v>0.211913</v>
+        <v>0.213238</v>
       </c>
       <c r="D106" t="n">
-        <v>0.142852</v>
+        <v>0.136597</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.230808</v>
+        <v>0.23536</v>
       </c>
       <c r="C107" t="n">
-        <v>0.249992</v>
+        <v>0.239625</v>
       </c>
       <c r="D107" t="n">
-        <v>0.150944</v>
+        <v>0.150143</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.27507</v>
+        <v>0.270672</v>
       </c>
       <c r="C108" t="n">
-        <v>0.288035</v>
+        <v>0.286339</v>
       </c>
       <c r="D108" t="n">
-        <v>0.185509</v>
+        <v>0.176722</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.339633</v>
+        <v>0.353183</v>
       </c>
       <c r="C109" t="n">
-        <v>0.365953</v>
+        <v>0.364132</v>
       </c>
       <c r="D109" t="n">
-        <v>0.188087</v>
+        <v>0.17915</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.236155</v>
+        <v>0.225808</v>
       </c>
       <c r="C110" t="n">
-        <v>0.204914</v>
+        <v>0.204334</v>
       </c>
       <c r="D110" t="n">
-        <v>0.180789</v>
+        <v>0.183726</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.230722</v>
+        <v>0.249933</v>
       </c>
       <c r="C111" t="n">
-        <v>0.219884</v>
+        <v>0.211492</v>
       </c>
       <c r="D111" t="n">
-        <v>0.183242</v>
+        <v>0.175178</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.246713</v>
+        <v>0.235466</v>
       </c>
       <c r="C112" t="n">
-        <v>0.214763</v>
+        <v>0.211416</v>
       </c>
       <c r="D112" t="n">
-        <v>0.192304</v>
+        <v>0.183943</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.246799</v>
+        <v>0.238011</v>
       </c>
       <c r="C113" t="n">
-        <v>0.211579</v>
+        <v>0.224195</v>
       </c>
       <c r="D113" t="n">
-        <v>0.187995</v>
+        <v>0.19504</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.253889</v>
+        <v>0.257352</v>
       </c>
       <c r="C114" t="n">
-        <v>0.227673</v>
+        <v>0.215748</v>
       </c>
       <c r="D114" t="n">
-        <v>0.193166</v>
+        <v>0.19644</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.251546</v>
+        <v>0.247307</v>
       </c>
       <c r="C115" t="n">
-        <v>0.226831</v>
+        <v>0.24368</v>
       </c>
       <c r="D115" t="n">
-        <v>0.191455</v>
+        <v>0.184903</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.254726</v>
+        <v>0.253596</v>
       </c>
       <c r="C116" t="n">
-        <v>0.248036</v>
+        <v>0.259505</v>
       </c>
       <c r="D116" t="n">
-        <v>0.20845</v>
+        <v>0.195001</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.266832</v>
+        <v>0.274164</v>
       </c>
       <c r="C117" t="n">
-        <v>0.250794</v>
+        <v>0.239892</v>
       </c>
       <c r="D117" t="n">
-        <v>0.217217</v>
+        <v>0.206736</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.266352</v>
+        <v>0.297981</v>
       </c>
       <c r="C118" t="n">
-        <v>0.264942</v>
+        <v>0.271075</v>
       </c>
       <c r="D118" t="n">
-        <v>0.205664</v>
+        <v>0.200604</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.283927</v>
+        <v>0.281533</v>
       </c>
       <c r="C119" t="n">
-        <v>0.269842</v>
+        <v>0.286935</v>
       </c>
       <c r="D119" t="n">
-        <v>0.216736</v>
+        <v>0.209099</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.312098</v>
+        <v>0.30876</v>
       </c>
       <c r="C120" t="n">
-        <v>0.299372</v>
+        <v>0.288534</v>
       </c>
       <c r="D120" t="n">
-        <v>0.224891</v>
+        <v>0.220633</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.339212</v>
+        <v>0.324734</v>
       </c>
       <c r="C121" t="n">
-        <v>0.319133</v>
+        <v>0.317612</v>
       </c>
       <c r="D121" t="n">
-        <v>0.231323</v>
+        <v>0.255716</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.373463</v>
+        <v>0.523392</v>
       </c>
       <c r="C122" t="n">
-        <v>0.375857</v>
+        <v>0.437964</v>
       </c>
       <c r="D122" t="n">
-        <v>0.275059</v>
+        <v>0.308891</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.472544</v>
+        <v>0.599199</v>
       </c>
       <c r="C123" t="n">
-        <v>0.468555</v>
+        <v>0.518171</v>
       </c>
       <c r="D123" t="n">
-        <v>0.292676</v>
+        <v>0.284587</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.363623</v>
+        <v>0.3632</v>
       </c>
       <c r="C124" t="n">
-        <v>0.318977</v>
+        <v>0.320371</v>
       </c>
       <c r="D124" t="n">
-        <v>0.283726</v>
+        <v>0.280976</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.376599</v>
+        <v>0.370053</v>
       </c>
       <c r="C125" t="n">
-        <v>0.320421</v>
+        <v>0.332316</v>
       </c>
       <c r="D125" t="n">
-        <v>0.291672</v>
+        <v>0.289732</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.376447</v>
+        <v>0.374751</v>
       </c>
       <c r="C126" t="n">
-        <v>0.323246</v>
+        <v>0.324778</v>
       </c>
       <c r="D126" t="n">
-        <v>0.298568</v>
+        <v>0.284957</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.381078</v>
+        <v>0.378644</v>
       </c>
       <c r="C127" t="n">
-        <v>0.325465</v>
+        <v>0.336886</v>
       </c>
       <c r="D127" t="n">
-        <v>0.30746</v>
+        <v>0.300209</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.390379</v>
+        <v>0.382328</v>
       </c>
       <c r="C128" t="n">
-        <v>0.333188</v>
+        <v>0.339162</v>
       </c>
       <c r="D128" t="n">
-        <v>0.308451</v>
+        <v>0.305395</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.387726</v>
+        <v>0.412508</v>
       </c>
       <c r="C129" t="n">
-        <v>0.348233</v>
+        <v>0.355307</v>
       </c>
       <c r="D129" t="n">
-        <v>0.302865</v>
+        <v>0.298068</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.401303</v>
+        <v>0.40092</v>
       </c>
       <c r="C130" t="n">
-        <v>0.343007</v>
+        <v>0.358865</v>
       </c>
       <c r="D130" t="n">
-        <v>0.303087</v>
+        <v>0.304029</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.400083</v>
+        <v>0.414209</v>
       </c>
       <c r="C131" t="n">
-        <v>0.358752</v>
+        <v>0.369395</v>
       </c>
       <c r="D131" t="n">
-        <v>0.306048</v>
+        <v>0.309215</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.40595</v>
+        <v>0.427679</v>
       </c>
       <c r="C132" t="n">
-        <v>0.371018</v>
+        <v>0.375545</v>
       </c>
       <c r="D132" t="n">
-        <v>0.319192</v>
+        <v>0.320047</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.454011</v>
+        <v>0.44012</v>
       </c>
       <c r="C133" t="n">
-        <v>0.395767</v>
+        <v>0.381854</v>
       </c>
       <c r="D133" t="n">
-        <v>0.321654</v>
+        <v>0.315082</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.453027</v>
+        <v>0.45496</v>
       </c>
       <c r="C134" t="n">
-        <v>0.416862</v>
+        <v>0.40772</v>
       </c>
       <c r="D134" t="n">
-        <v>0.340539</v>
+        <v>0.330473</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.484989</v>
+        <v>0.490092</v>
       </c>
       <c r="C135" t="n">
-        <v>0.459025</v>
+        <v>0.445774</v>
       </c>
       <c r="D135" t="n">
-        <v>0.347394</v>
+        <v>0.344375</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.542942</v>
+        <v>0.549964</v>
       </c>
       <c r="C136" t="n">
-        <v>0.499695</v>
+        <v>0.508358</v>
       </c>
       <c r="D136" t="n">
-        <v>0.368234</v>
+        <v>0.367384</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.619854</v>
+        <v>0.612792</v>
       </c>
       <c r="C137" t="n">
-        <v>0.58469</v>
+        <v>0.5942</v>
       </c>
       <c r="D137" t="n">
-        <v>0.355065</v>
+        <v>0.338581</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.459062</v>
+        <v>0.449329</v>
       </c>
       <c r="C138" t="n">
-        <v>0.391747</v>
+        <v>0.386002</v>
       </c>
       <c r="D138" t="n">
-        <v>0.350442</v>
+        <v>0.345794</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.456836</v>
+        <v>0.465911</v>
       </c>
       <c r="C139" t="n">
-        <v>0.377478</v>
+        <v>0.384061</v>
       </c>
       <c r="D139" t="n">
-        <v>0.345652</v>
+        <v>0.347886</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.456664</v>
+        <v>0.462081</v>
       </c>
       <c r="C140" t="n">
-        <v>0.389079</v>
+        <v>0.398648</v>
       </c>
       <c r="D140" t="n">
-        <v>0.361678</v>
+        <v>0.358785</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.468357</v>
+        <v>0.470969</v>
       </c>
       <c r="C141" t="n">
-        <v>0.397465</v>
+        <v>0.392493</v>
       </c>
       <c r="D141" t="n">
-        <v>0.359132</v>
+        <v>0.353227</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.480055</v>
+        <v>0.465836</v>
       </c>
       <c r="C142" t="n">
-        <v>0.392916</v>
+        <v>0.398267</v>
       </c>
       <c r="D142" t="n">
-        <v>0.3649</v>
+        <v>0.356629</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.481252</v>
+        <v>0.477644</v>
       </c>
       <c r="C143" t="n">
-        <v>0.40465</v>
+        <v>0.418478</v>
       </c>
       <c r="D143" t="n">
-        <v>0.369511</v>
+        <v>0.366439</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3272,13 +3272,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.061556</v>
+        <v>0.0601786</v>
       </c>
       <c r="C2" t="n">
-        <v>0.212241</v>
+        <v>0.225397</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0614678</v>
+        <v>0.0575225</v>
       </c>
     </row>
     <row r="3">
@@ -3286,13 +3286,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.064216</v>
+        <v>0.0616633</v>
       </c>
       <c r="C3" t="n">
-        <v>0.21362</v>
+        <v>0.232002</v>
       </c>
       <c r="D3" t="n">
-        <v>0.063862</v>
+        <v>0.0584179</v>
       </c>
     </row>
     <row r="4">
@@ -3300,13 +3300,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06452479999999999</v>
+        <v>0.0657802</v>
       </c>
       <c r="C4" t="n">
-        <v>0.226035</v>
+        <v>0.242448</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0686459</v>
+        <v>0.0601241</v>
       </c>
     </row>
     <row r="5">
@@ -3314,13 +3314,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0726083</v>
+        <v>0.0710944</v>
       </c>
       <c r="C5" t="n">
-        <v>0.235498</v>
+        <v>0.259458</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07333199999999999</v>
+        <v>0.0605798</v>
       </c>
     </row>
     <row r="6">
@@ -3328,13 +3328,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0833359</v>
+        <v>0.08260579999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.247409</v>
+        <v>0.26545</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0824129</v>
+        <v>0.06705899999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3342,13 +3342,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0968045</v>
+        <v>0.0979749</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2647</v>
+        <v>0.278816</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0927089</v>
+        <v>0.0711</v>
       </c>
     </row>
     <row r="8">
@@ -3356,13 +3356,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.119418</v>
+        <v>0.120524</v>
       </c>
       <c r="C8" t="n">
-        <v>0.20174</v>
+        <v>0.219997</v>
       </c>
       <c r="D8" t="n">
-        <v>0.124258</v>
+        <v>0.0844874</v>
       </c>
     </row>
     <row r="9">
@@ -3370,13 +3370,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.151063</v>
+        <v>0.152674</v>
       </c>
       <c r="C9" t="n">
-        <v>0.206152</v>
+        <v>0.225547</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0574966</v>
+        <v>0.0559047</v>
       </c>
     </row>
     <row r="10">
@@ -3384,13 +3384,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0580768</v>
+        <v>0.0580988</v>
       </c>
       <c r="C10" t="n">
-        <v>0.213659</v>
+        <v>0.223721</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0582093</v>
+        <v>0.0558421</v>
       </c>
     </row>
     <row r="11">
@@ -3398,13 +3398,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0600344</v>
+        <v>0.0600145</v>
       </c>
       <c r="C11" t="n">
-        <v>0.210785</v>
+        <v>0.231147</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0568226</v>
+        <v>0.0550055</v>
       </c>
     </row>
     <row r="12">
@@ -3412,13 +3412,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0613729</v>
+        <v>0.0598301</v>
       </c>
       <c r="C12" t="n">
-        <v>0.212359</v>
+        <v>0.229104</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0578048</v>
+        <v>0.0581361</v>
       </c>
     </row>
     <row r="13">
@@ -3426,13 +3426,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0609578</v>
+        <v>0.0610995</v>
       </c>
       <c r="C13" t="n">
-        <v>0.216297</v>
+        <v>0.228489</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0584345</v>
+        <v>0.0580323</v>
       </c>
     </row>
     <row r="14">
@@ -3440,13 +3440,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0618314</v>
+        <v>0.0616661</v>
       </c>
       <c r="C14" t="n">
-        <v>0.210337</v>
+        <v>0.230309</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0589324</v>
+        <v>0.0583617</v>
       </c>
     </row>
     <row r="15">
@@ -3454,13 +3454,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.06272850000000001</v>
+        <v>0.06257749999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.208154</v>
+        <v>0.22465</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0616742</v>
+        <v>0.0569408</v>
       </c>
     </row>
     <row r="16">
@@ -3468,13 +3468,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0651675</v>
+        <v>0.06527139999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.210051</v>
+        <v>0.23182</v>
       </c>
       <c r="D16" t="n">
-        <v>0.06162</v>
+        <v>0.0572577</v>
       </c>
     </row>
     <row r="17">
@@ -3482,13 +3482,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0663432</v>
+        <v>0.0668236</v>
       </c>
       <c r="C17" t="n">
-        <v>0.216842</v>
+        <v>0.240506</v>
       </c>
       <c r="D17" t="n">
-        <v>0.06604649999999999</v>
+        <v>0.0602297</v>
       </c>
     </row>
     <row r="18">
@@ -3496,13 +3496,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0698714</v>
+        <v>0.0707754</v>
       </c>
       <c r="C18" t="n">
-        <v>0.228297</v>
+        <v>0.245372</v>
       </c>
       <c r="D18" t="n">
-        <v>0.06976259999999999</v>
+        <v>0.0594403</v>
       </c>
     </row>
     <row r="19">
@@ -3510,13 +3510,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07618129999999999</v>
+        <v>0.0761143</v>
       </c>
       <c r="C19" t="n">
-        <v>0.234767</v>
+        <v>0.251012</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07477689999999999</v>
+        <v>0.0629091</v>
       </c>
     </row>
     <row r="20">
@@ -3524,13 +3524,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0820673</v>
+        <v>0.0852499</v>
       </c>
       <c r="C20" t="n">
-        <v>0.261612</v>
+        <v>0.261319</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0841147</v>
+        <v>0.06580469999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3538,13 +3538,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.09152100000000001</v>
+        <v>0.100492</v>
       </c>
       <c r="C21" t="n">
-        <v>0.272405</v>
+        <v>0.278471</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09951160000000001</v>
+        <v>0.0719423</v>
       </c>
     </row>
     <row r="22">
@@ -3552,13 +3552,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.113539</v>
+        <v>0.118309</v>
       </c>
       <c r="C22" t="n">
-        <v>0.208993</v>
+        <v>0.224717</v>
       </c>
       <c r="D22" t="n">
-        <v>0.123578</v>
+        <v>0.0812838</v>
       </c>
     </row>
     <row r="23">
@@ -3566,13 +3566,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.144467</v>
+        <v>0.157354</v>
       </c>
       <c r="C23" t="n">
-        <v>0.215911</v>
+        <v>0.2268</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0591626</v>
+        <v>0.0569639</v>
       </c>
     </row>
     <row r="24">
@@ -3580,13 +3580,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0619751</v>
+        <v>0.0623242</v>
       </c>
       <c r="C24" t="n">
-        <v>0.215551</v>
+        <v>0.226081</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0607022</v>
+        <v>0.0580735</v>
       </c>
     </row>
     <row r="25">
@@ -3594,13 +3594,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.06485399999999999</v>
+        <v>0.0626118</v>
       </c>
       <c r="C25" t="n">
-        <v>0.211377</v>
+        <v>0.23112</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0615019</v>
+        <v>0.0565401</v>
       </c>
     </row>
     <row r="26">
@@ -3608,13 +3608,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.06399820000000001</v>
+        <v>0.0653635</v>
       </c>
       <c r="C26" t="n">
-        <v>0.214039</v>
+        <v>0.225213</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0612957</v>
+        <v>0.0572512</v>
       </c>
     </row>
     <row r="27">
@@ -3622,13 +3622,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0645667</v>
+        <v>0.0660538</v>
       </c>
       <c r="C27" t="n">
-        <v>0.219309</v>
+        <v>0.231397</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0608878</v>
+        <v>0.0590368</v>
       </c>
     </row>
     <row r="28">
@@ -3636,13 +3636,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0664781</v>
+        <v>0.0671009</v>
       </c>
       <c r="C28" t="n">
-        <v>0.21548</v>
+        <v>0.230199</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0621708</v>
+        <v>0.0600928</v>
       </c>
     </row>
     <row r="29">
@@ -3650,13 +3650,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.06760529999999999</v>
+        <v>0.06697980000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.222933</v>
+        <v>0.241187</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0646694</v>
+        <v>0.0589204</v>
       </c>
     </row>
     <row r="30">
@@ -3664,13 +3664,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.06805990000000001</v>
+        <v>0.0677191</v>
       </c>
       <c r="C30" t="n">
-        <v>0.222123</v>
+        <v>0.244577</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0664665</v>
+        <v>0.0610651</v>
       </c>
     </row>
     <row r="31">
@@ -3678,13 +3678,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0742443</v>
+        <v>0.0719948</v>
       </c>
       <c r="C31" t="n">
-        <v>0.224966</v>
+        <v>0.240329</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07087549999999999</v>
+        <v>0.0606902</v>
       </c>
     </row>
     <row r="32">
@@ -3692,13 +3692,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0754431</v>
+        <v>0.0773834</v>
       </c>
       <c r="C32" t="n">
-        <v>0.227801</v>
+        <v>0.254765</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0739414</v>
+        <v>0.06391479999999999</v>
       </c>
     </row>
     <row r="33">
@@ -3706,13 +3706,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08216610000000001</v>
+        <v>0.0808357</v>
       </c>
       <c r="C33" t="n">
-        <v>0.250755</v>
+        <v>0.252951</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08367810000000001</v>
+        <v>0.0639304</v>
       </c>
     </row>
     <row r="34">
@@ -3720,13 +3720,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.090628</v>
+        <v>0.08782669999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.251323</v>
+        <v>0.269389</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0875136</v>
+        <v>0.0694903</v>
       </c>
     </row>
     <row r="35">
@@ -3734,13 +3734,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.100397</v>
+        <v>0.09757010000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.268961</v>
+        <v>0.286235</v>
       </c>
       <c r="D35" t="n">
-        <v>0.101972</v>
+        <v>0.0736364</v>
       </c>
     </row>
     <row r="36">
@@ -3748,13 +3748,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.120777</v>
+        <v>0.115373</v>
       </c>
       <c r="C36" t="n">
-        <v>0.296777</v>
+        <v>0.303789</v>
       </c>
       <c r="D36" t="n">
-        <v>0.123417</v>
+        <v>0.0824968</v>
       </c>
     </row>
     <row r="37">
@@ -3762,13 +3762,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.148499</v>
+        <v>0.141936</v>
       </c>
       <c r="C37" t="n">
-        <v>0.213756</v>
+        <v>0.226565</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0640448</v>
+        <v>0.0569377</v>
       </c>
     </row>
     <row r="38">
@@ -3776,13 +3776,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.07257</v>
+        <v>0.065387</v>
       </c>
       <c r="C38" t="n">
-        <v>0.219085</v>
+        <v>0.222016</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0645184</v>
+        <v>0.0575117</v>
       </c>
     </row>
     <row r="39">
@@ -3790,13 +3790,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0690035</v>
+        <v>0.0661272</v>
       </c>
       <c r="C39" t="n">
-        <v>0.214609</v>
+        <v>0.224349</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0656949</v>
+        <v>0.0576597</v>
       </c>
     </row>
     <row r="40">
@@ -3804,13 +3804,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.07037789999999999</v>
+        <v>0.0670414</v>
       </c>
       <c r="C40" t="n">
-        <v>0.218807</v>
+        <v>0.225148</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0647624</v>
+        <v>0.060145</v>
       </c>
     </row>
     <row r="41">
@@ -3818,13 +3818,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.07006610000000001</v>
+        <v>0.0711565</v>
       </c>
       <c r="C41" t="n">
-        <v>0.220665</v>
+        <v>0.235862</v>
       </c>
       <c r="D41" t="n">
-        <v>0.06701020000000001</v>
+        <v>0.0622964</v>
       </c>
     </row>
     <row r="42">
@@ -3832,13 +3832,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0715797</v>
+        <v>0.0729123</v>
       </c>
       <c r="C42" t="n">
-        <v>0.218186</v>
+        <v>0.241162</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0656209</v>
+        <v>0.0605956</v>
       </c>
     </row>
     <row r="43">
@@ -3846,13 +3846,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0736851</v>
+        <v>0.0744269</v>
       </c>
       <c r="C43" t="n">
-        <v>0.225722</v>
+        <v>0.235611</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0690157</v>
+        <v>0.0616437</v>
       </c>
     </row>
     <row r="44">
@@ -3860,13 +3860,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.07417849999999999</v>
+        <v>0.07373929999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.228392</v>
+        <v>0.2406</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07407420000000001</v>
+        <v>0.0625183</v>
       </c>
     </row>
     <row r="45">
@@ -3874,13 +3874,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0782701</v>
+        <v>0.07697080000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.234214</v>
+        <v>0.250527</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0731897</v>
+        <v>0.06516660000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3888,13 +3888,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0799154</v>
+        <v>0.08089250000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.235776</v>
+        <v>0.256801</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0782769</v>
+        <v>0.06604450000000001</v>
       </c>
     </row>
     <row r="47">
@@ -3902,13 +3902,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0861948</v>
+        <v>0.08697589999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.241914</v>
+        <v>0.260451</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0838578</v>
+        <v>0.0681508</v>
       </c>
     </row>
     <row r="48">
@@ -3916,13 +3916,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0921573</v>
+        <v>0.0918291</v>
       </c>
       <c r="C48" t="n">
-        <v>0.259596</v>
+        <v>0.284445</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0900765</v>
+        <v>0.0706663</v>
       </c>
     </row>
     <row r="49">
@@ -3930,13 +3930,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.105372</v>
+        <v>0.100427</v>
       </c>
       <c r="C49" t="n">
-        <v>0.274127</v>
+        <v>0.292426</v>
       </c>
       <c r="D49" t="n">
-        <v>0.101518</v>
+        <v>0.0752555</v>
       </c>
     </row>
     <row r="50">
@@ -3944,13 +3944,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.120327</v>
+        <v>0.119594</v>
       </c>
       <c r="C50" t="n">
-        <v>0.287024</v>
+        <v>0.314296</v>
       </c>
       <c r="D50" t="n">
-        <v>0.131723</v>
+        <v>0.0844419</v>
       </c>
     </row>
     <row r="51">
@@ -3958,13 +3958,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.150152</v>
+        <v>0.146089</v>
       </c>
       <c r="C51" t="n">
-        <v>0.221307</v>
+        <v>0.239097</v>
       </c>
       <c r="D51" t="n">
-        <v>0.06913279999999999</v>
+        <v>0.065904</v>
       </c>
     </row>
     <row r="52">
@@ -3972,13 +3972,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.192425</v>
+        <v>0.18935</v>
       </c>
       <c r="C52" t="n">
-        <v>0.223262</v>
+        <v>0.243814</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0697174</v>
+        <v>0.0635405</v>
       </c>
     </row>
     <row r="53">
@@ -3986,13 +3986,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0819484</v>
+        <v>0.0825172</v>
       </c>
       <c r="C53" t="n">
-        <v>0.221477</v>
+        <v>0.238282</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0699562</v>
+        <v>0.0657944</v>
       </c>
     </row>
     <row r="54">
@@ -4000,13 +4000,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0825993</v>
+        <v>0.08172210000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.221676</v>
+        <v>0.24038</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0724896</v>
+        <v>0.0647524</v>
       </c>
     </row>
     <row r="55">
@@ -4014,13 +4014,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.08320420000000001</v>
+        <v>0.0830357</v>
       </c>
       <c r="C55" t="n">
-        <v>0.230386</v>
+        <v>0.247764</v>
       </c>
       <c r="D55" t="n">
-        <v>0.074045</v>
+        <v>0.066511</v>
       </c>
     </row>
     <row r="56">
@@ -4028,13 +4028,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.083262</v>
+        <v>0.0838782</v>
       </c>
       <c r="C56" t="n">
-        <v>0.229894</v>
+        <v>0.243742</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0732501</v>
+        <v>0.0678846</v>
       </c>
     </row>
     <row r="57">
@@ -4042,13 +4042,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.08600530000000001</v>
+        <v>0.0854895</v>
       </c>
       <c r="C57" t="n">
-        <v>0.235356</v>
+        <v>0.248575</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0742351</v>
+        <v>0.0691266</v>
       </c>
     </row>
     <row r="58">
@@ -4056,13 +4056,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.08886230000000001</v>
+        <v>0.0866354</v>
       </c>
       <c r="C58" t="n">
-        <v>0.233708</v>
+        <v>0.257867</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0766973</v>
+        <v>0.0678627</v>
       </c>
     </row>
     <row r="59">
@@ -4070,13 +4070,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.08881699999999999</v>
+        <v>0.0901018</v>
       </c>
       <c r="C59" t="n">
-        <v>0.241513</v>
+        <v>0.256349</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0783746</v>
+        <v>0.07069259999999999</v>
       </c>
     </row>
     <row r="60">
@@ -4084,13 +4084,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0915484</v>
+        <v>0.0926182</v>
       </c>
       <c r="C60" t="n">
-        <v>0.244725</v>
+        <v>0.260283</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0854596</v>
+        <v>0.07316839999999999</v>
       </c>
     </row>
     <row r="61">
@@ -4098,13 +4098,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.100319</v>
+        <v>0.0979358</v>
       </c>
       <c r="C61" t="n">
-        <v>0.257144</v>
+        <v>0.273609</v>
       </c>
       <c r="D61" t="n">
-        <v>0.08992169999999999</v>
+        <v>0.07367269999999999</v>
       </c>
     </row>
     <row r="62">
@@ -4112,13 +4112,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.108515</v>
+        <v>0.104803</v>
       </c>
       <c r="C62" t="n">
-        <v>0.265896</v>
+        <v>0.279033</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0987576</v>
+        <v>0.07829179999999999</v>
       </c>
     </row>
     <row r="63">
@@ -4126,13 +4126,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.114985</v>
+        <v>0.118343</v>
       </c>
       <c r="C63" t="n">
-        <v>0.28326</v>
+        <v>0.300576</v>
       </c>
       <c r="D63" t="n">
-        <v>0.111678</v>
+        <v>0.0840428</v>
       </c>
     </row>
     <row r="64">
@@ -4140,13 +4140,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.129163</v>
+        <v>0.130091</v>
       </c>
       <c r="C64" t="n">
-        <v>0.307992</v>
+        <v>0.319598</v>
       </c>
       <c r="D64" t="n">
-        <v>0.128885</v>
+        <v>0.09096310000000001</v>
       </c>
     </row>
     <row r="65">
@@ -4154,13 +4154,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.161981</v>
+        <v>0.156519</v>
       </c>
       <c r="C65" t="n">
-        <v>0.323299</v>
+        <v>0.33975</v>
       </c>
       <c r="D65" t="n">
-        <v>0.154819</v>
+        <v>0.105185</v>
       </c>
     </row>
     <row r="66">
@@ -4168,13 +4168,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.200815</v>
+        <v>0.200333</v>
       </c>
       <c r="C66" t="n">
-        <v>0.324208</v>
+        <v>0.330124</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0752384</v>
+        <v>0.0720263</v>
       </c>
     </row>
     <row r="67">
@@ -4182,13 +4182,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0914121</v>
+        <v>0.09174789999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.327001</v>
+        <v>0.338584</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0757034</v>
+        <v>0.0722445</v>
       </c>
     </row>
     <row r="68">
@@ -4196,13 +4196,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0926631</v>
+        <v>0.09294189999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.326347</v>
+        <v>0.333697</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0781449</v>
+        <v>0.0708375</v>
       </c>
     </row>
     <row r="69">
@@ -4210,13 +4210,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0940216</v>
+        <v>0.093054</v>
       </c>
       <c r="C69" t="n">
-        <v>0.32988</v>
+        <v>0.341141</v>
       </c>
       <c r="D69" t="n">
-        <v>0.07679130000000001</v>
+        <v>0.0724389</v>
       </c>
     </row>
     <row r="70">
@@ -4224,13 +4224,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0978608</v>
+        <v>0.09433809999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.33736</v>
+        <v>0.343569</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0820438</v>
+        <v>0.0727609</v>
       </c>
     </row>
     <row r="71">
@@ -4238,13 +4238,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.100343</v>
+        <v>0.097924</v>
       </c>
       <c r="C71" t="n">
-        <v>0.331831</v>
+        <v>0.35395</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0830929</v>
+        <v>0.0729861</v>
       </c>
     </row>
     <row r="72">
@@ -4252,13 +4252,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0986315</v>
+        <v>0.0987442</v>
       </c>
       <c r="C72" t="n">
-        <v>0.337594</v>
+        <v>0.35292</v>
       </c>
       <c r="D72" t="n">
-        <v>0.083954</v>
+        <v>0.0773833</v>
       </c>
     </row>
     <row r="73">
@@ -4266,13 +4266,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.105567</v>
+        <v>0.101889</v>
       </c>
       <c r="C73" t="n">
-        <v>0.339506</v>
+        <v>0.349645</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0882059</v>
+        <v>0.07673679999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4280,13 +4280,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.108207</v>
+        <v>0.107935</v>
       </c>
       <c r="C74" t="n">
-        <v>0.352722</v>
+        <v>0.356322</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0919432</v>
+        <v>0.07886369999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4294,13 +4294,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.120728</v>
+        <v>0.115446</v>
       </c>
       <c r="C75" t="n">
-        <v>0.356886</v>
+        <v>0.368392</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0982343</v>
+        <v>0.08600430000000001</v>
       </c>
     </row>
     <row r="76">
@@ -4308,13 +4308,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.126569</v>
+        <v>0.125685</v>
       </c>
       <c r="C76" t="n">
-        <v>0.383423</v>
+        <v>0.370616</v>
       </c>
       <c r="D76" t="n">
-        <v>0.111239</v>
+        <v>0.0860842</v>
       </c>
     </row>
     <row r="77">
@@ -4322,13 +4322,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.134822</v>
+        <v>0.137255</v>
       </c>
       <c r="C77" t="n">
-        <v>0.394639</v>
+        <v>0.400206</v>
       </c>
       <c r="D77" t="n">
-        <v>0.11712</v>
+        <v>0.0914688</v>
       </c>
     </row>
     <row r="78">
@@ -4336,13 +4336,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.153904</v>
+        <v>0.153233</v>
       </c>
       <c r="C78" t="n">
-        <v>0.406838</v>
+        <v>0.411537</v>
       </c>
       <c r="D78" t="n">
-        <v>0.136902</v>
+        <v>0.100955</v>
       </c>
     </row>
     <row r="79">
@@ -4350,13 +4350,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179787</v>
+        <v>0.17845</v>
       </c>
       <c r="C79" t="n">
-        <v>0.529903</v>
+        <v>0.533597</v>
       </c>
       <c r="D79" t="n">
-        <v>0.17081</v>
+        <v>0.116639</v>
       </c>
     </row>
     <row r="80">
@@ -4364,13 +4364,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.221287</v>
+        <v>0.22415</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5268119999999999</v>
+        <v>0.524618</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0846021</v>
+        <v>0.0773257</v>
       </c>
     </row>
     <row r="81">
@@ -4378,13 +4378,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.110506</v>
+        <v>0.107841</v>
       </c>
       <c r="C81" t="n">
-        <v>0.545731</v>
+        <v>0.551783</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0841978</v>
+        <v>0.080336</v>
       </c>
     </row>
     <row r="82">
@@ -4392,13 +4392,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.10861</v>
+        <v>0.109353</v>
       </c>
       <c r="C82" t="n">
-        <v>0.544082</v>
+        <v>0.5537260000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0862137</v>
+        <v>0.0795708</v>
       </c>
     </row>
     <row r="83">
@@ -4406,13 +4406,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.112096</v>
+        <v>0.111781</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5300280000000001</v>
+        <v>0.535127</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0877956</v>
+        <v>0.08163570000000001</v>
       </c>
     </row>
     <row r="84">
@@ -4420,13 +4420,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.114811</v>
+        <v>0.114447</v>
       </c>
       <c r="C84" t="n">
-        <v>0.565142</v>
+        <v>0.542669</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0938013</v>
+        <v>0.0836354</v>
       </c>
     </row>
     <row r="85">
@@ -4434,13 +4434,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.122805</v>
+        <v>0.123931</v>
       </c>
       <c r="C85" t="n">
-        <v>0.54753</v>
+        <v>0.546098</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0933136</v>
+        <v>0.0864862</v>
       </c>
     </row>
     <row r="86">
@@ -4448,13 +4448,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.122284</v>
+        <v>0.123277</v>
       </c>
       <c r="C86" t="n">
-        <v>0.572944</v>
+        <v>0.560961</v>
       </c>
       <c r="D86" t="n">
-        <v>0.09569709999999999</v>
+        <v>0.0909433</v>
       </c>
     </row>
     <row r="87">
@@ -4462,13 +4462,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.126965</v>
+        <v>0.12848</v>
       </c>
       <c r="C87" t="n">
-        <v>0.564121</v>
+        <v>0.5695789999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0978768</v>
+        <v>0.08830060000000001</v>
       </c>
     </row>
     <row r="88">
@@ -4476,13 +4476,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129853</v>
+        <v>0.132545</v>
       </c>
       <c r="C88" t="n">
-        <v>0.57081</v>
+        <v>0.578759</v>
       </c>
       <c r="D88" t="n">
-        <v>0.109783</v>
+        <v>0.0940188</v>
       </c>
     </row>
     <row r="89">
@@ -4490,13 +4490,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.140956</v>
+        <v>0.138387</v>
       </c>
       <c r="C89" t="n">
-        <v>0.580179</v>
+        <v>0.578851</v>
       </c>
       <c r="D89" t="n">
-        <v>0.11351</v>
+        <v>0.0966495</v>
       </c>
     </row>
     <row r="90">
@@ -4504,13 +4504,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.149006</v>
+        <v>0.145228</v>
       </c>
       <c r="C90" t="n">
-        <v>0.590759</v>
+        <v>0.5896130000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.120044</v>
+        <v>0.104007</v>
       </c>
     </row>
     <row r="91">
@@ -4518,13 +4518,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.161903</v>
+        <v>0.161824</v>
       </c>
       <c r="C91" t="n">
-        <v>0.608278</v>
+        <v>0.609681</v>
       </c>
       <c r="D91" t="n">
-        <v>0.130164</v>
+        <v>0.108066</v>
       </c>
     </row>
     <row r="92">
@@ -4532,13 +4532,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.180354</v>
+        <v>0.180295</v>
       </c>
       <c r="C92" t="n">
-        <v>0.623229</v>
+        <v>0.630701</v>
       </c>
       <c r="D92" t="n">
-        <v>0.150419</v>
+        <v>0.113572</v>
       </c>
     </row>
     <row r="93">
@@ -4546,13 +4546,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.206853</v>
+        <v>0.202999</v>
       </c>
       <c r="C93" t="n">
-        <v>0.659977</v>
+        <v>0.661476</v>
       </c>
       <c r="D93" t="n">
-        <v>0.172975</v>
+        <v>0.128952</v>
       </c>
     </row>
     <row r="94">
@@ -4560,13 +4560,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.239255</v>
+        <v>0.237782</v>
       </c>
       <c r="C94" t="n">
-        <v>0.79682</v>
+        <v>0.80496</v>
       </c>
       <c r="D94" t="n">
-        <v>0.106749</v>
+        <v>0.09630950000000001</v>
       </c>
     </row>
     <row r="95">
@@ -4574,13 +4574,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.138248</v>
+        <v>0.136209</v>
       </c>
       <c r="C95" t="n">
-        <v>0.79052</v>
+        <v>0.787385</v>
       </c>
       <c r="D95" t="n">
-        <v>0.106194</v>
+        <v>0.0997533</v>
       </c>
     </row>
     <row r="96">
@@ -4588,13 +4588,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.145989</v>
+        <v>0.138935</v>
       </c>
       <c r="C96" t="n">
-        <v>0.789987</v>
+        <v>0.832191</v>
       </c>
       <c r="D96" t="n">
-        <v>0.107075</v>
+        <v>0.103399</v>
       </c>
     </row>
     <row r="97">
@@ -4602,13 +4602,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.141445</v>
+        <v>0.149127</v>
       </c>
       <c r="C97" t="n">
-        <v>0.810097</v>
+        <v>0.803782</v>
       </c>
       <c r="D97" t="n">
-        <v>0.110031</v>
+        <v>0.103064</v>
       </c>
     </row>
     <row r="98">
@@ -4616,13 +4616,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.144495</v>
+        <v>0.146137</v>
       </c>
       <c r="C98" t="n">
-        <v>0.80219</v>
+        <v>0.811607</v>
       </c>
       <c r="D98" t="n">
-        <v>0.109917</v>
+        <v>0.108525</v>
       </c>
     </row>
     <row r="99">
@@ -4630,13 +4630,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.153898</v>
+        <v>0.154209</v>
       </c>
       <c r="C99" t="n">
-        <v>0.804609</v>
+        <v>0.814678</v>
       </c>
       <c r="D99" t="n">
-        <v>0.115997</v>
+        <v>0.107263</v>
       </c>
     </row>
     <row r="100">
@@ -4644,13 +4644,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.155115</v>
+        <v>0.158818</v>
       </c>
       <c r="C100" t="n">
-        <v>0.807853</v>
+        <v>0.80894</v>
       </c>
       <c r="D100" t="n">
-        <v>0.116969</v>
+        <v>0.108244</v>
       </c>
     </row>
     <row r="101">
@@ -4658,13 +4658,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.156553</v>
+        <v>0.15782</v>
       </c>
       <c r="C101" t="n">
-        <v>0.7956530000000001</v>
+        <v>0.81678</v>
       </c>
       <c r="D101" t="n">
-        <v>0.127266</v>
+        <v>0.113141</v>
       </c>
     </row>
     <row r="102">
@@ -4672,13 +4672,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.167335</v>
+        <v>0.165911</v>
       </c>
       <c r="C102" t="n">
-        <v>0.79439</v>
+        <v>0.830519</v>
       </c>
       <c r="D102" t="n">
-        <v>0.132505</v>
+        <v>0.115279</v>
       </c>
     </row>
     <row r="103">
@@ -4686,13 +4686,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.176551</v>
+        <v>0.167789</v>
       </c>
       <c r="C103" t="n">
-        <v>0.810285</v>
+        <v>0.846207</v>
       </c>
       <c r="D103" t="n">
-        <v>0.139289</v>
+        <v>0.118539</v>
       </c>
     </row>
     <row r="104">
@@ -4700,13 +4700,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.182088</v>
+        <v>0.179427</v>
       </c>
       <c r="C104" t="n">
-        <v>0.819252</v>
+        <v>0.85537</v>
       </c>
       <c r="D104" t="n">
-        <v>0.145509</v>
+        <v>0.123085</v>
       </c>
     </row>
     <row r="105">
@@ -4714,13 +4714,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.197125</v>
+        <v>0.188186</v>
       </c>
       <c r="C105" t="n">
-        <v>0.851869</v>
+        <v>0.858994</v>
       </c>
       <c r="D105" t="n">
-        <v>0.154355</v>
+        <v>0.129045</v>
       </c>
     </row>
     <row r="106">
@@ -4728,13 +4728,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.211647</v>
+        <v>0.211677</v>
       </c>
       <c r="C106" t="n">
-        <v>0.868277</v>
+        <v>0.9042829999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.175813</v>
+        <v>0.136838</v>
       </c>
     </row>
     <row r="107">
@@ -4742,13 +4742,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.234877</v>
+        <v>0.233451</v>
       </c>
       <c r="C107" t="n">
-        <v>0.899824</v>
+        <v>0.912089</v>
       </c>
       <c r="D107" t="n">
-        <v>0.200844</v>
+        <v>0.157518</v>
       </c>
     </row>
     <row r="108">
@@ -4756,13 +4756,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.275874</v>
+        <v>0.283722</v>
       </c>
       <c r="C108" t="n">
-        <v>0.946273</v>
+        <v>0.944571</v>
       </c>
       <c r="D108" t="n">
-        <v>0.189269</v>
+        <v>0.174304</v>
       </c>
     </row>
     <row r="109">
@@ -4770,13 +4770,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.338608</v>
+        <v>0.343096</v>
       </c>
       <c r="C109" t="n">
-        <v>0.943226</v>
+        <v>0.939379</v>
       </c>
       <c r="D109" t="n">
-        <v>0.188399</v>
+        <v>0.178176</v>
       </c>
     </row>
     <row r="110">
@@ -4784,13 +4784,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.244552</v>
+        <v>0.232843</v>
       </c>
       <c r="C110" t="n">
-        <v>0.940481</v>
+        <v>0.930268</v>
       </c>
       <c r="D110" t="n">
-        <v>0.184018</v>
+        <v>0.191561</v>
       </c>
     </row>
     <row r="111">
@@ -4798,13 +4798,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.250195</v>
+        <v>0.24403</v>
       </c>
       <c r="C111" t="n">
-        <v>0.944066</v>
+        <v>0.927146</v>
       </c>
       <c r="D111" t="n">
-        <v>0.182211</v>
+        <v>0.17994</v>
       </c>
     </row>
     <row r="112">
@@ -4812,13 +4812,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.232024</v>
+        <v>0.247108</v>
       </c>
       <c r="C112" t="n">
-        <v>0.955346</v>
+        <v>0.958566</v>
       </c>
       <c r="D112" t="n">
-        <v>0.193347</v>
+        <v>0.183871</v>
       </c>
     </row>
     <row r="113">
@@ -4826,13 +4826,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.233783</v>
+        <v>0.241121</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9218229999999999</v>
+        <v>0.953163</v>
       </c>
       <c r="D113" t="n">
-        <v>0.201069</v>
+        <v>0.186584</v>
       </c>
     </row>
     <row r="114">
@@ -4840,13 +4840,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.257044</v>
+        <v>0.241741</v>
       </c>
       <c r="C114" t="n">
-        <v>0.939808</v>
+        <v>0.960774</v>
       </c>
       <c r="D114" t="n">
-        <v>0.191789</v>
+        <v>0.183767</v>
       </c>
     </row>
     <row r="115">
@@ -4854,13 +4854,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.256643</v>
+        <v>0.260366</v>
       </c>
       <c r="C115" t="n">
-        <v>0.945208</v>
+        <v>0.973487</v>
       </c>
       <c r="D115" t="n">
-        <v>0.215231</v>
+        <v>0.193499</v>
       </c>
     </row>
     <row r="116">
@@ -4868,13 +4868,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.26273</v>
+        <v>0.248968</v>
       </c>
       <c r="C116" t="n">
-        <v>0.932829</v>
+        <v>0.965466</v>
       </c>
       <c r="D116" t="n">
-        <v>0.20308</v>
+        <v>0.204321</v>
       </c>
     </row>
     <row r="117">
@@ -4882,13 +4882,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.264642</v>
+        <v>0.260268</v>
       </c>
       <c r="C117" t="n">
-        <v>0.976481</v>
+        <v>0.946061</v>
       </c>
       <c r="D117" t="n">
-        <v>0.206963</v>
+        <v>0.190155</v>
       </c>
     </row>
     <row r="118">
@@ -4896,13 +4896,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.284081</v>
+        <v>0.265001</v>
       </c>
       <c r="C118" t="n">
-        <v>0.943761</v>
+        <v>0.974587</v>
       </c>
       <c r="D118" t="n">
-        <v>0.229814</v>
+        <v>0.197995</v>
       </c>
     </row>
     <row r="119">
@@ -4910,13 +4910,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.277962</v>
+        <v>0.277088</v>
       </c>
       <c r="C119" t="n">
-        <v>0.996074</v>
+        <v>0.99318</v>
       </c>
       <c r="D119" t="n">
-        <v>0.23837</v>
+        <v>0.209549</v>
       </c>
     </row>
     <row r="120">
@@ -4924,13 +4924,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.322108</v>
+        <v>0.302037</v>
       </c>
       <c r="C120" t="n">
-        <v>1.01316</v>
+        <v>1.02771</v>
       </c>
       <c r="D120" t="n">
-        <v>0.254747</v>
+        <v>0.212009</v>
       </c>
     </row>
     <row r="121">
@@ -4938,13 +4938,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.323496</v>
+        <v>0.35303</v>
       </c>
       <c r="C121" t="n">
-        <v>1.05627</v>
+        <v>1.06627</v>
       </c>
       <c r="D121" t="n">
-        <v>0.263215</v>
+        <v>0.234789</v>
       </c>
     </row>
     <row r="122">
@@ -4952,13 +4952,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.399002</v>
+        <v>0.388498</v>
       </c>
       <c r="C122" t="n">
-        <v>1.02398</v>
+        <v>1.03219</v>
       </c>
       <c r="D122" t="n">
-        <v>0.31882</v>
+        <v>0.249332</v>
       </c>
     </row>
     <row r="123">
@@ -4966,13 +4966,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.462987</v>
+        <v>0.450374</v>
       </c>
       <c r="C123" t="n">
-        <v>1.03104</v>
+        <v>1.04777</v>
       </c>
       <c r="D123" t="n">
-        <v>0.282334</v>
+        <v>0.286046</v>
       </c>
     </row>
     <row r="124">
@@ -4980,13 +4980,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.363147</v>
+        <v>0.360573</v>
       </c>
       <c r="C124" t="n">
-        <v>1.03859</v>
+        <v>1.04171</v>
       </c>
       <c r="D124" t="n">
-        <v>0.291131</v>
+        <v>0.287033</v>
       </c>
     </row>
     <row r="125">
@@ -4994,13 +4994,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.372818</v>
+        <v>0.374891</v>
       </c>
       <c r="C125" t="n">
-        <v>1.04106</v>
+        <v>1.02304</v>
       </c>
       <c r="D125" t="n">
-        <v>0.288596</v>
+        <v>0.288226</v>
       </c>
     </row>
     <row r="126">
@@ -5008,13 +5008,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.37539</v>
+        <v>0.38025</v>
       </c>
       <c r="C126" t="n">
-        <v>1.03284</v>
+        <v>1.02834</v>
       </c>
       <c r="D126" t="n">
-        <v>0.29677</v>
+        <v>0.28948</v>
       </c>
     </row>
     <row r="127">
@@ -5022,13 +5022,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.373678</v>
+        <v>0.387475</v>
       </c>
       <c r="C127" t="n">
-        <v>1.03832</v>
+        <v>1.03163</v>
       </c>
       <c r="D127" t="n">
-        <v>0.300456</v>
+        <v>0.29031</v>
       </c>
     </row>
     <row r="128">
@@ -5036,13 +5036,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.382344</v>
+        <v>0.386469</v>
       </c>
       <c r="C128" t="n">
-        <v>1.03021</v>
+        <v>1.03711</v>
       </c>
       <c r="D128" t="n">
-        <v>0.307117</v>
+        <v>0.297899</v>
       </c>
     </row>
     <row r="129">
@@ -5050,13 +5050,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.391561</v>
+        <v>0.407068</v>
       </c>
       <c r="C129" t="n">
-        <v>1.03328</v>
+        <v>1.04615</v>
       </c>
       <c r="D129" t="n">
-        <v>0.299182</v>
+        <v>0.29858</v>
       </c>
     </row>
     <row r="130">
@@ -5064,13 +5064,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.401089</v>
+        <v>0.395905</v>
       </c>
       <c r="C130" t="n">
-        <v>1.04496</v>
+        <v>1.04616</v>
       </c>
       <c r="D130" t="n">
-        <v>0.307388</v>
+        <v>0.30184</v>
       </c>
     </row>
     <row r="131">
@@ -5078,13 +5078,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.412293</v>
+        <v>0.408178</v>
       </c>
       <c r="C131" t="n">
-        <v>1.06669</v>
+        <v>1.05022</v>
       </c>
       <c r="D131" t="n">
-        <v>0.315158</v>
+        <v>0.298447</v>
       </c>
     </row>
     <row r="132">
@@ -5092,13 +5092,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.412153</v>
+        <v>0.416193</v>
       </c>
       <c r="C132" t="n">
-        <v>1.04579</v>
+        <v>1.06146</v>
       </c>
       <c r="D132" t="n">
-        <v>0.325775</v>
+        <v>0.307539</v>
       </c>
     </row>
     <row r="133">
@@ -5106,13 +5106,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.432792</v>
+        <v>0.436337</v>
       </c>
       <c r="C133" t="n">
-        <v>1.08694</v>
+        <v>1.06822</v>
       </c>
       <c r="D133" t="n">
-        <v>0.343792</v>
+        <v>0.312303</v>
       </c>
     </row>
     <row r="134">
@@ -5120,13 +5120,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.456724</v>
+        <v>0.449873</v>
       </c>
       <c r="C134" t="n">
-        <v>1.11687</v>
+        <v>1.09963</v>
       </c>
       <c r="D134" t="n">
-        <v>0.359864</v>
+        <v>0.325114</v>
       </c>
     </row>
     <row r="135">
@@ -5134,13 +5134,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.491151</v>
+        <v>0.484417</v>
       </c>
       <c r="C135" t="n">
-        <v>1.14689</v>
+        <v>1.13261</v>
       </c>
       <c r="D135" t="n">
-        <v>0.36769</v>
+        <v>0.346062</v>
       </c>
     </row>
     <row r="136">
@@ -5148,13 +5148,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.536906</v>
+        <v>0.535388</v>
       </c>
       <c r="C136" t="n">
-        <v>1.12669</v>
+        <v>1.13248</v>
       </c>
       <c r="D136" t="n">
-        <v>0.427278</v>
+        <v>0.364181</v>
       </c>
     </row>
     <row r="137">
@@ -5162,13 +5162,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.62132</v>
+        <v>0.612084</v>
       </c>
       <c r="C137" t="n">
-        <v>1.14843</v>
+        <v>1.13281</v>
       </c>
       <c r="D137" t="n">
-        <v>0.337051</v>
+        <v>0.345646</v>
       </c>
     </row>
     <row r="138">
@@ -5176,13 +5176,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.453437</v>
+        <v>0.448246</v>
       </c>
       <c r="C138" t="n">
-        <v>1.12682</v>
+        <v>1.15292</v>
       </c>
       <c r="D138" t="n">
-        <v>0.351697</v>
+        <v>0.347418</v>
       </c>
     </row>
     <row r="139">
@@ -5190,13 +5190,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.457704</v>
+        <v>0.451262</v>
       </c>
       <c r="C139" t="n">
-        <v>1.14469</v>
+        <v>1.13678</v>
       </c>
       <c r="D139" t="n">
-        <v>0.346146</v>
+        <v>0.335249</v>
       </c>
     </row>
     <row r="140">
@@ -5204,13 +5204,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.462126</v>
+        <v>0.464428</v>
       </c>
       <c r="C140" t="n">
-        <v>1.14464</v>
+        <v>1.14486</v>
       </c>
       <c r="D140" t="n">
-        <v>0.34741</v>
+        <v>0.349258</v>
       </c>
     </row>
     <row r="141">
@@ -5218,13 +5218,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.465543</v>
+        <v>0.463286</v>
       </c>
       <c r="C141" t="n">
-        <v>1.14265</v>
+        <v>1.16294</v>
       </c>
       <c r="D141" t="n">
-        <v>0.356365</v>
+        <v>0.350344</v>
       </c>
     </row>
     <row r="142">
@@ -5232,13 +5232,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.472262</v>
+        <v>0.477038</v>
       </c>
       <c r="C142" t="n">
-        <v>1.15142</v>
+        <v>1.15477</v>
       </c>
       <c r="D142" t="n">
-        <v>0.354798</v>
+        <v>0.352436</v>
       </c>
     </row>
     <row r="143">
@@ -5246,13 +5246,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.473548</v>
+        <v>0.47311</v>
       </c>
       <c r="C143" t="n">
-        <v>1.15237</v>
+        <v>1.1553</v>
       </c>
       <c r="D143" t="n">
-        <v>0.36401</v>
+        <v>0.352014</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0624517</v>
+        <v>0.0610691</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0625405</v>
+        <v>0.0625675</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0559719</v>
+        <v>0.0566903</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0617385</v>
+        <v>0.0612484</v>
       </c>
       <c r="C3" t="n">
-        <v>0.064598</v>
+        <v>0.0632693</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0573174</v>
+        <v>0.055983</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0674886</v>
+        <v>0.0662454</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0714461</v>
+        <v>0.0684264</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05694</v>
+        <v>0.057782</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0727646</v>
+        <v>0.0706291</v>
       </c>
       <c r="C5" t="n">
-        <v>0.075753</v>
+        <v>0.0765947</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0588831</v>
+        <v>0.0595863</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0829696</v>
+        <v>0.0772148</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0863985</v>
+        <v>0.08680789999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06270630000000001</v>
+        <v>0.0624017</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09599149999999999</v>
+        <v>0.0933966</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09948750000000001</v>
+        <v>0.100801</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06737990000000001</v>
+        <v>0.0682759</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.119269</v>
+        <v>0.118912</v>
       </c>
       <c r="C8" t="n">
-        <v>0.129531</v>
+        <v>0.132699</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07901710000000001</v>
+        <v>0.0779141</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.153476</v>
+        <v>0.155594</v>
       </c>
       <c r="C9" t="n">
-        <v>0.164965</v>
+        <v>0.164194</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0550401</v>
+        <v>0.0541086</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0596782</v>
+        <v>0.0590761</v>
       </c>
       <c r="C10" t="n">
-        <v>0.056799</v>
+        <v>0.057374</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0548272</v>
+        <v>0.0548119</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0607179</v>
+        <v>0.0594713</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0551435</v>
+        <v>0.0563752</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0569339</v>
+        <v>0.0540326</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0609588</v>
+        <v>0.059161</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0568194</v>
+        <v>0.0570627</v>
       </c>
       <c r="D12" t="n">
-        <v>0.055372</v>
+        <v>0.0550517</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0619185</v>
+        <v>0.0606797</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0579521</v>
+        <v>0.0579001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0552464</v>
+        <v>0.0543556</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0607926</v>
+        <v>0.0607299</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0597259</v>
+        <v>0.0594489</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0552042</v>
+        <v>0.0584313</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0620318</v>
+        <v>0.06280040000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06371449999999999</v>
+        <v>0.0633169</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0568842</v>
+        <v>0.0564489</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.065619</v>
+        <v>0.0660066</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0629774</v>
+        <v>0.06551</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0579798</v>
+        <v>0.0562267</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06749049999999999</v>
+        <v>0.0678439</v>
       </c>
       <c r="C17" t="n">
-        <v>0.066327</v>
+        <v>0.0685606</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0571902</v>
+        <v>0.0565079</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0717928</v>
+        <v>0.06862649999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07738680000000001</v>
+        <v>0.0715948</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0589563</v>
+        <v>0.0592363</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0777085</v>
+        <v>0.0742295</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0798118</v>
+        <v>0.07991860000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.060645</v>
+        <v>0.06279559999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0851317</v>
+        <v>0.0824028</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09033529999999999</v>
+        <v>0.090813</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0653092</v>
+        <v>0.0657177</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.102746</v>
+        <v>0.0906175</v>
       </c>
       <c r="C21" t="n">
-        <v>0.102947</v>
+        <v>0.105904</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07219589999999999</v>
+        <v>0.0719936</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.118416</v>
+        <v>0.111753</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1364</v>
+        <v>0.134721</v>
       </c>
       <c r="D22" t="n">
-        <v>0.082788</v>
+        <v>0.0835679</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.153873</v>
+        <v>0.144092</v>
       </c>
       <c r="C23" t="n">
-        <v>0.173346</v>
+        <v>0.172403</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0567556</v>
+        <v>0.056156</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0634874</v>
+        <v>0.06326130000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0601046</v>
+        <v>0.0570488</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0574325</v>
+        <v>0.0566028</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0667171</v>
+        <v>0.0630193</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0577252</v>
+        <v>0.0579378</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0564192</v>
+        <v>0.0557302</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0637557</v>
+        <v>0.06446300000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0599842</v>
+        <v>0.0596752</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0557637</v>
+        <v>0.0564754</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0663159</v>
+        <v>0.06514540000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0604713</v>
+        <v>0.0599037</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0571875</v>
+        <v>0.0581669</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0672775</v>
+        <v>0.0652952</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0635549</v>
+        <v>0.0626346</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0580465</v>
+        <v>0.0568591</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0670139</v>
+        <v>0.0668383</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0627665</v>
+        <v>0.0622413</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0571213</v>
+        <v>0.0564978</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0703583</v>
+        <v>0.0687262</v>
       </c>
       <c r="C30" t="n">
-        <v>0.06699670000000001</v>
+        <v>0.0657142</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0567191</v>
+        <v>0.0575532</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.07204149999999999</v>
+        <v>0.0735633</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0682305</v>
+        <v>0.06715</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0581938</v>
+        <v>0.0586549</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0725277</v>
+        <v>0.0768727</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0734721</v>
+        <v>0.07358779999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0604727</v>
+        <v>0.0611688</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0780593</v>
+        <v>0.07904</v>
       </c>
       <c r="C33" t="n">
-        <v>0.07773770000000001</v>
+        <v>0.0779189</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0628951</v>
+        <v>0.0635365</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08613709999999999</v>
+        <v>0.0867795</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0896507</v>
+        <v>0.09217060000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0667886</v>
+        <v>0.0678675</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0955288</v>
+        <v>0.0993832</v>
       </c>
       <c r="C35" t="n">
-        <v>0.105342</v>
+        <v>0.108482</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0723586</v>
+        <v>0.07517310000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.120916</v>
+        <v>0.116426</v>
       </c>
       <c r="C36" t="n">
-        <v>0.125951</v>
+        <v>0.127086</v>
       </c>
       <c r="D36" t="n">
-        <v>0.08472200000000001</v>
+        <v>0.0823598</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1456</v>
+        <v>0.14818</v>
       </c>
       <c r="C37" t="n">
-        <v>0.169083</v>
+        <v>0.162061</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0582607</v>
+        <v>0.0584473</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0682464</v>
+        <v>0.0697275</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0631684</v>
+        <v>0.0621568</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0566299</v>
+        <v>0.0580288</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0708</v>
+        <v>0.0698592</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0625975</v>
+        <v>0.0638577</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0587823</v>
+        <v>0.0629995</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0710976</v>
+        <v>0.0695292</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0648541</v>
+        <v>0.0662908</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0580827</v>
+        <v>0.0593808</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0714225</v>
+        <v>0.07269390000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.06568259999999999</v>
+        <v>0.06429</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0591632</v>
+        <v>0.0591431</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0736914</v>
+        <v>0.0717265</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0668825</v>
+        <v>0.065748</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0608047</v>
+        <v>0.0602635</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.07386470000000001</v>
+        <v>0.0712483</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0669028</v>
+        <v>0.0673836</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0621391</v>
+        <v>0.0640009</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.073571</v>
+        <v>0.0747347</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07257089999999999</v>
+        <v>0.07076590000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0638734</v>
+        <v>0.06318410000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0781357</v>
+        <v>0.0789</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0747092</v>
+        <v>0.0754061</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0634004</v>
+        <v>0.0622597</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0784556</v>
+        <v>0.08211880000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0778282</v>
+        <v>0.07815469999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.06478399999999999</v>
+        <v>0.06381920000000001</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0837782</v>
+        <v>0.0816509</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0824124</v>
+        <v>0.0827667</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0653199</v>
+        <v>0.06577230000000001</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0905634</v>
+        <v>0.0915499</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0921042</v>
+        <v>0.09103559999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0728454</v>
+        <v>0.0696435</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.103326</v>
+        <v>0.100442</v>
       </c>
       <c r="C49" t="n">
-        <v>0.107475</v>
+        <v>0.103679</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0740687</v>
+        <v>0.0751015</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.118705</v>
+        <v>0.122159</v>
       </c>
       <c r="C50" t="n">
-        <v>0.127859</v>
+        <v>0.123084</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0808422</v>
+        <v>0.0815515</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.139644</v>
+        <v>0.148483</v>
       </c>
       <c r="C51" t="n">
-        <v>0.160893</v>
+        <v>0.153956</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0634546</v>
+        <v>0.0623841</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.186294</v>
+        <v>0.19316</v>
       </c>
       <c r="C52" t="n">
-        <v>0.204941</v>
+        <v>0.202417</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0646171</v>
+        <v>0.0640998</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0789339</v>
+        <v>0.0796467</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0721933</v>
+        <v>0.07199319999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.06448429999999999</v>
+        <v>0.06380909999999999</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0816909</v>
+        <v>0.07988530000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.07393089999999999</v>
+        <v>0.07470160000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0647235</v>
+        <v>0.0645505</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0816955</v>
+        <v>0.0831686</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0781013</v>
+        <v>0.07334309999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.06394370000000001</v>
+        <v>0.0652204</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0831239</v>
+        <v>0.0850325</v>
       </c>
       <c r="C56" t="n">
-        <v>0.075402</v>
+        <v>0.0761704</v>
       </c>
       <c r="D56" t="n">
-        <v>0.06741900000000001</v>
+        <v>0.0660787</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0846658</v>
+        <v>0.0893504</v>
       </c>
       <c r="C57" t="n">
-        <v>0.07780479999999999</v>
+        <v>0.07882699999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0660278</v>
+        <v>0.0676831</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.086007</v>
+        <v>0.08839610000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0814209</v>
+        <v>0.08005900000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0671279</v>
+        <v>0.0667058</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0894982</v>
+        <v>0.0890291</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0828696</v>
+        <v>0.08409700000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.06858880000000001</v>
+        <v>0.06904449999999999</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.09220639999999999</v>
+        <v>0.09435730000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.08639289999999999</v>
+        <v>0.08827119999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0702605</v>
+        <v>0.0721149</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0980422</v>
+        <v>0.102463</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0912071</v>
+        <v>0.09573</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0753014</v>
+        <v>0.0722198</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.103223</v>
+        <v>0.10479</v>
       </c>
       <c r="C62" t="n">
-        <v>0.107007</v>
+        <v>0.103956</v>
       </c>
       <c r="D62" t="n">
-        <v>0.07826519999999999</v>
+        <v>0.0779024</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.122871</v>
+        <v>0.111934</v>
       </c>
       <c r="C63" t="n">
-        <v>0.117761</v>
+        <v>0.114085</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0812539</v>
+        <v>0.081497</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.131582</v>
+        <v>0.128263</v>
       </c>
       <c r="C64" t="n">
-        <v>0.137843</v>
+        <v>0.134398</v>
       </c>
       <c r="D64" t="n">
-        <v>0.09199450000000001</v>
+        <v>0.0909642</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.157312</v>
+        <v>0.152957</v>
       </c>
       <c r="C65" t="n">
-        <v>0.166101</v>
+        <v>0.165391</v>
       </c>
       <c r="D65" t="n">
-        <v>0.102066</v>
+        <v>0.102877</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.194817</v>
+        <v>0.1957</v>
       </c>
       <c r="C66" t="n">
-        <v>0.219643</v>
+        <v>0.216315</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0679292</v>
+        <v>0.0671563</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.08983049999999999</v>
+        <v>0.08966979999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0818019</v>
+        <v>0.0824396</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0715464</v>
+        <v>0.0710177</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0932766</v>
+        <v>0.09196749999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.082608</v>
+        <v>0.083011</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0699394</v>
+        <v>0.0695582</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0933702</v>
+        <v>0.09356009999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0848165</v>
+        <v>0.0835346</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0710369</v>
+        <v>0.0707583</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0955366</v>
+        <v>0.0958434</v>
       </c>
       <c r="C70" t="n">
-        <v>0.08730789999999999</v>
+        <v>0.0855895</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0717542</v>
+        <v>0.0709403</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0992812</v>
+        <v>0.09680179999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0923506</v>
+        <v>0.08904579999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0732564</v>
+        <v>0.0740913</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.103286</v>
+        <v>0.09988130000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.093151</v>
+        <v>0.0919952</v>
       </c>
       <c r="D72" t="n">
-        <v>0.07579379999999999</v>
+        <v>0.07424500000000001</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.104316</v>
+        <v>0.10275</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0971665</v>
+        <v>0.0993424</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0756578</v>
+        <v>0.0763742</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.109061</v>
+        <v>0.107268</v>
       </c>
       <c r="C74" t="n">
-        <v>0.106253</v>
+        <v>0.103662</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0794786</v>
+        <v>0.0780049</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.117619</v>
+        <v>0.115674</v>
       </c>
       <c r="C75" t="n">
-        <v>0.112054</v>
+        <v>0.109628</v>
       </c>
       <c r="D75" t="n">
-        <v>0.082271</v>
+        <v>0.081869</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.125418</v>
+        <v>0.125762</v>
       </c>
       <c r="C76" t="n">
-        <v>0.12202</v>
+        <v>0.128075</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0836986</v>
+        <v>0.0839727</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.138465</v>
+        <v>0.134093</v>
       </c>
       <c r="C77" t="n">
-        <v>0.136341</v>
+        <v>0.135584</v>
       </c>
       <c r="D77" t="n">
-        <v>0.09295100000000001</v>
+        <v>0.089639</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.160368</v>
+        <v>0.150747</v>
       </c>
       <c r="C78" t="n">
-        <v>0.160981</v>
+        <v>0.153466</v>
       </c>
       <c r="D78" t="n">
-        <v>0.10051</v>
+        <v>0.101616</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.188011</v>
+        <v>0.17805</v>
       </c>
       <c r="C79" t="n">
-        <v>0.186767</v>
+        <v>0.183083</v>
       </c>
       <c r="D79" t="n">
-        <v>0.115182</v>
+        <v>0.115626</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.233892</v>
+        <v>0.223644</v>
       </c>
       <c r="C80" t="n">
-        <v>0.23985</v>
+        <v>0.234213</v>
       </c>
       <c r="D80" t="n">
-        <v>0.07625560000000001</v>
+        <v>0.075461</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.109906</v>
+        <v>0.104519</v>
       </c>
       <c r="C81" t="n">
-        <v>0.100493</v>
+        <v>0.09488000000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0785247</v>
+        <v>0.0765026</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.111499</v>
+        <v>0.110424</v>
       </c>
       <c r="C82" t="n">
-        <v>0.09864879999999999</v>
+        <v>0.0964824</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0800413</v>
+        <v>0.0769174</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.114011</v>
+        <v>0.11311</v>
       </c>
       <c r="C83" t="n">
-        <v>0.106344</v>
+        <v>0.0985221</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0821026</v>
+        <v>0.08012710000000001</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.121127</v>
+        <v>0.115985</v>
       </c>
       <c r="C84" t="n">
-        <v>0.108817</v>
+        <v>0.104713</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0849956</v>
+        <v>0.07945969999999999</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.120721</v>
+        <v>0.116829</v>
       </c>
       <c r="C85" t="n">
-        <v>0.109549</v>
+        <v>0.106385</v>
       </c>
       <c r="D85" t="n">
-        <v>0.08393059999999999</v>
+        <v>0.08053200000000001</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.121959</v>
+        <v>0.11606</v>
       </c>
       <c r="C86" t="n">
-        <v>0.117997</v>
+        <v>0.104249</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0859939</v>
+        <v>0.0828504</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.124495</v>
+        <v>0.117633</v>
       </c>
       <c r="C87" t="n">
-        <v>0.116887</v>
+        <v>0.108799</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0899954</v>
+        <v>0.0836124</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.134377</v>
+        <v>0.122239</v>
       </c>
       <c r="C88" t="n">
-        <v>0.120027</v>
+        <v>0.113988</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0929981</v>
+        <v>0.08507530000000001</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.143777</v>
+        <v>0.127921</v>
       </c>
       <c r="C89" t="n">
-        <v>0.135163</v>
+        <v>0.122761</v>
       </c>
       <c r="D89" t="n">
-        <v>0.09644170000000001</v>
+        <v>0.0888669</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.149747</v>
+        <v>0.141046</v>
       </c>
       <c r="C90" t="n">
-        <v>0.139905</v>
+        <v>0.13912</v>
       </c>
       <c r="D90" t="n">
-        <v>0.101458</v>
+        <v>0.10596</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.165358</v>
+        <v>0.159361</v>
       </c>
       <c r="C91" t="n">
-        <v>0.154105</v>
+        <v>0.152815</v>
       </c>
       <c r="D91" t="n">
-        <v>0.104743</v>
+        <v>0.102896</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.176408</v>
+        <v>0.178319</v>
       </c>
       <c r="C92" t="n">
-        <v>0.174335</v>
+        <v>0.173698</v>
       </c>
       <c r="D92" t="n">
-        <v>0.115464</v>
+        <v>0.115692</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.201267</v>
+        <v>0.198791</v>
       </c>
       <c r="C93" t="n">
-        <v>0.21178</v>
+        <v>0.203816</v>
       </c>
       <c r="D93" t="n">
-        <v>0.131711</v>
+        <v>0.124844</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.248706</v>
+        <v>0.240158</v>
       </c>
       <c r="C94" t="n">
-        <v>0.258601</v>
+        <v>0.253632</v>
       </c>
       <c r="D94" t="n">
-        <v>0.09696879999999999</v>
+        <v>0.101039</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.13922</v>
+        <v>0.136037</v>
       </c>
       <c r="C95" t="n">
-        <v>0.127846</v>
+        <v>0.122339</v>
       </c>
       <c r="D95" t="n">
-        <v>0.100192</v>
+        <v>0.09857100000000001</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.142581</v>
+        <v>0.141982</v>
       </c>
       <c r="C96" t="n">
-        <v>0.129232</v>
+        <v>0.128512</v>
       </c>
       <c r="D96" t="n">
-        <v>0.101913</v>
+        <v>0.101087</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.145218</v>
+        <v>0.144078</v>
       </c>
       <c r="C97" t="n">
-        <v>0.130877</v>
+        <v>0.132864</v>
       </c>
       <c r="D97" t="n">
-        <v>0.099471</v>
+        <v>0.10277</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.143366</v>
+        <v>0.146302</v>
       </c>
       <c r="C98" t="n">
-        <v>0.13358</v>
+        <v>0.131646</v>
       </c>
       <c r="D98" t="n">
-        <v>0.104128</v>
+        <v>0.102336</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.151818</v>
+        <v>0.153263</v>
       </c>
       <c r="C99" t="n">
-        <v>0.141085</v>
+        <v>0.136581</v>
       </c>
       <c r="D99" t="n">
-        <v>0.106095</v>
+        <v>0.103709</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.155254</v>
+        <v>0.156934</v>
       </c>
       <c r="C100" t="n">
-        <v>0.141885</v>
+        <v>0.140068</v>
       </c>
       <c r="D100" t="n">
-        <v>0.109126</v>
+        <v>0.108418</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.163165</v>
+        <v>0.162135</v>
       </c>
       <c r="C101" t="n">
-        <v>0.154616</v>
+        <v>0.144522</v>
       </c>
       <c r="D101" t="n">
-        <v>0.112285</v>
+        <v>0.111032</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.170278</v>
+        <v>0.161931</v>
       </c>
       <c r="C102" t="n">
-        <v>0.162739</v>
+        <v>0.149904</v>
       </c>
       <c r="D102" t="n">
-        <v>0.118151</v>
+        <v>0.114704</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.179306</v>
+        <v>0.170784</v>
       </c>
       <c r="C103" t="n">
-        <v>0.168144</v>
+        <v>0.162016</v>
       </c>
       <c r="D103" t="n">
-        <v>0.122001</v>
+        <v>0.118106</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.184341</v>
+        <v>0.183809</v>
       </c>
       <c r="C104" t="n">
-        <v>0.175694</v>
+        <v>0.174829</v>
       </c>
       <c r="D104" t="n">
-        <v>0.126639</v>
+        <v>0.123746</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.20284</v>
+        <v>0.188065</v>
       </c>
       <c r="C105" t="n">
-        <v>0.188988</v>
+        <v>0.189376</v>
       </c>
       <c r="D105" t="n">
-        <v>0.128764</v>
+        <v>0.129621</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.213733</v>
+        <v>0.208318</v>
       </c>
       <c r="C106" t="n">
-        <v>0.213238</v>
+        <v>0.208789</v>
       </c>
       <c r="D106" t="n">
-        <v>0.136597</v>
+        <v>0.137538</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.23536</v>
+        <v>0.235541</v>
       </c>
       <c r="C107" t="n">
-        <v>0.239625</v>
+        <v>0.239767</v>
       </c>
       <c r="D107" t="n">
-        <v>0.150143</v>
+        <v>0.154292</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.270672</v>
+        <v>0.269467</v>
       </c>
       <c r="C108" t="n">
-        <v>0.286339</v>
+        <v>0.287287</v>
       </c>
       <c r="D108" t="n">
-        <v>0.176722</v>
+        <v>0.17142</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.353183</v>
+        <v>0.348871</v>
       </c>
       <c r="C109" t="n">
-        <v>0.364132</v>
+        <v>0.363565</v>
       </c>
       <c r="D109" t="n">
-        <v>0.17915</v>
+        <v>0.17614</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.225808</v>
+        <v>0.226051</v>
       </c>
       <c r="C110" t="n">
-        <v>0.204334</v>
+        <v>0.21272</v>
       </c>
       <c r="D110" t="n">
-        <v>0.183726</v>
+        <v>0.177557</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.249933</v>
+        <v>0.226946</v>
       </c>
       <c r="C111" t="n">
-        <v>0.211492</v>
+        <v>0.213966</v>
       </c>
       <c r="D111" t="n">
-        <v>0.175178</v>
+        <v>0.180116</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.235466</v>
+        <v>0.237463</v>
       </c>
       <c r="C112" t="n">
-        <v>0.211416</v>
+        <v>0.216983</v>
       </c>
       <c r="D112" t="n">
-        <v>0.183943</v>
+        <v>0.18351</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.238011</v>
+        <v>0.249585</v>
       </c>
       <c r="C113" t="n">
-        <v>0.224195</v>
+        <v>0.234168</v>
       </c>
       <c r="D113" t="n">
-        <v>0.19504</v>
+        <v>0.197256</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.257352</v>
+        <v>0.243995</v>
       </c>
       <c r="C114" t="n">
-        <v>0.215748</v>
+        <v>0.225194</v>
       </c>
       <c r="D114" t="n">
-        <v>0.19644</v>
+        <v>0.187482</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.247307</v>
+        <v>0.246779</v>
       </c>
       <c r="C115" t="n">
-        <v>0.24368</v>
+        <v>0.227293</v>
       </c>
       <c r="D115" t="n">
-        <v>0.184903</v>
+        <v>0.194189</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.253596</v>
+        <v>0.253777</v>
       </c>
       <c r="C116" t="n">
-        <v>0.259505</v>
+        <v>0.235587</v>
       </c>
       <c r="D116" t="n">
-        <v>0.195001</v>
+        <v>0.19037</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.274164</v>
+        <v>0.268662</v>
       </c>
       <c r="C117" t="n">
-        <v>0.239892</v>
+        <v>0.238765</v>
       </c>
       <c r="D117" t="n">
-        <v>0.206736</v>
+        <v>0.196272</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.297981</v>
+        <v>0.27055</v>
       </c>
       <c r="C118" t="n">
-        <v>0.271075</v>
+        <v>0.248457</v>
       </c>
       <c r="D118" t="n">
-        <v>0.200604</v>
+        <v>0.216897</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.281533</v>
+        <v>0.279499</v>
       </c>
       <c r="C119" t="n">
-        <v>0.286935</v>
+        <v>0.259342</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209099</v>
+        <v>0.203162</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.30876</v>
+        <v>0.300375</v>
       </c>
       <c r="C120" t="n">
-        <v>0.288534</v>
+        <v>0.296934</v>
       </c>
       <c r="D120" t="n">
-        <v>0.220633</v>
+        <v>0.227195</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.324734</v>
+        <v>0.346876</v>
       </c>
       <c r="C121" t="n">
-        <v>0.317612</v>
+        <v>0.32068</v>
       </c>
       <c r="D121" t="n">
-        <v>0.255716</v>
+        <v>0.22837</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.523392</v>
+        <v>0.369062</v>
       </c>
       <c r="C122" t="n">
-        <v>0.437964</v>
+        <v>0.360948</v>
       </c>
       <c r="D122" t="n">
-        <v>0.308891</v>
+        <v>0.247419</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.599199</v>
+        <v>0.446006</v>
       </c>
       <c r="C123" t="n">
-        <v>0.518171</v>
+        <v>0.456733</v>
       </c>
       <c r="D123" t="n">
-        <v>0.284587</v>
+        <v>0.29151</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.3632</v>
+        <v>0.374118</v>
       </c>
       <c r="C124" t="n">
-        <v>0.320371</v>
+        <v>0.323805</v>
       </c>
       <c r="D124" t="n">
-        <v>0.280976</v>
+        <v>0.286174</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.370053</v>
+        <v>0.36798</v>
       </c>
       <c r="C125" t="n">
-        <v>0.332316</v>
+        <v>0.315206</v>
       </c>
       <c r="D125" t="n">
-        <v>0.289732</v>
+        <v>0.288399</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.374751</v>
+        <v>0.374496</v>
       </c>
       <c r="C126" t="n">
-        <v>0.324778</v>
+        <v>0.333015</v>
       </c>
       <c r="D126" t="n">
-        <v>0.284957</v>
+        <v>0.289068</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.378644</v>
+        <v>0.379978</v>
       </c>
       <c r="C127" t="n">
-        <v>0.336886</v>
+        <v>0.328867</v>
       </c>
       <c r="D127" t="n">
-        <v>0.300209</v>
+        <v>0.298708</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.382328</v>
+        <v>0.383279</v>
       </c>
       <c r="C128" t="n">
-        <v>0.339162</v>
+        <v>0.331432</v>
       </c>
       <c r="D128" t="n">
-        <v>0.305395</v>
+        <v>0.292082</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.412508</v>
+        <v>0.397014</v>
       </c>
       <c r="C129" t="n">
-        <v>0.355307</v>
+        <v>0.345415</v>
       </c>
       <c r="D129" t="n">
-        <v>0.298068</v>
+        <v>0.292628</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.40092</v>
+        <v>0.403887</v>
       </c>
       <c r="C130" t="n">
-        <v>0.358865</v>
+        <v>0.358419</v>
       </c>
       <c r="D130" t="n">
-        <v>0.304029</v>
+        <v>0.29605</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.414209</v>
+        <v>0.410437</v>
       </c>
       <c r="C131" t="n">
-        <v>0.369395</v>
+        <v>0.359416</v>
       </c>
       <c r="D131" t="n">
-        <v>0.309215</v>
+        <v>0.304944</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.427679</v>
+        <v>0.416935</v>
       </c>
       <c r="C132" t="n">
-        <v>0.375545</v>
+        <v>0.372395</v>
       </c>
       <c r="D132" t="n">
-        <v>0.320047</v>
+        <v>0.310733</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.44012</v>
+        <v>0.429932</v>
       </c>
       <c r="C133" t="n">
-        <v>0.381854</v>
+        <v>0.393866</v>
       </c>
       <c r="D133" t="n">
-        <v>0.315082</v>
+        <v>0.320287</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.45496</v>
+        <v>0.445406</v>
       </c>
       <c r="C134" t="n">
-        <v>0.40772</v>
+        <v>0.409553</v>
       </c>
       <c r="D134" t="n">
-        <v>0.330473</v>
+        <v>0.332563</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.490092</v>
+        <v>0.491081</v>
       </c>
       <c r="C135" t="n">
-        <v>0.445774</v>
+        <v>0.440541</v>
       </c>
       <c r="D135" t="n">
-        <v>0.344375</v>
+        <v>0.330149</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.549964</v>
+        <v>0.521081</v>
       </c>
       <c r="C136" t="n">
-        <v>0.508358</v>
+        <v>0.5037430000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>0.367384</v>
+        <v>0.35532</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.612792</v>
+        <v>0.599988</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5942</v>
+        <v>0.572538</v>
       </c>
       <c r="D137" t="n">
-        <v>0.338581</v>
+        <v>0.329912</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.449329</v>
+        <v>0.43983</v>
       </c>
       <c r="C138" t="n">
-        <v>0.386002</v>
+        <v>0.370248</v>
       </c>
       <c r="D138" t="n">
-        <v>0.345794</v>
+        <v>0.331287</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.465911</v>
+        <v>0.440086</v>
       </c>
       <c r="C139" t="n">
-        <v>0.384061</v>
+        <v>0.387956</v>
       </c>
       <c r="D139" t="n">
-        <v>0.347886</v>
+        <v>0.342762</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.462081</v>
+        <v>0.457966</v>
       </c>
       <c r="C140" t="n">
-        <v>0.398648</v>
+        <v>0.390202</v>
       </c>
       <c r="D140" t="n">
-        <v>0.358785</v>
+        <v>0.34166</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.470969</v>
+        <v>0.466741</v>
       </c>
       <c r="C141" t="n">
-        <v>0.392493</v>
+        <v>0.395962</v>
       </c>
       <c r="D141" t="n">
-        <v>0.353227</v>
+        <v>0.362359</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.465836</v>
+        <v>0.474949</v>
       </c>
       <c r="C142" t="n">
-        <v>0.398267</v>
+        <v>0.405705</v>
       </c>
       <c r="D142" t="n">
-        <v>0.356629</v>
+        <v>0.365799</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.477644</v>
+        <v>0.473597</v>
       </c>
       <c r="C143" t="n">
-        <v>0.418478</v>
+        <v>0.408668</v>
       </c>
       <c r="D143" t="n">
-        <v>0.366439</v>
+        <v>0.361208</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0610691</v>
+        <v>0.0602586</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0625675</v>
+        <v>0.06333229999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0566903</v>
+        <v>0.0574334</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0612484</v>
+        <v>0.06302779999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0632693</v>
+        <v>0.06607159999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.055983</v>
+        <v>0.0555377</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0662454</v>
+        <v>0.07036009999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0684264</v>
+        <v>0.0694171</v>
       </c>
       <c r="D4" t="n">
-        <v>0.057782</v>
+        <v>0.0570126</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0706291</v>
+        <v>0.07554379999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0765947</v>
+        <v>0.07598969999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0595863</v>
+        <v>0.0585461</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0772148</v>
+        <v>0.0817378</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08680789999999999</v>
+        <v>0.0858691</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0624017</v>
+        <v>0.0655163</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0933966</v>
+        <v>0.0966803</v>
       </c>
       <c r="C7" t="n">
-        <v>0.100801</v>
+        <v>0.105696</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0682759</v>
+        <v>0.0689131</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.118912</v>
+        <v>0.122076</v>
       </c>
       <c r="C8" t="n">
-        <v>0.132699</v>
+        <v>0.13221</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0779141</v>
+        <v>0.08156380000000001</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.155594</v>
+        <v>0.162593</v>
       </c>
       <c r="C9" t="n">
-        <v>0.164194</v>
+        <v>0.171139</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0541086</v>
+        <v>0.0551378</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0590761</v>
+        <v>0.0599309</v>
       </c>
       <c r="C10" t="n">
-        <v>0.057374</v>
+        <v>0.0570405</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0548119</v>
+        <v>0.0554328</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0594713</v>
+        <v>0.0598915</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0563752</v>
+        <v>0.0568364</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0540326</v>
+        <v>0.0541841</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.059161</v>
+        <v>0.0600541</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0570627</v>
+        <v>0.0566863</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0550517</v>
+        <v>0.0556176</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0606797</v>
+        <v>0.0611819</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0579001</v>
+        <v>0.0574649</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0543556</v>
+        <v>0.0555838</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0607299</v>
+        <v>0.0624309</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0594489</v>
+        <v>0.057779</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0584313</v>
+        <v>0.055455</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.06280040000000001</v>
+        <v>0.0641216</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0633169</v>
+        <v>0.0613879</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0564489</v>
+        <v>0.0569366</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0660066</v>
+        <v>0.0642799</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06551</v>
+        <v>0.0636047</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0562267</v>
+        <v>0.0586951</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0678439</v>
+        <v>0.06769559999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0685606</v>
+        <v>0.0680519</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0565079</v>
+        <v>0.0583841</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.06862649999999999</v>
+        <v>0.070476</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0715948</v>
+        <v>0.07473490000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0592363</v>
+        <v>0.0609198</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0742295</v>
+        <v>0.0788779</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07991860000000001</v>
+        <v>0.0818622</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06279559999999999</v>
+        <v>0.0633958</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0824028</v>
+        <v>0.08707429999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.090813</v>
+        <v>0.09257029999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0657177</v>
+        <v>0.0672049</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0906175</v>
+        <v>0.0955602</v>
       </c>
       <c r="C21" t="n">
-        <v>0.105904</v>
+        <v>0.105815</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0719936</v>
+        <v>0.0721378</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.111753</v>
+        <v>0.119572</v>
       </c>
       <c r="C22" t="n">
-        <v>0.134721</v>
+        <v>0.135938</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0835679</v>
+        <v>0.08375290000000001</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.144092</v>
+        <v>0.148912</v>
       </c>
       <c r="C23" t="n">
-        <v>0.172403</v>
+        <v>0.173551</v>
       </c>
       <c r="D23" t="n">
-        <v>0.056156</v>
+        <v>0.0566461</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06326130000000001</v>
+        <v>0.0629634</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0570488</v>
+        <v>0.05738</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0566028</v>
+        <v>0.0567541</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0630193</v>
+        <v>0.0682581</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0579378</v>
+        <v>0.0578635</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0557302</v>
+        <v>0.055792</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.06446300000000001</v>
+        <v>0.0631982</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0596752</v>
+        <v>0.0601707</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0564754</v>
+ 